--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845E4116-6E1B-B84C-9455-64AA41203703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D143F94-C717-494D-BC0E-E723E05371E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" activeTab="3" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
   <sheets>
     <sheet name="exceedances" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10330" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10370" uniqueCount="274">
   <si>
     <t>Analyte</t>
   </si>
@@ -842,6 +842,36 @@
   <si>
     <t>Monsoon</t>
   </si>
+  <si>
+    <t>low r2 high rmse</t>
+  </si>
+  <si>
+    <t>low ish r2, high rmse</t>
+  </si>
+  <si>
+    <t>low r2, high rmse, non-normal residuals</t>
+  </si>
+  <si>
+    <t>+++</t>
+  </si>
+  <si>
+    <t>low r2, high rmse</t>
+  </si>
+  <si>
+    <t>low ish r2, non-normal residuals</t>
+  </si>
+  <si>
+    <t>low r2, non-normal residuals</t>
+  </si>
+  <si>
+    <t>Table X. Reliability of logisitc models with significant variable effects for various standards/recommendations/action levels/limits</t>
+  </si>
+  <si>
+    <t>OLD DO NOT USE</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
 </sst>
 </file>
 
@@ -878,7 +908,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,6 +949,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1108,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1203,6 +1239,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,1136 +1295,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Probability of AI Exceedance - Cu, Hayden/Winkelman</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>exceedances!$AA$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Prob - Winter</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>exceedances!$Z$54:$Z$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>exceedances!$AA$54:$AA$58</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.1067679999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6850040000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8774519999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.0000">
-                  <c:v>9.4780699999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0000">
-                  <c:v>4.76254E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0DD0-8D47-B9EF-08F59BE3CDD1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>exceedances!$AB$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Prob - Monsoon</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>exceedances!$Z$54:$Z$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>exceedances!$AB$54:$AB$58</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.37786134999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2329756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13186895000000001</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.000">
-                  <c:v>7.0601689999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.000">
-                  <c:v>3.659958E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0DD0-8D47-B9EF-08F59BE3CDD1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="142856607"/>
-        <c:axId val="258248207"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="142856607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Distance From Smelter</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (km)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="258248207"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="258248207"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Probability of Exceedance</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="142856607"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A9261D-BC7D-36E0-B2A7-253EF0402626}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2647,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0D4DAB-8658-6540-A6EF-06375FD0FCC4}">
-  <dimension ref="A1:AC73"/>
+  <dimension ref="A1:AJ82"/>
   <sheetViews>
-    <sheetView topLeftCell="F46" workbookViewId="0">
-      <selection activeCell="AG72" sqref="AG72"/>
+    <sheetView tabSelected="1" topLeftCell="Y54" workbookViewId="0">
+      <selection activeCell="AI83" sqref="AI83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2666,7 +1613,13 @@
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="26" width="10.83203125" style="1"/>
     <col min="27" max="27" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="1"/>
+    <col min="28" max="31" width="10.83203125" style="1"/>
+    <col min="32" max="32" width="22.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="20" style="1" customWidth="1"/>
+    <col min="34" max="34" width="36.33203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="21.83203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3104,7 +2057,7 @@
       <c r="P32" s="42"/>
       <c r="Q32" s="42"/>
     </row>
-    <row r="33" spans="13:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="13:29" x14ac:dyDescent="0.2">
       <c r="M33" s="45"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
@@ -3119,7 +2072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="13:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="13:29" ht="17" x14ac:dyDescent="0.2">
       <c r="M34" s="25" t="s">
         <v>56</v>
       </c>
@@ -3133,7 +2086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="13:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="13:29" ht="17" x14ac:dyDescent="0.2">
       <c r="M35" s="25" t="s">
         <v>55</v>
       </c>
@@ -3150,7 +2103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="13:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="13:29" ht="17" x14ac:dyDescent="0.2">
       <c r="M36" s="25" t="s">
         <v>54</v>
       </c>
@@ -3158,7 +2111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="13:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="13:29" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M37" s="26" t="s">
         <v>57</v>
       </c>
@@ -3173,195 +2126,186 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="13:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S41" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-    </row>
-    <row r="42" spans="13:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="S42" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="T42" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-    </row>
-    <row r="43" spans="13:23" x14ac:dyDescent="0.2">
-      <c r="S43" s="45"/>
-      <c r="T43" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="V43" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="W43" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="13:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="S44" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="13:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="S45" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="13:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="S46" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="13:23" ht="85" x14ac:dyDescent="0.2">
-      <c r="S47" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="V47" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="W47" s="13" t="s">
-        <v>62</v>
+    <row r="43" spans="13:29" x14ac:dyDescent="0.2">
+      <c r="Y43" s="64" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="13:29" x14ac:dyDescent="0.2">
+      <c r="Y44" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z44" s="46"/>
+      <c r="AA44" s="46"/>
+      <c r="AB44" s="46"/>
+      <c r="AC44" s="46"/>
+    </row>
+    <row r="45" spans="13:29" x14ac:dyDescent="0.2">
+      <c r="Y45" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z45" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="13:29" x14ac:dyDescent="0.2">
+      <c r="Y46" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB46" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="13:29" x14ac:dyDescent="0.2">
+      <c r="Y47" s="49"/>
+      <c r="Z47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="32">
+        <v>7.1067679999999994E-2</v>
+      </c>
+      <c r="AB47" s="35">
+        <v>0.37786134999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="13:29" x14ac:dyDescent="0.2">
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AA48" s="32">
+        <v>3.6850040000000001E-2</v>
+      </c>
+      <c r="AB48" s="35">
+        <v>0.2329756</v>
+      </c>
+    </row>
+    <row r="49" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y49" s="49"/>
+      <c r="Z49" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="32">
+        <v>1.8774519999999999E-2</v>
+      </c>
+      <c r="AB49" s="35">
+        <v>0.13186895000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="25:29" x14ac:dyDescent="0.2">
+      <c r="Y50" s="49"/>
+      <c r="Z50" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AA50" s="29">
+        <v>9.4780699999999999E-3</v>
+      </c>
+      <c r="AB50" s="32">
+        <v>7.0601689999999995E-2</v>
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="46"/>
-      <c r="AB51" s="46"/>
-      <c r="AC51" s="46"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA51" s="30">
+        <v>4.76254E-3</v>
+      </c>
+      <c r="AB51" s="33">
+        <v>3.659958E-2</v>
+      </c>
+      <c r="AC51" s="13"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y52" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z52" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA52" s="47"/>
-      <c r="AB52" s="47"/>
-      <c r="AC52" s="13" t="s">
-        <v>74</v>
+      <c r="Y52" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC52" s="50" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z53" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA53" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB53" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="Y53" s="49"/>
+      <c r="Z53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="34">
+        <v>6.1733623452348702E-2</v>
+      </c>
+      <c r="AC53" s="51"/>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
       <c r="Y54" s="49"/>
-      <c r="Z54" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="32">
-        <v>7.1067679999999994E-2</v>
-      </c>
-      <c r="AB54" s="35">
-        <v>0.37786134999999998</v>
-      </c>
+      <c r="Z54" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA54" s="34">
+        <v>1.20772053410085E-2</v>
+      </c>
+      <c r="AC54" s="51"/>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
       <c r="Y55" s="49"/>
-      <c r="Z55" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AA55" s="32">
-        <v>3.6850040000000001E-2</v>
-      </c>
-      <c r="AB55" s="35">
-        <v>0.2329756</v>
-      </c>
+      <c r="Z55" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA55" s="31">
+        <v>2.2662402083130201E-3</v>
+      </c>
+      <c r="AC55" s="51"/>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
       <c r="Y56" s="49"/>
-      <c r="Z56" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="32">
-        <v>1.8774519999999999E-2</v>
-      </c>
-      <c r="AB56" s="35">
-        <v>0.13186895000000001</v>
-      </c>
+      <c r="Z56" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA56" s="28">
+        <v>4.2184786680835203E-4</v>
+      </c>
+      <c r="AC56" s="51"/>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
       <c r="Y57" s="49"/>
-      <c r="Z57" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="AA57" s="29">
-        <v>9.4780699999999999E-3</v>
-      </c>
-      <c r="AB57" s="32">
-        <v>7.0601689999999995E-2</v>
-      </c>
+      <c r="Z57" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA57" s="28">
+        <v>7.8406646322768398E-5</v>
+      </c>
+      <c r="AC57" s="51"/>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
       <c r="Y58" s="45"/>
-      <c r="Z58" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA58" s="30">
-        <v>4.76254E-3</v>
-      </c>
-      <c r="AB58" s="33">
-        <v>3.659958E-2</v>
-      </c>
-      <c r="AC58" s="13"/>
+      <c r="Z58" s="13">
+        <v>10</v>
+      </c>
+      <c r="AA58" s="27">
+        <v>1.4568956039108299E-5</v>
+      </c>
+      <c r="AB58" s="13"/>
+      <c r="AC58" s="52"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
       <c r="Y59" s="48" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Z59" s="1" t="s">
         <v>68</v>
@@ -3379,164 +2323,302 @@
         <v>0</v>
       </c>
       <c r="AA60" s="34">
-        <v>6.1733623452348702E-2</v>
+        <v>4.213704983443E-2</v>
       </c>
       <c r="AC60" s="51"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
       <c r="Y61" s="49"/>
       <c r="Z61" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA61" s="34">
-        <v>1.20772053410085E-2</v>
+        <v>4</v>
+      </c>
+      <c r="AA61" s="36">
+        <v>0.70383460067707004</v>
       </c>
       <c r="AC61" s="51"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
       <c r="Y62" s="49"/>
       <c r="Z62" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA62" s="31">
-        <v>2.2662402083130201E-3</v>
+        <v>8</v>
+      </c>
+      <c r="AA62" s="36">
+        <v>0.99227108557330002</v>
       </c>
       <c r="AC62" s="51"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
       <c r="Y63" s="49"/>
       <c r="Z63" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA63" s="28">
-        <v>4.2184786680835203E-4</v>
+        <v>12</v>
+      </c>
+      <c r="AA63" s="37">
+        <v>0.99985583826317304</v>
       </c>
       <c r="AC63" s="51"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
       <c r="Y64" s="49"/>
       <c r="Z64" s="1">
-        <v>8</v>
-      </c>
-      <c r="AA64" s="28">
-        <v>7.8406646322768398E-5</v>
+        <v>16</v>
+      </c>
+      <c r="AA64" s="37">
+        <v>0.99999733107778499</v>
       </c>
       <c r="AC64" s="51"/>
     </row>
-    <row r="65" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y65" s="45"/>
-      <c r="Z65" s="13">
-        <v>10</v>
-      </c>
-      <c r="AA65" s="27">
-        <v>1.4568956039108299E-5</v>
-      </c>
-      <c r="AB65" s="13"/>
-      <c r="AC65" s="52"/>
-    </row>
-    <row r="66" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y66" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC66" s="50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y67" s="49"/>
-      <c r="Z67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="34">
-        <v>4.213704983443E-2</v>
-      </c>
-      <c r="AC67" s="51"/>
-    </row>
-    <row r="68" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y68" s="49"/>
-      <c r="Z68" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA68" s="36">
-        <v>0.70383460067707004</v>
-      </c>
-      <c r="AC68" s="51"/>
-    </row>
-    <row r="69" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y69" s="49"/>
-      <c r="Z69" s="1">
-        <v>8</v>
-      </c>
-      <c r="AA69" s="36">
-        <v>0.99227108557330002</v>
-      </c>
-      <c r="AC69" s="51"/>
-    </row>
-    <row r="70" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y70" s="49"/>
-      <c r="Z70" s="1">
+    <row r="65" spans="25:36" x14ac:dyDescent="0.2">
+      <c r="Y65" s="49"/>
+      <c r="Z65" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA65" s="37">
+        <v>0.99999995059606805</v>
+      </c>
+      <c r="AC65" s="51"/>
+    </row>
+    <row r="66" spans="25:36" x14ac:dyDescent="0.2">
+      <c r="Y66" s="45"/>
+      <c r="Z66" s="13">
+        <v>24</v>
+      </c>
+      <c r="AA66" s="38">
+        <v>0.99999999908549497</v>
+      </c>
+      <c r="AB66" s="13"/>
+      <c r="AC66" s="52"/>
+    </row>
+    <row r="71" spans="25:36" x14ac:dyDescent="0.2">
+      <c r="AD71" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="25:36" x14ac:dyDescent="0.2">
+      <c r="AD72" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE72" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG72" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH72" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI72" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ72" s="25"/>
+    </row>
+    <row r="73" spans="25:36" ht="34" x14ac:dyDescent="0.2">
+      <c r="AD73" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE73" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF73" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG73" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH73" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI73" s="71" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="25:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD74" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE74" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF74" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG74" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH74" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI74" s="72" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="25:36" ht="34" x14ac:dyDescent="0.2">
+      <c r="AD75" s="52"/>
+      <c r="AE75" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF75" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG75" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH75" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI75" s="61" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="25:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD76" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE76" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF76" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG76" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH76" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI76" s="72" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="25:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD77" s="70"/>
+      <c r="AE77" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF77" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG77" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH77" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI77" s="63" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="25:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD78" s="52"/>
+      <c r="AE78" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AA70" s="37">
-        <v>0.99985583826317304</v>
-      </c>
-      <c r="AC70" s="51"/>
-    </row>
-    <row r="71" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y71" s="49"/>
-      <c r="Z71" s="1">
+      <c r="AF78" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG78" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH78" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI78" s="61" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="25:36" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD79" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE79" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="AA71" s="37">
-        <v>0.99999733107778499</v>
-      </c>
-      <c r="AC71" s="51"/>
-    </row>
-    <row r="72" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y72" s="49"/>
-      <c r="Z72" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA72" s="37">
-        <v>0.99999995059606805</v>
-      </c>
-      <c r="AC72" s="51"/>
-    </row>
-    <row r="73" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y73" s="45"/>
-      <c r="Z73" s="13">
-        <v>24</v>
-      </c>
-      <c r="AA73" s="38">
-        <v>0.99999999908549497</v>
-      </c>
-      <c r="AB73" s="13"/>
-      <c r="AC73" s="52"/>
+      <c r="AF79" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG79" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH79" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI79" s="72" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="25:36" ht="34" x14ac:dyDescent="0.2">
+      <c r="AD80" s="70"/>
+      <c r="AE80" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF80" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG80" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH80" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI80" s="63" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="30:35" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD81" s="70"/>
+      <c r="AE81" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF81" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG81" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH81" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI81" s="63" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="30:35" ht="34" x14ac:dyDescent="0.2">
+      <c r="AD82" s="52"/>
+      <c r="AE82" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF82" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG82" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH82" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI82" s="61" t="s">
+        <v>273</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="Y51:AC51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="Y53:Y58"/>
-    <mergeCell ref="Y59:Y65"/>
-    <mergeCell ref="Y66:Y73"/>
-    <mergeCell ref="AC59:AC65"/>
-    <mergeCell ref="AC66:AC73"/>
+    <mergeCell ref="AD74:AD75"/>
+    <mergeCell ref="AD76:AD78"/>
+    <mergeCell ref="AD79:AD82"/>
+    <mergeCell ref="Y44:AC44"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="Y46:Y51"/>
+    <mergeCell ref="Y52:Y58"/>
+    <mergeCell ref="Y59:Y66"/>
+    <mergeCell ref="AC52:AC58"/>
+    <mergeCell ref="AC59:AC66"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="M31:Q31"/>
     <mergeCell ref="M32:M33"/>
-    <mergeCell ref="S41:W41"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="T42:W42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5017,7 +4099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9F63A6-D668-3143-8DC9-34686F6E9D3E}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D143F94-C717-494D-BC0E-E723E05371E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89413B-AB83-624D-A985-B637EB229BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10370" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10427" uniqueCount="302">
   <si>
     <t>Analyte</t>
   </si>
@@ -872,6 +872,108 @@
   <si>
     <t>--</t>
   </si>
+  <si>
+    <t>Table X. Model summaries for robust exceedance logistic regressions</t>
+  </si>
+  <si>
+    <t>Standard/recommendation/action level/limit</t>
+  </si>
+  <si>
+    <t>Levels</t>
+  </si>
+  <si>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>US EPA Drinking Water
+USDA Livestock and Poultry Drinking Water</t>
+  </si>
+  <si>
+    <t>USDA Agricultural Irrigation</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>z-value</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Refere ce levels</t>
+  </si>
+  <si>
+    <t>Season - Monsoon</t>
+  </si>
+  <si>
+    <t>Season - Winter</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>-5.00</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>-4.90</t>
+  </si>
+  <si>
+    <t>-3.03</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>-8.46</t>
+  </si>
+  <si>
+    <t>-2.03</t>
+  </si>
+  <si>
+    <t>5.57</t>
+  </si>
+  <si>
+    <t>Estimate
+(log odds)</t>
+  </si>
+  <si>
+    <t>AIC = 115
+Null AIC = 136
+Tijur's R2  = 0.209
+RMSE = 0.378
+Log Loss = 0.443</t>
+  </si>
+  <si>
+    <t>AIC = 66.0
+Null AIC = 82.4
+Tijur's R2  = 0.266
+RMSE = 0.320
+Log Loss = 0.341</t>
+  </si>
+  <si>
+    <t>AIC = 53.1
+Null AIC = 82.4
+Tijur's R2  = 0.439
+RMSE = 0.280
+Log Loss = 0.268</t>
+  </si>
+  <si>
+    <t>AIC = 147
+Null AIC = 184
+Tijur's R2  = 0.178
+RMSE = 0.271
+Log Loss = 0.250</t>
+  </si>
 </sst>
 </file>
 
@@ -1191,17 +1293,48 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1215,14 +1348,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1239,46 +1375,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1594,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0D4DAB-8658-6540-A6EF-06375FD0FCC4}">
-  <dimension ref="A1:AJ82"/>
+  <dimension ref="A1:AU100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y54" workbookViewId="0">
-      <selection activeCell="AI83" sqref="AI83"/>
+    <sheetView tabSelected="1" topLeftCell="AM91" zoomScale="157" workbookViewId="0">
+      <selection activeCell="AU101" sqref="AU101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1619,7 +1723,18 @@
     <col min="34" max="34" width="36.33203125" style="1" customWidth="1"/>
     <col min="35" max="35" width="21.83203125" style="1" customWidth="1"/>
     <col min="36" max="36" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="10.83203125" style="1"/>
+    <col min="37" max="37" width="10.83203125" style="1"/>
+    <col min="38" max="38" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.1640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.33203125" style="1" customWidth="1"/>
+    <col min="48" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2038,27 +2153,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="43" t="s">
+      <c r="M31" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="44" t="s">
+      <c r="M32" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="42" t="s">
+      <c r="N32" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
     </row>
     <row r="33" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M33" s="45"/>
+      <c r="M33" s="61"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -2127,34 +2242,34 @@
       </c>
     </row>
     <row r="43" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y43" s="64" t="s">
+      <c r="Y43" s="46" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="44" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y44" s="46" t="s">
+      <c r="Y44" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="Z44" s="46"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
+      <c r="Z44" s="57"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
     </row>
     <row r="45" spans="13:29" x14ac:dyDescent="0.2">
       <c r="Y45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Z45" s="47" t="s">
+      <c r="Z45" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="47"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58"/>
       <c r="AC45" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y46" s="48" t="s">
+      <c r="Y46" s="59" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="8" t="s">
@@ -2168,7 +2283,7 @@
       </c>
     </row>
     <row r="47" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y47" s="49"/>
+      <c r="Y47" s="60"/>
       <c r="Z47" s="8">
         <v>0</v>
       </c>
@@ -2180,7 +2295,7 @@
       </c>
     </row>
     <row r="48" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y48" s="49"/>
+      <c r="Y48" s="60"/>
       <c r="Z48" s="8">
         <v>0.5</v>
       </c>
@@ -2192,7 +2307,7 @@
       </c>
     </row>
     <row r="49" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y49" s="49"/>
+      <c r="Y49" s="60"/>
       <c r="Z49" s="8">
         <v>1</v>
       </c>
@@ -2204,7 +2319,7 @@
       </c>
     </row>
     <row r="50" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y50" s="49"/>
+      <c r="Y50" s="60"/>
       <c r="Z50" s="8">
         <v>1.5</v>
       </c>
@@ -2216,7 +2331,7 @@
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="45"/>
+      <c r="Y51" s="61"/>
       <c r="Z51" s="11">
         <v>2</v>
       </c>
@@ -2229,7 +2344,7 @@
       <c r="AC51" s="13"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y52" s="48" t="s">
+      <c r="Y52" s="59" t="s">
         <v>69</v>
       </c>
       <c r="Z52" s="1" t="s">
@@ -2238,62 +2353,62 @@
       <c r="AA52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC52" s="50" t="s">
+      <c r="AC52" s="54" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="49"/>
+      <c r="Y53" s="60"/>
       <c r="Z53" s="1">
         <v>0</v>
       </c>
       <c r="AA53" s="34">
         <v>6.1733623452348702E-2</v>
       </c>
-      <c r="AC53" s="51"/>
+      <c r="AC53" s="56"/>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y54" s="49"/>
+      <c r="Y54" s="60"/>
       <c r="Z54" s="1">
         <v>2</v>
       </c>
       <c r="AA54" s="34">
         <v>1.20772053410085E-2</v>
       </c>
-      <c r="AC54" s="51"/>
+      <c r="AC54" s="56"/>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y55" s="49"/>
+      <c r="Y55" s="60"/>
       <c r="Z55" s="1">
         <v>4</v>
       </c>
       <c r="AA55" s="31">
         <v>2.2662402083130201E-3</v>
       </c>
-      <c r="AC55" s="51"/>
+      <c r="AC55" s="56"/>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y56" s="49"/>
+      <c r="Y56" s="60"/>
       <c r="Z56" s="1">
         <v>6</v>
       </c>
       <c r="AA56" s="28">
         <v>4.2184786680835203E-4</v>
       </c>
-      <c r="AC56" s="51"/>
+      <c r="AC56" s="56"/>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y57" s="49"/>
+      <c r="Y57" s="60"/>
       <c r="Z57" s="1">
         <v>8</v>
       </c>
       <c r="AA57" s="28">
         <v>7.8406646322768398E-5</v>
       </c>
-      <c r="AC57" s="51"/>
+      <c r="AC57" s="56"/>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y58" s="45"/>
+      <c r="Y58" s="61"/>
       <c r="Z58" s="13">
         <v>10</v>
       </c>
@@ -2301,10 +2416,10 @@
         <v>1.4568956039108299E-5</v>
       </c>
       <c r="AB58" s="13"/>
-      <c r="AC58" s="52"/>
+      <c r="AC58" s="55"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y59" s="48" t="s">
+      <c r="Y59" s="59" t="s">
         <v>73</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -2313,72 +2428,72 @@
       <c r="AA59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" s="50" t="s">
+      <c r="AC59" s="54" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y60" s="49"/>
+      <c r="Y60" s="60"/>
       <c r="Z60" s="1">
         <v>0</v>
       </c>
       <c r="AA60" s="34">
         <v>4.213704983443E-2</v>
       </c>
-      <c r="AC60" s="51"/>
+      <c r="AC60" s="56"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y61" s="49"/>
+      <c r="Y61" s="60"/>
       <c r="Z61" s="1">
         <v>4</v>
       </c>
       <c r="AA61" s="36">
         <v>0.70383460067707004</v>
       </c>
-      <c r="AC61" s="51"/>
+      <c r="AC61" s="56"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y62" s="49"/>
+      <c r="Y62" s="60"/>
       <c r="Z62" s="1">
         <v>8</v>
       </c>
       <c r="AA62" s="36">
         <v>0.99227108557330002</v>
       </c>
-      <c r="AC62" s="51"/>
+      <c r="AC62" s="56"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y63" s="49"/>
+      <c r="Y63" s="60"/>
       <c r="Z63" s="1">
         <v>12</v>
       </c>
       <c r="AA63" s="37">
         <v>0.99985583826317304</v>
       </c>
-      <c r="AC63" s="51"/>
+      <c r="AC63" s="56"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y64" s="49"/>
+      <c r="Y64" s="60"/>
       <c r="Z64" s="1">
         <v>16</v>
       </c>
       <c r="AA64" s="37">
         <v>0.99999733107778499</v>
       </c>
-      <c r="AC64" s="51"/>
+      <c r="AC64" s="56"/>
     </row>
     <row r="65" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y65" s="49"/>
+      <c r="Y65" s="60"/>
       <c r="Z65" s="1">
         <v>20</v>
       </c>
       <c r="AA65" s="37">
         <v>0.99999995059606805</v>
       </c>
-      <c r="AC65" s="51"/>
+      <c r="AC65" s="56"/>
     </row>
     <row r="66" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y66" s="45"/>
+      <c r="Y66" s="61"/>
       <c r="Z66" s="13">
         <v>24</v>
       </c>
@@ -2386,7 +2501,7 @@
         <v>0.99999999908549497</v>
       </c>
       <c r="AB66" s="13"/>
-      <c r="AC66" s="52"/>
+      <c r="AC66" s="55"/>
     </row>
     <row r="71" spans="25:36" x14ac:dyDescent="0.2">
       <c r="AD71" s="1" t="s">
@@ -2394,199 +2509,199 @@
       </c>
     </row>
     <row r="72" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="AD72" s="58" t="s">
+      <c r="AD72" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AE72" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="58" t="s">
+      <c r="AE72" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AG72" s="58" t="s">
+      <c r="AG72" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AH72" s="58" t="s">
+      <c r="AH72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI72" s="58" t="s">
+      <c r="AI72" s="13" t="s">
         <v>54</v>
       </c>
       <c r="AJ72" s="25"/>
     </row>
     <row r="73" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD73" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE73" s="65" t="s">
+      <c r="AD73" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE73" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AF73" s="71" t="s">
+      <c r="AF73" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="AG73" s="59" t="s">
+      <c r="AG73" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="AH73" s="71" t="s">
+      <c r="AH73" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="AI73" s="71" t="s">
+      <c r="AI73" s="52" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="74" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD74" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE74" s="66" t="s">
+      <c r="AD74" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE74" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AF74" s="72" t="s">
+      <c r="AF74" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="AG74" s="60" t="s">
+      <c r="AG74" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="AH74" s="72" t="s">
+      <c r="AH74" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="AI74" s="72" t="s">
+      <c r="AI74" s="53" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="75" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="52"/>
-      <c r="AE75" s="67" t="s">
+      <c r="AD75" s="55"/>
+      <c r="AE75" s="49" t="s">
         <v>13</v>
       </c>
       <c r="AF75" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="AG75" s="61" t="s">
+      <c r="AG75" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="AH75" s="61" t="s">
+      <c r="AH75" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="AI75" s="61" t="s">
+      <c r="AI75" s="44" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="76" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD76" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE76" s="66" t="s">
+      <c r="AD76" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE76" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AF76" s="72" t="s">
+      <c r="AF76" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="AG76" s="60" t="s">
+      <c r="AG76" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="AH76" s="72" t="s">
+      <c r="AH76" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="AI76" s="72" t="s">
+      <c r="AI76" s="53" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="77" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD77" s="70"/>
-      <c r="AE77" s="68" t="s">
+      <c r="AD77" s="56"/>
+      <c r="AE77" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AF77" s="63" t="s">
+      <c r="AF77" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="AG77" s="63" t="s">
+      <c r="AG77" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="AH77" s="63" t="s">
+      <c r="AH77" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="AI77" s="63" t="s">
+      <c r="AI77" s="45" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="78" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD78" s="52"/>
-      <c r="AE78" s="67" t="s">
+      <c r="AD78" s="55"/>
+      <c r="AE78" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AF78" s="61" t="s">
+      <c r="AF78" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="AG78" s="61" t="s">
+      <c r="AG78" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="AH78" s="61" t="s">
+      <c r="AH78" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="AI78" s="61" t="s">
+      <c r="AI78" s="44" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="79" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD79" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE79" s="66" t="s">
+      <c r="AD79" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE79" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AF79" s="72" t="s">
+      <c r="AF79" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="AG79" s="60" t="s">
+      <c r="AG79" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="AH79" s="72" t="s">
+      <c r="AH79" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="AI79" s="72" t="s">
+      <c r="AI79" s="53" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="80" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="70"/>
-      <c r="AE80" s="68" t="s">
+      <c r="AD80" s="56"/>
+      <c r="AE80" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AF80" s="63" t="s">
+      <c r="AF80" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="AG80" s="62" t="s">
+      <c r="AG80" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="AH80" s="62" t="s">
+      <c r="AH80" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="AI80" s="63" t="s">
+      <c r="AI80" s="45" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="81" spans="30:35" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD81" s="70"/>
-      <c r="AE81" s="68" t="s">
+    <row r="81" spans="30:47" ht="17" x14ac:dyDescent="0.2">
+      <c r="AD81" s="56"/>
+      <c r="AE81" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AF81" s="63" t="s">
+      <c r="AF81" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="AG81" s="63" t="s">
+      <c r="AG81" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="AH81" s="63" t="s">
+      <c r="AH81" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="AI81" s="63" t="s">
+      <c r="AI81" s="45" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="30:35" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD82" s="52"/>
-      <c r="AE82" s="67" t="s">
+    <row r="82" spans="30:47" ht="34" x14ac:dyDescent="0.2">
+      <c r="AD82" s="55"/>
+      <c r="AE82" s="49" t="s">
         <v>15</v>
       </c>
       <c r="AF82" s="26" t="s">
@@ -2595,15 +2710,386 @@
       <c r="AG82" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="AH82" s="61" t="s">
+      <c r="AH82" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="AI82" s="61" t="s">
+      <c r="AI82" s="44" t="s">
         <v>273</v>
       </c>
     </row>
+    <row r="87" spans="30:47" x14ac:dyDescent="0.2">
+      <c r="AL87" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM87" s="57"/>
+      <c r="AN87" s="57"/>
+      <c r="AO87" s="57"/>
+      <c r="AP87" s="57"/>
+      <c r="AQ87" s="57"/>
+      <c r="AR87" s="57"/>
+      <c r="AS87" s="57"/>
+      <c r="AT87" s="57"/>
+      <c r="AU87" s="57"/>
+    </row>
+    <row r="88" spans="30:47" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL88" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AN88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO88" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP88" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="AQ88" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AR88" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AS88" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT88" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU88" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL89" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM89" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="AN89" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO89" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP89" s="72">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="AQ89" s="72">
+        <v>0.372</v>
+      </c>
+      <c r="AR89" s="72">
+        <v>-5.57</v>
+      </c>
+      <c r="AS89" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT89" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU89" s="71" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL90" s="70"/>
+      <c r="AM90" s="71"/>
+      <c r="AN90" s="60"/>
+      <c r="AO90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP90" s="72">
+        <v>-0.82199999999999995</v>
+      </c>
+      <c r="AQ90" s="72">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="AR90" s="72">
+        <v>-3.19</v>
+      </c>
+      <c r="AS90" s="72">
+        <v>1E-3</v>
+      </c>
+      <c r="AT90" s="70"/>
+      <c r="AU90" s="71"/>
+    </row>
+    <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL91" s="70"/>
+      <c r="AM91" s="71"/>
+      <c r="AN91" s="60"/>
+      <c r="AO91" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AP91" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="AQ91" s="72">
+        <v>0.503</v>
+      </c>
+      <c r="AR91" s="72">
+        <v>3.78</v>
+      </c>
+      <c r="AS91" s="72">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AT91" s="70"/>
+      <c r="AU91" s="71"/>
+    </row>
+    <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL92" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM92" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN92" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO92" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP92" s="72">
+        <v>-2.57</v>
+      </c>
+      <c r="AQ92" s="72">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="AR92" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="AS92" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT92" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU92" s="71" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL93" s="70"/>
+      <c r="AM93" s="70"/>
+      <c r="AN93" s="60"/>
+      <c r="AO93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP93" s="72">
+        <v>-1.39</v>
+      </c>
+      <c r="AQ93" s="72">
+        <v>0.497</v>
+      </c>
+      <c r="AR93" s="72">
+        <v>-2.79</v>
+      </c>
+      <c r="AS93" s="72">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT93" s="70"/>
+      <c r="AU93" s="71"/>
+    </row>
+    <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL94" s="70"/>
+      <c r="AM94" s="70"/>
+      <c r="AN94" s="60"/>
+      <c r="AO94" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AP94" s="72">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AQ94" s="72">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="AR94" s="72">
+        <v>3.0310000000000001</v>
+      </c>
+      <c r="AS94" s="72">
+        <v>2E-3</v>
+      </c>
+      <c r="AT94" s="70"/>
+      <c r="AU94" s="71"/>
+    </row>
+    <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL95" s="70"/>
+      <c r="AM95" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="AN95" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP95" s="72">
+        <v>-3.36</v>
+      </c>
+      <c r="AQ95" s="72">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="AR95" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS95" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT95" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU95" s="71" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL96" s="70"/>
+      <c r="AM96" s="71"/>
+      <c r="AN96" s="60"/>
+      <c r="AO96" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP96" s="72">
+        <v>-1.91</v>
+      </c>
+      <c r="AQ96" s="72">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="AR96" s="72" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS96" s="72">
+        <v>2E-3</v>
+      </c>
+      <c r="AT96" s="70"/>
+      <c r="AU96" s="71"/>
+    </row>
+    <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL97" s="70"/>
+      <c r="AM97" s="71"/>
+      <c r="AN97" s="60"/>
+      <c r="AO97" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AP97" s="72">
+        <v>3.31</v>
+      </c>
+      <c r="AQ97" s="72">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="AR97" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="AS97" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT97" s="70"/>
+      <c r="AU97" s="71"/>
+    </row>
+    <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL98" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM98" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="AN98" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO98" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP98" s="72">
+        <v>-3.67</v>
+      </c>
+      <c r="AQ98" s="72">
+        <v>0.434</v>
+      </c>
+      <c r="AR98" s="72" t="s">
+        <v>294</v>
+      </c>
+      <c r="AS98" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT98" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU98" s="71" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL99" s="70"/>
+      <c r="AM99" s="71"/>
+      <c r="AN99" s="60"/>
+      <c r="AO99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP99" s="72">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="AQ99" s="72">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AR99" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS99" s="72">
+        <v>0.04</v>
+      </c>
+      <c r="AT99" s="70"/>
+      <c r="AU99" s="71"/>
+    </row>
+    <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL100" s="70"/>
+      <c r="AM100" s="71"/>
+      <c r="AN100" s="60"/>
+      <c r="AO100" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AP100" s="72" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ100" s="72">
+        <v>0.502</v>
+      </c>
+      <c r="AR100" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS100" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT100" s="70"/>
+      <c r="AU100" s="71"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="33">
+    <mergeCell ref="AN98:AN100"/>
+    <mergeCell ref="AM98:AM100"/>
+    <mergeCell ref="AL98:AL100"/>
+    <mergeCell ref="AL92:AL97"/>
+    <mergeCell ref="AM92:AM94"/>
+    <mergeCell ref="AM95:AM97"/>
+    <mergeCell ref="AN92:AN94"/>
+    <mergeCell ref="AN95:AN97"/>
+    <mergeCell ref="AT92:AT94"/>
+    <mergeCell ref="AU92:AU94"/>
+    <mergeCell ref="AU95:AU97"/>
+    <mergeCell ref="AT95:AT97"/>
+    <mergeCell ref="AT98:AT100"/>
+    <mergeCell ref="AU98:AU100"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="AT89:AT91"/>
+    <mergeCell ref="AU89:AU91"/>
+    <mergeCell ref="AL89:AL91"/>
+    <mergeCell ref="AM89:AM91"/>
+    <mergeCell ref="AN89:AN91"/>
+    <mergeCell ref="AL87:AU87"/>
     <mergeCell ref="AD74:AD75"/>
     <mergeCell ref="AD76:AD78"/>
     <mergeCell ref="AD79:AD82"/>
@@ -2614,9 +3100,6 @@
     <mergeCell ref="Y59:Y66"/>
     <mergeCell ref="AC52:AC58"/>
     <mergeCell ref="AC59:AC66"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="M32:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2636,35 +3119,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="53" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55" t="s">
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="66"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
@@ -3823,14 +4306,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
@@ -3853,7 +4336,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="59" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -3867,7 +4350,7 @@
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="49"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
@@ -3876,7 +4359,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="49"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3885,7 +4368,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="49"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -3894,7 +4377,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="45"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
@@ -3906,7 +4389,7 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="59" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -3920,7 +4403,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="49"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3932,7 +4415,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="49"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -3944,7 +4427,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -3953,7 +4436,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -3965,7 +4448,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="59" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -3981,7 +4464,7 @@
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="49"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3993,7 +4476,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="49"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -4008,7 +4491,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="49"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -4020,7 +4503,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="45"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -4034,7 +4517,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="60" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -4045,7 +4528,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="49"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -4054,7 +4537,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="49"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -4063,7 +4546,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="49"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -4072,7 +4555,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="45"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>

--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89413B-AB83-624D-A985-B637EB229BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7973F3BD-3F20-7B41-9D12-5FA680A5CE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" activeTab="2" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
   <sheets>
     <sheet name="exceedances" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'exceedance%_overall'!$A$1:$G$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'exceedance%_site'!$A$1:$H$2935</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'exceedance%_ssn'!$A$1:$H$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HDS!$K$32:$K$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PCAs!$A$1:$P$22</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10427" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10582" uniqueCount="327">
   <si>
     <t>Analyte</t>
   </si>
@@ -882,6 +883,9 @@
     <t>Levels</t>
   </si>
   <si>
+    <t>Estimate</t>
+  </si>
+  <si>
     <t>Diagnostics</t>
   </si>
   <si>
@@ -974,6 +978,78 @@
 RMSE = 0.271
 Log Loss = 0.250</t>
   </si>
+  <si>
+    <t>Referece levels</t>
+  </si>
+  <si>
+    <t>Season + pH</t>
+  </si>
+  <si>
+    <t>non mixed</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Model type (not complete)</t>
+  </si>
+  <si>
+    <t>Score + pH</t>
+  </si>
+  <si>
+    <t>Proximity + score</t>
+  </si>
+  <si>
+    <t>Proximity + pH + season</t>
+  </si>
+  <si>
+    <t>Proximity + season + score</t>
+  </si>
+  <si>
+    <t>Proximity + season</t>
+  </si>
+  <si>
+    <t>prox almost signif (p = 0.09)</t>
+  </si>
+  <si>
+    <t>low marginal r2</t>
+  </si>
+  <si>
+    <t>score almost signif (p = 0.09)</t>
+  </si>
+  <si>
+    <t>prox almost signif (p = 0.08)</t>
+  </si>
+  <si>
+    <t>prox almost signif (p = 0.051)</t>
+  </si>
+  <si>
+    <t>score almost signif (p = 0.07)</t>
+  </si>
+  <si>
+    <t>prox almost signif (p = 0.06); pH almost signif (p = 0.09)</t>
+  </si>
+  <si>
+    <t>prox almost signif (p = 0.09); season almost signif (p = 0.09)</t>
+  </si>
+  <si>
+    <t>season almost signif (p = 0.08)</t>
+  </si>
+  <si>
+    <t>pH almost signif (p = 0.07); score almost signif (p = 0.06)</t>
+  </si>
+  <si>
+    <t>season almost signif (p = 0.051)</t>
+  </si>
+  <si>
+    <t>season almost signif (p = 0.06)</t>
+  </si>
+  <si>
+    <t>proximity almost signif (p = 0.053); low marginal r2</t>
+  </si>
+  <si>
+    <t>pH almost signif (p = 0.07); low adj r2</t>
+  </si>
 </sst>
 </file>
 
@@ -1010,7 +1086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1059,8 +1135,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1242,11 +1324,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1375,14 +1468,55 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1700,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0D4DAB-8658-6540-A6EF-06375FD0FCC4}">
   <dimension ref="A1:AU100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM91" zoomScale="157" workbookViewId="0">
-      <selection activeCell="AU101" sqref="AU101"/>
+    <sheetView topLeftCell="AH82" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AT89" sqref="AT89:AT91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1726,14 +1860,14 @@
     <col min="37" max="37" width="10.83203125" style="1"/>
     <col min="38" max="38" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.1640625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.33203125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -2717,353 +2851,353 @@
         <v>273</v>
       </c>
     </row>
-    <row r="87" spans="30:47" x14ac:dyDescent="0.2">
-      <c r="AL87" s="57" t="s">
+    <row r="87" spans="30:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AL87" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="AM87" s="57"/>
-      <c r="AN87" s="57"/>
-      <c r="AO87" s="57"/>
-      <c r="AP87" s="57"/>
-      <c r="AQ87" s="57"/>
-      <c r="AR87" s="57"/>
-      <c r="AS87" s="57"/>
-      <c r="AT87" s="57"/>
-      <c r="AU87" s="57"/>
-    </row>
-    <row r="88" spans="30:47" ht="34" x14ac:dyDescent="0.2">
-      <c r="AL88" s="1" t="s">
+      <c r="AM87" s="63"/>
+      <c r="AN87" s="63"/>
+      <c r="AO87" s="63"/>
+      <c r="AP87" s="63"/>
+      <c r="AQ87" s="63"/>
+      <c r="AR87" s="63"/>
+      <c r="AS87" s="63"/>
+      <c r="AT87" s="63"/>
+      <c r="AU87" s="63"/>
+    </row>
+    <row r="88" spans="30:47" ht="35" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AL88" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="AM88" s="1" t="s">
+      <c r="AM88" s="70" t="s">
         <v>275</v>
       </c>
-      <c r="AN88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO88" s="1" t="s">
+      <c r="AN88" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO88" s="70" t="s">
         <v>276</v>
       </c>
-      <c r="AP88" s="25" t="s">
+      <c r="AP88" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="AQ88" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR88" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS88" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="AT88" s="70" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU88" s="70" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL89" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM89" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN89" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO89" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP89" s="74">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="AQ89" s="74">
+        <v>0.372</v>
+      </c>
+      <c r="AR89" s="74">
+        <v>-5.57</v>
+      </c>
+      <c r="AS89" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="AT89" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU89" s="73" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL90" s="75"/>
+      <c r="AM90" s="76"/>
+      <c r="AN90" s="77"/>
+      <c r="AO90" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP90" s="79">
+        <v>-0.82199999999999995</v>
+      </c>
+      <c r="AQ90" s="79">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="AR90" s="79">
+        <v>-3.19</v>
+      </c>
+      <c r="AS90" s="79">
+        <v>1E-3</v>
+      </c>
+      <c r="AT90" s="75"/>
+      <c r="AU90" s="76"/>
+    </row>
+    <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL91" s="80"/>
+      <c r="AM91" s="81"/>
+      <c r="AN91" s="61"/>
+      <c r="AO91" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP91" s="82" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ91" s="82">
+        <v>0.503</v>
+      </c>
+      <c r="AR91" s="82">
+        <v>3.78</v>
+      </c>
+      <c r="AS91" s="82">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AT91" s="80"/>
+      <c r="AU91" s="81"/>
+    </row>
+    <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL92" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM92" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN92" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO92" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP92" s="74">
+        <v>-2.57</v>
+      </c>
+      <c r="AQ92" s="74">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="AR92" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS92" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="AT92" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU92" s="73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL93" s="75"/>
+      <c r="AM93" s="75"/>
+      <c r="AN93" s="77"/>
+      <c r="AO93" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP93" s="79">
+        <v>-1.39</v>
+      </c>
+      <c r="AQ93" s="79">
+        <v>0.497</v>
+      </c>
+      <c r="AR93" s="79">
+        <v>-2.79</v>
+      </c>
+      <c r="AS93" s="79">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AT93" s="75"/>
+      <c r="AU93" s="76"/>
+    </row>
+    <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL94" s="75"/>
+      <c r="AM94" s="75"/>
+      <c r="AN94" s="77"/>
+      <c r="AO94" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP94" s="79">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AQ94" s="79">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="AR94" s="79">
+        <v>3.0310000000000001</v>
+      </c>
+      <c r="AS94" s="79">
+        <v>2E-3</v>
+      </c>
+      <c r="AT94" s="75"/>
+      <c r="AU94" s="76"/>
+    </row>
+    <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL95" s="75"/>
+      <c r="AM95" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN95" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO95" s="83" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP95" s="79">
+        <v>-3.36</v>
+      </c>
+      <c r="AQ95" s="79">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="AR95" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS95" s="79" t="s">
+        <v>288</v>
+      </c>
+      <c r="AT95" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU95" s="76" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL96" s="75"/>
+      <c r="AM96" s="76"/>
+      <c r="AN96" s="77"/>
+      <c r="AO96" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP96" s="79">
+        <v>-1.91</v>
+      </c>
+      <c r="AQ96" s="79">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="AR96" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="AS96" s="79">
+        <v>2E-3</v>
+      </c>
+      <c r="AT96" s="75"/>
+      <c r="AU96" s="76"/>
+    </row>
+    <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL97" s="80"/>
+      <c r="AM97" s="81"/>
+      <c r="AN97" s="61"/>
+      <c r="AO97" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP97" s="82">
+        <v>3.31</v>
+      </c>
+      <c r="AQ97" s="82">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="AR97" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="AS97" s="82" t="s">
+        <v>288</v>
+      </c>
+      <c r="AT97" s="80"/>
+      <c r="AU97" s="81"/>
+    </row>
+    <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL98" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM98" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN98" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO98" s="84" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP98" s="74">
+        <v>-3.67</v>
+      </c>
+      <c r="AQ98" s="74">
+        <v>0.434</v>
+      </c>
+      <c r="AR98" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS98" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="AT98" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU98" s="73" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL99" s="75"/>
+      <c r="AM99" s="76"/>
+      <c r="AN99" s="77"/>
+      <c r="AO99" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP99" s="79">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="AQ99" s="79">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AR99" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS99" s="79">
+        <v>0.04</v>
+      </c>
+      <c r="AT99" s="75"/>
+      <c r="AU99" s="76"/>
+    </row>
+    <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL100" s="80"/>
+      <c r="AM100" s="81"/>
+      <c r="AN100" s="61"/>
+      <c r="AO100" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP100" s="82" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ100" s="82">
+        <v>0.502</v>
+      </c>
+      <c r="AR100" s="82" t="s">
         <v>297</v>
       </c>
-      <c r="AQ88" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AR88" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AS88" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AT88" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU88" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL89" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM89" s="71" t="s">
-        <v>278</v>
-      </c>
-      <c r="AN89" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO89" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AP89" s="72">
-        <v>-2.0699999999999998</v>
-      </c>
-      <c r="AQ89" s="72">
-        <v>0.372</v>
-      </c>
-      <c r="AR89" s="72">
-        <v>-5.57</v>
-      </c>
-      <c r="AS89" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="AT89" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="AU89" s="71" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL90" s="70"/>
-      <c r="AM90" s="71"/>
-      <c r="AN90" s="60"/>
-      <c r="AO90" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP90" s="72">
-        <v>-0.82199999999999995</v>
-      </c>
-      <c r="AQ90" s="72">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="AR90" s="72">
-        <v>-3.19</v>
-      </c>
-      <c r="AS90" s="72">
-        <v>1E-3</v>
-      </c>
-      <c r="AT90" s="70"/>
-      <c r="AU90" s="71"/>
-    </row>
-    <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL91" s="70"/>
-      <c r="AM91" s="71"/>
-      <c r="AN91" s="60"/>
-      <c r="AO91" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AP91" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="AQ91" s="72">
-        <v>0.503</v>
-      </c>
-      <c r="AR91" s="72">
-        <v>3.78</v>
-      </c>
-      <c r="AS91" s="72">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="AT91" s="70"/>
-      <c r="AU91" s="71"/>
-    </row>
-    <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL92" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM92" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="AN92" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO92" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AP92" s="72">
-        <v>-2.57</v>
-      </c>
-      <c r="AQ92" s="72">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="AR92" s="72" t="s">
+      <c r="AS100" s="82" t="s">
         <v>288</v>
       </c>
-      <c r="AS92" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="AT92" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="AU92" s="71" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL93" s="70"/>
-      <c r="AM93" s="70"/>
-      <c r="AN93" s="60"/>
-      <c r="AO93" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP93" s="72">
-        <v>-1.39</v>
-      </c>
-      <c r="AQ93" s="72">
-        <v>0.497</v>
-      </c>
-      <c r="AR93" s="72">
-        <v>-2.79</v>
-      </c>
-      <c r="AS93" s="72">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT93" s="70"/>
-      <c r="AU93" s="71"/>
-    </row>
-    <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL94" s="70"/>
-      <c r="AM94" s="70"/>
-      <c r="AN94" s="60"/>
-      <c r="AO94" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AP94" s="72">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="AQ94" s="72">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="AR94" s="72">
-        <v>3.0310000000000001</v>
-      </c>
-      <c r="AS94" s="72">
-        <v>2E-3</v>
-      </c>
-      <c r="AT94" s="70"/>
-      <c r="AU94" s="71"/>
-    </row>
-    <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL95" s="70"/>
-      <c r="AM95" s="71" t="s">
-        <v>278</v>
-      </c>
-      <c r="AN95" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO95" t="s">
-        <v>283</v>
-      </c>
-      <c r="AP95" s="72">
-        <v>-3.36</v>
-      </c>
-      <c r="AQ95" s="72">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="AR95" s="72" t="s">
-        <v>291</v>
-      </c>
-      <c r="AS95" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="AT95" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="AU95" s="71" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL96" s="70"/>
-      <c r="AM96" s="71"/>
-      <c r="AN96" s="60"/>
-      <c r="AO96" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP96" s="72">
-        <v>-1.91</v>
-      </c>
-      <c r="AQ96" s="72">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="AR96" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="AS96" s="72">
-        <v>2E-3</v>
-      </c>
-      <c r="AT96" s="70"/>
-      <c r="AU96" s="71"/>
-    </row>
-    <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL97" s="70"/>
-      <c r="AM97" s="71"/>
-      <c r="AN97" s="60"/>
-      <c r="AO97" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AP97" s="72">
-        <v>3.31</v>
-      </c>
-      <c r="AQ97" s="72">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="AR97" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="AS97" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="AT97" s="70"/>
-      <c r="AU97" s="71"/>
-    </row>
-    <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL98" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM98" s="71" t="s">
-        <v>278</v>
-      </c>
-      <c r="AN98" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO98" t="s">
-        <v>283</v>
-      </c>
-      <c r="AP98" s="72">
-        <v>-3.67</v>
-      </c>
-      <c r="AQ98" s="72">
-        <v>0.434</v>
-      </c>
-      <c r="AR98" s="72" t="s">
-        <v>294</v>
-      </c>
-      <c r="AS98" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="AT98" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="AU98" s="71" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL99" s="70"/>
-      <c r="AM99" s="71"/>
-      <c r="AN99" s="60"/>
-      <c r="AO99" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP99" s="72">
-        <v>-0.56299999999999994</v>
-      </c>
-      <c r="AQ99" s="72">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="AR99" s="72" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS99" s="72">
-        <v>0.04</v>
-      </c>
-      <c r="AT99" s="70"/>
-      <c r="AU99" s="71"/>
-    </row>
-    <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL100" s="70"/>
-      <c r="AM100" s="71"/>
-      <c r="AN100" s="60"/>
-      <c r="AO100" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AP100" s="72" t="s">
-        <v>290</v>
-      </c>
-      <c r="AQ100" s="72">
-        <v>0.502</v>
-      </c>
-      <c r="AR100" s="72" t="s">
-        <v>296</v>
-      </c>
-      <c r="AS100" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="AT100" s="70"/>
-      <c r="AU100" s="71"/>
+      <c r="AT100" s="80"/>
+      <c r="AU100" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -3110,7 +3244,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3801,19 +3935,19 @@
       <c r="B15" s="3">
         <v>6.88750127946237E-2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="78">
         <v>0</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="86">
         <v>0.34445449610162798</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F15" s="78">
+        <v>0</v>
+      </c>
+      <c r="G15" s="78">
         <v>0</v>
       </c>
       <c r="H15" s="4">
@@ -3822,10 +3956,10 @@
       <c r="I15" s="7">
         <v>-6.5705100000000002E-2</v>
       </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
+      <c r="J15" s="85">
+        <v>0</v>
+      </c>
+      <c r="K15" s="85">
         <v>0</v>
       </c>
       <c r="L15" s="9">
@@ -3834,10 +3968,10 @@
       <c r="M15" s="7">
         <v>-9.7653299999999998E-2</v>
       </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
+      <c r="N15" s="85">
+        <v>0</v>
+      </c>
+      <c r="O15" s="85">
         <v>0</v>
       </c>
       <c r="P15" s="9">
@@ -3951,19 +4085,19 @@
       <c r="B18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="78">
         <v>0.86459871719232595</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="78">
         <v>4.2584655578084003E-2</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="F18" s="78">
+        <v>0</v>
+      </c>
+      <c r="G18" s="78">
         <v>0</v>
       </c>
       <c r="H18" s="4">
@@ -3972,10 +4106,10 @@
       <c r="I18" s="7">
         <v>-1.3967000000000001E-3</v>
       </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
+      <c r="J18" s="85">
+        <v>0</v>
+      </c>
+      <c r="K18" s="85">
         <v>1</v>
       </c>
       <c r="L18" s="9">
@@ -3984,10 +4118,10 @@
       <c r="M18" s="24">
         <v>-0.30111870000000002</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="85">
         <v>-0.7172444</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="85">
         <v>0</v>
       </c>
       <c r="P18" s="9">
@@ -4001,19 +4135,19 @@
       <c r="B19" s="21">
         <v>0.38345987651346702</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="78">
         <v>0</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="86">
         <v>0.228119921464676</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="78">
         <v>-3.5890256591688999E-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="78">
         <v>0</v>
       </c>
       <c r="H19" s="4">
@@ -4022,10 +4156,10 @@
       <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
+      <c r="J19" s="85">
+        <v>0</v>
+      </c>
+      <c r="K19" s="85">
         <v>0</v>
       </c>
       <c r="L19" s="9">
@@ -4034,10 +4168,10 @@
       <c r="M19" s="7">
         <v>-0.1587258</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="85">
         <v>0.45095255000000001</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="85">
         <v>0</v>
       </c>
       <c r="P19" s="9">
@@ -4288,10 +4422,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E119337B-178C-1641-8548-9AE40C5AB899}">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:T88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G23"/>
+    <sheetView tabSelected="1" topLeftCell="G61" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4302,10 +4436,11 @@
     <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="33.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
         <v>86</v>
       </c>
@@ -4314,8 +4449,9 @@
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
-    </row>
-    <row r="3" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="91"/>
+    </row>
+    <row r="3" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>53</v>
       </c>
@@ -4334,8 +4470,9 @@
       <c r="G3" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="78"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>79</v>
       </c>
@@ -4348,8 +4485,9 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="78"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="60"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
@@ -4358,7 +4496,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="60"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -4367,7 +4505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="60"/>
       <c r="C7" s="1" t="s">
         <v>38</v>
@@ -4376,7 +4514,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="61"/>
       <c r="C8" s="13" t="s">
         <v>42</v>
@@ -4387,8 +4525,9 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="78"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="59" t="s">
         <v>80</v>
       </c>
@@ -4401,8 +4540,9 @@
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="78"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="60"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -4414,7 +4554,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="60"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -4426,7 +4566,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="60"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
@@ -4435,7 +4575,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="61"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
@@ -4446,8 +4586,9 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
         <v>81</v>
       </c>
@@ -4462,8 +4603,9 @@
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="78"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="60"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
@@ -4475,7 +4617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="60"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
@@ -4490,7 +4632,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="60"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -4502,7 +4644,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="61"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
@@ -4515,8 +4657,9 @@
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="60" t="s">
         <v>82</v>
       </c>
@@ -4527,7 +4670,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="60"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -4536,7 +4679,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="60"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
@@ -4545,7 +4688,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="60"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
@@ -4554,7 +4697,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="61"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
@@ -4565,9 +4708,660 @@
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
+      <c r="H23" s="78"/>
+    </row>
+    <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+    </row>
+    <row r="31" spans="2:20" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="M31" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="N31" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="O31" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="P31" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q31" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="R31" s="70" t="s">
+        <v>285</v>
+      </c>
+      <c r="S31" s="70" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J32" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J33" s="90"/>
+      <c r="K33" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J34" s="90"/>
+      <c r="K34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J35" s="90"/>
+      <c r="K35" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J36" s="90"/>
+      <c r="K36" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J37" s="90"/>
+      <c r="K37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J38" s="90"/>
+      <c r="K38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J39" s="90"/>
+      <c r="K39" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" s="87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J40" s="90"/>
+      <c r="K40" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J41" s="90"/>
+      <c r="K41" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J42" s="90"/>
+      <c r="K42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J43" s="90"/>
+      <c r="K43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J44" s="90"/>
+      <c r="K44" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J45" s="90"/>
+      <c r="K45" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J46" s="90"/>
+      <c r="K46" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" s="87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J47" s="90"/>
+      <c r="K47" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" s="88" t="s">
+        <v>305</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J48" s="90"/>
+      <c r="K48" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J49" s="90"/>
+      <c r="K49" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J50" s="90"/>
+      <c r="K50" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M50" s="87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J51" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M51" s="87" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J52" s="90"/>
+      <c r="K52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J53" s="90"/>
+      <c r="K53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J54" s="90"/>
+      <c r="K54" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J55" s="90"/>
+      <c r="K55" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J56" s="90"/>
+      <c r="K56" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J57" s="90"/>
+      <c r="K57" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J58" s="90"/>
+      <c r="K58" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J59" s="90"/>
+      <c r="K59" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J60" s="90"/>
+      <c r="K60" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" s="87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J61" s="90"/>
+      <c r="K61" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J62" s="90"/>
+      <c r="K62" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J63" s="90"/>
+      <c r="K63" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J64" s="90"/>
+      <c r="K64" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J65" s="90"/>
+      <c r="K65" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M65" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J66" s="90"/>
+      <c r="K66" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J67" s="90"/>
+      <c r="K67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J68" s="90"/>
+      <c r="K68" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J69" s="90"/>
+      <c r="K69" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J70" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M70" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J71" s="90"/>
+      <c r="K71" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J72" s="90"/>
+      <c r="K72" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J73" s="90"/>
+      <c r="K73" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J74" s="90"/>
+      <c r="K74" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M74" s="87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J75" s="90"/>
+      <c r="K75" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J76" s="90"/>
+      <c r="K76" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J77" s="90"/>
+      <c r="K77" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J78" s="90"/>
+      <c r="K78" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J79" s="90"/>
+      <c r="K79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J80" s="90"/>
+      <c r="K80" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J81" s="90"/>
+      <c r="K81" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="82" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J82" s="90"/>
+      <c r="K82" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J83" s="90"/>
+      <c r="K83" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J84" s="90"/>
+      <c r="K84" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="85" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J85" s="90"/>
+      <c r="K85" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J86" s="90"/>
+      <c r="K86" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J87" s="90"/>
+      <c r="K87" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J88" s="90"/>
+      <c r="K88" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>314</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="J70:J88"/>
+    <mergeCell ref="J32:J50"/>
+    <mergeCell ref="J51:J69"/>
+    <mergeCell ref="J30:S30"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>

--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -1,35 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gift/Documents/Rprojects/project-harvest/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7973F3BD-3F20-7B41-9D12-5FA680A5CE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70B8FE-F69C-C549-B3F8-6F6254F0A067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" activeTab="2" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="27740" windowHeight="17500" activeTab="2" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
   <sheets>
     <sheet name="exceedances" sheetId="1" r:id="rId1"/>
-    <sheet name="PCAs" sheetId="2" r:id="rId2"/>
-    <sheet name="HDS" sheetId="3" r:id="rId3"/>
-    <sheet name="exceedance%_overall" sheetId="4" r:id="rId4"/>
-    <sheet name="exceedance%_com" sheetId="5" r:id="rId5"/>
-    <sheet name="exceedance%_site" sheetId="6" r:id="rId6"/>
-    <sheet name="exceedance%_ssn" sheetId="7" r:id="rId7"/>
+    <sheet name="pli_and_hds_modelling" sheetId="8" r:id="rId2"/>
+    <sheet name="pli only" sheetId="9" r:id="rId3"/>
+    <sheet name="PCAs" sheetId="2" r:id="rId4"/>
+    <sheet name="HDS" sheetId="3" r:id="rId5"/>
+    <sheet name="exceedance%_overall" sheetId="4" r:id="rId6"/>
+    <sheet name="exceedance%_com" sheetId="5" r:id="rId7"/>
+    <sheet name="exceedance%_site" sheetId="6" r:id="rId8"/>
+    <sheet name="exceedance%_ssn" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'exceedance%_com'!$A$1:$H$73</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'exceedance%_overall'!$A$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'exceedance%_site'!$A$1:$H$2935</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'exceedance%_ssn'!$A$1:$H$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HDS!$K$32:$K$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PCAs!$A$1:$P$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'exceedance%_com'!$A$1:$H$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'exceedance%_overall'!$A$1:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'exceedance%_site'!$A$1:$H$2935</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'exceedance%_ssn'!$A$1:$H$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HDS!$K$32:$K$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PCAs!$A$1:$P$22</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10582" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10697" uniqueCount="349">
   <si>
     <t>Analyte</t>
   </si>
@@ -1050,6 +1052,72 @@
   <si>
     <t>pH almost signif (p = 0.07); low adj r2</t>
   </si>
+  <si>
+    <t>Infrastructural Factor</t>
+  </si>
+  <si>
+    <t>Model Type</t>
+  </si>
+  <si>
+    <t>Conditional R square</t>
+  </si>
+  <si>
+    <t>Marginal R square</t>
+  </si>
+  <si>
+    <t>Q67: #Do you clean parts of your roof draining system (like the debris filter, gutters, scuppers, etc.)?</t>
+  </si>
+  <si>
+    <t>Q67</t>
+  </si>
+  <si>
+    <t>seasonMonsoon</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonMonsoon </t>
+  </si>
+  <si>
+    <t>Q71: Do you treat or wash your cistern with anything?</t>
+  </si>
+  <si>
+    <t>Q79: Do you ever remove the screen/filter and leave your cistern without the filter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear mixed model </t>
+  </si>
+  <si>
+    <t>Q76: Does your cistern have a first flush?</t>
+  </si>
+  <si>
+    <t>Q77: Does your cistern have a screen/filter for incoming water from down spout on top of the tank?</t>
+  </si>
+  <si>
+    <t>Linear regression</t>
+  </si>
+  <si>
+    <t>No value</t>
+  </si>
+  <si>
+    <t>Hayden-Winklemann</t>
+  </si>
+  <si>
+    <t>Globe</t>
+  </si>
+  <si>
+    <t>prox.normal</t>
+  </si>
+  <si>
+    <t>Reference levels</t>
+  </si>
+  <si>
+    <t>Low R square= Less than 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prox.normal </t>
+  </si>
 </sst>
 </file>
 
@@ -1062,7 +1130,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1085,8 +1153,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1141,8 +1226,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1335,11 +1426,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1420,6 +1541,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1436,24 +1612,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1468,61 +1626,208 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1533,6 +1838,56 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{332D19AC-328C-4243-9CEE-6380094CC0E5}" name="pli_plus_hds_model" displayName="pli_plus_hds_model" ref="A1:K41" headerRowDxfId="7" dataDxfId="8">
+  <autoFilter ref="A1:K41" xr:uid="{332D19AC-328C-4243-9CEE-6380094CC0E5}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{92165279-5B62-5143-99E5-BC33DE6B6F7B}" name="Community" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E8C220B7-0331-1348-8864-7CDC70A233BF}" name="Infrastructural Factor" dataDxfId="12" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7B0E1DF0-4AE8-8643-9336-E6B7FAAC98B5}" name="Model Type"/>
+    <tableColumn id="4" xr3:uid="{58B4AA9C-B6AF-B447-BC9C-049A219684AF}" name="Levels"/>
+    <tableColumn id="5" xr3:uid="{21A01350-C8E4-1C47-94BA-D5794FE8128E}" name="Estimate"/>
+    <tableColumn id="6" xr3:uid="{BA142DBD-3396-C148-AA91-849E4EF81CA9}" name="Standard Error"/>
+    <tableColumn id="7" xr3:uid="{7B5FF10C-5FBF-AF4A-9BD5-DFB74EF276E6}" name="Conditional R square" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{E9DD9E05-B76E-5B47-85AB-997943D27B54}" name="Marginal R square" dataDxfId="10" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{B6A7AC17-47BA-7F40-B110-1CA6D30C22BD}" name="RMSE" dataDxfId="9" totalsRowDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{16F95216-CD61-AB4C-A209-F074E1F74973}" name="p-value"/>
+    <tableColumn id="11" xr3:uid="{18A203FA-0D11-2049-B943-15415D57623B}" name="Reference levels" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{33E07BFC-D947-F846-9235-68D258BB4795}" name="Table5" displayName="Table5" ref="A1:J11" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:J11" xr:uid="{33E07BFC-D947-F846-9235-68D258BB4795}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{094D909F-012F-DB46-9CF6-5662BAB45E5B}" name="Community" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{28A00A5D-0CE1-214C-ACED-D9C7E8E91C9F}" name="Model Type" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{E5136E0C-70AF-7140-B1C3-7B3A1FE5232F}" name="Levels" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{D32C054E-0831-BE41-AB7A-0801AAF5855F}" name="Estimate" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{2C556E22-11F9-E54A-B84D-0B0E092606F3}" name="Standard Error" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{499AE85D-55DD-2249-A5FD-4E8F1B98B124}" name="Conditional R square" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{444468D3-0ABF-9E44-889D-2CFBCFF5DBB3}" name="Marginal R square"/>
+    <tableColumn id="8" xr3:uid="{6B4B36B8-72B1-B84C-AAB7-355A56F0EAF8}" name="RMSE"/>
+    <tableColumn id="9" xr3:uid="{241F30D3-1798-5D40-9911-B4896D381D16}" name="p-value"/>
+    <tableColumn id="10" xr3:uid="{91231617-62C7-F748-811D-B41C183C3A6D}" name="Reference levels"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1834,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0D4DAB-8658-6540-A6EF-06375FD0FCC4}">
   <dimension ref="A1:AU100"/>
   <sheetViews>
-    <sheetView topLeftCell="AH82" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AT89" sqref="AT89:AT91"/>
+    <sheetView topLeftCell="AG80" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AP88" sqref="AP88:AU88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2287,27 +2642,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="63" t="s">
+      <c r="M31" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="64" t="s">
+      <c r="M32" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="62" t="s">
+      <c r="N32" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
     </row>
     <row r="33" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M33" s="61"/>
+      <c r="M33" s="65"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -2381,29 +2736,29 @@
       </c>
     </row>
     <row r="44" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y44" s="57" t="s">
+      <c r="Y44" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="Z44" s="57"/>
-      <c r="AA44" s="57"/>
-      <c r="AB44" s="57"/>
-      <c r="AC44" s="57"/>
+      <c r="Z44" s="78"/>
+      <c r="AA44" s="78"/>
+      <c r="AB44" s="78"/>
+      <c r="AC44" s="78"/>
     </row>
     <row r="45" spans="13:29" x14ac:dyDescent="0.2">
       <c r="Y45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Z45" s="58" t="s">
+      <c r="Z45" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="AA45" s="58"/>
-      <c r="AB45" s="58"/>
+      <c r="AA45" s="79"/>
+      <c r="AB45" s="79"/>
       <c r="AC45" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y46" s="59" t="s">
+      <c r="Y46" s="63" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="8" t="s">
@@ -2417,7 +2772,7 @@
       </c>
     </row>
     <row r="47" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y47" s="60"/>
+      <c r="Y47" s="64"/>
       <c r="Z47" s="8">
         <v>0</v>
       </c>
@@ -2429,7 +2784,7 @@
       </c>
     </row>
     <row r="48" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y48" s="60"/>
+      <c r="Y48" s="64"/>
       <c r="Z48" s="8">
         <v>0.5</v>
       </c>
@@ -2441,7 +2796,7 @@
       </c>
     </row>
     <row r="49" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y49" s="60"/>
+      <c r="Y49" s="64"/>
       <c r="Z49" s="8">
         <v>1</v>
       </c>
@@ -2453,7 +2808,7 @@
       </c>
     </row>
     <row r="50" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y50" s="60"/>
+      <c r="Y50" s="64"/>
       <c r="Z50" s="8">
         <v>1.5</v>
       </c>
@@ -2465,7 +2820,7 @@
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="61"/>
+      <c r="Y51" s="65"/>
       <c r="Z51" s="11">
         <v>2</v>
       </c>
@@ -2478,7 +2833,7 @@
       <c r="AC51" s="13"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y52" s="59" t="s">
+      <c r="Y52" s="63" t="s">
         <v>69</v>
       </c>
       <c r="Z52" s="1" t="s">
@@ -2487,62 +2842,62 @@
       <c r="AA52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC52" s="54" t="s">
+      <c r="AC52" s="75" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="60"/>
+      <c r="Y53" s="64"/>
       <c r="Z53" s="1">
         <v>0</v>
       </c>
       <c r="AA53" s="34">
         <v>6.1733623452348702E-2</v>
       </c>
-      <c r="AC53" s="56"/>
+      <c r="AC53" s="77"/>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y54" s="60"/>
+      <c r="Y54" s="64"/>
       <c r="Z54" s="1">
         <v>2</v>
       </c>
       <c r="AA54" s="34">
         <v>1.20772053410085E-2</v>
       </c>
-      <c r="AC54" s="56"/>
+      <c r="AC54" s="77"/>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y55" s="60"/>
+      <c r="Y55" s="64"/>
       <c r="Z55" s="1">
         <v>4</v>
       </c>
       <c r="AA55" s="31">
         <v>2.2662402083130201E-3</v>
       </c>
-      <c r="AC55" s="56"/>
+      <c r="AC55" s="77"/>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y56" s="60"/>
+      <c r="Y56" s="64"/>
       <c r="Z56" s="1">
         <v>6</v>
       </c>
       <c r="AA56" s="28">
         <v>4.2184786680835203E-4</v>
       </c>
-      <c r="AC56" s="56"/>
+      <c r="AC56" s="77"/>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y57" s="60"/>
+      <c r="Y57" s="64"/>
       <c r="Z57" s="1">
         <v>8</v>
       </c>
       <c r="AA57" s="28">
         <v>7.8406646322768398E-5</v>
       </c>
-      <c r="AC57" s="56"/>
+      <c r="AC57" s="77"/>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y58" s="61"/>
+      <c r="Y58" s="65"/>
       <c r="Z58" s="13">
         <v>10</v>
       </c>
@@ -2550,10 +2905,10 @@
         <v>1.4568956039108299E-5</v>
       </c>
       <c r="AB58" s="13"/>
-      <c r="AC58" s="55"/>
+      <c r="AC58" s="76"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y59" s="59" t="s">
+      <c r="Y59" s="63" t="s">
         <v>73</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -2562,72 +2917,72 @@
       <c r="AA59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" s="54" t="s">
+      <c r="AC59" s="75" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y60" s="60"/>
+      <c r="Y60" s="64"/>
       <c r="Z60" s="1">
         <v>0</v>
       </c>
       <c r="AA60" s="34">
         <v>4.213704983443E-2</v>
       </c>
-      <c r="AC60" s="56"/>
+      <c r="AC60" s="77"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y61" s="60"/>
+      <c r="Y61" s="64"/>
       <c r="Z61" s="1">
         <v>4</v>
       </c>
       <c r="AA61" s="36">
         <v>0.70383460067707004</v>
       </c>
-      <c r="AC61" s="56"/>
+      <c r="AC61" s="77"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y62" s="60"/>
+      <c r="Y62" s="64"/>
       <c r="Z62" s="1">
         <v>8</v>
       </c>
       <c r="AA62" s="36">
         <v>0.99227108557330002</v>
       </c>
-      <c r="AC62" s="56"/>
+      <c r="AC62" s="77"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y63" s="60"/>
+      <c r="Y63" s="64"/>
       <c r="Z63" s="1">
         <v>12</v>
       </c>
       <c r="AA63" s="37">
         <v>0.99985583826317304</v>
       </c>
-      <c r="AC63" s="56"/>
+      <c r="AC63" s="77"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y64" s="60"/>
+      <c r="Y64" s="64"/>
       <c r="Z64" s="1">
         <v>16</v>
       </c>
       <c r="AA64" s="37">
         <v>0.99999733107778499</v>
       </c>
-      <c r="AC64" s="56"/>
+      <c r="AC64" s="77"/>
     </row>
     <row r="65" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y65" s="60"/>
+      <c r="Y65" s="64"/>
       <c r="Z65" s="1">
         <v>20</v>
       </c>
       <c r="AA65" s="37">
         <v>0.99999995059606805</v>
       </c>
-      <c r="AC65" s="56"/>
+      <c r="AC65" s="77"/>
     </row>
     <row r="66" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y66" s="61"/>
+      <c r="Y66" s="65"/>
       <c r="Z66" s="13">
         <v>24</v>
       </c>
@@ -2635,7 +2990,7 @@
         <v>0.99999999908549497</v>
       </c>
       <c r="AB66" s="13"/>
-      <c r="AC66" s="55"/>
+      <c r="AC66" s="76"/>
     </row>
     <row r="71" spans="25:36" x14ac:dyDescent="0.2">
       <c r="AD71" s="1" t="s">
@@ -2684,7 +3039,7 @@
       </c>
     </row>
     <row r="74" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD74" s="54" t="s">
+      <c r="AD74" s="75" t="s">
         <v>9</v>
       </c>
       <c r="AE74" s="48" t="s">
@@ -2704,7 +3059,7 @@
       </c>
     </row>
     <row r="75" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="55"/>
+      <c r="AD75" s="76"/>
       <c r="AE75" s="49" t="s">
         <v>13</v>
       </c>
@@ -2722,7 +3077,7 @@
       </c>
     </row>
     <row r="76" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD76" s="54" t="s">
+      <c r="AD76" s="75" t="s">
         <v>10</v>
       </c>
       <c r="AE76" s="48" t="s">
@@ -2742,7 +3097,7 @@
       </c>
     </row>
     <row r="77" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD77" s="56"/>
+      <c r="AD77" s="77"/>
       <c r="AE77" s="50" t="s">
         <v>17</v>
       </c>
@@ -2760,7 +3115,7 @@
       </c>
     </row>
     <row r="78" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD78" s="55"/>
+      <c r="AD78" s="76"/>
       <c r="AE78" s="49" t="s">
         <v>12</v>
       </c>
@@ -2778,7 +3133,7 @@
       </c>
     </row>
     <row r="79" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD79" s="54" t="s">
+      <c r="AD79" s="75" t="s">
         <v>11</v>
       </c>
       <c r="AE79" s="48" t="s">
@@ -2798,7 +3153,7 @@
       </c>
     </row>
     <row r="80" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="56"/>
+      <c r="AD80" s="77"/>
       <c r="AE80" s="50" t="s">
         <v>19</v>
       </c>
@@ -2816,7 +3171,7 @@
       </c>
     </row>
     <row r="81" spans="30:47" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD81" s="56"/>
+      <c r="AD81" s="77"/>
       <c r="AE81" s="50" t="s">
         <v>13</v>
       </c>
@@ -2834,7 +3189,7 @@
       </c>
     </row>
     <row r="82" spans="30:47" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD82" s="55"/>
+      <c r="AD82" s="76"/>
       <c r="AE82" s="49" t="s">
         <v>15</v>
       </c>
@@ -2852,369 +3207,358 @@
       </c>
     </row>
     <row r="87" spans="30:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL87" s="63" t="s">
+      <c r="AL87" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="AM87" s="63"/>
-      <c r="AN87" s="63"/>
-      <c r="AO87" s="63"/>
-      <c r="AP87" s="63"/>
-      <c r="AQ87" s="63"/>
-      <c r="AR87" s="63"/>
-      <c r="AS87" s="63"/>
-      <c r="AT87" s="63"/>
-      <c r="AU87" s="63"/>
+      <c r="AM87" s="73"/>
+      <c r="AN87" s="73"/>
+      <c r="AO87" s="73"/>
+      <c r="AP87" s="73"/>
+      <c r="AQ87" s="73"/>
+      <c r="AR87" s="73"/>
+      <c r="AS87" s="73"/>
+      <c r="AT87" s="73"/>
+      <c r="AU87" s="73"/>
     </row>
     <row r="88" spans="30:47" ht="35" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="AL88" s="70" t="s">
+      <c r="AL88" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="AM88" s="70" t="s">
+      <c r="AM88" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="AN88" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO88" s="70" t="s">
+      <c r="AN88" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO88" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="AP88" s="71" t="s">
+      <c r="AP88" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="AQ88" s="70" t="s">
+      <c r="AQ88" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="AR88" s="70" t="s">
+      <c r="AR88" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="AS88" s="70" t="s">
+      <c r="AS88" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="AT88" s="70" t="s">
+      <c r="AT88" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="AU88" s="70" t="s">
+      <c r="AU88" s="55" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL89" s="72" t="s">
+      <c r="AL89" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="AM89" s="73" t="s">
+      <c r="AM89" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="AN89" s="59" t="s">
+      <c r="AN89" s="63" t="s">
         <v>13</v>
       </c>
       <c r="AO89" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="AP89" s="74">
+      <c r="AP89" s="57">
         <v>-2.0699999999999998</v>
       </c>
-      <c r="AQ89" s="74">
+      <c r="AQ89" s="57">
         <v>0.372</v>
       </c>
-      <c r="AR89" s="74">
+      <c r="AR89" s="57">
         <v>-5.57</v>
       </c>
-      <c r="AS89" s="74" t="s">
+      <c r="AS89" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT89" s="72" t="s">
+      <c r="AT89" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="AU89" s="73" t="s">
+      <c r="AU89" s="66" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL90" s="75"/>
-      <c r="AM90" s="76"/>
-      <c r="AN90" s="77"/>
-      <c r="AO90" s="78" t="s">
+      <c r="AL90" s="70"/>
+      <c r="AM90" s="67"/>
+      <c r="AN90" s="64"/>
+      <c r="AO90" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AP90" s="79">
+      <c r="AP90" s="58">
         <v>-0.82199999999999995</v>
       </c>
-      <c r="AQ90" s="79">
+      <c r="AQ90" s="58">
         <v>0.25700000000000001</v>
       </c>
-      <c r="AR90" s="79">
+      <c r="AR90" s="58">
         <v>-3.19</v>
       </c>
-      <c r="AS90" s="79">
+      <c r="AS90" s="58">
         <v>1E-3</v>
       </c>
-      <c r="AT90" s="75"/>
-      <c r="AU90" s="76"/>
+      <c r="AT90" s="70"/>
+      <c r="AU90" s="67"/>
     </row>
     <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL91" s="80"/>
-      <c r="AM91" s="81"/>
-      <c r="AN91" s="61"/>
+      <c r="AL91" s="71"/>
+      <c r="AM91" s="68"/>
+      <c r="AN91" s="65"/>
       <c r="AO91" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="AP91" s="82" t="s">
+      <c r="AP91" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="AQ91" s="82">
+      <c r="AQ91" s="59">
         <v>0.503</v>
       </c>
-      <c r="AR91" s="82">
+      <c r="AR91" s="59">
         <v>3.78</v>
       </c>
-      <c r="AS91" s="82">
+      <c r="AS91" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AT91" s="80"/>
-      <c r="AU91" s="81"/>
+      <c r="AT91" s="71"/>
+      <c r="AU91" s="68"/>
     </row>
     <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL92" s="72" t="s">
+      <c r="AL92" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="AM92" s="72" t="s">
+      <c r="AM92" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="AN92" s="59" t="s">
+      <c r="AN92" s="63" t="s">
         <v>12</v>
       </c>
       <c r="AO92" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="AP92" s="74">
+      <c r="AP92" s="57">
         <v>-2.57</v>
       </c>
-      <c r="AQ92" s="74">
+      <c r="AQ92" s="57">
         <v>0.51400000000000001</v>
       </c>
-      <c r="AR92" s="74" t="s">
+      <c r="AR92" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="AS92" s="74" t="s">
+      <c r="AS92" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT92" s="72" t="s">
+      <c r="AT92" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="AU92" s="73" t="s">
+      <c r="AU92" s="66" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL93" s="75"/>
-      <c r="AM93" s="75"/>
-      <c r="AN93" s="77"/>
-      <c r="AO93" s="78" t="s">
+      <c r="AL93" s="70"/>
+      <c r="AM93" s="70"/>
+      <c r="AN93" s="64"/>
+      <c r="AO93" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AP93" s="79">
+      <c r="AP93" s="58">
         <v>-1.39</v>
       </c>
-      <c r="AQ93" s="79">
+      <c r="AQ93" s="58">
         <v>0.497</v>
       </c>
-      <c r="AR93" s="79">
+      <c r="AR93" s="58">
         <v>-2.79</v>
       </c>
-      <c r="AS93" s="79">
+      <c r="AS93" s="58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT93" s="75"/>
-      <c r="AU93" s="76"/>
+      <c r="AT93" s="70"/>
+      <c r="AU93" s="67"/>
     </row>
     <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL94" s="75"/>
-      <c r="AM94" s="75"/>
-      <c r="AN94" s="77"/>
-      <c r="AO94" s="78" t="s">
+      <c r="AL94" s="70"/>
+      <c r="AM94" s="70"/>
+      <c r="AN94" s="64"/>
+      <c r="AO94" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AP94" s="79">
+      <c r="AP94" s="58">
         <v>2.0699999999999998</v>
       </c>
-      <c r="AQ94" s="79">
+      <c r="AQ94" s="58">
         <v>0.68400000000000005</v>
       </c>
-      <c r="AR94" s="79">
+      <c r="AR94" s="58">
         <v>3.0310000000000001</v>
       </c>
-      <c r="AS94" s="79">
+      <c r="AS94" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT94" s="75"/>
-      <c r="AU94" s="76"/>
+      <c r="AT94" s="70"/>
+      <c r="AU94" s="67"/>
     </row>
     <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL95" s="75"/>
-      <c r="AM95" s="76" t="s">
+      <c r="AL95" s="70"/>
+      <c r="AM95" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="AN95" s="77" t="s">
+      <c r="AN95" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AO95" s="83" t="s">
+      <c r="AO95" t="s">
         <v>284</v>
       </c>
-      <c r="AP95" s="79">
+      <c r="AP95" s="58">
         <v>-3.36</v>
       </c>
-      <c r="AQ95" s="79">
+      <c r="AQ95" s="58">
         <v>0.68600000000000005</v>
       </c>
-      <c r="AR95" s="79" t="s">
+      <c r="AR95" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="AS95" s="79" t="s">
+      <c r="AS95" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="AT95" s="75" t="s">
+      <c r="AT95" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="AU95" s="76" t="s">
+      <c r="AU95" s="67" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL96" s="75"/>
-      <c r="AM96" s="76"/>
-      <c r="AN96" s="77"/>
-      <c r="AO96" s="78" t="s">
+      <c r="AL96" s="70"/>
+      <c r="AM96" s="67"/>
+      <c r="AN96" s="64"/>
+      <c r="AO96" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AP96" s="79">
+      <c r="AP96" s="58">
         <v>-1.91</v>
       </c>
-      <c r="AQ96" s="79">
+      <c r="AQ96" s="58">
         <v>0.63200000000000001</v>
       </c>
-      <c r="AR96" s="79" t="s">
+      <c r="AR96" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="AS96" s="79">
+      <c r="AS96" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT96" s="75"/>
-      <c r="AU96" s="76"/>
+      <c r="AT96" s="70"/>
+      <c r="AU96" s="67"/>
     </row>
     <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL97" s="80"/>
-      <c r="AM97" s="81"/>
-      <c r="AN97" s="61"/>
+      <c r="AL97" s="71"/>
+      <c r="AM97" s="68"/>
+      <c r="AN97" s="65"/>
       <c r="AO97" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="AP97" s="82">
+      <c r="AP97" s="59">
         <v>3.31</v>
       </c>
-      <c r="AQ97" s="82">
+      <c r="AQ97" s="59">
         <v>0.84199999999999997</v>
       </c>
-      <c r="AR97" s="82" t="s">
+      <c r="AR97" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="AS97" s="82" t="s">
+      <c r="AS97" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT97" s="80"/>
-      <c r="AU97" s="81"/>
+      <c r="AT97" s="71"/>
+      <c r="AU97" s="68"/>
     </row>
     <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL98" s="72" t="s">
+      <c r="AL98" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AM98" s="73" t="s">
+      <c r="AM98" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="AN98" s="59" t="s">
+      <c r="AN98" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="AO98" s="84" t="s">
+      <c r="AO98" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="AP98" s="74">
+      <c r="AP98" s="57">
         <v>-3.67</v>
       </c>
-      <c r="AQ98" s="74">
+      <c r="AQ98" s="57">
         <v>0.434</v>
       </c>
-      <c r="AR98" s="74" t="s">
+      <c r="AR98" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="AS98" s="74" t="s">
+      <c r="AS98" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT98" s="72" t="s">
+      <c r="AT98" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="AU98" s="73" t="s">
+      <c r="AU98" s="66" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL99" s="75"/>
-      <c r="AM99" s="76"/>
-      <c r="AN99" s="77"/>
-      <c r="AO99" s="78" t="s">
+      <c r="AL99" s="70"/>
+      <c r="AM99" s="67"/>
+      <c r="AN99" s="64"/>
+      <c r="AO99" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AP99" s="79">
+      <c r="AP99" s="58">
         <v>-0.56299999999999994</v>
       </c>
-      <c r="AQ99" s="79">
+      <c r="AQ99" s="58">
         <v>0.27700000000000002</v>
       </c>
-      <c r="AR99" s="79" t="s">
+      <c r="AR99" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="AS99" s="79">
+      <c r="AS99" s="58">
         <v>0.04</v>
       </c>
-      <c r="AT99" s="75"/>
-      <c r="AU99" s="76"/>
+      <c r="AT99" s="70"/>
+      <c r="AU99" s="67"/>
     </row>
     <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL100" s="80"/>
-      <c r="AM100" s="81"/>
-      <c r="AN100" s="61"/>
+      <c r="AL100" s="71"/>
+      <c r="AM100" s="68"/>
+      <c r="AN100" s="65"/>
       <c r="AO100" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="AP100" s="82" t="s">
+      <c r="AP100" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="AQ100" s="82">
+      <c r="AQ100" s="59">
         <v>0.502</v>
       </c>
-      <c r="AR100" s="82" t="s">
+      <c r="AR100" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="AS100" s="82" t="s">
+      <c r="AS100" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT100" s="80"/>
-      <c r="AU100" s="81"/>
+      <c r="AT100" s="71"/>
+      <c r="AU100" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AN98:AN100"/>
-    <mergeCell ref="AM98:AM100"/>
-    <mergeCell ref="AL98:AL100"/>
-    <mergeCell ref="AL92:AL97"/>
-    <mergeCell ref="AM92:AM94"/>
-    <mergeCell ref="AM95:AM97"/>
-    <mergeCell ref="AN92:AN94"/>
-    <mergeCell ref="AN95:AN97"/>
-    <mergeCell ref="AT92:AT94"/>
-    <mergeCell ref="AU92:AU94"/>
-    <mergeCell ref="AU95:AU97"/>
-    <mergeCell ref="AT95:AT97"/>
-    <mergeCell ref="AT98:AT100"/>
-    <mergeCell ref="AU98:AU100"/>
+    <mergeCell ref="Y59:Y66"/>
+    <mergeCell ref="AC52:AC58"/>
+    <mergeCell ref="AC59:AC66"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="M31:Q31"/>
     <mergeCell ref="M32:M33"/>
@@ -3231,15 +3575,1149 @@
     <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="Y46:Y51"/>
     <mergeCell ref="Y52:Y58"/>
-    <mergeCell ref="Y59:Y66"/>
-    <mergeCell ref="AC52:AC58"/>
-    <mergeCell ref="AC59:AC66"/>
+    <mergeCell ref="AT92:AT94"/>
+    <mergeCell ref="AU92:AU94"/>
+    <mergeCell ref="AU95:AU97"/>
+    <mergeCell ref="AT95:AT97"/>
+    <mergeCell ref="AT98:AT100"/>
+    <mergeCell ref="AU98:AU100"/>
+    <mergeCell ref="AN98:AN100"/>
+    <mergeCell ref="AM98:AM100"/>
+    <mergeCell ref="AL98:AL100"/>
+    <mergeCell ref="AL92:AL97"/>
+    <mergeCell ref="AM92:AM94"/>
+    <mergeCell ref="AM95:AM97"/>
+    <mergeCell ref="AN92:AN94"/>
+    <mergeCell ref="AN95:AN97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877C8987-74F6-7E41-A66F-F19286D2B850}">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="92" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="88" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="92" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2">
+        <v>0.50477000000000005</v>
+      </c>
+      <c r="F2">
+        <v>8.8419999999999999E-2</v>
+      </c>
+      <c r="G2" s="99">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="H2" s="94">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I2" s="94">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J2">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="K2" s="99" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="93"/>
+      <c r="B3" s="89"/>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3">
+        <v>0.25013999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.123</v>
+      </c>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="87">
+        <v>4.66E-8</v>
+      </c>
+      <c r="K3" s="94"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="93"/>
+      <c r="B4" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4">
+        <v>0.50731999999999999</v>
+      </c>
+      <c r="F4">
+        <v>8.8739999999999999E-2</v>
+      </c>
+      <c r="G4" s="94">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H4" s="94">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I4" s="94">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J4" s="98">
+        <v>4.5300000000000002E-8</v>
+      </c>
+      <c r="K4" s="94" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="94"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="93"/>
+      <c r="B6" s="96" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="97">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="F6" s="97">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="G6" s="100">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H6" s="97">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I6" s="97">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="J6" s="97">
+        <v>1.193E-4</v>
+      </c>
+      <c r="K6" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="L6" s="95" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="93"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="95"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="93"/>
+      <c r="B8" s="96" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="97">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="F8" s="97">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="G8" s="100">
+        <v>0.245</v>
+      </c>
+      <c r="H8" s="97">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I8" s="97">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="J8" s="97">
+        <v>2.32E-4</v>
+      </c>
+      <c r="K8" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="95"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="95"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="93"/>
+      <c r="B10" s="96" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="97">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="F10" s="97">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="G10" s="100">
+        <v>0.245</v>
+      </c>
+      <c r="H10" s="97">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I10" s="97">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="J10" s="97">
+        <v>2.32E-4</v>
+      </c>
+      <c r="K10" s="97"/>
+      <c r="L10" s="95"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="93"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="95"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.2172</v>
+      </c>
+      <c r="G12" s="94">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J12">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="93"/>
+      <c r="B13" s="89"/>
+      <c r="G13" s="94"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="93"/>
+      <c r="B14" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="93"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="93"/>
+      <c r="B16" s="89" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.2172</v>
+      </c>
+      <c r="G16" s="94">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H16" s="94">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I16" s="94">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J16">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="93"/>
+      <c r="B17" s="89"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="93"/>
+      <c r="B18" s="89" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="93"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="93"/>
+      <c r="B20" s="89" t="s">
+        <v>340</v>
+      </c>
+      <c r="C20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="F20">
+        <v>0.2172</v>
+      </c>
+      <c r="G20">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="K20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="93"/>
+      <c r="B21" s="89"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="93" t="s">
+        <v>343</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>331</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="93"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="93"/>
+      <c r="B24" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="93"/>
+      <c r="B25" s="89"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="93"/>
+      <c r="B26" s="89" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" t="s">
+        <v>341</v>
+      </c>
+      <c r="D26" t="s">
+        <v>335</v>
+      </c>
+      <c r="E26">
+        <v>0.65056000000000003</v>
+      </c>
+      <c r="F26">
+        <v>0.23355000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.153</v>
+      </c>
+      <c r="H26">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="J26">
+        <v>7.92E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="93"/>
+      <c r="B27" s="89"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="93"/>
+      <c r="B28" s="89" t="s">
+        <v>339</v>
+      </c>
+      <c r="C28" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="93"/>
+      <c r="B29" s="89"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="93"/>
+      <c r="B30" s="89" t="s">
+        <v>340</v>
+      </c>
+      <c r="C30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" t="s">
+        <v>335</v>
+      </c>
+      <c r="E30">
+        <v>0.69269999999999998</v>
+      </c>
+      <c r="F30">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="J30">
+        <v>1.78E-2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="93"/>
+      <c r="B31" s="89"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D32" t="s">
+        <v>335</v>
+      </c>
+      <c r="E32">
+        <v>0.79139999999999999</v>
+      </c>
+      <c r="F32">
+        <v>0.1234</v>
+      </c>
+      <c r="G32" s="94">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="H32" s="94">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="I32" s="94">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="J32" s="87">
+        <v>6.9200000000000001E-9</v>
+      </c>
+      <c r="K32" s="94" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="93"/>
+      <c r="B33" s="89"/>
+      <c r="D33" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33">
+        <v>-0.45540000000000003</v>
+      </c>
+      <c r="F33">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="K33" s="94"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="93"/>
+      <c r="B34" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" t="s">
+        <v>338</v>
+      </c>
+      <c r="D34" t="s">
+        <v>335</v>
+      </c>
+      <c r="E34">
+        <v>0.79139999999999999</v>
+      </c>
+      <c r="F34">
+        <v>0.1234</v>
+      </c>
+      <c r="G34" s="94">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="H34" s="94">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="I34" s="94">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="J34" s="87">
+        <v>6.9210000000000004E-9</v>
+      </c>
+      <c r="K34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="93"/>
+      <c r="B35" s="89"/>
+      <c r="D35" t="s">
+        <v>345</v>
+      </c>
+      <c r="E35">
+        <v>-0.45540000000000003</v>
+      </c>
+      <c r="F35">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35">
+        <v>2.3410000000000002E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="93"/>
+      <c r="B36" s="89" t="s">
+        <v>337</v>
+      </c>
+      <c r="C36" t="s">
+        <v>338</v>
+      </c>
+      <c r="D36" t="s">
+        <v>335</v>
+      </c>
+      <c r="E36">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="F36">
+        <v>0.12</v>
+      </c>
+      <c r="G36" s="94">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="H36" s="94">
+        <v>0.245</v>
+      </c>
+      <c r="I36" s="94">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J36" s="87">
+        <v>1.2E-8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="93"/>
+      <c r="B37" s="89"/>
+      <c r="D37" t="s">
+        <v>345</v>
+      </c>
+      <c r="E37">
+        <v>-0.3422</v>
+      </c>
+      <c r="F37">
+        <v>0.1298</v>
+      </c>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="93"/>
+      <c r="B38" s="89" t="s">
+        <v>339</v>
+      </c>
+      <c r="C38" t="s">
+        <v>338</v>
+      </c>
+      <c r="D38" t="s">
+        <v>335</v>
+      </c>
+      <c r="E38">
+        <v>0.79139999999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.1234</v>
+      </c>
+      <c r="G38" s="94">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="H38" s="94">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="I38" s="94">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="J38" s="87">
+        <v>6.9200000000000001E-9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="93"/>
+      <c r="B39" s="89"/>
+      <c r="D39" t="s">
+        <v>345</v>
+      </c>
+      <c r="E39">
+        <v>-0.45540000000000003</v>
+      </c>
+      <c r="F39">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39">
+        <v>2.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="93"/>
+      <c r="B40" s="89" t="s">
+        <v>340</v>
+      </c>
+      <c r="C40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D40" t="s">
+        <v>335</v>
+      </c>
+      <c r="E40">
+        <v>0.79139999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.1234</v>
+      </c>
+      <c r="G40" s="94">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="H40" s="94">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="I40" s="94">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="J40" s="87">
+        <v>6.9200000000000001E-9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>345</v>
+      </c>
+      <c r="E41">
+        <v>-0.45540000000000003</v>
+      </c>
+      <c r="F41">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41">
+        <v>2.3400000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L6:L11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5BA507-4B43-AC4E-B08A-3A1E127153A8}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="101" t="s">
+        <v>330</v>
+      </c>
+      <c r="H1" s="101" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="102" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2">
+        <v>0.43160999999999999</v>
+      </c>
+      <c r="E2">
+        <v>8.9249999999999996E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.433</v>
+      </c>
+      <c r="G2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H2">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="I2" s="87">
+        <v>2.4399999999999999E-6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="88"/>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>0.26634000000000002</v>
+      </c>
+      <c r="E3">
+        <v>5.5309999999999998E-2</v>
+      </c>
+      <c r="I3" s="87">
+        <v>2.52E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4">
+        <v>0.63912000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.23122999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.124</v>
+      </c>
+      <c r="H4">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="I4">
+        <v>8.1899999999999994E-3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="88"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6">
+        <v>1.06124</v>
+      </c>
+      <c r="E6">
+        <v>0.19517000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I6" s="87">
+        <v>6.1500000000000004E-7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="88"/>
+      <c r="C7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7">
+        <v>-0.38041000000000003</v>
+      </c>
+      <c r="E7">
+        <v>8.6220000000000005E-2</v>
+      </c>
+      <c r="I7" s="87">
+        <v>3.2799999999999998E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8">
+        <v>0.73280000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="I8" s="87">
+        <v>5.7199999999999999E-7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="88"/>
+      <c r="C9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9">
+        <v>-0.33360000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="I9">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="88"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B92E129-2BB0-994E-845F-07E029B53A76}">
   <dimension ref="A1:P25"/>
   <sheetViews>
@@ -3253,35 +4731,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="65" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="67" t="s">
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="66"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="81"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
+      <c r="A2" s="84"/>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
@@ -3935,19 +5413,19 @@
       <c r="B15" s="3">
         <v>6.88750127946237E-2</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="22">
         <v>0.34445449610162798</v>
       </c>
-      <c r="F15" s="78">
-        <v>0</v>
-      </c>
-      <c r="G15" s="78">
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="4">
@@ -3956,10 +5434,10 @@
       <c r="I15" s="7">
         <v>-6.5705100000000002E-2</v>
       </c>
-      <c r="J15" s="85">
-        <v>0</v>
-      </c>
-      <c r="K15" s="85">
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
         <v>0</v>
       </c>
       <c r="L15" s="9">
@@ -3968,10 +5446,10 @@
       <c r="M15" s="7">
         <v>-9.7653299999999998E-2</v>
       </c>
-      <c r="N15" s="85">
-        <v>0</v>
-      </c>
-      <c r="O15" s="85">
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
         <v>0</v>
       </c>
       <c r="P15" s="9">
@@ -4085,19 +5563,19 @@
       <c r="B18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="1">
         <v>0.86459871719232595</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="1">
         <v>4.2584655578084003E-2</v>
       </c>
-      <c r="F18" s="78">
-        <v>0</v>
-      </c>
-      <c r="G18" s="78">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="4">
@@ -4106,10 +5584,10 @@
       <c r="I18" s="7">
         <v>-1.3967000000000001E-3</v>
       </c>
-      <c r="J18" s="85">
-        <v>0</v>
-      </c>
-      <c r="K18" s="85">
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
         <v>1</v>
       </c>
       <c r="L18" s="9">
@@ -4118,10 +5596,10 @@
       <c r="M18" s="24">
         <v>-0.30111870000000002</v>
       </c>
-      <c r="N18" s="85">
+      <c r="N18" s="8">
         <v>-0.7172444</v>
       </c>
-      <c r="O18" s="85">
+      <c r="O18" s="8">
         <v>0</v>
       </c>
       <c r="P18" s="9">
@@ -4135,19 +5613,19 @@
       <c r="B19" s="21">
         <v>0.38345987651346702</v>
       </c>
-      <c r="C19" s="78">
+      <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="22">
         <v>0.228119921464676</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="1">
         <v>-3.5890256591688999E-2</v>
       </c>
-      <c r="G19" s="78">
+      <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="4">
@@ -4156,10 +5634,10 @@
       <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="J19" s="85">
-        <v>0</v>
-      </c>
-      <c r="K19" s="85">
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
         <v>0</v>
       </c>
       <c r="L19" s="9">
@@ -4168,10 +5646,10 @@
       <c r="M19" s="7">
         <v>-0.1587258</v>
       </c>
-      <c r="N19" s="85">
+      <c r="N19" s="8">
         <v>0.45095255000000001</v>
       </c>
-      <c r="O19" s="85">
+      <c r="O19" s="8">
         <v>0</v>
       </c>
       <c r="P19" s="9">
@@ -4420,12 +5898,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E119337B-178C-1641-8548-9AE40C5AB899}">
   <dimension ref="B2:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G61" workbookViewId="0">
-      <selection activeCell="P71" sqref="P71"/>
+    <sheetView topLeftCell="G28" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4441,15 +5919,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="91"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
@@ -4470,10 +5948,9 @@
       <c r="G3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="63" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -4485,10 +5962,9 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
-      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="60"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
@@ -4497,7 +5973,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="60"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -4506,7 +5982,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="60"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -4515,7 +5991,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="61"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
@@ -4525,10 +6001,9 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="78"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="63" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -4540,10 +6015,9 @@
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
-      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="60"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4555,7 +6029,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="60"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4567,7 +6041,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="60"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -4576,7 +6050,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="61"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -4586,10 +6060,9 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="78"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="63" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -4603,10 +6076,9 @@
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
-      <c r="H14" s="78"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="60"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -4618,7 +6090,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="60"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -4633,7 +6105,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="60"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -4645,7 +6117,7 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="61"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -4657,10 +6129,9 @@
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="78"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="64" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -4671,7 +6142,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="60"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -4680,7 +6151,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="60"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -4689,7 +6160,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="60"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -4698,7 +6169,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="61"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
@@ -4708,62 +6179,61 @@
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="78"/>
     </row>
     <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="63" t="s">
+      <c r="J30" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
     </row>
     <row r="31" spans="2:20" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J31" s="70" t="s">
+      <c r="J31" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="K31" s="70" t="s">
+      <c r="K31" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="L31" s="70" t="s">
+      <c r="L31" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="M31" s="70" t="s">
+      <c r="M31" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="O31" s="70" t="s">
+      <c r="O31" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="P31" s="70" t="s">
+      <c r="P31" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="Q31" s="70" t="s">
+      <c r="Q31" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="R31" s="70" t="s">
+      <c r="R31" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="S31" s="70" t="s">
+      <c r="S31" s="55" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J32" s="89" t="s">
+      <c r="J32" s="85" t="s">
         <v>79</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="87" t="s">
+      <c r="M32" s="61" t="s">
         <v>273</v>
       </c>
       <c r="T32" s="1" t="s">
@@ -4771,16 +6241,16 @@
       </c>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J33" s="90"/>
+      <c r="J33" s="86"/>
       <c r="K33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="87" t="s">
+      <c r="M33" s="61" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="34" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J34" s="90"/>
+      <c r="J34" s="86"/>
       <c r="K34" s="14" t="s">
         <v>17</v>
       </c>
@@ -4789,7 +6259,7 @@
       </c>
     </row>
     <row r="35" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J35" s="90"/>
+      <c r="J35" s="86"/>
       <c r="K35" s="14" t="s">
         <v>34</v>
       </c>
@@ -4798,16 +6268,16 @@
       </c>
     </row>
     <row r="36" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J36" s="90"/>
+      <c r="J36" s="86"/>
       <c r="K36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="M36" s="87" t="s">
+      <c r="M36" s="61" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="37" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J37" s="90"/>
+      <c r="J37" s="86"/>
       <c r="K37" s="14" t="s">
         <v>18</v>
       </c>
@@ -4819,7 +6289,7 @@
       </c>
     </row>
     <row r="38" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J38" s="90"/>
+      <c r="J38" s="86"/>
       <c r="K38" s="14" t="s">
         <v>37</v>
       </c>
@@ -4828,20 +6298,20 @@
       </c>
     </row>
     <row r="39" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J39" s="90"/>
+      <c r="J39" s="86"/>
       <c r="K39" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M39" s="87" t="s">
+      <c r="M39" s="61" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="40" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J40" s="90"/>
+      <c r="J40" s="86"/>
       <c r="K40" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="87" t="s">
+      <c r="M40" s="61" t="s">
         <v>273</v>
       </c>
       <c r="T40" s="1" t="s">
@@ -4849,11 +6319,11 @@
       </c>
     </row>
     <row r="41" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J41" s="90"/>
+      <c r="J41" s="86"/>
       <c r="K41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="87" t="s">
+      <c r="M41" s="61" t="s">
         <v>273</v>
       </c>
       <c r="T41" s="1" t="s">
@@ -4861,7 +6331,7 @@
       </c>
     </row>
     <row r="42" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="90"/>
+      <c r="J42" s="86"/>
       <c r="K42" s="14" t="s">
         <v>13</v>
       </c>
@@ -4873,7 +6343,7 @@
       </c>
     </row>
     <row r="43" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J43" s="90"/>
+      <c r="J43" s="86"/>
       <c r="K43" s="14" t="s">
         <v>14</v>
       </c>
@@ -4882,7 +6352,7 @@
       </c>
     </row>
     <row r="44" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J44" s="90"/>
+      <c r="J44" s="86"/>
       <c r="K44" s="14" t="s">
         <v>38</v>
       </c>
@@ -4891,7 +6361,7 @@
       </c>
     </row>
     <row r="45" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J45" s="90"/>
+      <c r="J45" s="86"/>
       <c r="K45" s="14" t="s">
         <v>20</v>
       </c>
@@ -4903,20 +6373,20 @@
       </c>
     </row>
     <row r="46" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J46" s="90"/>
+      <c r="J46" s="86"/>
       <c r="K46" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M46" s="87" t="s">
+      <c r="M46" s="61" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="47" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J47" s="90"/>
+      <c r="J47" s="86"/>
       <c r="K47" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L47" s="88" t="s">
+      <c r="L47" s="62" t="s">
         <v>305</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -4924,16 +6394,16 @@
       </c>
     </row>
     <row r="48" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J48" s="90"/>
+      <c r="J48" s="86"/>
       <c r="K48" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M48" s="87" t="s">
+      <c r="M48" s="61" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="49" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J49" s="90"/>
+      <c r="J49" s="86"/>
       <c r="K49" s="14" t="s">
         <v>42</v>
       </c>
@@ -4942,27 +6412,27 @@
       </c>
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J50" s="90"/>
+      <c r="J50" s="86"/>
       <c r="K50" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M50" s="87" t="s">
+      <c r="M50" s="61" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J51" s="89" t="s">
+      <c r="J51" s="85" t="s">
         <v>80</v>
       </c>
       <c r="K51" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M51" s="87" t="s">
+      <c r="M51" s="61" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="52" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J52" s="90"/>
+      <c r="J52" s="86"/>
       <c r="K52" s="14" t="s">
         <v>16</v>
       </c>
@@ -4971,7 +6441,7 @@
       </c>
     </row>
     <row r="53" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J53" s="90"/>
+      <c r="J53" s="86"/>
       <c r="K53" s="14" t="s">
         <v>17</v>
       </c>
@@ -4980,7 +6450,7 @@
       </c>
     </row>
     <row r="54" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J54" s="90"/>
+      <c r="J54" s="86"/>
       <c r="K54" s="14" t="s">
         <v>34</v>
       </c>
@@ -4989,7 +6459,7 @@
       </c>
     </row>
     <row r="55" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J55" s="90"/>
+      <c r="J55" s="86"/>
       <c r="K55" s="14" t="s">
         <v>35</v>
       </c>
@@ -4998,7 +6468,7 @@
       </c>
     </row>
     <row r="56" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J56" s="90"/>
+      <c r="J56" s="86"/>
       <c r="K56" s="14" t="s">
         <v>18</v>
       </c>
@@ -5007,7 +6477,7 @@
       </c>
     </row>
     <row r="57" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J57" s="90"/>
+      <c r="J57" s="86"/>
       <c r="K57" s="14" t="s">
         <v>37</v>
       </c>
@@ -5019,7 +6489,7 @@
       </c>
     </row>
     <row r="58" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J58" s="90"/>
+      <c r="J58" s="86"/>
       <c r="K58" s="14" t="s">
         <v>36</v>
       </c>
@@ -5028,7 +6498,7 @@
       </c>
     </row>
     <row r="59" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J59" s="90"/>
+      <c r="J59" s="86"/>
       <c r="K59" s="14" t="s">
         <v>12</v>
       </c>
@@ -5040,16 +6510,16 @@
       </c>
     </row>
     <row r="60" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J60" s="90"/>
+      <c r="J60" s="86"/>
       <c r="K60" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M60" s="87" t="s">
+      <c r="M60" s="61" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="61" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J61" s="90"/>
+      <c r="J61" s="86"/>
       <c r="K61" s="14" t="s">
         <v>13</v>
       </c>
@@ -5061,7 +6531,7 @@
       </c>
     </row>
     <row r="62" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J62" s="90"/>
+      <c r="J62" s="86"/>
       <c r="K62" s="14" t="s">
         <v>14</v>
       </c>
@@ -5070,7 +6540,7 @@
       </c>
     </row>
     <row r="63" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J63" s="90"/>
+      <c r="J63" s="86"/>
       <c r="K63" s="14" t="s">
         <v>38</v>
       </c>
@@ -5082,7 +6552,7 @@
       </c>
     </row>
     <row r="64" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J64" s="90"/>
+      <c r="J64" s="86"/>
       <c r="K64" s="14" t="s">
         <v>20</v>
       </c>
@@ -5094,11 +6564,11 @@
       </c>
     </row>
     <row r="65" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J65" s="90"/>
+      <c r="J65" s="86"/>
       <c r="K65" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M65" s="87" t="s">
+      <c r="M65" s="61" t="s">
         <v>273</v>
       </c>
       <c r="T65" s="1" t="s">
@@ -5106,11 +6576,11 @@
       </c>
     </row>
     <row r="66" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J66" s="90"/>
+      <c r="J66" s="86"/>
       <c r="K66" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M66" s="87" t="s">
+      <c r="M66" s="61" t="s">
         <v>273</v>
       </c>
       <c r="T66" s="1" t="s">
@@ -5118,7 +6588,7 @@
       </c>
     </row>
     <row r="67" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J67" s="90"/>
+      <c r="J67" s="86"/>
       <c r="K67" s="14" t="s">
         <v>41</v>
       </c>
@@ -5127,7 +6597,7 @@
       </c>
     </row>
     <row r="68" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J68" s="90"/>
+      <c r="J68" s="86"/>
       <c r="K68" s="14" t="s">
         <v>42</v>
       </c>
@@ -5139,7 +6609,7 @@
       </c>
     </row>
     <row r="69" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J69" s="90"/>
+      <c r="J69" s="86"/>
       <c r="K69" s="15" t="s">
         <v>15</v>
       </c>
@@ -5148,13 +6618,13 @@
       </c>
     </row>
     <row r="70" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J70" s="89" t="s">
+      <c r="J70" s="85" t="s">
         <v>81</v>
       </c>
       <c r="K70" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M70" s="87" t="s">
+      <c r="M70" s="61" t="s">
         <v>273</v>
       </c>
       <c r="T70" s="1" t="s">
@@ -5162,7 +6632,7 @@
       </c>
     </row>
     <row r="71" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J71" s="90"/>
+      <c r="J71" s="86"/>
       <c r="K71" s="14" t="s">
         <v>16</v>
       </c>
@@ -5171,7 +6641,7 @@
       </c>
     </row>
     <row r="72" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J72" s="90"/>
+      <c r="J72" s="86"/>
       <c r="K72" s="14" t="s">
         <v>17</v>
       </c>
@@ -5183,7 +6653,7 @@
       </c>
     </row>
     <row r="73" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J73" s="90"/>
+      <c r="J73" s="86"/>
       <c r="K73" s="14" t="s">
         <v>34</v>
       </c>
@@ -5192,16 +6662,16 @@
       </c>
     </row>
     <row r="74" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J74" s="90"/>
+      <c r="J74" s="86"/>
       <c r="K74" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="M74" s="87" t="s">
+      <c r="M74" s="61" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="75" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J75" s="90"/>
+      <c r="J75" s="86"/>
       <c r="K75" s="14" t="s">
         <v>18</v>
       </c>
@@ -5213,7 +6683,7 @@
       </c>
     </row>
     <row r="76" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J76" s="90"/>
+      <c r="J76" s="86"/>
       <c r="K76" s="14" t="s">
         <v>37</v>
       </c>
@@ -5222,7 +6692,7 @@
       </c>
     </row>
     <row r="77" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J77" s="90"/>
+      <c r="J77" s="86"/>
       <c r="K77" s="14" t="s">
         <v>36</v>
       </c>
@@ -5234,7 +6704,7 @@
       </c>
     </row>
     <row r="78" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J78" s="90"/>
+      <c r="J78" s="86"/>
       <c r="K78" s="14" t="s">
         <v>12</v>
       </c>
@@ -5243,7 +6713,7 @@
       </c>
     </row>
     <row r="79" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J79" s="90"/>
+      <c r="J79" s="86"/>
       <c r="K79" s="14" t="s">
         <v>19</v>
       </c>
@@ -5255,7 +6725,7 @@
       </c>
     </row>
     <row r="80" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J80" s="90"/>
+      <c r="J80" s="86"/>
       <c r="K80" s="14" t="s">
         <v>13</v>
       </c>
@@ -5267,7 +6737,7 @@
       </c>
     </row>
     <row r="81" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J81" s="90"/>
+      <c r="J81" s="86"/>
       <c r="K81" s="14" t="s">
         <v>14</v>
       </c>
@@ -5279,7 +6749,7 @@
       </c>
     </row>
     <row r="82" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J82" s="90"/>
+      <c r="J82" s="86"/>
       <c r="K82" s="14" t="s">
         <v>38</v>
       </c>
@@ -5294,7 +6764,7 @@
       </c>
     </row>
     <row r="83" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J83" s="90"/>
+      <c r="J83" s="86"/>
       <c r="K83" s="14" t="s">
         <v>20</v>
       </c>
@@ -5303,7 +6773,7 @@
       </c>
     </row>
     <row r="84" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J84" s="90"/>
+      <c r="J84" s="86"/>
       <c r="K84" s="14" t="s">
         <v>33</v>
       </c>
@@ -5312,7 +6782,7 @@
       </c>
     </row>
     <row r="85" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J85" s="90"/>
+      <c r="J85" s="86"/>
       <c r="K85" s="14" t="s">
         <v>39</v>
       </c>
@@ -5321,7 +6791,7 @@
       </c>
     </row>
     <row r="86" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J86" s="90"/>
+      <c r="J86" s="86"/>
       <c r="K86" s="14" t="s">
         <v>41</v>
       </c>
@@ -5336,7 +6806,7 @@
       </c>
     </row>
     <row r="87" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J87" s="90"/>
+      <c r="J87" s="86"/>
       <c r="K87" s="14" t="s">
         <v>42</v>
       </c>
@@ -5345,7 +6815,7 @@
       </c>
     </row>
     <row r="88" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J88" s="90"/>
+      <c r="J88" s="86"/>
       <c r="K88" s="15" t="s">
         <v>15</v>
       </c>
@@ -5372,7 +6842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9F63A6-D668-3143-8DC9-34686F6E9D3E}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -5825,11 +7295,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3FD98D-D316-FD42-8674-38FD19B76A16}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7739,7 +9209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5386430B-DFB3-A74D-968B-1486CE660634}">
   <dimension ref="A1:H2935"/>
   <sheetViews>
@@ -84065,7 +85535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D694EB28-269F-0D4D-97A6-F8C5DD4D1896}">
   <dimension ref="A1:H37"/>
   <sheetViews>

--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176B90E2-007D-304D-A96F-A997FDA19113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D843D7-19D2-374F-A4AB-BEC5E3E2240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="500" windowWidth="27740" windowHeight="17500" activeTab="2" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="27660" windowHeight="17500" activeTab="2" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
   <sheets>
     <sheet name="exceedances" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HDS!$K$32:$K$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PCAs!$A$1:$P$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1156,13 +1156,7 @@
     <t xml:space="preserve">seasonMonsoon   0.6889     0.2593   2.657   0.0108 *  </t>
   </si>
   <si>
-    <t>(Intercept)    -2.6709     0.2075 -12.873  &lt; 2e-16 ***</t>
-  </si>
-  <si>
     <t xml:space="preserve">seasonMonsoon   1.1836     0.3388   3.493  0.00107 ** </t>
-  </si>
-  <si>
-    <t>(Intercept)     3.3942     0.2381 21.6167  14.257  1.8e-12 ***</t>
   </si>
   <si>
     <t xml:space="preserve">seasonMonsoon   0.5964     0.2995 38.6475   1.991   0.0535 .  </t>
@@ -1754,6 +1748,12 @@
   <si>
     <t>6&gt;5&gt;3&gt;1&gt;4&gt;2</t>
   </si>
+  <si>
+    <t>(Intercept)    -2.6709     0.2075 -12.873  &lt;2e-16 ***</t>
+  </si>
+  <si>
+    <t>(Intercept )     3.3942     0.2381 21.6167  14.257  1.8e-12 ***</t>
+  </si>
 </sst>
 </file>
 
@@ -2102,7 +2102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2232,6 +2232,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2242,22 +2245,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2268,14 +2262,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2283,8 +2280,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2301,20 +2310,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3295,27 +3290,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="86" t="s">
+      <c r="M31" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="87" t="s">
+      <c r="M32" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="85" t="s">
+      <c r="N32" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
     </row>
     <row r="33" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M33" s="81"/>
+      <c r="M33" s="82"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -3389,29 +3384,29 @@
       </c>
     </row>
     <row r="44" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y44" s="94" t="s">
+      <c r="Y44" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="Z44" s="94"/>
-      <c r="AA44" s="94"/>
-      <c r="AB44" s="94"/>
-      <c r="AC44" s="94"/>
+      <c r="Z44" s="93"/>
+      <c r="AA44" s="93"/>
+      <c r="AB44" s="93"/>
+      <c r="AC44" s="93"/>
     </row>
     <row r="45" spans="13:29" x14ac:dyDescent="0.2">
       <c r="Y45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Z45" s="95" t="s">
+      <c r="Z45" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
+      <c r="AA45" s="94"/>
+      <c r="AB45" s="94"/>
       <c r="AC45" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y46" s="79" t="s">
+      <c r="Y46" s="80" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="8" t="s">
@@ -3425,7 +3420,7 @@
       </c>
     </row>
     <row r="47" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y47" s="80"/>
+      <c r="Y47" s="81"/>
       <c r="Z47" s="8">
         <v>0</v>
       </c>
@@ -3437,7 +3432,7 @@
       </c>
     </row>
     <row r="48" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y48" s="80"/>
+      <c r="Y48" s="81"/>
       <c r="Z48" s="8">
         <v>0.5</v>
       </c>
@@ -3449,7 +3444,7 @@
       </c>
     </row>
     <row r="49" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y49" s="80"/>
+      <c r="Y49" s="81"/>
       <c r="Z49" s="8">
         <v>1</v>
       </c>
@@ -3461,7 +3456,7 @@
       </c>
     </row>
     <row r="50" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y50" s="80"/>
+      <c r="Y50" s="81"/>
       <c r="Z50" s="8">
         <v>1.5</v>
       </c>
@@ -3473,7 +3468,7 @@
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="81"/>
+      <c r="Y51" s="82"/>
       <c r="Z51" s="11">
         <v>2</v>
       </c>
@@ -3486,7 +3481,7 @@
       <c r="AC51" s="13"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y52" s="79" t="s">
+      <c r="Y52" s="80" t="s">
         <v>69</v>
       </c>
       <c r="Z52" s="1" t="s">
@@ -3495,62 +3490,62 @@
       <c r="AA52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC52" s="82" t="s">
+      <c r="AC52" s="90" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="80"/>
+      <c r="Y53" s="81"/>
       <c r="Z53" s="1">
         <v>0</v>
       </c>
       <c r="AA53" s="34">
         <v>6.1733623452348702E-2</v>
       </c>
-      <c r="AC53" s="83"/>
+      <c r="AC53" s="92"/>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y54" s="80"/>
+      <c r="Y54" s="81"/>
       <c r="Z54" s="1">
         <v>2</v>
       </c>
       <c r="AA54" s="34">
         <v>1.20772053410085E-2</v>
       </c>
-      <c r="AC54" s="83"/>
+      <c r="AC54" s="92"/>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y55" s="80"/>
+      <c r="Y55" s="81"/>
       <c r="Z55" s="1">
         <v>4</v>
       </c>
       <c r="AA55" s="31">
         <v>2.2662402083130201E-3</v>
       </c>
-      <c r="AC55" s="83"/>
+      <c r="AC55" s="92"/>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y56" s="80"/>
+      <c r="Y56" s="81"/>
       <c r="Z56" s="1">
         <v>6</v>
       </c>
       <c r="AA56" s="28">
         <v>4.2184786680835203E-4</v>
       </c>
-      <c r="AC56" s="83"/>
+      <c r="AC56" s="92"/>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y57" s="80"/>
+      <c r="Y57" s="81"/>
       <c r="Z57" s="1">
         <v>8</v>
       </c>
       <c r="AA57" s="28">
         <v>7.8406646322768398E-5</v>
       </c>
-      <c r="AC57" s="83"/>
+      <c r="AC57" s="92"/>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y58" s="81"/>
+      <c r="Y58" s="82"/>
       <c r="Z58" s="13">
         <v>10</v>
       </c>
@@ -3558,10 +3553,10 @@
         <v>1.4568956039108299E-5</v>
       </c>
       <c r="AB58" s="13"/>
-      <c r="AC58" s="84"/>
+      <c r="AC58" s="91"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y59" s="79" t="s">
+      <c r="Y59" s="80" t="s">
         <v>73</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -3570,72 +3565,72 @@
       <c r="AA59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" s="82" t="s">
+      <c r="AC59" s="90" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y60" s="80"/>
+      <c r="Y60" s="81"/>
       <c r="Z60" s="1">
         <v>0</v>
       </c>
       <c r="AA60" s="34">
         <v>4.213704983443E-2</v>
       </c>
-      <c r="AC60" s="83"/>
+      <c r="AC60" s="92"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y61" s="80"/>
+      <c r="Y61" s="81"/>
       <c r="Z61" s="1">
         <v>4</v>
       </c>
       <c r="AA61" s="36">
         <v>0.70383460067707004</v>
       </c>
-      <c r="AC61" s="83"/>
+      <c r="AC61" s="92"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y62" s="80"/>
+      <c r="Y62" s="81"/>
       <c r="Z62" s="1">
         <v>8</v>
       </c>
       <c r="AA62" s="36">
         <v>0.99227108557330002</v>
       </c>
-      <c r="AC62" s="83"/>
+      <c r="AC62" s="92"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y63" s="80"/>
+      <c r="Y63" s="81"/>
       <c r="Z63" s="1">
         <v>12</v>
       </c>
       <c r="AA63" s="37">
         <v>0.99985583826317304</v>
       </c>
-      <c r="AC63" s="83"/>
+      <c r="AC63" s="92"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y64" s="80"/>
+      <c r="Y64" s="81"/>
       <c r="Z64" s="1">
         <v>16</v>
       </c>
       <c r="AA64" s="37">
         <v>0.99999733107778499</v>
       </c>
-      <c r="AC64" s="83"/>
+      <c r="AC64" s="92"/>
     </row>
     <row r="65" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y65" s="80"/>
+      <c r="Y65" s="81"/>
       <c r="Z65" s="1">
         <v>20</v>
       </c>
       <c r="AA65" s="37">
         <v>0.99999995059606805</v>
       </c>
-      <c r="AC65" s="83"/>
+      <c r="AC65" s="92"/>
     </row>
     <row r="66" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y66" s="81"/>
+      <c r="Y66" s="82"/>
       <c r="Z66" s="13">
         <v>24</v>
       </c>
@@ -3643,7 +3638,7 @@
         <v>0.99999999908549497</v>
       </c>
       <c r="AB66" s="13"/>
-      <c r="AC66" s="84"/>
+      <c r="AC66" s="91"/>
     </row>
     <row r="71" spans="25:36" x14ac:dyDescent="0.2">
       <c r="AD71" s="1" t="s">
@@ -3692,7 +3687,7 @@
       </c>
     </row>
     <row r="74" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD74" s="82" t="s">
+      <c r="AD74" s="90" t="s">
         <v>9</v>
       </c>
       <c r="AE74" s="48" t="s">
@@ -3712,7 +3707,7 @@
       </c>
     </row>
     <row r="75" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="84"/>
+      <c r="AD75" s="91"/>
       <c r="AE75" s="49" t="s">
         <v>13</v>
       </c>
@@ -3730,7 +3725,7 @@
       </c>
     </row>
     <row r="76" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD76" s="82" t="s">
+      <c r="AD76" s="90" t="s">
         <v>10</v>
       </c>
       <c r="AE76" s="48" t="s">
@@ -3750,7 +3745,7 @@
       </c>
     </row>
     <row r="77" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD77" s="83"/>
+      <c r="AD77" s="92"/>
       <c r="AE77" s="50" t="s">
         <v>17</v>
       </c>
@@ -3768,7 +3763,7 @@
       </c>
     </row>
     <row r="78" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD78" s="84"/>
+      <c r="AD78" s="91"/>
       <c r="AE78" s="49" t="s">
         <v>12</v>
       </c>
@@ -3786,7 +3781,7 @@
       </c>
     </row>
     <row r="79" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD79" s="82" t="s">
+      <c r="AD79" s="90" t="s">
         <v>11</v>
       </c>
       <c r="AE79" s="48" t="s">
@@ -3806,7 +3801,7 @@
       </c>
     </row>
     <row r="80" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="83"/>
+      <c r="AD80" s="92"/>
       <c r="AE80" s="50" t="s">
         <v>19</v>
       </c>
@@ -3824,7 +3819,7 @@
       </c>
     </row>
     <row r="81" spans="30:47" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD81" s="83"/>
+      <c r="AD81" s="92"/>
       <c r="AE81" s="50" t="s">
         <v>13</v>
       </c>
@@ -3842,7 +3837,7 @@
       </c>
     </row>
     <row r="82" spans="30:47" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD82" s="84"/>
+      <c r="AD82" s="91"/>
       <c r="AE82" s="49" t="s">
         <v>15</v>
       </c>
@@ -3860,18 +3855,18 @@
       </c>
     </row>
     <row r="87" spans="30:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL87" s="86" t="s">
+      <c r="AL87" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="AM87" s="86"/>
-      <c r="AN87" s="86"/>
-      <c r="AO87" s="86"/>
-      <c r="AP87" s="86"/>
-      <c r="AQ87" s="86"/>
-      <c r="AR87" s="86"/>
-      <c r="AS87" s="86"/>
-      <c r="AT87" s="86"/>
-      <c r="AU87" s="86"/>
+      <c r="AM87" s="89"/>
+      <c r="AN87" s="89"/>
+      <c r="AO87" s="89"/>
+      <c r="AP87" s="89"/>
+      <c r="AQ87" s="89"/>
+      <c r="AR87" s="89"/>
+      <c r="AS87" s="89"/>
+      <c r="AT87" s="89"/>
+      <c r="AU87" s="89"/>
     </row>
     <row r="88" spans="30:47" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AL88" s="55" t="s">
@@ -3906,13 +3901,13 @@
       </c>
     </row>
     <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL89" s="88" t="s">
+      <c r="AL89" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="AM89" s="91" t="s">
+      <c r="AM89" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="AN89" s="79" t="s">
+      <c r="AN89" s="80" t="s">
         <v>13</v>
       </c>
       <c r="AO89" s="40" t="s">
@@ -3930,17 +3925,17 @@
       <c r="AS89" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT89" s="88" t="s">
+      <c r="AT89" s="86" t="s">
         <v>287</v>
       </c>
-      <c r="AU89" s="91" t="s">
+      <c r="AU89" s="83" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL90" s="89"/>
-      <c r="AM90" s="92"/>
-      <c r="AN90" s="80"/>
+      <c r="AL90" s="87"/>
+      <c r="AM90" s="84"/>
+      <c r="AN90" s="81"/>
       <c r="AO90" s="1" t="s">
         <v>68</v>
       </c>
@@ -3956,13 +3951,13 @@
       <c r="AS90" s="58">
         <v>1E-3</v>
       </c>
-      <c r="AT90" s="89"/>
-      <c r="AU90" s="92"/>
+      <c r="AT90" s="87"/>
+      <c r="AU90" s="84"/>
     </row>
     <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL91" s="90"/>
-      <c r="AM91" s="93"/>
-      <c r="AN91" s="81"/>
+      <c r="AL91" s="88"/>
+      <c r="AM91" s="85"/>
+      <c r="AN91" s="82"/>
       <c r="AO91" s="13" t="s">
         <v>286</v>
       </c>
@@ -3978,17 +3973,17 @@
       <c r="AS91" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AT91" s="90"/>
-      <c r="AU91" s="93"/>
+      <c r="AT91" s="88"/>
+      <c r="AU91" s="85"/>
     </row>
     <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL92" s="88" t="s">
+      <c r="AL92" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="AM92" s="88" t="s">
+      <c r="AM92" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="AN92" s="79" t="s">
+      <c r="AN92" s="80" t="s">
         <v>12</v>
       </c>
       <c r="AO92" s="40" t="s">
@@ -4006,17 +4001,17 @@
       <c r="AS92" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT92" s="88" t="s">
+      <c r="AT92" s="86" t="s">
         <v>287</v>
       </c>
-      <c r="AU92" s="91" t="s">
+      <c r="AU92" s="83" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL93" s="89"/>
-      <c r="AM93" s="89"/>
-      <c r="AN93" s="80"/>
+      <c r="AL93" s="87"/>
+      <c r="AM93" s="87"/>
+      <c r="AN93" s="81"/>
       <c r="AO93" s="1" t="s">
         <v>68</v>
       </c>
@@ -4032,13 +4027,13 @@
       <c r="AS93" s="58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT93" s="89"/>
-      <c r="AU93" s="92"/>
+      <c r="AT93" s="87"/>
+      <c r="AU93" s="84"/>
     </row>
     <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL94" s="89"/>
-      <c r="AM94" s="89"/>
-      <c r="AN94" s="80"/>
+      <c r="AL94" s="87"/>
+      <c r="AM94" s="87"/>
+      <c r="AN94" s="81"/>
       <c r="AO94" s="1" t="s">
         <v>286</v>
       </c>
@@ -4054,15 +4049,15 @@
       <c r="AS94" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT94" s="89"/>
-      <c r="AU94" s="92"/>
+      <c r="AT94" s="87"/>
+      <c r="AU94" s="84"/>
     </row>
     <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL95" s="89"/>
-      <c r="AM95" s="92" t="s">
+      <c r="AL95" s="87"/>
+      <c r="AM95" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="AN95" s="80" t="s">
+      <c r="AN95" s="81" t="s">
         <v>17</v>
       </c>
       <c r="AO95" t="s">
@@ -4080,17 +4075,17 @@
       <c r="AS95" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="AT95" s="89" t="s">
+      <c r="AT95" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="AU95" s="92" t="s">
+      <c r="AU95" s="84" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL96" s="89"/>
-      <c r="AM96" s="92"/>
-      <c r="AN96" s="80"/>
+      <c r="AL96" s="87"/>
+      <c r="AM96" s="84"/>
+      <c r="AN96" s="81"/>
       <c r="AO96" s="1" t="s">
         <v>68</v>
       </c>
@@ -4106,13 +4101,13 @@
       <c r="AS96" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT96" s="89"/>
-      <c r="AU96" s="92"/>
+      <c r="AT96" s="87"/>
+      <c r="AU96" s="84"/>
     </row>
     <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL97" s="90"/>
-      <c r="AM97" s="93"/>
-      <c r="AN97" s="81"/>
+      <c r="AL97" s="88"/>
+      <c r="AM97" s="85"/>
+      <c r="AN97" s="82"/>
       <c r="AO97" s="13" t="s">
         <v>286</v>
       </c>
@@ -4128,17 +4123,17 @@
       <c r="AS97" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT97" s="90"/>
-      <c r="AU97" s="93"/>
+      <c r="AT97" s="88"/>
+      <c r="AU97" s="85"/>
     </row>
     <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL98" s="88" t="s">
+      <c r="AL98" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AM98" s="91" t="s">
+      <c r="AM98" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="AN98" s="79" t="s">
+      <c r="AN98" s="80" t="s">
         <v>13</v>
       </c>
       <c r="AO98" s="60" t="s">
@@ -4156,17 +4151,17 @@
       <c r="AS98" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT98" s="88" t="s">
+      <c r="AT98" s="86" t="s">
         <v>287</v>
       </c>
-      <c r="AU98" s="91" t="s">
+      <c r="AU98" s="83" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL99" s="89"/>
-      <c r="AM99" s="92"/>
-      <c r="AN99" s="80"/>
+      <c r="AL99" s="87"/>
+      <c r="AM99" s="84"/>
+      <c r="AN99" s="81"/>
       <c r="AO99" s="1" t="s">
         <v>68</v>
       </c>
@@ -4182,13 +4177,13 @@
       <c r="AS99" s="58">
         <v>0.04</v>
       </c>
-      <c r="AT99" s="89"/>
-      <c r="AU99" s="92"/>
+      <c r="AT99" s="87"/>
+      <c r="AU99" s="84"/>
     </row>
     <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL100" s="90"/>
-      <c r="AM100" s="93"/>
-      <c r="AN100" s="81"/>
+      <c r="AL100" s="88"/>
+      <c r="AM100" s="85"/>
+      <c r="AN100" s="82"/>
       <c r="AO100" s="13" t="s">
         <v>286</v>
       </c>
@@ -4204,11 +4199,36 @@
       <c r="AS100" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT100" s="90"/>
-      <c r="AU100" s="93"/>
+      <c r="AT100" s="88"/>
+      <c r="AU100" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="AT89:AT91"/>
+    <mergeCell ref="AU89:AU91"/>
+    <mergeCell ref="AL89:AL91"/>
+    <mergeCell ref="AM89:AM91"/>
+    <mergeCell ref="AN89:AN91"/>
+    <mergeCell ref="AL87:AU87"/>
+    <mergeCell ref="AD74:AD75"/>
+    <mergeCell ref="AD76:AD78"/>
+    <mergeCell ref="AD79:AD82"/>
+    <mergeCell ref="Y44:AC44"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="Y46:Y51"/>
+    <mergeCell ref="Y52:Y58"/>
+    <mergeCell ref="Y59:Y66"/>
+    <mergeCell ref="AC52:AC58"/>
+    <mergeCell ref="AC59:AC66"/>
+    <mergeCell ref="AT92:AT94"/>
+    <mergeCell ref="AU92:AU94"/>
+    <mergeCell ref="AU95:AU97"/>
+    <mergeCell ref="AT95:AT97"/>
+    <mergeCell ref="AT98:AT100"/>
+    <mergeCell ref="AU98:AU100"/>
     <mergeCell ref="AN98:AN100"/>
     <mergeCell ref="AM98:AM100"/>
     <mergeCell ref="AL98:AL100"/>
@@ -4217,31 +4237,6 @@
     <mergeCell ref="AM95:AM97"/>
     <mergeCell ref="AN92:AN94"/>
     <mergeCell ref="AN95:AN97"/>
-    <mergeCell ref="AT92:AT94"/>
-    <mergeCell ref="AU92:AU94"/>
-    <mergeCell ref="AU95:AU97"/>
-    <mergeCell ref="AT95:AT97"/>
-    <mergeCell ref="AT98:AT100"/>
-    <mergeCell ref="AU98:AU100"/>
-    <mergeCell ref="AL87:AU87"/>
-    <mergeCell ref="AD74:AD75"/>
-    <mergeCell ref="AD76:AD78"/>
-    <mergeCell ref="AD79:AD82"/>
-    <mergeCell ref="Y44:AC44"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="Y46:Y51"/>
-    <mergeCell ref="Y52:Y58"/>
-    <mergeCell ref="AT89:AT91"/>
-    <mergeCell ref="AU89:AU91"/>
-    <mergeCell ref="AL89:AL91"/>
-    <mergeCell ref="AM89:AM91"/>
-    <mergeCell ref="AN89:AN91"/>
-    <mergeCell ref="Y59:Y66"/>
-    <mergeCell ref="AC52:AC58"/>
-    <mergeCell ref="AC59:AC66"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="M32:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5230,7 +5225,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5284,7 +5279,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
         <v>11</v>
       </c>
@@ -5415,7 +5410,7 @@
       <c r="K6" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="L6" s="96" t="s">
+      <c r="L6" s="97" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5431,7 +5426,7 @@
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
       <c r="K7" s="73"/>
-      <c r="L7" s="96"/>
+      <c r="L7" s="97"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="70"/>
@@ -5465,7 +5460,7 @@
       <c r="K8" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="L8" s="96"/>
+      <c r="L8" s="97"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="70"/>
@@ -5479,7 +5474,7 @@
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
       <c r="K9" s="73"/>
-      <c r="L9" s="96"/>
+      <c r="L9" s="97"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="70"/>
@@ -5511,7 +5506,7 @@
         <v>2.32E-4</v>
       </c>
       <c r="K10" s="73"/>
-      <c r="L10" s="96"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="70"/>
@@ -5525,7 +5520,7 @@
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
       <c r="K11" s="73"/>
-      <c r="L11" s="96"/>
+      <c r="L11" s="97"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="70" t="s">
@@ -6111,13 +6106,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A05086-7512-B243-B5D6-ED5007DB1210}">
   <dimension ref="B3:AN231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S217" zoomScale="112" workbookViewId="0">
-      <selection activeCell="AA229" sqref="AA229"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="10.83203125" style="1"/>
+    <col min="1" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="53.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="10.83203125" style="1"/>
     <col min="15" max="15" width="10.1640625" style="1" customWidth="1"/>
     <col min="16" max="20" width="5.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="10.5" style="1" customWidth="1"/>
@@ -6130,20 +6127,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
@@ -6184,7 +6181,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="98" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -6198,7 +6195,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="103"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="14" t="s">
         <v>16</v>
       </c>
@@ -6210,7 +6207,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="103"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="14" t="s">
         <v>17</v>
       </c>
@@ -6220,16 +6217,72 @@
       <c r="E7" s="1" t="s">
         <v>353</v>
       </c>
+      <c r="F7" s="1" t="str">
+        <f>TRIM(E7)</f>
+        <v>(Intercept) -0.2513 0.1785 20.1608 -1.407 0.175</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>MID($F7,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>MID($F7,13,7)</f>
+        <v>-0.2513</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f>MID($F7,21,6)</f>
+        <v>0.1785</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f>MID($F7,28,7)</f>
+        <v>20.1608</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f>MID($F7,36,6)</f>
+        <v>-1.407</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f>MID($F7,43,5)</f>
+        <v>0.175</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="14"/>
       <c r="E8" s="1" t="s">
         <v>354</v>
       </c>
+      <c r="F8" s="1" t="str">
+        <f>TRIM(E8)</f>
+        <v>seasonMonsoon 0.9379 0.1959 36.5272 4.788 2.78e-05 ***</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>LEFT($F8,6)</f>
+        <v>season</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>MID($F8,15,7)</f>
+        <v xml:space="preserve">0.9379 </v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f>MID($F8,22,6)</f>
+        <v>0.1959</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f>MID($F8,29,7)</f>
+        <v>36.5272</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f>MID($F8,36,6)</f>
+        <v xml:space="preserve"> 4.788</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f>MID($F8,43,8)</f>
+        <v>2.78e-05</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="103"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="14" t="s">
         <v>34</v>
       </c>
@@ -6239,23 +6292,83 @@
       <c r="E9" s="1" t="s">
         <v>356</v>
       </c>
+      <c r="F9" s="1" t="str">
+        <f>TRIM(E9)</f>
+        <v>(Intercept) -1.6985 1.1358 -1.495 0.141785</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>MID($F9,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>MID($F9,13,7)</f>
+        <v>-1.6985</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f>MID($F9,21,6)</f>
+        <v>1.1358</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f>MID($F9,28,7)</f>
+        <v xml:space="preserve">-1.495 </v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f>MID($F9,36,6)</f>
+        <v>.14178</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f>MID($F9,43,5)</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="103"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="14"/>
       <c r="E10" s="61" t="s">
         <v>357</v>
       </c>
+      <c r="F10" s="1" t="str">
+        <f>TRIM(E10)</f>
+        <v>seasonMonsoon 1.0179 0.2732 3.725 0.000542 ***</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>LEFT($F10,6)</f>
+        <v>season</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>MID($F10,15,7)</f>
+        <v xml:space="preserve">1.0179 </v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>MID($F10,22,6)</f>
+        <v>0.2732</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f>MID($F10,29,5)</f>
+        <v>3.725</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f>MID($F10,35,8)</f>
+        <v>0.000542</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f>MID($F10,43,8)</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="103"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="14"/>
       <c r="E11" s="1" t="s">
         <v>358</v>
       </c>
+      <c r="F11" s="1" t="str">
+        <f>TRIM(E11)</f>
+        <v>pH 0.4764 0.1903 2.504 0.015980 *</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="103"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
@@ -6265,9 +6378,13 @@
       <c r="E12" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" ref="F12:F75" si="0">TRIM(E12)</f>
+        <v>null</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="103"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="14" t="s">
         <v>18</v>
       </c>
@@ -6277,16 +6394,72 @@
       <c r="E13" s="1" t="s">
         <v>359</v>
       </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -3.8042 0.1588 -23.959 &lt;2e-16 ***</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>MID($F13,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>MID($F13,13,7)</f>
+        <v>-3.8042</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f>MID($F13,21,6)</f>
+        <v>0.1588</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f>MID($F13,28,7)</f>
+        <v>-23.959</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f>MID($F13,36,6)</f>
+        <v>&lt;2e-16</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f>MID($F13,43,5)</f>
+        <v>***</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="103"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="14"/>
       <c r="E14" s="1" t="s">
         <v>360</v>
       </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 0.6889 0.2593 2.657 0.0108 *</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>LEFT($F14,6)</f>
+        <v>season</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>MID($F14,15,7)</f>
+        <v xml:space="preserve">0.6889 </v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f>MID($F14,22,6)</f>
+        <v>0.2593</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>MID($F14,29,5)</f>
+        <v>2.657</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f>MID($F14,35,8)</f>
+        <v>0.0108 *</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f>MID($F14,43,8)</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="103"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="14" t="s">
         <v>37</v>
       </c>
@@ -6294,18 +6467,74 @@
         <v>349</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>361</v>
+        <v>548</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -2.6709 0.2075 -12.873 &lt;2e-16 ***</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>MID($F15,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>MID($F15,13,7)</f>
+        <v>-2.6709</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>MID($F15,21,6)</f>
+        <v>0.2075</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>MID($F15,28,7)</f>
+        <v>-12.873</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f>MID($F15,36,6)</f>
+        <v>&lt;2e-16</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f>MID($F15,43,5)</f>
+        <v>***</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="103"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="14"/>
       <c r="E16" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="103"/>
+        <v>361</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 1.1836 0.3388 3.493 0.00107 **</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>LEFT($F16,6)</f>
+        <v>season</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>MID($F16,15,7)</f>
+        <v xml:space="preserve">1.1836 </v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f>MID($F16,22,6)</f>
+        <v>0.3388</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>MID($F16,29,5)</f>
+        <v>3.493</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f>MID($F16,35,8)</f>
+        <v xml:space="preserve">0.00107 </v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f>MID($F16,43,8)</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="99"/>
       <c r="C17" s="14" t="s">
         <v>36</v>
       </c>
@@ -6315,9 +6544,13 @@
       <c r="E17" s="61" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="103"/>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="99"/>
       <c r="C18" s="14" t="s">
         <v>12</v>
       </c>
@@ -6327,9 +6560,13 @@
       <c r="E18" s="61" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="103"/>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="99"/>
       <c r="C19" s="14" t="s">
         <v>19</v>
       </c>
@@ -6337,18 +6574,74 @@
         <v>351</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="103"/>
+        <v>549</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept ) 3.3942 0.2381 21.6167 14.257 1.8e-12 ***</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>MID($F19,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>MID($F19,13,7)</f>
+        <v xml:space="preserve"> 3.3942</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f>MID($F19,21,6)</f>
+        <v>0.2381</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f>MID($F19,28,7)</f>
+        <v>21.6167</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f>MID($F19,36,6)</f>
+        <v>14.257</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f>MID($F19,43,8)</f>
+        <v xml:space="preserve">1.8e-12 </v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="99"/>
       <c r="C20" s="14"/>
       <c r="E20" s="61" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="103"/>
+        <v>362</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 0.5964 0.2995 38.6475 1.991 0.0535 .</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>LEFT($F20,6)</f>
+        <v>season</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>MID($F20,15,7)</f>
+        <v xml:space="preserve">0.5964 </v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f>MID($F20,22,6)</f>
+        <v>0.2995</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f>MID($F20,29,5)</f>
+        <v>38.64</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f>MID($F20,35,8)</f>
+        <v xml:space="preserve">5 1.991 </v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f>MID($F20,43,8)</f>
+        <v>0.0535 .</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="99"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
       </c>
@@ -6356,18 +6649,50 @@
         <v>349</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="103"/>
+        <v>363</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) 0.8878 0.2728 3.254 0.002135 **</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="99"/>
       <c r="C22" s="14"/>
       <c r="E22" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="103"/>
+        <v>364</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 1.6737 0.4455 3.757 0.000483 ***</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>LEFT($F22,6)</f>
+        <v>season</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>MID($F22,15,7)</f>
+        <v xml:space="preserve">1.6737 </v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f>MID($F22,22,6)</f>
+        <v>0.4455</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f>MID($F22,29,5)</f>
+        <v>3.757</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f>MID($F22,35,8)</f>
+        <v>0.000483</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f>MID($F22,43,8)</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="99"/>
       <c r="C23" s="14" t="s">
         <v>14</v>
       </c>
@@ -6375,18 +6700,50 @@
         <v>349</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="103"/>
+        <v>365</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -5.9861 1.4550 -4.114 0.000159 ***</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>MID($F23,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>MID($F23,13,7)</f>
+        <v>-5.9861</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f>MID($F23,21,6)</f>
+        <v>1.4550</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f>MID($F23,28,7)</f>
+        <v xml:space="preserve">-4.114 </v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f>MID($F23,36,6)</f>
+        <v>.00015</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f>MID($F23,43,8)</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="99"/>
       <c r="C24" s="14"/>
       <c r="E24" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="103"/>
+        <v>366</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pH 0.6991 0.2362 2.960 0.004850 **</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="99"/>
       <c r="C25" s="14" t="s">
         <v>38</v>
       </c>
@@ -6394,18 +6751,74 @@
         <v>349</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="103"/>
+        <v>367</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -0.5576 0.1952 -2.857 0.00640 **</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>MID($F25,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>MID($F25,13,7)</f>
+        <v>-0.5576</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f>MID($F25,21,6)</f>
+        <v>0.1952</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f>MID($F25,28,7)</f>
+        <v xml:space="preserve">-2.857 </v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f>MID($F25,36,6)</f>
+        <v>.00640</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f>MID($F25,43,8)</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="99"/>
       <c r="C26" s="14"/>
       <c r="E26" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="103"/>
+        <v>368</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 1.0573 0.3187 3.317 0.00178 **</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f>LEFT($F26,6)</f>
+        <v>season</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>MID($F26,15,7)</f>
+        <v xml:space="preserve">1.0573 </v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f>MID($F26,22,6)</f>
+        <v>0.3187</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f>MID($F26,29,5)</f>
+        <v>3.317</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f>MID($F26,35,8)</f>
+        <v xml:space="preserve">0.00178 </v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f>MID($F26,43,8)</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="99"/>
       <c r="C27" s="14" t="s">
         <v>20</v>
       </c>
@@ -6415,9 +6828,13 @@
       <c r="E27" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="103"/>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="99"/>
       <c r="C28" s="14" t="s">
         <v>33</v>
       </c>
@@ -6427,9 +6844,13 @@
       <c r="E28" s="61" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="103"/>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="99"/>
       <c r="C29" s="14" t="s">
         <v>39</v>
       </c>
@@ -6437,19 +6858,51 @@
         <v>349</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="103"/>
+        <v>369</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -2.5541 0.9652 -2.646 0.01110 *</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>MID($F29,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>MID($F29,13,7)</f>
+        <v>-2.5541</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f>MID($F29,21,6)</f>
+        <v>0.9652</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f>MID($F29,28,7)</f>
+        <v xml:space="preserve">-2.646 </v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f>MID($F29,36,6)</f>
+        <v>.01110</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f>MID($F29,43,8)</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="99"/>
       <c r="C30" s="14"/>
       <c r="D30" s="39"/>
       <c r="E30" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="103"/>
+        <v>370</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pH 0.4814 0.1567 3.073 0.00356 **</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="99"/>
       <c r="C31" s="14" t="s">
         <v>41</v>
       </c>
@@ -6459,9 +6912,13 @@
       <c r="E31" s="61" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="103"/>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="99"/>
       <c r="C32" s="14" t="s">
         <v>42</v>
       </c>
@@ -6469,25 +6926,85 @@
         <v>349</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="103"/>
+        <v>371</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -3.2459 0.8561 -3.792 0.000443 ***</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f>MID($F32,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f>MID($F32,13,7)</f>
+        <v>-3.2459</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f>MID($F32,21,6)</f>
+        <v>0.8561</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f>MID($F32,28,7)</f>
+        <v xml:space="preserve">-3.792 </v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f>MID($F32,36,6)</f>
+        <v>.00044</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f>MID($F32,43,8)</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="99"/>
       <c r="C33" s="14"/>
       <c r="E33" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="103"/>
+        <v>372</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 0.8191 0.2060 3.977 0.000251 ***</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f>LEFT($F33,6)</f>
+        <v>season</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f>MID($F33,15,7)</f>
+        <v xml:space="preserve">0.8191 </v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f>MID($F33,22,6)</f>
+        <v>0.2060</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f>MID($F33,29,5)</f>
+        <v>3.977</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f>MID($F33,35,8)</f>
+        <v>0.000251</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f>MID($F33,43,8)</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="99"/>
       <c r="C34" s="14"/>
       <c r="E34" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="103"/>
+        <v>373</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pH 0.5893 0.1434 4.109 0.000166 ***</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="99"/>
       <c r="C35" s="15" t="s">
         <v>15</v>
       </c>
@@ -6497,9 +7014,13 @@
       <c r="E35" s="61" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="102" t="s">
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="98" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="14" t="s">
@@ -6509,25 +7030,61 @@
         <v>349</v>
       </c>
       <c r="E36" s="61" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="103"/>
+        <v>374</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -2.1283 0.7994 -2.663 0.00895 **</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f>MID($F36,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f>MID($F36,13,7)</f>
+        <v>-2.1283</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f>MID($F36,21,6)</f>
+        <v>0.7994</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f>MID($F36,28,7)</f>
+        <v xml:space="preserve">-2.663 </v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f>MID($F36,36,6)</f>
+        <v>.00895</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f>MID($F36,43,8)</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="99"/>
       <c r="C37" s="14"/>
       <c r="E37" s="61" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="103"/>
+        <v>375</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>prox.normal 0.2308 0.1040 2.220 0.02855 *</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="99"/>
       <c r="C38" s="14"/>
       <c r="E38" s="61" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="103"/>
+        <v>376</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pH -0.3272 0.1405 -2.329 0.02175 *</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="99"/>
       <c r="C39" s="14" t="s">
         <v>16</v>
       </c>
@@ -6535,18 +7092,50 @@
         <v>351</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="103"/>
+        <v>377</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) 4.3963 0.1836 23.7470 23.949 &lt;2e-16 ***</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f>MID($F39,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f>MID($F39,13,7)</f>
+        <v xml:space="preserve">4.3963 </v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f>MID($F39,21,6)</f>
+        <v xml:space="preserve">.1836 </v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f>MID($F39,28,7)</f>
+        <v xml:space="preserve">3.7470 </v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f>MID($F39,36,6)</f>
+        <v xml:space="preserve">3.949 </v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f>MID($F39,43,8)</f>
+        <v>2e-16 **</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="99"/>
       <c r="C40" s="14"/>
       <c r="E40" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="103"/>
+        <v>378</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>prox.normal -0.5086 0.1892 24.2976 -2.688 0.0128 *</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="99"/>
       <c r="C41" s="14" t="s">
         <v>17</v>
       </c>
@@ -6554,32 +7143,96 @@
         <v>351</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="103"/>
+        <v>379</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -1.53759 0.52162 85.10546 -2.948 0.00413 **</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f>MID($F41,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f>MID($F41,13,7)</f>
+        <v>-1.5375</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f>MID($F41,21,6)</f>
+        <v xml:space="preserve"> 0.521</v>
+      </c>
+      <c r="J41" s="1" t="str">
+        <f>MID($F41,28,7)</f>
+        <v>2 85.10</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f>MID($F41,36,6)</f>
+        <v>46 -2.</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f>MID($F41,43,8)</f>
+        <v>48 0.004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="99"/>
       <c r="C42" s="14"/>
       <c r="E42" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="103"/>
+        <v>380</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 0.70203 0.12595 95.26859 5.574 2.31e-07 ***</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f>LEFT($F42,6)</f>
+        <v>season</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f>MID($F42,15,7)</f>
+        <v>0.70203</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <f>MID($F42,23,6)</f>
+        <v>0.1259</v>
+      </c>
+      <c r="J42" s="1" t="str">
+        <f>MID($F42,29,5)</f>
+        <v>5 95.</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f>MID($F42,35,8)</f>
+        <v>6859 5.5</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f>MID($F42,43,8)</f>
+        <v>74 2.31e</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="99"/>
       <c r="C43" s="14"/>
       <c r="E43" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="103"/>
+        <v>381</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>prox.normal -0.22583 0.07544 22.67389 -2.993 0.00655 **</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="99"/>
       <c r="C44" s="14"/>
       <c r="E44" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="103"/>
+        <v>382</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pH 0.19779 0.09242 88.75042 2.140 0.03510 *</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="99"/>
       <c r="C45" s="14" t="s">
         <v>34</v>
       </c>
@@ -6587,32 +7240,72 @@
         <v>351</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="103"/>
+        <v>383</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) 0.6808 0.6571 101.5260 1.036 0.3027</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f>MID($F45,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f>MID($F45,13,7)</f>
+        <v xml:space="preserve">0.6808 </v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f>MID($F45,21,6)</f>
+        <v xml:space="preserve">.6571 </v>
+      </c>
+      <c r="J45" s="1" t="str">
+        <f>MID($F45,28,7)</f>
+        <v>01.5260</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f>MID($F45,36,6)</f>
+        <v xml:space="preserve">1.036 </v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f>MID($F45,43,8)</f>
+        <v>.3027</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="99"/>
       <c r="C46" s="14"/>
       <c r="E46" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="103"/>
+        <v>384</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 0.8595 0.1464 92.6913 5.870 6.73e-08 ***</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="99"/>
       <c r="C47" s="14"/>
       <c r="E47" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="103"/>
+        <v>385</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>prox.normal -0.2889 0.1126 25.8505 -2.564 0.0165 *</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="99"/>
       <c r="C48" s="14"/>
       <c r="E48" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pH 0.2457 0.1157 103.6101 2.123 0.0361 *</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49" s="103"/>
+      <c r="B49" s="99"/>
       <c r="C49" s="14" t="s">
         <v>35</v>
       </c>
@@ -6620,25 +7313,61 @@
         <v>351</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -3.1968 0.1572 31.7722 -20.332 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f>MID($F49,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f>MID($F49,13,7)</f>
+        <v>-3.1968</v>
+      </c>
+      <c r="I49" s="1" t="str">
+        <f>MID($F49,21,6)</f>
+        <v>0.1572</v>
+      </c>
+      <c r="J49" s="1" t="str">
+        <f>MID($F49,28,7)</f>
+        <v>31.7722</v>
+      </c>
+      <c r="K49" s="1" t="str">
+        <f>MID($F49,36,6)</f>
+        <v>-20.33</v>
+      </c>
+      <c r="L49" s="1" t="str">
+        <f>MID($F49,43,8)</f>
+        <v xml:space="preserve"> &lt; 2e-16</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B50" s="103"/>
+      <c r="B50" s="99"/>
       <c r="C50" s="14"/>
       <c r="E50" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 0.3556 0.1740 91.4016 2.044 0.04382 *</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="103"/>
+      <c r="B51" s="99"/>
       <c r="C51" s="14"/>
       <c r="E51" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>prox.normal -0.5132 0.1510 24.7978 -3.399 0.00229 **</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B52" s="103"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="14" t="s">
         <v>18</v>
       </c>
@@ -6646,25 +7375,61 @@
         <v>351</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -1.8002 0.2492 29.3736 -7.225 5.48e-08 ***</v>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f>MID($F52,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f>MID($F52,13,7)</f>
+        <v>-1.8002</v>
+      </c>
+      <c r="I52" s="1" t="str">
+        <f>MID($F52,21,6)</f>
+        <v>0.2492</v>
+      </c>
+      <c r="J52" s="1" t="str">
+        <f>MID($F52,28,7)</f>
+        <v>29.3736</v>
+      </c>
+      <c r="K52" s="1" t="str">
+        <f>MID($F52,36,6)</f>
+        <v>-7.225</v>
+      </c>
+      <c r="L52" s="1" t="str">
+        <f>MID($F52,43,8)</f>
+        <v>5.48e-08</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B53" s="103"/>
+      <c r="B53" s="99"/>
       <c r="C53" s="14"/>
       <c r="E53" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 0.5556 0.2143 88.9158 2.592 0.0111 *</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B54" s="103"/>
+      <c r="B54" s="99"/>
       <c r="C54" s="14"/>
       <c r="E54" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>prox.normal -0.4910 0.2458 25.5568 -1.998 0.0565 .</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B55" s="103"/>
+      <c r="B55" s="99"/>
       <c r="C55" s="14" t="s">
         <v>37</v>
       </c>
@@ -6672,18 +7437,50 @@
         <v>351</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -1.7990 0.2413 28.7808 -7.454 3.41e-08 ***</v>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f>MID($F55,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f>MID($F55,13,7)</f>
+        <v>-1.7990</v>
+      </c>
+      <c r="I55" s="1" t="str">
+        <f>MID($F55,21,6)</f>
+        <v>0.2413</v>
+      </c>
+      <c r="J55" s="1" t="str">
+        <f>MID($F55,28,7)</f>
+        <v>28.7808</v>
+      </c>
+      <c r="K55" s="1" t="str">
+        <f>MID($F55,36,6)</f>
+        <v>-7.454</v>
+      </c>
+      <c r="L55" s="1" t="str">
+        <f>MID($F55,43,8)</f>
+        <v>3.41e-08</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B56" s="103"/>
+      <c r="B56" s="99"/>
       <c r="C56" s="14"/>
       <c r="E56" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 1.1253 0.2144 87.8048 5.248 1.06e-06 ***</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B57" s="103"/>
+      <c r="B57" s="99"/>
       <c r="C57" s="14" t="s">
         <v>36</v>
       </c>
@@ -6691,18 +7488,50 @@
         <v>351</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -1.4353 0.1899 31.8471 -7.560 1.35e-08 ***</v>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f>MID($F57,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f>MID($F57,13,7)</f>
+        <v>-1.4353</v>
+      </c>
+      <c r="I57" s="1" t="str">
+        <f>MID($F57,21,6)</f>
+        <v>0.1899</v>
+      </c>
+      <c r="J57" s="1" t="str">
+        <f>MID($F57,28,7)</f>
+        <v>31.8471</v>
+      </c>
+      <c r="K57" s="1" t="str">
+        <f>MID($F57,36,6)</f>
+        <v>-7.560</v>
+      </c>
+      <c r="L57" s="1" t="str">
+        <f>MID($F57,43,8)</f>
+        <v>1.35e-08</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B58" s="103"/>
+      <c r="B58" s="99"/>
       <c r="C58" s="14"/>
       <c r="E58" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 0.9706 0.1999 90.5774 4.855 5.00e-06 ***</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B59" s="103"/>
+      <c r="B59" s="99"/>
       <c r="C59" s="14" t="s">
         <v>12</v>
       </c>
@@ -6710,21 +7539,53 @@
         <v>351</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) 3.2388 0.2119 32.0177 15.281 2.91e-16 ***</v>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f>MID($F59,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f>MID($F59,13,7)</f>
+        <v xml:space="preserve">3.2388 </v>
+      </c>
+      <c r="I59" s="1" t="str">
+        <f>MID($F59,21,6)</f>
+        <v xml:space="preserve">.2119 </v>
+      </c>
+      <c r="J59" s="1" t="str">
+        <f>MID($F59,28,7)</f>
+        <v xml:space="preserve">2.0177 </v>
+      </c>
+      <c r="K59" s="1" t="str">
+        <f>MID($F59,36,6)</f>
+        <v xml:space="preserve">5.281 </v>
+      </c>
+      <c r="L59" s="1" t="str">
+        <f>MID($F59,43,8)</f>
+        <v xml:space="preserve">.91e-16 </v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B60" s="103"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="14"/>
       <c r="E60" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 0.7190 0.2119 90.4938 3.393 0.00103 **</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B61" s="103"/>
+      <c r="B61" s="99"/>
       <c r="C61" s="14" t="s">
         <v>19</v>
       </c>
@@ -6734,9 +7595,13 @@
       <c r="E61" s="61" t="s">
         <v>350</v>
       </c>
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B62" s="103"/>
+      <c r="B62" s="99"/>
       <c r="C62" s="14" t="s">
         <v>13</v>
       </c>
@@ -6744,18 +7609,50 @@
         <v>351</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) 1.9406 0.2552 30.7933 7.606 1.48e-08 ***</v>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f>MID($F62,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f>MID($F62,13,7)</f>
+        <v xml:space="preserve">1.9406 </v>
+      </c>
+      <c r="I62" s="1" t="str">
+        <f>MID($F62,21,6)</f>
+        <v xml:space="preserve">.2552 </v>
+      </c>
+      <c r="J62" s="1" t="str">
+        <f>MID($F62,28,7)</f>
+        <v xml:space="preserve">0.7933 </v>
+      </c>
+      <c r="K62" s="1" t="str">
+        <f>MID($F62,36,6)</f>
+        <v>.606 1</v>
+      </c>
+      <c r="L62" s="1" t="str">
+        <f>MID($F62,43,8)</f>
+        <v>48e-08 *</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B63" s="103"/>
+      <c r="B63" s="99"/>
       <c r="C63" s="14"/>
       <c r="E63" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 1.6850 0.2747 89.9675 6.134 2.25e-08 ***</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B64" s="103"/>
+      <c r="B64" s="99"/>
       <c r="C64" s="14" t="s">
         <v>14</v>
       </c>
@@ -6763,32 +7660,72 @@
         <v>351</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -2.3270 0.5898 103.9215 -3.945 0.000145 ***</v>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f>MID($F64,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f>MID($F64,13,7)</f>
+        <v>-2.3270</v>
+      </c>
+      <c r="I64" s="1" t="str">
+        <f>MID($F64,21,6)</f>
+        <v>0.5898</v>
+      </c>
+      <c r="J64" s="1" t="str">
+        <f>MID($F64,28,7)</f>
+        <v>103.921</v>
+      </c>
+      <c r="K64" s="1" t="str">
+        <f>MID($F64,36,6)</f>
+        <v xml:space="preserve"> -3.94</v>
+      </c>
+      <c r="L64" s="1" t="str">
+        <f>MID($F64,43,8)</f>
+        <v xml:space="preserve"> 0.00014</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B65" s="103"/>
+      <c r="B65" s="99"/>
       <c r="C65" s="14"/>
       <c r="E65" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 0.7558 0.1285 90.1571 5.880 6.84e-08 ***</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B66" s="103"/>
+      <c r="B66" s="99"/>
       <c r="C66" s="14"/>
       <c r="E66" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>prox.normal -0.3295 0.1077 24.0690 -3.059 0.005380 **</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B67" s="103"/>
+      <c r="B67" s="99"/>
       <c r="C67" s="14"/>
       <c r="E67" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pH 0.2622 0.1036 105.4192 2.530 0.012870 *</v>
       </c>
     </row>
     <row r="68" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B68" s="103"/>
+      <c r="B68" s="99"/>
       <c r="C68" s="14" t="s">
         <v>38</v>
       </c>
@@ -6796,21 +7733,53 @@
         <v>351</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -0.1483 0.2319 32.3541 -0.639 0.52711</v>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f>MID($F68,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f>MID($F68,13,7)</f>
+        <v>-0.1483</v>
+      </c>
+      <c r="I68" s="1" t="str">
+        <f>MID($F68,21,6)</f>
+        <v>0.2319</v>
+      </c>
+      <c r="J68" s="1" t="str">
+        <f>MID($F68,28,7)</f>
+        <v>32.3541</v>
+      </c>
+      <c r="K68" s="1" t="str">
+        <f>MID($F68,36,6)</f>
+        <v>-0.639</v>
+      </c>
+      <c r="L68" s="1" t="str">
+        <f>MID($F68,43,8)</f>
+        <v>0.52711</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B69" s="103"/>
+      <c r="B69" s="99"/>
       <c r="C69" s="14"/>
       <c r="E69" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 0.9159 0.2442 90.9034 3.751 0.00031 ***</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B70" s="103"/>
+      <c r="B70" s="99"/>
       <c r="C70" s="14" t="s">
         <v>20</v>
       </c>
@@ -6818,25 +7787,61 @@
         <v>351</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -0.4607 0.1847 32.7304 -2.495 0.01783 *</v>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f>MID($F70,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H70" s="1" t="str">
+        <f>MID($F70,13,7)</f>
+        <v>-0.4607</v>
+      </c>
+      <c r="I70" s="1" t="str">
+        <f>MID($F70,21,6)</f>
+        <v>0.1847</v>
+      </c>
+      <c r="J70" s="1" t="str">
+        <f>MID($F70,28,7)</f>
+        <v>32.7304</v>
+      </c>
+      <c r="K70" s="1" t="str">
+        <f>MID($F70,36,6)</f>
+        <v>-2.495</v>
+      </c>
+      <c r="L70" s="1" t="str">
+        <f>MID($F70,43,8)</f>
+        <v xml:space="preserve">0.01783 </v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B71" s="103"/>
+      <c r="B71" s="99"/>
       <c r="C71" s="14"/>
       <c r="E71" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>seasonMonsoon 0.4110 0.2075 92.0327 1.981 0.05061 .</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B72" s="103"/>
+      <c r="B72" s="99"/>
       <c r="C72" s="14"/>
       <c r="E72" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>prox.normal -0.5684 0.1769 25.3790 -3.212 0.00356 **</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B73" s="103"/>
+      <c r="B73" s="99"/>
       <c r="C73" s="14" t="s">
         <v>33</v>
       </c>
@@ -6846,9 +7851,13 @@
       <c r="E73" s="61" t="s">
         <v>350</v>
       </c>
+      <c r="F73" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B74" s="103"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="14" t="s">
         <v>39</v>
       </c>
@@ -6858,9 +7867,13 @@
       <c r="E74" s="61" t="s">
         <v>350</v>
       </c>
+      <c r="F74" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
     </row>
     <row r="75" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B75" s="103"/>
+      <c r="B75" s="99"/>
       <c r="C75" s="14" t="s">
         <v>41</v>
       </c>
@@ -6868,21 +7881,53 @@
         <v>351</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(Intercept) -2.6605 0.1852 40.1984 -14.364 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G75" s="1" t="str">
+        <f>MID($F75,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H75" s="1" t="str">
+        <f>MID($F75,13,7)</f>
+        <v>-2.6605</v>
+      </c>
+      <c r="I75" s="1" t="str">
+        <f>MID($F75,21,6)</f>
+        <v>0.1852</v>
+      </c>
+      <c r="J75" s="1" t="str">
+        <f>MID($F75,28,7)</f>
+        <v>40.1984</v>
+      </c>
+      <c r="K75" s="1" t="str">
+        <f>MID($F75,36,6)</f>
+        <v>-14.36</v>
+      </c>
+      <c r="L75" s="1" t="str">
+        <f>MID($F75,43,8)</f>
+        <v xml:space="preserve"> &lt; 2e-16</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B76" s="103"/>
+      <c r="B76" s="99"/>
       <c r="C76" s="14"/>
       <c r="E76" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f t="shared" ref="F76:F139" si="1">TRIM(E76)</f>
+        <v>seasonMonsoon 0.9621 0.2639 96.4318 3.646 0.000431 ***</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B77" s="103"/>
+      <c r="B77" s="99"/>
       <c r="C77" s="14" t="s">
         <v>42</v>
       </c>
@@ -6890,18 +7935,50 @@
         <v>351</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) 0.04463 0.10880 33.66714 0.410 0.684</v>
+      </c>
+      <c r="G77" s="1" t="str">
+        <f>MID($F77,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f>MID($F77,13,7)</f>
+        <v>0.04463</v>
+      </c>
+      <c r="I77" s="1" t="str">
+        <f>MID($F77,21,6)</f>
+        <v>0.1088</v>
+      </c>
+      <c r="J77" s="1" t="str">
+        <f>MID($F77,28,7)</f>
+        <v xml:space="preserve"> 33.667</v>
+      </c>
+      <c r="K77" s="1" t="str">
+        <f>MID($F77,36,6)</f>
+        <v>4 0.41</v>
+      </c>
+      <c r="L77" s="1" t="str">
+        <f>MID($F77,43,8)</f>
+        <v xml:space="preserve"> 0.684</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B78" s="103"/>
+      <c r="B78" s="99"/>
       <c r="C78" s="14"/>
       <c r="E78" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="F78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.83067 0.14329 92.80765 5.797 9.22e-08 ***</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B79" s="103"/>
+      <c r="B79" s="99"/>
       <c r="C79" s="14" t="s">
         <v>15</v>
       </c>
@@ -6909,21 +7986,53 @@
         <v>351</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) 4.4926 0.2745 26.7715 16.369 1.81e-15 ***</v>
+      </c>
+      <c r="G79" s="1" t="str">
+        <f>MID($F79,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f>MID($F79,13,7)</f>
+        <v xml:space="preserve">4.4926 </v>
+      </c>
+      <c r="I79" s="1" t="str">
+        <f>MID($F79,21,6)</f>
+        <v xml:space="preserve">.2745 </v>
+      </c>
+      <c r="J79" s="1" t="str">
+        <f>MID($F79,28,7)</f>
+        <v xml:space="preserve">6.7715 </v>
+      </c>
+      <c r="K79" s="1" t="str">
+        <f>MID($F79,36,6)</f>
+        <v xml:space="preserve">6.369 </v>
+      </c>
+      <c r="L79" s="1" t="str">
+        <f>MID($F79,43,8)</f>
+        <v xml:space="preserve">.81e-15 </v>
+      </c>
+      <c r="M79" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="M79" s="1" t="s">
-        <v>419</v>
-      </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B80" s="104"/>
+      <c r="B80" s="79"/>
       <c r="C80" s="15"/>
       <c r="E80" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="102" t="s">
+        <v>416</v>
+      </c>
+      <c r="F80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.5510 0.1388 85.1362 3.971 0.000149 ***</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" s="98" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="14" t="s">
@@ -6935,9 +8044,13 @@
       <c r="E81" s="61" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="103"/>
+      <c r="F81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>null</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" s="99"/>
       <c r="C82" s="14" t="s">
         <v>16</v>
       </c>
@@ -6945,25 +8058,61 @@
         <v>349</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="103"/>
+        <v>418</v>
+      </c>
+      <c r="F82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) 3.64088 0.10184 35.752 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G82" s="1" t="str">
+        <f>MID($F82,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f>MID($F82,13,7)</f>
+        <v>3.64088</v>
+      </c>
+      <c r="I82" s="1" t="str">
+        <f>MID($F82,21,6)</f>
+        <v>0.1018</v>
+      </c>
+      <c r="J82" s="1" t="str">
+        <f>MID($F82,28,7)</f>
+        <v xml:space="preserve"> 35.752</v>
+      </c>
+      <c r="K82" s="1" t="str">
+        <f>MID($F82,36,6)</f>
+        <v>&lt; 2e-1</v>
+      </c>
+      <c r="L82" s="1" t="str">
+        <f>MID($F82,43,8)</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B83" s="99"/>
       <c r="C83" s="14"/>
       <c r="E83" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="103"/>
+        <v>419</v>
+      </c>
+      <c r="F83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.69364 0.21102 3.287 0.00153 **</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" s="99"/>
       <c r="C84" s="14"/>
       <c r="E84" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="103"/>
+        <v>420</v>
+      </c>
+      <c r="F84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>prox.normal -0.28523 0.09322 -3.060 0.00305 **</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" s="99"/>
       <c r="C85" s="14" t="s">
         <v>17</v>
       </c>
@@ -6971,32 +8120,72 @@
         <v>349</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="103"/>
+        <v>421</v>
+      </c>
+      <c r="F85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) -1.45907 0.90910 -1.605 0.1127</v>
+      </c>
+      <c r="G85" s="1" t="str">
+        <f>MID($F85,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H85" s="1" t="str">
+        <f>MID($F85,13,7)</f>
+        <v>-1.4590</v>
+      </c>
+      <c r="I85" s="1" t="str">
+        <f>MID($F85,21,6)</f>
+        <v xml:space="preserve"> 0.909</v>
+      </c>
+      <c r="J85" s="1" t="str">
+        <f>MID($F85,28,7)</f>
+        <v>0 -1.60</v>
+      </c>
+      <c r="K85" s="1" t="str">
+        <f>MID($F85,36,6)</f>
+        <v xml:space="preserve"> 0.112</v>
+      </c>
+      <c r="L85" s="1" t="str">
+        <f>MID($F85,43,8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B86" s="99"/>
       <c r="C86" s="14"/>
       <c r="E86" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="103"/>
+        <v>422</v>
+      </c>
+      <c r="F86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 1.34914 0.22893 5.893 9.75e-08 ***</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B87" s="99"/>
       <c r="C87" s="14"/>
       <c r="E87" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="103"/>
+        <v>423</v>
+      </c>
+      <c r="F87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>prox.normal -0.54291 0.09748 -5.569 3.70e-07 ***</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B88" s="99"/>
       <c r="C88" s="14"/>
       <c r="E88" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="103"/>
+        <v>424</v>
+      </c>
+      <c r="F88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>pH 0.40228 0.15511 2.594 0.0114 *</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B89" s="99"/>
       <c r="C89" s="14" t="s">
         <v>34</v>
       </c>
@@ -7004,25 +8193,61 @@
         <v>351</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="103"/>
+        <v>425</v>
+      </c>
+      <c r="F89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) 2.5267 0.1729 23.0391 14.614 3.83e-13 ***</v>
+      </c>
+      <c r="G89" s="1" t="str">
+        <f>MID($F89,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H89" s="1" t="str">
+        <f>MID($F89,13,7)</f>
+        <v xml:space="preserve">2.5267 </v>
+      </c>
+      <c r="I89" s="1" t="str">
+        <f>MID($F89,21,6)</f>
+        <v xml:space="preserve">.1729 </v>
+      </c>
+      <c r="J89" s="1" t="str">
+        <f>MID($F89,28,7)</f>
+        <v xml:space="preserve">3.0391 </v>
+      </c>
+      <c r="K89" s="1" t="str">
+        <f>MID($F89,36,6)</f>
+        <v xml:space="preserve">4.614 </v>
+      </c>
+      <c r="L89" s="1" t="str">
+        <f>MID($F89,43,8)</f>
+        <v xml:space="preserve">.83e-13 </v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B90" s="99"/>
       <c r="C90" s="14"/>
       <c r="E90" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="103"/>
+        <v>426</v>
+      </c>
+      <c r="F90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 1.1181 0.2648 65.9040 4.222 7.58e-05 ***</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B91" s="99"/>
       <c r="C91" s="14"/>
       <c r="E91" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="103"/>
+        <v>427</v>
+      </c>
+      <c r="F91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>prox.normal -0.4849 0.1692 18.2497 -2.867 0.0102 *</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B92" s="99"/>
       <c r="C92" s="14" t="s">
         <v>35</v>
       </c>
@@ -7032,9 +8257,13 @@
       <c r="E92" s="61" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="103"/>
+      <c r="F92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>null</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B93" s="99"/>
       <c r="C93" s="14" t="s">
         <v>18</v>
       </c>
@@ -7042,32 +8271,72 @@
         <v>351</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="103"/>
+        <v>428</v>
+      </c>
+      <c r="F93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) -3.7531 1.0890 68.9530 -3.447 0.000971 ***</v>
+      </c>
+      <c r="G93" s="1" t="str">
+        <f>MID($F93,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H93" s="1" t="str">
+        <f>MID($F93,13,7)</f>
+        <v>-3.7531</v>
+      </c>
+      <c r="I93" s="1" t="str">
+        <f>MID($F93,21,6)</f>
+        <v>1.0890</v>
+      </c>
+      <c r="J93" s="1" t="str">
+        <f>MID($F93,28,7)</f>
+        <v>68.9530</v>
+      </c>
+      <c r="K93" s="1" t="str">
+        <f>MID($F93,36,6)</f>
+        <v>-3.447</v>
+      </c>
+      <c r="L93" s="1" t="str">
+        <f>MID($F93,43,8)</f>
+        <v>0.000971</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B94" s="99"/>
       <c r="C94" s="14"/>
       <c r="E94" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="103"/>
+        <v>429</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.9912 0.2677 64.6280 3.703 0.000443 ***</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B95" s="99"/>
       <c r="C95" s="14"/>
       <c r="E95" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="103"/>
+        <v>430</v>
+      </c>
+      <c r="F95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>prox.normal -0.6476 0.1697 18.4596 -3.817 0.001215 **</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B96" s="99"/>
       <c r="C96" s="14"/>
       <c r="E96" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
+      </c>
+      <c r="F96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>pH 0.3792 0.1845 66.6187 2.056 0.043708 *</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B97" s="103"/>
+      <c r="B97" s="99"/>
       <c r="C97" s="14" t="s">
         <v>37</v>
       </c>
@@ -7075,25 +8344,61 @@
         <v>349</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
+      </c>
+      <c r="F97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) -2.24052 0.10689 -20.960 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G97" s="1" t="str">
+        <f>MID($F97,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H97" s="1" t="str">
+        <f>MID($F97,13,7)</f>
+        <v>-2.2405</v>
+      </c>
+      <c r="I97" s="1" t="str">
+        <f>MID($F97,21,6)</f>
+        <v xml:space="preserve"> 0.106</v>
+      </c>
+      <c r="J97" s="1" t="str">
+        <f>MID($F97,28,7)</f>
+        <v>9 -20.9</v>
+      </c>
+      <c r="K97" s="1" t="str">
+        <f>MID($F97,36,6)</f>
+        <v>0 &lt; 2e</v>
+      </c>
+      <c r="L97" s="1" t="str">
+        <f>MID($F97,43,8)</f>
+        <v>16 ***</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B98" s="103"/>
+      <c r="B98" s="99"/>
       <c r="C98" s="14"/>
       <c r="E98" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
+      </c>
+      <c r="F98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 1.34333 0.22149 6.065 4.60e-08 ***</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B99" s="103"/>
+      <c r="B99" s="99"/>
       <c r="C99" s="14"/>
       <c r="E99" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>prox.normal -0.42148 0.09785 -4.308 4.82e-05 ***</v>
       </c>
     </row>
     <row r="100" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B100" s="103"/>
+      <c r="B100" s="99"/>
       <c r="C100" s="14" t="s">
         <v>36</v>
       </c>
@@ -7101,21 +8406,53 @@
         <v>351</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) -1.0801 0.2135 23.0125 -5.060 4.02e-05 ***</v>
+      </c>
+      <c r="G100" s="1" t="str">
+        <f>MID($F100,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H100" s="1" t="str">
+        <f>MID($F100,13,7)</f>
+        <v>-1.0801</v>
+      </c>
+      <c r="I100" s="1" t="str">
+        <f>MID($F100,21,6)</f>
+        <v>0.2135</v>
+      </c>
+      <c r="J100" s="1" t="str">
+        <f>MID($F100,28,7)</f>
+        <v>23.0125</v>
+      </c>
+      <c r="K100" s="1" t="str">
+        <f>MID($F100,36,6)</f>
+        <v>-5.060</v>
+      </c>
+      <c r="L100" s="1" t="str">
+        <f>MID($F100,43,8)</f>
+        <v>4.02e-05</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B101" s="103"/>
+      <c r="B101" s="99"/>
       <c r="C101" s="14"/>
       <c r="E101" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.6791 0.2292 64.6921 2.963 0.00426 **</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B102" s="103"/>
+      <c r="B102" s="99"/>
       <c r="C102" s="14" t="s">
         <v>12</v>
       </c>
@@ -7123,25 +8460,61 @@
         <v>349</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) 3.8011 0.1664 22.841 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G102" s="1" t="str">
+        <f>MID($F102,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H102" s="1" t="str">
+        <f>MID($F102,13,7)</f>
+        <v xml:space="preserve">3.8011 </v>
+      </c>
+      <c r="I102" s="1" t="str">
+        <f>MID($F102,21,6)</f>
+        <v xml:space="preserve">.1664 </v>
+      </c>
+      <c r="J102" s="1" t="str">
+        <f>MID($F102,28,7)</f>
+        <v>2.841 &lt;</v>
+      </c>
+      <c r="K102" s="1" t="str">
+        <f>MID($F102,36,6)</f>
+        <v xml:space="preserve">2e-16 </v>
+      </c>
+      <c r="L102" s="1" t="str">
+        <f>MID($F102,43,8)</f>
+        <v>**</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B103" s="103"/>
+      <c r="B103" s="99"/>
       <c r="C103" s="14"/>
       <c r="E103" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 1.4351 0.3448 4.162 8.15e-05 ***</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B104" s="103"/>
+      <c r="B104" s="99"/>
       <c r="C104" s="14"/>
       <c r="E104" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>prox.normal -0.5461 0.1523 -3.585 0.000589 ***</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B105" s="103"/>
+      <c r="B105" s="99"/>
       <c r="C105" s="14" t="s">
         <v>19</v>
       </c>
@@ -7149,25 +8522,61 @@
         <v>351</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) 6.0273 0.9115 68.8892 6.613 6.69e-09 ***</v>
+      </c>
+      <c r="G105" s="1" t="str">
+        <f>MID($F105,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H105" s="1" t="str">
+        <f>MID($F105,13,7)</f>
+        <v xml:space="preserve">6.0273 </v>
+      </c>
+      <c r="I105" s="1" t="str">
+        <f>MID($F105,21,6)</f>
+        <v xml:space="preserve">.9115 </v>
+      </c>
+      <c r="J105" s="1" t="str">
+        <f>MID($F105,28,7)</f>
+        <v xml:space="preserve">8.8892 </v>
+      </c>
+      <c r="K105" s="1" t="str">
+        <f>MID($F105,36,6)</f>
+        <v>.613 6</v>
+      </c>
+      <c r="L105" s="1" t="str">
+        <f>MID($F105,43,8)</f>
+        <v>69e-09 *</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B106" s="103"/>
+      <c r="B106" s="99"/>
       <c r="C106" s="14"/>
       <c r="E106" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 1.1566 0.2240 64.3340 5.163 2.54e-06 ***</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B107" s="103"/>
+      <c r="B107" s="99"/>
       <c r="C107" s="14"/>
       <c r="E107" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
+      </c>
+      <c r="F107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>pH -0.4559 0.1544 66.2212 -2.952 0.00436 **</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B108" s="103"/>
+      <c r="B108" s="99"/>
       <c r="C108" s="14" t="s">
         <v>13</v>
       </c>
@@ -7175,25 +8584,61 @@
         <v>349</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
+      </c>
+      <c r="F108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) 1.6670 0.1540 10.822 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G108" s="1" t="str">
+        <f>MID($F108,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H108" s="1" t="str">
+        <f>MID($F108,13,7)</f>
+        <v xml:space="preserve">1.6670 </v>
+      </c>
+      <c r="I108" s="1" t="str">
+        <f>MID($F108,21,6)</f>
+        <v xml:space="preserve">.1540 </v>
+      </c>
+      <c r="J108" s="1" t="str">
+        <f>MID($F108,28,7)</f>
+        <v>0.822 &lt;</v>
+      </c>
+      <c r="K108" s="1" t="str">
+        <f>MID($F108,36,6)</f>
+        <v xml:space="preserve">2e-16 </v>
+      </c>
+      <c r="L108" s="1" t="str">
+        <f>MID($F108,43,8)</f>
+        <v>**</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B109" s="103"/>
+      <c r="B109" s="99"/>
       <c r="C109" s="14"/>
       <c r="E109" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
+      </c>
+      <c r="F109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 1.5501 0.3192 4.857 6.14e-06 ***</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B110" s="103"/>
+      <c r="B110" s="99"/>
       <c r="C110" s="14"/>
       <c r="E110" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
+      </c>
+      <c r="F110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>prox.normal -0.4950 0.1410 -3.510 0.000751 ***</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B111" s="103"/>
+      <c r="B111" s="99"/>
       <c r="C111" s="14" t="s">
         <v>14</v>
       </c>
@@ -7201,25 +8646,61 @@
         <v>349</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
+      </c>
+      <c r="F111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) 0.3666 0.1196 3.066 0.00299 **</v>
+      </c>
+      <c r="G111" s="1" t="str">
+        <f>MID($F111,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H111" s="1" t="str">
+        <f>MID($F111,13,7)</f>
+        <v xml:space="preserve">0.3666 </v>
+      </c>
+      <c r="I111" s="1" t="str">
+        <f>MID($F111,21,6)</f>
+        <v xml:space="preserve">.1196 </v>
+      </c>
+      <c r="J111" s="1" t="str">
+        <f>MID($F111,28,7)</f>
+        <v>.066 0.</v>
+      </c>
+      <c r="K111" s="1" t="str">
+        <f>MID($F111,36,6)</f>
+        <v>0299 *</v>
+      </c>
+      <c r="L111" s="1" t="str">
+        <f>MID($F111,43,8)</f>
+        <v/>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B112" s="103"/>
+      <c r="B112" s="99"/>
       <c r="C112" s="14"/>
       <c r="E112" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="103"/>
+        <v>447</v>
+      </c>
+      <c r="F112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.7905 0.2478 3.191 0.00206 **</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B113" s="99"/>
       <c r="C113" s="14"/>
       <c r="E113" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="103"/>
+        <v>448</v>
+      </c>
+      <c r="F113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>prox.normal -0.5004 0.1094 -4.572 1.81e-05 ***</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B114" s="99"/>
       <c r="C114" s="14" t="s">
         <v>38</v>
       </c>
@@ -7227,18 +8708,50 @@
         <v>349</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="103"/>
+        <v>449</v>
+      </c>
+      <c r="F114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) -0.8515 0.0825 -10.32 3.06e-16 ***</v>
+      </c>
+      <c r="G114" s="1" t="str">
+        <f>MID($F114,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H114" s="1" t="str">
+        <f>MID($F114,13,7)</f>
+        <v>-0.8515</v>
+      </c>
+      <c r="I114" s="1" t="str">
+        <f>MID($F114,21,6)</f>
+        <v>0.0825</v>
+      </c>
+      <c r="J114" s="1" t="str">
+        <f>MID($F114,28,7)</f>
+        <v xml:space="preserve">-10.32 </v>
+      </c>
+      <c r="K114" s="1" t="str">
+        <f>MID($F114,36,6)</f>
+        <v>.06e-1</v>
+      </c>
+      <c r="L114" s="1" t="str">
+        <f>MID($F114,43,8)</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B115" s="99"/>
       <c r="C115" s="14"/>
       <c r="E115" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="103"/>
+        <v>450</v>
+      </c>
+      <c r="F115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 1.1148 0.1739 6.41 1.02e-08 ***</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B116" s="99"/>
       <c r="C116" s="14" t="s">
         <v>20</v>
       </c>
@@ -7246,25 +8759,61 @@
         <v>351</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="103"/>
+        <v>451</v>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) -0.2244 0.2014 21.5913 -1.114 0.2774</v>
+      </c>
+      <c r="G116" s="1" t="str">
+        <f>MID($F116,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H116" s="1" t="str">
+        <f>MID($F116,13,7)</f>
+        <v>-0.2244</v>
+      </c>
+      <c r="I116" s="1" t="str">
+        <f>MID($F116,21,6)</f>
+        <v>0.2014</v>
+      </c>
+      <c r="J116" s="1" t="str">
+        <f>MID($F116,28,7)</f>
+        <v>21.5913</v>
+      </c>
+      <c r="K116" s="1" t="str">
+        <f>MID($F116,36,6)</f>
+        <v>-1.114</v>
+      </c>
+      <c r="L116" s="1" t="str">
+        <f>MID($F116,43,8)</f>
+        <v>0.2774</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B117" s="99"/>
       <c r="C117" s="14"/>
       <c r="E117" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="103"/>
+        <v>452</v>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 1.2650 0.2668 64.6039 4.741 1.21e-05 ***</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B118" s="99"/>
       <c r="C118" s="14"/>
       <c r="E118" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="103"/>
+        <v>453</v>
+      </c>
+      <c r="F118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>prox.normal -0.7003 0.2003 18.4171 -3.497 0.0025 **</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B119" s="99"/>
       <c r="C119" s="14" t="s">
         <v>33</v>
       </c>
@@ -7272,25 +8821,61 @@
         <v>349</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="103"/>
+        <v>454</v>
+      </c>
+      <c r="F119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) -0.48181 0.09219 -5.226 1.44e-06 ***</v>
+      </c>
+      <c r="G119" s="1" t="str">
+        <f>MID($F119,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H119" s="1" t="str">
+        <f>MID($F119,13,7)</f>
+        <v>-0.4818</v>
+      </c>
+      <c r="I119" s="1" t="str">
+        <f>MID($F119,21,6)</f>
+        <v xml:space="preserve"> 0.092</v>
+      </c>
+      <c r="J119" s="1" t="str">
+        <f>MID($F119,28,7)</f>
+        <v>9 -5.22</v>
+      </c>
+      <c r="K119" s="1" t="str">
+        <f>MID($F119,36,6)</f>
+        <v xml:space="preserve"> 1.44e</v>
+      </c>
+      <c r="L119" s="1" t="str">
+        <f>MID($F119,43,8)</f>
+        <v>06 ***</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B120" s="99"/>
       <c r="C120" s="14"/>
       <c r="E120" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="103"/>
+        <v>455</v>
+      </c>
+      <c r="F120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.96014 0.19104 5.026 3.17e-06 ***</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B121" s="99"/>
       <c r="C121" s="14"/>
       <c r="E121" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="103"/>
+        <v>456</v>
+      </c>
+      <c r="F121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>prox.normal -0.22460 0.08439 -2.661 0.00947 **</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B122" s="99"/>
       <c r="C122" s="14" t="s">
         <v>39</v>
       </c>
@@ -7298,18 +8883,50 @@
         <v>349</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="103"/>
+        <v>457</v>
+      </c>
+      <c r="F122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) 0.33421 0.08632 3.872 0.000223 ***</v>
+      </c>
+      <c r="G122" s="1" t="str">
+        <f>MID($F122,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H122" s="1" t="str">
+        <f>MID($F122,13,7)</f>
+        <v>0.33421</v>
+      </c>
+      <c r="I122" s="1" t="str">
+        <f>MID($F122,21,6)</f>
+        <v>0.0863</v>
+      </c>
+      <c r="J122" s="1" t="str">
+        <f>MID($F122,28,7)</f>
+        <v xml:space="preserve"> 3.872 </v>
+      </c>
+      <c r="K122" s="1" t="str">
+        <f>MID($F122,36,6)</f>
+        <v>.00022</v>
+      </c>
+      <c r="L122" s="1" t="str">
+        <f>MID($F122,43,8)</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B123" s="99"/>
       <c r="C123" s="14"/>
       <c r="E123" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="103"/>
+        <v>458</v>
+      </c>
+      <c r="F123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.63352 0.18197 3.481 0.000820 ***</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B124" s="99"/>
       <c r="C124" s="14" t="s">
         <v>41</v>
       </c>
@@ -7317,18 +8934,50 @@
         <v>349</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="103"/>
+        <v>459</v>
+      </c>
+      <c r="F124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) -2.9372 0.1636 -17.95 &lt;2e-16 ***</v>
+      </c>
+      <c r="G124" s="1" t="str">
+        <f>MID($F124,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H124" s="1" t="str">
+        <f>MID($F124,13,7)</f>
+        <v>-2.9372</v>
+      </c>
+      <c r="I124" s="1" t="str">
+        <f>MID($F124,21,6)</f>
+        <v>0.1636</v>
+      </c>
+      <c r="J124" s="1" t="str">
+        <f>MID($F124,28,7)</f>
+        <v xml:space="preserve">-17.95 </v>
+      </c>
+      <c r="K124" s="1" t="str">
+        <f>MID($F124,36,6)</f>
+        <v xml:space="preserve">2e-16 </v>
+      </c>
+      <c r="L124" s="1" t="str">
+        <f>MID($F124,43,8)</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B125" s="99"/>
       <c r="C125" s="14"/>
       <c r="E125" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="103"/>
+        <v>460</v>
+      </c>
+      <c r="F125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.7518 0.3449 2.18 0.0323 *</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B126" s="99"/>
       <c r="C126" s="14" t="s">
         <v>42</v>
       </c>
@@ -7336,18 +8985,50 @@
         <v>351</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="103"/>
+        <v>461</v>
+      </c>
+      <c r="F126" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) 0.2757 0.1145 24.0826 2.408 0.024 *</v>
+      </c>
+      <c r="G126" s="1" t="str">
+        <f>MID($F126,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H126" s="1" t="str">
+        <f>MID($F126,13,7)</f>
+        <v xml:space="preserve">0.2757 </v>
+      </c>
+      <c r="I126" s="1" t="str">
+        <f>MID($F126,21,6)</f>
+        <v xml:space="preserve">.1145 </v>
+      </c>
+      <c r="J126" s="1" t="str">
+        <f>MID($F126,28,7)</f>
+        <v xml:space="preserve">4.0826 </v>
+      </c>
+      <c r="K126" s="1" t="str">
+        <f>MID($F126,36,6)</f>
+        <v>.408 0</v>
+      </c>
+      <c r="L126" s="1" t="str">
+        <f>MID($F126,43,8)</f>
+        <v>024 *</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B127" s="99"/>
       <c r="C127" s="14"/>
       <c r="E127" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="103"/>
+        <v>462</v>
+      </c>
+      <c r="F127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.9088 0.1847 66.5305 4.922 5.95e-06 ***</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B128" s="99"/>
       <c r="C128" s="14" t="s">
         <v>15</v>
       </c>
@@ -7355,18 +9036,50 @@
         <v>351</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
+      </c>
+      <c r="F128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) 4.0934 0.2853 20.7232 14.35 3.11e-12 ***</v>
+      </c>
+      <c r="G128" s="1" t="str">
+        <f>MID($F128,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H128" s="1" t="str">
+        <f>MID($F128,13,7)</f>
+        <v xml:space="preserve">4.0934 </v>
+      </c>
+      <c r="I128" s="1" t="str">
+        <f>MID($F128,21,6)</f>
+        <v xml:space="preserve">.2853 </v>
+      </c>
+      <c r="J128" s="1" t="str">
+        <f>MID($F128,28,7)</f>
+        <v xml:space="preserve">0.7232 </v>
+      </c>
+      <c r="K128" s="1" t="str">
+        <f>MID($F128,36,6)</f>
+        <v>4.35 3</v>
+      </c>
+      <c r="L128" s="1" t="str">
+        <f>MID($F128,43,8)</f>
+        <v>11e-12 *</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B129" s="63"/>
       <c r="C129" s="15"/>
       <c r="E129" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
+      </c>
+      <c r="F129" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.6115 0.2466 62.3930 2.48 0.0159 *</v>
       </c>
     </row>
     <row r="130" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B130" s="102" t="s">
+      <c r="B130" s="98" t="s">
         <v>82</v>
       </c>
       <c r="C130" s="14" t="s">
@@ -7376,21 +9089,53 @@
         <v>349</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
+      </c>
+      <c r="F130" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) -4.19186 0.07462 -56.174 &lt;2e-16 ***</v>
+      </c>
+      <c r="G130" s="1" t="str">
+        <f>MID($F130,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H130" s="1" t="str">
+        <f>MID($F130,13,7)</f>
+        <v>-4.1918</v>
+      </c>
+      <c r="I130" s="1" t="str">
+        <f>MID($F130,21,6)</f>
+        <v xml:space="preserve"> 0.074</v>
+      </c>
+      <c r="J130" s="1" t="str">
+        <f>MID($F130,28,7)</f>
+        <v>2 -56.1</v>
+      </c>
+      <c r="K130" s="1" t="str">
+        <f>MID($F130,36,6)</f>
+        <v>4 &lt;2e-</v>
+      </c>
+      <c r="L130" s="1" t="str">
+        <f>MID($F130,43,8)</f>
+        <v>6 ***</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B131" s="103"/>
+      <c r="B131" s="99"/>
       <c r="C131" s="14"/>
       <c r="E131" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
+      </c>
+      <c r="F131" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.31654 0.15769 2.007 0.0458 *</v>
       </c>
     </row>
     <row r="132" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B132" s="103"/>
+      <c r="B132" s="99"/>
       <c r="C132" s="14" t="s">
         <v>16</v>
       </c>
@@ -7398,21 +9143,53 @@
         <v>351</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
+      </c>
+      <c r="F132" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) 2.35700 0.39412 254.77150 5.980 7.49e-09 ***</v>
+      </c>
+      <c r="G132" s="1" t="str">
+        <f>MID($F132,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H132" s="1" t="str">
+        <f>MID($F132,13,7)</f>
+        <v>2.35700</v>
+      </c>
+      <c r="I132" s="1" t="str">
+        <f>MID($F132,21,6)</f>
+        <v>0.3941</v>
+      </c>
+      <c r="J132" s="1" t="str">
+        <f>MID($F132,28,7)</f>
+        <v xml:space="preserve"> 254.77</v>
+      </c>
+      <c r="K132" s="1" t="str">
+        <f>MID($F132,36,6)</f>
+        <v>50 5.9</v>
+      </c>
+      <c r="L132" s="1" t="str">
+        <f>MID($F132,43,8)</f>
+        <v>0 7.49e-</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B133" s="103"/>
+      <c r="B133" s="99"/>
       <c r="C133" s="14"/>
       <c r="E133" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
+      </c>
+      <c r="F133" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>pH 0.20585 0.06605 253.54699 3.117 0.00204 **</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B134" s="103"/>
+      <c r="B134" s="99"/>
       <c r="C134" s="14" t="s">
         <v>17</v>
       </c>
@@ -7420,25 +9197,61 @@
         <v>351</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
+      </c>
+      <c r="F134" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) -1.8309 0.3916 255.8638 -4.676 4.75e-06 ***</v>
+      </c>
+      <c r="G134" s="1" t="str">
+        <f>MID($F134,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H134" s="1" t="str">
+        <f>MID($F134,13,7)</f>
+        <v>-1.8309</v>
+      </c>
+      <c r="I134" s="1" t="str">
+        <f>MID($F134,21,6)</f>
+        <v>0.3916</v>
+      </c>
+      <c r="J134" s="1" t="str">
+        <f>MID($F134,28,7)</f>
+        <v>255.863</v>
+      </c>
+      <c r="K134" s="1" t="str">
+        <f>MID($F134,36,6)</f>
+        <v xml:space="preserve"> -4.67</v>
+      </c>
+      <c r="L134" s="1" t="str">
+        <f>MID($F134,43,8)</f>
+        <v xml:space="preserve"> 4.75e-0</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B135" s="103"/>
+      <c r="B135" s="99"/>
       <c r="C135" s="14"/>
       <c r="E135" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
+      </c>
+      <c r="F135" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.4711 0.1100 245.0650 4.283 2.65e-05 ***</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B136" s="103"/>
+      <c r="B136" s="99"/>
       <c r="C136" s="14"/>
       <c r="E136" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
+      </c>
+      <c r="F136" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>pH 0.2805 0.0665 255.8910 4.217 3.43e-05 ***</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B137" s="103"/>
+      <c r="B137" s="99"/>
       <c r="C137" s="14" t="s">
         <v>34</v>
       </c>
@@ -7446,25 +9259,61 @@
         <v>351</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
+      </c>
+      <c r="F137" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>(Intercept) -0.65381 0.43578 248.55916 -1.500 0.135</v>
+      </c>
+      <c r="G137" s="1" t="str">
+        <f>MID($F137,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H137" s="1" t="str">
+        <f>MID($F137,13,7)</f>
+        <v>-0.6538</v>
+      </c>
+      <c r="I137" s="1" t="str">
+        <f>MID($F137,21,6)</f>
+        <v xml:space="preserve"> 0.435</v>
+      </c>
+      <c r="J137" s="1" t="str">
+        <f>MID($F137,28,7)</f>
+        <v>8 248.5</v>
+      </c>
+      <c r="K137" s="1" t="str">
+        <f>MID($F137,36,6)</f>
+        <v>916 -1</v>
+      </c>
+      <c r="L137" s="1" t="str">
+        <f>MID($F137,43,8)</f>
+        <v>500 0.13</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B138" s="103"/>
+      <c r="B138" s="99"/>
       <c r="C138" s="14"/>
       <c r="E138" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="F138" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>seasonMonsoon 0.48691 0.11798 220.17606 4.127 5.21e-05 ***</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B139" s="103"/>
+      <c r="B139" s="99"/>
       <c r="C139" s="14"/>
       <c r="E139" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
+      </c>
+      <c r="F139" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>pH 0.47204 0.07378 244.91127 6.398 7.92e-10 ***</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B140" s="103"/>
+      <c r="B140" s="99"/>
       <c r="C140" s="14" t="s">
         <v>35</v>
       </c>
@@ -7472,32 +9321,72 @@
         <v>349</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
+      </c>
+      <c r="F140" s="1" t="str">
+        <f t="shared" ref="F140:F194" si="2">TRIM(E140)</f>
+        <v>(Intercept) -2.47262 0.54452 -4.541 8.64e-06 ***</v>
+      </c>
+      <c r="G140" s="1" t="str">
+        <f>MID($F140,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H140" s="1" t="str">
+        <f>MID($F140,13,7)</f>
+        <v>-2.4726</v>
+      </c>
+      <c r="I140" s="1" t="str">
+        <f>MID($F140,21,6)</f>
+        <v xml:space="preserve"> 0.544</v>
+      </c>
+      <c r="J140" s="1" t="str">
+        <f>MID($F140,28,7)</f>
+        <v>2 -4.54</v>
+      </c>
+      <c r="K140" s="1" t="str">
+        <f>MID($F140,36,6)</f>
+        <v xml:space="preserve"> 8.64e</v>
+      </c>
+      <c r="L140" s="1" t="str">
+        <f>MID($F140,43,8)</f>
+        <v>06 ***</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B141" s="103"/>
+      <c r="B141" s="99"/>
       <c r="C141" s="14"/>
       <c r="E141" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
+      </c>
+      <c r="F141" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>prox.normal -0.18319 0.07602 -2.410 0.01668 *</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B142" s="103"/>
+      <c r="B142" s="99"/>
       <c r="C142" s="14"/>
       <c r="E142" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
+      </c>
+      <c r="F142" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pH -0.28529 0.08924 -3.197 0.00156 **</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B143" s="103"/>
+      <c r="B143" s="99"/>
       <c r="C143" s="14"/>
       <c r="E143" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
+      </c>
+      <c r="F143" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>locationSouth 0.27495 0.13462 2.042 0.04214 *</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B144" s="103"/>
+      <c r="B144" s="99"/>
       <c r="C144" s="14" t="s">
         <v>18</v>
       </c>
@@ -7505,60 +9394,116 @@
         <v>351</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+      <c r="F144" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) -4.10306 0.40723 243.57157 -10.076 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G144" s="1" t="str">
+        <f>MID($F144,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H144" s="1" t="str">
+        <f>MID($F144,13,7)</f>
+        <v>-4.1030</v>
+      </c>
+      <c r="I144" s="1" t="str">
+        <f>MID($F144,21,6)</f>
+        <v xml:space="preserve"> 0.407</v>
+      </c>
+      <c r="J144" s="1" t="str">
+        <f>MID($F144,28,7)</f>
+        <v>3 243.5</v>
+      </c>
+      <c r="K144" s="1" t="str">
+        <f>MID($F144,36,6)</f>
+        <v>157 -1</v>
+      </c>
+      <c r="L144" s="1" t="str">
+        <f>MID($F144,43,8)</f>
+        <v>.076 &lt; 2</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B145" s="103"/>
+      <c r="B145" s="99"/>
       <c r="C145" s="14"/>
       <c r="E145" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
+      </c>
+      <c r="F145" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pH 0.24725 0.06221 243.90995 3.974 9.3e-05 ***</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B146" s="103"/>
+      <c r="B146" s="99"/>
       <c r="C146" s="14"/>
       <c r="E146" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
+      </c>
+      <c r="F146" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>wardTwo -0.65238 0.32120 81.84254 -2.031 0.04549 *</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B147" s="103"/>
+      <c r="B147" s="99"/>
       <c r="C147" s="14"/>
       <c r="E147" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
+      </c>
+      <c r="F147" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>wardThree -0.14496 0.24393 76.04239 -0.594 0.55411</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B148" s="103"/>
+      <c r="B148" s="99"/>
       <c r="C148" s="14"/>
       <c r="E148" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
+      </c>
+      <c r="F148" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>wardFour -0.78585 0.36932 82.42800 -2.128 0.03634 *</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B149" s="103"/>
+      <c r="B149" s="99"/>
       <c r="C149" s="14"/>
       <c r="E149" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
+      </c>
+      <c r="F149" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>wardFive 0.45655 0.15204 68.05404 3.003 0.00374 **</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B150" s="103"/>
+      <c r="B150" s="99"/>
       <c r="C150" s="14"/>
       <c r="E150" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
+      </c>
+      <c r="F150" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>wardSix 0.12121 0.26841 78.29695 0.452 0.65280</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B151" s="103"/>
+      <c r="B151" s="99"/>
       <c r="C151" s="14"/>
       <c r="E151" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
+      </c>
+      <c r="F151" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>locationSouth -0.54989 0.19974 75.89608 -2.753 0.00739 **</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B152" s="103"/>
+      <c r="B152" s="99"/>
       <c r="C152" s="14" t="s">
         <v>37</v>
       </c>
@@ -7566,25 +9511,61 @@
         <v>351</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
+      </c>
+      <c r="F152" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) -5.33807 0.45033 250.47301 -11.854 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G152" s="1" t="str">
+        <f>MID($F152,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H152" s="1" t="str">
+        <f>MID($F152,13,7)</f>
+        <v>-5.3380</v>
+      </c>
+      <c r="I152" s="1" t="str">
+        <f>MID($F152,21,6)</f>
+        <v xml:space="preserve"> 0.450</v>
+      </c>
+      <c r="J152" s="1" t="str">
+        <f>MID($F152,28,7)</f>
+        <v>3 250.4</v>
+      </c>
+      <c r="K152" s="1" t="str">
+        <f>MID($F152,36,6)</f>
+        <v>301 -1</v>
+      </c>
+      <c r="L152" s="1" t="str">
+        <f>MID($F152,43,8)</f>
+        <v>.854 &lt; 2</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B153" s="103"/>
+      <c r="B153" s="99"/>
       <c r="C153" s="14"/>
       <c r="E153" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
+      </c>
+      <c r="F153" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>seasonMonsoon 0.87462 0.12234 224.92615 7.149 1.21e-11 ***</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B154" s="103"/>
+      <c r="B154" s="99"/>
       <c r="C154" s="14"/>
       <c r="E154" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
+      </c>
+      <c r="F154" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pH 0.47507 0.07628 247.73796 6.228 2.01e-09 ***</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B155" s="103"/>
+      <c r="B155" s="99"/>
       <c r="C155" s="14" t="s">
         <v>36</v>
       </c>
@@ -7592,25 +9573,61 @@
         <v>351</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
+      </c>
+      <c r="F155" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) -2.18698 0.51852 252.58958 -4.218 3.44e-05 ***</v>
+      </c>
+      <c r="G155" s="1" t="str">
+        <f>MID($F155,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H155" s="1" t="str">
+        <f>MID($F155,13,7)</f>
+        <v>-2.1869</v>
+      </c>
+      <c r="I155" s="1" t="str">
+        <f>MID($F155,21,6)</f>
+        <v xml:space="preserve"> 0.518</v>
+      </c>
+      <c r="J155" s="1" t="str">
+        <f>MID($F155,28,7)</f>
+        <v>2 252.5</v>
+      </c>
+      <c r="K155" s="1" t="str">
+        <f>MID($F155,36,6)</f>
+        <v>958 -4</v>
+      </c>
+      <c r="L155" s="1" t="str">
+        <f>MID($F155,43,8)</f>
+        <v>218 3.44</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B156" s="103"/>
+      <c r="B156" s="99"/>
       <c r="C156" s="14"/>
       <c r="E156" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
+      </c>
+      <c r="F156" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>seasonMonsoon 0.78789 0.14156 231.07081 5.566 7.20e-08 ***</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B157" s="103"/>
+      <c r="B157" s="99"/>
       <c r="C157" s="14"/>
       <c r="E157" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
+      </c>
+      <c r="F157" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pH 0.17740 0.08789 250.86049 2.018 0.0446 *</v>
       </c>
     </row>
     <row r="158" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B158" s="103"/>
+      <c r="B158" s="99"/>
       <c r="C158" s="14" t="s">
         <v>12</v>
       </c>
@@ -7618,21 +9635,53 @@
         <v>351</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
+      </c>
+      <c r="F158" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) 0.43214 0.57210 246.76222 0.755 0.451</v>
+      </c>
+      <c r="G158" s="1" t="str">
+        <f>MID($F158,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H158" s="1" t="str">
+        <f>MID($F158,13,7)</f>
+        <v>0.43214</v>
+      </c>
+      <c r="I158" s="1" t="str">
+        <f>MID($F158,21,6)</f>
+        <v>0.5721</v>
+      </c>
+      <c r="J158" s="1" t="str">
+        <f>MID($F158,28,7)</f>
+        <v xml:space="preserve"> 246.76</v>
+      </c>
+      <c r="K158" s="1" t="str">
+        <f>MID($F158,36,6)</f>
+        <v>22 0.7</v>
+      </c>
+      <c r="L158" s="1" t="str">
+        <f>MID($F158,43,8)</f>
+        <v>5 0.451</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B159" s="103"/>
+      <c r="B159" s="99"/>
       <c r="C159" s="14"/>
       <c r="E159" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
+      </c>
+      <c r="F159" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pH 0.43366 0.09565 241.82204 4.534 9.12e-06 ***</v>
       </c>
     </row>
     <row r="160" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B160" s="103"/>
+      <c r="B160" s="99"/>
       <c r="C160" s="14" t="s">
         <v>19</v>
       </c>
@@ -7640,21 +9689,53 @@
         <v>351</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
+      </c>
+      <c r="F160" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) 3.49555 0.07593 105.03855 46.034 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G160" s="1" t="str">
+        <f>MID($F160,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H160" s="1" t="str">
+        <f>MID($F160,13,7)</f>
+        <v>3.49555</v>
+      </c>
+      <c r="I160" s="1" t="str">
+        <f>MID($F160,21,6)</f>
+        <v>0.0759</v>
+      </c>
+      <c r="J160" s="1" t="str">
+        <f>MID($F160,28,7)</f>
+        <v xml:space="preserve"> 105.03</v>
+      </c>
+      <c r="K160" s="1" t="str">
+        <f>MID($F160,36,6)</f>
+        <v>55 46.</v>
+      </c>
+      <c r="L160" s="1" t="str">
+        <f>MID($F160,43,8)</f>
+        <v>34 &lt; 2e-</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="103"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B161" s="99"/>
       <c r="C161" s="14"/>
       <c r="E161" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="103"/>
+        <v>496</v>
+      </c>
+      <c r="F161" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>seasonMonsoon 0.74075 0.13713 239.70630 5.402 1.59e-07 ***</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B162" s="99"/>
       <c r="C162" s="14" t="s">
         <v>13</v>
       </c>
@@ -7662,25 +9743,61 @@
         <v>351</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="103"/>
+        <v>497</v>
+      </c>
+      <c r="F162" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) -1.7584 0.7085 251.4462 -2.482 0.0137 *</v>
+      </c>
+      <c r="G162" s="1" t="str">
+        <f>MID($F162,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H162" s="1" t="str">
+        <f>MID($F162,13,7)</f>
+        <v>-1.7584</v>
+      </c>
+      <c r="I162" s="1" t="str">
+        <f>MID($F162,21,6)</f>
+        <v>0.7085</v>
+      </c>
+      <c r="J162" s="1" t="str">
+        <f>MID($F162,28,7)</f>
+        <v>251.446</v>
+      </c>
+      <c r="K162" s="1" t="str">
+        <f>MID($F162,36,6)</f>
+        <v xml:space="preserve"> -2.48</v>
+      </c>
+      <c r="L162" s="1" t="str">
+        <f>MID($F162,43,8)</f>
+        <v xml:space="preserve"> 0.0137 </v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B163" s="99"/>
       <c r="C163" s="14"/>
       <c r="E163" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" s="103"/>
+        <v>498</v>
+      </c>
+      <c r="F163" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>seasonMonsoon 1.4475 0.1930 226.5827 7.498 1.45e-12 ***</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B164" s="99"/>
       <c r="C164" s="14"/>
       <c r="E164" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="103"/>
+        <v>499</v>
+      </c>
+      <c r="F164" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pH 0.4805 0.1201 249.1696 4.002 8.30e-05 ***</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B165" s="99"/>
       <c r="C165" s="14" t="s">
         <v>14</v>
       </c>
@@ -7688,32 +9805,72 @@
         <v>351</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B166" s="103"/>
+        <v>500</v>
+      </c>
+      <c r="F165" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) -1.6275 0.4264 254.4827 -3.817 0.00017 ***</v>
+      </c>
+      <c r="G165" s="1" t="str">
+        <f>MID($F165,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H165" s="1" t="str">
+        <f>MID($F165,13,7)</f>
+        <v>-1.6275</v>
+      </c>
+      <c r="I165" s="1" t="str">
+        <f>MID($F165,21,6)</f>
+        <v>0.4264</v>
+      </c>
+      <c r="J165" s="1" t="str">
+        <f>MID($F165,28,7)</f>
+        <v>254.482</v>
+      </c>
+      <c r="K165" s="1" t="str">
+        <f>MID($F165,36,6)</f>
+        <v xml:space="preserve"> -3.81</v>
+      </c>
+      <c r="L165" s="1" t="str">
+        <f>MID($F165,43,8)</f>
+        <v xml:space="preserve"> 0.00017</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B166" s="99"/>
       <c r="C166" s="14"/>
       <c r="E166" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B167" s="103"/>
+        <v>501</v>
+      </c>
+      <c r="F166" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>seasonMonsoon 0.5891 0.1150 241.4263 5.122 6.20e-07 ***</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B167" s="99"/>
       <c r="C167" s="14"/>
       <c r="E167" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="103"/>
+        <v>502</v>
+      </c>
+      <c r="F167" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pH 0.3332 0.0703 254.9298 4.739 3.56e-06 ***</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B168" s="99"/>
       <c r="C168" s="14"/>
       <c r="E168" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B169" s="103"/>
+        <v>503</v>
+      </c>
+      <c r="F168" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>locationSouth 0.5045 0.1214 83.6244 4.156 7.78e-05 ***</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B169" s="99"/>
       <c r="C169" s="14" t="s">
         <v>38</v>
       </c>
@@ -7721,25 +9878,61 @@
         <v>351</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" s="103"/>
+        <v>504</v>
+      </c>
+      <c r="F169" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) -3.02388 0.37271 247.58755 -8.113 2.30e-14 ***</v>
+      </c>
+      <c r="G169" s="1" t="str">
+        <f>MID($F169,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H169" s="1" t="str">
+        <f>MID($F169,13,7)</f>
+        <v>-3.0238</v>
+      </c>
+      <c r="I169" s="1" t="str">
+        <f>MID($F169,21,6)</f>
+        <v xml:space="preserve"> 0.372</v>
+      </c>
+      <c r="J169" s="1" t="str">
+        <f>MID($F169,28,7)</f>
+        <v>1 247.5</v>
+      </c>
+      <c r="K169" s="1" t="str">
+        <f>MID($F169,36,6)</f>
+        <v>755 -8</v>
+      </c>
+      <c r="L169" s="1" t="str">
+        <f>MID($F169,43,8)</f>
+        <v>113 2.30</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B170" s="99"/>
       <c r="C170" s="14"/>
       <c r="E170" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="103"/>
+        <v>505</v>
+      </c>
+      <c r="F170" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>seasonMonsoon 0.68908 0.10057 219.77193 6.852 7.23e-11 ***</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B171" s="99"/>
       <c r="C171" s="14"/>
       <c r="E171" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B172" s="103"/>
+        <v>506</v>
+      </c>
+      <c r="F171" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pH 0.44757 0.06306 243.45325 7.097 1.38e-11 ***</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B172" s="99"/>
       <c r="C172" s="14" t="s">
         <v>20</v>
       </c>
@@ -7747,32 +9940,72 @@
         <v>351</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B173" s="103"/>
+        <v>507</v>
+      </c>
+      <c r="F172" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) -1.9694 0.7565 252.5795 -2.603 0.00978 **</v>
+      </c>
+      <c r="G172" s="1" t="str">
+        <f>MID($F172,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H172" s="1" t="str">
+        <f>MID($F172,13,7)</f>
+        <v>-1.9694</v>
+      </c>
+      <c r="I172" s="1" t="str">
+        <f>MID($F172,21,6)</f>
+        <v>0.7565</v>
+      </c>
+      <c r="J172" s="1" t="str">
+        <f>MID($F172,28,7)</f>
+        <v>252.579</v>
+      </c>
+      <c r="K172" s="1" t="str">
+        <f>MID($F172,36,6)</f>
+        <v xml:space="preserve"> -2.60</v>
+      </c>
+      <c r="L172" s="1" t="str">
+        <f>MID($F172,43,8)</f>
+        <v xml:space="preserve"> 0.00978</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B173" s="99"/>
       <c r="C173" s="14"/>
       <c r="E173" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B174" s="103"/>
+        <v>508</v>
+      </c>
+      <c r="F173" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>seasonMonsoon 0.5647 0.2098 219.0717 2.692 0.00764 **</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B174" s="99"/>
       <c r="C174" s="14"/>
       <c r="E174" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B175" s="103"/>
+        <v>509</v>
+      </c>
+      <c r="F174" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>prox.normal -0.3465 0.1316 84.0093 -2.632 0.01009 *</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B175" s="99"/>
       <c r="C175" s="14"/>
       <c r="E175" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B176" s="103"/>
+        <v>510</v>
+      </c>
+      <c r="F175" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pH 0.2761 0.1283 251.1888 2.152 0.03235 *</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B176" s="99"/>
       <c r="C176" s="14" t="s">
         <v>33</v>
       </c>
@@ -7780,60 +10013,116 @@
         <v>351</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
+      </c>
+      <c r="F176" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) -1.89082 0.30815 249.37050 -6.136 3.30e-09 ***</v>
+      </c>
+      <c r="G176" s="1" t="str">
+        <f>MID($F176,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H176" s="1" t="str">
+        <f>MID($F176,13,7)</f>
+        <v>-1.8908</v>
+      </c>
+      <c r="I176" s="1" t="str">
+        <f>MID($F176,21,6)</f>
+        <v xml:space="preserve"> 0.308</v>
+      </c>
+      <c r="J176" s="1" t="str">
+        <f>MID($F176,28,7)</f>
+        <v>5 249.3</v>
+      </c>
+      <c r="K176" s="1" t="str">
+        <f>MID($F176,36,6)</f>
+        <v>050 -6</v>
+      </c>
+      <c r="L176" s="1" t="str">
+        <f>MID($F176,43,8)</f>
+        <v>136 3.30</v>
       </c>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B177" s="103"/>
+      <c r="B177" s="99"/>
       <c r="C177" s="14"/>
       <c r="E177" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
+      </c>
+      <c r="F177" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>seasonMonsoon 0.20081 0.08388 235.16744 2.394 0.017451 *</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B178" s="103"/>
+      <c r="B178" s="99"/>
       <c r="C178" s="14"/>
       <c r="E178" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
+      </c>
+      <c r="F178" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pH 0.21368 0.05109 250.94584 4.182 3.99e-05 ***</v>
       </c>
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B179" s="103"/>
+      <c r="B179" s="99"/>
       <c r="C179" s="14"/>
       <c r="E179" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
+      </c>
+      <c r="F179" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>wardTwo -0.61591 0.20580 89.27312 -2.993 0.003574 **</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B180" s="103"/>
+      <c r="B180" s="99"/>
       <c r="C180" s="14"/>
       <c r="E180" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
+      </c>
+      <c r="F180" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>wardThree 0.11731 0.13936 76.75453 0.842 0.402512</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B181" s="103"/>
+      <c r="B181" s="99"/>
       <c r="C181" s="14"/>
       <c r="E181" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
+      </c>
+      <c r="F181" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>wardFour -0.19309 0.25285 80.90980 -0.764 0.447313</v>
       </c>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B182" s="103"/>
+      <c r="B182" s="99"/>
       <c r="C182" s="14"/>
       <c r="E182" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
+      </c>
+      <c r="F182" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>wardFive 0.38965 0.10249 71.59569 3.802 0.000299 ***</v>
       </c>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B183" s="103"/>
+      <c r="B183" s="99"/>
       <c r="C183" s="14"/>
       <c r="E183" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
+      </c>
+      <c r="F183" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>wardSix 0.50461 0.16140 87.00145 3.126 0.002406 **</v>
       </c>
     </row>
     <row r="184" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B184" s="103"/>
+      <c r="B184" s="99"/>
       <c r="C184" s="14" t="s">
         <v>39</v>
       </c>
@@ -7841,21 +10130,53 @@
         <v>349</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
+      </c>
+      <c r="F184" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) 0.17866 0.05805 3.078 0.00231 **</v>
+      </c>
+      <c r="G184" s="1" t="str">
+        <f>MID($F184,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H184" s="1" t="str">
+        <f>MID($F184,13,7)</f>
+        <v>0.17866</v>
+      </c>
+      <c r="I184" s="1" t="str">
+        <f>MID($F184,21,6)</f>
+        <v>0.0580</v>
+      </c>
+      <c r="J184" s="1" t="str">
+        <f>MID($F184,28,7)</f>
+        <v xml:space="preserve"> 3.078 </v>
+      </c>
+      <c r="K184" s="1" t="str">
+        <f>MID($F184,36,6)</f>
+        <v>.00231</v>
+      </c>
+      <c r="L184" s="1" t="str">
+        <f>MID($F184,43,8)</f>
+        <v>**</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B185" s="103"/>
+      <c r="B185" s="99"/>
       <c r="C185" s="14"/>
       <c r="E185" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
+      </c>
+      <c r="F185" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>seasonMonsoon 0.62432 0.12268 5.089 6.95e-07 ***</v>
       </c>
     </row>
     <row r="186" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B186" s="103"/>
+      <c r="B186" s="99"/>
       <c r="C186" s="14" t="s">
         <v>41</v>
       </c>
@@ -7863,21 +10184,53 @@
         <v>351</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
+      </c>
+      <c r="F186" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) -2.33770 0.08255 104.24847 -28.320 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G186" s="1" t="str">
+        <f>MID($F186,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H186" s="1" t="str">
+        <f>MID($F186,13,7)</f>
+        <v>-2.3377</v>
+      </c>
+      <c r="I186" s="1" t="str">
+        <f>MID($F186,21,6)</f>
+        <v xml:space="preserve"> 0.082</v>
+      </c>
+      <c r="J186" s="1" t="str">
+        <f>MID($F186,28,7)</f>
+        <v>5 104.2</v>
+      </c>
+      <c r="K186" s="1" t="str">
+        <f>MID($F186,36,6)</f>
+        <v>847 -2</v>
+      </c>
+      <c r="L186" s="1" t="str">
+        <f>MID($F186,43,8)</f>
+        <v>.320 &lt; 2</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B187" s="103"/>
+      <c r="B187" s="99"/>
       <c r="C187" s="14"/>
       <c r="E187" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
+      </c>
+      <c r="F187" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>seasonMonsoon 0.75588 0.14141 235.15460 5.345 2.13e-07 ***</v>
       </c>
     </row>
     <row r="188" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B188" s="103"/>
+      <c r="B188" s="99"/>
       <c r="C188" s="14" t="s">
         <v>42</v>
       </c>
@@ -7885,32 +10238,72 @@
         <v>351</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
+      </c>
+      <c r="F188" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) -1.01499 0.40875 253.90440 -2.483 0.01367 *</v>
+      </c>
+      <c r="G188" s="1" t="str">
+        <f>MID($F188,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H188" s="1" t="str">
+        <f>MID($F188,13,7)</f>
+        <v>-1.0149</v>
+      </c>
+      <c r="I188" s="1" t="str">
+        <f>MID($F188,21,6)</f>
+        <v xml:space="preserve"> 0.408</v>
+      </c>
+      <c r="J188" s="1" t="str">
+        <f>MID($F188,28,7)</f>
+        <v>5 253.9</v>
+      </c>
+      <c r="K188" s="1" t="str">
+        <f>MID($F188,36,6)</f>
+        <v>440 -2</v>
+      </c>
+      <c r="L188" s="1" t="str">
+        <f>MID($F188,43,8)</f>
+        <v>483 0.01</v>
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B189" s="103"/>
+      <c r="B189" s="99"/>
       <c r="C189" s="14"/>
       <c r="E189" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
+      </c>
+      <c r="F189" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>seasonMonsoon 0.59444 0.11091 244.31268 5.360 1.93e-07 ***</v>
       </c>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B190" s="103"/>
+      <c r="B190" s="99"/>
       <c r="C190" s="14"/>
       <c r="E190" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
+      </c>
+      <c r="F190" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pH 0.22849 0.06747 254.96644 3.386 0.00082 ***</v>
       </c>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B191" s="103"/>
+      <c r="B191" s="99"/>
       <c r="C191" s="14"/>
       <c r="E191" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
+      </c>
+      <c r="F191" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>locationSouth 0.31027 0.11310 86.63036 2.743 0.00739 **</v>
       </c>
     </row>
     <row r="192" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B192" s="103"/>
+      <c r="B192" s="99"/>
       <c r="C192" s="14" t="s">
         <v>15</v>
       </c>
@@ -7918,293 +10311,329 @@
         <v>351</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
+      </c>
+      <c r="F192" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>(Intercept) 3.21521 0.57684 244.49038 5.574 6.57e-08 ***</v>
+      </c>
+      <c r="G192" s="1" t="str">
+        <f>MID($F192,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H192" s="1" t="str">
+        <f>MID($F192,13,7)</f>
+        <v>3.21521</v>
+      </c>
+      <c r="I192" s="1" t="str">
+        <f>MID($F192,21,6)</f>
+        <v>0.5768</v>
+      </c>
+      <c r="J192" s="1" t="str">
+        <f>MID($F192,28,7)</f>
+        <v xml:space="preserve"> 244.49</v>
+      </c>
+      <c r="K192" s="1" t="str">
+        <f>MID($F192,36,6)</f>
+        <v>38 5.5</v>
+      </c>
+      <c r="L192" s="1" t="str">
+        <f>MID($F192,43,8)</f>
+        <v>4 6.57e-</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C193" s="14"/>
       <c r="E193" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
+      </c>
+      <c r="F193" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pH 0.35161 0.08916 204.93527 3.944 0.00011 ***</v>
       </c>
     </row>
     <row r="194" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C194" s="15"/>
       <c r="E194" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F194" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>locationSouth -0.74187 0.28481 78.94315 -2.605 0.01098 *</v>
+      </c>
+    </row>
+    <row r="202" spans="3:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U202" s="89" t="s">
+        <v>535</v>
+      </c>
+      <c r="V202" s="89"/>
+      <c r="W202" s="89"/>
+      <c r="X202" s="89"/>
+      <c r="Y202" s="89"/>
+      <c r="Z202" s="89"/>
+      <c r="AA202" s="89"/>
+      <c r="AB202" s="89"/>
+      <c r="AC202" s="89"/>
+      <c r="AD202" s="89"/>
+      <c r="AE202" s="89"/>
+      <c r="AF202" s="89"/>
+      <c r="AG202" s="89"/>
+      <c r="AH202" s="89"/>
+      <c r="AI202" s="89"/>
+      <c r="AJ202" s="89"/>
+      <c r="AK202" s="89"/>
+      <c r="AL202" s="89"/>
+      <c r="AM202" s="89"/>
+      <c r="AN202" s="89"/>
+    </row>
+    <row r="203" spans="3:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="U203" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="V203" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W203" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="X203" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y203" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z203" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA203" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB203" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC203" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD203" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE203" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF203" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG203" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH203" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI203" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ203" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK203" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL203" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM203" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN203" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U204" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V204" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W204" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X204" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y204" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z204" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA204" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB204" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AC204" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD204" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE204" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF204" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG204" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH204" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AI204" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ204" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK204" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL204" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM204" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AN204" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="205" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="U205" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V205" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W205" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X205" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y205" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="202" spans="3:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U202" s="86" t="s">
-        <v>537</v>
-      </c>
-      <c r="V202" s="86"/>
-      <c r="W202" s="86"/>
-      <c r="X202" s="86"/>
-      <c r="Y202" s="86"/>
-      <c r="Z202" s="86"/>
-      <c r="AA202" s="86"/>
-      <c r="AB202" s="86"/>
-      <c r="AC202" s="86"/>
-      <c r="AD202" s="86"/>
-      <c r="AE202" s="86"/>
-      <c r="AF202" s="86"/>
-      <c r="AG202" s="86"/>
-      <c r="AH202" s="86"/>
-      <c r="AI202" s="86"/>
-      <c r="AJ202" s="86"/>
-      <c r="AK202" s="86"/>
-      <c r="AL202" s="86"/>
-      <c r="AM202" s="86"/>
-      <c r="AN202" s="86"/>
-    </row>
-    <row r="203" spans="3:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="U203" s="107" t="s">
-        <v>535</v>
-      </c>
-      <c r="V203" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="W203" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="X203" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y203" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z203" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA203" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB203" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC203" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD203" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE203" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF203" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG203" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH203" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI203" s="107" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ203" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK203" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL203" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM203" s="107" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN203" s="107" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="204" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="U204" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="V204" s="105" t="s">
+      <c r="Z205" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="W204" s="105" t="s">
+      <c r="AA205" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="X204" s="105" t="s">
+      <c r="AB205" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC205" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD205" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE205" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF205" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG205" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AH205" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI205" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ205" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK205" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AL205" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM205" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AN205" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="206" spans="3:40" ht="34" x14ac:dyDescent="0.2">
+      <c r="U206" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="Y204" s="105" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z204" s="105" t="s">
+      <c r="V206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AA204" s="105" t="s">
-        <v>532</v>
-      </c>
-      <c r="AB204" s="105" t="s">
-        <v>532</v>
-      </c>
-      <c r="AC204" s="105" t="s">
+      <c r="W206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AD204" s="105" t="s">
+      <c r="X206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AE204" s="105" t="s">
-        <v>532</v>
-      </c>
-      <c r="AF204" s="105" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG204" s="105" t="s">
+      <c r="Y206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AH204" s="105" t="s">
-        <v>532</v>
-      </c>
-      <c r="AI204" s="105" t="s">
+      <c r="Z206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AJ204" s="105" t="s">
+      <c r="AA206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AK204" s="105" t="s">
+      <c r="AB206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AL204" s="105" t="s">
+      <c r="AC206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AM204" s="105" t="s">
-        <v>532</v>
-      </c>
-      <c r="AN204" s="105" t="s">
+      <c r="AD206" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="205" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="U205" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="V205" s="105" t="s">
+      <c r="AE206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="W205" s="105" t="s">
+      <c r="AF206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="X205" s="105" t="s">
+      <c r="AG206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="Y205" s="105" t="s">
-        <v>533</v>
-      </c>
-      <c r="Z205" s="105" t="s">
+      <c r="AH206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AA205" s="105" t="s">
+      <c r="AI206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AB205" s="105" t="s">
+      <c r="AJ206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AC205" s="105" t="s">
+      <c r="AK206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AD205" s="105" t="s">
+      <c r="AL206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AE205" s="105" t="s">
+      <c r="AM206" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AF205" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG205" s="105" t="s">
-        <v>533</v>
-      </c>
-      <c r="AH205" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI205" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ205" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK205" s="105" t="s">
-        <v>533</v>
-      </c>
-      <c r="AL205" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM205" s="105" t="s">
-        <v>533</v>
-      </c>
-      <c r="AN205" s="105" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="206" spans="3:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="U206" s="106" t="s">
-        <v>534</v>
-      </c>
-      <c r="V206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="W206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="X206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM206" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="AN206" s="105" t="s">
+      <c r="AN206" s="1" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8233,88 +10662,88 @@
       <c r="AN207" s="13"/>
     </row>
     <row r="209" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U209" s="86" t="s">
-        <v>538</v>
-      </c>
-      <c r="V209" s="86"/>
-      <c r="W209" s="86"/>
-      <c r="X209" s="86"/>
-      <c r="Y209" s="86"/>
-      <c r="Z209" s="86"/>
-      <c r="AA209" s="86"/>
-      <c r="AB209" s="86"/>
-      <c r="AC209" s="86"/>
-      <c r="AD209" s="86"/>
-      <c r="AE209" s="86"/>
-      <c r="AF209" s="86"/>
-      <c r="AG209" s="86"/>
-      <c r="AH209" s="86"/>
-      <c r="AI209" s="86"/>
-      <c r="AJ209" s="86"/>
-      <c r="AK209" s="86"/>
-      <c r="AL209" s="86"/>
-      <c r="AM209" s="86"/>
-      <c r="AN209" s="86"/>
+      <c r="U209" s="89" t="s">
+        <v>536</v>
+      </c>
+      <c r="V209" s="89"/>
+      <c r="W209" s="89"/>
+      <c r="X209" s="89"/>
+      <c r="Y209" s="89"/>
+      <c r="Z209" s="89"/>
+      <c r="AA209" s="89"/>
+      <c r="AB209" s="89"/>
+      <c r="AC209" s="89"/>
+      <c r="AD209" s="89"/>
+      <c r="AE209" s="89"/>
+      <c r="AF209" s="89"/>
+      <c r="AG209" s="89"/>
+      <c r="AH209" s="89"/>
+      <c r="AI209" s="89"/>
+      <c r="AJ209" s="89"/>
+      <c r="AK209" s="89"/>
+      <c r="AL209" s="89"/>
+      <c r="AM209" s="89"/>
+      <c r="AN209" s="89"/>
     </row>
     <row r="210" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="U210" s="107" t="s">
-        <v>535</v>
-      </c>
-      <c r="V210" s="107" t="s">
+      <c r="U210" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="V210" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W210" s="107" t="s">
+      <c r="W210" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X210" s="107" t="s">
+      <c r="X210" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y210" s="107" t="s">
+      <c r="Y210" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z210" s="107" t="s">
+      <c r="Z210" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA210" s="107" t="s">
+      <c r="AA210" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AB210" s="107" t="s">
+      <c r="AB210" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC210" s="107" t="s">
+      <c r="AC210" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD210" s="107" t="s">
+      <c r="AD210" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AE210" s="107" t="s">
+      <c r="AE210" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF210" s="107" t="s">
+      <c r="AF210" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG210" s="107" t="s">
+      <c r="AG210" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH210" s="107" t="s">
+      <c r="AH210" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AI210" s="107" t="s">
+      <c r="AI210" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ210" s="107" t="s">
+      <c r="AJ210" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AK210" s="107" t="s">
+      <c r="AK210" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AL210" s="107" t="s">
+      <c r="AL210" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AM210" s="107" t="s">
+      <c r="AM210" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AN210" s="107" t="s">
+      <c r="AN210" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8329,40 +10758,40 @@
         <v>273</v>
       </c>
       <c r="X211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Y211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Z211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AA211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AB211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AC211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AD211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AE211" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AF211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AH211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AI211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AJ211" s="1" t="s">
         <v>273</v>
@@ -8371,13 +10800,13 @@
         <v>273</v>
       </c>
       <c r="AL211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AM211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AN211" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="212" spans="21:40" x14ac:dyDescent="0.2">
@@ -8385,16 +10814,16 @@
         <v>32</v>
       </c>
       <c r="V212" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="W212" s="1" t="s">
         <v>273</v>
       </c>
       <c r="X212" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Y212" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Z212" s="1" t="s">
         <v>273</v>
@@ -8418,7 +10847,7 @@
         <v>273</v>
       </c>
       <c r="AG212" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AH212" s="1" t="s">
         <v>273</v>
@@ -8444,25 +10873,25 @@
     </row>
     <row r="213" spans="21:40" ht="34" x14ac:dyDescent="0.2">
       <c r="U213" s="25" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="V213" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="W213" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="X213" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Y213" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Z213" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AA213" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AB213" s="1" t="s">
         <v>273</v>
@@ -8480,13 +10909,13 @@
         <v>273</v>
       </c>
       <c r="AG213" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AH213" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AI213" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AJ213" s="1" t="s">
         <v>273</v>
@@ -8517,108 +10946,108 @@
       <c r="AB214" s="26"/>
       <c r="AC214" s="26"/>
       <c r="AD214" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AE214" s="26"/>
       <c r="AF214" s="26"/>
       <c r="AG214" s="26"/>
       <c r="AH214" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AI214" s="26"/>
       <c r="AJ214" s="26"/>
       <c r="AK214" s="26"/>
       <c r="AL214" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AM214" s="26"/>
       <c r="AN214" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="216" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U216" s="86" t="s">
-        <v>540</v>
-      </c>
-      <c r="V216" s="86"/>
-      <c r="W216" s="86"/>
-      <c r="X216" s="86"/>
-      <c r="Y216" s="86"/>
-      <c r="Z216" s="86"/>
-      <c r="AA216" s="86"/>
-      <c r="AB216" s="86"/>
-      <c r="AC216" s="86"/>
-      <c r="AD216" s="86"/>
-      <c r="AE216" s="86"/>
-      <c r="AF216" s="86"/>
-      <c r="AG216" s="86"/>
-      <c r="AH216" s="86"/>
-      <c r="AI216" s="86"/>
-      <c r="AJ216" s="86"/>
-      <c r="AK216" s="86"/>
-      <c r="AL216" s="86"/>
-      <c r="AM216" s="86"/>
-      <c r="AN216" s="86"/>
+      <c r="U216" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="V216" s="89"/>
+      <c r="W216" s="89"/>
+      <c r="X216" s="89"/>
+      <c r="Y216" s="89"/>
+      <c r="Z216" s="89"/>
+      <c r="AA216" s="89"/>
+      <c r="AB216" s="89"/>
+      <c r="AC216" s="89"/>
+      <c r="AD216" s="89"/>
+      <c r="AE216" s="89"/>
+      <c r="AF216" s="89"/>
+      <c r="AG216" s="89"/>
+      <c r="AH216" s="89"/>
+      <c r="AI216" s="89"/>
+      <c r="AJ216" s="89"/>
+      <c r="AK216" s="89"/>
+      <c r="AL216" s="89"/>
+      <c r="AM216" s="89"/>
+      <c r="AN216" s="89"/>
     </row>
     <row r="217" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="U217" s="107" t="s">
-        <v>535</v>
-      </c>
-      <c r="V217" s="107" t="s">
+      <c r="U217" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="V217" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W217" s="107" t="s">
+      <c r="W217" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X217" s="107" t="s">
+      <c r="X217" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y217" s="107" t="s">
+      <c r="Y217" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z217" s="107" t="s">
+      <c r="Z217" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA217" s="107" t="s">
+      <c r="AA217" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AB217" s="107" t="s">
+      <c r="AB217" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC217" s="107" t="s">
+      <c r="AC217" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD217" s="107" t="s">
+      <c r="AD217" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AE217" s="107" t="s">
+      <c r="AE217" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF217" s="107" t="s">
+      <c r="AF217" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG217" s="107" t="s">
+      <c r="AG217" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH217" s="107" t="s">
+      <c r="AH217" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AI217" s="107" t="s">
+      <c r="AI217" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ217" s="107" t="s">
+      <c r="AJ217" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AK217" s="107" t="s">
+      <c r="AK217" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AL217" s="107" t="s">
+      <c r="AL217" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AM217" s="107" t="s">
+      <c r="AM217" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AN217" s="107" t="s">
+      <c r="AN217" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8630,55 +11059,55 @@
         <v>273</v>
       </c>
       <c r="W218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="X218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Y218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AA218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AB218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AC218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AD218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AE218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AF218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AG218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AH218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AI218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AJ218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AK218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AL218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AM218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AN218" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="219" spans="21:40" x14ac:dyDescent="0.2">
@@ -8692,7 +11121,7 @@
         <v>273</v>
       </c>
       <c r="X219" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Y219" s="1" t="s">
         <v>273</v>
@@ -8701,7 +11130,7 @@
         <v>273</v>
       </c>
       <c r="AA219" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AB219" s="1" t="s">
         <v>273</v>
@@ -8713,7 +11142,7 @@
         <v>273</v>
       </c>
       <c r="AE219" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AF219" s="1" t="s">
         <v>273</v>
@@ -8745,52 +11174,52 @@
     </row>
     <row r="220" spans="21:40" ht="34" x14ac:dyDescent="0.2">
       <c r="U220" s="25" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="V220" s="1" t="s">
         <v>273</v>
       </c>
       <c r="W220" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="X220" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Y220" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Z220" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AA220" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AB220" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AC220" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AD220" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AE220" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AF220" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AG220" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AH220" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AI220" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AJ220" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AK220" s="1" t="s">
         <v>273</v>
@@ -8817,7 +11246,7 @@
       <c r="AA221" s="26"/>
       <c r="AB221" s="26"/>
       <c r="AC221" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AD221" s="26"/>
       <c r="AE221" s="26"/>
@@ -8832,88 +11261,88 @@
       <c r="AN221" s="26"/>
     </row>
     <row r="224" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U224" s="86" t="s">
-        <v>543</v>
-      </c>
-      <c r="V224" s="86"/>
-      <c r="W224" s="86"/>
-      <c r="X224" s="86"/>
-      <c r="Y224" s="86"/>
-      <c r="Z224" s="86"/>
-      <c r="AA224" s="86"/>
-      <c r="AB224" s="86"/>
-      <c r="AC224" s="86"/>
-      <c r="AD224" s="86"/>
-      <c r="AE224" s="86"/>
-      <c r="AF224" s="86"/>
-      <c r="AG224" s="86"/>
-      <c r="AH224" s="86"/>
-      <c r="AI224" s="86"/>
-      <c r="AJ224" s="86"/>
-      <c r="AK224" s="86"/>
-      <c r="AL224" s="86"/>
-      <c r="AM224" s="86"/>
-      <c r="AN224" s="86"/>
+      <c r="U224" s="89" t="s">
+        <v>541</v>
+      </c>
+      <c r="V224" s="89"/>
+      <c r="W224" s="89"/>
+      <c r="X224" s="89"/>
+      <c r="Y224" s="89"/>
+      <c r="Z224" s="89"/>
+      <c r="AA224" s="89"/>
+      <c r="AB224" s="89"/>
+      <c r="AC224" s="89"/>
+      <c r="AD224" s="89"/>
+      <c r="AE224" s="89"/>
+      <c r="AF224" s="89"/>
+      <c r="AG224" s="89"/>
+      <c r="AH224" s="89"/>
+      <c r="AI224" s="89"/>
+      <c r="AJ224" s="89"/>
+      <c r="AK224" s="89"/>
+      <c r="AL224" s="89"/>
+      <c r="AM224" s="89"/>
+      <c r="AN224" s="89"/>
     </row>
     <row r="225" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="U225" s="107" t="s">
-        <v>535</v>
-      </c>
-      <c r="V225" s="107" t="s">
+      <c r="U225" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="V225" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W225" s="107" t="s">
+      <c r="W225" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X225" s="107" t="s">
+      <c r="X225" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y225" s="107" t="s">
+      <c r="Y225" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z225" s="107" t="s">
+      <c r="Z225" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA225" s="107" t="s">
+      <c r="AA225" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AB225" s="107" t="s">
+      <c r="AB225" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC225" s="107" t="s">
+      <c r="AC225" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD225" s="107" t="s">
+      <c r="AD225" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AE225" s="107" t="s">
+      <c r="AE225" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF225" s="107" t="s">
+      <c r="AF225" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG225" s="107" t="s">
+      <c r="AG225" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH225" s="107" t="s">
+      <c r="AH225" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AI225" s="107" t="s">
+      <c r="AI225" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ225" s="107" t="s">
+      <c r="AJ225" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AK225" s="107" t="s">
+      <c r="AK225" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AL225" s="107" t="s">
+      <c r="AL225" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AM225" s="107" t="s">
+      <c r="AM225" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AN225" s="107" t="s">
+      <c r="AN225" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8922,16 +11351,16 @@
         <v>261</v>
       </c>
       <c r="V226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="W226" s="1" t="s">
         <v>273</v>
       </c>
       <c r="X226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Y226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Z226" s="1" t="s">
         <v>273</v>
@@ -8940,40 +11369,40 @@
         <v>273</v>
       </c>
       <c r="AB226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AC226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AD226" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AE226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AF226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AG226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AH226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AI226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AJ226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AK226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AL226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AM226" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AN226" s="1" t="s">
         <v>273</v>
@@ -8987,46 +11416,46 @@
         <v>273</v>
       </c>
       <c r="W227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="X227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Y227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Z227" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AA227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AB227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AC227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AE227" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AF227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AG227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AH227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AI227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AJ227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AK227" s="1" t="s">
         <v>273</v>
@@ -9035,15 +11464,15 @@
         <v>273</v>
       </c>
       <c r="AM227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AN227" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="228" spans="21:40" ht="34" x14ac:dyDescent="0.2">
       <c r="U228" s="25" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="V228" s="1" t="s">
         <v>273</v>
@@ -9058,7 +11487,7 @@
         <v>273</v>
       </c>
       <c r="Z228" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AA228" s="1" t="s">
         <v>273</v>
@@ -9085,7 +11514,7 @@
         <v>273</v>
       </c>
       <c r="AI228" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AJ228" s="1" t="s">
         <v>273</v>
@@ -9105,7 +11534,7 @@
     </row>
     <row r="229" spans="21:40" ht="17" x14ac:dyDescent="0.2">
       <c r="U229" s="25" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="V229" s="1" t="s">
         <v>273</v>
@@ -9123,7 +11552,7 @@
         <v>273</v>
       </c>
       <c r="AA229" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AB229" s="1" t="s">
         <v>273</v>
@@ -9150,7 +11579,7 @@
         <v>273</v>
       </c>
       <c r="AJ229" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AK229" s="1" t="s">
         <v>273</v>
@@ -9167,7 +11596,7 @@
     </row>
     <row r="230" spans="21:40" ht="17" x14ac:dyDescent="0.2">
       <c r="U230" s="25" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="V230" s="1" t="s">
         <v>273</v>
@@ -9182,10 +11611,10 @@
         <v>273</v>
       </c>
       <c r="Z230" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AA230" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AB230" s="1" t="s">
         <v>273</v>
@@ -9203,7 +11632,7 @@
         <v>273</v>
       </c>
       <c r="AG230" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AH230" s="1" t="s">
         <v>273</v>
@@ -9221,10 +11650,10 @@
         <v>273</v>
       </c>
       <c r="AM230" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AN230" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="231" spans="21:40" s="25" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
@@ -9232,10 +11661,10 @@
         <v>24</v>
       </c>
       <c r="V231" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W231" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="X231" s="26"/>
       <c r="Y231" s="26"/>
@@ -9244,10 +11673,10 @@
       <c r="AB231" s="26"/>
       <c r="AC231" s="26"/>
       <c r="AD231" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AE231" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AF231" s="26"/>
       <c r="AG231" s="26"/>
@@ -9255,14 +11684,14 @@
       <c r="AI231" s="26"/>
       <c r="AJ231" s="26"/>
       <c r="AK231" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AL231" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AM231" s="26"/>
       <c r="AN231" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -9526,8 +11955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E119337B-178C-1641-8548-9AE40C5AB899}">
   <dimension ref="B2:T107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:K50"/>
+    <sheetView topLeftCell="G27" workbookViewId="0">
+      <selection activeCell="H75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9543,14 +11972,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -9574,7 +12003,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="80" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -9588,7 +12017,7 @@
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="80"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
@@ -9597,7 +12026,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="80"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -9606,7 +12035,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="80"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -9615,7 +12044,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="81"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
@@ -9627,7 +12056,7 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="80" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -9641,7 +12070,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="80"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
@@ -9653,7 +12082,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="80"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -9665,7 +12094,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="80"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -9674,7 +12103,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="81"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -9686,7 +12115,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="80" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -9702,7 +12131,7 @@
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="80"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -9714,7 +12143,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="80"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -9729,7 +12158,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="80"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -9741,7 +12170,7 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="81"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -9755,7 +12184,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="81" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -9766,7 +12195,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="80"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -9775,7 +12204,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="80"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -9784,7 +12213,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="80"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -9793,7 +12222,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="81"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
@@ -9805,18 +12234,18 @@
       <c r="G23" s="13"/>
     </row>
     <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="86" t="s">
+      <c r="J30" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
     </row>
     <row r="31" spans="2:20" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J31" s="55" t="s">
@@ -9851,7 +12280,7 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J32" s="102" t="s">
+      <c r="J32" s="98" t="s">
         <v>79</v>
       </c>
       <c r="K32" s="14" t="s">
@@ -9865,7 +12294,7 @@
       </c>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J33" s="103"/>
+      <c r="J33" s="99"/>
       <c r="K33" s="14" t="s">
         <v>16</v>
       </c>
@@ -9874,7 +12303,7 @@
       </c>
     </row>
     <row r="34" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J34" s="103"/>
+      <c r="J34" s="99"/>
       <c r="K34" s="14" t="s">
         <v>17</v>
       </c>
@@ -9883,7 +12312,7 @@
       </c>
     </row>
     <row r="35" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J35" s="103"/>
+      <c r="J35" s="99"/>
       <c r="K35" s="14" t="s">
         <v>34</v>
       </c>
@@ -9892,7 +12321,7 @@
       </c>
     </row>
     <row r="36" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J36" s="103"/>
+      <c r="J36" s="99"/>
       <c r="K36" s="14" t="s">
         <v>35</v>
       </c>
@@ -9901,7 +12330,7 @@
       </c>
     </row>
     <row r="37" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J37" s="103"/>
+      <c r="J37" s="99"/>
       <c r="K37" s="14" t="s">
         <v>18</v>
       </c>
@@ -9913,7 +12342,7 @@
       </c>
     </row>
     <row r="38" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J38" s="103"/>
+      <c r="J38" s="99"/>
       <c r="K38" s="14" t="s">
         <v>37</v>
       </c>
@@ -9922,7 +12351,7 @@
       </c>
     </row>
     <row r="39" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J39" s="103"/>
+      <c r="J39" s="99"/>
       <c r="K39" s="14" t="s">
         <v>36</v>
       </c>
@@ -9931,7 +12360,7 @@
       </c>
     </row>
     <row r="40" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J40" s="103"/>
+      <c r="J40" s="99"/>
       <c r="K40" s="14" t="s">
         <v>12</v>
       </c>
@@ -9943,7 +12372,7 @@
       </c>
     </row>
     <row r="41" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J41" s="103"/>
+      <c r="J41" s="99"/>
       <c r="K41" s="14" t="s">
         <v>19</v>
       </c>
@@ -9955,7 +12384,7 @@
       </c>
     </row>
     <row r="42" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="103"/>
+      <c r="J42" s="99"/>
       <c r="K42" s="14" t="s">
         <v>13</v>
       </c>
@@ -9967,7 +12396,7 @@
       </c>
     </row>
     <row r="43" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J43" s="103"/>
+      <c r="J43" s="99"/>
       <c r="K43" s="14" t="s">
         <v>14</v>
       </c>
@@ -9976,7 +12405,7 @@
       </c>
     </row>
     <row r="44" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J44" s="103"/>
+      <c r="J44" s="99"/>
       <c r="K44" s="14" t="s">
         <v>38</v>
       </c>
@@ -9985,7 +12414,7 @@
       </c>
     </row>
     <row r="45" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J45" s="103"/>
+      <c r="J45" s="99"/>
       <c r="K45" s="14" t="s">
         <v>20</v>
       </c>
@@ -9997,7 +12426,7 @@
       </c>
     </row>
     <row r="46" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J46" s="103"/>
+      <c r="J46" s="99"/>
       <c r="K46" s="14" t="s">
         <v>33</v>
       </c>
@@ -10006,7 +12435,7 @@
       </c>
     </row>
     <row r="47" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J47" s="103"/>
+      <c r="J47" s="99"/>
       <c r="K47" s="14" t="s">
         <v>39</v>
       </c>
@@ -10018,7 +12447,7 @@
       </c>
     </row>
     <row r="48" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J48" s="103"/>
+      <c r="J48" s="99"/>
       <c r="K48" s="14" t="s">
         <v>41</v>
       </c>
@@ -10027,7 +12456,7 @@
       </c>
     </row>
     <row r="49" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J49" s="103"/>
+      <c r="J49" s="99"/>
       <c r="K49" s="14" t="s">
         <v>42</v>
       </c>
@@ -10036,7 +12465,7 @@
       </c>
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J50" s="103"/>
+      <c r="J50" s="99"/>
       <c r="K50" s="15" t="s">
         <v>15</v>
       </c>
@@ -10045,7 +12474,7 @@
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J51" s="102" t="s">
+      <c r="J51" s="98" t="s">
         <v>80</v>
       </c>
       <c r="K51" s="14" t="s">
@@ -10056,7 +12485,7 @@
       </c>
     </row>
     <row r="52" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J52" s="103"/>
+      <c r="J52" s="99"/>
       <c r="K52" s="14" t="s">
         <v>16</v>
       </c>
@@ -10065,7 +12494,7 @@
       </c>
     </row>
     <row r="53" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J53" s="103"/>
+      <c r="J53" s="99"/>
       <c r="K53" s="14" t="s">
         <v>17</v>
       </c>
@@ -10074,7 +12503,7 @@
       </c>
     </row>
     <row r="54" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J54" s="103"/>
+      <c r="J54" s="99"/>
       <c r="K54" s="14" t="s">
         <v>34</v>
       </c>
@@ -10083,7 +12512,7 @@
       </c>
     </row>
     <row r="55" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J55" s="103"/>
+      <c r="J55" s="99"/>
       <c r="K55" s="14" t="s">
         <v>35</v>
       </c>
@@ -10092,7 +12521,7 @@
       </c>
     </row>
     <row r="56" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J56" s="103"/>
+      <c r="J56" s="99"/>
       <c r="K56" s="14" t="s">
         <v>18</v>
       </c>
@@ -10101,7 +12530,7 @@
       </c>
     </row>
     <row r="57" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J57" s="103"/>
+      <c r="J57" s="99"/>
       <c r="K57" s="14" t="s">
         <v>37</v>
       </c>
@@ -10113,7 +12542,7 @@
       </c>
     </row>
     <row r="58" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J58" s="103"/>
+      <c r="J58" s="99"/>
       <c r="K58" s="14" t="s">
         <v>36</v>
       </c>
@@ -10122,7 +12551,7 @@
       </c>
     </row>
     <row r="59" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J59" s="103"/>
+      <c r="J59" s="99"/>
       <c r="K59" s="14" t="s">
         <v>12</v>
       </c>
@@ -10134,7 +12563,7 @@
       </c>
     </row>
     <row r="60" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J60" s="103"/>
+      <c r="J60" s="99"/>
       <c r="K60" s="14" t="s">
         <v>19</v>
       </c>
@@ -10143,7 +12572,7 @@
       </c>
     </row>
     <row r="61" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J61" s="103"/>
+      <c r="J61" s="99"/>
       <c r="K61" s="14" t="s">
         <v>13</v>
       </c>
@@ -10155,7 +12584,7 @@
       </c>
     </row>
     <row r="62" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J62" s="103"/>
+      <c r="J62" s="99"/>
       <c r="K62" s="14" t="s">
         <v>14</v>
       </c>
@@ -10164,7 +12593,7 @@
       </c>
     </row>
     <row r="63" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J63" s="103"/>
+      <c r="J63" s="99"/>
       <c r="K63" s="14" t="s">
         <v>38</v>
       </c>
@@ -10176,7 +12605,7 @@
       </c>
     </row>
     <row r="64" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J64" s="103"/>
+      <c r="J64" s="99"/>
       <c r="K64" s="14" t="s">
         <v>20</v>
       </c>
@@ -10188,7 +12617,7 @@
       </c>
     </row>
     <row r="65" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J65" s="103"/>
+      <c r="J65" s="99"/>
       <c r="K65" s="14" t="s">
         <v>33</v>
       </c>
@@ -10200,7 +12629,7 @@
       </c>
     </row>
     <row r="66" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J66" s="103"/>
+      <c r="J66" s="99"/>
       <c r="K66" s="14" t="s">
         <v>39</v>
       </c>
@@ -10212,7 +12641,7 @@
       </c>
     </row>
     <row r="67" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J67" s="103"/>
+      <c r="J67" s="99"/>
       <c r="K67" s="14" t="s">
         <v>41</v>
       </c>
@@ -10221,7 +12650,7 @@
       </c>
     </row>
     <row r="68" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J68" s="103"/>
+      <c r="J68" s="99"/>
       <c r="K68" s="14" t="s">
         <v>42</v>
       </c>
@@ -10233,7 +12662,7 @@
       </c>
     </row>
     <row r="69" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J69" s="103"/>
+      <c r="J69" s="99"/>
       <c r="K69" s="15" t="s">
         <v>15</v>
       </c>
@@ -10242,7 +12671,7 @@
       </c>
     </row>
     <row r="70" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J70" s="102" t="s">
+      <c r="J70" s="98" t="s">
         <v>81</v>
       </c>
       <c r="K70" s="14" t="s">
@@ -10256,7 +12685,7 @@
       </c>
     </row>
     <row r="71" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J71" s="103"/>
+      <c r="J71" s="99"/>
       <c r="K71" s="14" t="s">
         <v>16</v>
       </c>
@@ -10265,7 +12694,7 @@
       </c>
     </row>
     <row r="72" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J72" s="103"/>
+      <c r="J72" s="99"/>
       <c r="K72" s="14" t="s">
         <v>17</v>
       </c>
@@ -10277,7 +12706,7 @@
       </c>
     </row>
     <row r="73" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J73" s="103"/>
+      <c r="J73" s="99"/>
       <c r="K73" s="14" t="s">
         <v>34</v>
       </c>
@@ -10286,7 +12715,7 @@
       </c>
     </row>
     <row r="74" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J74" s="103"/>
+      <c r="J74" s="99"/>
       <c r="K74" s="14" t="s">
         <v>35</v>
       </c>
@@ -10295,7 +12724,7 @@
       </c>
     </row>
     <row r="75" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J75" s="103"/>
+      <c r="J75" s="99"/>
       <c r="K75" s="14" t="s">
         <v>18</v>
       </c>
@@ -10307,7 +12736,7 @@
       </c>
     </row>
     <row r="76" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J76" s="103"/>
+      <c r="J76" s="99"/>
       <c r="K76" s="14" t="s">
         <v>37</v>
       </c>
@@ -10316,7 +12745,7 @@
       </c>
     </row>
     <row r="77" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J77" s="103"/>
+      <c r="J77" s="99"/>
       <c r="K77" s="14" t="s">
         <v>36</v>
       </c>
@@ -10328,7 +12757,7 @@
       </c>
     </row>
     <row r="78" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J78" s="103"/>
+      <c r="J78" s="99"/>
       <c r="K78" s="14" t="s">
         <v>12</v>
       </c>
@@ -10337,7 +12766,7 @@
       </c>
     </row>
     <row r="79" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J79" s="103"/>
+      <c r="J79" s="99"/>
       <c r="K79" s="14" t="s">
         <v>19</v>
       </c>
@@ -10349,7 +12778,7 @@
       </c>
     </row>
     <row r="80" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J80" s="103"/>
+      <c r="J80" s="99"/>
       <c r="K80" s="14" t="s">
         <v>13</v>
       </c>
@@ -10361,7 +12790,7 @@
       </c>
     </row>
     <row r="81" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J81" s="103"/>
+      <c r="J81" s="99"/>
       <c r="K81" s="14" t="s">
         <v>14</v>
       </c>
@@ -10373,7 +12802,7 @@
       </c>
     </row>
     <row r="82" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J82" s="103"/>
+      <c r="J82" s="99"/>
       <c r="K82" s="14" t="s">
         <v>38</v>
       </c>
@@ -10388,7 +12817,7 @@
       </c>
     </row>
     <row r="83" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J83" s="103"/>
+      <c r="J83" s="99"/>
       <c r="K83" s="14" t="s">
         <v>20</v>
       </c>
@@ -10397,7 +12826,7 @@
       </c>
     </row>
     <row r="84" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J84" s="103"/>
+      <c r="J84" s="99"/>
       <c r="K84" s="14" t="s">
         <v>33</v>
       </c>
@@ -10406,7 +12835,7 @@
       </c>
     </row>
     <row r="85" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J85" s="103"/>
+      <c r="J85" s="99"/>
       <c r="K85" s="14" t="s">
         <v>39</v>
       </c>
@@ -10415,7 +12844,7 @@
       </c>
     </row>
     <row r="86" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J86" s="103"/>
+      <c r="J86" s="99"/>
       <c r="K86" s="14" t="s">
         <v>41</v>
       </c>
@@ -10430,7 +12859,7 @@
       </c>
     </row>
     <row r="87" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J87" s="103"/>
+      <c r="J87" s="99"/>
       <c r="K87" s="14" t="s">
         <v>42</v>
       </c>
@@ -10439,7 +12868,7 @@
       </c>
     </row>
     <row r="88" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J88" s="103"/>
+      <c r="J88" s="99"/>
       <c r="K88" s="15" t="s">
         <v>15</v>
       </c>
@@ -10451,7 +12880,7 @@
       </c>
     </row>
     <row r="89" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J89" s="102" t="s">
+      <c r="J89" s="98" t="s">
         <v>82</v>
       </c>
       <c r="K89" s="14" t="s">
@@ -10459,125 +12888,125 @@
       </c>
     </row>
     <row r="90" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J90" s="103"/>
+      <c r="J90" s="99"/>
       <c r="K90" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J91" s="103"/>
+      <c r="J91" s="99"/>
       <c r="K91" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J92" s="103"/>
+      <c r="J92" s="99"/>
       <c r="K92" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="93" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J93" s="103"/>
+      <c r="J93" s="99"/>
       <c r="K93" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J94" s="103"/>
+      <c r="J94" s="99"/>
       <c r="K94" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J95" s="103"/>
+      <c r="J95" s="99"/>
       <c r="K95" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="96" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J96" s="103"/>
+      <c r="J96" s="99"/>
       <c r="K96" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J97" s="103"/>
+      <c r="J97" s="99"/>
       <c r="K97" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J98" s="103"/>
+      <c r="J98" s="99"/>
       <c r="K98" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="99" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J99" s="103"/>
+      <c r="J99" s="99"/>
       <c r="K99" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J100" s="103"/>
+      <c r="J100" s="99"/>
       <c r="K100" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J101" s="103"/>
+      <c r="J101" s="99"/>
       <c r="K101" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J102" s="103"/>
+      <c r="J102" s="99"/>
       <c r="K102" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J103" s="103"/>
+      <c r="J103" s="99"/>
       <c r="K103" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="104" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J104" s="103"/>
+      <c r="J104" s="99"/>
       <c r="K104" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="105" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J105" s="103"/>
+      <c r="J105" s="99"/>
       <c r="K105" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="106" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J106" s="103"/>
+      <c r="J106" s="99"/>
       <c r="K106" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="107" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J107" s="103"/>
+      <c r="J107" s="99"/>
       <c r="K107" s="15" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
     <mergeCell ref="J89:J107"/>
     <mergeCell ref="J70:J88"/>
     <mergeCell ref="J32:J50"/>
     <mergeCell ref="J51:J69"/>
     <mergeCell ref="J30:S30"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10597,35 +13026,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99" t="s">
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="97" t="s">
+      <c r="C1" s="100"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99" t="s">
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99" t="s">
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="98"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="101"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="101"/>
+      <c r="A2" s="104"/>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>

--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D843D7-19D2-374F-A4AB-BEC5E3E2240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385A61AA-0D42-1B45-87E3-0D13902F6069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="500" windowWidth="27660" windowHeight="17500" activeTab="2" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HDS!$K$32:$K$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PCAs!$A$1:$P$22</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11467" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11495" uniqueCount="562">
   <si>
     <t>Analyte</t>
   </si>
@@ -1195,31 +1195,10 @@
     <t>pH              0.5893     0.1434   4.109 0.000166 ***</t>
   </si>
   <si>
-    <t>(Intercept)  -2.1283     0.7994  -2.663  0.00895 **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prox.normal   0.2308     0.1040   2.220  0.02855 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH           -0.3272     0.1405  -2.329  0.02175 * </t>
-  </si>
-  <si>
     <t>(Intercept)   4.3963     0.1836 23.7470  23.949   &lt;2e-16 ***</t>
   </si>
   <si>
     <t xml:space="preserve">prox.normal  -0.5086     0.1892 24.2976  -2.688   0.0128 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Intercept)   -1.53759    0.52162 85.10546  -2.948  0.00413 ** </t>
-  </si>
-  <si>
-    <t>seasonMonsoon  0.70203    0.12595 95.26859   5.574 2.31e-07 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prox.normal   -0.22583    0.07544 22.67389  -2.993  0.00655 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH             0.19779    0.09242 88.75042   2.140  0.03510 *  </t>
   </si>
   <si>
     <t xml:space="preserve">(Intercept)     0.6808     0.6571 101.5260   1.036   0.3027    </t>
@@ -1542,30 +1521,6 @@
     <t xml:space="preserve">locationSouth  0.27495    0.13462   2.042  0.04214 *  </t>
   </si>
   <si>
-    <t>(Intercept)    -4.10306    0.40723 243.57157 -10.076  &lt; 2e-16 ***</t>
-  </si>
-  <si>
-    <t>pH              0.24725    0.06221 243.90995   3.974  9.3e-05 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wardTwo        -0.65238    0.32120  81.84254  -2.031  0.04549 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wardThree      -0.14496    0.24393  76.04239  -0.594  0.55411    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wardFour       -0.78585    0.36932  82.42800  -2.128  0.03634 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wardFive        0.45655    0.15204  68.05404   3.003  0.00374 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wardSix         0.12121    0.26841  78.29695   0.452  0.65280    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">locationSouth  -0.54989    0.19974  75.89608  -2.753  0.00739 ** </t>
-  </si>
-  <si>
     <t>(Intercept)    -5.33807    0.45033 250.47301 -11.854  &lt; 2e-16 ***</t>
   </si>
   <si>
@@ -1731,28 +1686,118 @@
     <t>Table X. Tucson individual analyte modeling summary</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>Ward</t>
-  </si>
-  <si>
-    <t>South &gt;</t>
-  </si>
-  <si>
-    <t>South &lt;</t>
-  </si>
-  <si>
-    <t>5&gt;6&gt;1&gt;3&gt;2&gt;4</t>
-  </si>
-  <si>
-    <t>6&gt;5&gt;3&gt;1&gt;4&gt;2</t>
   </si>
   <si>
     <t>(Intercept)    -2.6709     0.2075 -12.873  &lt;2e-16 ***</t>
   </si>
   <si>
     <t>(Intercept )     3.3942     0.2381 21.6167  14.257  1.8e-12 ***</t>
+  </si>
+  <si>
+    <t>(Intercept)             -2.2204     0.7778  -2.855  0.00518 **</t>
+  </si>
+  <si>
+    <t>location_2Globe Area     0.7548     0.2783   2.712  0.00781 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location_2Canyons Area   0.5580     0.2822   1.978  0.05056 . </t>
+  </si>
+  <si>
+    <t>pH                      -0.4009     0.1471  -2.726  0.00751 **</t>
+  </si>
+  <si>
+    <t>sub location</t>
+  </si>
+  <si>
+    <t>ln[Analyte]</t>
+  </si>
+  <si>
+    <t>Globe&gt;Canyons&gt;Miami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept)   -1.55157    0.49977  -3.105 0.002444 ** </t>
+  </si>
+  <si>
+    <t>seasonMonsoon  0.68773    0.13012   5.285 6.76e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH             0.20041    0.08896   2.253 0.026328 *  </t>
+  </si>
+  <si>
+    <t>prox.normal   -0.22253    0.06475  -3.437 0.000842 ***</t>
+  </si>
+  <si>
+    <t>proximity to air force base</t>
+  </si>
+  <si>
+    <t>proximity:season</t>
+  </si>
+  <si>
+    <t>proximity:pH</t>
+  </si>
+  <si>
+    <t>slight prox (-) almost signif (p = 0.09)</t>
+  </si>
+  <si>
+    <t>prox</t>
+  </si>
+  <si>
+    <t>(Intercept)     -4.29185    0.39155 249.01759 -10.961  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prox.normal      1.20141    0.55080 232.93920   2.181 0.030169 *  </t>
+  </si>
+  <si>
+    <t>pH               0.21581    0.06345 238.35754   3.401 0.000786 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wardTwo         -0.18098    0.31119  84.50557  -0.582 0.562415    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wardThree        0.35955    0.21226  75.69539   1.694 0.094393 .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wardFour        -0.56040    0.36372  79.14032  -1.541 0.127371    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wardFive         0.27251    0.17644  73.34949   1.545 0.126767    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wardSix          0.40848    0.27287  80.10897   1.497 0.138330    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prox.normal:pH  -0.21970    0.09191 224.99039  -2.390 0.017652 *  </t>
+  </si>
+  <si>
+    <t>pH 4-5, prox is pos
+pH 6-8, prox is neg</t>
+  </si>
+  <si>
+    <t>Ward (6&gt;3&gt;5&gt;1&gt;2&gt;4) almost signif (p = 0.071)</t>
+  </si>
+  <si>
+    <t>pH 4-5, prox is neg
+pH 6, prox is neutral
+pH 7-8, prox is pos</t>
+  </si>
+  <si>
+    <t>winter, prox is neg
+monsoon, prox is pos
+pH 4-5, prox is pos
+pH 6-8, prox is neg</t>
+  </si>
+  <si>
+    <t>1&gt;5&gt;6&gt;2&gt;3&gt;4</t>
+  </si>
+  <si>
+    <t>6&gt;5&gt;1&gt;3&gt;4&gt;2</t>
+  </si>
+  <si>
+    <t>winter, prox is pos
+monsoon, prox is more pos
+pH 4-6, prox is pos
+pH 7-8, prox is neg</t>
   </si>
 </sst>
 </file>
@@ -2235,14 +2280,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2254,16 +2311,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2279,12 +2330,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2837,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0D4DAB-8658-6540-A6EF-06375FD0FCC4}">
   <dimension ref="A1:AU100"/>
   <sheetViews>
-    <sheetView topLeftCell="AI87" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AP88" sqref="AP88:AU88"/>
+    <sheetView topLeftCell="AH82" zoomScale="86" workbookViewId="0">
+      <selection activeCell="AL92" sqref="AL92:AL97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3290,27 +3335,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="89" t="s">
+      <c r="M31" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="96" t="s">
+      <c r="M32" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="95" t="s">
+      <c r="N32" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
     </row>
     <row r="33" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M33" s="82"/>
+      <c r="M33" s="83"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -3384,29 +3429,29 @@
       </c>
     </row>
     <row r="44" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y44" s="93" t="s">
+      <c r="Y44" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="Z44" s="93"/>
-      <c r="AA44" s="93"/>
-      <c r="AB44" s="93"/>
-      <c r="AC44" s="93"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="95"/>
     </row>
     <row r="45" spans="13:29" x14ac:dyDescent="0.2">
       <c r="Y45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Z45" s="94" t="s">
+      <c r="Z45" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="AA45" s="94"/>
-      <c r="AB45" s="94"/>
+      <c r="AA45" s="96"/>
+      <c r="AB45" s="96"/>
       <c r="AC45" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y46" s="80" t="s">
+      <c r="Y46" s="90" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="8" t="s">
@@ -3420,7 +3465,7 @@
       </c>
     </row>
     <row r="47" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y47" s="81"/>
+      <c r="Y47" s="91"/>
       <c r="Z47" s="8">
         <v>0</v>
       </c>
@@ -3432,7 +3477,7 @@
       </c>
     </row>
     <row r="48" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y48" s="81"/>
+      <c r="Y48" s="91"/>
       <c r="Z48" s="8">
         <v>0.5</v>
       </c>
@@ -3444,7 +3489,7 @@
       </c>
     </row>
     <row r="49" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y49" s="81"/>
+      <c r="Y49" s="91"/>
       <c r="Z49" s="8">
         <v>1</v>
       </c>
@@ -3456,7 +3501,7 @@
       </c>
     </row>
     <row r="50" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y50" s="81"/>
+      <c r="Y50" s="91"/>
       <c r="Z50" s="8">
         <v>1.5</v>
       </c>
@@ -3468,7 +3513,7 @@
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="82"/>
+      <c r="Y51" s="83"/>
       <c r="Z51" s="11">
         <v>2</v>
       </c>
@@ -3481,7 +3526,7 @@
       <c r="AC51" s="13"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y52" s="80" t="s">
+      <c r="Y52" s="90" t="s">
         <v>69</v>
       </c>
       <c r="Z52" s="1" t="s">
@@ -3490,62 +3535,62 @@
       <c r="AA52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC52" s="90" t="s">
+      <c r="AC52" s="92" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="81"/>
+      <c r="Y53" s="91"/>
       <c r="Z53" s="1">
         <v>0</v>
       </c>
       <c r="AA53" s="34">
         <v>6.1733623452348702E-2</v>
       </c>
-      <c r="AC53" s="92"/>
+      <c r="AC53" s="94"/>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y54" s="81"/>
+      <c r="Y54" s="91"/>
       <c r="Z54" s="1">
         <v>2</v>
       </c>
       <c r="AA54" s="34">
         <v>1.20772053410085E-2</v>
       </c>
-      <c r="AC54" s="92"/>
+      <c r="AC54" s="94"/>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y55" s="81"/>
+      <c r="Y55" s="91"/>
       <c r="Z55" s="1">
         <v>4</v>
       </c>
       <c r="AA55" s="31">
         <v>2.2662402083130201E-3</v>
       </c>
-      <c r="AC55" s="92"/>
+      <c r="AC55" s="94"/>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y56" s="81"/>
+      <c r="Y56" s="91"/>
       <c r="Z56" s="1">
         <v>6</v>
       </c>
       <c r="AA56" s="28">
         <v>4.2184786680835203E-4</v>
       </c>
-      <c r="AC56" s="92"/>
+      <c r="AC56" s="94"/>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y57" s="81"/>
+      <c r="Y57" s="91"/>
       <c r="Z57" s="1">
         <v>8</v>
       </c>
       <c r="AA57" s="28">
         <v>7.8406646322768398E-5</v>
       </c>
-      <c r="AC57" s="92"/>
+      <c r="AC57" s="94"/>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y58" s="82"/>
+      <c r="Y58" s="83"/>
       <c r="Z58" s="13">
         <v>10</v>
       </c>
@@ -3553,10 +3598,10 @@
         <v>1.4568956039108299E-5</v>
       </c>
       <c r="AB58" s="13"/>
-      <c r="AC58" s="91"/>
+      <c r="AC58" s="93"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y59" s="80" t="s">
+      <c r="Y59" s="90" t="s">
         <v>73</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -3565,72 +3610,72 @@
       <c r="AA59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" s="90" t="s">
+      <c r="AC59" s="92" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y60" s="81"/>
+      <c r="Y60" s="91"/>
       <c r="Z60" s="1">
         <v>0</v>
       </c>
       <c r="AA60" s="34">
         <v>4.213704983443E-2</v>
       </c>
-      <c r="AC60" s="92"/>
+      <c r="AC60" s="94"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y61" s="81"/>
+      <c r="Y61" s="91"/>
       <c r="Z61" s="1">
         <v>4</v>
       </c>
       <c r="AA61" s="36">
         <v>0.70383460067707004</v>
       </c>
-      <c r="AC61" s="92"/>
+      <c r="AC61" s="94"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y62" s="81"/>
+      <c r="Y62" s="91"/>
       <c r="Z62" s="1">
         <v>8</v>
       </c>
       <c r="AA62" s="36">
         <v>0.99227108557330002</v>
       </c>
-      <c r="AC62" s="92"/>
+      <c r="AC62" s="94"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y63" s="81"/>
+      <c r="Y63" s="91"/>
       <c r="Z63" s="1">
         <v>12</v>
       </c>
       <c r="AA63" s="37">
         <v>0.99985583826317304</v>
       </c>
-      <c r="AC63" s="92"/>
+      <c r="AC63" s="94"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y64" s="81"/>
+      <c r="Y64" s="91"/>
       <c r="Z64" s="1">
         <v>16</v>
       </c>
       <c r="AA64" s="37">
         <v>0.99999733107778499</v>
       </c>
-      <c r="AC64" s="92"/>
+      <c r="AC64" s="94"/>
     </row>
     <row r="65" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y65" s="81"/>
+      <c r="Y65" s="91"/>
       <c r="Z65" s="1">
         <v>20</v>
       </c>
       <c r="AA65" s="37">
         <v>0.99999995059606805</v>
       </c>
-      <c r="AC65" s="92"/>
+      <c r="AC65" s="94"/>
     </row>
     <row r="66" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y66" s="82"/>
+      <c r="Y66" s="83"/>
       <c r="Z66" s="13">
         <v>24</v>
       </c>
@@ -3638,7 +3683,7 @@
         <v>0.99999999908549497</v>
       </c>
       <c r="AB66" s="13"/>
-      <c r="AC66" s="91"/>
+      <c r="AC66" s="93"/>
     </row>
     <row r="71" spans="25:36" x14ac:dyDescent="0.2">
       <c r="AD71" s="1" t="s">
@@ -3687,7 +3732,7 @@
       </c>
     </row>
     <row r="74" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD74" s="90" t="s">
+      <c r="AD74" s="92" t="s">
         <v>9</v>
       </c>
       <c r="AE74" s="48" t="s">
@@ -3707,7 +3752,7 @@
       </c>
     </row>
     <row r="75" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="91"/>
+      <c r="AD75" s="93"/>
       <c r="AE75" s="49" t="s">
         <v>13</v>
       </c>
@@ -3725,7 +3770,7 @@
       </c>
     </row>
     <row r="76" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD76" s="90" t="s">
+      <c r="AD76" s="92" t="s">
         <v>10</v>
       </c>
       <c r="AE76" s="48" t="s">
@@ -3745,7 +3790,7 @@
       </c>
     </row>
     <row r="77" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD77" s="92"/>
+      <c r="AD77" s="94"/>
       <c r="AE77" s="50" t="s">
         <v>17</v>
       </c>
@@ -3763,7 +3808,7 @@
       </c>
     </row>
     <row r="78" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD78" s="91"/>
+      <c r="AD78" s="93"/>
       <c r="AE78" s="49" t="s">
         <v>12</v>
       </c>
@@ -3781,7 +3826,7 @@
       </c>
     </row>
     <row r="79" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD79" s="90" t="s">
+      <c r="AD79" s="92" t="s">
         <v>11</v>
       </c>
       <c r="AE79" s="48" t="s">
@@ -3801,7 +3846,7 @@
       </c>
     </row>
     <row r="80" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="92"/>
+      <c r="AD80" s="94"/>
       <c r="AE80" s="50" t="s">
         <v>19</v>
       </c>
@@ -3819,7 +3864,7 @@
       </c>
     </row>
     <row r="81" spans="30:47" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD81" s="92"/>
+      <c r="AD81" s="94"/>
       <c r="AE81" s="50" t="s">
         <v>13</v>
       </c>
@@ -3837,7 +3882,7 @@
       </c>
     </row>
     <row r="82" spans="30:47" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD82" s="91"/>
+      <c r="AD82" s="93"/>
       <c r="AE82" s="49" t="s">
         <v>15</v>
       </c>
@@ -3855,18 +3900,18 @@
       </c>
     </row>
     <row r="87" spans="30:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL87" s="89" t="s">
+      <c r="AL87" s="81" t="s">
         <v>274</v>
       </c>
-      <c r="AM87" s="89"/>
-      <c r="AN87" s="89"/>
-      <c r="AO87" s="89"/>
-      <c r="AP87" s="89"/>
-      <c r="AQ87" s="89"/>
-      <c r="AR87" s="89"/>
-      <c r="AS87" s="89"/>
-      <c r="AT87" s="89"/>
-      <c r="AU87" s="89"/>
+      <c r="AM87" s="81"/>
+      <c r="AN87" s="81"/>
+      <c r="AO87" s="81"/>
+      <c r="AP87" s="81"/>
+      <c r="AQ87" s="81"/>
+      <c r="AR87" s="81"/>
+      <c r="AS87" s="81"/>
+      <c r="AT87" s="81"/>
+      <c r="AU87" s="81"/>
     </row>
     <row r="88" spans="30:47" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AL88" s="55" t="s">
@@ -3901,13 +3946,13 @@
       </c>
     </row>
     <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL89" s="86" t="s">
+      <c r="AL89" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="AM89" s="83" t="s">
+      <c r="AM89" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="AN89" s="80" t="s">
+      <c r="AN89" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AO89" s="40" t="s">
@@ -3925,17 +3970,17 @@
       <c r="AS89" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT89" s="86" t="s">
+      <c r="AT89" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="AU89" s="83" t="s">
+      <c r="AU89" s="87" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL90" s="87"/>
-      <c r="AM90" s="84"/>
-      <c r="AN90" s="81"/>
+      <c r="AL90" s="85"/>
+      <c r="AM90" s="88"/>
+      <c r="AN90" s="91"/>
       <c r="AO90" s="1" t="s">
         <v>68</v>
       </c>
@@ -3951,13 +3996,13 @@
       <c r="AS90" s="58">
         <v>1E-3</v>
       </c>
-      <c r="AT90" s="87"/>
-      <c r="AU90" s="84"/>
+      <c r="AT90" s="85"/>
+      <c r="AU90" s="88"/>
     </row>
     <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL91" s="88"/>
-      <c r="AM91" s="85"/>
-      <c r="AN91" s="82"/>
+      <c r="AL91" s="86"/>
+      <c r="AM91" s="89"/>
+      <c r="AN91" s="83"/>
       <c r="AO91" s="13" t="s">
         <v>286</v>
       </c>
@@ -3973,17 +4018,17 @@
       <c r="AS91" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AT91" s="88"/>
-      <c r="AU91" s="85"/>
+      <c r="AT91" s="86"/>
+      <c r="AU91" s="89"/>
     </row>
     <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL92" s="86" t="s">
+      <c r="AL92" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="AM92" s="86" t="s">
+      <c r="AM92" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="AN92" s="80" t="s">
+      <c r="AN92" s="90" t="s">
         <v>12</v>
       </c>
       <c r="AO92" s="40" t="s">
@@ -4001,17 +4046,17 @@
       <c r="AS92" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT92" s="86" t="s">
+      <c r="AT92" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="AU92" s="83" t="s">
+      <c r="AU92" s="87" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL93" s="87"/>
-      <c r="AM93" s="87"/>
-      <c r="AN93" s="81"/>
+      <c r="AL93" s="85"/>
+      <c r="AM93" s="85"/>
+      <c r="AN93" s="91"/>
       <c r="AO93" s="1" t="s">
         <v>68</v>
       </c>
@@ -4027,13 +4072,13 @@
       <c r="AS93" s="58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT93" s="87"/>
-      <c r="AU93" s="84"/>
+      <c r="AT93" s="85"/>
+      <c r="AU93" s="88"/>
     </row>
     <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL94" s="87"/>
-      <c r="AM94" s="87"/>
-      <c r="AN94" s="81"/>
+      <c r="AL94" s="85"/>
+      <c r="AM94" s="85"/>
+      <c r="AN94" s="91"/>
       <c r="AO94" s="1" t="s">
         <v>286</v>
       </c>
@@ -4049,15 +4094,15 @@
       <c r="AS94" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT94" s="87"/>
-      <c r="AU94" s="84"/>
+      <c r="AT94" s="85"/>
+      <c r="AU94" s="88"/>
     </row>
     <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL95" s="87"/>
-      <c r="AM95" s="84" t="s">
+      <c r="AL95" s="85"/>
+      <c r="AM95" s="88" t="s">
         <v>279</v>
       </c>
-      <c r="AN95" s="81" t="s">
+      <c r="AN95" s="91" t="s">
         <v>17</v>
       </c>
       <c r="AO95" t="s">
@@ -4075,17 +4120,17 @@
       <c r="AS95" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="AT95" s="87" t="s">
+      <c r="AT95" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="AU95" s="84" t="s">
+      <c r="AU95" s="88" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL96" s="87"/>
-      <c r="AM96" s="84"/>
-      <c r="AN96" s="81"/>
+      <c r="AL96" s="85"/>
+      <c r="AM96" s="88"/>
+      <c r="AN96" s="91"/>
       <c r="AO96" s="1" t="s">
         <v>68</v>
       </c>
@@ -4101,13 +4146,13 @@
       <c r="AS96" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT96" s="87"/>
-      <c r="AU96" s="84"/>
+      <c r="AT96" s="85"/>
+      <c r="AU96" s="88"/>
     </row>
     <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL97" s="88"/>
-      <c r="AM97" s="85"/>
-      <c r="AN97" s="82"/>
+      <c r="AL97" s="86"/>
+      <c r="AM97" s="89"/>
+      <c r="AN97" s="83"/>
       <c r="AO97" s="13" t="s">
         <v>286</v>
       </c>
@@ -4123,17 +4168,17 @@
       <c r="AS97" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT97" s="88"/>
-      <c r="AU97" s="85"/>
+      <c r="AT97" s="86"/>
+      <c r="AU97" s="89"/>
     </row>
     <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL98" s="86" t="s">
+      <c r="AL98" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AM98" s="83" t="s">
+      <c r="AM98" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="AN98" s="80" t="s">
+      <c r="AN98" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AO98" s="60" t="s">
@@ -4151,17 +4196,17 @@
       <c r="AS98" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT98" s="86" t="s">
+      <c r="AT98" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="AU98" s="83" t="s">
+      <c r="AU98" s="87" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL99" s="87"/>
-      <c r="AM99" s="84"/>
-      <c r="AN99" s="81"/>
+      <c r="AL99" s="85"/>
+      <c r="AM99" s="88"/>
+      <c r="AN99" s="91"/>
       <c r="AO99" s="1" t="s">
         <v>68</v>
       </c>
@@ -4177,13 +4222,13 @@
       <c r="AS99" s="58">
         <v>0.04</v>
       </c>
-      <c r="AT99" s="87"/>
-      <c r="AU99" s="84"/>
+      <c r="AT99" s="85"/>
+      <c r="AU99" s="88"/>
     </row>
     <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL100" s="88"/>
-      <c r="AM100" s="85"/>
-      <c r="AN100" s="82"/>
+      <c r="AL100" s="86"/>
+      <c r="AM100" s="89"/>
+      <c r="AN100" s="83"/>
       <c r="AO100" s="13" t="s">
         <v>286</v>
       </c>
@@ -4199,11 +4244,28 @@
       <c r="AS100" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT100" s="88"/>
-      <c r="AU100" s="85"/>
+      <c r="AT100" s="86"/>
+      <c r="AU100" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="AM98:AM100"/>
+    <mergeCell ref="AL98:AL100"/>
+    <mergeCell ref="AL92:AL97"/>
+    <mergeCell ref="AM92:AM94"/>
+    <mergeCell ref="AM95:AM97"/>
+    <mergeCell ref="AU95:AU97"/>
+    <mergeCell ref="AT95:AT97"/>
+    <mergeCell ref="AT98:AT100"/>
+    <mergeCell ref="AU98:AU100"/>
+    <mergeCell ref="AN98:AN100"/>
+    <mergeCell ref="AN95:AN97"/>
+    <mergeCell ref="Y59:Y66"/>
+    <mergeCell ref="AC52:AC58"/>
+    <mergeCell ref="AC59:AC66"/>
+    <mergeCell ref="AT92:AT94"/>
+    <mergeCell ref="AU92:AU94"/>
+    <mergeCell ref="AN92:AN94"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="M31:Q31"/>
     <mergeCell ref="M32:M33"/>
@@ -4220,23 +4282,6 @@
     <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="Y46:Y51"/>
     <mergeCell ref="Y52:Y58"/>
-    <mergeCell ref="Y59:Y66"/>
-    <mergeCell ref="AC52:AC58"/>
-    <mergeCell ref="AC59:AC66"/>
-    <mergeCell ref="AT92:AT94"/>
-    <mergeCell ref="AU92:AU94"/>
-    <mergeCell ref="AU95:AU97"/>
-    <mergeCell ref="AT95:AT97"/>
-    <mergeCell ref="AT98:AT100"/>
-    <mergeCell ref="AU98:AU100"/>
-    <mergeCell ref="AN98:AN100"/>
-    <mergeCell ref="AM98:AM100"/>
-    <mergeCell ref="AL98:AL100"/>
-    <mergeCell ref="AL92:AL97"/>
-    <mergeCell ref="AM92:AM94"/>
-    <mergeCell ref="AM95:AM97"/>
-    <mergeCell ref="AN92:AN94"/>
-    <mergeCell ref="AN95:AN97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6104,10 +6149,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A05086-7512-B243-B5D6-ED5007DB1210}">
-  <dimension ref="B3:AN231"/>
+  <dimension ref="B3:AN235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="AG232" zoomScale="175" workbookViewId="0">
+      <selection activeCell="AJ235" sqref="AJ235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6117,37 +6162,39 @@
     <col min="7" max="14" width="10.83203125" style="1"/>
     <col min="15" max="15" width="10.1640625" style="1" customWidth="1"/>
     <col min="16" max="20" width="5.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" style="1" customWidth="1"/>
     <col min="22" max="26" width="10.83203125" style="1" customWidth="1"/>
     <col min="27" max="27" width="11.83203125" style="1" customWidth="1"/>
-    <col min="28" max="34" width="10.83203125" style="1" customWidth="1"/>
+    <col min="28" max="32" width="10.83203125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.83203125" style="1" customWidth="1"/>
     <col min="35" max="35" width="10.83203125" style="1"/>
     <col min="36" max="36" width="12.1640625" style="1" customWidth="1"/>
     <col min="37" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="81" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
     </row>
     <row r="4" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>275</v>
+        <v>535</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>307</v>
@@ -6180,7 +6227,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" s="98" t="s">
         <v>79</v>
       </c>
@@ -6194,7 +6241,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="99"/>
       <c r="C6" s="14" t="s">
         <v>16</v>
@@ -6206,7 +6253,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="99"/>
       <c r="C7" s="14" t="s">
         <v>17</v>
@@ -6246,7 +6293,7 @@
         <v>0.175</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="99"/>
       <c r="C8" s="14"/>
       <c r="E8" s="1" t="s">
@@ -6281,7 +6328,7 @@
         <v>2.78e-05</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" s="99"/>
       <c r="C9" s="14" t="s">
         <v>34</v>
@@ -6321,7 +6368,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="99"/>
       <c r="C10" s="14"/>
       <c r="E10" s="61" t="s">
@@ -6356,7 +6403,7 @@
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="99"/>
       <c r="C11" s="14"/>
       <c r="E11" s="1" t="s">
@@ -6367,7 +6414,7 @@
         <v>pH 0.4764 0.1903 2.504 0.015980 *</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="99"/>
       <c r="C12" s="14" t="s">
         <v>35</v>
@@ -6379,11 +6426,11 @@
         <v>350</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" ref="F12:F75" si="0">TRIM(E12)</f>
+        <f t="shared" ref="F12:F76" si="0">TRIM(E12)</f>
         <v>null</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="99"/>
       <c r="C13" s="14" t="s">
         <v>18</v>
@@ -6423,7 +6470,7 @@
         <v>***</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="99"/>
       <c r="C14" s="14"/>
       <c r="E14" s="1" t="s">
@@ -6458,7 +6505,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="99"/>
       <c r="C15" s="14" t="s">
         <v>37</v>
@@ -6467,7 +6514,7 @@
         <v>349</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6498,7 +6545,7 @@
         <v>***</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="99"/>
       <c r="C16" s="14"/>
       <c r="E16" s="1" t="s">
@@ -6533,7 +6580,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="99"/>
       <c r="C17" s="14" t="s">
         <v>36</v>
@@ -6549,7 +6596,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="99"/>
       <c r="C18" s="14" t="s">
         <v>12</v>
@@ -6565,7 +6612,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="99"/>
       <c r="C19" s="14" t="s">
         <v>19</v>
@@ -6574,7 +6621,7 @@
         <v>351</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6605,7 +6652,7 @@
         <v xml:space="preserve">1.8e-12 </v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="99"/>
       <c r="C20" s="14"/>
       <c r="E20" s="61" t="s">
@@ -6640,7 +6687,7 @@
         <v>0.0535 .</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="99"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
@@ -6656,7 +6703,7 @@
         <v>(Intercept) 0.8878 0.2728 3.254 0.002135 **</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="99"/>
       <c r="C22" s="14"/>
       <c r="E22" s="1" t="s">
@@ -6691,7 +6738,7 @@
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="99"/>
       <c r="C23" s="14" t="s">
         <v>14</v>
@@ -6731,7 +6778,7 @@
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="99"/>
       <c r="C24" s="14"/>
       <c r="E24" s="1" t="s">
@@ -6742,7 +6789,7 @@
         <v>pH 0.6991 0.2362 2.960 0.004850 **</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" s="99"/>
       <c r="C25" s="14" t="s">
         <v>38</v>
@@ -6782,7 +6829,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="99"/>
       <c r="C26" s="14"/>
       <c r="E26" s="1" t="s">
@@ -6817,7 +6864,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="99"/>
       <c r="C27" s="14" t="s">
         <v>20</v>
@@ -6833,7 +6880,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="99"/>
       <c r="C28" s="14" t="s">
         <v>33</v>
@@ -6849,7 +6896,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="99"/>
       <c r="C29" s="14" t="s">
         <v>39</v>
@@ -6889,7 +6936,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="99"/>
       <c r="C30" s="14"/>
       <c r="D30" s="39"/>
@@ -6901,7 +6948,7 @@
         <v>pH 0.4814 0.1567 3.073 0.00356 **</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="99"/>
       <c r="C31" s="14" t="s">
         <v>41</v>
@@ -6917,7 +6964,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="99"/>
       <c r="C32" s="14" t="s">
         <v>42</v>
@@ -6957,7 +7004,7 @@
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="99"/>
       <c r="C33" s="14"/>
       <c r="E33" s="1" t="s">
@@ -6992,7 +7039,7 @@
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" s="99"/>
       <c r="C34" s="14"/>
       <c r="E34" s="1" t="s">
@@ -7003,7 +7050,7 @@
         <v>pH 0.5893 0.1434 4.109 0.000166 ***</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="99"/>
       <c r="C35" s="15" t="s">
         <v>15</v>
@@ -7019,7 +7066,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="98" t="s">
         <v>80</v>
       </c>
@@ -7030,11 +7077,11 @@
         <v>349</v>
       </c>
       <c r="E36" s="61" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(Intercept) -2.1283 0.7994 -2.663 0.00895 **</v>
+        <v>(Intercept) -2.2204 0.7778 -2.855 0.00518 **</v>
       </c>
       <c r="G36" s="1" t="str">
         <f>MID($F36,2,9)</f>
@@ -7042,824 +7089,815 @@
       </c>
       <c r="H36" s="1" t="str">
         <f>MID($F36,13,7)</f>
-        <v>-2.1283</v>
+        <v>-2.2204</v>
       </c>
       <c r="I36" s="1" t="str">
         <f>MID($F36,21,6)</f>
-        <v>0.7994</v>
+        <v>0.7778</v>
       </c>
       <c r="J36" s="1" t="str">
         <f>MID($F36,28,7)</f>
-        <v xml:space="preserve">-2.663 </v>
+        <v xml:space="preserve">-2.855 </v>
       </c>
       <c r="K36" s="1" t="str">
         <f>MID($F36,36,6)</f>
-        <v>.00895</v>
+        <v>.00518</v>
       </c>
       <c r="L36" s="1" t="str">
         <f>MID($F36,43,8)</f>
         <v>**</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" s="99"/>
       <c r="C37" s="14"/>
       <c r="E37" s="61" t="s">
-        <v>375</v>
+        <v>531</v>
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>prox.normal 0.2308 0.1040 2.220 0.02855 *</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+        <v>location_2Globe Area 0.7548 0.2783 2.712 0.00781 **</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="99"/>
       <c r="C38" s="14"/>
       <c r="E38" s="61" t="s">
-        <v>376</v>
-      </c>
-      <c r="F38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>pH -0.3272 0.1405 -2.329 0.02175 *</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="99"/>
-      <c r="C39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>377</v>
+      <c r="C39" s="14"/>
+      <c r="E39" s="61" t="s">
+        <v>533</v>
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(Intercept) 4.3963 0.1836 23.7470 23.949 &lt;2e-16 ***</v>
-      </c>
-      <c r="G39" s="1" t="str">
-        <f>MID($F39,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H39" s="1" t="str">
-        <f>MID($F39,13,7)</f>
-        <v xml:space="preserve">4.3963 </v>
-      </c>
-      <c r="I39" s="1" t="str">
-        <f>MID($F39,21,6)</f>
-        <v xml:space="preserve">.1836 </v>
-      </c>
-      <c r="J39" s="1" t="str">
-        <f>MID($F39,28,7)</f>
-        <v xml:space="preserve">3.7470 </v>
-      </c>
-      <c r="K39" s="1" t="str">
-        <f>MID($F39,36,6)</f>
-        <v xml:space="preserve">3.949 </v>
-      </c>
-      <c r="L39" s="1" t="str">
-        <f>MID($F39,43,8)</f>
-        <v>2e-16 **</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+        <v>pH -0.4009 0.1471 -2.726 0.00751 **</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="99"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>prox.normal -0.5086 0.1892 24.2976 -2.688 0.0128 *</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) 4.3963 0.1836 23.7470 23.949 &lt;2e-16 ***</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f>MID($F40,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f>MID($F40,13,7)</f>
+        <v xml:space="preserve">4.3963 </v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f>MID($F40,21,6)</f>
+        <v xml:space="preserve">.1836 </v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f>MID($F40,28,7)</f>
+        <v xml:space="preserve">3.7470 </v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f>MID($F40,36,6)</f>
+        <v xml:space="preserve">3.949 </v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f>MID($F40,43,8)</f>
+        <v>2e-16 **</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="99"/>
-      <c r="C41" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C41" s="14"/>
       <c r="E41" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(Intercept) -1.53759 0.52162 85.10546 -2.948 0.00413 **</v>
-      </c>
-      <c r="G41" s="1" t="str">
-        <f>MID($F41,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H41" s="1" t="str">
-        <f>MID($F41,13,7)</f>
-        <v>-1.5375</v>
-      </c>
-      <c r="I41" s="1" t="str">
-        <f>MID($F41,21,6)</f>
-        <v xml:space="preserve"> 0.521</v>
-      </c>
-      <c r="J41" s="1" t="str">
-        <f>MID($F41,28,7)</f>
-        <v>2 85.10</v>
-      </c>
-      <c r="K41" s="1" t="str">
-        <f>MID($F41,36,6)</f>
-        <v>46 -2.</v>
-      </c>
-      <c r="L41" s="1" t="str">
-        <f>MID($F41,43,8)</f>
-        <v>48 0.004</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.5086 0.1892 24.2976 -2.688 0.0128 *</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" s="99"/>
-      <c r="C42" s="14"/>
+      <c r="C42" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>380</v>
+        <v>537</v>
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>seasonMonsoon 0.70203 0.12595 95.26859 5.574 2.31e-07 ***</v>
+        <v>(Intercept) -1.55157 0.49977 -3.105 0.002444 **</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>LEFT($F42,6)</f>
-        <v>season</v>
+        <f>MID($F42,2,9)</f>
+        <v>Intercept</v>
       </c>
       <c r="H42" s="1" t="str">
-        <f>MID($F42,15,7)</f>
-        <v>0.70203</v>
+        <f>MID($F42,13,7)</f>
+        <v>-1.5515</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f>MID($F42,23,6)</f>
-        <v>0.1259</v>
+        <f>MID($F42,21,6)</f>
+        <v xml:space="preserve"> 0.499</v>
       </c>
       <c r="J42" s="1" t="str">
-        <f>MID($F42,29,5)</f>
-        <v>5 95.</v>
+        <f>MID($F42,28,7)</f>
+        <v>7 -3.10</v>
       </c>
       <c r="K42" s="1" t="str">
-        <f>MID($F42,35,8)</f>
-        <v>6859 5.5</v>
+        <f>MID($F42,36,6)</f>
+        <v xml:space="preserve"> 0.002</v>
       </c>
       <c r="L42" s="1" t="str">
         <f>MID($F42,43,8)</f>
-        <v>74 2.31e</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+        <v>44 **</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" s="99"/>
       <c r="C43" s="14"/>
       <c r="E43" s="1" t="s">
-        <v>381</v>
+        <v>538</v>
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>prox.normal -0.22583 0.07544 22.67389 -2.993 0.00655 **</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.68773 0.13012 5.285 6.76e-07 ***</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f>LEFT($F43,6)</f>
+        <v>season</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f>MID($F43,15,7)</f>
+        <v>0.68773</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <f>MID($F43,23,6)</f>
+        <v>0.1301</v>
+      </c>
+      <c r="J43" s="1" t="str">
+        <f>MID($F43,29,5)</f>
+        <v>2 5.2</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f>MID($F43,35,8)</f>
+        <v>5 6.76e-</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f>MID($F43,43,8)</f>
+        <v>07 ***</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="99"/>
       <c r="C44" s="14"/>
       <c r="E44" s="1" t="s">
-        <v>382</v>
+        <v>539</v>
       </c>
       <c r="F44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>pH 0.19779 0.09242 88.75042 2.140 0.03510 *</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+        <v>pH 0.20041 0.08896 2.253 0.026328 *</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" s="99"/>
-      <c r="C45" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C45" s="14"/>
       <c r="E45" s="1" t="s">
-        <v>383</v>
+        <v>540</v>
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(Intercept) 0.6808 0.6571 101.5260 1.036 0.3027</v>
-      </c>
-      <c r="G45" s="1" t="str">
-        <f>MID($F45,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H45" s="1" t="str">
-        <f>MID($F45,13,7)</f>
-        <v xml:space="preserve">0.6808 </v>
-      </c>
-      <c r="I45" s="1" t="str">
-        <f>MID($F45,21,6)</f>
-        <v xml:space="preserve">.6571 </v>
-      </c>
-      <c r="J45" s="1" t="str">
-        <f>MID($F45,28,7)</f>
-        <v>01.5260</v>
-      </c>
-      <c r="K45" s="1" t="str">
-        <f>MID($F45,36,6)</f>
-        <v xml:space="preserve">1.036 </v>
-      </c>
-      <c r="L45" s="1" t="str">
-        <f>MID($F45,43,8)</f>
-        <v>.3027</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.22253 0.06475 -3.437 0.000842 ***</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="99"/>
-      <c r="C46" s="14"/>
+      <c r="C46" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>seasonMonsoon 0.8595 0.1464 92.6913 5.870 6.73e-08 ***</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) 0.6808 0.6571 101.5260 1.036 0.3027</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f>MID($F46,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f>MID($F46,13,7)</f>
+        <v xml:space="preserve">0.6808 </v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f>MID($F46,21,6)</f>
+        <v xml:space="preserve">.6571 </v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f>MID($F46,28,7)</f>
+        <v>01.5260</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f>MID($F46,36,6)</f>
+        <v xml:space="preserve">1.036 </v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f>MID($F46,43,8)</f>
+        <v>.3027</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="99"/>
       <c r="C47" s="14"/>
       <c r="E47" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>prox.normal -0.2889 0.1126 25.8505 -2.564 0.0165 *</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.8595 0.1464 92.6913 5.870 6.73e-08 ***</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="99"/>
       <c r="C48" s="14"/>
       <c r="E48" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>pH 0.2457 0.1157 103.6101 2.123 0.0361 *</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.2889 0.1126 25.8505 -2.564 0.0165 *</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="99"/>
-      <c r="C49" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C49" s="14"/>
       <c r="E49" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(Intercept) -3.1968 0.1572 31.7722 -20.332 &lt; 2e-16 ***</v>
-      </c>
-      <c r="G49" s="1" t="str">
-        <f>MID($F49,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H49" s="1" t="str">
-        <f>MID($F49,13,7)</f>
-        <v>-3.1968</v>
-      </c>
-      <c r="I49" s="1" t="str">
-        <f>MID($F49,21,6)</f>
-        <v>0.1572</v>
-      </c>
-      <c r="J49" s="1" t="str">
-        <f>MID($F49,28,7)</f>
-        <v>31.7722</v>
-      </c>
-      <c r="K49" s="1" t="str">
-        <f>MID($F49,36,6)</f>
-        <v>-20.33</v>
-      </c>
-      <c r="L49" s="1" t="str">
-        <f>MID($F49,43,8)</f>
-        <v xml:space="preserve"> &lt; 2e-16</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+        <v>pH 0.2457 0.1157 103.6101 2.123 0.0361 *</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99"/>
-      <c r="C50" s="14"/>
+      <c r="C50" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>seasonMonsoon 0.3556 0.1740 91.4016 2.044 0.04382 *</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+        <v>(Intercept) -3.1968 0.1572 31.7722 -20.332 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f>MID($F50,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f>MID($F50,13,7)</f>
+        <v>-3.1968</v>
+      </c>
+      <c r="I50" s="1" t="str">
+        <f>MID($F50,21,6)</f>
+        <v>0.1572</v>
+      </c>
+      <c r="J50" s="1" t="str">
+        <f>MID($F50,28,7)</f>
+        <v>31.7722</v>
+      </c>
+      <c r="K50" s="1" t="str">
+        <f>MID($F50,36,6)</f>
+        <v>-20.33</v>
+      </c>
+      <c r="L50" s="1" t="str">
+        <f>MID($F50,43,8)</f>
+        <v xml:space="preserve"> &lt; 2e-16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="99"/>
       <c r="C51" s="14"/>
       <c r="E51" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>prox.normal -0.5132 0.1510 24.7978 -3.399 0.00229 **</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.3556 0.1740 91.4016 2.044 0.04382 *</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="99"/>
-      <c r="C52" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C52" s="14"/>
       <c r="E52" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(Intercept) -1.8002 0.2492 29.3736 -7.225 5.48e-08 ***</v>
-      </c>
-      <c r="G52" s="1" t="str">
-        <f>MID($F52,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H52" s="1" t="str">
-        <f>MID($F52,13,7)</f>
-        <v>-1.8002</v>
-      </c>
-      <c r="I52" s="1" t="str">
-        <f>MID($F52,21,6)</f>
-        <v>0.2492</v>
-      </c>
-      <c r="J52" s="1" t="str">
-        <f>MID($F52,28,7)</f>
-        <v>29.3736</v>
-      </c>
-      <c r="K52" s="1" t="str">
-        <f>MID($F52,36,6)</f>
-        <v>-7.225</v>
-      </c>
-      <c r="L52" s="1" t="str">
-        <f>MID($F52,43,8)</f>
-        <v>5.48e-08</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.5132 0.1510 24.7978 -3.399 0.00229 **</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="99"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>seasonMonsoon 0.5556 0.2143 88.9158 2.592 0.0111 *</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+        <v>(Intercept) -1.8002 0.2492 29.3736 -7.225 5.48e-08 ***</v>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f>MID($F53,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f>MID($F53,13,7)</f>
+        <v>-1.8002</v>
+      </c>
+      <c r="I53" s="1" t="str">
+        <f>MID($F53,21,6)</f>
+        <v>0.2492</v>
+      </c>
+      <c r="J53" s="1" t="str">
+        <f>MID($F53,28,7)</f>
+        <v>29.3736</v>
+      </c>
+      <c r="K53" s="1" t="str">
+        <f>MID($F53,36,6)</f>
+        <v>-7.225</v>
+      </c>
+      <c r="L53" s="1" t="str">
+        <f>MID($F53,43,8)</f>
+        <v>5.48e-08</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" s="99"/>
       <c r="C54" s="14"/>
       <c r="E54" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>prox.normal -0.4910 0.2458 25.5568 -1.998 0.0565 .</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.5556 0.2143 88.9158 2.592 0.0111 *</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="99"/>
-      <c r="C55" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C55" s="14"/>
       <c r="E55" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(Intercept) -1.7990 0.2413 28.7808 -7.454 3.41e-08 ***</v>
-      </c>
-      <c r="G55" s="1" t="str">
-        <f>MID($F55,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H55" s="1" t="str">
-        <f>MID($F55,13,7)</f>
-        <v>-1.7990</v>
-      </c>
-      <c r="I55" s="1" t="str">
-        <f>MID($F55,21,6)</f>
-        <v>0.2413</v>
-      </c>
-      <c r="J55" s="1" t="str">
-        <f>MID($F55,28,7)</f>
-        <v>28.7808</v>
-      </c>
-      <c r="K55" s="1" t="str">
-        <f>MID($F55,36,6)</f>
-        <v>-7.454</v>
-      </c>
-      <c r="L55" s="1" t="str">
-        <f>MID($F55,43,8)</f>
-        <v>3.41e-08</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.4910 0.2458 25.5568 -1.998 0.0565 .</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="99"/>
-      <c r="C56" s="14"/>
+      <c r="C56" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>seasonMonsoon 1.1253 0.2144 87.8048 5.248 1.06e-06 ***</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+        <v>(Intercept) -1.7990 0.2413 28.7808 -7.454 3.41e-08 ***</v>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f>MID($F56,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f>MID($F56,13,7)</f>
+        <v>-1.7990</v>
+      </c>
+      <c r="I56" s="1" t="str">
+        <f>MID($F56,21,6)</f>
+        <v>0.2413</v>
+      </c>
+      <c r="J56" s="1" t="str">
+        <f>MID($F56,28,7)</f>
+        <v>28.7808</v>
+      </c>
+      <c r="K56" s="1" t="str">
+        <f>MID($F56,36,6)</f>
+        <v>-7.454</v>
+      </c>
+      <c r="L56" s="1" t="str">
+        <f>MID($F56,43,8)</f>
+        <v>3.41e-08</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" s="99"/>
-      <c r="C57" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C57" s="14"/>
       <c r="E57" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(Intercept) -1.4353 0.1899 31.8471 -7.560 1.35e-08 ***</v>
-      </c>
-      <c r="G57" s="1" t="str">
-        <f>MID($F57,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H57" s="1" t="str">
-        <f>MID($F57,13,7)</f>
-        <v>-1.4353</v>
-      </c>
-      <c r="I57" s="1" t="str">
-        <f>MID($F57,21,6)</f>
-        <v>0.1899</v>
-      </c>
-      <c r="J57" s="1" t="str">
-        <f>MID($F57,28,7)</f>
-        <v>31.8471</v>
-      </c>
-      <c r="K57" s="1" t="str">
-        <f>MID($F57,36,6)</f>
-        <v>-7.560</v>
-      </c>
-      <c r="L57" s="1" t="str">
-        <f>MID($F57,43,8)</f>
-        <v>1.35e-08</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 1.1253 0.2144 87.8048 5.248 1.06e-06 ***</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" s="99"/>
-      <c r="C58" s="14"/>
+      <c r="C58" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>seasonMonsoon 0.9706 0.1999 90.5774 4.855 5.00e-06 ***</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+        <v>(Intercept) -1.4353 0.1899 31.8471 -7.560 1.35e-08 ***</v>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f>MID($F58,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f>MID($F58,13,7)</f>
+        <v>-1.4353</v>
+      </c>
+      <c r="I58" s="1" t="str">
+        <f>MID($F58,21,6)</f>
+        <v>0.1899</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <f>MID($F58,28,7)</f>
+        <v>31.8471</v>
+      </c>
+      <c r="K58" s="1" t="str">
+        <f>MID($F58,36,6)</f>
+        <v>-7.560</v>
+      </c>
+      <c r="L58" s="1" t="str">
+        <f>MID($F58,43,8)</f>
+        <v>1.35e-08</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" s="99"/>
-      <c r="C59" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C59" s="14"/>
       <c r="E59" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(Intercept) 3.2388 0.2119 32.0177 15.281 2.91e-16 ***</v>
-      </c>
-      <c r="G59" s="1" t="str">
-        <f>MID($F59,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H59" s="1" t="str">
-        <f>MID($F59,13,7)</f>
-        <v xml:space="preserve">3.2388 </v>
-      </c>
-      <c r="I59" s="1" t="str">
-        <f>MID($F59,21,6)</f>
-        <v xml:space="preserve">.2119 </v>
-      </c>
-      <c r="J59" s="1" t="str">
-        <f>MID($F59,28,7)</f>
-        <v xml:space="preserve">2.0177 </v>
-      </c>
-      <c r="K59" s="1" t="str">
-        <f>MID($F59,36,6)</f>
-        <v xml:space="preserve">5.281 </v>
-      </c>
-      <c r="L59" s="1" t="str">
-        <f>MID($F59,43,8)</f>
-        <v xml:space="preserve">.91e-16 </v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.9706 0.1999 90.5774 4.855 5.00e-06 ***</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" s="99"/>
-      <c r="C60" s="14"/>
+      <c r="C60" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E60" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>seasonMonsoon 0.7190 0.2119 90.4938 3.393 0.00103 **</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+        <v>(Intercept) 3.2388 0.2119 32.0177 15.281 2.91e-16 ***</v>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f>MID($F60,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f>MID($F60,13,7)</f>
+        <v xml:space="preserve">3.2388 </v>
+      </c>
+      <c r="I60" s="1" t="str">
+        <f>MID($F60,21,6)</f>
+        <v xml:space="preserve">.2119 </v>
+      </c>
+      <c r="J60" s="1" t="str">
+        <f>MID($F60,28,7)</f>
+        <v xml:space="preserve">2.0177 </v>
+      </c>
+      <c r="K60" s="1" t="str">
+        <f>MID($F60,36,6)</f>
+        <v xml:space="preserve">5.281 </v>
+      </c>
+      <c r="L60" s="1" t="str">
+        <f>MID($F60,43,8)</f>
+        <v xml:space="preserve">.91e-16 </v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="99"/>
-      <c r="C61" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E61" s="61" t="s">
-        <v>350</v>
+      <c r="C61" s="14"/>
+      <c r="E61" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="F61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>null</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.7190 0.2119 90.4938 3.393 0.00103 **</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" s="99"/>
       <c r="C62" s="14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>400</v>
+        <v>349</v>
+      </c>
+      <c r="E62" s="61" t="s">
+        <v>350</v>
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(Intercept) 1.9406 0.2552 30.7933 7.606 1.48e-08 ***</v>
-      </c>
-      <c r="G62" s="1" t="str">
-        <f>MID($F62,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H62" s="1" t="str">
-        <f>MID($F62,13,7)</f>
-        <v xml:space="preserve">1.9406 </v>
-      </c>
-      <c r="I62" s="1" t="str">
-        <f>MID($F62,21,6)</f>
-        <v xml:space="preserve">.2552 </v>
-      </c>
-      <c r="J62" s="1" t="str">
-        <f>MID($F62,28,7)</f>
-        <v xml:space="preserve">0.7933 </v>
-      </c>
-      <c r="K62" s="1" t="str">
-        <f>MID($F62,36,6)</f>
-        <v>.606 1</v>
-      </c>
-      <c r="L62" s="1" t="str">
-        <f>MID($F62,43,8)</f>
-        <v>48e-08 *</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="99"/>
-      <c r="C63" s="14"/>
+      <c r="C63" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>seasonMonsoon 1.6850 0.2747 89.9675 6.134 2.25e-08 ***</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+        <v>(Intercept) 1.9406 0.2552 30.7933 7.606 1.48e-08 ***</v>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f>MID($F63,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f>MID($F63,13,7)</f>
+        <v xml:space="preserve">1.9406 </v>
+      </c>
+      <c r="I63" s="1" t="str">
+        <f>MID($F63,21,6)</f>
+        <v xml:space="preserve">.2552 </v>
+      </c>
+      <c r="J63" s="1" t="str">
+        <f>MID($F63,28,7)</f>
+        <v xml:space="preserve">0.7933 </v>
+      </c>
+      <c r="K63" s="1" t="str">
+        <f>MID($F63,36,6)</f>
+        <v>.606 1</v>
+      </c>
+      <c r="L63" s="1" t="str">
+        <f>MID($F63,43,8)</f>
+        <v>48e-08 *</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="99"/>
-      <c r="C64" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C64" s="14"/>
       <c r="E64" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(Intercept) -2.3270 0.5898 103.9215 -3.945 0.000145 ***</v>
-      </c>
-      <c r="G64" s="1" t="str">
-        <f>MID($F64,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H64" s="1" t="str">
-        <f>MID($F64,13,7)</f>
-        <v>-2.3270</v>
-      </c>
-      <c r="I64" s="1" t="str">
-        <f>MID($F64,21,6)</f>
-        <v>0.5898</v>
-      </c>
-      <c r="J64" s="1" t="str">
-        <f>MID($F64,28,7)</f>
-        <v>103.921</v>
-      </c>
-      <c r="K64" s="1" t="str">
-        <f>MID($F64,36,6)</f>
-        <v xml:space="preserve"> -3.94</v>
-      </c>
-      <c r="L64" s="1" t="str">
-        <f>MID($F64,43,8)</f>
-        <v xml:space="preserve"> 0.00014</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 1.6850 0.2747 89.9675 6.134 2.25e-08 ***</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="99"/>
-      <c r="C65" s="14"/>
+      <c r="C65" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E65" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>seasonMonsoon 0.7558 0.1285 90.1571 5.880 6.84e-08 ***</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+        <v>(Intercept) -2.3270 0.5898 103.9215 -3.945 0.000145 ***</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f>MID($F65,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f>MID($F65,13,7)</f>
+        <v>-2.3270</v>
+      </c>
+      <c r="I65" s="1" t="str">
+        <f>MID($F65,21,6)</f>
+        <v>0.5898</v>
+      </c>
+      <c r="J65" s="1" t="str">
+        <f>MID($F65,28,7)</f>
+        <v>103.921</v>
+      </c>
+      <c r="K65" s="1" t="str">
+        <f>MID($F65,36,6)</f>
+        <v xml:space="preserve"> -3.94</v>
+      </c>
+      <c r="L65" s="1" t="str">
+        <f>MID($F65,43,8)</f>
+        <v xml:space="preserve"> 0.00014</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="99"/>
       <c r="C66" s="14"/>
       <c r="E66" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F66" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>prox.normal -0.3295 0.1077 24.0690 -3.059 0.005380 **</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.7558 0.1285 90.1571 5.880 6.84e-08 ***</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="99"/>
       <c r="C67" s="14"/>
       <c r="E67" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F67" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>pH 0.2622 0.1036 105.4192 2.530 0.012870 *</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.3295 0.1077 24.0690 -3.059 0.005380 **</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="99"/>
-      <c r="C68" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C68" s="14"/>
       <c r="E68" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F68" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(Intercept) -0.1483 0.2319 32.3541 -0.639 0.52711</v>
-      </c>
-      <c r="G68" s="1" t="str">
-        <f>MID($F68,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H68" s="1" t="str">
-        <f>MID($F68,13,7)</f>
-        <v>-0.1483</v>
-      </c>
-      <c r="I68" s="1" t="str">
-        <f>MID($F68,21,6)</f>
-        <v>0.2319</v>
-      </c>
-      <c r="J68" s="1" t="str">
-        <f>MID($F68,28,7)</f>
-        <v>32.3541</v>
-      </c>
-      <c r="K68" s="1" t="str">
-        <f>MID($F68,36,6)</f>
-        <v>-0.639</v>
-      </c>
-      <c r="L68" s="1" t="str">
-        <f>MID($F68,43,8)</f>
-        <v>0.52711</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+        <v>pH 0.2622 0.1036 105.4192 2.530 0.012870 *</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="99"/>
-      <c r="C69" s="14"/>
+      <c r="C69" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E69" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F69" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>seasonMonsoon 0.9159 0.2442 90.9034 3.751 0.00031 ***</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+        <v>(Intercept) -0.1483 0.2319 32.3541 -0.639 0.52711</v>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f>MID($F69,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f>MID($F69,13,7)</f>
+        <v>-0.1483</v>
+      </c>
+      <c r="I69" s="1" t="str">
+        <f>MID($F69,21,6)</f>
+        <v>0.2319</v>
+      </c>
+      <c r="J69" s="1" t="str">
+        <f>MID($F69,28,7)</f>
+        <v>32.3541</v>
+      </c>
+      <c r="K69" s="1" t="str">
+        <f>MID($F69,36,6)</f>
+        <v>-0.639</v>
+      </c>
+      <c r="L69" s="1" t="str">
+        <f>MID($F69,43,8)</f>
+        <v>0.52711</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="99"/>
-      <c r="C70" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C70" s="14"/>
       <c r="E70" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F70" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(Intercept) -0.4607 0.1847 32.7304 -2.495 0.01783 *</v>
-      </c>
-      <c r="G70" s="1" t="str">
-        <f>MID($F70,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H70" s="1" t="str">
-        <f>MID($F70,13,7)</f>
-        <v>-0.4607</v>
-      </c>
-      <c r="I70" s="1" t="str">
-        <f>MID($F70,21,6)</f>
-        <v>0.1847</v>
-      </c>
-      <c r="J70" s="1" t="str">
-        <f>MID($F70,28,7)</f>
-        <v>32.7304</v>
-      </c>
-      <c r="K70" s="1" t="str">
-        <f>MID($F70,36,6)</f>
-        <v>-2.495</v>
-      </c>
-      <c r="L70" s="1" t="str">
-        <f>MID($F70,43,8)</f>
-        <v xml:space="preserve">0.01783 </v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.9159 0.2442 90.9034 3.751 0.00031 ***</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="99"/>
-      <c r="C71" s="14"/>
+      <c r="C71" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E71" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F71" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>seasonMonsoon 0.4110 0.2075 92.0327 1.981 0.05061 .</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+        <v>(Intercept) -0.4607 0.1847 32.7304 -2.495 0.01783 *</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f>MID($F71,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f>MID($F71,13,7)</f>
+        <v>-0.4607</v>
+      </c>
+      <c r="I71" s="1" t="str">
+        <f>MID($F71,21,6)</f>
+        <v>0.1847</v>
+      </c>
+      <c r="J71" s="1" t="str">
+        <f>MID($F71,28,7)</f>
+        <v>32.7304</v>
+      </c>
+      <c r="K71" s="1" t="str">
+        <f>MID($F71,36,6)</f>
+        <v>-2.495</v>
+      </c>
+      <c r="L71" s="1" t="str">
+        <f>MID($F71,43,8)</f>
+        <v xml:space="preserve">0.01783 </v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" s="99"/>
       <c r="C72" s="14"/>
       <c r="E72" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F72" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>prox.normal -0.5684 0.1769 25.3790 -3.212 0.00356 **</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.4110 0.2075 92.0327 1.981 0.05061 .</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" s="99"/>
-      <c r="C73" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>350</v>
+      <c r="C73" s="14"/>
+      <c r="E73" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="F73" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>null</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.5684 0.1769 25.3790 -3.212 0.00356 **</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" s="99"/>
       <c r="C74" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>349</v>
@@ -7872,1828 +7910,1801 @@
         <v>null</v>
       </c>
     </row>
-    <row r="75" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" s="99"/>
       <c r="C75" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>411</v>
+        <v>349</v>
+      </c>
+      <c r="E75" s="61" t="s">
+        <v>350</v>
       </c>
       <c r="F75" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="99"/>
+      <c r="C76" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>(Intercept) -2.6605 0.1852 40.1984 -14.364 &lt; 2e-16 ***</v>
       </c>
-      <c r="G75" s="1" t="str">
-        <f>MID($F75,2,9)</f>
+      <c r="G76" s="1" t="str">
+        <f>MID($F76,2,9)</f>
         <v>Intercept</v>
       </c>
-      <c r="H75" s="1" t="str">
-        <f>MID($F75,13,7)</f>
+      <c r="H76" s="1" t="str">
+        <f>MID($F76,13,7)</f>
         <v>-2.6605</v>
       </c>
-      <c r="I75" s="1" t="str">
-        <f>MID($F75,21,6)</f>
+      <c r="I76" s="1" t="str">
+        <f>MID($F76,21,6)</f>
         <v>0.1852</v>
       </c>
-      <c r="J75" s="1" t="str">
-        <f>MID($F75,28,7)</f>
+      <c r="J76" s="1" t="str">
+        <f>MID($F76,28,7)</f>
         <v>40.1984</v>
       </c>
-      <c r="K75" s="1" t="str">
-        <f>MID($F75,36,6)</f>
+      <c r="K76" s="1" t="str">
+        <f>MID($F76,36,6)</f>
         <v>-14.36</v>
       </c>
-      <c r="L75" s="1" t="str">
-        <f>MID($F75,43,8)</f>
+      <c r="L76" s="1" t="str">
+        <f>MID($F76,43,8)</f>
         <v xml:space="preserve"> &lt; 2e-16</v>
       </c>
-      <c r="M75" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B76" s="99"/>
-      <c r="C76" s="14"/>
-      <c r="E76" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F76" s="1" t="str">
-        <f t="shared" ref="F76:F139" si="1">TRIM(E76)</f>
+      <c r="M76" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="99"/>
+      <c r="C77" s="14"/>
+      <c r="E77" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <f t="shared" ref="F77:F140" si="1">TRIM(E77)</f>
         <v>seasonMonsoon 0.9621 0.2639 96.4318 3.646 0.000431 ***</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B77" s="99"/>
-      <c r="C77" s="14" t="s">
+    <row r="78" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="99"/>
+      <c r="C78" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F77" s="1" t="str">
+      <c r="E78" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>(Intercept) 0.04463 0.10880 33.66714 0.410 0.684</v>
       </c>
-      <c r="G77" s="1" t="str">
-        <f>MID($F77,2,9)</f>
+      <c r="G78" s="1" t="str">
+        <f>MID($F78,2,9)</f>
         <v>Intercept</v>
       </c>
-      <c r="H77" s="1" t="str">
-        <f>MID($F77,13,7)</f>
+      <c r="H78" s="1" t="str">
+        <f>MID($F78,13,7)</f>
         <v>0.04463</v>
       </c>
-      <c r="I77" s="1" t="str">
-        <f>MID($F77,21,6)</f>
+      <c r="I78" s="1" t="str">
+        <f>MID($F78,21,6)</f>
         <v>0.1088</v>
       </c>
-      <c r="J77" s="1" t="str">
-        <f>MID($F77,28,7)</f>
+      <c r="J78" s="1" t="str">
+        <f>MID($F78,28,7)</f>
         <v xml:space="preserve"> 33.667</v>
       </c>
-      <c r="K77" s="1" t="str">
-        <f>MID($F77,36,6)</f>
+      <c r="K78" s="1" t="str">
+        <f>MID($F78,36,6)</f>
         <v>4 0.41</v>
       </c>
-      <c r="L77" s="1" t="str">
-        <f>MID($F77,43,8)</f>
+      <c r="L78" s="1" t="str">
+        <f>MID($F78,43,8)</f>
         <v xml:space="preserve"> 0.684</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B78" s="99"/>
-      <c r="C78" s="14"/>
-      <c r="E78" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="F78" s="1" t="str">
+    <row r="79" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="99"/>
+      <c r="C79" s="14"/>
+      <c r="E79" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>seasonMonsoon 0.83067 0.14329 92.80765 5.797 9.22e-08 ***</v>
       </c>
     </row>
-    <row r="79" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B79" s="99"/>
-      <c r="C79" s="14" t="s">
+    <row r="80" spans="2:13" ht="19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="99"/>
+      <c r="C80" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F79" s="1" t="str">
+      <c r="E80" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>(Intercept) 4.4926 0.2745 26.7715 16.369 1.81e-15 ***</v>
       </c>
-      <c r="G79" s="1" t="str">
-        <f>MID($F79,2,9)</f>
+      <c r="G80" s="1" t="str">
+        <f>MID($F80,2,9)</f>
         <v>Intercept</v>
       </c>
-      <c r="H79" s="1" t="str">
-        <f>MID($F79,13,7)</f>
+      <c r="H80" s="1" t="str">
+        <f>MID($F80,13,7)</f>
         <v xml:space="preserve">4.4926 </v>
       </c>
-      <c r="I79" s="1" t="str">
-        <f>MID($F79,21,6)</f>
+      <c r="I80" s="1" t="str">
+        <f>MID($F80,21,6)</f>
         <v xml:space="preserve">.2745 </v>
       </c>
-      <c r="J79" s="1" t="str">
-        <f>MID($F79,28,7)</f>
+      <c r="J80" s="1" t="str">
+        <f>MID($F80,28,7)</f>
         <v xml:space="preserve">6.7715 </v>
       </c>
-      <c r="K79" s="1" t="str">
-        <f>MID($F79,36,6)</f>
+      <c r="K80" s="1" t="str">
+        <f>MID($F80,36,6)</f>
         <v xml:space="preserve">6.369 </v>
       </c>
-      <c r="L79" s="1" t="str">
-        <f>MID($F79,43,8)</f>
+      <c r="L80" s="1" t="str">
+        <f>MID($F80,43,8)</f>
         <v xml:space="preserve">.81e-15 </v>
       </c>
-      <c r="M79" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B80" s="79"/>
-      <c r="C80" s="15"/>
-      <c r="E80" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F80" s="1" t="str">
+      <c r="M80" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="79"/>
+      <c r="C81" s="15"/>
+      <c r="E81" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>seasonMonsoon 0.5510 0.1388 85.1362 3.971 0.000149 ***</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B81" s="98" t="s">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E81" s="61" t="s">
+      <c r="E82" s="61" t="s">
         <v>350</v>
       </c>
-      <c r="F81" s="1" t="str">
+      <c r="F82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>null</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B82" s="99"/>
-      <c r="C82" s="14" t="s">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="99"/>
+      <c r="C83" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F82" s="1" t="str">
+      <c r="E83" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F83" s="1" t="str">
         <f t="shared" si="1"/>
         <v>(Intercept) 3.64088 0.10184 35.752 &lt; 2e-16 ***</v>
       </c>
-      <c r="G82" s="1" t="str">
-        <f>MID($F82,2,9)</f>
+      <c r="G83" s="1" t="str">
+        <f>MID($F83,2,9)</f>
         <v>Intercept</v>
       </c>
-      <c r="H82" s="1" t="str">
-        <f>MID($F82,13,7)</f>
+      <c r="H83" s="1" t="str">
+        <f>MID($F83,13,7)</f>
         <v>3.64088</v>
       </c>
-      <c r="I82" s="1" t="str">
-        <f>MID($F82,21,6)</f>
+      <c r="I83" s="1" t="str">
+        <f>MID($F83,21,6)</f>
         <v>0.1018</v>
       </c>
-      <c r="J82" s="1" t="str">
-        <f>MID($F82,28,7)</f>
+      <c r="J83" s="1" t="str">
+        <f>MID($F83,28,7)</f>
         <v xml:space="preserve"> 35.752</v>
       </c>
-      <c r="K82" s="1" t="str">
-        <f>MID($F82,36,6)</f>
+      <c r="K83" s="1" t="str">
+        <f>MID($F83,36,6)</f>
         <v>&lt; 2e-1</v>
       </c>
-      <c r="L82" s="1" t="str">
-        <f>MID($F82,43,8)</f>
+      <c r="L83" s="1" t="str">
+        <f>MID($F83,43,8)</f>
         <v xml:space="preserve"> ***</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B83" s="99"/>
-      <c r="C83" s="14"/>
-      <c r="E83" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>seasonMonsoon 0.69364 0.21102 3.287 0.00153 **</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="99"/>
       <c r="C84" s="14"/>
       <c r="E84" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>prox.normal -0.28523 0.09322 -3.060 0.00305 **</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.69364 0.21102 3.287 0.00153 **</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="99"/>
-      <c r="C85" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="C85" s="14"/>
       <c r="E85" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F85" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) -1.45907 0.90910 -1.605 0.1127</v>
-      </c>
-      <c r="G85" s="1" t="str">
-        <f>MID($F85,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H85" s="1" t="str">
-        <f>MID($F85,13,7)</f>
-        <v>-1.4590</v>
-      </c>
-      <c r="I85" s="1" t="str">
-        <f>MID($F85,21,6)</f>
-        <v xml:space="preserve"> 0.909</v>
-      </c>
-      <c r="J85" s="1" t="str">
-        <f>MID($F85,28,7)</f>
-        <v>0 -1.60</v>
-      </c>
-      <c r="K85" s="1" t="str">
-        <f>MID($F85,36,6)</f>
-        <v xml:space="preserve"> 0.112</v>
-      </c>
-      <c r="L85" s="1" t="str">
-        <f>MID($F85,43,8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.28523 0.09322 -3.060 0.00305 **</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="99"/>
-      <c r="C86" s="14"/>
+      <c r="C86" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E86" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 1.34914 0.22893 5.893 9.75e-08 ***</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) -1.45907 0.90910 -1.605 0.1127</v>
+      </c>
+      <c r="G86" s="1" t="str">
+        <f>MID($F86,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H86" s="1" t="str">
+        <f>MID($F86,13,7)</f>
+        <v>-1.4590</v>
+      </c>
+      <c r="I86" s="1" t="str">
+        <f>MID($F86,21,6)</f>
+        <v xml:space="preserve"> 0.909</v>
+      </c>
+      <c r="J86" s="1" t="str">
+        <f>MID($F86,28,7)</f>
+        <v>0 -1.60</v>
+      </c>
+      <c r="K86" s="1" t="str">
+        <f>MID($F86,36,6)</f>
+        <v xml:space="preserve"> 0.112</v>
+      </c>
+      <c r="L86" s="1" t="str">
+        <f>MID($F86,43,8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="99"/>
       <c r="C87" s="14"/>
       <c r="E87" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>prox.normal -0.54291 0.09748 -5.569 3.70e-07 ***</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 1.34914 0.22893 5.893 9.75e-08 ***</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="99"/>
       <c r="C88" s="14"/>
       <c r="E88" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>pH 0.40228 0.15511 2.594 0.0114 *</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.54291 0.09748 -5.569 3.70e-07 ***</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" s="99"/>
-      <c r="C89" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C89" s="14"/>
       <c r="E89" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) 2.5267 0.1729 23.0391 14.614 3.83e-13 ***</v>
-      </c>
-      <c r="G89" s="1" t="str">
-        <f>MID($F89,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H89" s="1" t="str">
-        <f>MID($F89,13,7)</f>
-        <v xml:space="preserve">2.5267 </v>
-      </c>
-      <c r="I89" s="1" t="str">
-        <f>MID($F89,21,6)</f>
-        <v xml:space="preserve">.1729 </v>
-      </c>
-      <c r="J89" s="1" t="str">
-        <f>MID($F89,28,7)</f>
-        <v xml:space="preserve">3.0391 </v>
-      </c>
-      <c r="K89" s="1" t="str">
-        <f>MID($F89,36,6)</f>
-        <v xml:space="preserve">4.614 </v>
-      </c>
-      <c r="L89" s="1" t="str">
-        <f>MID($F89,43,8)</f>
-        <v xml:space="preserve">.83e-13 </v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+        <v>pH 0.40228 0.15511 2.594 0.0114 *</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="99"/>
-      <c r="C90" s="14"/>
+      <c r="C90" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E90" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 1.1181 0.2648 65.9040 4.222 7.58e-05 ***</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) 2.5267 0.1729 23.0391 14.614 3.83e-13 ***</v>
+      </c>
+      <c r="G90" s="1" t="str">
+        <f>MID($F90,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H90" s="1" t="str">
+        <f>MID($F90,13,7)</f>
+        <v xml:space="preserve">2.5267 </v>
+      </c>
+      <c r="I90" s="1" t="str">
+        <f>MID($F90,21,6)</f>
+        <v xml:space="preserve">.1729 </v>
+      </c>
+      <c r="J90" s="1" t="str">
+        <f>MID($F90,28,7)</f>
+        <v xml:space="preserve">3.0391 </v>
+      </c>
+      <c r="K90" s="1" t="str">
+        <f>MID($F90,36,6)</f>
+        <v xml:space="preserve">4.614 </v>
+      </c>
+      <c r="L90" s="1" t="str">
+        <f>MID($F90,43,8)</f>
+        <v xml:space="preserve">.83e-13 </v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" s="99"/>
       <c r="C91" s="14"/>
       <c r="E91" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>prox.normal -0.4849 0.1692 18.2497 -2.867 0.0102 *</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 1.1181 0.2648 65.9040 4.222 7.58e-05 ***</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="99"/>
-      <c r="C92" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E92" s="61" t="s">
-        <v>350</v>
+      <c r="C92" s="14"/>
+      <c r="E92" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="F92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>null</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.4849 0.1692 18.2497 -2.867 0.0102 *</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="99"/>
       <c r="C93" s="14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>428</v>
+        <v>349</v>
+      </c>
+      <c r="E93" s="61" t="s">
+        <v>350</v>
       </c>
       <c r="F93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) -3.7531 1.0890 68.9530 -3.447 0.000971 ***</v>
-      </c>
-      <c r="G93" s="1" t="str">
-        <f>MID($F93,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H93" s="1" t="str">
-        <f>MID($F93,13,7)</f>
-        <v>-3.7531</v>
-      </c>
-      <c r="I93" s="1" t="str">
-        <f>MID($F93,21,6)</f>
-        <v>1.0890</v>
-      </c>
-      <c r="J93" s="1" t="str">
-        <f>MID($F93,28,7)</f>
-        <v>68.9530</v>
-      </c>
-      <c r="K93" s="1" t="str">
-        <f>MID($F93,36,6)</f>
-        <v>-3.447</v>
-      </c>
-      <c r="L93" s="1" t="str">
-        <f>MID($F93,43,8)</f>
-        <v>0.000971</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="99"/>
-      <c r="C94" s="14"/>
+      <c r="C94" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E94" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F94" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 0.9912 0.2677 64.6280 3.703 0.000443 ***</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) -3.7531 1.0890 68.9530 -3.447 0.000971 ***</v>
+      </c>
+      <c r="G94" s="1" t="str">
+        <f>MID($F94,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H94" s="1" t="str">
+        <f>MID($F94,13,7)</f>
+        <v>-3.7531</v>
+      </c>
+      <c r="I94" s="1" t="str">
+        <f>MID($F94,21,6)</f>
+        <v>1.0890</v>
+      </c>
+      <c r="J94" s="1" t="str">
+        <f>MID($F94,28,7)</f>
+        <v>68.9530</v>
+      </c>
+      <c r="K94" s="1" t="str">
+        <f>MID($F94,36,6)</f>
+        <v>-3.447</v>
+      </c>
+      <c r="L94" s="1" t="str">
+        <f>MID($F94,43,8)</f>
+        <v>0.000971</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="99"/>
       <c r="C95" s="14"/>
       <c r="E95" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F95" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>prox.normal -0.6476 0.1697 18.4596 -3.817 0.001215 **</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.9912 0.2677 64.6280 3.703 0.000443 ***</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="99"/>
       <c r="C96" s="14"/>
       <c r="E96" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F96" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>pH 0.3792 0.1845 66.6187 2.056 0.043708 *</v>
-      </c>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.6476 0.1697 18.4596 -3.817 0.001215 **</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="99"/>
-      <c r="C97" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="C97" s="14"/>
       <c r="E97" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F97" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) -2.24052 0.10689 -20.960 &lt; 2e-16 ***</v>
-      </c>
-      <c r="G97" s="1" t="str">
-        <f>MID($F97,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H97" s="1" t="str">
-        <f>MID($F97,13,7)</f>
-        <v>-2.2405</v>
-      </c>
-      <c r="I97" s="1" t="str">
-        <f>MID($F97,21,6)</f>
-        <v xml:space="preserve"> 0.106</v>
-      </c>
-      <c r="J97" s="1" t="str">
-        <f>MID($F97,28,7)</f>
-        <v>9 -20.9</v>
-      </c>
-      <c r="K97" s="1" t="str">
-        <f>MID($F97,36,6)</f>
-        <v>0 &lt; 2e</v>
-      </c>
-      <c r="L97" s="1" t="str">
-        <f>MID($F97,43,8)</f>
-        <v>16 ***</v>
-      </c>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
+        <v>pH 0.3792 0.1845 66.6187 2.056 0.043708 *</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="99"/>
-      <c r="C98" s="14"/>
+      <c r="C98" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E98" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F98" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 1.34333 0.22149 6.065 4.60e-08 ***</v>
-      </c>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
+        <v>(Intercept) -2.24052 0.10689 -20.960 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G98" s="1" t="str">
+        <f>MID($F98,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H98" s="1" t="str">
+        <f>MID($F98,13,7)</f>
+        <v>-2.2405</v>
+      </c>
+      <c r="I98" s="1" t="str">
+        <f>MID($F98,21,6)</f>
+        <v xml:space="preserve"> 0.106</v>
+      </c>
+      <c r="J98" s="1" t="str">
+        <f>MID($F98,28,7)</f>
+        <v>9 -20.9</v>
+      </c>
+      <c r="K98" s="1" t="str">
+        <f>MID($F98,36,6)</f>
+        <v>0 &lt; 2e</v>
+      </c>
+      <c r="L98" s="1" t="str">
+        <f>MID($F98,43,8)</f>
+        <v>16 ***</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="99"/>
       <c r="C99" s="14"/>
       <c r="E99" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F99" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>prox.normal -0.42148 0.09785 -4.308 4.82e-05 ***</v>
-      </c>
-    </row>
-    <row r="100" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 1.34333 0.22149 6.065 4.60e-08 ***</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="99"/>
-      <c r="C100" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C100" s="14"/>
       <c r="E100" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F100" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) -1.0801 0.2135 23.0125 -5.060 4.02e-05 ***</v>
-      </c>
-      <c r="G100" s="1" t="str">
-        <f>MID($F100,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H100" s="1" t="str">
-        <f>MID($F100,13,7)</f>
-        <v>-1.0801</v>
-      </c>
-      <c r="I100" s="1" t="str">
-        <f>MID($F100,21,6)</f>
-        <v>0.2135</v>
-      </c>
-      <c r="J100" s="1" t="str">
-        <f>MID($F100,28,7)</f>
-        <v>23.0125</v>
-      </c>
-      <c r="K100" s="1" t="str">
-        <f>MID($F100,36,6)</f>
-        <v>-5.060</v>
-      </c>
-      <c r="L100" s="1" t="str">
-        <f>MID($F100,43,8)</f>
-        <v>4.02e-05</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.42148 0.09785 -4.308 4.82e-05 ***</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" ht="19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="99"/>
-      <c r="C101" s="14"/>
+      <c r="C101" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E101" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 0.6791 0.2292 64.6921 2.963 0.00426 **</v>
-      </c>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
+        <v>(Intercept) -1.0801 0.2135 23.0125 -5.060 4.02e-05 ***</v>
+      </c>
+      <c r="G101" s="1" t="str">
+        <f>MID($F101,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H101" s="1" t="str">
+        <f>MID($F101,13,7)</f>
+        <v>-1.0801</v>
+      </c>
+      <c r="I101" s="1" t="str">
+        <f>MID($F101,21,6)</f>
+        <v>0.2135</v>
+      </c>
+      <c r="J101" s="1" t="str">
+        <f>MID($F101,28,7)</f>
+        <v>23.0125</v>
+      </c>
+      <c r="K101" s="1" t="str">
+        <f>MID($F101,36,6)</f>
+        <v>-5.060</v>
+      </c>
+      <c r="L101" s="1" t="str">
+        <f>MID($F101,43,8)</f>
+        <v>4.02e-05</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="99"/>
-      <c r="C102" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="C102" s="14"/>
       <c r="E102" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F102" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) 3.8011 0.1664 22.841 &lt; 2e-16 ***</v>
-      </c>
-      <c r="G102" s="1" t="str">
-        <f>MID($F102,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H102" s="1" t="str">
-        <f>MID($F102,13,7)</f>
-        <v xml:space="preserve">3.8011 </v>
-      </c>
-      <c r="I102" s="1" t="str">
-        <f>MID($F102,21,6)</f>
-        <v xml:space="preserve">.1664 </v>
-      </c>
-      <c r="J102" s="1" t="str">
-        <f>MID($F102,28,7)</f>
-        <v>2.841 &lt;</v>
-      </c>
-      <c r="K102" s="1" t="str">
-        <f>MID($F102,36,6)</f>
-        <v xml:space="preserve">2e-16 </v>
-      </c>
-      <c r="L102" s="1" t="str">
-        <f>MID($F102,43,8)</f>
-        <v>**</v>
-      </c>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.6791 0.2292 64.6921 2.963 0.00426 **</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="99"/>
-      <c r="C103" s="14"/>
+      <c r="C103" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E103" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F103" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 1.4351 0.3448 4.162 8.15e-05 ***</v>
-      </c>
-    </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
+        <v>(Intercept) 3.8011 0.1664 22.841 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G103" s="1" t="str">
+        <f>MID($F103,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H103" s="1" t="str">
+        <f>MID($F103,13,7)</f>
+        <v xml:space="preserve">3.8011 </v>
+      </c>
+      <c r="I103" s="1" t="str">
+        <f>MID($F103,21,6)</f>
+        <v xml:space="preserve">.1664 </v>
+      </c>
+      <c r="J103" s="1" t="str">
+        <f>MID($F103,28,7)</f>
+        <v>2.841 &lt;</v>
+      </c>
+      <c r="K103" s="1" t="str">
+        <f>MID($F103,36,6)</f>
+        <v xml:space="preserve">2e-16 </v>
+      </c>
+      <c r="L103" s="1" t="str">
+        <f>MID($F103,43,8)</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="99"/>
       <c r="C104" s="14"/>
       <c r="E104" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F104" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>prox.normal -0.5461 0.1523 -3.585 0.000589 ***</v>
-      </c>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 1.4351 0.3448 4.162 8.15e-05 ***</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="99"/>
-      <c r="C105" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C105" s="14"/>
       <c r="E105" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F105" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) 6.0273 0.9115 68.8892 6.613 6.69e-09 ***</v>
-      </c>
-      <c r="G105" s="1" t="str">
-        <f>MID($F105,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H105" s="1" t="str">
-        <f>MID($F105,13,7)</f>
-        <v xml:space="preserve">6.0273 </v>
-      </c>
-      <c r="I105" s="1" t="str">
-        <f>MID($F105,21,6)</f>
-        <v xml:space="preserve">.9115 </v>
-      </c>
-      <c r="J105" s="1" t="str">
-        <f>MID($F105,28,7)</f>
-        <v xml:space="preserve">8.8892 </v>
-      </c>
-      <c r="K105" s="1" t="str">
-        <f>MID($F105,36,6)</f>
-        <v>.613 6</v>
-      </c>
-      <c r="L105" s="1" t="str">
-        <f>MID($F105,43,8)</f>
-        <v>69e-09 *</v>
-      </c>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.5461 0.1523 -3.585 0.000589 ***</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="99"/>
-      <c r="C106" s="14"/>
+      <c r="C106" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E106" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F106" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 1.1566 0.2240 64.3340 5.163 2.54e-06 ***</v>
-      </c>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
+        <v>(Intercept) 6.0273 0.9115 68.8892 6.613 6.69e-09 ***</v>
+      </c>
+      <c r="G106" s="1" t="str">
+        <f>MID($F106,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H106" s="1" t="str">
+        <f>MID($F106,13,7)</f>
+        <v xml:space="preserve">6.0273 </v>
+      </c>
+      <c r="I106" s="1" t="str">
+        <f>MID($F106,21,6)</f>
+        <v xml:space="preserve">.9115 </v>
+      </c>
+      <c r="J106" s="1" t="str">
+        <f>MID($F106,28,7)</f>
+        <v xml:space="preserve">8.8892 </v>
+      </c>
+      <c r="K106" s="1" t="str">
+        <f>MID($F106,36,6)</f>
+        <v>.613 6</v>
+      </c>
+      <c r="L106" s="1" t="str">
+        <f>MID($F106,43,8)</f>
+        <v>69e-09 *</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="99"/>
       <c r="C107" s="14"/>
       <c r="E107" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F107" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>pH -0.4559 0.1544 66.2212 -2.952 0.00436 **</v>
-      </c>
-    </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 1.1566 0.2240 64.3340 5.163 2.54e-06 ***</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="99"/>
-      <c r="C108" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="C108" s="14"/>
       <c r="E108" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F108" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) 1.6670 0.1540 10.822 &lt; 2e-16 ***</v>
-      </c>
-      <c r="G108" s="1" t="str">
-        <f>MID($F108,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H108" s="1" t="str">
-        <f>MID($F108,13,7)</f>
-        <v xml:space="preserve">1.6670 </v>
-      </c>
-      <c r="I108" s="1" t="str">
-        <f>MID($F108,21,6)</f>
-        <v xml:space="preserve">.1540 </v>
-      </c>
-      <c r="J108" s="1" t="str">
-        <f>MID($F108,28,7)</f>
-        <v>0.822 &lt;</v>
-      </c>
-      <c r="K108" s="1" t="str">
-        <f>MID($F108,36,6)</f>
-        <v xml:space="preserve">2e-16 </v>
-      </c>
-      <c r="L108" s="1" t="str">
-        <f>MID($F108,43,8)</f>
-        <v>**</v>
-      </c>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
+        <v>pH -0.4559 0.1544 66.2212 -2.952 0.00436 **</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="99"/>
-      <c r="C109" s="14"/>
+      <c r="C109" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E109" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F109" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 1.5501 0.3192 4.857 6.14e-06 ***</v>
-      </c>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
+        <v>(Intercept) 1.6670 0.1540 10.822 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G109" s="1" t="str">
+        <f>MID($F109,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H109" s="1" t="str">
+        <f>MID($F109,13,7)</f>
+        <v xml:space="preserve">1.6670 </v>
+      </c>
+      <c r="I109" s="1" t="str">
+        <f>MID($F109,21,6)</f>
+        <v xml:space="preserve">.1540 </v>
+      </c>
+      <c r="J109" s="1" t="str">
+        <f>MID($F109,28,7)</f>
+        <v>0.822 &lt;</v>
+      </c>
+      <c r="K109" s="1" t="str">
+        <f>MID($F109,36,6)</f>
+        <v xml:space="preserve">2e-16 </v>
+      </c>
+      <c r="L109" s="1" t="str">
+        <f>MID($F109,43,8)</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="99"/>
       <c r="C110" s="14"/>
       <c r="E110" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F110" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>prox.normal -0.4950 0.1410 -3.510 0.000751 ***</v>
-      </c>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 1.5501 0.3192 4.857 6.14e-06 ***</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="99"/>
-      <c r="C111" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="C111" s="14"/>
       <c r="E111" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F111" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) 0.3666 0.1196 3.066 0.00299 **</v>
-      </c>
-      <c r="G111" s="1" t="str">
-        <f>MID($F111,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H111" s="1" t="str">
-        <f>MID($F111,13,7)</f>
-        <v xml:space="preserve">0.3666 </v>
-      </c>
-      <c r="I111" s="1" t="str">
-        <f>MID($F111,21,6)</f>
-        <v xml:space="preserve">.1196 </v>
-      </c>
-      <c r="J111" s="1" t="str">
-        <f>MID($F111,28,7)</f>
-        <v>.066 0.</v>
-      </c>
-      <c r="K111" s="1" t="str">
-        <f>MID($F111,36,6)</f>
-        <v>0299 *</v>
-      </c>
-      <c r="L111" s="1" t="str">
-        <f>MID($F111,43,8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.4950 0.1410 -3.510 0.000751 ***</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="99"/>
-      <c r="C112" s="14"/>
+      <c r="C112" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E112" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F112" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 0.7905 0.2478 3.191 0.00206 **</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) 0.3666 0.1196 3.066 0.00299 **</v>
+      </c>
+      <c r="G112" s="1" t="str">
+        <f>MID($F112,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H112" s="1" t="str">
+        <f>MID($F112,13,7)</f>
+        <v xml:space="preserve">0.3666 </v>
+      </c>
+      <c r="I112" s="1" t="str">
+        <f>MID($F112,21,6)</f>
+        <v xml:space="preserve">.1196 </v>
+      </c>
+      <c r="J112" s="1" t="str">
+        <f>MID($F112,28,7)</f>
+        <v>.066 0.</v>
+      </c>
+      <c r="K112" s="1" t="str">
+        <f>MID($F112,36,6)</f>
+        <v>0299 *</v>
+      </c>
+      <c r="L112" s="1" t="str">
+        <f>MID($F112,43,8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="99"/>
       <c r="C113" s="14"/>
       <c r="E113" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F113" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>prox.normal -0.5004 0.1094 -4.572 1.81e-05 ***</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.7905 0.2478 3.191 0.00206 **</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="99"/>
-      <c r="C114" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="C114" s="14"/>
       <c r="E114" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F114" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) -0.8515 0.0825 -10.32 3.06e-16 ***</v>
-      </c>
-      <c r="G114" s="1" t="str">
-        <f>MID($F114,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H114" s="1" t="str">
-        <f>MID($F114,13,7)</f>
-        <v>-0.8515</v>
-      </c>
-      <c r="I114" s="1" t="str">
-        <f>MID($F114,21,6)</f>
-        <v>0.0825</v>
-      </c>
-      <c r="J114" s="1" t="str">
-        <f>MID($F114,28,7)</f>
-        <v xml:space="preserve">-10.32 </v>
-      </c>
-      <c r="K114" s="1" t="str">
-        <f>MID($F114,36,6)</f>
-        <v>.06e-1</v>
-      </c>
-      <c r="L114" s="1" t="str">
-        <f>MID($F114,43,8)</f>
-        <v xml:space="preserve"> ***</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.5004 0.1094 -4.572 1.81e-05 ***</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" s="99"/>
-      <c r="C115" s="14"/>
+      <c r="C115" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E115" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F115" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 1.1148 0.1739 6.41 1.02e-08 ***</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) -0.8515 0.0825 -10.32 3.06e-16 ***</v>
+      </c>
+      <c r="G115" s="1" t="str">
+        <f>MID($F115,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H115" s="1" t="str">
+        <f>MID($F115,13,7)</f>
+        <v>-0.8515</v>
+      </c>
+      <c r="I115" s="1" t="str">
+        <f>MID($F115,21,6)</f>
+        <v>0.0825</v>
+      </c>
+      <c r="J115" s="1" t="str">
+        <f>MID($F115,28,7)</f>
+        <v xml:space="preserve">-10.32 </v>
+      </c>
+      <c r="K115" s="1" t="str">
+        <f>MID($F115,36,6)</f>
+        <v>.06e-1</v>
+      </c>
+      <c r="L115" s="1" t="str">
+        <f>MID($F115,43,8)</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" s="99"/>
-      <c r="C116" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C116" s="14"/>
       <c r="E116" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F116" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) -0.2244 0.2014 21.5913 -1.114 0.2774</v>
-      </c>
-      <c r="G116" s="1" t="str">
-        <f>MID($F116,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H116" s="1" t="str">
-        <f>MID($F116,13,7)</f>
-        <v>-0.2244</v>
-      </c>
-      <c r="I116" s="1" t="str">
-        <f>MID($F116,21,6)</f>
-        <v>0.2014</v>
-      </c>
-      <c r="J116" s="1" t="str">
-        <f>MID($F116,28,7)</f>
-        <v>21.5913</v>
-      </c>
-      <c r="K116" s="1" t="str">
-        <f>MID($F116,36,6)</f>
-        <v>-1.114</v>
-      </c>
-      <c r="L116" s="1" t="str">
-        <f>MID($F116,43,8)</f>
-        <v>0.2774</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 1.1148 0.1739 6.41 1.02e-08 ***</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" s="99"/>
-      <c r="C117" s="14"/>
+      <c r="C117" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E117" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 1.2650 0.2668 64.6039 4.741 1.21e-05 ***</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) -0.2244 0.2014 21.5913 -1.114 0.2774</v>
+      </c>
+      <c r="G117" s="1" t="str">
+        <f>MID($F117,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H117" s="1" t="str">
+        <f>MID($F117,13,7)</f>
+        <v>-0.2244</v>
+      </c>
+      <c r="I117" s="1" t="str">
+        <f>MID($F117,21,6)</f>
+        <v>0.2014</v>
+      </c>
+      <c r="J117" s="1" t="str">
+        <f>MID($F117,28,7)</f>
+        <v>21.5913</v>
+      </c>
+      <c r="K117" s="1" t="str">
+        <f>MID($F117,36,6)</f>
+        <v>-1.114</v>
+      </c>
+      <c r="L117" s="1" t="str">
+        <f>MID($F117,43,8)</f>
+        <v>0.2774</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" s="99"/>
       <c r="C118" s="14"/>
       <c r="E118" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F118" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>prox.normal -0.7003 0.2003 18.4171 -3.497 0.0025 **</v>
-      </c>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 1.2650 0.2668 64.6039 4.741 1.21e-05 ***</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" s="99"/>
-      <c r="C119" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="C119" s="14"/>
       <c r="E119" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F119" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) -0.48181 0.09219 -5.226 1.44e-06 ***</v>
-      </c>
-      <c r="G119" s="1" t="str">
-        <f>MID($F119,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H119" s="1" t="str">
-        <f>MID($F119,13,7)</f>
-        <v>-0.4818</v>
-      </c>
-      <c r="I119" s="1" t="str">
-        <f>MID($F119,21,6)</f>
-        <v xml:space="preserve"> 0.092</v>
-      </c>
-      <c r="J119" s="1" t="str">
-        <f>MID($F119,28,7)</f>
-        <v>9 -5.22</v>
-      </c>
-      <c r="K119" s="1" t="str">
-        <f>MID($F119,36,6)</f>
-        <v xml:space="preserve"> 1.44e</v>
-      </c>
-      <c r="L119" s="1" t="str">
-        <f>MID($F119,43,8)</f>
-        <v>06 ***</v>
-      </c>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.7003 0.2003 18.4171 -3.497 0.0025 **</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" s="99"/>
-      <c r="C120" s="14"/>
+      <c r="C120" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E120" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F120" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 0.96014 0.19104 5.026 3.17e-06 ***</v>
-      </c>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) -0.48181 0.09219 -5.226 1.44e-06 ***</v>
+      </c>
+      <c r="G120" s="1" t="str">
+        <f>MID($F120,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H120" s="1" t="str">
+        <f>MID($F120,13,7)</f>
+        <v>-0.4818</v>
+      </c>
+      <c r="I120" s="1" t="str">
+        <f>MID($F120,21,6)</f>
+        <v xml:space="preserve"> 0.092</v>
+      </c>
+      <c r="J120" s="1" t="str">
+        <f>MID($F120,28,7)</f>
+        <v>9 -5.22</v>
+      </c>
+      <c r="K120" s="1" t="str">
+        <f>MID($F120,36,6)</f>
+        <v xml:space="preserve"> 1.44e</v>
+      </c>
+      <c r="L120" s="1" t="str">
+        <f>MID($F120,43,8)</f>
+        <v>06 ***</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="99"/>
       <c r="C121" s="14"/>
       <c r="E121" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F121" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>prox.normal -0.22460 0.08439 -2.661 0.00947 **</v>
-      </c>
-    </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.96014 0.19104 5.026 3.17e-06 ***</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" s="99"/>
-      <c r="C122" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="C122" s="14"/>
       <c r="E122" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F122" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) 0.33421 0.08632 3.872 0.000223 ***</v>
-      </c>
-      <c r="G122" s="1" t="str">
-        <f>MID($F122,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H122" s="1" t="str">
-        <f>MID($F122,13,7)</f>
-        <v>0.33421</v>
-      </c>
-      <c r="I122" s="1" t="str">
-        <f>MID($F122,21,6)</f>
-        <v>0.0863</v>
-      </c>
-      <c r="J122" s="1" t="str">
-        <f>MID($F122,28,7)</f>
-        <v xml:space="preserve"> 3.872 </v>
-      </c>
-      <c r="K122" s="1" t="str">
-        <f>MID($F122,36,6)</f>
-        <v>.00022</v>
-      </c>
-      <c r="L122" s="1" t="str">
-        <f>MID($F122,43,8)</f>
-        <v xml:space="preserve"> ***</v>
-      </c>
-    </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+        <v>prox.normal -0.22460 0.08439 -2.661 0.00947 **</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" s="99"/>
-      <c r="C123" s="14"/>
+      <c r="C123" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E123" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F123" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 0.63352 0.18197 3.481 0.000820 ***</v>
-      </c>
-    </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) 0.33421 0.08632 3.872 0.000223 ***</v>
+      </c>
+      <c r="G123" s="1" t="str">
+        <f>MID($F123,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H123" s="1" t="str">
+        <f>MID($F123,13,7)</f>
+        <v>0.33421</v>
+      </c>
+      <c r="I123" s="1" t="str">
+        <f>MID($F123,21,6)</f>
+        <v>0.0863</v>
+      </c>
+      <c r="J123" s="1" t="str">
+        <f>MID($F123,28,7)</f>
+        <v xml:space="preserve"> 3.872 </v>
+      </c>
+      <c r="K123" s="1" t="str">
+        <f>MID($F123,36,6)</f>
+        <v>.00022</v>
+      </c>
+      <c r="L123" s="1" t="str">
+        <f>MID($F123,43,8)</f>
+        <v xml:space="preserve"> ***</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" s="99"/>
-      <c r="C124" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="C124" s="14"/>
       <c r="E124" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) -2.9372 0.1636 -17.95 &lt;2e-16 ***</v>
-      </c>
-      <c r="G124" s="1" t="str">
-        <f>MID($F124,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H124" s="1" t="str">
-        <f>MID($F124,13,7)</f>
-        <v>-2.9372</v>
-      </c>
-      <c r="I124" s="1" t="str">
-        <f>MID($F124,21,6)</f>
-        <v>0.1636</v>
-      </c>
-      <c r="J124" s="1" t="str">
-        <f>MID($F124,28,7)</f>
-        <v xml:space="preserve">-17.95 </v>
-      </c>
-      <c r="K124" s="1" t="str">
-        <f>MID($F124,36,6)</f>
-        <v xml:space="preserve">2e-16 </v>
-      </c>
-      <c r="L124" s="1" t="str">
-        <f>MID($F124,43,8)</f>
-        <v>**</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.63352 0.18197 3.481 0.000820 ***</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" s="99"/>
-      <c r="C125" s="14"/>
+      <c r="C125" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E125" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F125" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 0.7518 0.3449 2.18 0.0323 *</v>
-      </c>
-    </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) -2.9372 0.1636 -17.95 &lt;2e-16 ***</v>
+      </c>
+      <c r="G125" s="1" t="str">
+        <f>MID($F125,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H125" s="1" t="str">
+        <f>MID($F125,13,7)</f>
+        <v>-2.9372</v>
+      </c>
+      <c r="I125" s="1" t="str">
+        <f>MID($F125,21,6)</f>
+        <v>0.1636</v>
+      </c>
+      <c r="J125" s="1" t="str">
+        <f>MID($F125,28,7)</f>
+        <v xml:space="preserve">-17.95 </v>
+      </c>
+      <c r="K125" s="1" t="str">
+        <f>MID($F125,36,6)</f>
+        <v xml:space="preserve">2e-16 </v>
+      </c>
+      <c r="L125" s="1" t="str">
+        <f>MID($F125,43,8)</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="99"/>
-      <c r="C126" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C126" s="14"/>
       <c r="E126" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) 0.2757 0.1145 24.0826 2.408 0.024 *</v>
-      </c>
-      <c r="G126" s="1" t="str">
-        <f>MID($F126,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H126" s="1" t="str">
-        <f>MID($F126,13,7)</f>
-        <v xml:space="preserve">0.2757 </v>
-      </c>
-      <c r="I126" s="1" t="str">
-        <f>MID($F126,21,6)</f>
-        <v xml:space="preserve">.1145 </v>
-      </c>
-      <c r="J126" s="1" t="str">
-        <f>MID($F126,28,7)</f>
-        <v xml:space="preserve">4.0826 </v>
-      </c>
-      <c r="K126" s="1" t="str">
-        <f>MID($F126,36,6)</f>
-        <v>.408 0</v>
-      </c>
-      <c r="L126" s="1" t="str">
-        <f>MID($F126,43,8)</f>
-        <v>024 *</v>
-      </c>
-    </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.7518 0.3449 2.18 0.0323 *</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" s="99"/>
-      <c r="C127" s="14"/>
+      <c r="C127" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E127" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F127" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 0.9088 0.1847 66.5305 4.922 5.95e-06 ***</v>
-      </c>
-    </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) 0.2757 0.1145 24.0826 2.408 0.024 *</v>
+      </c>
+      <c r="G127" s="1" t="str">
+        <f>MID($F127,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H127" s="1" t="str">
+        <f>MID($F127,13,7)</f>
+        <v xml:space="preserve">0.2757 </v>
+      </c>
+      <c r="I127" s="1" t="str">
+        <f>MID($F127,21,6)</f>
+        <v xml:space="preserve">.1145 </v>
+      </c>
+      <c r="J127" s="1" t="str">
+        <f>MID($F127,28,7)</f>
+        <v xml:space="preserve">4.0826 </v>
+      </c>
+      <c r="K127" s="1" t="str">
+        <f>MID($F127,36,6)</f>
+        <v>.408 0</v>
+      </c>
+      <c r="L127" s="1" t="str">
+        <f>MID($F127,43,8)</f>
+        <v>024 *</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" s="99"/>
-      <c r="C128" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C128" s="14"/>
       <c r="E128" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F128" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) 4.0934 0.2853 20.7232 14.35 3.11e-12 ***</v>
-      </c>
-      <c r="G128" s="1" t="str">
-        <f>MID($F128,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H128" s="1" t="str">
-        <f>MID($F128,13,7)</f>
-        <v xml:space="preserve">4.0934 </v>
-      </c>
-      <c r="I128" s="1" t="str">
-        <f>MID($F128,21,6)</f>
-        <v xml:space="preserve">.2853 </v>
-      </c>
-      <c r="J128" s="1" t="str">
-        <f>MID($F128,28,7)</f>
-        <v xml:space="preserve">0.7232 </v>
-      </c>
-      <c r="K128" s="1" t="str">
-        <f>MID($F128,36,6)</f>
-        <v>4.35 3</v>
-      </c>
-      <c r="L128" s="1" t="str">
-        <f>MID($F128,43,8)</f>
-        <v>11e-12 *</v>
-      </c>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B129" s="63"/>
-      <c r="C129" s="15"/>
+        <v>seasonMonsoon 0.9088 0.1847 66.5305 4.922 5.95e-06 ***</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="99"/>
+      <c r="C129" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E129" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F129" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 0.6115 0.2466 62.3930 2.48 0.0159 *</v>
-      </c>
-    </row>
-    <row r="130" spans="2:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="B130" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>349</v>
-      </c>
+        <v>(Intercept) 4.0934 0.2853 20.7232 14.35 3.11e-12 ***</v>
+      </c>
+      <c r="G129" s="1" t="str">
+        <f>MID($F129,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H129" s="1" t="str">
+        <f>MID($F129,13,7)</f>
+        <v xml:space="preserve">4.0934 </v>
+      </c>
+      <c r="I129" s="1" t="str">
+        <f>MID($F129,21,6)</f>
+        <v xml:space="preserve">.2853 </v>
+      </c>
+      <c r="J129" s="1" t="str">
+        <f>MID($F129,28,7)</f>
+        <v xml:space="preserve">0.7232 </v>
+      </c>
+      <c r="K129" s="1" t="str">
+        <f>MID($F129,36,6)</f>
+        <v>4.35 3</v>
+      </c>
+      <c r="L129" s="1" t="str">
+        <f>MID($F129,43,8)</f>
+        <v>11e-12 *</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="63"/>
+      <c r="C130" s="15"/>
       <c r="E130" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F130" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) -4.19186 0.07462 -56.174 &lt;2e-16 ***</v>
-      </c>
-      <c r="G130" s="1" t="str">
-        <f>MID($F130,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H130" s="1" t="str">
-        <f>MID($F130,13,7)</f>
-        <v>-4.1918</v>
-      </c>
-      <c r="I130" s="1" t="str">
-        <f>MID($F130,21,6)</f>
-        <v xml:space="preserve"> 0.074</v>
-      </c>
-      <c r="J130" s="1" t="str">
-        <f>MID($F130,28,7)</f>
-        <v>2 -56.1</v>
-      </c>
-      <c r="K130" s="1" t="str">
-        <f>MID($F130,36,6)</f>
-        <v>4 &lt;2e-</v>
-      </c>
-      <c r="L130" s="1" t="str">
-        <f>MID($F130,43,8)</f>
-        <v>6 ***</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B131" s="99"/>
-      <c r="C131" s="14"/>
+        <v>seasonMonsoon 0.6115 0.2466 62.3930 2.48 0.0159 *</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="B131" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E131" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F131" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 0.31654 0.15769 2.007 0.0458 *</v>
-      </c>
-    </row>
-    <row r="132" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+        <v>(Intercept) -4.19186 0.07462 -56.174 &lt;2e-16 ***</v>
+      </c>
+      <c r="G131" s="1" t="str">
+        <f>MID($F131,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H131" s="1" t="str">
+        <f>MID($F131,13,7)</f>
+        <v>-4.1918</v>
+      </c>
+      <c r="I131" s="1" t="str">
+        <f>MID($F131,21,6)</f>
+        <v xml:space="preserve"> 0.074</v>
+      </c>
+      <c r="J131" s="1" t="str">
+        <f>MID($F131,28,7)</f>
+        <v>2 -56.1</v>
+      </c>
+      <c r="K131" s="1" t="str">
+        <f>MID($F131,36,6)</f>
+        <v>4 &lt;2e-</v>
+      </c>
+      <c r="L131" s="1" t="str">
+        <f>MID($F131,43,8)</f>
+        <v>6 ***</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B132" s="99"/>
-      <c r="C132" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C132" s="14"/>
       <c r="E132" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F132" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) 2.35700 0.39412 254.77150 5.980 7.49e-09 ***</v>
-      </c>
-      <c r="G132" s="1" t="str">
-        <f>MID($F132,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H132" s="1" t="str">
-        <f>MID($F132,13,7)</f>
-        <v>2.35700</v>
-      </c>
-      <c r="I132" s="1" t="str">
-        <f>MID($F132,21,6)</f>
-        <v>0.3941</v>
-      </c>
-      <c r="J132" s="1" t="str">
-        <f>MID($F132,28,7)</f>
-        <v xml:space="preserve"> 254.77</v>
-      </c>
-      <c r="K132" s="1" t="str">
-        <f>MID($F132,36,6)</f>
-        <v>50 5.9</v>
-      </c>
-      <c r="L132" s="1" t="str">
-        <f>MID($F132,43,8)</f>
-        <v>0 7.49e-</v>
-      </c>
-      <c r="M132" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.31654 0.15769 2.007 0.0458 *</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" ht="19" x14ac:dyDescent="0.2">
       <c r="B133" s="99"/>
-      <c r="C133" s="14"/>
+      <c r="C133" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E133" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F133" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>pH 0.20585 0.06605 253.54699 3.117 0.00204 **</v>
+        <v>(Intercept) 2.35700 0.39412 254.77150 5.980 7.49e-09 ***</v>
+      </c>
+      <c r="G133" s="1" t="str">
+        <f>MID($F133,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H133" s="1" t="str">
+        <f>MID($F133,13,7)</f>
+        <v>2.35700</v>
+      </c>
+      <c r="I133" s="1" t="str">
+        <f>MID($F133,21,6)</f>
+        <v>0.3941</v>
+      </c>
+      <c r="J133" s="1" t="str">
+        <f>MID($F133,28,7)</f>
+        <v xml:space="preserve"> 254.77</v>
+      </c>
+      <c r="K133" s="1" t="str">
+        <f>MID($F133,36,6)</f>
+        <v>50 5.9</v>
+      </c>
+      <c r="L133" s="1" t="str">
+        <f>MID($F133,43,8)</f>
+        <v>0 7.49e-</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B134" s="99"/>
-      <c r="C134" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C134" s="14"/>
       <c r="E134" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F134" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) -1.8309 0.3916 255.8638 -4.676 4.75e-06 ***</v>
-      </c>
-      <c r="G134" s="1" t="str">
-        <f>MID($F134,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H134" s="1" t="str">
-        <f>MID($F134,13,7)</f>
-        <v>-1.8309</v>
-      </c>
-      <c r="I134" s="1" t="str">
-        <f>MID($F134,21,6)</f>
-        <v>0.3916</v>
-      </c>
-      <c r="J134" s="1" t="str">
-        <f>MID($F134,28,7)</f>
-        <v>255.863</v>
-      </c>
-      <c r="K134" s="1" t="str">
-        <f>MID($F134,36,6)</f>
-        <v xml:space="preserve"> -4.67</v>
-      </c>
-      <c r="L134" s="1" t="str">
-        <f>MID($F134,43,8)</f>
-        <v xml:space="preserve"> 4.75e-0</v>
+        <v>pH 0.20585 0.06605 253.54699 3.117 0.00204 **</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B135" s="99"/>
-      <c r="C135" s="14"/>
+      <c r="C135" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E135" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F135" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 0.4711 0.1100 245.0650 4.283 2.65e-05 ***</v>
+        <v>(Intercept) -1.8309 0.3916 255.8638 -4.676 4.75e-06 ***</v>
+      </c>
+      <c r="G135" s="1" t="str">
+        <f>MID($F135,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H135" s="1" t="str">
+        <f>MID($F135,13,7)</f>
+        <v>-1.8309</v>
+      </c>
+      <c r="I135" s="1" t="str">
+        <f>MID($F135,21,6)</f>
+        <v>0.3916</v>
+      </c>
+      <c r="J135" s="1" t="str">
+        <f>MID($F135,28,7)</f>
+        <v>255.863</v>
+      </c>
+      <c r="K135" s="1" t="str">
+        <f>MID($F135,36,6)</f>
+        <v xml:space="preserve"> -4.67</v>
+      </c>
+      <c r="L135" s="1" t="str">
+        <f>MID($F135,43,8)</f>
+        <v xml:space="preserve"> 4.75e-0</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B136" s="99"/>
       <c r="C136" s="14"/>
       <c r="E136" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F136" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>pH 0.2805 0.0665 255.8910 4.217 3.43e-05 ***</v>
+        <v>seasonMonsoon 0.4711 0.1100 245.0650 4.283 2.65e-05 ***</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B137" s="99"/>
-      <c r="C137" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C137" s="14"/>
       <c r="E137" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F137" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>(Intercept) -0.65381 0.43578 248.55916 -1.500 0.135</v>
-      </c>
-      <c r="G137" s="1" t="str">
-        <f>MID($F137,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H137" s="1" t="str">
-        <f>MID($F137,13,7)</f>
-        <v>-0.6538</v>
-      </c>
-      <c r="I137" s="1" t="str">
-        <f>MID($F137,21,6)</f>
-        <v xml:space="preserve"> 0.435</v>
-      </c>
-      <c r="J137" s="1" t="str">
-        <f>MID($F137,28,7)</f>
-        <v>8 248.5</v>
-      </c>
-      <c r="K137" s="1" t="str">
-        <f>MID($F137,36,6)</f>
-        <v>916 -1</v>
-      </c>
-      <c r="L137" s="1" t="str">
-        <f>MID($F137,43,8)</f>
-        <v>500 0.13</v>
+        <v>pH 0.2805 0.0665 255.8910 4.217 3.43e-05 ***</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B138" s="99"/>
-      <c r="C138" s="14"/>
+      <c r="C138" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E138" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F138" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>seasonMonsoon 0.48691 0.11798 220.17606 4.127 5.21e-05 ***</v>
+        <v>(Intercept) -0.65381 0.43578 248.55916 -1.500 0.135</v>
+      </c>
+      <c r="G138" s="1" t="str">
+        <f>MID($F138,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H138" s="1" t="str">
+        <f>MID($F138,13,7)</f>
+        <v>-0.6538</v>
+      </c>
+      <c r="I138" s="1" t="str">
+        <f>MID($F138,21,6)</f>
+        <v xml:space="preserve"> 0.435</v>
+      </c>
+      <c r="J138" s="1" t="str">
+        <f>MID($F138,28,7)</f>
+        <v>8 248.5</v>
+      </c>
+      <c r="K138" s="1" t="str">
+        <f>MID($F138,36,6)</f>
+        <v>916 -1</v>
+      </c>
+      <c r="L138" s="1" t="str">
+        <f>MID($F138,43,8)</f>
+        <v>500 0.13</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B139" s="99"/>
       <c r="C139" s="14"/>
       <c r="E139" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F139" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>pH 0.47204 0.07378 244.91127 6.398 7.92e-10 ***</v>
+        <v>seasonMonsoon 0.48691 0.11798 220.17606 4.127 5.21e-05 ***</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B140" s="99"/>
-      <c r="C140" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="C140" s="14"/>
       <c r="E140" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F140" s="1" t="str">
-        <f t="shared" ref="F140:F194" si="2">TRIM(E140)</f>
-        <v>(Intercept) -2.47262 0.54452 -4.541 8.64e-06 ***</v>
-      </c>
-      <c r="G140" s="1" t="str">
-        <f>MID($F140,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H140" s="1" t="str">
-        <f>MID($F140,13,7)</f>
-        <v>-2.4726</v>
-      </c>
-      <c r="I140" s="1" t="str">
-        <f>MID($F140,21,6)</f>
-        <v xml:space="preserve"> 0.544</v>
-      </c>
-      <c r="J140" s="1" t="str">
-        <f>MID($F140,28,7)</f>
-        <v>2 -4.54</v>
-      </c>
-      <c r="K140" s="1" t="str">
-        <f>MID($F140,36,6)</f>
-        <v xml:space="preserve"> 8.64e</v>
-      </c>
-      <c r="L140" s="1" t="str">
-        <f>MID($F140,43,8)</f>
-        <v>06 ***</v>
+        <f t="shared" si="1"/>
+        <v>pH 0.47204 0.07378 244.91127 6.398 7.92e-10 ***</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B141" s="99"/>
-      <c r="C141" s="14"/>
+      <c r="C141" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E141" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F141" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>prox.normal -0.18319 0.07602 -2.410 0.01668 *</v>
+        <f t="shared" ref="F141:F196" si="2">TRIM(E141)</f>
+        <v>(Intercept) -2.47262 0.54452 -4.541 8.64e-06 ***</v>
+      </c>
+      <c r="G141" s="1" t="str">
+        <f>MID($F141,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H141" s="1" t="str">
+        <f>MID($F141,13,7)</f>
+        <v>-2.4726</v>
+      </c>
+      <c r="I141" s="1" t="str">
+        <f>MID($F141,21,6)</f>
+        <v xml:space="preserve"> 0.544</v>
+      </c>
+      <c r="J141" s="1" t="str">
+        <f>MID($F141,28,7)</f>
+        <v>2 -4.54</v>
+      </c>
+      <c r="K141" s="1" t="str">
+        <f>MID($F141,36,6)</f>
+        <v xml:space="preserve"> 8.64e</v>
+      </c>
+      <c r="L141" s="1" t="str">
+        <f>MID($F141,43,8)</f>
+        <v>06 ***</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B142" s="99"/>
       <c r="C142" s="14"/>
       <c r="E142" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F142" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pH -0.28529 0.08924 -3.197 0.00156 **</v>
+        <v>prox.normal -0.18319 0.07602 -2.410 0.01668 *</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B143" s="99"/>
       <c r="C143" s="14"/>
       <c r="E143" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F143" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>locationSouth 0.27495 0.13462 2.042 0.04214 *</v>
+        <v>pH -0.28529 0.08924 -3.197 0.00156 **</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B144" s="99"/>
-      <c r="C144" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C144" s="14"/>
       <c r="E144" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F144" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) -4.10306 0.40723 243.57157 -10.076 &lt; 2e-16 ***</v>
-      </c>
-      <c r="G144" s="1" t="str">
-        <f>MID($F144,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H144" s="1" t="str">
-        <f>MID($F144,13,7)</f>
-        <v>-4.1030</v>
-      </c>
-      <c r="I144" s="1" t="str">
-        <f>MID($F144,21,6)</f>
-        <v xml:space="preserve"> 0.407</v>
-      </c>
-      <c r="J144" s="1" t="str">
-        <f>MID($F144,28,7)</f>
-        <v>3 243.5</v>
-      </c>
-      <c r="K144" s="1" t="str">
-        <f>MID($F144,36,6)</f>
-        <v>157 -1</v>
-      </c>
-      <c r="L144" s="1" t="str">
-        <f>MID($F144,43,8)</f>
-        <v>.076 &lt; 2</v>
+        <v>locationSouth 0.27495 0.13462 2.042 0.04214 *</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B145" s="99"/>
-      <c r="C145" s="14"/>
+      <c r="C145" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E145" s="1" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="F145" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pH 0.24725 0.06221 243.90995 3.974 9.3e-05 ***</v>
+        <v>(Intercept) -4.29185 0.39155 249.01759 -10.961 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G145" s="1" t="str">
+        <f>MID($F145,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H145" s="1" t="str">
+        <f>MID($F145,13,7)</f>
+        <v>-4.2918</v>
+      </c>
+      <c r="I145" s="1" t="str">
+        <f>MID($F145,21,6)</f>
+        <v xml:space="preserve"> 0.391</v>
+      </c>
+      <c r="J145" s="1" t="str">
+        <f>MID($F145,28,7)</f>
+        <v>5 249.0</v>
+      </c>
+      <c r="K145" s="1" t="str">
+        <f>MID($F145,36,6)</f>
+        <v>759 -1</v>
+      </c>
+      <c r="L145" s="1" t="str">
+        <f>MID($F145,43,8)</f>
+        <v>.961 &lt; 2</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B146" s="99"/>
       <c r="C146" s="14"/>
       <c r="E146" s="1" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
       <c r="F146" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>wardTwo -0.65238 0.32120 81.84254 -2.031 0.04549 *</v>
+        <v>prox.normal 1.20141 0.55080 232.93920 2.181 0.030169 *</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B147" s="99"/>
       <c r="C147" s="14"/>
       <c r="E147" s="1" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="F147" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>wardThree -0.14496 0.24393 76.04239 -0.594 0.55411</v>
+        <v>pH 0.21581 0.06345 238.35754 3.401 0.000786 ***</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B148" s="99"/>
       <c r="C148" s="14"/>
       <c r="E148" s="1" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="F148" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>wardFour -0.78585 0.36932 82.42800 -2.128 0.03634 *</v>
+        <v>wardTwo -0.18098 0.31119 84.50557 -0.582 0.562415</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B149" s="99"/>
       <c r="C149" s="14"/>
       <c r="E149" s="1" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="F149" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>wardFive 0.45655 0.15204 68.05404 3.003 0.00374 **</v>
+        <v>wardThree 0.35955 0.21226 75.69539 1.694 0.094393 .</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B150" s="99"/>
       <c r="C150" s="14"/>
       <c r="E150" s="1" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="F150" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>wardSix 0.12121 0.26841 78.29695 0.452 0.65280</v>
+        <v>wardFour -0.56040 0.36372 79.14032 -1.541 0.127371</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B151" s="99"/>
       <c r="C151" s="14"/>
       <c r="E151" s="1" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
       <c r="F151" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>locationSouth -0.54989 0.19974 75.89608 -2.753 0.00739 **</v>
+        <v>wardFive 0.27251 0.17644 73.34949 1.545 0.126767</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B152" s="99"/>
-      <c r="C152" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C152" s="14"/>
       <c r="E152" s="1" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="F152" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) -5.33807 0.45033 250.47301 -11.854 &lt; 2e-16 ***</v>
-      </c>
-      <c r="G152" s="1" t="str">
-        <f>MID($F152,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H152" s="1" t="str">
-        <f>MID($F152,13,7)</f>
-        <v>-5.3380</v>
-      </c>
-      <c r="I152" s="1" t="str">
-        <f>MID($F152,21,6)</f>
-        <v xml:space="preserve"> 0.450</v>
-      </c>
-      <c r="J152" s="1" t="str">
-        <f>MID($F152,28,7)</f>
-        <v>3 250.4</v>
-      </c>
-      <c r="K152" s="1" t="str">
-        <f>MID($F152,36,6)</f>
-        <v>301 -1</v>
-      </c>
-      <c r="L152" s="1" t="str">
-        <f>MID($F152,43,8)</f>
-        <v>.854 &lt; 2</v>
+        <v>wardSix 0.40848 0.27287 80.10897 1.497 0.138330</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B153" s="99"/>
       <c r="C153" s="14"/>
       <c r="E153" s="1" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
       <c r="F153" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>seasonMonsoon 0.87462 0.12234 224.92615 7.149 1.21e-11 ***</v>
+        <v>prox.normal:pH -0.21970 0.09191 224.99039 -2.390 0.017652 *</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B154" s="99"/>
-      <c r="C154" s="14"/>
+      <c r="C154" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E154" s="1" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="F154" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pH 0.47507 0.07628 247.73796 6.228 2.01e-09 ***</v>
+        <v>(Intercept) -5.33807 0.45033 250.47301 -11.854 &lt; 2e-16 ***</v>
+      </c>
+      <c r="G154" s="1" t="str">
+        <f>MID($F154,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H154" s="1" t="str">
+        <f>MID($F154,13,7)</f>
+        <v>-5.3380</v>
+      </c>
+      <c r="I154" s="1" t="str">
+        <f>MID($F154,21,6)</f>
+        <v xml:space="preserve"> 0.450</v>
+      </c>
+      <c r="J154" s="1" t="str">
+        <f>MID($F154,28,7)</f>
+        <v>3 250.4</v>
+      </c>
+      <c r="K154" s="1" t="str">
+        <f>MID($F154,36,6)</f>
+        <v>301 -1</v>
+      </c>
+      <c r="L154" s="1" t="str">
+        <f>MID($F154,43,8)</f>
+        <v>.854 &lt; 2</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B155" s="99"/>
-      <c r="C155" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C155" s="14"/>
       <c r="E155" s="1" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="F155" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) -2.18698 0.51852 252.58958 -4.218 3.44e-05 ***</v>
-      </c>
-      <c r="G155" s="1" t="str">
-        <f>MID($F155,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H155" s="1" t="str">
-        <f>MID($F155,13,7)</f>
-        <v>-2.1869</v>
-      </c>
-      <c r="I155" s="1" t="str">
-        <f>MID($F155,21,6)</f>
-        <v xml:space="preserve"> 0.518</v>
-      </c>
-      <c r="J155" s="1" t="str">
-        <f>MID($F155,28,7)</f>
-        <v>2 252.5</v>
-      </c>
-      <c r="K155" s="1" t="str">
-        <f>MID($F155,36,6)</f>
-        <v>958 -4</v>
-      </c>
-      <c r="L155" s="1" t="str">
-        <f>MID($F155,43,8)</f>
-        <v>218 3.44</v>
+        <v>seasonMonsoon 0.87462 0.12234 224.92615 7.149 1.21e-11 ***</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B156" s="99"/>
       <c r="C156" s="14"/>
       <c r="E156" s="1" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="F156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>seasonMonsoon 0.78789 0.14156 231.07081 5.566 7.20e-08 ***</v>
+        <v>pH 0.47507 0.07628 247.73796 6.228 2.01e-09 ***</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B157" s="99"/>
-      <c r="C157" s="14"/>
+      <c r="C157" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E157" s="1" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="F157" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pH 0.17740 0.08789 250.86049 2.018 0.0446 *</v>
-      </c>
-    </row>
-    <row r="158" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+        <v>(Intercept) -2.18698 0.51852 252.58958 -4.218 3.44e-05 ***</v>
+      </c>
+      <c r="G157" s="1" t="str">
+        <f>MID($F157,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H157" s="1" t="str">
+        <f>MID($F157,13,7)</f>
+        <v>-2.1869</v>
+      </c>
+      <c r="I157" s="1" t="str">
+        <f>MID($F157,21,6)</f>
+        <v xml:space="preserve"> 0.518</v>
+      </c>
+      <c r="J157" s="1" t="str">
+        <f>MID($F157,28,7)</f>
+        <v>2 252.5</v>
+      </c>
+      <c r="K157" s="1" t="str">
+        <f>MID($F157,36,6)</f>
+        <v>958 -4</v>
+      </c>
+      <c r="L157" s="1" t="str">
+        <f>MID($F157,43,8)</f>
+        <v>218 3.44</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B158" s="99"/>
-      <c r="C158" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C158" s="14"/>
       <c r="E158" s="1" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="F158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) 0.43214 0.57210 246.76222 0.755 0.451</v>
-      </c>
-      <c r="G158" s="1" t="str">
-        <f>MID($F158,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H158" s="1" t="str">
-        <f>MID($F158,13,7)</f>
-        <v>0.43214</v>
-      </c>
-      <c r="I158" s="1" t="str">
-        <f>MID($F158,21,6)</f>
-        <v>0.5721</v>
-      </c>
-      <c r="J158" s="1" t="str">
-        <f>MID($F158,28,7)</f>
-        <v xml:space="preserve"> 246.76</v>
-      </c>
-      <c r="K158" s="1" t="str">
-        <f>MID($F158,36,6)</f>
-        <v>22 0.7</v>
-      </c>
-      <c r="L158" s="1" t="str">
-        <f>MID($F158,43,8)</f>
-        <v>5 0.451</v>
-      </c>
-      <c r="M158" s="1" t="s">
-        <v>417</v>
+        <v>seasonMonsoon 0.78789 0.14156 231.07081 5.566 7.20e-08 ***</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B159" s="99"/>
       <c r="C159" s="14"/>
       <c r="E159" s="1" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F159" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pH 0.43366 0.09565 241.82204 4.534 9.12e-06 ***</v>
+        <v>pH 0.17740 0.08789 250.86049 2.018 0.0446 *</v>
       </c>
     </row>
     <row r="160" spans="2:13" ht="19" x14ac:dyDescent="0.2">
       <c r="B160" s="99"/>
       <c r="C160" s="14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="F160" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) 3.49555 0.07593 105.03855 46.034 &lt; 2e-16 ***</v>
+        <v>(Intercept) 0.43214 0.57210 246.76222 0.755 0.451</v>
       </c>
       <c r="G160" s="1" t="str">
         <f>MID($F160,2,9)</f>
@@ -9701,53 +9712,53 @@
       </c>
       <c r="H160" s="1" t="str">
         <f>MID($F160,13,7)</f>
-        <v>3.49555</v>
+        <v>0.43214</v>
       </c>
       <c r="I160" s="1" t="str">
         <f>MID($F160,21,6)</f>
-        <v>0.0759</v>
+        <v>0.5721</v>
       </c>
       <c r="J160" s="1" t="str">
         <f>MID($F160,28,7)</f>
-        <v xml:space="preserve"> 105.03</v>
+        <v xml:space="preserve"> 246.76</v>
       </c>
       <c r="K160" s="1" t="str">
         <f>MID($F160,36,6)</f>
-        <v>55 46.</v>
+        <v>22 0.7</v>
       </c>
       <c r="L160" s="1" t="str">
         <f>MID($F160,43,8)</f>
-        <v>34 &lt; 2e-</v>
+        <v>5 0.451</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B161" s="99"/>
       <c r="C161" s="14"/>
       <c r="E161" s="1" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="F161" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>seasonMonsoon 0.74075 0.13713 239.70630 5.402 1.59e-07 ***</v>
-      </c>
-    </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.2">
+        <v>pH 0.43366 0.09565 241.82204 4.534 9.12e-06 ***</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" ht="19" x14ac:dyDescent="0.2">
       <c r="B162" s="99"/>
       <c r="C162" s="14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="F162" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) -1.7584 0.7085 251.4462 -2.482 0.0137 *</v>
+        <v>(Intercept) 3.49555 0.07593 105.03855 46.034 &lt; 2e-16 ***</v>
       </c>
       <c r="G162" s="1" t="str">
         <f>MID($F162,2,9)</f>
@@ -9755,440 +9766,440 @@
       </c>
       <c r="H162" s="1" t="str">
         <f>MID($F162,13,7)</f>
-        <v>-1.7584</v>
+        <v>3.49555</v>
       </c>
       <c r="I162" s="1" t="str">
         <f>MID($F162,21,6)</f>
-        <v>0.7085</v>
+        <v>0.0759</v>
       </c>
       <c r="J162" s="1" t="str">
         <f>MID($F162,28,7)</f>
-        <v>251.446</v>
+        <v xml:space="preserve"> 105.03</v>
       </c>
       <c r="K162" s="1" t="str">
         <f>MID($F162,36,6)</f>
-        <v xml:space="preserve"> -2.48</v>
+        <v>55 46.</v>
       </c>
       <c r="L162" s="1" t="str">
         <f>MID($F162,43,8)</f>
-        <v xml:space="preserve"> 0.0137 </v>
-      </c>
-    </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.2">
+        <v>34 &lt; 2e-</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B163" s="99"/>
       <c r="C163" s="14"/>
       <c r="E163" s="1" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="F163" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>seasonMonsoon 1.4475 0.1930 226.5827 7.498 1.45e-12 ***</v>
-      </c>
-    </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.74075 0.13713 239.70630 5.402 1.59e-07 ***</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B164" s="99"/>
-      <c r="C164" s="14"/>
+      <c r="C164" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E164" s="1" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="F164" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pH 0.4805 0.1201 249.1696 4.002 8.30e-05 ***</v>
-      </c>
-    </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) -1.7584 0.7085 251.4462 -2.482 0.0137 *</v>
+      </c>
+      <c r="G164" s="1" t="str">
+        <f>MID($F164,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H164" s="1" t="str">
+        <f>MID($F164,13,7)</f>
+        <v>-1.7584</v>
+      </c>
+      <c r="I164" s="1" t="str">
+        <f>MID($F164,21,6)</f>
+        <v>0.7085</v>
+      </c>
+      <c r="J164" s="1" t="str">
+        <f>MID($F164,28,7)</f>
+        <v>251.446</v>
+      </c>
+      <c r="K164" s="1" t="str">
+        <f>MID($F164,36,6)</f>
+        <v xml:space="preserve"> -2.48</v>
+      </c>
+      <c r="L164" s="1" t="str">
+        <f>MID($F164,43,8)</f>
+        <v xml:space="preserve"> 0.0137 </v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B165" s="99"/>
-      <c r="C165" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C165" s="14"/>
       <c r="E165" s="1" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="F165" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) -1.6275 0.4264 254.4827 -3.817 0.00017 ***</v>
-      </c>
-      <c r="G165" s="1" t="str">
-        <f>MID($F165,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H165" s="1" t="str">
-        <f>MID($F165,13,7)</f>
-        <v>-1.6275</v>
-      </c>
-      <c r="I165" s="1" t="str">
-        <f>MID($F165,21,6)</f>
-        <v>0.4264</v>
-      </c>
-      <c r="J165" s="1" t="str">
-        <f>MID($F165,28,7)</f>
-        <v>254.482</v>
-      </c>
-      <c r="K165" s="1" t="str">
-        <f>MID($F165,36,6)</f>
-        <v xml:space="preserve"> -3.81</v>
-      </c>
-      <c r="L165" s="1" t="str">
-        <f>MID($F165,43,8)</f>
-        <v xml:space="preserve"> 0.00017</v>
-      </c>
-    </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 1.4475 0.1930 226.5827 7.498 1.45e-12 ***</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B166" s="99"/>
       <c r="C166" s="14"/>
       <c r="E166" s="1" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="F166" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>seasonMonsoon 0.5891 0.1150 241.4263 5.122 6.20e-07 ***</v>
-      </c>
-    </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.2">
+        <v>pH 0.4805 0.1201 249.1696 4.002 8.30e-05 ***</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B167" s="99"/>
-      <c r="C167" s="14"/>
+      <c r="C167" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E167" s="1" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="F167" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pH 0.3332 0.0703 254.9298 4.739 3.56e-06 ***</v>
-      </c>
-    </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) -1.6275 0.4264 254.4827 -3.817 0.00017 ***</v>
+      </c>
+      <c r="G167" s="1" t="str">
+        <f>MID($F167,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H167" s="1" t="str">
+        <f>MID($F167,13,7)</f>
+        <v>-1.6275</v>
+      </c>
+      <c r="I167" s="1" t="str">
+        <f>MID($F167,21,6)</f>
+        <v>0.4264</v>
+      </c>
+      <c r="J167" s="1" t="str">
+        <f>MID($F167,28,7)</f>
+        <v>254.482</v>
+      </c>
+      <c r="K167" s="1" t="str">
+        <f>MID($F167,36,6)</f>
+        <v xml:space="preserve"> -3.81</v>
+      </c>
+      <c r="L167" s="1" t="str">
+        <f>MID($F167,43,8)</f>
+        <v xml:space="preserve"> 0.00017</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B168" s="99"/>
       <c r="C168" s="14"/>
       <c r="E168" s="1" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="F168" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>locationSouth 0.5045 0.1214 83.6244 4.156 7.78e-05 ***</v>
-      </c>
-    </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.5891 0.1150 241.4263 5.122 6.20e-07 ***</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B169" s="99"/>
-      <c r="C169" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C169" s="14"/>
       <c r="E169" s="1" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="F169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) -3.02388 0.37271 247.58755 -8.113 2.30e-14 ***</v>
-      </c>
-      <c r="G169" s="1" t="str">
-        <f>MID($F169,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H169" s="1" t="str">
-        <f>MID($F169,13,7)</f>
-        <v>-3.0238</v>
-      </c>
-      <c r="I169" s="1" t="str">
-        <f>MID($F169,21,6)</f>
-        <v xml:space="preserve"> 0.372</v>
-      </c>
-      <c r="J169" s="1" t="str">
-        <f>MID($F169,28,7)</f>
-        <v>1 247.5</v>
-      </c>
-      <c r="K169" s="1" t="str">
-        <f>MID($F169,36,6)</f>
-        <v>755 -8</v>
-      </c>
-      <c r="L169" s="1" t="str">
-        <f>MID($F169,43,8)</f>
-        <v>113 2.30</v>
-      </c>
-    </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.2">
+        <v>pH 0.3332 0.0703 254.9298 4.739 3.56e-06 ***</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B170" s="99"/>
       <c r="C170" s="14"/>
       <c r="E170" s="1" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="F170" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>seasonMonsoon 0.68908 0.10057 219.77193 6.852 7.23e-11 ***</v>
-      </c>
-    </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.2">
+        <v>locationSouth 0.5045 0.1214 83.6244 4.156 7.78e-05 ***</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B171" s="99"/>
-      <c r="C171" s="14"/>
+      <c r="C171" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E171" s="1" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="F171" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pH 0.44757 0.06306 243.45325 7.097 1.38e-11 ***</v>
-      </c>
-    </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) -3.02388 0.37271 247.58755 -8.113 2.30e-14 ***</v>
+      </c>
+      <c r="G171" s="1" t="str">
+        <f>MID($F171,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H171" s="1" t="str">
+        <f>MID($F171,13,7)</f>
+        <v>-3.0238</v>
+      </c>
+      <c r="I171" s="1" t="str">
+        <f>MID($F171,21,6)</f>
+        <v xml:space="preserve"> 0.372</v>
+      </c>
+      <c r="J171" s="1" t="str">
+        <f>MID($F171,28,7)</f>
+        <v>1 247.5</v>
+      </c>
+      <c r="K171" s="1" t="str">
+        <f>MID($F171,36,6)</f>
+        <v>755 -8</v>
+      </c>
+      <c r="L171" s="1" t="str">
+        <f>MID($F171,43,8)</f>
+        <v>113 2.30</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B172" s="99"/>
-      <c r="C172" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C172" s="14"/>
       <c r="E172" s="1" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="F172" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) -1.9694 0.7565 252.5795 -2.603 0.00978 **</v>
-      </c>
-      <c r="G172" s="1" t="str">
-        <f>MID($F172,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H172" s="1" t="str">
-        <f>MID($F172,13,7)</f>
-        <v>-1.9694</v>
-      </c>
-      <c r="I172" s="1" t="str">
-        <f>MID($F172,21,6)</f>
-        <v>0.7565</v>
-      </c>
-      <c r="J172" s="1" t="str">
-        <f>MID($F172,28,7)</f>
-        <v>252.579</v>
-      </c>
-      <c r="K172" s="1" t="str">
-        <f>MID($F172,36,6)</f>
-        <v xml:space="preserve"> -2.60</v>
-      </c>
-      <c r="L172" s="1" t="str">
-        <f>MID($F172,43,8)</f>
-        <v xml:space="preserve"> 0.00978</v>
-      </c>
-    </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.68908 0.10057 219.77193 6.852 7.23e-11 ***</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B173" s="99"/>
       <c r="C173" s="14"/>
       <c r="E173" s="1" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="F173" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>seasonMonsoon 0.5647 0.2098 219.0717 2.692 0.00764 **</v>
-      </c>
-    </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.2">
+        <v>pH 0.44757 0.06306 243.45325 7.097 1.38e-11 ***</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B174" s="99"/>
-      <c r="C174" s="14"/>
+      <c r="C174" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E174" s="1" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="F174" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>prox.normal -0.3465 0.1316 84.0093 -2.632 0.01009 *</v>
-      </c>
-    </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.2">
+        <v>(Intercept) -1.9694 0.7565 252.5795 -2.603 0.00978 **</v>
+      </c>
+      <c r="G174" s="1" t="str">
+        <f>MID($F174,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H174" s="1" t="str">
+        <f>MID($F174,13,7)</f>
+        <v>-1.9694</v>
+      </c>
+      <c r="I174" s="1" t="str">
+        <f>MID($F174,21,6)</f>
+        <v>0.7565</v>
+      </c>
+      <c r="J174" s="1" t="str">
+        <f>MID($F174,28,7)</f>
+        <v>252.579</v>
+      </c>
+      <c r="K174" s="1" t="str">
+        <f>MID($F174,36,6)</f>
+        <v xml:space="preserve"> -2.60</v>
+      </c>
+      <c r="L174" s="1" t="str">
+        <f>MID($F174,43,8)</f>
+        <v xml:space="preserve"> 0.00978</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B175" s="99"/>
       <c r="C175" s="14"/>
       <c r="E175" s="1" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="F175" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pH 0.2761 0.1283 251.1888 2.152 0.03235 *</v>
-      </c>
-    </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.5647 0.2098 219.0717 2.692 0.00764 **</v>
+      </c>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B176" s="99"/>
-      <c r="C176" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C176" s="14"/>
       <c r="E176" s="1" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="F176" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) -1.89082 0.30815 249.37050 -6.136 3.30e-09 ***</v>
-      </c>
-      <c r="G176" s="1" t="str">
-        <f>MID($F176,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H176" s="1" t="str">
-        <f>MID($F176,13,7)</f>
-        <v>-1.8908</v>
-      </c>
-      <c r="I176" s="1" t="str">
-        <f>MID($F176,21,6)</f>
-        <v xml:space="preserve"> 0.308</v>
-      </c>
-      <c r="J176" s="1" t="str">
-        <f>MID($F176,28,7)</f>
-        <v>5 249.3</v>
-      </c>
-      <c r="K176" s="1" t="str">
-        <f>MID($F176,36,6)</f>
-        <v>050 -6</v>
-      </c>
-      <c r="L176" s="1" t="str">
-        <f>MID($F176,43,8)</f>
-        <v>136 3.30</v>
+        <v>prox.normal -0.3465 0.1316 84.0093 -2.632 0.01009 *</v>
       </c>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B177" s="99"/>
       <c r="C177" s="14"/>
       <c r="E177" s="1" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="F177" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>seasonMonsoon 0.20081 0.08388 235.16744 2.394 0.017451 *</v>
+        <v>pH 0.2761 0.1283 251.1888 2.152 0.03235 *</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B178" s="99"/>
-      <c r="C178" s="14"/>
+      <c r="C178" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E178" s="1" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="F178" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pH 0.21368 0.05109 250.94584 4.182 3.99e-05 ***</v>
+        <v>(Intercept) -1.89082 0.30815 249.37050 -6.136 3.30e-09 ***</v>
+      </c>
+      <c r="G178" s="1" t="str">
+        <f>MID($F178,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H178" s="1" t="str">
+        <f>MID($F178,13,7)</f>
+        <v>-1.8908</v>
+      </c>
+      <c r="I178" s="1" t="str">
+        <f>MID($F178,21,6)</f>
+        <v xml:space="preserve"> 0.308</v>
+      </c>
+      <c r="J178" s="1" t="str">
+        <f>MID($F178,28,7)</f>
+        <v>5 249.3</v>
+      </c>
+      <c r="K178" s="1" t="str">
+        <f>MID($F178,36,6)</f>
+        <v>050 -6</v>
+      </c>
+      <c r="L178" s="1" t="str">
+        <f>MID($F178,43,8)</f>
+        <v>136 3.30</v>
       </c>
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B179" s="99"/>
       <c r="C179" s="14"/>
       <c r="E179" s="1" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="F179" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>wardTwo -0.61591 0.20580 89.27312 -2.993 0.003574 **</v>
+        <v>seasonMonsoon 0.20081 0.08388 235.16744 2.394 0.017451 *</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B180" s="99"/>
       <c r="C180" s="14"/>
       <c r="E180" s="1" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="F180" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>wardThree 0.11731 0.13936 76.75453 0.842 0.402512</v>
+        <v>pH 0.21368 0.05109 250.94584 4.182 3.99e-05 ***</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B181" s="99"/>
       <c r="C181" s="14"/>
       <c r="E181" s="1" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="F181" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>wardFour -0.19309 0.25285 80.90980 -0.764 0.447313</v>
+        <v>wardTwo -0.61591 0.20580 89.27312 -2.993 0.003574 **</v>
       </c>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B182" s="99"/>
       <c r="C182" s="14"/>
       <c r="E182" s="1" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="F182" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>wardFive 0.38965 0.10249 71.59569 3.802 0.000299 ***</v>
+        <v>wardThree 0.11731 0.13936 76.75453 0.842 0.402512</v>
       </c>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B183" s="99"/>
       <c r="C183" s="14"/>
       <c r="E183" s="1" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="F183" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>wardSix 0.50461 0.16140 87.00145 3.126 0.002406 **</v>
-      </c>
-    </row>
-    <row r="184" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+        <v>wardFour -0.19309 0.25285 80.90980 -0.764 0.447313</v>
+      </c>
+    </row>
+    <row r="184" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B184" s="99"/>
-      <c r="C184" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="C184" s="14"/>
       <c r="E184" s="1" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="F184" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) 0.17866 0.05805 3.078 0.00231 **</v>
-      </c>
-      <c r="G184" s="1" t="str">
-        <f>MID($F184,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H184" s="1" t="str">
-        <f>MID($F184,13,7)</f>
-        <v>0.17866</v>
-      </c>
-      <c r="I184" s="1" t="str">
-        <f>MID($F184,21,6)</f>
-        <v>0.0580</v>
-      </c>
-      <c r="J184" s="1" t="str">
-        <f>MID($F184,28,7)</f>
-        <v xml:space="preserve"> 3.078 </v>
-      </c>
-      <c r="K184" s="1" t="str">
-        <f>MID($F184,36,6)</f>
-        <v>.00231</v>
-      </c>
-      <c r="L184" s="1" t="str">
-        <f>MID($F184,43,8)</f>
-        <v>**</v>
-      </c>
-      <c r="M184" s="1" t="s">
-        <v>417</v>
+        <v>wardFive 0.38965 0.10249 71.59569 3.802 0.000299 ***</v>
       </c>
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B185" s="99"/>
       <c r="C185" s="14"/>
       <c r="E185" s="1" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="F185" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>seasonMonsoon 0.62432 0.12268 5.089 6.95e-07 ***</v>
+        <v>wardSix 0.50461 0.16140 87.00145 3.126 0.002406 **</v>
       </c>
     </row>
     <row r="186" spans="2:13" ht="19" x14ac:dyDescent="0.2">
       <c r="B186" s="99"/>
       <c r="C186" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="F186" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) -2.33770 0.08255 104.24847 -28.320 &lt; 2e-16 ***</v>
+        <v>(Intercept) 0.17866 0.05805 3.078 0.00231 **</v>
       </c>
       <c r="G186" s="1" t="str">
         <f>MID($F186,2,9)</f>
@@ -10196,53 +10207,53 @@
       </c>
       <c r="H186" s="1" t="str">
         <f>MID($F186,13,7)</f>
-        <v>-2.3377</v>
+        <v>0.17866</v>
       </c>
       <c r="I186" s="1" t="str">
         <f>MID($F186,21,6)</f>
-        <v xml:space="preserve"> 0.082</v>
+        <v>0.0580</v>
       </c>
       <c r="J186" s="1" t="str">
         <f>MID($F186,28,7)</f>
-        <v>5 104.2</v>
+        <v xml:space="preserve"> 3.078 </v>
       </c>
       <c r="K186" s="1" t="str">
         <f>MID($F186,36,6)</f>
-        <v>847 -2</v>
+        <v>.00231</v>
       </c>
       <c r="L186" s="1" t="str">
         <f>MID($F186,43,8)</f>
-        <v>.320 &lt; 2</v>
+        <v>**</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B187" s="99"/>
       <c r="C187" s="14"/>
       <c r="E187" s="1" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="F187" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>seasonMonsoon 0.75588 0.14141 235.15460 5.345 2.13e-07 ***</v>
-      </c>
-    </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.62432 0.12268 5.089 6.95e-07 ***</v>
+      </c>
+    </row>
+    <row r="188" spans="2:13" ht="19" x14ac:dyDescent="0.2">
       <c r="B188" s="99"/>
       <c r="C188" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="F188" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) -1.01499 0.40875 253.90440 -2.483 0.01367 *</v>
+        <v>(Intercept) -2.33770 0.08255 104.24847 -28.320 &lt; 2e-16 ***</v>
       </c>
       <c r="G188" s="1" t="str">
         <f>MID($F188,2,9)</f>
@@ -10250,334 +10261,264 @@
       </c>
       <c r="H188" s="1" t="str">
         <f>MID($F188,13,7)</f>
-        <v>-1.0149</v>
+        <v>-2.3377</v>
       </c>
       <c r="I188" s="1" t="str">
         <f>MID($F188,21,6)</f>
-        <v xml:space="preserve"> 0.408</v>
+        <v xml:space="preserve"> 0.082</v>
       </c>
       <c r="J188" s="1" t="str">
         <f>MID($F188,28,7)</f>
-        <v>5 253.9</v>
+        <v>5 104.2</v>
       </c>
       <c r="K188" s="1" t="str">
         <f>MID($F188,36,6)</f>
-        <v>440 -2</v>
+        <v>847 -2</v>
       </c>
       <c r="L188" s="1" t="str">
         <f>MID($F188,43,8)</f>
-        <v>483 0.01</v>
+        <v>.320 &lt; 2</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B189" s="99"/>
       <c r="C189" s="14"/>
       <c r="E189" s="1" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="F189" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>seasonMonsoon 0.59444 0.11091 244.31268 5.360 1.93e-07 ***</v>
+        <v>seasonMonsoon 0.75588 0.14141 235.15460 5.345 2.13e-07 ***</v>
       </c>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B190" s="99"/>
-      <c r="C190" s="14"/>
+      <c r="C190" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E190" s="1" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="F190" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pH 0.22849 0.06747 254.96644 3.386 0.00082 ***</v>
+        <v>(Intercept) -1.01499 0.40875 253.90440 -2.483 0.01367 *</v>
+      </c>
+      <c r="G190" s="1" t="str">
+        <f>MID($F190,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H190" s="1" t="str">
+        <f>MID($F190,13,7)</f>
+        <v>-1.0149</v>
+      </c>
+      <c r="I190" s="1" t="str">
+        <f>MID($F190,21,6)</f>
+        <v xml:space="preserve"> 0.408</v>
+      </c>
+      <c r="J190" s="1" t="str">
+        <f>MID($F190,28,7)</f>
+        <v>5 253.9</v>
+      </c>
+      <c r="K190" s="1" t="str">
+        <f>MID($F190,36,6)</f>
+        <v>440 -2</v>
+      </c>
+      <c r="L190" s="1" t="str">
+        <f>MID($F190,43,8)</f>
+        <v>483 0.01</v>
       </c>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B191" s="99"/>
       <c r="C191" s="14"/>
       <c r="E191" s="1" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="F191" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>locationSouth 0.31027 0.11310 86.63036 2.743 0.00739 **</v>
-      </c>
-    </row>
-    <row r="192" spans="2:13" ht="19" x14ac:dyDescent="0.2">
+        <v>seasonMonsoon 0.59444 0.11091 244.31268 5.360 1.93e-07 ***</v>
+      </c>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B192" s="99"/>
-      <c r="C192" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="C192" s="14"/>
       <c r="E192" s="1" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="F192" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>(Intercept) 3.21521 0.57684 244.49038 5.574 6.57e-08 ***</v>
-      </c>
-      <c r="G192" s="1" t="str">
-        <f>MID($F192,2,9)</f>
-        <v>Intercept</v>
-      </c>
-      <c r="H192" s="1" t="str">
-        <f>MID($F192,13,7)</f>
-        <v>3.21521</v>
-      </c>
-      <c r="I192" s="1" t="str">
-        <f>MID($F192,21,6)</f>
-        <v>0.5768</v>
-      </c>
-      <c r="J192" s="1" t="str">
-        <f>MID($F192,28,7)</f>
-        <v xml:space="preserve"> 244.49</v>
-      </c>
-      <c r="K192" s="1" t="str">
-        <f>MID($F192,36,6)</f>
-        <v>38 5.5</v>
-      </c>
-      <c r="L192" s="1" t="str">
-        <f>MID($F192,43,8)</f>
-        <v>4 6.57e-</v>
-      </c>
-      <c r="M192" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="193" spans="3:40" x14ac:dyDescent="0.2">
+        <v>pH 0.22849 0.06747 254.96644 3.386 0.00082 ***</v>
+      </c>
+    </row>
+    <row r="193" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B193" s="99"/>
       <c r="C193" s="14"/>
       <c r="E193" s="1" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="F193" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pH 0.35161 0.08916 204.93527 3.944 0.00011 ***</v>
-      </c>
-    </row>
-    <row r="194" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C194" s="15"/>
+        <v>locationSouth 0.31027 0.11310 86.63036 2.743 0.00739 **</v>
+      </c>
+    </row>
+    <row r="194" spans="2:40" ht="19" x14ac:dyDescent="0.2">
+      <c r="B194" s="99"/>
+      <c r="C194" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E194" s="1" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="F194" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>(Intercept) 3.21521 0.57684 244.49038 5.574 6.57e-08 ***</v>
+      </c>
+      <c r="G194" s="1" t="str">
+        <f>MID($F194,2,9)</f>
+        <v>Intercept</v>
+      </c>
+      <c r="H194" s="1" t="str">
+        <f>MID($F194,13,7)</f>
+        <v>3.21521</v>
+      </c>
+      <c r="I194" s="1" t="str">
+        <f>MID($F194,21,6)</f>
+        <v>0.5768</v>
+      </c>
+      <c r="J194" s="1" t="str">
+        <f>MID($F194,28,7)</f>
+        <v xml:space="preserve"> 244.49</v>
+      </c>
+      <c r="K194" s="1" t="str">
+        <f>MID($F194,36,6)</f>
+        <v>38 5.5</v>
+      </c>
+      <c r="L194" s="1" t="str">
+        <f>MID($F194,43,8)</f>
+        <v>4 6.57e-</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="195" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C195" s="14"/>
+      <c r="E195" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F195" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>pH 0.35161 0.08916 204.93527 3.944 0.00011 ***</v>
+      </c>
+    </row>
+    <row r="196" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C196" s="15"/>
+      <c r="E196" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F196" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>locationSouth -0.74187 0.28481 78.94315 -2.605 0.01098 *</v>
       </c>
     </row>
-    <row r="202" spans="3:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U202" s="89" t="s">
-        <v>535</v>
-      </c>
-      <c r="V202" s="89"/>
-      <c r="W202" s="89"/>
-      <c r="X202" s="89"/>
-      <c r="Y202" s="89"/>
-      <c r="Z202" s="89"/>
-      <c r="AA202" s="89"/>
-      <c r="AB202" s="89"/>
-      <c r="AC202" s="89"/>
-      <c r="AD202" s="89"/>
-      <c r="AE202" s="89"/>
-      <c r="AF202" s="89"/>
-      <c r="AG202" s="89"/>
-      <c r="AH202" s="89"/>
-      <c r="AI202" s="89"/>
-      <c r="AJ202" s="89"/>
-      <c r="AK202" s="89"/>
-      <c r="AL202" s="89"/>
-      <c r="AM202" s="89"/>
-      <c r="AN202" s="89"/>
-    </row>
-    <row r="203" spans="3:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="U203" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="V203" s="13" t="s">
+    <row r="204" spans="2:40" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U204" s="81" t="s">
+        <v>520</v>
+      </c>
+      <c r="V204" s="81"/>
+      <c r="W204" s="81"/>
+      <c r="X204" s="81"/>
+      <c r="Y204" s="81"/>
+      <c r="Z204" s="81"/>
+      <c r="AA204" s="81"/>
+      <c r="AB204" s="81"/>
+      <c r="AC204" s="81"/>
+      <c r="AD204" s="81"/>
+      <c r="AE204" s="81"/>
+      <c r="AF204" s="81"/>
+      <c r="AG204" s="81"/>
+      <c r="AH204" s="81"/>
+      <c r="AI204" s="81"/>
+      <c r="AJ204" s="81"/>
+      <c r="AK204" s="81"/>
+      <c r="AL204" s="81"/>
+      <c r="AM204" s="81"/>
+      <c r="AN204" s="81"/>
+    </row>
+    <row r="205" spans="2:40" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="U205" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="V205" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W203" s="13" t="s">
+      <c r="W205" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X203" s="13" t="s">
+      <c r="X205" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y203" s="13" t="s">
+      <c r="Y205" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z203" s="13" t="s">
+      <c r="Z205" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA203" s="13" t="s">
+      <c r="AA205" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AB203" s="13" t="s">
+      <c r="AB205" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC203" s="13" t="s">
+      <c r="AC205" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD203" s="13" t="s">
+      <c r="AD205" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AE203" s="13" t="s">
+      <c r="AE205" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF203" s="13" t="s">
+      <c r="AF205" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG203" s="13" t="s">
+      <c r="AG205" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH203" s="13" t="s">
+      <c r="AH205" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AI203" s="13" t="s">
+      <c r="AI205" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ203" s="13" t="s">
+      <c r="AJ205" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AK203" s="13" t="s">
+      <c r="AK205" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AL203" s="13" t="s">
+      <c r="AL205" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AM203" s="13" t="s">
+      <c r="AM205" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AN203" s="13" t="s">
+      <c r="AN205" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="U204" s="1" t="s">
+    <row r="206" spans="2:40" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U206" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="V204" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="W204" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="X204" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="Y204" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="Z204" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA204" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AB204" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AC204" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD204" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE204" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AF204" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AG204" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH204" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AI204" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ204" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK204" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL204" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM204" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AN204" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="205" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="U205" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="W205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="X205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y205" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG205" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AH205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK205" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AL205" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM205" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AN205" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="206" spans="3:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="U206" s="25" t="s">
-        <v>532</v>
       </c>
       <c r="V206" s="1" t="s">
         <v>273</v>
@@ -10586,19 +10527,19 @@
         <v>273</v>
       </c>
       <c r="X206" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="Y206" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="Z206" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AA206" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AB206" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AC206" s="1" t="s">
         <v>273</v>
@@ -10607,16 +10548,16 @@
         <v>273</v>
       </c>
       <c r="AE206" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AF206" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AG206" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AH206" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AI206" s="1" t="s">
         <v>273</v>
@@ -10631,291 +10572,292 @@
         <v>273</v>
       </c>
       <c r="AM206" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AN206" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="207" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="U207" s="13" t="s">
+    <row r="207" spans="2:40" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U207" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y207" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG207" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AH207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK207" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AL207" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM207" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AN207" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="208" spans="2:40" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U208" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="V208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN208" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="209" spans="21:40" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U209" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V207" s="13"/>
-      <c r="W207" s="13"/>
-      <c r="X207" s="13"/>
-      <c r="Y207" s="13"/>
-      <c r="Z207" s="13"/>
-      <c r="AA207" s="13"/>
-      <c r="AB207" s="13"/>
-      <c r="AC207" s="13"/>
-      <c r="AD207" s="13"/>
-      <c r="AE207" s="13"/>
-      <c r="AF207" s="13"/>
-      <c r="AG207" s="13"/>
-      <c r="AH207" s="13"/>
-      <c r="AI207" s="13"/>
-      <c r="AJ207" s="13"/>
-      <c r="AK207" s="13"/>
-      <c r="AL207" s="13"/>
-      <c r="AM207" s="13"/>
-      <c r="AN207" s="13"/>
-    </row>
-    <row r="209" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U209" s="89" t="s">
-        <v>536</v>
-      </c>
-      <c r="V209" s="89"/>
-      <c r="W209" s="89"/>
-      <c r="X209" s="89"/>
-      <c r="Y209" s="89"/>
-      <c r="Z209" s="89"/>
-      <c r="AA209" s="89"/>
-      <c r="AB209" s="89"/>
-      <c r="AC209" s="89"/>
-      <c r="AD209" s="89"/>
-      <c r="AE209" s="89"/>
-      <c r="AF209" s="89"/>
-      <c r="AG209" s="89"/>
-      <c r="AH209" s="89"/>
-      <c r="AI209" s="89"/>
-      <c r="AJ209" s="89"/>
-      <c r="AK209" s="89"/>
-      <c r="AL209" s="89"/>
-      <c r="AM209" s="89"/>
-      <c r="AN209" s="89"/>
-    </row>
-    <row r="210" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="U210" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="V210" s="13" t="s">
+      <c r="V209" s="13"/>
+      <c r="W209" s="13"/>
+      <c r="X209" s="13"/>
+      <c r="Y209" s="13"/>
+      <c r="Z209" s="13"/>
+      <c r="AA209" s="13"/>
+      <c r="AB209" s="13"/>
+      <c r="AC209" s="13"/>
+      <c r="AD209" s="13"/>
+      <c r="AE209" s="13"/>
+      <c r="AF209" s="13"/>
+      <c r="AG209" s="13"/>
+      <c r="AH209" s="13"/>
+      <c r="AI209" s="13"/>
+      <c r="AJ209" s="13"/>
+      <c r="AK209" s="13"/>
+      <c r="AL209" s="13"/>
+      <c r="AM209" s="13"/>
+      <c r="AN209" s="13"/>
+    </row>
+    <row r="210" spans="21:40" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="211" spans="21:40" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U211" s="81" t="s">
+        <v>521</v>
+      </c>
+      <c r="V211" s="81"/>
+      <c r="W211" s="81"/>
+      <c r="X211" s="81"/>
+      <c r="Y211" s="81"/>
+      <c r="Z211" s="81"/>
+      <c r="AA211" s="81"/>
+      <c r="AB211" s="81"/>
+      <c r="AC211" s="81"/>
+      <c r="AD211" s="81"/>
+      <c r="AE211" s="81"/>
+      <c r="AF211" s="81"/>
+      <c r="AG211" s="81"/>
+      <c r="AH211" s="81"/>
+      <c r="AI211" s="81"/>
+      <c r="AJ211" s="81"/>
+      <c r="AK211" s="81"/>
+      <c r="AL211" s="81"/>
+      <c r="AM211" s="81"/>
+      <c r="AN211" s="81"/>
+    </row>
+    <row r="212" spans="21:40" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="U212" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="V212" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W210" s="13" t="s">
+      <c r="W212" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X210" s="13" t="s">
+      <c r="X212" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y210" s="13" t="s">
+      <c r="Y212" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z210" s="13" t="s">
+      <c r="Z212" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA210" s="13" t="s">
+      <c r="AA212" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AB210" s="13" t="s">
+      <c r="AB212" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC210" s="13" t="s">
+      <c r="AC212" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD210" s="13" t="s">
+      <c r="AD212" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AE210" s="13" t="s">
+      <c r="AE212" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF210" s="13" t="s">
+      <c r="AF212" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG210" s="13" t="s">
+      <c r="AG212" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH210" s="13" t="s">
+      <c r="AH212" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AI210" s="13" t="s">
+      <c r="AI212" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ210" s="13" t="s">
+      <c r="AJ212" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AK210" s="13" t="s">
+      <c r="AK212" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AL210" s="13" t="s">
+      <c r="AL212" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AM210" s="13" t="s">
+      <c r="AM212" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AN210" s="13" t="s">
+      <c r="AN212" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="21:40" x14ac:dyDescent="0.2">
-      <c r="U211" s="1" t="s">
+    <row r="213" spans="21:40" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U213" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V211" s="1" t="s">
+      <c r="V213" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="W211" s="1" t="s">
+      <c r="W213" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="X211" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="Y211" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="Z211" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AA211" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AB211" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AC211" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AE211" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF211" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AG211" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AH211" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AI211" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AJ211" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK211" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL211" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AM211" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AN211" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="212" spans="21:40" x14ac:dyDescent="0.2">
-      <c r="U212" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V212" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="W212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="X212" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="Y212" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG212" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AH212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM212" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AN212" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="213" spans="21:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="U213" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="V213" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="W213" s="1" t="s">
-        <v>537</v>
-      </c>
       <c r="X213" s="1" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="Y213" s="1" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="Z213" s="1" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="AA213" s="1" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="AB213" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AC213" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AD213" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AE213" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AF213" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AG213" s="1" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="AH213" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AI213" s="1" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="AJ213" s="1" t="s">
         <v>273</v>
@@ -10924,724 +10866,674 @@
         <v>273</v>
       </c>
       <c r="AL213" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AM213" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN213" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="214" spans="21:40" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U214" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V214" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="W214" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AM213" s="1" t="s">
+      <c r="X214" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y214" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z214" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AN213" s="1" t="s">
+      <c r="AA214" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="214" spans="21:40" s="25" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U214" s="26" t="s">
+      <c r="AB214" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC214" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD214" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE214" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF214" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG214" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AH214" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI214" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ214" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK214" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL214" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM214" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN214" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="215" spans="21:40" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U215" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="W215" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="X215" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y215" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z215" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA215" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AB215" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC215" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD215" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE215" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF215" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG215" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AH215" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI215" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AJ215" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK215" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL215" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM215" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN215" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="216" spans="21:40" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U216" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="V216" s="25" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="217" spans="21:40" s="25" customFormat="1" ht="46" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U217" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="V214" s="26"/>
-      <c r="W214" s="26"/>
-      <c r="X214" s="26"/>
-      <c r="Y214" s="26"/>
-      <c r="Z214" s="26"/>
-      <c r="AA214" s="26"/>
-      <c r="AB214" s="26"/>
-      <c r="AC214" s="26"/>
-      <c r="AD214" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE214" s="26"/>
-      <c r="AF214" s="26"/>
-      <c r="AG214" s="26"/>
-      <c r="AH214" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="AI214" s="26"/>
-      <c r="AJ214" s="26"/>
-      <c r="AK214" s="26"/>
-      <c r="AL214" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="AM214" s="26"/>
-      <c r="AN214" s="26" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="216" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U216" s="89" t="s">
-        <v>538</v>
-      </c>
-      <c r="V216" s="89"/>
-      <c r="W216" s="89"/>
-      <c r="X216" s="89"/>
-      <c r="Y216" s="89"/>
-      <c r="Z216" s="89"/>
-      <c r="AA216" s="89"/>
-      <c r="AB216" s="89"/>
-      <c r="AC216" s="89"/>
-      <c r="AD216" s="89"/>
-      <c r="AE216" s="89"/>
-      <c r="AF216" s="89"/>
-      <c r="AG216" s="89"/>
-      <c r="AH216" s="89"/>
-      <c r="AI216" s="89"/>
-      <c r="AJ216" s="89"/>
-      <c r="AK216" s="89"/>
-      <c r="AL216" s="89"/>
-      <c r="AM216" s="89"/>
-      <c r="AN216" s="89"/>
-    </row>
-    <row r="217" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="U217" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="V217" s="13" t="s">
+      <c r="V217" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="W217" s="26"/>
+      <c r="X217" s="26"/>
+      <c r="Y217" s="26"/>
+      <c r="Z217" s="26"/>
+      <c r="AA217" s="26"/>
+      <c r="AB217" s="26"/>
+      <c r="AC217" s="26"/>
+      <c r="AD217" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE217" s="26"/>
+      <c r="AF217" s="26"/>
+      <c r="AG217" s="26"/>
+      <c r="AH217" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="AI217" s="26"/>
+      <c r="AJ217" s="26"/>
+      <c r="AK217" s="26"/>
+      <c r="AL217" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM217" s="26"/>
+      <c r="AN217" s="26" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="218" spans="21:40" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="219" spans="21:40" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U219" s="81" t="s">
+        <v>523</v>
+      </c>
+      <c r="V219" s="81"/>
+      <c r="W219" s="81"/>
+      <c r="X219" s="81"/>
+      <c r="Y219" s="81"/>
+      <c r="Z219" s="81"/>
+      <c r="AA219" s="81"/>
+      <c r="AB219" s="81"/>
+      <c r="AC219" s="81"/>
+      <c r="AD219" s="81"/>
+      <c r="AE219" s="81"/>
+      <c r="AF219" s="81"/>
+      <c r="AG219" s="81"/>
+      <c r="AH219" s="81"/>
+      <c r="AI219" s="81"/>
+      <c r="AJ219" s="81"/>
+      <c r="AK219" s="81"/>
+      <c r="AL219" s="81"/>
+      <c r="AM219" s="81"/>
+      <c r="AN219" s="81"/>
+    </row>
+    <row r="220" spans="21:40" ht="17" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="U220" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="V220" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W217" s="13" t="s">
+      <c r="W220" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X217" s="13" t="s">
+      <c r="X220" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y217" s="13" t="s">
+      <c r="Y220" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z217" s="13" t="s">
+      <c r="Z220" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA217" s="13" t="s">
+      <c r="AA220" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AB217" s="13" t="s">
+      <c r="AB220" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC217" s="13" t="s">
+      <c r="AC220" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD217" s="13" t="s">
+      <c r="AD220" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AE217" s="13" t="s">
+      <c r="AE220" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF217" s="13" t="s">
+      <c r="AF220" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG217" s="13" t="s">
+      <c r="AG220" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH217" s="13" t="s">
+      <c r="AH220" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AI217" s="13" t="s">
+      <c r="AI220" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ217" s="13" t="s">
+      <c r="AJ220" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AK217" s="13" t="s">
+      <c r="AK220" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AL217" s="13" t="s">
+      <c r="AL220" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AM217" s="13" t="s">
+      <c r="AM220" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AN217" s="13" t="s">
+      <c r="AN220" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="21:40" x14ac:dyDescent="0.2">
-      <c r="U218" s="1" t="s">
+    <row r="221" spans="21:40" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U221" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V218" s="1" t="s">
+      <c r="V221" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="W218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="X218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="Y218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AA218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AB218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AC218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AE218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AF218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AG218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AH218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AI218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AJ218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AK218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AL218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AM218" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AN218" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="219" spans="21:40" x14ac:dyDescent="0.2">
-      <c r="U219" s="1" t="s">
+      <c r="W221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="X221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="Z221" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AB221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AD221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AF221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AG221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AH221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AI221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AJ221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AK221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AM221" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN221" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="222" spans="21:40" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U222" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V219" s="1" t="s">
+      <c r="V222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="W219" s="1" t="s">
+      <c r="W222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="X219" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="Y219" s="1" t="s">
+      <c r="X222" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="Z219" s="1" t="s">
+      <c r="Z222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AA219" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AB219" s="1" t="s">
+      <c r="AA222" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AC219" s="1" t="s">
+      <c r="AC222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AD219" s="1" t="s">
+      <c r="AD222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AE219" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="AF219" s="1" t="s">
+      <c r="AE222" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AF222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AG219" s="1" t="s">
+      <c r="AG222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AH219" s="1" t="s">
+      <c r="AH222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AI219" s="1" t="s">
+      <c r="AI222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AJ219" s="1" t="s">
+      <c r="AJ222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AK219" s="1" t="s">
+      <c r="AK222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AL219" s="1" t="s">
+      <c r="AL222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AM219" s="1" t="s">
+      <c r="AM222" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AN219" s="1" t="s">
+      <c r="AN222" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="220" spans="21:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="U220" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="V220" s="1" t="s">
+    <row r="223" spans="21:40" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U223" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="V223" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="W220" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="X220" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="Y220" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="Z220" s="1" t="s">
+      <c r="W223" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="X223" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y223" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z223" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AA220" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="AB220" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="AC220" s="1" t="s">
+      <c r="AA223" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AB223" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC223" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AD220" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="AE220" s="1" t="s">
+      <c r="AD223" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE223" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AF220" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="AG220" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="AH220" s="1" t="s">
+      <c r="AF223" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG223" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AH223" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AI220" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="AJ220" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="AK220" s="1" t="s">
+      <c r="AI223" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AJ223" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AK223" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AL220" s="1" t="s">
+      <c r="AL223" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AM220" s="1" t="s">
+      <c r="AM223" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AN220" s="1" t="s">
+      <c r="AN223" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="221" spans="21:40" s="25" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U221" s="26" t="s">
+    <row r="224" spans="21:40" s="25" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U224" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="V221" s="26"/>
-      <c r="W221" s="26"/>
-      <c r="X221" s="26"/>
-      <c r="Y221" s="26"/>
-      <c r="Z221" s="26"/>
-      <c r="AA221" s="26"/>
-      <c r="AB221" s="26"/>
-      <c r="AC221" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="AD221" s="26"/>
-      <c r="AE221" s="26"/>
-      <c r="AF221" s="26"/>
-      <c r="AG221" s="26"/>
-      <c r="AH221" s="26"/>
-      <c r="AI221" s="26"/>
-      <c r="AJ221" s="26"/>
-      <c r="AK221" s="26"/>
-      <c r="AL221" s="26"/>
-      <c r="AM221" s="26"/>
-      <c r="AN221" s="26"/>
-    </row>
-    <row r="224" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U224" s="89" t="s">
-        <v>541</v>
-      </c>
-      <c r="V224" s="89"/>
-      <c r="W224" s="89"/>
-      <c r="X224" s="89"/>
-      <c r="Y224" s="89"/>
-      <c r="Z224" s="89"/>
-      <c r="AA224" s="89"/>
-      <c r="AB224" s="89"/>
-      <c r="AC224" s="89"/>
-      <c r="AD224" s="89"/>
-      <c r="AE224" s="89"/>
-      <c r="AF224" s="89"/>
-      <c r="AG224" s="89"/>
-      <c r="AH224" s="89"/>
-      <c r="AI224" s="89"/>
-      <c r="AJ224" s="89"/>
-      <c r="AK224" s="89"/>
-      <c r="AL224" s="89"/>
-      <c r="AM224" s="89"/>
-      <c r="AN224" s="89"/>
-    </row>
-    <row r="225" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="U225" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="V225" s="13" t="s">
+      <c r="V224" s="26"/>
+      <c r="W224" s="26"/>
+      <c r="X224" s="26"/>
+      <c r="Y224" s="26"/>
+      <c r="Z224" s="26"/>
+      <c r="AA224" s="26"/>
+      <c r="AB224" s="26"/>
+      <c r="AC224" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD224" s="26"/>
+      <c r="AE224" s="26"/>
+      <c r="AF224" s="26"/>
+      <c r="AG224" s="26"/>
+      <c r="AH224" s="26"/>
+      <c r="AI224" s="26"/>
+      <c r="AJ224" s="26"/>
+      <c r="AK224" s="26"/>
+      <c r="AL224" s="26"/>
+      <c r="AM224" s="26"/>
+      <c r="AN224" s="26"/>
+    </row>
+    <row r="225" spans="21:40" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="227" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U227" s="81" t="s">
+        <v>526</v>
+      </c>
+      <c r="V227" s="81"/>
+      <c r="W227" s="81"/>
+      <c r="X227" s="81"/>
+      <c r="Y227" s="81"/>
+      <c r="Z227" s="81"/>
+      <c r="AA227" s="81"/>
+      <c r="AB227" s="81"/>
+      <c r="AC227" s="81"/>
+      <c r="AD227" s="81"/>
+      <c r="AE227" s="81"/>
+      <c r="AF227" s="81"/>
+      <c r="AG227" s="81"/>
+      <c r="AH227" s="81"/>
+      <c r="AI227" s="81"/>
+      <c r="AJ227" s="81"/>
+      <c r="AK227" s="81"/>
+      <c r="AL227" s="81"/>
+      <c r="AM227" s="81"/>
+      <c r="AN227" s="81"/>
+    </row>
+    <row r="228" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="U228" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="V228" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W225" s="13" t="s">
+      <c r="W228" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X225" s="13" t="s">
+      <c r="X228" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y225" s="13" t="s">
+      <c r="Y228" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z225" s="13" t="s">
+      <c r="Z228" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA225" s="13" t="s">
+      <c r="AA228" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AB225" s="13" t="s">
+      <c r="AB228" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC225" s="13" t="s">
+      <c r="AC228" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD225" s="13" t="s">
+      <c r="AD228" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AE225" s="13" t="s">
+      <c r="AE228" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF225" s="13" t="s">
+      <c r="AF228" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG225" s="13" t="s">
+      <c r="AG228" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH225" s="13" t="s">
+      <c r="AH228" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AI225" s="13" t="s">
+      <c r="AI228" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ225" s="13" t="s">
+      <c r="AJ228" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AK225" s="13" t="s">
+      <c r="AK228" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AL225" s="13" t="s">
+      <c r="AL228" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AM225" s="13" t="s">
+      <c r="AM228" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AN225" s="13" t="s">
+      <c r="AN228" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="21:40" x14ac:dyDescent="0.2">
-      <c r="U226" s="1" t="s">
+    <row r="229" spans="21:40" x14ac:dyDescent="0.2">
+      <c r="U229" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="W226" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="X226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="Y226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="Z226" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA226" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AC226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AD226" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AF226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AG226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AH226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AI226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AJ226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AK226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AL226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AM226" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AN226" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="227" spans="21:40" x14ac:dyDescent="0.2">
-      <c r="U227" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V227" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="W227" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="X227" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="Y227" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z227" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="AA227" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AB227" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AC227" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AD227" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AE227" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF227" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AG227" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AH227" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AI227" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AJ227" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AK227" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL227" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM227" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AN227" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="228" spans="21:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="U228" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="V228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="W228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="X228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z228" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="AA228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI228" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="AJ228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM228" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AN228" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="229" spans="21:40" ht="17" x14ac:dyDescent="0.2">
-      <c r="U229" s="25" t="s">
-        <v>543</v>
-      </c>
       <c r="V229" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="W229" s="1" t="s">
         <v>273</v>
       </c>
       <c r="X229" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="Y229" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="Z229" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AA229" s="1" t="s">
-        <v>546</v>
+        <v>273</v>
       </c>
       <c r="AB229" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AC229" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>273</v>
+        <v>2</v>
       </c>
       <c r="AE229" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AF229" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AG229" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AH229" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AI229" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AJ229" s="1" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="AK229" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AL229" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AM229" s="1" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="AN229" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="230" spans="21:40" ht="17" x14ac:dyDescent="0.2">
-      <c r="U230" s="25" t="s">
-        <v>542</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="21:40" x14ac:dyDescent="0.2">
+      <c r="U230" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="V230" s="1" t="s">
         <v>273</v>
       </c>
       <c r="W230" s="1" t="s">
-        <v>273</v>
+        <v>516</v>
       </c>
       <c r="X230" s="1" t="s">
-        <v>273</v>
+        <v>516</v>
       </c>
       <c r="Y230" s="1" t="s">
-        <v>273</v>
+        <v>516</v>
       </c>
       <c r="Z230" s="1" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="AA230" s="1" t="s">
-        <v>545</v>
+        <v>32</v>
       </c>
       <c r="AB230" s="1" t="s">
-        <v>273</v>
+        <v>516</v>
       </c>
       <c r="AC230" s="1" t="s">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="AE230" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AF230" s="1" t="s">
-        <v>273</v>
+        <v>516</v>
       </c>
       <c r="AG230" s="1" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="AH230" s="1" t="s">
-        <v>273</v>
+        <v>516</v>
       </c>
       <c r="AI230" s="1" t="s">
-        <v>273</v>
+        <v>516</v>
       </c>
       <c r="AJ230" s="1" t="s">
-        <v>273</v>
+        <v>516</v>
       </c>
       <c r="AK230" s="1" t="s">
         <v>273</v>
@@ -11650,61 +11542,315 @@
         <v>273</v>
       </c>
       <c r="AM230" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AN230" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="231" spans="21:40" ht="34" x14ac:dyDescent="0.2">
+      <c r="U231" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="V231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z231" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA231" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC231" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD231" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AE231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI231" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AJ231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL231" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AM231" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AN231" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="232" spans="21:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="U232" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="V232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG232" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ232" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="AK232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN232" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="233" spans="21:40" ht="34" x14ac:dyDescent="0.2">
+      <c r="U233" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="V233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN233" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="234" spans="21:40" ht="153" x14ac:dyDescent="0.2">
+      <c r="U234" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="V234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA234" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="AB234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC234" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="AD234" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="AE234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN234" s="25" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="235" spans="21:40" s="25" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U235" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V235" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="W235" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="X235" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="AN230" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="231" spans="21:40" s="25" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U231" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="V231" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="W231" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="X231" s="26"/>
-      <c r="Y231" s="26"/>
-      <c r="Z231" s="26"/>
-      <c r="AA231" s="26"/>
-      <c r="AB231" s="26"/>
-      <c r="AC231" s="26"/>
-      <c r="AD231" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE231" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF231" s="26"/>
-      <c r="AG231" s="26"/>
-      <c r="AH231" s="26"/>
-      <c r="AI231" s="26"/>
-      <c r="AJ231" s="26"/>
-      <c r="AK231" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="AL231" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="AM231" s="26"/>
-      <c r="AN231" s="26" t="s">
-        <v>417</v>
+      <c r="Y235" s="26"/>
+      <c r="Z235" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA235" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB235" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC235" s="26"/>
+      <c r="AD235" s="26"/>
+      <c r="AE235" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="AF235" s="26"/>
+      <c r="AG235" s="26"/>
+      <c r="AH235" s="26"/>
+      <c r="AI235" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="AJ235" s="26"/>
+      <c r="AK235" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="AL235" s="26"/>
+      <c r="AM235" s="26"/>
+      <c r="AN235" s="26" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="U224:AN224"/>
+    <mergeCell ref="U227:AN227"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B5:B35"/>
-    <mergeCell ref="B36:B79"/>
-    <mergeCell ref="B81:B128"/>
-    <mergeCell ref="B130:B192"/>
-    <mergeCell ref="U202:AN202"/>
-    <mergeCell ref="U209:AN209"/>
-    <mergeCell ref="U216:AN216"/>
+    <mergeCell ref="B36:B80"/>
+    <mergeCell ref="B82:B129"/>
+    <mergeCell ref="B131:B194"/>
+    <mergeCell ref="U204:AN204"/>
+    <mergeCell ref="U211:AN211"/>
+    <mergeCell ref="U219:AN219"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11972,14 +12118,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -12003,7 +12149,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="90" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -12017,7 +12163,7 @@
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="81"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
@@ -12026,7 +12172,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="81"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -12035,7 +12181,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="81"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -12044,7 +12190,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="82"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
@@ -12056,7 +12202,7 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="90" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -12070,7 +12216,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="81"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
@@ -12082,7 +12228,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="81"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -12094,7 +12240,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="81"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -12103,7 +12249,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -12115,7 +12261,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="90" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -12131,7 +12277,7 @@
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="81"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -12143,7 +12289,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="81"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -12158,7 +12304,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="81"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -12170,7 +12316,7 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -12184,7 +12330,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="91" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -12195,7 +12341,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="81"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -12204,7 +12350,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="81"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -12213,7 +12359,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="81"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -12222,7 +12368,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
@@ -12234,18 +12380,18 @@
       <c r="G23" s="13"/>
     </row>
     <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="89" t="s">
+      <c r="J30" s="81" t="s">
         <v>274</v>
       </c>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
     </row>
     <row r="31" spans="2:20" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J31" s="55" t="s">
@@ -12997,16 +13143,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J89:J107"/>
+    <mergeCell ref="J70:J88"/>
+    <mergeCell ref="J32:J50"/>
+    <mergeCell ref="J51:J69"/>
+    <mergeCell ref="J30:S30"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B23"/>
-    <mergeCell ref="J89:J107"/>
-    <mergeCell ref="J70:J88"/>
-    <mergeCell ref="J32:J50"/>
-    <mergeCell ref="J51:J69"/>
-    <mergeCell ref="J30:S30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847446FD-ABC8-554C-AB18-9E513150B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67582ACC-482B-D04D-A6CB-B179127D58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="27660" windowHeight="17500" activeTab="3" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
   <sheets>
     <sheet name="exceedances" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11689" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11693" uniqueCount="450">
   <si>
     <t>Analyte</t>
   </si>
@@ -1560,6 +1560,9 @@
     <t>winter, prox is pos
 monsoon, prox is more pos</t>
   </si>
+  <si>
+    <t>PLI</t>
+  </si>
 </sst>
 </file>
 
@@ -2437,14 +2440,17 @@
     <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2456,31 +2462,28 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2491,6 +2494,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2499,12 +2508,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3501,27 +3504,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="164" t="s">
+      <c r="M31" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="164"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="164"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="165" t="s">
+      <c r="M32" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="163" t="s">
+      <c r="N32" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
+      <c r="O32" s="151"/>
+      <c r="P32" s="151"/>
+      <c r="Q32" s="151"/>
     </row>
     <row r="33" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M33" s="159"/>
+      <c r="M33" s="154"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -3617,7 +3620,7 @@
       </c>
     </row>
     <row r="46" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y46" s="157" t="s">
+      <c r="Y46" s="161" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="8" t="s">
@@ -3631,7 +3634,7 @@
       </c>
     </row>
     <row r="47" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y47" s="158"/>
+      <c r="Y47" s="162"/>
       <c r="Z47" s="8">
         <v>0</v>
       </c>
@@ -3643,7 +3646,7 @@
       </c>
     </row>
     <row r="48" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y48" s="158"/>
+      <c r="Y48" s="162"/>
       <c r="Z48" s="8">
         <v>0.5</v>
       </c>
@@ -3655,7 +3658,7 @@
       </c>
     </row>
     <row r="49" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y49" s="158"/>
+      <c r="Y49" s="162"/>
       <c r="Z49" s="8">
         <v>1</v>
       </c>
@@ -3667,7 +3670,7 @@
       </c>
     </row>
     <row r="50" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y50" s="158"/>
+      <c r="Y50" s="162"/>
       <c r="Z50" s="8">
         <v>1.5</v>
       </c>
@@ -3679,7 +3682,7 @@
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="159"/>
+      <c r="Y51" s="154"/>
       <c r="Z51" s="11">
         <v>2</v>
       </c>
@@ -3692,7 +3695,7 @@
       <c r="AC51" s="13"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y52" s="157" t="s">
+      <c r="Y52" s="161" t="s">
         <v>69</v>
       </c>
       <c r="Z52" s="1" t="s">
@@ -3701,62 +3704,62 @@
       <c r="AA52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC52" s="160" t="s">
+      <c r="AC52" s="163" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="158"/>
+      <c r="Y53" s="162"/>
       <c r="Z53" s="1">
         <v>0</v>
       </c>
       <c r="AA53" s="34">
         <v>6.1733623452348702E-2</v>
       </c>
-      <c r="AC53" s="161"/>
+      <c r="AC53" s="165"/>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y54" s="158"/>
+      <c r="Y54" s="162"/>
       <c r="Z54" s="1">
         <v>2</v>
       </c>
       <c r="AA54" s="34">
         <v>1.20772053410085E-2</v>
       </c>
-      <c r="AC54" s="161"/>
+      <c r="AC54" s="165"/>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y55" s="158"/>
+      <c r="Y55" s="162"/>
       <c r="Z55" s="1">
         <v>4</v>
       </c>
       <c r="AA55" s="31">
         <v>2.2662402083130201E-3</v>
       </c>
-      <c r="AC55" s="161"/>
+      <c r="AC55" s="165"/>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y56" s="158"/>
+      <c r="Y56" s="162"/>
       <c r="Z56" s="1">
         <v>6</v>
       </c>
       <c r="AA56" s="28">
         <v>4.2184786680835203E-4</v>
       </c>
-      <c r="AC56" s="161"/>
+      <c r="AC56" s="165"/>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y57" s="158"/>
+      <c r="Y57" s="162"/>
       <c r="Z57" s="1">
         <v>8</v>
       </c>
       <c r="AA57" s="28">
         <v>7.8406646322768398E-5</v>
       </c>
-      <c r="AC57" s="161"/>
+      <c r="AC57" s="165"/>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y58" s="159"/>
+      <c r="Y58" s="154"/>
       <c r="Z58" s="13">
         <v>10</v>
       </c>
@@ -3764,10 +3767,10 @@
         <v>1.4568956039108299E-5</v>
       </c>
       <c r="AB58" s="13"/>
-      <c r="AC58" s="162"/>
+      <c r="AC58" s="164"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y59" s="157" t="s">
+      <c r="Y59" s="161" t="s">
         <v>73</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -3776,72 +3779,72 @@
       <c r="AA59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" s="160" t="s">
+      <c r="AC59" s="163" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y60" s="158"/>
+      <c r="Y60" s="162"/>
       <c r="Z60" s="1">
         <v>0</v>
       </c>
       <c r="AA60" s="34">
         <v>4.213704983443E-2</v>
       </c>
-      <c r="AC60" s="161"/>
+      <c r="AC60" s="165"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y61" s="158"/>
+      <c r="Y61" s="162"/>
       <c r="Z61" s="1">
         <v>4</v>
       </c>
       <c r="AA61" s="36">
         <v>0.70383460067707004</v>
       </c>
-      <c r="AC61" s="161"/>
+      <c r="AC61" s="165"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y62" s="158"/>
+      <c r="Y62" s="162"/>
       <c r="Z62" s="1">
         <v>8</v>
       </c>
       <c r="AA62" s="36">
         <v>0.99227108557330002</v>
       </c>
-      <c r="AC62" s="161"/>
+      <c r="AC62" s="165"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y63" s="158"/>
+      <c r="Y63" s="162"/>
       <c r="Z63" s="1">
         <v>12</v>
       </c>
       <c r="AA63" s="37">
         <v>0.99985583826317304</v>
       </c>
-      <c r="AC63" s="161"/>
+      <c r="AC63" s="165"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y64" s="158"/>
+      <c r="Y64" s="162"/>
       <c r="Z64" s="1">
         <v>16</v>
       </c>
       <c r="AA64" s="37">
         <v>0.99999733107778499</v>
       </c>
-      <c r="AC64" s="161"/>
+      <c r="AC64" s="165"/>
     </row>
     <row r="65" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y65" s="158"/>
+      <c r="Y65" s="162"/>
       <c r="Z65" s="1">
         <v>20</v>
       </c>
       <c r="AA65" s="37">
         <v>0.99999995059606805</v>
       </c>
-      <c r="AC65" s="161"/>
+      <c r="AC65" s="165"/>
     </row>
     <row r="66" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y66" s="159"/>
+      <c r="Y66" s="154"/>
       <c r="Z66" s="13">
         <v>24</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>0.99999999908549497</v>
       </c>
       <c r="AB66" s="13"/>
-      <c r="AC66" s="162"/>
+      <c r="AC66" s="164"/>
     </row>
     <row r="71" spans="25:36" x14ac:dyDescent="0.2">
       <c r="AD71" s="1" t="s">
@@ -3898,7 +3901,7 @@
       </c>
     </row>
     <row r="74" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD74" s="160" t="s">
+      <c r="AD74" s="163" t="s">
         <v>9</v>
       </c>
       <c r="AE74" s="48" t="s">
@@ -3918,7 +3921,7 @@
       </c>
     </row>
     <row r="75" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="162"/>
+      <c r="AD75" s="164"/>
       <c r="AE75" s="49" t="s">
         <v>13</v>
       </c>
@@ -3936,7 +3939,7 @@
       </c>
     </row>
     <row r="76" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD76" s="160" t="s">
+      <c r="AD76" s="163" t="s">
         <v>10</v>
       </c>
       <c r="AE76" s="48" t="s">
@@ -3956,7 +3959,7 @@
       </c>
     </row>
     <row r="77" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD77" s="161"/>
+      <c r="AD77" s="165"/>
       <c r="AE77" s="50" t="s">
         <v>17</v>
       </c>
@@ -3974,7 +3977,7 @@
       </c>
     </row>
     <row r="78" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD78" s="162"/>
+      <c r="AD78" s="164"/>
       <c r="AE78" s="49" t="s">
         <v>12</v>
       </c>
@@ -3992,7 +3995,7 @@
       </c>
     </row>
     <row r="79" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD79" s="160" t="s">
+      <c r="AD79" s="163" t="s">
         <v>11</v>
       </c>
       <c r="AE79" s="48" t="s">
@@ -4012,7 +4015,7 @@
       </c>
     </row>
     <row r="80" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="161"/>
+      <c r="AD80" s="165"/>
       <c r="AE80" s="50" t="s">
         <v>19</v>
       </c>
@@ -4030,7 +4033,7 @@
       </c>
     </row>
     <row r="81" spans="30:47" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD81" s="161"/>
+      <c r="AD81" s="165"/>
       <c r="AE81" s="50" t="s">
         <v>13</v>
       </c>
@@ -4048,7 +4051,7 @@
       </c>
     </row>
     <row r="82" spans="30:47" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD82" s="162"/>
+      <c r="AD82" s="164"/>
       <c r="AE82" s="49" t="s">
         <v>15</v>
       </c>
@@ -4066,18 +4069,18 @@
       </c>
     </row>
     <row r="87" spans="30:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL87" s="164" t="s">
+      <c r="AL87" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="AM87" s="164"/>
-      <c r="AN87" s="164"/>
-      <c r="AO87" s="164"/>
-      <c r="AP87" s="164"/>
-      <c r="AQ87" s="164"/>
-      <c r="AR87" s="164"/>
-      <c r="AS87" s="164"/>
-      <c r="AT87" s="164"/>
-      <c r="AU87" s="164"/>
+      <c r="AM87" s="152"/>
+      <c r="AN87" s="152"/>
+      <c r="AO87" s="152"/>
+      <c r="AP87" s="152"/>
+      <c r="AQ87" s="152"/>
+      <c r="AR87" s="152"/>
+      <c r="AS87" s="152"/>
+      <c r="AT87" s="152"/>
+      <c r="AU87" s="152"/>
     </row>
     <row r="88" spans="30:47" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AL88" s="55" t="s">
@@ -4112,13 +4115,13 @@
       </c>
     </row>
     <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL89" s="154" t="s">
+      <c r="AL89" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="AM89" s="151" t="s">
+      <c r="AM89" s="158" t="s">
         <v>279</v>
       </c>
-      <c r="AN89" s="157" t="s">
+      <c r="AN89" s="161" t="s">
         <v>13</v>
       </c>
       <c r="AO89" s="40" t="s">
@@ -4136,17 +4139,17 @@
       <c r="AS89" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT89" s="154" t="s">
+      <c r="AT89" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="AU89" s="151" t="s">
+      <c r="AU89" s="158" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL90" s="155"/>
-      <c r="AM90" s="152"/>
-      <c r="AN90" s="158"/>
+      <c r="AL90" s="156"/>
+      <c r="AM90" s="159"/>
+      <c r="AN90" s="162"/>
       <c r="AO90" s="1" t="s">
         <v>68</v>
       </c>
@@ -4162,13 +4165,13 @@
       <c r="AS90" s="58">
         <v>1E-3</v>
       </c>
-      <c r="AT90" s="155"/>
-      <c r="AU90" s="152"/>
+      <c r="AT90" s="156"/>
+      <c r="AU90" s="159"/>
     </row>
     <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL91" s="156"/>
-      <c r="AM91" s="153"/>
-      <c r="AN91" s="159"/>
+      <c r="AL91" s="157"/>
+      <c r="AM91" s="160"/>
+      <c r="AN91" s="154"/>
       <c r="AO91" s="13" t="s">
         <v>286</v>
       </c>
@@ -4184,17 +4187,17 @@
       <c r="AS91" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AT91" s="156"/>
-      <c r="AU91" s="153"/>
+      <c r="AT91" s="157"/>
+      <c r="AU91" s="160"/>
     </row>
     <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL92" s="154" t="s">
+      <c r="AL92" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="AM92" s="154" t="s">
+      <c r="AM92" s="155" t="s">
         <v>280</v>
       </c>
-      <c r="AN92" s="157" t="s">
+      <c r="AN92" s="161" t="s">
         <v>12</v>
       </c>
       <c r="AO92" s="40" t="s">
@@ -4212,17 +4215,17 @@
       <c r="AS92" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT92" s="154" t="s">
+      <c r="AT92" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="AU92" s="151" t="s">
+      <c r="AU92" s="158" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL93" s="155"/>
-      <c r="AM93" s="155"/>
-      <c r="AN93" s="158"/>
+      <c r="AL93" s="156"/>
+      <c r="AM93" s="156"/>
+      <c r="AN93" s="162"/>
       <c r="AO93" s="1" t="s">
         <v>68</v>
       </c>
@@ -4238,13 +4241,13 @@
       <c r="AS93" s="58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT93" s="155"/>
-      <c r="AU93" s="152"/>
+      <c r="AT93" s="156"/>
+      <c r="AU93" s="159"/>
     </row>
     <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL94" s="155"/>
-      <c r="AM94" s="155"/>
-      <c r="AN94" s="158"/>
+      <c r="AL94" s="156"/>
+      <c r="AM94" s="156"/>
+      <c r="AN94" s="162"/>
       <c r="AO94" s="1" t="s">
         <v>286</v>
       </c>
@@ -4260,15 +4263,15 @@
       <c r="AS94" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT94" s="155"/>
-      <c r="AU94" s="152"/>
+      <c r="AT94" s="156"/>
+      <c r="AU94" s="159"/>
     </row>
     <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL95" s="155"/>
-      <c r="AM95" s="152" t="s">
+      <c r="AL95" s="156"/>
+      <c r="AM95" s="159" t="s">
         <v>279</v>
       </c>
-      <c r="AN95" s="158" t="s">
+      <c r="AN95" s="162" t="s">
         <v>17</v>
       </c>
       <c r="AO95" t="s">
@@ -4286,17 +4289,17 @@
       <c r="AS95" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="AT95" s="155" t="s">
+      <c r="AT95" s="156" t="s">
         <v>287</v>
       </c>
-      <c r="AU95" s="152" t="s">
+      <c r="AU95" s="159" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL96" s="155"/>
-      <c r="AM96" s="152"/>
-      <c r="AN96" s="158"/>
+      <c r="AL96" s="156"/>
+      <c r="AM96" s="159"/>
+      <c r="AN96" s="162"/>
       <c r="AO96" s="1" t="s">
         <v>68</v>
       </c>
@@ -4312,13 +4315,13 @@
       <c r="AS96" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT96" s="155"/>
-      <c r="AU96" s="152"/>
+      <c r="AT96" s="156"/>
+      <c r="AU96" s="159"/>
     </row>
     <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL97" s="156"/>
-      <c r="AM97" s="153"/>
-      <c r="AN97" s="159"/>
+      <c r="AL97" s="157"/>
+      <c r="AM97" s="160"/>
+      <c r="AN97" s="154"/>
       <c r="AO97" s="13" t="s">
         <v>286</v>
       </c>
@@ -4334,17 +4337,17 @@
       <c r="AS97" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT97" s="156"/>
-      <c r="AU97" s="153"/>
+      <c r="AT97" s="157"/>
+      <c r="AU97" s="160"/>
     </row>
     <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL98" s="154" t="s">
+      <c r="AL98" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="AM98" s="151" t="s">
+      <c r="AM98" s="158" t="s">
         <v>279</v>
       </c>
-      <c r="AN98" s="157" t="s">
+      <c r="AN98" s="161" t="s">
         <v>13</v>
       </c>
       <c r="AO98" s="60" t="s">
@@ -4362,17 +4365,17 @@
       <c r="AS98" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT98" s="154" t="s">
+      <c r="AT98" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="AU98" s="151" t="s">
+      <c r="AU98" s="158" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL99" s="155"/>
-      <c r="AM99" s="152"/>
-      <c r="AN99" s="158"/>
+      <c r="AL99" s="156"/>
+      <c r="AM99" s="159"/>
+      <c r="AN99" s="162"/>
       <c r="AO99" s="1" t="s">
         <v>68</v>
       </c>
@@ -4388,13 +4391,13 @@
       <c r="AS99" s="58">
         <v>0.04</v>
       </c>
-      <c r="AT99" s="155"/>
-      <c r="AU99" s="152"/>
+      <c r="AT99" s="156"/>
+      <c r="AU99" s="159"/>
     </row>
     <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL100" s="156"/>
-      <c r="AM100" s="153"/>
-      <c r="AN100" s="159"/>
+      <c r="AL100" s="157"/>
+      <c r="AM100" s="160"/>
+      <c r="AN100" s="154"/>
       <c r="AO100" s="13" t="s">
         <v>286</v>
       </c>
@@ -4410,11 +4413,28 @@
       <c r="AS100" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT100" s="156"/>
-      <c r="AU100" s="153"/>
+      <c r="AT100" s="157"/>
+      <c r="AU100" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="AM98:AM100"/>
+    <mergeCell ref="AL98:AL100"/>
+    <mergeCell ref="AL92:AL97"/>
+    <mergeCell ref="AM92:AM94"/>
+    <mergeCell ref="AM95:AM97"/>
+    <mergeCell ref="AU95:AU97"/>
+    <mergeCell ref="AT95:AT97"/>
+    <mergeCell ref="AT98:AT100"/>
+    <mergeCell ref="AU98:AU100"/>
+    <mergeCell ref="AN98:AN100"/>
+    <mergeCell ref="AN95:AN97"/>
+    <mergeCell ref="Y59:Y66"/>
+    <mergeCell ref="AC52:AC58"/>
+    <mergeCell ref="AC59:AC66"/>
+    <mergeCell ref="AT92:AT94"/>
+    <mergeCell ref="AU92:AU94"/>
+    <mergeCell ref="AN92:AN94"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="M31:Q31"/>
     <mergeCell ref="M32:M33"/>
@@ -4431,23 +4451,6 @@
     <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="Y46:Y51"/>
     <mergeCell ref="Y52:Y58"/>
-    <mergeCell ref="Y59:Y66"/>
-    <mergeCell ref="AC52:AC58"/>
-    <mergeCell ref="AC59:AC66"/>
-    <mergeCell ref="AT92:AT94"/>
-    <mergeCell ref="AU92:AU94"/>
-    <mergeCell ref="AN92:AN94"/>
-    <mergeCell ref="AU95:AU97"/>
-    <mergeCell ref="AT95:AT97"/>
-    <mergeCell ref="AT98:AT100"/>
-    <mergeCell ref="AU98:AU100"/>
-    <mergeCell ref="AN98:AN100"/>
-    <mergeCell ref="AN95:AN97"/>
-    <mergeCell ref="AM98:AM100"/>
-    <mergeCell ref="AL98:AL100"/>
-    <mergeCell ref="AL92:AL97"/>
-    <mergeCell ref="AM92:AM94"/>
-    <mergeCell ref="AM95:AM97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5435,8 +5438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C301AE6-CC50-864C-827E-D25EEF6A22D3}">
   <dimension ref="A2:AN151"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9852,10 +9855,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6964B3A-A93B-A24A-8DF2-4AA66B6335FC}">
-  <dimension ref="B3:AN237"/>
+  <dimension ref="B3:AO237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V231" sqref="V231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9878,38 +9881,38 @@
     <col min="18" max="18" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" style="1" customWidth="1"/>
-    <col min="22" max="26" width="10.83203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.83203125" style="1" customWidth="1"/>
-    <col min="28" max="32" width="10.83203125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.83203125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="10.83203125" style="1"/>
-    <col min="36" max="36" width="12.1640625" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="10.83203125" style="1"/>
+    <col min="21" max="22" width="14.6640625" style="1" customWidth="1"/>
+    <col min="23" max="27" width="10.83203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.83203125" style="1" customWidth="1"/>
+    <col min="29" max="33" width="10.83203125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.83203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="10.83203125" style="1"/>
+    <col min="37" max="37" width="12.1640625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
       <c r="T3" s="54"/>
     </row>
     <row r="4" spans="2:20" ht="60" thickTop="1" x14ac:dyDescent="0.2">
@@ -9969,7 +9972,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="171" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="85" t="s">
@@ -9983,7 +9986,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="170"/>
+      <c r="B6" s="172"/>
       <c r="C6" s="85" t="s">
         <v>16</v>
       </c>
@@ -9995,8 +9998,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="170"/>
-      <c r="C7" s="172" t="s">
+      <c r="B7" s="172"/>
+      <c r="C7" s="169" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -10048,8 +10051,8 @@
       <c r="T7" s="25"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="170"/>
-      <c r="C8" s="172"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="169"/>
       <c r="E8" s="77" t="s">
         <v>263</v>
       </c>
@@ -10078,8 +10081,8 @@
       <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="170"/>
-      <c r="C9" s="172" t="s">
+      <c r="B9" s="172"/>
+      <c r="C9" s="169" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -10127,8 +10130,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="170"/>
-      <c r="C10" s="172"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="169"/>
       <c r="E10" s="84" t="s">
         <v>263</v>
       </c>
@@ -10155,8 +10158,8 @@
       <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="170"/>
-      <c r="C11" s="172"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="169"/>
       <c r="E11" s="77" t="s">
         <v>32</v>
       </c>
@@ -10183,7 +10186,7 @@
       <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="170"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="85" t="s">
         <v>35</v>
       </c>
@@ -10208,8 +10211,8 @@
       <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="170"/>
-      <c r="C13" s="172" t="s">
+      <c r="B13" s="172"/>
+      <c r="C13" s="169" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -10257,8 +10260,8 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="170"/>
-      <c r="C14" s="172"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="169"/>
       <c r="E14" s="77" t="s">
         <v>263</v>
       </c>
@@ -10285,8 +10288,8 @@
       <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="170"/>
-      <c r="C15" s="172" t="s">
+      <c r="B15" s="172"/>
+      <c r="C15" s="169" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -10334,8 +10337,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="170"/>
-      <c r="C16" s="172"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="169"/>
       <c r="E16" s="77" t="s">
         <v>263</v>
       </c>
@@ -10362,7 +10365,7 @@
       <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="170"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="85" t="s">
         <v>36</v>
       </c>
@@ -10387,7 +10390,7 @@
       <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="170"/>
+      <c r="B18" s="172"/>
       <c r="C18" s="85" t="s">
         <v>12</v>
       </c>
@@ -10412,8 +10415,8 @@
       <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="170"/>
-      <c r="C19" s="172" t="s">
+      <c r="B19" s="172"/>
+      <c r="C19" s="169" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -10463,8 +10466,8 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="170"/>
-      <c r="C20" s="172"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="169"/>
       <c r="E20" s="84" t="s">
         <v>263</v>
       </c>
@@ -10495,8 +10498,8 @@
       <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="170"/>
-      <c r="C21" s="172" t="s">
+      <c r="B21" s="172"/>
+      <c r="C21" s="169" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -10544,8 +10547,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="170"/>
-      <c r="C22" s="172"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="169"/>
       <c r="E22" s="77" t="s">
         <v>263</v>
       </c>
@@ -10572,8 +10575,8 @@
       <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="170"/>
-      <c r="C23" s="172" t="s">
+      <c r="B23" s="172"/>
+      <c r="C23" s="169" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -10619,8 +10622,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="170"/>
-      <c r="C24" s="172"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="169"/>
       <c r="E24" s="77" t="s">
         <v>32</v>
       </c>
@@ -10647,8 +10650,8 @@
       <c r="R24" s="36"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="170"/>
-      <c r="C25" s="172" t="s">
+      <c r="B25" s="172"/>
+      <c r="C25" s="169" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -10696,8 +10699,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="170"/>
-      <c r="C26" s="172"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="169"/>
       <c r="E26" s="77" t="s">
         <v>263</v>
       </c>
@@ -10724,7 +10727,7 @@
       <c r="R26" s="36"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="170"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="85" t="s">
         <v>20</v>
       </c>
@@ -10749,7 +10752,7 @@
       <c r="R27" s="36"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="170"/>
+      <c r="B28" s="172"/>
       <c r="C28" s="85" t="s">
         <v>33</v>
       </c>
@@ -10774,8 +10777,8 @@
       <c r="R28" s="36"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="170"/>
-      <c r="C29" s="172" t="s">
+      <c r="B29" s="172"/>
+      <c r="C29" s="169" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="39" t="s">
@@ -10821,8 +10824,8 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="170"/>
-      <c r="C30" s="172"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="169"/>
       <c r="D30" s="39"/>
       <c r="E30" s="77" t="s">
         <v>32</v>
@@ -10850,7 +10853,7 @@
       <c r="R30" s="36"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="170"/>
+      <c r="B31" s="172"/>
       <c r="C31" s="85" t="s">
         <v>41</v>
       </c>
@@ -10875,8 +10878,8 @@
       <c r="R31" s="36"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="170"/>
-      <c r="C32" s="172" t="s">
+      <c r="B32" s="172"/>
+      <c r="C32" s="169" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -10924,8 +10927,8 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="170"/>
-      <c r="C33" s="172"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="169"/>
       <c r="E33" s="77" t="s">
         <v>263</v>
       </c>
@@ -10952,8 +10955,8 @@
       <c r="R33" s="36"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="170"/>
-      <c r="C34" s="172"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="169"/>
       <c r="E34" s="77" t="s">
         <v>32</v>
       </c>
@@ -10980,7 +10983,7 @@
       <c r="R34" s="36"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="170"/>
+      <c r="B35" s="172"/>
       <c r="C35" s="86" t="s">
         <v>15</v>
       </c>
@@ -11005,7 +11008,7 @@
       <c r="R35" s="36"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="171" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="174" t="s">
@@ -11056,8 +11059,8 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="170"/>
-      <c r="C37" s="172"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="169"/>
       <c r="E37" s="84" t="s">
         <v>415</v>
       </c>
@@ -11084,8 +11087,8 @@
       <c r="R37" s="36"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="170"/>
-      <c r="C38" s="172"/>
+      <c r="B38" s="172"/>
+      <c r="C38" s="169"/>
       <c r="E38" s="84" t="s">
         <v>416</v>
       </c>
@@ -11112,8 +11115,8 @@
       <c r="R38" s="36"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="170"/>
-      <c r="C39" s="172"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="169"/>
       <c r="E39" s="84" t="s">
         <v>32</v>
       </c>
@@ -11140,8 +11143,8 @@
       <c r="R39" s="36"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="170"/>
-      <c r="C40" s="172" t="s">
+      <c r="B40" s="172"/>
+      <c r="C40" s="169" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -11189,8 +11192,8 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="170"/>
-      <c r="C41" s="172"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="169"/>
       <c r="E41" s="77" t="s">
         <v>335</v>
       </c>
@@ -11219,8 +11222,8 @@
       <c r="R41" s="36"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="170"/>
-      <c r="C42" s="172" t="s">
+      <c r="B42" s="172"/>
+      <c r="C42" s="169" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -11268,8 +11271,8 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="170"/>
-      <c r="C43" s="172"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="169"/>
       <c r="E43" s="77" t="s">
         <v>263</v>
       </c>
@@ -11296,8 +11299,8 @@
       <c r="R43" s="36"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="170"/>
-      <c r="C44" s="172"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="169"/>
       <c r="E44" s="77" t="s">
         <v>32</v>
       </c>
@@ -11324,8 +11327,8 @@
       <c r="R44" s="36"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="170"/>
-      <c r="C45" s="172"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="169"/>
       <c r="E45" s="77" t="s">
         <v>335</v>
       </c>
@@ -11352,8 +11355,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="170"/>
-      <c r="C46" s="172" t="s">
+      <c r="B46" s="172"/>
+      <c r="C46" s="169" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -11403,8 +11406,8 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="170"/>
-      <c r="C47" s="172"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="169"/>
       <c r="E47" s="77" t="s">
         <v>263</v>
       </c>
@@ -11433,8 +11436,8 @@
       <c r="R47" s="36"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="170"/>
-      <c r="C48" s="172"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="169"/>
       <c r="E48" s="77" t="s">
         <v>335</v>
       </c>
@@ -11463,8 +11466,8 @@
       <c r="R48" s="36"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="170"/>
-      <c r="C49" s="172"/>
+      <c r="B49" s="172"/>
+      <c r="C49" s="169"/>
       <c r="E49" s="77" t="s">
         <v>32</v>
       </c>
@@ -11493,8 +11496,8 @@
       <c r="R49" s="36"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="170"/>
-      <c r="C50" s="172" t="s">
+      <c r="B50" s="172"/>
+      <c r="C50" s="169" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -11544,8 +11547,8 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="170"/>
-      <c r="C51" s="172"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="169"/>
       <c r="E51" s="77" t="s">
         <v>263</v>
       </c>
@@ -11574,8 +11577,8 @@
       <c r="R51" s="36"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="170"/>
-      <c r="C52" s="172"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="169"/>
       <c r="E52" s="77" t="s">
         <v>335</v>
       </c>
@@ -11604,8 +11607,8 @@
       <c r="R52" s="36"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="170"/>
-      <c r="C53" s="172" t="s">
+      <c r="B53" s="172"/>
+      <c r="C53" s="169" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -11655,8 +11658,8 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="170"/>
-      <c r="C54" s="172"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="169"/>
       <c r="E54" s="77" t="s">
         <v>263</v>
       </c>
@@ -11685,8 +11688,8 @@
       <c r="R54" s="36"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="170"/>
-      <c r="C55" s="172"/>
+      <c r="B55" s="172"/>
+      <c r="C55" s="169"/>
       <c r="E55" s="77" t="s">
         <v>335</v>
       </c>
@@ -11715,8 +11718,8 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="170"/>
-      <c r="C56" s="172" t="s">
+      <c r="B56" s="172"/>
+      <c r="C56" s="169" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -11766,8 +11769,8 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="170"/>
-      <c r="C57" s="172"/>
+      <c r="B57" s="172"/>
+      <c r="C57" s="169"/>
       <c r="E57" s="77" t="s">
         <v>263</v>
       </c>
@@ -11796,8 +11799,8 @@
       <c r="R57" s="36"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="170"/>
-      <c r="C58" s="172" t="s">
+      <c r="B58" s="172"/>
+      <c r="C58" s="169" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -11847,8 +11850,8 @@
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="170"/>
-      <c r="C59" s="172"/>
+      <c r="B59" s="172"/>
+      <c r="C59" s="169"/>
       <c r="E59" s="77" t="s">
         <v>263</v>
       </c>
@@ -11877,8 +11880,8 @@
       <c r="R59" s="36"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="170"/>
-      <c r="C60" s="172" t="s">
+      <c r="B60" s="172"/>
+      <c r="C60" s="169" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -11928,8 +11931,8 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="170"/>
-      <c r="C61" s="172"/>
+      <c r="B61" s="172"/>
+      <c r="C61" s="169"/>
       <c r="E61" s="77" t="s">
         <v>263</v>
       </c>
@@ -11958,7 +11961,7 @@
       <c r="R61" s="36"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="170"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="85" t="s">
         <v>19</v>
       </c>
@@ -11983,8 +11986,8 @@
       <c r="R62" s="36"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="170"/>
-      <c r="C63" s="172" t="s">
+      <c r="B63" s="172"/>
+      <c r="C63" s="169" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -12034,8 +12037,8 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="170"/>
-      <c r="C64" s="172"/>
+      <c r="B64" s="172"/>
+      <c r="C64" s="169"/>
       <c r="E64" s="77" t="s">
         <v>263</v>
       </c>
@@ -12064,8 +12067,8 @@
       <c r="R64" s="36"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="170"/>
-      <c r="C65" s="172" t="s">
+      <c r="B65" s="172"/>
+      <c r="C65" s="169" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -12115,8 +12118,8 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="170"/>
-      <c r="C66" s="172"/>
+      <c r="B66" s="172"/>
+      <c r="C66" s="169"/>
       <c r="E66" s="77" t="s">
         <v>263</v>
       </c>
@@ -12145,8 +12148,8 @@
       <c r="R66" s="36"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="170"/>
-      <c r="C67" s="172"/>
+      <c r="B67" s="172"/>
+      <c r="C67" s="169"/>
       <c r="E67" s="77" t="s">
         <v>335</v>
       </c>
@@ -12175,8 +12178,8 @@
       <c r="R67" s="36"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="170"/>
-      <c r="C68" s="172"/>
+      <c r="B68" s="172"/>
+      <c r="C68" s="169"/>
       <c r="E68" s="77" t="s">
         <v>32</v>
       </c>
@@ -12205,8 +12208,8 @@
       <c r="R68" s="36"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="170"/>
-      <c r="C69" s="172" t="s">
+      <c r="B69" s="172"/>
+      <c r="C69" s="169" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -12256,8 +12259,8 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="170"/>
-      <c r="C70" s="172"/>
+      <c r="B70" s="172"/>
+      <c r="C70" s="169"/>
       <c r="E70" s="77" t="s">
         <v>263</v>
       </c>
@@ -12286,8 +12289,8 @@
       <c r="R70" s="36"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="170"/>
-      <c r="C71" s="172" t="s">
+      <c r="B71" s="172"/>
+      <c r="C71" s="169" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -12337,8 +12340,8 @@
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="170"/>
-      <c r="C72" s="172"/>
+      <c r="B72" s="172"/>
+      <c r="C72" s="169"/>
       <c r="E72" s="77" t="s">
         <v>263</v>
       </c>
@@ -12367,8 +12370,8 @@
       <c r="R72" s="36"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="170"/>
-      <c r="C73" s="172"/>
+      <c r="B73" s="172"/>
+      <c r="C73" s="169"/>
       <c r="E73" s="77" t="s">
         <v>335</v>
       </c>
@@ -12397,7 +12400,7 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="170"/>
+      <c r="B74" s="172"/>
       <c r="C74" s="85" t="s">
         <v>33</v>
       </c>
@@ -12422,7 +12425,7 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="170"/>
+      <c r="B75" s="172"/>
       <c r="C75" s="85" t="s">
         <v>39</v>
       </c>
@@ -12447,8 +12450,8 @@
       <c r="R75" s="36"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="170"/>
-      <c r="C76" s="172" t="s">
+      <c r="B76" s="172"/>
+      <c r="C76" s="169" t="s">
         <v>41</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -12498,8 +12501,8 @@
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="170"/>
-      <c r="C77" s="172"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="169"/>
       <c r="E77" s="77" t="s">
         <v>263</v>
       </c>
@@ -12528,8 +12531,8 @@
       <c r="R77" s="36"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="170"/>
-      <c r="C78" s="172" t="s">
+      <c r="B78" s="172"/>
+      <c r="C78" s="169" t="s">
         <v>42</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -12579,8 +12582,8 @@
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="170"/>
-      <c r="C79" s="172"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="169"/>
       <c r="E79" s="77" t="s">
         <v>263</v>
       </c>
@@ -12609,8 +12612,8 @@
       <c r="R79" s="36"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="170"/>
-      <c r="C80" s="172" t="s">
+      <c r="B80" s="172"/>
+      <c r="C80" s="169" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -12661,7 +12664,7 @@
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="64"/>
-      <c r="C81" s="173"/>
+      <c r="C81" s="170"/>
       <c r="E81" s="77" t="s">
         <v>263</v>
       </c>
@@ -12690,7 +12693,7 @@
       <c r="R81" s="36"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="169" t="s">
+      <c r="B82" s="171" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="85" t="s">
@@ -12717,8 +12720,8 @@
       <c r="R82" s="36"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="170"/>
-      <c r="C83" s="172" t="s">
+      <c r="B83" s="172"/>
+      <c r="C83" s="169" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -12766,8 +12769,8 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="170"/>
-      <c r="C84" s="172"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="169"/>
       <c r="E84" s="77" t="s">
         <v>263</v>
       </c>
@@ -12794,8 +12797,8 @@
       <c r="R84" s="36"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="170"/>
-      <c r="C85" s="172"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="169"/>
       <c r="E85" s="77" t="s">
         <v>335</v>
       </c>
@@ -12822,8 +12825,8 @@
       <c r="R85" s="36"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B86" s="170"/>
-      <c r="C86" s="172" t="s">
+      <c r="B86" s="172"/>
+      <c r="C86" s="169" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -12871,8 +12874,8 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="170"/>
-      <c r="C87" s="172"/>
+      <c r="B87" s="172"/>
+      <c r="C87" s="169"/>
       <c r="E87" s="77" t="s">
         <v>263</v>
       </c>
@@ -12899,8 +12902,8 @@
       <c r="R87" s="36"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="170"/>
-      <c r="C88" s="172"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="169"/>
       <c r="E88" s="77" t="s">
         <v>335</v>
       </c>
@@ -12927,8 +12930,8 @@
       <c r="R88" s="36"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="170"/>
-      <c r="C89" s="172"/>
+      <c r="B89" s="172"/>
+      <c r="C89" s="169"/>
       <c r="E89" s="77" t="s">
         <v>32</v>
       </c>
@@ -12955,8 +12958,8 @@
       <c r="R89" s="36"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="170"/>
-      <c r="C90" s="172" t="s">
+      <c r="B90" s="172"/>
+      <c r="C90" s="169" t="s">
         <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -13006,8 +13009,8 @@
       </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="170"/>
-      <c r="C91" s="172"/>
+      <c r="B91" s="172"/>
+      <c r="C91" s="169"/>
       <c r="E91" s="77" t="s">
         <v>263</v>
       </c>
@@ -13036,8 +13039,8 @@
       <c r="R91" s="36"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="170"/>
-      <c r="C92" s="172"/>
+      <c r="B92" s="172"/>
+      <c r="C92" s="169"/>
       <c r="E92" s="77" t="s">
         <v>335</v>
       </c>
@@ -13066,7 +13069,7 @@
       <c r="R92" s="36"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="170"/>
+      <c r="B93" s="172"/>
       <c r="C93" s="85" t="s">
         <v>35</v>
       </c>
@@ -13091,8 +13094,8 @@
       <c r="R93" s="36"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="170"/>
-      <c r="C94" s="172" t="s">
+      <c r="B94" s="172"/>
+      <c r="C94" s="169" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -13142,8 +13145,8 @@
       </c>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="170"/>
-      <c r="C95" s="172"/>
+      <c r="B95" s="172"/>
+      <c r="C95" s="169"/>
       <c r="E95" s="77" t="s">
         <v>263</v>
       </c>
@@ -13172,8 +13175,8 @@
       <c r="R95" s="36"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="170"/>
-      <c r="C96" s="172"/>
+      <c r="B96" s="172"/>
+      <c r="C96" s="169"/>
       <c r="E96" s="77" t="s">
         <v>335</v>
       </c>
@@ -13202,8 +13205,8 @@
       <c r="R96" s="36"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="170"/>
-      <c r="C97" s="172"/>
+      <c r="B97" s="172"/>
+      <c r="C97" s="169"/>
       <c r="E97" s="77" t="s">
         <v>32</v>
       </c>
@@ -13232,8 +13235,8 @@
       <c r="R97" s="36"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="170"/>
-      <c r="C98" s="172" t="s">
+      <c r="B98" s="172"/>
+      <c r="C98" s="169" t="s">
         <v>37</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -13281,8 +13284,8 @@
       </c>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="170"/>
-      <c r="C99" s="172"/>
+      <c r="B99" s="172"/>
+      <c r="C99" s="169"/>
       <c r="E99" s="77" t="s">
         <v>263</v>
       </c>
@@ -13309,8 +13312,8 @@
       <c r="R99" s="36"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="170"/>
-      <c r="C100" s="172"/>
+      <c r="B100" s="172"/>
+      <c r="C100" s="169"/>
       <c r="E100" s="77" t="s">
         <v>335</v>
       </c>
@@ -13337,8 +13340,8 @@
       <c r="R100" s="36"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B101" s="170"/>
-      <c r="C101" s="172" t="s">
+      <c r="B101" s="172"/>
+      <c r="C101" s="169" t="s">
         <v>36</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -13388,8 +13391,8 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="170"/>
-      <c r="C102" s="172"/>
+      <c r="B102" s="172"/>
+      <c r="C102" s="169"/>
       <c r="E102" s="77" t="s">
         <v>263</v>
       </c>
@@ -13418,8 +13421,8 @@
       <c r="R102" s="36"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="170"/>
-      <c r="C103" s="172" t="s">
+      <c r="B103" s="172"/>
+      <c r="C103" s="169" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -13467,8 +13470,8 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="170"/>
-      <c r="C104" s="172"/>
+      <c r="B104" s="172"/>
+      <c r="C104" s="169"/>
       <c r="E104" s="77" t="s">
         <v>263</v>
       </c>
@@ -13495,8 +13498,8 @@
       <c r="R104" s="36"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="170"/>
-      <c r="C105" s="172"/>
+      <c r="B105" s="172"/>
+      <c r="C105" s="169"/>
       <c r="E105" s="77" t="s">
         <v>335</v>
       </c>
@@ -13523,8 +13526,8 @@
       <c r="R105" s="36"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="170"/>
-      <c r="C106" s="172" t="s">
+      <c r="B106" s="172"/>
+      <c r="C106" s="169" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -13574,8 +13577,8 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="170"/>
-      <c r="C107" s="172"/>
+      <c r="B107" s="172"/>
+      <c r="C107" s="169"/>
       <c r="E107" s="77" t="s">
         <v>263</v>
       </c>
@@ -13604,8 +13607,8 @@
       <c r="R107" s="36"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="170"/>
-      <c r="C108" s="172"/>
+      <c r="B108" s="172"/>
+      <c r="C108" s="169"/>
       <c r="E108" s="77" t="s">
         <v>32</v>
       </c>
@@ -13634,8 +13637,8 @@
       <c r="R108" s="36"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="170"/>
-      <c r="C109" s="172" t="s">
+      <c r="B109" s="172"/>
+      <c r="C109" s="169" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -13683,8 +13686,8 @@
       </c>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="170"/>
-      <c r="C110" s="172"/>
+      <c r="B110" s="172"/>
+      <c r="C110" s="169"/>
       <c r="E110" s="77" t="s">
         <v>263</v>
       </c>
@@ -13711,8 +13714,8 @@
       <c r="R110" s="36"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="170"/>
-      <c r="C111" s="172"/>
+      <c r="B111" s="172"/>
+      <c r="C111" s="169"/>
       <c r="E111" s="77" t="s">
         <v>335</v>
       </c>
@@ -13739,8 +13742,8 @@
       <c r="R111" s="36"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="170"/>
-      <c r="C112" s="172" t="s">
+      <c r="B112" s="172"/>
+      <c r="C112" s="169" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -13788,8 +13791,8 @@
       </c>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="170"/>
-      <c r="C113" s="172"/>
+      <c r="B113" s="172"/>
+      <c r="C113" s="169"/>
       <c r="E113" s="77" t="s">
         <v>263</v>
       </c>
@@ -13816,8 +13819,8 @@
       <c r="R113" s="36"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="170"/>
-      <c r="C114" s="172"/>
+      <c r="B114" s="172"/>
+      <c r="C114" s="169"/>
       <c r="E114" s="77" t="s">
         <v>335</v>
       </c>
@@ -13844,8 +13847,8 @@
       <c r="R114" s="36"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="170"/>
-      <c r="C115" s="172" t="s">
+      <c r="B115" s="172"/>
+      <c r="C115" s="169" t="s">
         <v>38</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -13893,8 +13896,8 @@
       </c>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="170"/>
-      <c r="C116" s="172"/>
+      <c r="B116" s="172"/>
+      <c r="C116" s="169"/>
       <c r="E116" s="77" t="s">
         <v>263</v>
       </c>
@@ -13921,8 +13924,8 @@
       <c r="R116" s="36"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="170"/>
-      <c r="C117" s="172" t="s">
+      <c r="B117" s="172"/>
+      <c r="C117" s="169" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -13972,8 +13975,8 @@
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="170"/>
-      <c r="C118" s="172"/>
+      <c r="B118" s="172"/>
+      <c r="C118" s="169"/>
       <c r="E118" s="77" t="s">
         <v>263</v>
       </c>
@@ -14002,8 +14005,8 @@
       <c r="R118" s="36"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="170"/>
-      <c r="C119" s="172"/>
+      <c r="B119" s="172"/>
+      <c r="C119" s="169"/>
       <c r="E119" s="77" t="s">
         <v>335</v>
       </c>
@@ -14032,8 +14035,8 @@
       <c r="R119" s="36"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="170"/>
-      <c r="C120" s="172" t="s">
+      <c r="B120" s="172"/>
+      <c r="C120" s="169" t="s">
         <v>33</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -14081,8 +14084,8 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="170"/>
-      <c r="C121" s="172"/>
+      <c r="B121" s="172"/>
+      <c r="C121" s="169"/>
       <c r="E121" s="77" t="s">
         <v>263</v>
       </c>
@@ -14109,8 +14112,8 @@
       <c r="R121" s="36"/>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="170"/>
-      <c r="C122" s="172"/>
+      <c r="B122" s="172"/>
+      <c r="C122" s="169"/>
       <c r="E122" s="77" t="s">
         <v>335</v>
       </c>
@@ -14137,8 +14140,8 @@
       <c r="R122" s="36"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="170"/>
-      <c r="C123" s="172" t="s">
+      <c r="B123" s="172"/>
+      <c r="C123" s="169" t="s">
         <v>39</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -14186,8 +14189,8 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="170"/>
-      <c r="C124" s="172"/>
+      <c r="B124" s="172"/>
+      <c r="C124" s="169"/>
       <c r="E124" s="77" t="s">
         <v>263</v>
       </c>
@@ -14214,8 +14217,8 @@
       <c r="R124" s="36"/>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="170"/>
-      <c r="C125" s="172" t="s">
+      <c r="B125" s="172"/>
+      <c r="C125" s="169" t="s">
         <v>41</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -14263,8 +14266,8 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="170"/>
-      <c r="C126" s="172"/>
+      <c r="B126" s="172"/>
+      <c r="C126" s="169"/>
       <c r="E126" s="77" t="s">
         <v>263</v>
       </c>
@@ -14291,8 +14294,8 @@
       <c r="R126" s="36"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="170"/>
-      <c r="C127" s="172" t="s">
+      <c r="B127" s="172"/>
+      <c r="C127" s="169" t="s">
         <v>42</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -14342,8 +14345,8 @@
       </c>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="170"/>
-      <c r="C128" s="172"/>
+      <c r="B128" s="172"/>
+      <c r="C128" s="169"/>
       <c r="E128" s="77" t="s">
         <v>263</v>
       </c>
@@ -14372,8 +14375,8 @@
       <c r="R128" s="36"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="170"/>
-      <c r="C129" s="172" t="s">
+      <c r="B129" s="172"/>
+      <c r="C129" s="169" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -14424,7 +14427,7 @@
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="63"/>
-      <c r="C130" s="173"/>
+      <c r="C130" s="170"/>
       <c r="E130" s="77" t="s">
         <v>263</v>
       </c>
@@ -14453,7 +14456,7 @@
       <c r="R130" s="36"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="169" t="s">
+      <c r="B131" s="171" t="s">
         <v>82</v>
       </c>
       <c r="C131" s="174" t="s">
@@ -14504,8 +14507,8 @@
       </c>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="170"/>
-      <c r="C132" s="172"/>
+      <c r="B132" s="172"/>
+      <c r="C132" s="169"/>
       <c r="E132" s="77" t="s">
         <v>263</v>
       </c>
@@ -14532,8 +14535,8 @@
       <c r="R132" s="36"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="170"/>
-      <c r="C133" s="172" t="s">
+      <c r="B133" s="172"/>
+      <c r="C133" s="169" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -14581,8 +14584,8 @@
       </c>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B134" s="170"/>
-      <c r="C134" s="172"/>
+      <c r="B134" s="172"/>
+      <c r="C134" s="169"/>
       <c r="E134" s="77" t="s">
         <v>32</v>
       </c>
@@ -14611,8 +14614,8 @@
       <c r="R134" s="36"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="170"/>
-      <c r="C135" s="172" t="s">
+      <c r="B135" s="172"/>
+      <c r="C135" s="169" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -14662,8 +14665,8 @@
       </c>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="170"/>
-      <c r="C136" s="172"/>
+      <c r="B136" s="172"/>
+      <c r="C136" s="169"/>
       <c r="E136" s="77" t="s">
         <v>263</v>
       </c>
@@ -14692,8 +14695,8 @@
       <c r="R136" s="36"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="170"/>
-      <c r="C137" s="172"/>
+      <c r="B137" s="172"/>
+      <c r="C137" s="169"/>
       <c r="E137" s="77" t="s">
         <v>32</v>
       </c>
@@ -14722,8 +14725,8 @@
       <c r="R137" s="36"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="170"/>
-      <c r="C138" s="172" t="s">
+      <c r="B138" s="172"/>
+      <c r="C138" s="169" t="s">
         <v>34</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -14773,8 +14776,8 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="170"/>
-      <c r="C139" s="172"/>
+      <c r="B139" s="172"/>
+      <c r="C139" s="169"/>
       <c r="E139" s="77" t="s">
         <v>263</v>
       </c>
@@ -14803,8 +14806,8 @@
       <c r="R139" s="36"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B140" s="170"/>
-      <c r="C140" s="172"/>
+      <c r="B140" s="172"/>
+      <c r="C140" s="169"/>
       <c r="E140" s="77" t="s">
         <v>32</v>
       </c>
@@ -14833,8 +14836,8 @@
       <c r="R140" s="36"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B141" s="170"/>
-      <c r="C141" s="172" t="s">
+      <c r="B141" s="172"/>
+      <c r="C141" s="169" t="s">
         <v>35</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -14880,8 +14883,8 @@
       </c>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B142" s="170"/>
-      <c r="C142" s="172"/>
+      <c r="B142" s="172"/>
+      <c r="C142" s="169"/>
       <c r="E142" s="77" t="s">
         <v>32</v>
       </c>
@@ -14908,8 +14911,8 @@
       <c r="R142" s="36"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B143" s="170"/>
-      <c r="C143" s="172"/>
+      <c r="B143" s="172"/>
+      <c r="C143" s="169"/>
       <c r="E143" s="77" t="s">
         <v>335</v>
       </c>
@@ -14936,8 +14939,8 @@
       <c r="R143" s="36"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B144" s="170"/>
-      <c r="C144" s="172" t="s">
+      <c r="B144" s="172"/>
+      <c r="C144" s="169" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -14985,8 +14988,8 @@
       </c>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B145" s="170"/>
-      <c r="C145" s="172"/>
+      <c r="B145" s="172"/>
+      <c r="C145" s="169"/>
       <c r="E145" s="77" t="s">
         <v>32</v>
       </c>
@@ -15015,8 +15018,8 @@
       <c r="R145" s="36"/>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B146" s="170"/>
-      <c r="C146" s="172"/>
+      <c r="B146" s="172"/>
+      <c r="C146" s="169"/>
       <c r="E146" s="77" t="s">
         <v>414</v>
       </c>
@@ -15045,8 +15048,8 @@
       <c r="R146" s="36"/>
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B147" s="170"/>
-      <c r="C147" s="172" t="s">
+      <c r="B147" s="172"/>
+      <c r="C147" s="169" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -15096,8 +15099,8 @@
       </c>
     </row>
     <row r="148" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B148" s="170"/>
-      <c r="C148" s="172"/>
+      <c r="B148" s="172"/>
+      <c r="C148" s="169"/>
       <c r="E148" s="77" t="s">
         <v>263</v>
       </c>
@@ -15126,8 +15129,8 @@
       <c r="R148" s="36"/>
     </row>
     <row r="149" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B149" s="170"/>
-      <c r="C149" s="172"/>
+      <c r="B149" s="172"/>
+      <c r="C149" s="169"/>
       <c r="E149" s="77" t="s">
         <v>32</v>
       </c>
@@ -15156,8 +15159,8 @@
       <c r="R149" s="36"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B150" s="170"/>
-      <c r="C150" s="172" t="s">
+      <c r="B150" s="172"/>
+      <c r="C150" s="169" t="s">
         <v>36</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -15207,8 +15210,8 @@
       </c>
     </row>
     <row r="151" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B151" s="170"/>
-      <c r="C151" s="172"/>
+      <c r="B151" s="172"/>
+      <c r="C151" s="169"/>
       <c r="E151" s="77" t="s">
         <v>263</v>
       </c>
@@ -15237,8 +15240,8 @@
       <c r="R151" s="36"/>
     </row>
     <row r="152" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B152" s="170"/>
-      <c r="C152" s="172"/>
+      <c r="B152" s="172"/>
+      <c r="C152" s="169"/>
       <c r="E152" s="77" t="s">
         <v>32</v>
       </c>
@@ -15267,8 +15270,8 @@
       <c r="R152" s="36"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B153" s="170"/>
-      <c r="C153" s="172"/>
+      <c r="B153" s="172"/>
+      <c r="C153" s="169"/>
       <c r="E153" s="77" t="s">
         <v>445</v>
       </c>
@@ -15297,8 +15300,8 @@
       <c r="R153" s="36"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B154" s="170"/>
-      <c r="C154" s="172" t="s">
+      <c r="B154" s="172"/>
+      <c r="C154" s="169" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -15348,8 +15351,8 @@
       </c>
     </row>
     <row r="155" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B155" s="170"/>
-      <c r="C155" s="172"/>
+      <c r="B155" s="172"/>
+      <c r="C155" s="169"/>
       <c r="E155" s="1" t="s">
         <v>263</v>
       </c>
@@ -15378,7 +15381,7 @@
       <c r="R155" s="36"/>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B156" s="170"/>
+      <c r="B156" s="172"/>
       <c r="C156" s="85"/>
       <c r="E156" s="1" t="s">
         <v>335</v>
@@ -15408,7 +15411,7 @@
       <c r="R156" s="36"/>
     </row>
     <row r="157" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B157" s="170"/>
+      <c r="B157" s="172"/>
       <c r="C157" s="85"/>
       <c r="E157" s="1" t="s">
         <v>32</v>
@@ -15438,7 +15441,7 @@
       <c r="R157" s="36"/>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B158" s="170"/>
+      <c r="B158" s="172"/>
       <c r="C158" s="85"/>
       <c r="E158" s="1" t="s">
         <v>446</v>
@@ -15468,8 +15471,8 @@
       <c r="R158" s="36"/>
     </row>
     <row r="159" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B159" s="170"/>
-      <c r="C159" s="172" t="s">
+      <c r="B159" s="172"/>
+      <c r="C159" s="169" t="s">
         <v>19</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -15519,8 +15522,8 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B160" s="170"/>
-      <c r="C160" s="172"/>
+      <c r="B160" s="172"/>
+      <c r="C160" s="169"/>
       <c r="E160" s="77" t="s">
         <v>263</v>
       </c>
@@ -15549,8 +15552,8 @@
       <c r="R160" s="36"/>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B161" s="170"/>
-      <c r="C161" s="172" t="s">
+      <c r="B161" s="172"/>
+      <c r="C161" s="169" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -15600,8 +15603,8 @@
       </c>
     </row>
     <row r="162" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B162" s="170"/>
-      <c r="C162" s="172"/>
+      <c r="B162" s="172"/>
+      <c r="C162" s="169"/>
       <c r="E162" s="77" t="s">
         <v>263</v>
       </c>
@@ -15630,8 +15633,8 @@
       <c r="R162" s="36"/>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B163" s="170"/>
-      <c r="C163" s="172"/>
+      <c r="B163" s="172"/>
+      <c r="C163" s="169"/>
       <c r="E163" s="77" t="s">
         <v>32</v>
       </c>
@@ -15660,8 +15663,8 @@
       <c r="R163" s="36"/>
     </row>
     <row r="164" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B164" s="170"/>
-      <c r="C164" s="172" t="s">
+      <c r="B164" s="172"/>
+      <c r="C164" s="169" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -15711,8 +15714,8 @@
       </c>
     </row>
     <row r="165" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B165" s="170"/>
-      <c r="C165" s="172"/>
+      <c r="B165" s="172"/>
+      <c r="C165" s="169"/>
       <c r="E165" s="77" t="s">
         <v>263</v>
       </c>
@@ -15741,8 +15744,8 @@
       <c r="R165" s="36"/>
     </row>
     <row r="166" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B166" s="170"/>
-      <c r="C166" s="172"/>
+      <c r="B166" s="172"/>
+      <c r="C166" s="169"/>
       <c r="E166" s="77" t="s">
         <v>32</v>
       </c>
@@ -15771,8 +15774,8 @@
       <c r="R166" s="36"/>
     </row>
     <row r="167" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B167" s="170"/>
-      <c r="C167" s="172"/>
+      <c r="B167" s="172"/>
+      <c r="C167" s="169"/>
       <c r="E167" s="77" t="s">
         <v>392</v>
       </c>
@@ -15801,8 +15804,8 @@
       <c r="R167" s="36"/>
     </row>
     <row r="168" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B168" s="170"/>
-      <c r="C168" s="172"/>
+      <c r="B168" s="172"/>
+      <c r="C168" s="169"/>
       <c r="E168" s="77" t="s">
         <v>393</v>
       </c>
@@ -15831,8 +15834,8 @@
       <c r="R168" s="36"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B169" s="170"/>
-      <c r="C169" s="172"/>
+      <c r="B169" s="172"/>
+      <c r="C169" s="169"/>
       <c r="E169" s="77" t="s">
         <v>394</v>
       </c>
@@ -15861,8 +15864,8 @@
       <c r="R169" s="36"/>
     </row>
     <row r="170" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B170" s="170"/>
-      <c r="C170" s="172"/>
+      <c r="B170" s="172"/>
+      <c r="C170" s="169"/>
       <c r="E170" s="77" t="s">
         <v>395</v>
       </c>
@@ -15891,8 +15894,8 @@
       <c r="R170" s="36"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B171" s="170"/>
-      <c r="C171" s="172"/>
+      <c r="B171" s="172"/>
+      <c r="C171" s="169"/>
       <c r="E171" s="77" t="s">
         <v>396</v>
       </c>
@@ -15921,8 +15924,8 @@
       <c r="R171" s="36"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B172" s="170"/>
-      <c r="C172" s="172" t="s">
+      <c r="B172" s="172"/>
+      <c r="C172" s="169" t="s">
         <v>38</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -15972,8 +15975,8 @@
       </c>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B173" s="170"/>
-      <c r="C173" s="172"/>
+      <c r="B173" s="172"/>
+      <c r="C173" s="169"/>
       <c r="E173" s="77" t="s">
         <v>263</v>
       </c>
@@ -16002,8 +16005,8 @@
       <c r="R173" s="36"/>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B174" s="170"/>
-      <c r="C174" s="172"/>
+      <c r="B174" s="172"/>
+      <c r="C174" s="169"/>
       <c r="E174" s="77" t="s">
         <v>32</v>
       </c>
@@ -16032,8 +16035,8 @@
       <c r="R174" s="36"/>
     </row>
     <row r="175" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B175" s="170"/>
-      <c r="C175" s="172" t="s">
+      <c r="B175" s="172"/>
+      <c r="C175" s="169" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -16083,8 +16086,8 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B176" s="170"/>
-      <c r="C176" s="172"/>
+      <c r="B176" s="172"/>
+      <c r="C176" s="169"/>
       <c r="E176" s="77" t="s">
         <v>263</v>
       </c>
@@ -16113,8 +16116,8 @@
       <c r="R176" s="36"/>
     </row>
     <row r="177" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B177" s="170"/>
-      <c r="C177" s="172"/>
+      <c r="B177" s="172"/>
+      <c r="C177" s="169"/>
       <c r="E177" s="77" t="s">
         <v>32</v>
       </c>
@@ -16143,8 +16146,8 @@
       <c r="R177" s="36"/>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B178" s="170"/>
-      <c r="C178" s="172"/>
+      <c r="B178" s="172"/>
+      <c r="C178" s="169"/>
       <c r="E178" s="77" t="s">
         <v>335</v>
       </c>
@@ -16173,8 +16176,8 @@
       <c r="R178" s="36"/>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B179" s="170"/>
-      <c r="C179" s="172" t="s">
+      <c r="B179" s="172"/>
+      <c r="C179" s="169" t="s">
         <v>33</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -16224,8 +16227,8 @@
       </c>
     </row>
     <row r="180" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B180" s="170"/>
-      <c r="C180" s="172"/>
+      <c r="B180" s="172"/>
+      <c r="C180" s="169"/>
       <c r="E180" s="77" t="s">
         <v>263</v>
       </c>
@@ -16254,8 +16257,8 @@
       <c r="R180" s="36"/>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B181" s="170"/>
-      <c r="C181" s="172"/>
+      <c r="B181" s="172"/>
+      <c r="C181" s="169"/>
       <c r="E181" s="77" t="s">
         <v>32</v>
       </c>
@@ -16284,8 +16287,8 @@
       <c r="R181" s="36"/>
     </row>
     <row r="182" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B182" s="170"/>
-      <c r="C182" s="172"/>
+      <c r="B182" s="172"/>
+      <c r="C182" s="169"/>
       <c r="E182" s="77" t="s">
         <v>392</v>
       </c>
@@ -16314,8 +16317,8 @@
       <c r="R182" s="36"/>
     </row>
     <row r="183" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B183" s="170"/>
-      <c r="C183" s="172"/>
+      <c r="B183" s="172"/>
+      <c r="C183" s="169"/>
       <c r="E183" s="77" t="s">
         <v>393</v>
       </c>
@@ -16344,8 +16347,8 @@
       <c r="R183" s="36"/>
     </row>
     <row r="184" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B184" s="170"/>
-      <c r="C184" s="172"/>
+      <c r="B184" s="172"/>
+      <c r="C184" s="169"/>
       <c r="E184" s="77" t="s">
         <v>394</v>
       </c>
@@ -16374,8 +16377,8 @@
       <c r="R184" s="36"/>
     </row>
     <row r="185" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B185" s="170"/>
-      <c r="C185" s="172"/>
+      <c r="B185" s="172"/>
+      <c r="C185" s="169"/>
       <c r="E185" s="77" t="s">
         <v>395</v>
       </c>
@@ -16404,8 +16407,8 @@
       <c r="R185" s="36"/>
     </row>
     <row r="186" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B186" s="170"/>
-      <c r="C186" s="172"/>
+      <c r="B186" s="172"/>
+      <c r="C186" s="169"/>
       <c r="E186" s="77" t="s">
         <v>396</v>
       </c>
@@ -16434,8 +16437,8 @@
       <c r="R186" s="36"/>
     </row>
     <row r="187" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B187" s="170"/>
-      <c r="C187" s="172" t="s">
+      <c r="B187" s="172"/>
+      <c r="C187" s="169" t="s">
         <v>39</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -16483,8 +16486,8 @@
       </c>
     </row>
     <row r="188" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B188" s="170"/>
-      <c r="C188" s="172"/>
+      <c r="B188" s="172"/>
+      <c r="C188" s="169"/>
       <c r="E188" s="77" t="s">
         <v>263</v>
       </c>
@@ -16511,8 +16514,8 @@
       <c r="R188" s="36"/>
     </row>
     <row r="189" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B189" s="170"/>
-      <c r="C189" s="172" t="s">
+      <c r="B189" s="172"/>
+      <c r="C189" s="169" t="s">
         <v>41</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -16562,8 +16565,8 @@
       </c>
     </row>
     <row r="190" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B190" s="170"/>
-      <c r="C190" s="172"/>
+      <c r="B190" s="172"/>
+      <c r="C190" s="169"/>
       <c r="E190" s="77" t="s">
         <v>263</v>
       </c>
@@ -16592,8 +16595,8 @@
       <c r="R190" s="36"/>
     </row>
     <row r="191" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B191" s="170"/>
-      <c r="C191" s="172"/>
+      <c r="B191" s="172"/>
+      <c r="C191" s="169"/>
       <c r="E191" s="77" t="s">
         <v>335</v>
       </c>
@@ -16622,8 +16625,8 @@
       <c r="R191" s="36"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B192" s="170"/>
-      <c r="C192" s="172" t="s">
+      <c r="B192" s="172"/>
+      <c r="C192" s="169" t="s">
         <v>42</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -16672,9 +16675,9 @@
         <v>0.68782522197942697</v>
       </c>
     </row>
-    <row r="193" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B193" s="170"/>
-      <c r="C193" s="172"/>
+    <row r="193" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B193" s="172"/>
+      <c r="C193" s="169"/>
       <c r="E193" s="77" t="s">
         <v>263</v>
       </c>
@@ -16702,9 +16705,9 @@
       <c r="Q193" s="36"/>
       <c r="R193" s="36"/>
     </row>
-    <row r="194" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B194" s="170"/>
-      <c r="C194" s="172"/>
+    <row r="194" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B194" s="172"/>
+      <c r="C194" s="169"/>
       <c r="E194" s="77" t="s">
         <v>32</v>
       </c>
@@ -16732,9 +16735,9 @@
       <c r="Q194" s="36"/>
       <c r="R194" s="36"/>
     </row>
-    <row r="195" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B195" s="170"/>
-      <c r="C195" s="172"/>
+    <row r="195" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B195" s="172"/>
+      <c r="C195" s="169"/>
       <c r="E195" s="77" t="s">
         <v>335</v>
       </c>
@@ -16762,9 +16765,9 @@
       <c r="Q195" s="36"/>
       <c r="R195" s="36"/>
     </row>
-    <row r="196" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B196" s="170"/>
-      <c r="C196" s="172" t="s">
+    <row r="196" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B196" s="172"/>
+      <c r="C196" s="169" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -16813,9 +16816,9 @@
         <v>0.806646426302424</v>
       </c>
     </row>
-    <row r="197" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B197" s="170"/>
-      <c r="C197" s="172"/>
+    <row r="197" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B197" s="172"/>
+      <c r="C197" s="169"/>
       <c r="E197" s="1" t="s">
         <v>263</v>
       </c>
@@ -16843,9 +16846,9 @@
       <c r="Q197" s="36"/>
       <c r="R197" s="36"/>
     </row>
-    <row r="198" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B198" s="170"/>
-      <c r="C198" s="172"/>
+    <row r="198" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B198" s="172"/>
+      <c r="C198" s="169"/>
       <c r="E198" s="1" t="s">
         <v>335</v>
       </c>
@@ -16873,9 +16876,9 @@
       <c r="Q198" s="36"/>
       <c r="R198" s="36"/>
     </row>
-    <row r="199" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B199" s="170"/>
-      <c r="C199" s="172"/>
+    <row r="199" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B199" s="172"/>
+      <c r="C199" s="169"/>
       <c r="E199" s="1" t="s">
         <v>32</v>
       </c>
@@ -16903,9 +16906,9 @@
       <c r="Q199" s="36"/>
       <c r="R199" s="36"/>
     </row>
-    <row r="200" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B200" s="171"/>
-      <c r="C200" s="173"/>
+    <row r="200" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B200" s="173"/>
+      <c r="C200" s="170"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13" t="s">
         <v>446</v>
@@ -16934,137 +16937,138 @@
       <c r="Q200" s="87"/>
       <c r="R200" s="87"/>
     </row>
-    <row r="206" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U206" s="164" t="s">
+    <row r="206" spans="2:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U206" s="152" t="s">
         <v>349</v>
       </c>
-      <c r="V206" s="164"/>
-      <c r="W206" s="164"/>
-      <c r="X206" s="164"/>
-      <c r="Y206" s="164"/>
-      <c r="Z206" s="164"/>
-      <c r="AA206" s="164"/>
-      <c r="AB206" s="164"/>
-      <c r="AC206" s="164"/>
-      <c r="AD206" s="164"/>
-      <c r="AE206" s="164"/>
-      <c r="AF206" s="164"/>
-      <c r="AG206" s="164"/>
-      <c r="AH206" s="164"/>
-      <c r="AI206" s="164"/>
-      <c r="AJ206" s="164"/>
-      <c r="AK206" s="164"/>
-      <c r="AL206" s="164"/>
-      <c r="AM206" s="164"/>
-      <c r="AN206" s="164"/>
-    </row>
-    <row r="207" spans="2:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="V206" s="152"/>
+      <c r="W206" s="152"/>
+      <c r="X206" s="152"/>
+      <c r="Y206" s="152"/>
+      <c r="Z206" s="152"/>
+      <c r="AA206" s="152"/>
+      <c r="AB206" s="152"/>
+      <c r="AC206" s="152"/>
+      <c r="AD206" s="152"/>
+      <c r="AE206" s="152"/>
+      <c r="AF206" s="152"/>
+      <c r="AG206" s="152"/>
+      <c r="AH206" s="152"/>
+      <c r="AI206" s="152"/>
+      <c r="AJ206" s="152"/>
+      <c r="AK206" s="152"/>
+      <c r="AL206" s="152"/>
+      <c r="AM206" s="152"/>
+      <c r="AN206" s="152"/>
+      <c r="AO206" s="152"/>
+    </row>
+    <row r="207" spans="2:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U207" s="13" t="s">
         <v>347</v>
       </c>
       <c r="V207" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="W207" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W207" s="13" t="s">
+      <c r="X207" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X207" s="13" t="s">
+      <c r="Y207" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y207" s="13" t="s">
+      <c r="Z207" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z207" s="13" t="s">
+      <c r="AA207" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA207" s="13" t="s">
+      <c r="AB207" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AB207" s="13" t="s">
+      <c r="AC207" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC207" s="13" t="s">
+      <c r="AD207" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD207" s="13" t="s">
+      <c r="AE207" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AE207" s="13" t="s">
+      <c r="AF207" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF207" s="13" t="s">
+      <c r="AG207" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG207" s="13" t="s">
+      <c r="AH207" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH207" s="13" t="s">
+      <c r="AI207" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AI207" s="13" t="s">
+      <c r="AJ207" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ207" s="13" t="s">
+      <c r="AK207" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AK207" s="13" t="s">
+      <c r="AL207" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AL207" s="13" t="s">
+      <c r="AM207" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AM207" s="13" t="s">
+      <c r="AN207" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AN207" s="13" t="s">
+      <c r="AO207" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U208" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V208" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="W208" s="1" t="s">
         <v>273</v>
       </c>
       <c r="X208" s="1" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
       <c r="Y208" s="1" t="s">
         <v>344</v>
       </c>
       <c r="Z208" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA208" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="AA208" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="AB208" s="1" t="s">
         <v>344</v>
       </c>
       <c r="AC208" s="1" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="AD208" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AE208" s="1" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
       <c r="AF208" s="1" t="s">
         <v>344</v>
       </c>
       <c r="AG208" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AH208" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AH208" s="1" t="s">
+      <c r="AI208" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="AI208" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AJ208" s="1" t="s">
         <v>273</v>
@@ -17076,19 +17080,19 @@
         <v>273</v>
       </c>
       <c r="AM208" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN208" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AN208" s="1" t="s">
+      <c r="AO208" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="209" spans="21:40" x14ac:dyDescent="0.2">
+    <row r="209" spans="21:41" x14ac:dyDescent="0.2">
       <c r="U209" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="W209" s="1" t="s">
         <v>273</v>
       </c>
@@ -17096,10 +17100,10 @@
         <v>273</v>
       </c>
       <c r="Y209" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z209" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="Z209" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AA209" s="1" t="s">
         <v>273</v>
@@ -17120,10 +17124,10 @@
         <v>273</v>
       </c>
       <c r="AG209" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH209" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="AH209" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AI209" s="1" t="s">
         <v>273</v>
@@ -17132,25 +17136,26 @@
         <v>273</v>
       </c>
       <c r="AK209" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL209" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AL209" s="1" t="s">
+      <c r="AM209" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AM209" s="1" t="s">
+      <c r="AN209" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AN209" s="1" t="s">
+      <c r="AO209" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="210" spans="21:40" ht="34" x14ac:dyDescent="0.2">
+    <row r="210" spans="21:41" ht="34" x14ac:dyDescent="0.2">
       <c r="U210" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="V210" s="25"/>
       <c r="W210" s="1" t="s">
         <v>273</v>
       </c>
@@ -17205,8 +17210,11 @@
       <c r="AN210" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="211" spans="21:40" x14ac:dyDescent="0.2">
+      <c r="AO210" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="211" spans="21:41" x14ac:dyDescent="0.2">
       <c r="U211" s="13" t="s">
         <v>24</v>
       </c>
@@ -17229,105 +17237,107 @@
       <c r="AL211" s="13"/>
       <c r="AM211" s="13"/>
       <c r="AN211" s="13"/>
-    </row>
-    <row r="213" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U213" s="164" t="s">
+      <c r="AO211" s="13"/>
+    </row>
+    <row r="213" spans="21:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U213" s="152" t="s">
         <v>350</v>
       </c>
-      <c r="V213" s="164"/>
-      <c r="W213" s="164"/>
-      <c r="X213" s="164"/>
-      <c r="Y213" s="164"/>
-      <c r="Z213" s="164"/>
-      <c r="AA213" s="164"/>
-      <c r="AB213" s="164"/>
-      <c r="AC213" s="164"/>
-      <c r="AD213" s="164"/>
-      <c r="AE213" s="164"/>
-      <c r="AF213" s="164"/>
-      <c r="AG213" s="164"/>
-      <c r="AH213" s="164"/>
-      <c r="AI213" s="164"/>
-      <c r="AJ213" s="164"/>
-      <c r="AK213" s="164"/>
-      <c r="AL213" s="164"/>
-      <c r="AM213" s="164"/>
-      <c r="AN213" s="164"/>
-    </row>
-    <row r="214" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="V213" s="152"/>
+      <c r="W213" s="152"/>
+      <c r="X213" s="152"/>
+      <c r="Y213" s="152"/>
+      <c r="Z213" s="152"/>
+      <c r="AA213" s="152"/>
+      <c r="AB213" s="152"/>
+      <c r="AC213" s="152"/>
+      <c r="AD213" s="152"/>
+      <c r="AE213" s="152"/>
+      <c r="AF213" s="152"/>
+      <c r="AG213" s="152"/>
+      <c r="AH213" s="152"/>
+      <c r="AI213" s="152"/>
+      <c r="AJ213" s="152"/>
+      <c r="AK213" s="152"/>
+      <c r="AL213" s="152"/>
+      <c r="AM213" s="152"/>
+      <c r="AN213" s="152"/>
+      <c r="AO213" s="152"/>
+    </row>
+    <row r="214" spans="21:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U214" s="13" t="s">
         <v>347</v>
       </c>
       <c r="V214" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="W214" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W214" s="13" t="s">
+      <c r="X214" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X214" s="13" t="s">
+      <c r="Y214" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y214" s="13" t="s">
+      <c r="Z214" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z214" s="13" t="s">
+      <c r="AA214" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA214" s="13" t="s">
+      <c r="AB214" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AB214" s="13" t="s">
+      <c r="AC214" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC214" s="13" t="s">
+      <c r="AD214" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD214" s="13" t="s">
+      <c r="AE214" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AE214" s="13" t="s">
+      <c r="AF214" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF214" s="13" t="s">
+      <c r="AG214" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG214" s="13" t="s">
+      <c r="AH214" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH214" s="13" t="s">
+      <c r="AI214" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AI214" s="13" t="s">
+      <c r="AJ214" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ214" s="13" t="s">
+      <c r="AK214" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AK214" s="13" t="s">
+      <c r="AL214" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AL214" s="13" t="s">
+      <c r="AM214" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AM214" s="13" t="s">
+      <c r="AN214" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AN214" s="13" t="s">
+      <c r="AO214" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="21:40" x14ac:dyDescent="0.2">
+    <row r="215" spans="21:41" x14ac:dyDescent="0.2">
       <c r="U215" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="W215" s="1" t="s">
         <v>273</v>
       </c>
       <c r="X215" s="1" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
       <c r="Y215" s="1" t="s">
         <v>344</v>
@@ -17348,10 +17358,10 @@
         <v>344</v>
       </c>
       <c r="AE215" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF215" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="AF215" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="AG215" s="1" t="s">
         <v>344</v>
@@ -17363,13 +17373,13 @@
         <v>344</v>
       </c>
       <c r="AJ215" s="1" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="AK215" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AL215" s="1" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
       <c r="AM215" s="1" t="s">
         <v>344</v>
@@ -17377,25 +17387,25 @@
       <c r="AN215" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="216" spans="21:40" x14ac:dyDescent="0.2">
+      <c r="AO215" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="216" spans="21:41" x14ac:dyDescent="0.2">
       <c r="U216" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V216" s="1" t="s">
+      <c r="W216" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="W216" s="1" t="s">
+      <c r="X216" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="X216" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="Y216" s="1" t="s">
         <v>345</v>
       </c>
       <c r="Z216" s="1" t="s">
-        <v>273</v>
+        <v>345</v>
       </c>
       <c r="AA216" s="1" t="s">
         <v>273</v>
@@ -17416,10 +17426,10 @@
         <v>273</v>
       </c>
       <c r="AG216" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH216" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="AH216" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AI216" s="1" t="s">
         <v>273</v>
@@ -17439,14 +17449,15 @@
       <c r="AN216" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="217" spans="21:40" ht="34" x14ac:dyDescent="0.2">
+      <c r="AO216" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="217" spans="21:41" ht="34" x14ac:dyDescent="0.2">
       <c r="U217" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="W217" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="V217" s="25"/>
       <c r="X217" s="1" t="s">
         <v>351</v>
       </c>
@@ -17460,7 +17471,7 @@
         <v>351</v>
       </c>
       <c r="AB217" s="1" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="AC217" s="1" t="s">
         <v>273</v>
@@ -17475,16 +17486,16 @@
         <v>273</v>
       </c>
       <c r="AG217" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH217" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AH217" s="1" t="s">
+      <c r="AI217" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AI217" s="1" t="s">
+      <c r="AJ217" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="AJ217" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AK217" s="1" t="s">
         <v>273</v>
@@ -17498,144 +17509,150 @@
       <c r="AN217" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="218" spans="21:40" ht="34" x14ac:dyDescent="0.2">
+      <c r="AO217" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="218" spans="21:41" ht="34" x14ac:dyDescent="0.2">
       <c r="U218" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="V218" s="25" t="s">
+      <c r="V218" s="25"/>
+      <c r="W218" s="25" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="219" spans="21:40" s="25" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="21:41" s="25" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U219" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="V219" s="26" t="s">
+      <c r="V219" s="26"/>
+      <c r="W219" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="W219" s="26"/>
       <c r="X219" s="26"/>
       <c r="Y219" s="26"/>
       <c r="Z219" s="26"/>
       <c r="AA219" s="26"/>
       <c r="AB219" s="26"/>
       <c r="AC219" s="26"/>
-      <c r="AD219" s="26" t="s">
+      <c r="AD219" s="26"/>
+      <c r="AE219" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="AE219" s="26"/>
       <c r="AF219" s="26"/>
       <c r="AG219" s="26"/>
-      <c r="AH219" s="26" t="s">
+      <c r="AH219" s="26"/>
+      <c r="AI219" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="AI219" s="26"/>
       <c r="AJ219" s="26"/>
       <c r="AK219" s="26"/>
-      <c r="AL219" s="26" t="s">
+      <c r="AL219" s="26"/>
+      <c r="AM219" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="AM219" s="26"/>
-      <c r="AN219" s="26" t="s">
+      <c r="AN219" s="26"/>
+      <c r="AO219" s="26" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="221" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U221" s="164" t="s">
+    <row r="221" spans="21:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U221" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="V221" s="164"/>
-      <c r="W221" s="164"/>
-      <c r="X221" s="164"/>
-      <c r="Y221" s="164"/>
-      <c r="Z221" s="164"/>
-      <c r="AA221" s="164"/>
-      <c r="AB221" s="164"/>
-      <c r="AC221" s="164"/>
-      <c r="AD221" s="164"/>
-      <c r="AE221" s="164"/>
-      <c r="AF221" s="164"/>
-      <c r="AG221" s="164"/>
-      <c r="AH221" s="164"/>
-      <c r="AI221" s="164"/>
-      <c r="AJ221" s="164"/>
-      <c r="AK221" s="164"/>
-      <c r="AL221" s="164"/>
-      <c r="AM221" s="164"/>
-      <c r="AN221" s="164"/>
-    </row>
-    <row r="222" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="V221" s="152"/>
+      <c r="W221" s="152"/>
+      <c r="X221" s="152"/>
+      <c r="Y221" s="152"/>
+      <c r="Z221" s="152"/>
+      <c r="AA221" s="152"/>
+      <c r="AB221" s="152"/>
+      <c r="AC221" s="152"/>
+      <c r="AD221" s="152"/>
+      <c r="AE221" s="152"/>
+      <c r="AF221" s="152"/>
+      <c r="AG221" s="152"/>
+      <c r="AH221" s="152"/>
+      <c r="AI221" s="152"/>
+      <c r="AJ221" s="152"/>
+      <c r="AK221" s="152"/>
+      <c r="AL221" s="152"/>
+      <c r="AM221" s="152"/>
+      <c r="AN221" s="152"/>
+      <c r="AO221" s="152"/>
+    </row>
+    <row r="222" spans="21:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U222" s="13" t="s">
         <v>347</v>
       </c>
       <c r="V222" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="W222" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W222" s="13" t="s">
+      <c r="X222" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X222" s="13" t="s">
+      <c r="Y222" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y222" s="13" t="s">
+      <c r="Z222" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z222" s="13" t="s">
+      <c r="AA222" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA222" s="13" t="s">
+      <c r="AB222" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AB222" s="13" t="s">
+      <c r="AC222" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC222" s="13" t="s">
+      <c r="AD222" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD222" s="13" t="s">
+      <c r="AE222" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AE222" s="13" t="s">
+      <c r="AF222" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF222" s="13" t="s">
+      <c r="AG222" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG222" s="13" t="s">
+      <c r="AH222" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH222" s="13" t="s">
+      <c r="AI222" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AI222" s="13" t="s">
+      <c r="AJ222" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ222" s="13" t="s">
+      <c r="AK222" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AK222" s="13" t="s">
+      <c r="AL222" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AL222" s="13" t="s">
+      <c r="AM222" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AM222" s="13" t="s">
+      <c r="AN222" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AN222" s="13" t="s">
+      <c r="AO222" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="21:40" x14ac:dyDescent="0.2">
+    <row r="223" spans="21:41" x14ac:dyDescent="0.2">
       <c r="U223" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V223" s="1" t="s">
+      <c r="W223" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="W223" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="X223" s="1" t="s">
         <v>344</v>
@@ -17643,11 +17660,11 @@
       <c r="Y223" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="Z223" s="61" t="s">
+      <c r="Z223" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA223" s="61" t="s">
         <v>273</v>
-      </c>
-      <c r="AA223" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="AB223" s="1" t="s">
         <v>344</v>
@@ -17688,31 +17705,31 @@
       <c r="AN223" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="224" spans="21:40" x14ac:dyDescent="0.2">
+      <c r="AO223" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="224" spans="21:41" x14ac:dyDescent="0.2">
       <c r="U224" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V224" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="W224" s="1" t="s">
         <v>273</v>
       </c>
       <c r="X224" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y224" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="Y224" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="Z224" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AA224" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB224" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="AB224" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AC224" s="1" t="s">
         <v>273</v>
@@ -17721,10 +17738,10 @@
         <v>273</v>
       </c>
       <c r="AE224" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF224" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="AF224" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AG224" s="1" t="s">
         <v>273</v>
@@ -17750,16 +17767,17 @@
       <c r="AN224" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="225" spans="21:40" ht="34" x14ac:dyDescent="0.2">
+      <c r="AO224" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="225" spans="21:41" ht="34" x14ac:dyDescent="0.2">
       <c r="U225" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="V225" s="1" t="s">
+      <c r="V225" s="25"/>
+      <c r="W225" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="W225" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="X225" s="1" t="s">
         <v>351</v>
@@ -17768,40 +17786,40 @@
         <v>351</v>
       </c>
       <c r="Z225" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA225" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="AA225" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="AB225" s="1" t="s">
         <v>351</v>
       </c>
       <c r="AC225" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD225" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AD225" s="1" t="s">
+      <c r="AE225" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AE225" s="1" t="s">
+      <c r="AF225" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="AF225" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="AG225" s="1" t="s">
         <v>351</v>
       </c>
       <c r="AH225" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI225" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="AI225" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="AJ225" s="1" t="s">
         <v>351</v>
       </c>
       <c r="AK225" s="1" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="AL225" s="1" t="s">
         <v>273</v>
@@ -17812,8 +17830,11 @@
       <c r="AN225" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="226" spans="21:40" s="25" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO225" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="226" spans="21:41" s="25" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U226" s="26" t="s">
         <v>24</v>
       </c>
@@ -17824,10 +17845,10 @@
       <c r="Z226" s="26"/>
       <c r="AA226" s="26"/>
       <c r="AB226" s="26"/>
-      <c r="AC226" s="26" t="s">
+      <c r="AC226" s="26"/>
+      <c r="AD226" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="AD226" s="26"/>
       <c r="AE226" s="26"/>
       <c r="AF226" s="26"/>
       <c r="AG226" s="26"/>
@@ -17838,126 +17859,128 @@
       <c r="AL226" s="26"/>
       <c r="AM226" s="26"/>
       <c r="AN226" s="26"/>
-    </row>
-    <row r="229" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U229" s="164" t="s">
+      <c r="AO226" s="26"/>
+    </row>
+    <row r="229" spans="21:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U229" s="152" t="s">
         <v>355</v>
       </c>
-      <c r="V229" s="164"/>
-      <c r="W229" s="164"/>
-      <c r="X229" s="164"/>
-      <c r="Y229" s="164"/>
-      <c r="Z229" s="164"/>
-      <c r="AA229" s="164"/>
-      <c r="AB229" s="164"/>
-      <c r="AC229" s="164"/>
-      <c r="AD229" s="164"/>
-      <c r="AE229" s="164"/>
-      <c r="AF229" s="164"/>
-      <c r="AG229" s="164"/>
-      <c r="AH229" s="164"/>
-      <c r="AI229" s="164"/>
-      <c r="AJ229" s="164"/>
-      <c r="AK229" s="164"/>
-      <c r="AL229" s="164"/>
-      <c r="AM229" s="164"/>
-      <c r="AN229" s="164"/>
-    </row>
-    <row r="230" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="V229" s="152"/>
+      <c r="W229" s="152"/>
+      <c r="X229" s="152"/>
+      <c r="Y229" s="152"/>
+      <c r="Z229" s="152"/>
+      <c r="AA229" s="152"/>
+      <c r="AB229" s="152"/>
+      <c r="AC229" s="152"/>
+      <c r="AD229" s="152"/>
+      <c r="AE229" s="152"/>
+      <c r="AF229" s="152"/>
+      <c r="AG229" s="152"/>
+      <c r="AH229" s="152"/>
+      <c r="AI229" s="152"/>
+      <c r="AJ229" s="152"/>
+      <c r="AK229" s="152"/>
+      <c r="AL229" s="152"/>
+      <c r="AM229" s="152"/>
+      <c r="AN229" s="152"/>
+      <c r="AO229" s="152"/>
+    </row>
+    <row r="230" spans="21:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U230" s="13" t="s">
         <v>347</v>
       </c>
       <c r="V230" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="W230" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="W230" s="13" t="s">
+      <c r="X230" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X230" s="13" t="s">
+      <c r="Y230" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y230" s="13" t="s">
+      <c r="Z230" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z230" s="13" t="s">
+      <c r="AA230" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA230" s="13" t="s">
+      <c r="AB230" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AB230" s="13" t="s">
+      <c r="AC230" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC230" s="13" t="s">
+      <c r="AD230" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD230" s="13" t="s">
+      <c r="AE230" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AE230" s="13" t="s">
+      <c r="AF230" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF230" s="13" t="s">
+      <c r="AG230" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AG230" s="13" t="s">
+      <c r="AH230" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH230" s="13" t="s">
+      <c r="AI230" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AI230" s="13" t="s">
+      <c r="AJ230" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ230" s="13" t="s">
+      <c r="AK230" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AK230" s="13" t="s">
+      <c r="AL230" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AL230" s="13" t="s">
+      <c r="AM230" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AM230" s="13" t="s">
+      <c r="AN230" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AN230" s="13" t="s">
+      <c r="AO230" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="21:40" x14ac:dyDescent="0.2">
+    <row r="231" spans="21:41" x14ac:dyDescent="0.2">
       <c r="U231" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V231" s="1" t="s">
+      <c r="W231" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="W231" s="1" t="s">
+      <c r="X231" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="X231" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="Y231" s="1" t="s">
         <v>344</v>
       </c>
       <c r="Z231" s="1" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="AA231" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AB231" s="1" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
       <c r="AC231" s="1" t="s">
         <v>344</v>
       </c>
       <c r="AD231" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE231" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="AE231" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>344</v>
@@ -17984,18 +18007,18 @@
         <v>344</v>
       </c>
       <c r="AN231" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AO231" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="21:40" x14ac:dyDescent="0.2">
+    <row r="232" spans="21:41" x14ac:dyDescent="0.2">
       <c r="U232" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V232" s="1" t="s">
+      <c r="W232" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="W232" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="X232" s="1" t="s">
         <v>345</v>
@@ -18004,13 +18027,13 @@
         <v>345</v>
       </c>
       <c r="Z232" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA232" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AA232" s="1" t="s">
+      <c r="AB232" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AB232" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="AC232" s="1" t="s">
         <v>345</v>
@@ -18019,10 +18042,10 @@
         <v>345</v>
       </c>
       <c r="AE232" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF232" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="AF232" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="AG232" s="1" t="s">
         <v>345</v>
@@ -18037,25 +18060,26 @@
         <v>345</v>
       </c>
       <c r="AK232" s="1" t="s">
-        <v>273</v>
+        <v>345</v>
       </c>
       <c r="AL232" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AM232" s="1" t="s">
-        <v>345</v>
+        <v>273</v>
       </c>
       <c r="AN232" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="233" spans="21:40" ht="34" x14ac:dyDescent="0.2">
+      <c r="AO232" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="233" spans="21:41" ht="34" x14ac:dyDescent="0.2">
       <c r="U233" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="V233" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="V233" s="25"/>
       <c r="W233" s="1" t="s">
         <v>273</v>
       </c>
@@ -18066,22 +18090,22 @@
         <v>273</v>
       </c>
       <c r="Z233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA233" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="AA233" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AB233" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AC233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD233" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AD233" s="1" t="s">
+      <c r="AE233" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="AE233" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>273</v>
@@ -18093,31 +18117,32 @@
         <v>273</v>
       </c>
       <c r="AI233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ233" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="AJ233" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AK233" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AL233" s="1" t="s">
-        <v>351</v>
+        <v>273</v>
       </c>
       <c r="AM233" s="1" t="s">
         <v>351</v>
       </c>
       <c r="AN233" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AO233" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="234" spans="21:40" ht="17" x14ac:dyDescent="0.2">
+    <row r="234" spans="21:41" ht="17" x14ac:dyDescent="0.2">
       <c r="U234" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="V234" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="V234" s="25"/>
       <c r="W234" s="1" t="s">
         <v>273</v>
       </c>
@@ -18149,19 +18174,19 @@
         <v>273</v>
       </c>
       <c r="AG234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH234" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="AH234" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AI234" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AJ234" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK234" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="AK234" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AL234" s="1" t="s">
         <v>273</v>
@@ -18172,14 +18197,15 @@
       <c r="AN234" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="235" spans="21:40" ht="34" x14ac:dyDescent="0.2">
+      <c r="AO234" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="235" spans="21:41" ht="34" x14ac:dyDescent="0.2">
       <c r="U235" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="V235" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="V235" s="25"/>
       <c r="W235" s="1" t="s">
         <v>273</v>
       </c>
@@ -18234,14 +18260,15 @@
       <c r="AN235" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="236" spans="21:40" ht="85" x14ac:dyDescent="0.2">
+      <c r="AO235" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="236" spans="21:41" ht="85" x14ac:dyDescent="0.2">
       <c r="U236" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="V236" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="V236" s="25"/>
       <c r="W236" s="1" t="s">
         <v>273</v>
       </c>
@@ -18254,18 +18281,18 @@
       <c r="Z236" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AA236" s="25" t="s">
+      <c r="AA236" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB236" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="AB236" s="1" t="s">
+      <c r="AC236" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AC236" s="25"/>
-      <c r="AD236" s="25" t="s">
+      <c r="AD236" s="25"/>
+      <c r="AE236" s="25" t="s">
         <v>447</v>
-      </c>
-      <c r="AE236" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>273</v>
@@ -18291,95 +18318,91 @@
       <c r="AM236" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AN236" s="25" t="s">
+      <c r="AN236" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO236" s="25" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="237" spans="21:40" s="25" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="21:41" s="25" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U237" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="V237" s="26" t="s">
+      <c r="V237" s="26"/>
+      <c r="W237" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="W237" s="26" t="s">
+      <c r="X237" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="X237" s="26" t="s">
+      <c r="Y237" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="Y237" s="26"/>
-      <c r="Z237" s="26" t="s">
-        <v>342</v>
-      </c>
+      <c r="Z237" s="26"/>
       <c r="AA237" s="26" t="s">
         <v>342</v>
       </c>
       <c r="AB237" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC237" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="AC237" s="26"/>
-      <c r="AD237" s="26" t="s">
+      <c r="AD237" s="26"/>
+      <c r="AE237" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="AE237" s="26" t="s">
+      <c r="AF237" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="AF237" s="26"/>
       <c r="AG237" s="26"/>
       <c r="AH237" s="26"/>
-      <c r="AI237" s="26" t="s">
+      <c r="AI237" s="26"/>
+      <c r="AJ237" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="AJ237" s="26"/>
-      <c r="AK237" s="26" t="s">
+      <c r="AK237" s="26"/>
+      <c r="AL237" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="AL237" s="26" t="s">
+      <c r="AM237" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="AM237" s="26"/>
-      <c r="AN237" s="26" t="s">
+      <c r="AN237" s="26"/>
+      <c r="AO237" s="26" t="s">
         <v>342</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="71">
-    <mergeCell ref="U229:AN229"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="C196:C200"/>
-    <mergeCell ref="U206:AN206"/>
-    <mergeCell ref="U213:AN213"/>
-    <mergeCell ref="U221:AN221"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="C164:C171"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="C179:C186"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="B131:B200"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B5:B35"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B36:B80"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="C69:C70"/>
     <mergeCell ref="C117:C119"/>
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="C78:C79"/>
@@ -18391,32 +18414,40 @@
     <mergeCell ref="C94:C97"/>
     <mergeCell ref="C98:C100"/>
     <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B36:B80"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B3:S3"/>
-    <mergeCell ref="B5:B35"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B131:B200"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="C164:C171"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="C179:C186"/>
+    <mergeCell ref="U229:AO229"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="C196:C200"/>
+    <mergeCell ref="U206:AO206"/>
+    <mergeCell ref="U213:AO213"/>
+    <mergeCell ref="U221:AO221"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18443,14 +18474,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -18474,7 +18505,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="161" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -18488,7 +18519,7 @@
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="158"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
@@ -18497,7 +18528,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="158"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -18506,7 +18537,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="158"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -18515,7 +18546,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="159"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
@@ -18527,7 +18558,7 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="161" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18541,7 +18572,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="158"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
@@ -18553,7 +18584,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="158"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -18565,7 +18596,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="158"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -18574,7 +18605,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="159"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -18586,7 +18617,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="161" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -18602,7 +18633,7 @@
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="158"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -18614,7 +18645,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="158"/>
+      <c r="B16" s="162"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -18629,7 +18660,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="158"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -18641,7 +18672,7 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="159"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -18655,7 +18686,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="162" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -18666,7 +18697,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="158"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -18675,7 +18706,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="158"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -18684,7 +18715,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="158"/>
+      <c r="B22" s="162"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -18693,7 +18724,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="159"/>
+      <c r="B23" s="154"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
@@ -18705,18 +18736,18 @@
       <c r="G23" s="13"/>
     </row>
     <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="164" t="s">
+      <c r="J30" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="K30" s="164"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="164"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="164"/>
-      <c r="R30" s="164"/>
-      <c r="S30" s="164"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152"/>
     </row>
     <row r="31" spans="2:20" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J31" s="55" t="s">
@@ -18751,7 +18782,7 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J32" s="169" t="s">
+      <c r="J32" s="171" t="s">
         <v>79</v>
       </c>
       <c r="K32" s="14" t="s">
@@ -18765,7 +18796,7 @@
       </c>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J33" s="170"/>
+      <c r="J33" s="172"/>
       <c r="K33" s="14" t="s">
         <v>16</v>
       </c>
@@ -18774,7 +18805,7 @@
       </c>
     </row>
     <row r="34" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J34" s="170"/>
+      <c r="J34" s="172"/>
       <c r="K34" s="14" t="s">
         <v>17</v>
       </c>
@@ -18783,7 +18814,7 @@
       </c>
     </row>
     <row r="35" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J35" s="170"/>
+      <c r="J35" s="172"/>
       <c r="K35" s="14" t="s">
         <v>34</v>
       </c>
@@ -18792,7 +18823,7 @@
       </c>
     </row>
     <row r="36" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J36" s="170"/>
+      <c r="J36" s="172"/>
       <c r="K36" s="14" t="s">
         <v>35</v>
       </c>
@@ -18801,7 +18832,7 @@
       </c>
     </row>
     <row r="37" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J37" s="170"/>
+      <c r="J37" s="172"/>
       <c r="K37" s="14" t="s">
         <v>18</v>
       </c>
@@ -18813,7 +18844,7 @@
       </c>
     </row>
     <row r="38" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J38" s="170"/>
+      <c r="J38" s="172"/>
       <c r="K38" s="14" t="s">
         <v>37</v>
       </c>
@@ -18822,7 +18853,7 @@
       </c>
     </row>
     <row r="39" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J39" s="170"/>
+      <c r="J39" s="172"/>
       <c r="K39" s="14" t="s">
         <v>36</v>
       </c>
@@ -18831,7 +18862,7 @@
       </c>
     </row>
     <row r="40" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J40" s="170"/>
+      <c r="J40" s="172"/>
       <c r="K40" s="14" t="s">
         <v>12</v>
       </c>
@@ -18843,7 +18874,7 @@
       </c>
     </row>
     <row r="41" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J41" s="170"/>
+      <c r="J41" s="172"/>
       <c r="K41" s="14" t="s">
         <v>19</v>
       </c>
@@ -18855,7 +18886,7 @@
       </c>
     </row>
     <row r="42" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="170"/>
+      <c r="J42" s="172"/>
       <c r="K42" s="14" t="s">
         <v>13</v>
       </c>
@@ -18867,7 +18898,7 @@
       </c>
     </row>
     <row r="43" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J43" s="170"/>
+      <c r="J43" s="172"/>
       <c r="K43" s="14" t="s">
         <v>14</v>
       </c>
@@ -18876,7 +18907,7 @@
       </c>
     </row>
     <row r="44" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J44" s="170"/>
+      <c r="J44" s="172"/>
       <c r="K44" s="14" t="s">
         <v>38</v>
       </c>
@@ -18885,7 +18916,7 @@
       </c>
     </row>
     <row r="45" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J45" s="170"/>
+      <c r="J45" s="172"/>
       <c r="K45" s="14" t="s">
         <v>20</v>
       </c>
@@ -18897,7 +18928,7 @@
       </c>
     </row>
     <row r="46" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J46" s="170"/>
+      <c r="J46" s="172"/>
       <c r="K46" s="14" t="s">
         <v>33</v>
       </c>
@@ -18906,7 +18937,7 @@
       </c>
     </row>
     <row r="47" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J47" s="170"/>
+      <c r="J47" s="172"/>
       <c r="K47" s="14" t="s">
         <v>39</v>
       </c>
@@ -18918,7 +18949,7 @@
       </c>
     </row>
     <row r="48" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J48" s="170"/>
+      <c r="J48" s="172"/>
       <c r="K48" s="14" t="s">
         <v>41</v>
       </c>
@@ -18927,7 +18958,7 @@
       </c>
     </row>
     <row r="49" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J49" s="170"/>
+      <c r="J49" s="172"/>
       <c r="K49" s="14" t="s">
         <v>42</v>
       </c>
@@ -18936,7 +18967,7 @@
       </c>
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J50" s="170"/>
+      <c r="J50" s="172"/>
       <c r="K50" s="15" t="s">
         <v>15</v>
       </c>
@@ -18945,7 +18976,7 @@
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J51" s="169" t="s">
+      <c r="J51" s="171" t="s">
         <v>80</v>
       </c>
       <c r="K51" s="14" t="s">
@@ -18956,7 +18987,7 @@
       </c>
     </row>
     <row r="52" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J52" s="170"/>
+      <c r="J52" s="172"/>
       <c r="K52" s="14" t="s">
         <v>16</v>
       </c>
@@ -18965,7 +18996,7 @@
       </c>
     </row>
     <row r="53" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J53" s="170"/>
+      <c r="J53" s="172"/>
       <c r="K53" s="14" t="s">
         <v>17</v>
       </c>
@@ -18974,7 +19005,7 @@
       </c>
     </row>
     <row r="54" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J54" s="170"/>
+      <c r="J54" s="172"/>
       <c r="K54" s="14" t="s">
         <v>34</v>
       </c>
@@ -18983,7 +19014,7 @@
       </c>
     </row>
     <row r="55" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J55" s="170"/>
+      <c r="J55" s="172"/>
       <c r="K55" s="14" t="s">
         <v>35</v>
       </c>
@@ -18992,7 +19023,7 @@
       </c>
     </row>
     <row r="56" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J56" s="170"/>
+      <c r="J56" s="172"/>
       <c r="K56" s="14" t="s">
         <v>18</v>
       </c>
@@ -19001,7 +19032,7 @@
       </c>
     </row>
     <row r="57" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J57" s="170"/>
+      <c r="J57" s="172"/>
       <c r="K57" s="14" t="s">
         <v>37</v>
       </c>
@@ -19013,7 +19044,7 @@
       </c>
     </row>
     <row r="58" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J58" s="170"/>
+      <c r="J58" s="172"/>
       <c r="K58" s="14" t="s">
         <v>36</v>
       </c>
@@ -19022,7 +19053,7 @@
       </c>
     </row>
     <row r="59" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J59" s="170"/>
+      <c r="J59" s="172"/>
       <c r="K59" s="14" t="s">
         <v>12</v>
       </c>
@@ -19034,7 +19065,7 @@
       </c>
     </row>
     <row r="60" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J60" s="170"/>
+      <c r="J60" s="172"/>
       <c r="K60" s="14" t="s">
         <v>19</v>
       </c>
@@ -19043,7 +19074,7 @@
       </c>
     </row>
     <row r="61" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J61" s="170"/>
+      <c r="J61" s="172"/>
       <c r="K61" s="14" t="s">
         <v>13</v>
       </c>
@@ -19055,7 +19086,7 @@
       </c>
     </row>
     <row r="62" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J62" s="170"/>
+      <c r="J62" s="172"/>
       <c r="K62" s="14" t="s">
         <v>14</v>
       </c>
@@ -19064,7 +19095,7 @@
       </c>
     </row>
     <row r="63" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J63" s="170"/>
+      <c r="J63" s="172"/>
       <c r="K63" s="14" t="s">
         <v>38</v>
       </c>
@@ -19076,7 +19107,7 @@
       </c>
     </row>
     <row r="64" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J64" s="170"/>
+      <c r="J64" s="172"/>
       <c r="K64" s="14" t="s">
         <v>20</v>
       </c>
@@ -19088,7 +19119,7 @@
       </c>
     </row>
     <row r="65" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J65" s="170"/>
+      <c r="J65" s="172"/>
       <c r="K65" s="14" t="s">
         <v>33</v>
       </c>
@@ -19100,7 +19131,7 @@
       </c>
     </row>
     <row r="66" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J66" s="170"/>
+      <c r="J66" s="172"/>
       <c r="K66" s="14" t="s">
         <v>39</v>
       </c>
@@ -19112,7 +19143,7 @@
       </c>
     </row>
     <row r="67" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J67" s="170"/>
+      <c r="J67" s="172"/>
       <c r="K67" s="14" t="s">
         <v>41</v>
       </c>
@@ -19121,7 +19152,7 @@
       </c>
     </row>
     <row r="68" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J68" s="170"/>
+      <c r="J68" s="172"/>
       <c r="K68" s="14" t="s">
         <v>42</v>
       </c>
@@ -19133,7 +19164,7 @@
       </c>
     </row>
     <row r="69" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J69" s="170"/>
+      <c r="J69" s="172"/>
       <c r="K69" s="15" t="s">
         <v>15</v>
       </c>
@@ -19142,7 +19173,7 @@
       </c>
     </row>
     <row r="70" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J70" s="169" t="s">
+      <c r="J70" s="171" t="s">
         <v>81</v>
       </c>
       <c r="K70" s="14" t="s">
@@ -19156,7 +19187,7 @@
       </c>
     </row>
     <row r="71" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J71" s="170"/>
+      <c r="J71" s="172"/>
       <c r="K71" s="14" t="s">
         <v>16</v>
       </c>
@@ -19165,7 +19196,7 @@
       </c>
     </row>
     <row r="72" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J72" s="170"/>
+      <c r="J72" s="172"/>
       <c r="K72" s="14" t="s">
         <v>17</v>
       </c>
@@ -19177,7 +19208,7 @@
       </c>
     </row>
     <row r="73" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J73" s="170"/>
+      <c r="J73" s="172"/>
       <c r="K73" s="14" t="s">
         <v>34</v>
       </c>
@@ -19186,7 +19217,7 @@
       </c>
     </row>
     <row r="74" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J74" s="170"/>
+      <c r="J74" s="172"/>
       <c r="K74" s="14" t="s">
         <v>35</v>
       </c>
@@ -19195,7 +19226,7 @@
       </c>
     </row>
     <row r="75" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J75" s="170"/>
+      <c r="J75" s="172"/>
       <c r="K75" s="14" t="s">
         <v>18</v>
       </c>
@@ -19207,7 +19238,7 @@
       </c>
     </row>
     <row r="76" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J76" s="170"/>
+      <c r="J76" s="172"/>
       <c r="K76" s="14" t="s">
         <v>37</v>
       </c>
@@ -19216,7 +19247,7 @@
       </c>
     </row>
     <row r="77" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J77" s="170"/>
+      <c r="J77" s="172"/>
       <c r="K77" s="14" t="s">
         <v>36</v>
       </c>
@@ -19228,7 +19259,7 @@
       </c>
     </row>
     <row r="78" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J78" s="170"/>
+      <c r="J78" s="172"/>
       <c r="K78" s="14" t="s">
         <v>12</v>
       </c>
@@ -19237,7 +19268,7 @@
       </c>
     </row>
     <row r="79" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J79" s="170"/>
+      <c r="J79" s="172"/>
       <c r="K79" s="14" t="s">
         <v>19</v>
       </c>
@@ -19249,7 +19280,7 @@
       </c>
     </row>
     <row r="80" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J80" s="170"/>
+      <c r="J80" s="172"/>
       <c r="K80" s="14" t="s">
         <v>13</v>
       </c>
@@ -19261,7 +19292,7 @@
       </c>
     </row>
     <row r="81" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J81" s="170"/>
+      <c r="J81" s="172"/>
       <c r="K81" s="14" t="s">
         <v>14</v>
       </c>
@@ -19273,7 +19304,7 @@
       </c>
     </row>
     <row r="82" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J82" s="170"/>
+      <c r="J82" s="172"/>
       <c r="K82" s="14" t="s">
         <v>38</v>
       </c>
@@ -19288,7 +19319,7 @@
       </c>
     </row>
     <row r="83" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J83" s="170"/>
+      <c r="J83" s="172"/>
       <c r="K83" s="14" t="s">
         <v>20</v>
       </c>
@@ -19297,7 +19328,7 @@
       </c>
     </row>
     <row r="84" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J84" s="170"/>
+      <c r="J84" s="172"/>
       <c r="K84" s="14" t="s">
         <v>33</v>
       </c>
@@ -19306,7 +19337,7 @@
       </c>
     </row>
     <row r="85" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J85" s="170"/>
+      <c r="J85" s="172"/>
       <c r="K85" s="14" t="s">
         <v>39</v>
       </c>
@@ -19315,7 +19346,7 @@
       </c>
     </row>
     <row r="86" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J86" s="170"/>
+      <c r="J86" s="172"/>
       <c r="K86" s="14" t="s">
         <v>41</v>
       </c>
@@ -19330,7 +19361,7 @@
       </c>
     </row>
     <row r="87" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J87" s="170"/>
+      <c r="J87" s="172"/>
       <c r="K87" s="14" t="s">
         <v>42</v>
       </c>
@@ -19339,7 +19370,7 @@
       </c>
     </row>
     <row r="88" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J88" s="170"/>
+      <c r="J88" s="172"/>
       <c r="K88" s="15" t="s">
         <v>15</v>
       </c>
@@ -19351,7 +19382,7 @@
       </c>
     </row>
     <row r="89" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J89" s="169" t="s">
+      <c r="J89" s="171" t="s">
         <v>82</v>
       </c>
       <c r="K89" s="14" t="s">
@@ -19359,125 +19390,125 @@
       </c>
     </row>
     <row r="90" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J90" s="170"/>
+      <c r="J90" s="172"/>
       <c r="K90" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J91" s="170"/>
+      <c r="J91" s="172"/>
       <c r="K91" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J92" s="170"/>
+      <c r="J92" s="172"/>
       <c r="K92" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="93" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J93" s="170"/>
+      <c r="J93" s="172"/>
       <c r="K93" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J94" s="170"/>
+      <c r="J94" s="172"/>
       <c r="K94" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J95" s="170"/>
+      <c r="J95" s="172"/>
       <c r="K95" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="96" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J96" s="170"/>
+      <c r="J96" s="172"/>
       <c r="K96" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J97" s="170"/>
+      <c r="J97" s="172"/>
       <c r="K97" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J98" s="170"/>
+      <c r="J98" s="172"/>
       <c r="K98" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="99" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J99" s="170"/>
+      <c r="J99" s="172"/>
       <c r="K99" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J100" s="170"/>
+      <c r="J100" s="172"/>
       <c r="K100" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J101" s="170"/>
+      <c r="J101" s="172"/>
       <c r="K101" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J102" s="170"/>
+      <c r="J102" s="172"/>
       <c r="K102" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J103" s="170"/>
+      <c r="J103" s="172"/>
       <c r="K103" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="104" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J104" s="170"/>
+      <c r="J104" s="172"/>
       <c r="K104" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="105" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J105" s="170"/>
+      <c r="J105" s="172"/>
       <c r="K105" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="106" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J106" s="170"/>
+      <c r="J106" s="172"/>
       <c r="K106" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="107" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J107" s="170"/>
+      <c r="J107" s="172"/>
       <c r="K107" s="15" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J89:J107"/>
+    <mergeCell ref="J70:J88"/>
+    <mergeCell ref="J32:J50"/>
+    <mergeCell ref="J51:J69"/>
+    <mergeCell ref="J30:S30"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B23"/>
-    <mergeCell ref="J89:J107"/>
-    <mergeCell ref="J70:J88"/>
-    <mergeCell ref="J32:J50"/>
-    <mergeCell ref="J51:J69"/>
-    <mergeCell ref="J30:S30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gift/Documents/Rprojects/project-harvest/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847446FD-ABC8-554C-AB18-9E513150B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BAD892-502B-214D-8DCE-38607608E188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="27660" windowHeight="17500" activeTab="3" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
+    <workbookView xWindow="5220" yWindow="660" windowWidth="27660" windowHeight="17500" activeTab="1" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
   <sheets>
     <sheet name="exceedances" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11689" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11688" uniqueCount="448">
   <si>
     <t>Analyte</t>
   </si>
@@ -1338,9 +1338,6 @@
     <t>Q771</t>
   </si>
   <si>
-    <t>seasonMonsoon:Q771</t>
-  </si>
-  <si>
     <t>run effect plot</t>
   </si>
   <si>
@@ -2127,7 +2124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2437,14 +2434,17 @@
     <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2456,31 +2456,28 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2491,6 +2488,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2499,12 +2502,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2523,6 +2520,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2728,8 +2728,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{754A9160-A031-164E-8DDE-1E700AF4C60A}" name="Table2" displayName="Table2" ref="B3:N132" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
-  <autoFilter ref="B3:N132" xr:uid="{754A9160-A031-164E-8DDE-1E700AF4C60A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{754A9160-A031-164E-8DDE-1E700AF4C60A}" name="Table2" displayName="Table2" ref="B3:N130" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="B3:N130" xr:uid="{754A9160-A031-164E-8DDE-1E700AF4C60A}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{A4139E18-F49A-ED4E-AC32-363B2A2EF243}" name="Column1" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{6F5B0609-FC24-5244-8C65-143CDFC6C64F}" name="Column2" dataDxfId="11"/>
@@ -3501,27 +3501,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="164" t="s">
+      <c r="M31" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="164"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="164"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="165" t="s">
+      <c r="M32" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="163" t="s">
+      <c r="N32" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
+      <c r="O32" s="151"/>
+      <c r="P32" s="151"/>
+      <c r="Q32" s="151"/>
     </row>
     <row r="33" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M33" s="159"/>
+      <c r="M33" s="154"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -3617,7 +3617,7 @@
       </c>
     </row>
     <row r="46" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y46" s="157" t="s">
+      <c r="Y46" s="161" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="8" t="s">
@@ -3631,7 +3631,7 @@
       </c>
     </row>
     <row r="47" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y47" s="158"/>
+      <c r="Y47" s="162"/>
       <c r="Z47" s="8">
         <v>0</v>
       </c>
@@ -3643,7 +3643,7 @@
       </c>
     </row>
     <row r="48" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y48" s="158"/>
+      <c r="Y48" s="162"/>
       <c r="Z48" s="8">
         <v>0.5</v>
       </c>
@@ -3655,7 +3655,7 @@
       </c>
     </row>
     <row r="49" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y49" s="158"/>
+      <c r="Y49" s="162"/>
       <c r="Z49" s="8">
         <v>1</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
     </row>
     <row r="50" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y50" s="158"/>
+      <c r="Y50" s="162"/>
       <c r="Z50" s="8">
         <v>1.5</v>
       </c>
@@ -3679,7 +3679,7 @@
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="159"/>
+      <c r="Y51" s="154"/>
       <c r="Z51" s="11">
         <v>2</v>
       </c>
@@ -3692,7 +3692,7 @@
       <c r="AC51" s="13"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y52" s="157" t="s">
+      <c r="Y52" s="161" t="s">
         <v>69</v>
       </c>
       <c r="Z52" s="1" t="s">
@@ -3701,62 +3701,62 @@
       <c r="AA52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC52" s="160" t="s">
+      <c r="AC52" s="163" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="158"/>
+      <c r="Y53" s="162"/>
       <c r="Z53" s="1">
         <v>0</v>
       </c>
       <c r="AA53" s="34">
         <v>6.1733623452348702E-2</v>
       </c>
-      <c r="AC53" s="161"/>
+      <c r="AC53" s="165"/>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y54" s="158"/>
+      <c r="Y54" s="162"/>
       <c r="Z54" s="1">
         <v>2</v>
       </c>
       <c r="AA54" s="34">
         <v>1.20772053410085E-2</v>
       </c>
-      <c r="AC54" s="161"/>
+      <c r="AC54" s="165"/>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y55" s="158"/>
+      <c r="Y55" s="162"/>
       <c r="Z55" s="1">
         <v>4</v>
       </c>
       <c r="AA55" s="31">
         <v>2.2662402083130201E-3</v>
       </c>
-      <c r="AC55" s="161"/>
+      <c r="AC55" s="165"/>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y56" s="158"/>
+      <c r="Y56" s="162"/>
       <c r="Z56" s="1">
         <v>6</v>
       </c>
       <c r="AA56" s="28">
         <v>4.2184786680835203E-4</v>
       </c>
-      <c r="AC56" s="161"/>
+      <c r="AC56" s="165"/>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y57" s="158"/>
+      <c r="Y57" s="162"/>
       <c r="Z57" s="1">
         <v>8</v>
       </c>
       <c r="AA57" s="28">
         <v>7.8406646322768398E-5</v>
       </c>
-      <c r="AC57" s="161"/>
+      <c r="AC57" s="165"/>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y58" s="159"/>
+      <c r="Y58" s="154"/>
       <c r="Z58" s="13">
         <v>10</v>
       </c>
@@ -3764,10 +3764,10 @@
         <v>1.4568956039108299E-5</v>
       </c>
       <c r="AB58" s="13"/>
-      <c r="AC58" s="162"/>
+      <c r="AC58" s="164"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y59" s="157" t="s">
+      <c r="Y59" s="161" t="s">
         <v>73</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -3776,72 +3776,72 @@
       <c r="AA59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" s="160" t="s">
+      <c r="AC59" s="163" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y60" s="158"/>
+      <c r="Y60" s="162"/>
       <c r="Z60" s="1">
         <v>0</v>
       </c>
       <c r="AA60" s="34">
         <v>4.213704983443E-2</v>
       </c>
-      <c r="AC60" s="161"/>
+      <c r="AC60" s="165"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y61" s="158"/>
+      <c r="Y61" s="162"/>
       <c r="Z61" s="1">
         <v>4</v>
       </c>
       <c r="AA61" s="36">
         <v>0.70383460067707004</v>
       </c>
-      <c r="AC61" s="161"/>
+      <c r="AC61" s="165"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y62" s="158"/>
+      <c r="Y62" s="162"/>
       <c r="Z62" s="1">
         <v>8</v>
       </c>
       <c r="AA62" s="36">
         <v>0.99227108557330002</v>
       </c>
-      <c r="AC62" s="161"/>
+      <c r="AC62" s="165"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y63" s="158"/>
+      <c r="Y63" s="162"/>
       <c r="Z63" s="1">
         <v>12</v>
       </c>
       <c r="AA63" s="37">
         <v>0.99985583826317304</v>
       </c>
-      <c r="AC63" s="161"/>
+      <c r="AC63" s="165"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y64" s="158"/>
+      <c r="Y64" s="162"/>
       <c r="Z64" s="1">
         <v>16</v>
       </c>
       <c r="AA64" s="37">
         <v>0.99999733107778499</v>
       </c>
-      <c r="AC64" s="161"/>
+      <c r="AC64" s="165"/>
     </row>
     <row r="65" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y65" s="158"/>
+      <c r="Y65" s="162"/>
       <c r="Z65" s="1">
         <v>20</v>
       </c>
       <c r="AA65" s="37">
         <v>0.99999995059606805</v>
       </c>
-      <c r="AC65" s="161"/>
+      <c r="AC65" s="165"/>
     </row>
     <row r="66" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y66" s="159"/>
+      <c r="Y66" s="154"/>
       <c r="Z66" s="13">
         <v>24</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>0.99999999908549497</v>
       </c>
       <c r="AB66" s="13"/>
-      <c r="AC66" s="162"/>
+      <c r="AC66" s="164"/>
     </row>
     <row r="71" spans="25:36" x14ac:dyDescent="0.2">
       <c r="AD71" s="1" t="s">
@@ -3898,7 +3898,7 @@
       </c>
     </row>
     <row r="74" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD74" s="160" t="s">
+      <c r="AD74" s="163" t="s">
         <v>9</v>
       </c>
       <c r="AE74" s="48" t="s">
@@ -3918,7 +3918,7 @@
       </c>
     </row>
     <row r="75" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="162"/>
+      <c r="AD75" s="164"/>
       <c r="AE75" s="49" t="s">
         <v>13</v>
       </c>
@@ -3936,7 +3936,7 @@
       </c>
     </row>
     <row r="76" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD76" s="160" t="s">
+      <c r="AD76" s="163" t="s">
         <v>10</v>
       </c>
       <c r="AE76" s="48" t="s">
@@ -3956,7 +3956,7 @@
       </c>
     </row>
     <row r="77" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD77" s="161"/>
+      <c r="AD77" s="165"/>
       <c r="AE77" s="50" t="s">
         <v>17</v>
       </c>
@@ -3974,7 +3974,7 @@
       </c>
     </row>
     <row r="78" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD78" s="162"/>
+      <c r="AD78" s="164"/>
       <c r="AE78" s="49" t="s">
         <v>12</v>
       </c>
@@ -3992,7 +3992,7 @@
       </c>
     </row>
     <row r="79" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD79" s="160" t="s">
+      <c r="AD79" s="163" t="s">
         <v>11</v>
       </c>
       <c r="AE79" s="48" t="s">
@@ -4012,7 +4012,7 @@
       </c>
     </row>
     <row r="80" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="161"/>
+      <c r="AD80" s="165"/>
       <c r="AE80" s="50" t="s">
         <v>19</v>
       </c>
@@ -4030,7 +4030,7 @@
       </c>
     </row>
     <row r="81" spans="30:47" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD81" s="161"/>
+      <c r="AD81" s="165"/>
       <c r="AE81" s="50" t="s">
         <v>13</v>
       </c>
@@ -4048,7 +4048,7 @@
       </c>
     </row>
     <row r="82" spans="30:47" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD82" s="162"/>
+      <c r="AD82" s="164"/>
       <c r="AE82" s="49" t="s">
         <v>15</v>
       </c>
@@ -4066,18 +4066,18 @@
       </c>
     </row>
     <row r="87" spans="30:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL87" s="164" t="s">
+      <c r="AL87" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="AM87" s="164"/>
-      <c r="AN87" s="164"/>
-      <c r="AO87" s="164"/>
-      <c r="AP87" s="164"/>
-      <c r="AQ87" s="164"/>
-      <c r="AR87" s="164"/>
-      <c r="AS87" s="164"/>
-      <c r="AT87" s="164"/>
-      <c r="AU87" s="164"/>
+      <c r="AM87" s="152"/>
+      <c r="AN87" s="152"/>
+      <c r="AO87" s="152"/>
+      <c r="AP87" s="152"/>
+      <c r="AQ87" s="152"/>
+      <c r="AR87" s="152"/>
+      <c r="AS87" s="152"/>
+      <c r="AT87" s="152"/>
+      <c r="AU87" s="152"/>
     </row>
     <row r="88" spans="30:47" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AL88" s="55" t="s">
@@ -4112,13 +4112,13 @@
       </c>
     </row>
     <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL89" s="154" t="s">
+      <c r="AL89" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="AM89" s="151" t="s">
+      <c r="AM89" s="158" t="s">
         <v>279</v>
       </c>
-      <c r="AN89" s="157" t="s">
+      <c r="AN89" s="161" t="s">
         <v>13</v>
       </c>
       <c r="AO89" s="40" t="s">
@@ -4136,17 +4136,17 @@
       <c r="AS89" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT89" s="154" t="s">
+      <c r="AT89" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="AU89" s="151" t="s">
+      <c r="AU89" s="158" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL90" s="155"/>
-      <c r="AM90" s="152"/>
-      <c r="AN90" s="158"/>
+      <c r="AL90" s="156"/>
+      <c r="AM90" s="159"/>
+      <c r="AN90" s="162"/>
       <c r="AO90" s="1" t="s">
         <v>68</v>
       </c>
@@ -4162,13 +4162,13 @@
       <c r="AS90" s="58">
         <v>1E-3</v>
       </c>
-      <c r="AT90" s="155"/>
-      <c r="AU90" s="152"/>
+      <c r="AT90" s="156"/>
+      <c r="AU90" s="159"/>
     </row>
     <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL91" s="156"/>
-      <c r="AM91" s="153"/>
-      <c r="AN91" s="159"/>
+      <c r="AL91" s="157"/>
+      <c r="AM91" s="160"/>
+      <c r="AN91" s="154"/>
       <c r="AO91" s="13" t="s">
         <v>286</v>
       </c>
@@ -4184,17 +4184,17 @@
       <c r="AS91" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AT91" s="156"/>
-      <c r="AU91" s="153"/>
+      <c r="AT91" s="157"/>
+      <c r="AU91" s="160"/>
     </row>
     <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL92" s="154" t="s">
+      <c r="AL92" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="AM92" s="154" t="s">
+      <c r="AM92" s="155" t="s">
         <v>280</v>
       </c>
-      <c r="AN92" s="157" t="s">
+      <c r="AN92" s="161" t="s">
         <v>12</v>
       </c>
       <c r="AO92" s="40" t="s">
@@ -4212,17 +4212,17 @@
       <c r="AS92" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT92" s="154" t="s">
+      <c r="AT92" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="AU92" s="151" t="s">
+      <c r="AU92" s="158" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL93" s="155"/>
-      <c r="AM93" s="155"/>
-      <c r="AN93" s="158"/>
+      <c r="AL93" s="156"/>
+      <c r="AM93" s="156"/>
+      <c r="AN93" s="162"/>
       <c r="AO93" s="1" t="s">
         <v>68</v>
       </c>
@@ -4238,13 +4238,13 @@
       <c r="AS93" s="58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT93" s="155"/>
-      <c r="AU93" s="152"/>
+      <c r="AT93" s="156"/>
+      <c r="AU93" s="159"/>
     </row>
     <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL94" s="155"/>
-      <c r="AM94" s="155"/>
-      <c r="AN94" s="158"/>
+      <c r="AL94" s="156"/>
+      <c r="AM94" s="156"/>
+      <c r="AN94" s="162"/>
       <c r="AO94" s="1" t="s">
         <v>286</v>
       </c>
@@ -4260,15 +4260,15 @@
       <c r="AS94" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT94" s="155"/>
-      <c r="AU94" s="152"/>
+      <c r="AT94" s="156"/>
+      <c r="AU94" s="159"/>
     </row>
     <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL95" s="155"/>
-      <c r="AM95" s="152" t="s">
+      <c r="AL95" s="156"/>
+      <c r="AM95" s="159" t="s">
         <v>279</v>
       </c>
-      <c r="AN95" s="158" t="s">
+      <c r="AN95" s="162" t="s">
         <v>17</v>
       </c>
       <c r="AO95" t="s">
@@ -4286,17 +4286,17 @@
       <c r="AS95" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="AT95" s="155" t="s">
+      <c r="AT95" s="156" t="s">
         <v>287</v>
       </c>
-      <c r="AU95" s="152" t="s">
+      <c r="AU95" s="159" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL96" s="155"/>
-      <c r="AM96" s="152"/>
-      <c r="AN96" s="158"/>
+      <c r="AL96" s="156"/>
+      <c r="AM96" s="159"/>
+      <c r="AN96" s="162"/>
       <c r="AO96" s="1" t="s">
         <v>68</v>
       </c>
@@ -4312,13 +4312,13 @@
       <c r="AS96" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT96" s="155"/>
-      <c r="AU96" s="152"/>
+      <c r="AT96" s="156"/>
+      <c r="AU96" s="159"/>
     </row>
     <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL97" s="156"/>
-      <c r="AM97" s="153"/>
-      <c r="AN97" s="159"/>
+      <c r="AL97" s="157"/>
+      <c r="AM97" s="160"/>
+      <c r="AN97" s="154"/>
       <c r="AO97" s="13" t="s">
         <v>286</v>
       </c>
@@ -4334,17 +4334,17 @@
       <c r="AS97" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT97" s="156"/>
-      <c r="AU97" s="153"/>
+      <c r="AT97" s="157"/>
+      <c r="AU97" s="160"/>
     </row>
     <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL98" s="154" t="s">
+      <c r="AL98" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="AM98" s="151" t="s">
+      <c r="AM98" s="158" t="s">
         <v>279</v>
       </c>
-      <c r="AN98" s="157" t="s">
+      <c r="AN98" s="161" t="s">
         <v>13</v>
       </c>
       <c r="AO98" s="60" t="s">
@@ -4362,17 +4362,17 @@
       <c r="AS98" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT98" s="154" t="s">
+      <c r="AT98" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="AU98" s="151" t="s">
+      <c r="AU98" s="158" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL99" s="155"/>
-      <c r="AM99" s="152"/>
-      <c r="AN99" s="158"/>
+      <c r="AL99" s="156"/>
+      <c r="AM99" s="159"/>
+      <c r="AN99" s="162"/>
       <c r="AO99" s="1" t="s">
         <v>68</v>
       </c>
@@ -4388,13 +4388,13 @@
       <c r="AS99" s="58">
         <v>0.04</v>
       </c>
-      <c r="AT99" s="155"/>
-      <c r="AU99" s="152"/>
+      <c r="AT99" s="156"/>
+      <c r="AU99" s="159"/>
     </row>
     <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL100" s="156"/>
-      <c r="AM100" s="153"/>
-      <c r="AN100" s="159"/>
+      <c r="AL100" s="157"/>
+      <c r="AM100" s="160"/>
+      <c r="AN100" s="154"/>
       <c r="AO100" s="13" t="s">
         <v>286</v>
       </c>
@@ -4410,11 +4410,28 @@
       <c r="AS100" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT100" s="156"/>
-      <c r="AU100" s="153"/>
+      <c r="AT100" s="157"/>
+      <c r="AU100" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="AM98:AM100"/>
+    <mergeCell ref="AL98:AL100"/>
+    <mergeCell ref="AL92:AL97"/>
+    <mergeCell ref="AM92:AM94"/>
+    <mergeCell ref="AM95:AM97"/>
+    <mergeCell ref="AU95:AU97"/>
+    <mergeCell ref="AT95:AT97"/>
+    <mergeCell ref="AT98:AT100"/>
+    <mergeCell ref="AU98:AU100"/>
+    <mergeCell ref="AN98:AN100"/>
+    <mergeCell ref="AN95:AN97"/>
+    <mergeCell ref="Y59:Y66"/>
+    <mergeCell ref="AC52:AC58"/>
+    <mergeCell ref="AC59:AC66"/>
+    <mergeCell ref="AT92:AT94"/>
+    <mergeCell ref="AU92:AU94"/>
+    <mergeCell ref="AN92:AN94"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="M31:Q31"/>
     <mergeCell ref="M32:M33"/>
@@ -4431,23 +4448,6 @@
     <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="Y46:Y51"/>
     <mergeCell ref="Y52:Y58"/>
-    <mergeCell ref="Y59:Y66"/>
-    <mergeCell ref="AC52:AC58"/>
-    <mergeCell ref="AC59:AC66"/>
-    <mergeCell ref="AT92:AT94"/>
-    <mergeCell ref="AU92:AU94"/>
-    <mergeCell ref="AN92:AN94"/>
-    <mergeCell ref="AU95:AU97"/>
-    <mergeCell ref="AT95:AT97"/>
-    <mergeCell ref="AT98:AT100"/>
-    <mergeCell ref="AU98:AU100"/>
-    <mergeCell ref="AN98:AN100"/>
-    <mergeCell ref="AN95:AN97"/>
-    <mergeCell ref="AM98:AM100"/>
-    <mergeCell ref="AL98:AL100"/>
-    <mergeCell ref="AL92:AL97"/>
-    <mergeCell ref="AM92:AM94"/>
-    <mergeCell ref="AM95:AM97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5435,8 +5435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C301AE6-CC50-864C-827E-D25EEF6A22D3}">
   <dimension ref="A2:AN151"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5468,43 +5468,43 @@
     <row r="3" spans="1:14" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="89"/>
       <c r="B3" s="146" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="146" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="D3" s="146" t="s">
         <v>429</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="E3" s="146" t="s">
         <v>430</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="F3" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="G3" s="146" t="s">
         <v>432</v>
       </c>
-      <c r="G3" s="146" t="s">
+      <c r="H3" s="146" t="s">
         <v>433</v>
       </c>
-      <c r="H3" s="146" t="s">
+      <c r="I3" s="146" t="s">
         <v>434</v>
       </c>
-      <c r="I3" s="146" t="s">
+      <c r="J3" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="K3" s="146" t="s">
         <v>436</v>
       </c>
-      <c r="K3" s="146" t="s">
+      <c r="L3" s="146" t="s">
         <v>437</v>
       </c>
-      <c r="L3" s="146" t="s">
+      <c r="M3" s="146" t="s">
         <v>438</v>
       </c>
-      <c r="M3" s="146" t="s">
-        <v>439</v>
-      </c>
       <c r="N3" s="146" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" thickTop="1" x14ac:dyDescent="0.2">
@@ -7550,7 +7550,7 @@
     <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="123"/>
       <c r="C80" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D80" s="34">
         <v>1.40262</v>
@@ -8553,7 +8553,7 @@
     <row r="117" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B117" s="127"/>
       <c r="C117" s="150" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D117" s="112">
         <v>1.9009999999999999E-2</v>
@@ -8580,7 +8580,7 @@
     <row r="118" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B118" s="127"/>
       <c r="C118" s="150" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D118" s="112">
         <v>-1.66638</v>
@@ -8607,7 +8607,7 @@
     <row r="119" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B119" s="127"/>
       <c r="C119" s="150" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D119" s="112">
         <v>-1.91638</v>
@@ -8783,25 +8783,25 @@
       <c r="M125" s="142"/>
       <c r="N125" s="143"/>
     </row>
-    <row r="126" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="127"/>
       <c r="C126" s="139" t="s">
         <v>370</v>
       </c>
       <c r="D126" s="34">
-        <v>1.0812999999999999</v>
+        <v>0.84911000000000003</v>
       </c>
       <c r="E126" s="34">
-        <v>0.21307000000000001</v>
+        <v>0.22067999999999999</v>
       </c>
       <c r="F126" s="34">
-        <v>23.65663</v>
+        <v>23.22897</v>
       </c>
       <c r="G126" s="34">
-        <v>5.0750000000000002</v>
+        <v>3.8479999999999999</v>
       </c>
       <c r="H126" s="34">
-        <v>3.5800000000000003E-5</v>
+        <v>8.0900000000000004E-4</v>
       </c>
       <c r="I126" s="34">
         <v>3393.069</v>
@@ -8826,19 +8826,19 @@
         <v>328</v>
       </c>
       <c r="D127" s="34">
-        <v>0.35282999999999998</v>
+        <v>0.88075999999999999</v>
       </c>
       <c r="E127" s="34">
-        <v>4.9750000000000003E-2</v>
+        <v>2.7009999999999999E-2</v>
       </c>
       <c r="F127" s="34">
-        <v>2044.2178699999999</v>
+        <v>2039.4976999999999</v>
       </c>
       <c r="G127" s="34">
-        <v>7.093</v>
-      </c>
-      <c r="H127" s="34">
-        <v>1.81E-12</v>
+        <v>32.613</v>
+      </c>
+      <c r="H127" s="34" t="s">
+        <v>371</v>
       </c>
       <c r="I127" s="34"/>
       <c r="J127" s="34"/>
@@ -8849,23 +8849,23 @@
     </row>
     <row r="128" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="127"/>
-      <c r="C128" s="150" t="s">
+      <c r="C128" s="180" t="s">
         <v>410</v>
       </c>
       <c r="D128" s="34">
-        <v>-0.52864999999999995</v>
+        <v>-0.23485</v>
       </c>
       <c r="E128" s="34">
-        <v>0.26839000000000002</v>
+        <v>0.27795999999999998</v>
       </c>
       <c r="F128" s="34">
-        <v>23.369250000000001</v>
+        <v>22.944400000000002</v>
       </c>
       <c r="G128" s="34">
-        <v>-1.97</v>
+        <v>-0.84499999999999997</v>
       </c>
       <c r="H128" s="34">
-        <v>6.0835E-2</v>
+        <v>0.406893</v>
       </c>
       <c r="I128" s="34"/>
       <c r="J128" s="34"/>
@@ -8874,25 +8874,25 @@
       <c r="M128" s="34"/>
       <c r="N128" s="108"/>
     </row>
-    <row r="129" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="127"/>
       <c r="C129" s="139" t="s">
         <v>389</v>
       </c>
       <c r="D129" s="34">
-        <v>-0.35528999999999999</v>
+        <v>-0.35688999999999999</v>
       </c>
       <c r="E129" s="34">
-        <v>0.13358999999999999</v>
+        <v>0.13889000000000001</v>
       </c>
       <c r="F129" s="34">
-        <v>23.406179999999999</v>
+        <v>23.33747</v>
       </c>
       <c r="G129" s="34">
-        <v>-2.66</v>
+        <v>-2.57</v>
       </c>
       <c r="H129" s="34">
-        <v>1.3885E-2</v>
+        <v>1.7024000000000001E-2</v>
       </c>
       <c r="I129" s="34"/>
       <c r="J129" s="34"/>
@@ -8907,19 +8907,19 @@
         <v>372</v>
       </c>
       <c r="D130" s="34">
-        <v>-0.56728000000000001</v>
+        <v>-0.55330000000000001</v>
       </c>
       <c r="E130" s="34">
-        <v>0.13436999999999999</v>
+        <v>0.13969000000000001</v>
       </c>
       <c r="F130" s="34">
-        <v>23.951989999999999</v>
+        <v>23.87529</v>
       </c>
       <c r="G130" s="34">
-        <v>-4.2220000000000004</v>
+        <v>-3.9609999999999999</v>
       </c>
       <c r="H130" s="34">
-        <v>3.01E-4</v>
+        <v>5.8600000000000004E-4</v>
       </c>
       <c r="I130" s="34"/>
       <c r="J130" s="34"/>
@@ -8928,69 +8928,28 @@
       <c r="M130" s="34"/>
       <c r="N130" s="108"/>
     </row>
-    <row r="131" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="127"/>
-      <c r="C131" s="150" t="s">
-        <v>411</v>
-      </c>
-      <c r="D131" s="34">
-        <v>0.70560999999999996</v>
-      </c>
-      <c r="E131" s="34">
-        <v>5.6649999999999999E-2</v>
-      </c>
-      <c r="F131" s="34">
-        <v>2037.85367</v>
-      </c>
-      <c r="G131" s="34">
-        <v>12.455</v>
-      </c>
-      <c r="H131" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="I131" s="34"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="34"/>
-      <c r="L131" s="34"/>
-      <c r="M131" s="34"/>
-      <c r="N131" s="108"/>
-    </row>
+    <row r="131" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="132" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B132" s="127"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="34"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="34"/>
-      <c r="I132" s="34"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="34"/>
-      <c r="L132" s="34"/>
-      <c r="M132" s="34"/>
-      <c r="N132" s="108"/>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C134" s="19"/>
+      <c r="C132" s="19"/>
     </row>
     <row r="135" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="136" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C140" s="25"/>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B141" s="90"/>
-      <c r="D141" s="25"/>
-      <c r="E141" s="25"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="25"/>
-      <c r="H141" s="25"/>
-      <c r="I141" s="25"/>
-      <c r="J141" s="25"/>
-      <c r="K141" s="25"/>
-      <c r="L141" s="25"/>
-      <c r="M141" s="25"/>
-      <c r="N141" s="25"/>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C138" s="25"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B139" s="90"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="25"/>
+      <c r="L139" s="25"/>
+      <c r="M139" s="25"/>
+      <c r="N139" s="25"/>
     </row>
     <row r="151" spans="2:40" s="25" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="89"/>
@@ -9854,7 +9813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6964B3A-A93B-A24A-8DF2-4AA66B6335FC}">
   <dimension ref="B3:AN237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
+    <sheetView zoomScale="146" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -9890,26 +9849,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
       <c r="T3" s="54"/>
     </row>
     <row r="4" spans="2:20" ht="60" thickTop="1" x14ac:dyDescent="0.2">
@@ -9920,19 +9879,19 @@
         <v>358</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>276</v>
       </c>
       <c r="F4" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>427</v>
-      </c>
       <c r="H4" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>341</v>
@@ -9950,26 +9909,26 @@
         <v>377</v>
       </c>
       <c r="N4" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="O4" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>420</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>421</v>
       </c>
       <c r="S4" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="171" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="85" t="s">
@@ -9983,7 +9942,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="170"/>
+      <c r="B6" s="172"/>
       <c r="C6" s="85" t="s">
         <v>16</v>
       </c>
@@ -9995,8 +9954,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="170"/>
-      <c r="C7" s="172" t="s">
+      <c r="B7" s="172"/>
+      <c r="C7" s="169" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -10048,8 +10007,8 @@
       <c r="T7" s="25"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="170"/>
-      <c r="C8" s="172"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="169"/>
       <c r="E8" s="77" t="s">
         <v>263</v>
       </c>
@@ -10078,8 +10037,8 @@
       <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="170"/>
-      <c r="C9" s="172" t="s">
+      <c r="B9" s="172"/>
+      <c r="C9" s="169" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -10127,8 +10086,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="170"/>
-      <c r="C10" s="172"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="169"/>
       <c r="E10" s="84" t="s">
         <v>263</v>
       </c>
@@ -10155,8 +10114,8 @@
       <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="170"/>
-      <c r="C11" s="172"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="169"/>
       <c r="E11" s="77" t="s">
         <v>32</v>
       </c>
@@ -10183,7 +10142,7 @@
       <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="170"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="85" t="s">
         <v>35</v>
       </c>
@@ -10208,8 +10167,8 @@
       <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="170"/>
-      <c r="C13" s="172" t="s">
+      <c r="B13" s="172"/>
+      <c r="C13" s="169" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -10257,8 +10216,8 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="170"/>
-      <c r="C14" s="172"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="169"/>
       <c r="E14" s="77" t="s">
         <v>263</v>
       </c>
@@ -10285,8 +10244,8 @@
       <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="170"/>
-      <c r="C15" s="172" t="s">
+      <c r="B15" s="172"/>
+      <c r="C15" s="169" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -10334,8 +10293,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="170"/>
-      <c r="C16" s="172"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="169"/>
       <c r="E16" s="77" t="s">
         <v>263</v>
       </c>
@@ -10362,7 +10321,7 @@
       <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="170"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="85" t="s">
         <v>36</v>
       </c>
@@ -10387,7 +10346,7 @@
       <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="170"/>
+      <c r="B18" s="172"/>
       <c r="C18" s="85" t="s">
         <v>12</v>
       </c>
@@ -10412,8 +10371,8 @@
       <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="170"/>
-      <c r="C19" s="172" t="s">
+      <c r="B19" s="172"/>
+      <c r="C19" s="169" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -10463,8 +10422,8 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="170"/>
-      <c r="C20" s="172"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="169"/>
       <c r="E20" s="84" t="s">
         <v>263</v>
       </c>
@@ -10495,8 +10454,8 @@
       <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="170"/>
-      <c r="C21" s="172" t="s">
+      <c r="B21" s="172"/>
+      <c r="C21" s="169" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -10544,8 +10503,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="170"/>
-      <c r="C22" s="172"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="169"/>
       <c r="E22" s="77" t="s">
         <v>263</v>
       </c>
@@ -10572,8 +10531,8 @@
       <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="170"/>
-      <c r="C23" s="172" t="s">
+      <c r="B23" s="172"/>
+      <c r="C23" s="169" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -10619,8 +10578,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="170"/>
-      <c r="C24" s="172"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="169"/>
       <c r="E24" s="77" t="s">
         <v>32</v>
       </c>
@@ -10647,8 +10606,8 @@
       <c r="R24" s="36"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="170"/>
-      <c r="C25" s="172" t="s">
+      <c r="B25" s="172"/>
+      <c r="C25" s="169" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -10696,8 +10655,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="170"/>
-      <c r="C26" s="172"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="169"/>
       <c r="E26" s="77" t="s">
         <v>263</v>
       </c>
@@ -10724,7 +10683,7 @@
       <c r="R26" s="36"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="170"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="85" t="s">
         <v>20</v>
       </c>
@@ -10749,7 +10708,7 @@
       <c r="R27" s="36"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="170"/>
+      <c r="B28" s="172"/>
       <c r="C28" s="85" t="s">
         <v>33</v>
       </c>
@@ -10774,8 +10733,8 @@
       <c r="R28" s="36"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="170"/>
-      <c r="C29" s="172" t="s">
+      <c r="B29" s="172"/>
+      <c r="C29" s="169" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="39" t="s">
@@ -10821,8 +10780,8 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="170"/>
-      <c r="C30" s="172"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="169"/>
       <c r="D30" s="39"/>
       <c r="E30" s="77" t="s">
         <v>32</v>
@@ -10850,7 +10809,7 @@
       <c r="R30" s="36"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="170"/>
+      <c r="B31" s="172"/>
       <c r="C31" s="85" t="s">
         <v>41</v>
       </c>
@@ -10875,8 +10834,8 @@
       <c r="R31" s="36"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="170"/>
-      <c r="C32" s="172" t="s">
+      <c r="B32" s="172"/>
+      <c r="C32" s="169" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -10924,8 +10883,8 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="170"/>
-      <c r="C33" s="172"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="169"/>
       <c r="E33" s="77" t="s">
         <v>263</v>
       </c>
@@ -10952,8 +10911,8 @@
       <c r="R33" s="36"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="170"/>
-      <c r="C34" s="172"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="169"/>
       <c r="E34" s="77" t="s">
         <v>32</v>
       </c>
@@ -10980,7 +10939,7 @@
       <c r="R34" s="36"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="170"/>
+      <c r="B35" s="172"/>
       <c r="C35" s="86" t="s">
         <v>15</v>
       </c>
@@ -11005,7 +10964,7 @@
       <c r="R35" s="36"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="171" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="174" t="s">
@@ -11031,7 +10990,7 @@
         <v>5.1799999999999997E-3</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L36" s="36">
         <v>-552.79278274914202</v>
@@ -11056,10 +11015,10 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="170"/>
-      <c r="C37" s="172"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="169"/>
       <c r="E37" s="84" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F37" s="36">
         <v>0.75480000000000003</v>
@@ -11084,10 +11043,10 @@
       <c r="R37" s="36"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="170"/>
-      <c r="C38" s="172"/>
+      <c r="B38" s="172"/>
+      <c r="C38" s="169"/>
       <c r="E38" s="84" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F38" s="36">
         <v>0.55800000000000005</v>
@@ -11112,8 +11071,8 @@
       <c r="R38" s="36"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="170"/>
-      <c r="C39" s="172"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="169"/>
       <c r="E39" s="84" t="s">
         <v>32</v>
       </c>
@@ -11140,8 +11099,8 @@
       <c r="R39" s="36"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="170"/>
-      <c r="C40" s="172" t="s">
+      <c r="B40" s="172"/>
+      <c r="C40" s="169" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -11189,8 +11148,8 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="170"/>
-      <c r="C41" s="172"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="169"/>
       <c r="E41" s="77" t="s">
         <v>335</v>
       </c>
@@ -11219,8 +11178,8 @@
       <c r="R41" s="36"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="170"/>
-      <c r="C42" s="172" t="s">
+      <c r="B42" s="172"/>
+      <c r="C42" s="169" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -11268,8 +11227,8 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="170"/>
-      <c r="C43" s="172"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="169"/>
       <c r="E43" s="77" t="s">
         <v>263</v>
       </c>
@@ -11296,8 +11255,8 @@
       <c r="R43" s="36"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="170"/>
-      <c r="C44" s="172"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="169"/>
       <c r="E44" s="77" t="s">
         <v>32</v>
       </c>
@@ -11324,8 +11283,8 @@
       <c r="R44" s="36"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="170"/>
-      <c r="C45" s="172"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="169"/>
       <c r="E45" s="77" t="s">
         <v>335</v>
       </c>
@@ -11352,8 +11311,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="170"/>
-      <c r="C46" s="172" t="s">
+      <c r="B46" s="172"/>
+      <c r="C46" s="169" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -11403,8 +11362,8 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="170"/>
-      <c r="C47" s="172"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="169"/>
       <c r="E47" s="77" t="s">
         <v>263</v>
       </c>
@@ -11433,8 +11392,8 @@
       <c r="R47" s="36"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="170"/>
-      <c r="C48" s="172"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="169"/>
       <c r="E48" s="77" t="s">
         <v>335</v>
       </c>
@@ -11463,8 +11422,8 @@
       <c r="R48" s="36"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="170"/>
-      <c r="C49" s="172"/>
+      <c r="B49" s="172"/>
+      <c r="C49" s="169"/>
       <c r="E49" s="77" t="s">
         <v>32</v>
       </c>
@@ -11493,8 +11452,8 @@
       <c r="R49" s="36"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="170"/>
-      <c r="C50" s="172" t="s">
+      <c r="B50" s="172"/>
+      <c r="C50" s="169" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -11544,8 +11503,8 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="170"/>
-      <c r="C51" s="172"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="169"/>
       <c r="E51" s="77" t="s">
         <v>263</v>
       </c>
@@ -11574,8 +11533,8 @@
       <c r="R51" s="36"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="170"/>
-      <c r="C52" s="172"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="169"/>
       <c r="E52" s="77" t="s">
         <v>335</v>
       </c>
@@ -11604,8 +11563,8 @@
       <c r="R52" s="36"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="170"/>
-      <c r="C53" s="172" t="s">
+      <c r="B53" s="172"/>
+      <c r="C53" s="169" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -11655,8 +11614,8 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="170"/>
-      <c r="C54" s="172"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="169"/>
       <c r="E54" s="77" t="s">
         <v>263</v>
       </c>
@@ -11685,8 +11644,8 @@
       <c r="R54" s="36"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="170"/>
-      <c r="C55" s="172"/>
+      <c r="B55" s="172"/>
+      <c r="C55" s="169"/>
       <c r="E55" s="77" t="s">
         <v>335</v>
       </c>
@@ -11715,8 +11674,8 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="170"/>
-      <c r="C56" s="172" t="s">
+      <c r="B56" s="172"/>
+      <c r="C56" s="169" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -11766,8 +11725,8 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="170"/>
-      <c r="C57" s="172"/>
+      <c r="B57" s="172"/>
+      <c r="C57" s="169"/>
       <c r="E57" s="77" t="s">
         <v>263</v>
       </c>
@@ -11796,8 +11755,8 @@
       <c r="R57" s="36"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="170"/>
-      <c r="C58" s="172" t="s">
+      <c r="B58" s="172"/>
+      <c r="C58" s="169" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -11847,8 +11806,8 @@
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="170"/>
-      <c r="C59" s="172"/>
+      <c r="B59" s="172"/>
+      <c r="C59" s="169"/>
       <c r="E59" s="77" t="s">
         <v>263</v>
       </c>
@@ -11877,8 +11836,8 @@
       <c r="R59" s="36"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="170"/>
-      <c r="C60" s="172" t="s">
+      <c r="B60" s="172"/>
+      <c r="C60" s="169" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -11928,8 +11887,8 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="170"/>
-      <c r="C61" s="172"/>
+      <c r="B61" s="172"/>
+      <c r="C61" s="169"/>
       <c r="E61" s="77" t="s">
         <v>263</v>
       </c>
@@ -11958,7 +11917,7 @@
       <c r="R61" s="36"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="170"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="85" t="s">
         <v>19</v>
       </c>
@@ -11983,8 +11942,8 @@
       <c r="R62" s="36"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="170"/>
-      <c r="C63" s="172" t="s">
+      <c r="B63" s="172"/>
+      <c r="C63" s="169" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -12034,8 +11993,8 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="170"/>
-      <c r="C64" s="172"/>
+      <c r="B64" s="172"/>
+      <c r="C64" s="169"/>
       <c r="E64" s="77" t="s">
         <v>263</v>
       </c>
@@ -12064,8 +12023,8 @@
       <c r="R64" s="36"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="170"/>
-      <c r="C65" s="172" t="s">
+      <c r="B65" s="172"/>
+      <c r="C65" s="169" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -12115,8 +12074,8 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="170"/>
-      <c r="C66" s="172"/>
+      <c r="B66" s="172"/>
+      <c r="C66" s="169"/>
       <c r="E66" s="77" t="s">
         <v>263</v>
       </c>
@@ -12145,8 +12104,8 @@
       <c r="R66" s="36"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="170"/>
-      <c r="C67" s="172"/>
+      <c r="B67" s="172"/>
+      <c r="C67" s="169"/>
       <c r="E67" s="77" t="s">
         <v>335</v>
       </c>
@@ -12175,8 +12134,8 @@
       <c r="R67" s="36"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="170"/>
-      <c r="C68" s="172"/>
+      <c r="B68" s="172"/>
+      <c r="C68" s="169"/>
       <c r="E68" s="77" t="s">
         <v>32</v>
       </c>
@@ -12205,8 +12164,8 @@
       <c r="R68" s="36"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="170"/>
-      <c r="C69" s="172" t="s">
+      <c r="B69" s="172"/>
+      <c r="C69" s="169" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -12256,8 +12215,8 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="170"/>
-      <c r="C70" s="172"/>
+      <c r="B70" s="172"/>
+      <c r="C70" s="169"/>
       <c r="E70" s="77" t="s">
         <v>263</v>
       </c>
@@ -12286,8 +12245,8 @@
       <c r="R70" s="36"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="170"/>
-      <c r="C71" s="172" t="s">
+      <c r="B71" s="172"/>
+      <c r="C71" s="169" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -12337,8 +12296,8 @@
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="170"/>
-      <c r="C72" s="172"/>
+      <c r="B72" s="172"/>
+      <c r="C72" s="169"/>
       <c r="E72" s="77" t="s">
         <v>263</v>
       </c>
@@ -12367,8 +12326,8 @@
       <c r="R72" s="36"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="170"/>
-      <c r="C73" s="172"/>
+      <c r="B73" s="172"/>
+      <c r="C73" s="169"/>
       <c r="E73" s="77" t="s">
         <v>335</v>
       </c>
@@ -12397,7 +12356,7 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="170"/>
+      <c r="B74" s="172"/>
       <c r="C74" s="85" t="s">
         <v>33</v>
       </c>
@@ -12422,7 +12381,7 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="170"/>
+      <c r="B75" s="172"/>
       <c r="C75" s="85" t="s">
         <v>39</v>
       </c>
@@ -12447,8 +12406,8 @@
       <c r="R75" s="36"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="170"/>
-      <c r="C76" s="172" t="s">
+      <c r="B76" s="172"/>
+      <c r="C76" s="169" t="s">
         <v>41</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -12498,8 +12457,8 @@
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="170"/>
-      <c r="C77" s="172"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="169"/>
       <c r="E77" s="77" t="s">
         <v>263</v>
       </c>
@@ -12528,8 +12487,8 @@
       <c r="R77" s="36"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="170"/>
-      <c r="C78" s="172" t="s">
+      <c r="B78" s="172"/>
+      <c r="C78" s="169" t="s">
         <v>42</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -12579,8 +12538,8 @@
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="170"/>
-      <c r="C79" s="172"/>
+      <c r="B79" s="172"/>
+      <c r="C79" s="169"/>
       <c r="E79" s="77" t="s">
         <v>263</v>
       </c>
@@ -12609,8 +12568,8 @@
       <c r="R79" s="36"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="170"/>
-      <c r="C80" s="172" t="s">
+      <c r="B80" s="172"/>
+      <c r="C80" s="169" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -12661,7 +12620,7 @@
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="64"/>
-      <c r="C81" s="173"/>
+      <c r="C81" s="170"/>
       <c r="E81" s="77" t="s">
         <v>263</v>
       </c>
@@ -12690,7 +12649,7 @@
       <c r="R81" s="36"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="169" t="s">
+      <c r="B82" s="171" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="85" t="s">
@@ -12717,8 +12676,8 @@
       <c r="R82" s="36"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="170"/>
-      <c r="C83" s="172" t="s">
+      <c r="B83" s="172"/>
+      <c r="C83" s="169" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -12766,8 +12725,8 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="170"/>
-      <c r="C84" s="172"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="169"/>
       <c r="E84" s="77" t="s">
         <v>263</v>
       </c>
@@ -12794,8 +12753,8 @@
       <c r="R84" s="36"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="170"/>
-      <c r="C85" s="172"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="169"/>
       <c r="E85" s="77" t="s">
         <v>335</v>
       </c>
@@ -12822,8 +12781,8 @@
       <c r="R85" s="36"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B86" s="170"/>
-      <c r="C86" s="172" t="s">
+      <c r="B86" s="172"/>
+      <c r="C86" s="169" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -12871,8 +12830,8 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="170"/>
-      <c r="C87" s="172"/>
+      <c r="B87" s="172"/>
+      <c r="C87" s="169"/>
       <c r="E87" s="77" t="s">
         <v>263</v>
       </c>
@@ -12899,8 +12858,8 @@
       <c r="R87" s="36"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="170"/>
-      <c r="C88" s="172"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="169"/>
       <c r="E88" s="77" t="s">
         <v>335</v>
       </c>
@@ -12927,8 +12886,8 @@
       <c r="R88" s="36"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="170"/>
-      <c r="C89" s="172"/>
+      <c r="B89" s="172"/>
+      <c r="C89" s="169"/>
       <c r="E89" s="77" t="s">
         <v>32</v>
       </c>
@@ -12955,8 +12914,8 @@
       <c r="R89" s="36"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="170"/>
-      <c r="C90" s="172" t="s">
+      <c r="B90" s="172"/>
+      <c r="C90" s="169" t="s">
         <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -13006,8 +12965,8 @@
       </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="170"/>
-      <c r="C91" s="172"/>
+      <c r="B91" s="172"/>
+      <c r="C91" s="169"/>
       <c r="E91" s="77" t="s">
         <v>263</v>
       </c>
@@ -13036,8 +12995,8 @@
       <c r="R91" s="36"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="170"/>
-      <c r="C92" s="172"/>
+      <c r="B92" s="172"/>
+      <c r="C92" s="169"/>
       <c r="E92" s="77" t="s">
         <v>335</v>
       </c>
@@ -13066,7 +13025,7 @@
       <c r="R92" s="36"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="170"/>
+      <c r="B93" s="172"/>
       <c r="C93" s="85" t="s">
         <v>35</v>
       </c>
@@ -13091,8 +13050,8 @@
       <c r="R93" s="36"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="170"/>
-      <c r="C94" s="172" t="s">
+      <c r="B94" s="172"/>
+      <c r="C94" s="169" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -13142,8 +13101,8 @@
       </c>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="170"/>
-      <c r="C95" s="172"/>
+      <c r="B95" s="172"/>
+      <c r="C95" s="169"/>
       <c r="E95" s="77" t="s">
         <v>263</v>
       </c>
@@ -13172,8 +13131,8 @@
       <c r="R95" s="36"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="170"/>
-      <c r="C96" s="172"/>
+      <c r="B96" s="172"/>
+      <c r="C96" s="169"/>
       <c r="E96" s="77" t="s">
         <v>335</v>
       </c>
@@ -13202,8 +13161,8 @@
       <c r="R96" s="36"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="170"/>
-      <c r="C97" s="172"/>
+      <c r="B97" s="172"/>
+      <c r="C97" s="169"/>
       <c r="E97" s="77" t="s">
         <v>32</v>
       </c>
@@ -13232,8 +13191,8 @@
       <c r="R97" s="36"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="170"/>
-      <c r="C98" s="172" t="s">
+      <c r="B98" s="172"/>
+      <c r="C98" s="169" t="s">
         <v>37</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -13281,8 +13240,8 @@
       </c>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="170"/>
-      <c r="C99" s="172"/>
+      <c r="B99" s="172"/>
+      <c r="C99" s="169"/>
       <c r="E99" s="77" t="s">
         <v>263</v>
       </c>
@@ -13309,8 +13268,8 @@
       <c r="R99" s="36"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="170"/>
-      <c r="C100" s="172"/>
+      <c r="B100" s="172"/>
+      <c r="C100" s="169"/>
       <c r="E100" s="77" t="s">
         <v>335</v>
       </c>
@@ -13337,8 +13296,8 @@
       <c r="R100" s="36"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B101" s="170"/>
-      <c r="C101" s="172" t="s">
+      <c r="B101" s="172"/>
+      <c r="C101" s="169" t="s">
         <v>36</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -13388,8 +13347,8 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="170"/>
-      <c r="C102" s="172"/>
+      <c r="B102" s="172"/>
+      <c r="C102" s="169"/>
       <c r="E102" s="77" t="s">
         <v>263</v>
       </c>
@@ -13418,8 +13377,8 @@
       <c r="R102" s="36"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="170"/>
-      <c r="C103" s="172" t="s">
+      <c r="B103" s="172"/>
+      <c r="C103" s="169" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -13467,8 +13426,8 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="170"/>
-      <c r="C104" s="172"/>
+      <c r="B104" s="172"/>
+      <c r="C104" s="169"/>
       <c r="E104" s="77" t="s">
         <v>263</v>
       </c>
@@ -13495,8 +13454,8 @@
       <c r="R104" s="36"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="170"/>
-      <c r="C105" s="172"/>
+      <c r="B105" s="172"/>
+      <c r="C105" s="169"/>
       <c r="E105" s="77" t="s">
         <v>335</v>
       </c>
@@ -13523,8 +13482,8 @@
       <c r="R105" s="36"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="170"/>
-      <c r="C106" s="172" t="s">
+      <c r="B106" s="172"/>
+      <c r="C106" s="169" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -13574,8 +13533,8 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="170"/>
-      <c r="C107" s="172"/>
+      <c r="B107" s="172"/>
+      <c r="C107" s="169"/>
       <c r="E107" s="77" t="s">
         <v>263</v>
       </c>
@@ -13604,8 +13563,8 @@
       <c r="R107" s="36"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="170"/>
-      <c r="C108" s="172"/>
+      <c r="B108" s="172"/>
+      <c r="C108" s="169"/>
       <c r="E108" s="77" t="s">
         <v>32</v>
       </c>
@@ -13634,8 +13593,8 @@
       <c r="R108" s="36"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="170"/>
-      <c r="C109" s="172" t="s">
+      <c r="B109" s="172"/>
+      <c r="C109" s="169" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -13683,8 +13642,8 @@
       </c>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="170"/>
-      <c r="C110" s="172"/>
+      <c r="B110" s="172"/>
+      <c r="C110" s="169"/>
       <c r="E110" s="77" t="s">
         <v>263</v>
       </c>
@@ -13711,8 +13670,8 @@
       <c r="R110" s="36"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="170"/>
-      <c r="C111" s="172"/>
+      <c r="B111" s="172"/>
+      <c r="C111" s="169"/>
       <c r="E111" s="77" t="s">
         <v>335</v>
       </c>
@@ -13739,8 +13698,8 @@
       <c r="R111" s="36"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="170"/>
-      <c r="C112" s="172" t="s">
+      <c r="B112" s="172"/>
+      <c r="C112" s="169" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -13788,8 +13747,8 @@
       </c>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="170"/>
-      <c r="C113" s="172"/>
+      <c r="B113" s="172"/>
+      <c r="C113" s="169"/>
       <c r="E113" s="77" t="s">
         <v>263</v>
       </c>
@@ -13816,8 +13775,8 @@
       <c r="R113" s="36"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="170"/>
-      <c r="C114" s="172"/>
+      <c r="B114" s="172"/>
+      <c r="C114" s="169"/>
       <c r="E114" s="77" t="s">
         <v>335</v>
       </c>
@@ -13844,8 +13803,8 @@
       <c r="R114" s="36"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="170"/>
-      <c r="C115" s="172" t="s">
+      <c r="B115" s="172"/>
+      <c r="C115" s="169" t="s">
         <v>38</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -13893,8 +13852,8 @@
       </c>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="170"/>
-      <c r="C116" s="172"/>
+      <c r="B116" s="172"/>
+      <c r="C116" s="169"/>
       <c r="E116" s="77" t="s">
         <v>263</v>
       </c>
@@ -13921,8 +13880,8 @@
       <c r="R116" s="36"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="170"/>
-      <c r="C117" s="172" t="s">
+      <c r="B117" s="172"/>
+      <c r="C117" s="169" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -13972,8 +13931,8 @@
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="170"/>
-      <c r="C118" s="172"/>
+      <c r="B118" s="172"/>
+      <c r="C118" s="169"/>
       <c r="E118" s="77" t="s">
         <v>263</v>
       </c>
@@ -14002,8 +13961,8 @@
       <c r="R118" s="36"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="170"/>
-      <c r="C119" s="172"/>
+      <c r="B119" s="172"/>
+      <c r="C119" s="169"/>
       <c r="E119" s="77" t="s">
         <v>335</v>
       </c>
@@ -14032,8 +13991,8 @@
       <c r="R119" s="36"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="170"/>
-      <c r="C120" s="172" t="s">
+      <c r="B120" s="172"/>
+      <c r="C120" s="169" t="s">
         <v>33</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -14081,8 +14040,8 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="170"/>
-      <c r="C121" s="172"/>
+      <c r="B121" s="172"/>
+      <c r="C121" s="169"/>
       <c r="E121" s="77" t="s">
         <v>263</v>
       </c>
@@ -14109,8 +14068,8 @@
       <c r="R121" s="36"/>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="170"/>
-      <c r="C122" s="172"/>
+      <c r="B122" s="172"/>
+      <c r="C122" s="169"/>
       <c r="E122" s="77" t="s">
         <v>335</v>
       </c>
@@ -14137,8 +14096,8 @@
       <c r="R122" s="36"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="170"/>
-      <c r="C123" s="172" t="s">
+      <c r="B123" s="172"/>
+      <c r="C123" s="169" t="s">
         <v>39</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -14186,8 +14145,8 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="170"/>
-      <c r="C124" s="172"/>
+      <c r="B124" s="172"/>
+      <c r="C124" s="169"/>
       <c r="E124" s="77" t="s">
         <v>263</v>
       </c>
@@ -14214,8 +14173,8 @@
       <c r="R124" s="36"/>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="170"/>
-      <c r="C125" s="172" t="s">
+      <c r="B125" s="172"/>
+      <c r="C125" s="169" t="s">
         <v>41</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -14263,8 +14222,8 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="170"/>
-      <c r="C126" s="172"/>
+      <c r="B126" s="172"/>
+      <c r="C126" s="169"/>
       <c r="E126" s="77" t="s">
         <v>263</v>
       </c>
@@ -14291,8 +14250,8 @@
       <c r="R126" s="36"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="170"/>
-      <c r="C127" s="172" t="s">
+      <c r="B127" s="172"/>
+      <c r="C127" s="169" t="s">
         <v>42</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -14342,8 +14301,8 @@
       </c>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="170"/>
-      <c r="C128" s="172"/>
+      <c r="B128" s="172"/>
+      <c r="C128" s="169"/>
       <c r="E128" s="77" t="s">
         <v>263</v>
       </c>
@@ -14372,8 +14331,8 @@
       <c r="R128" s="36"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="170"/>
-      <c r="C129" s="172" t="s">
+      <c r="B129" s="172"/>
+      <c r="C129" s="169" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -14424,7 +14383,7 @@
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="63"/>
-      <c r="C130" s="173"/>
+      <c r="C130" s="170"/>
       <c r="E130" s="77" t="s">
         <v>263</v>
       </c>
@@ -14453,7 +14412,7 @@
       <c r="R130" s="36"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="169" t="s">
+      <c r="B131" s="171" t="s">
         <v>82</v>
       </c>
       <c r="C131" s="174" t="s">
@@ -14504,8 +14463,8 @@
       </c>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="170"/>
-      <c r="C132" s="172"/>
+      <c r="B132" s="172"/>
+      <c r="C132" s="169"/>
       <c r="E132" s="77" t="s">
         <v>263</v>
       </c>
@@ -14532,8 +14491,8 @@
       <c r="R132" s="36"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="170"/>
-      <c r="C133" s="172" t="s">
+      <c r="B133" s="172"/>
+      <c r="C133" s="169" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -14581,8 +14540,8 @@
       </c>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B134" s="170"/>
-      <c r="C134" s="172"/>
+      <c r="B134" s="172"/>
+      <c r="C134" s="169"/>
       <c r="E134" s="77" t="s">
         <v>32</v>
       </c>
@@ -14611,8 +14570,8 @@
       <c r="R134" s="36"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="170"/>
-      <c r="C135" s="172" t="s">
+      <c r="B135" s="172"/>
+      <c r="C135" s="169" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -14662,8 +14621,8 @@
       </c>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="170"/>
-      <c r="C136" s="172"/>
+      <c r="B136" s="172"/>
+      <c r="C136" s="169"/>
       <c r="E136" s="77" t="s">
         <v>263</v>
       </c>
@@ -14692,8 +14651,8 @@
       <c r="R136" s="36"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="170"/>
-      <c r="C137" s="172"/>
+      <c r="B137" s="172"/>
+      <c r="C137" s="169"/>
       <c r="E137" s="77" t="s">
         <v>32</v>
       </c>
@@ -14722,8 +14681,8 @@
       <c r="R137" s="36"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="170"/>
-      <c r="C138" s="172" t="s">
+      <c r="B138" s="172"/>
+      <c r="C138" s="169" t="s">
         <v>34</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -14773,8 +14732,8 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="170"/>
-      <c r="C139" s="172"/>
+      <c r="B139" s="172"/>
+      <c r="C139" s="169"/>
       <c r="E139" s="77" t="s">
         <v>263</v>
       </c>
@@ -14803,8 +14762,8 @@
       <c r="R139" s="36"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B140" s="170"/>
-      <c r="C140" s="172"/>
+      <c r="B140" s="172"/>
+      <c r="C140" s="169"/>
       <c r="E140" s="77" t="s">
         <v>32</v>
       </c>
@@ -14833,8 +14792,8 @@
       <c r="R140" s="36"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B141" s="170"/>
-      <c r="C141" s="172" t="s">
+      <c r="B141" s="172"/>
+      <c r="C141" s="169" t="s">
         <v>35</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -14880,8 +14839,8 @@
       </c>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B142" s="170"/>
-      <c r="C142" s="172"/>
+      <c r="B142" s="172"/>
+      <c r="C142" s="169"/>
       <c r="E142" s="77" t="s">
         <v>32</v>
       </c>
@@ -14908,8 +14867,8 @@
       <c r="R142" s="36"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B143" s="170"/>
-      <c r="C143" s="172"/>
+      <c r="B143" s="172"/>
+      <c r="C143" s="169"/>
       <c r="E143" s="77" t="s">
         <v>335</v>
       </c>
@@ -14936,8 +14895,8 @@
       <c r="R143" s="36"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B144" s="170"/>
-      <c r="C144" s="172" t="s">
+      <c r="B144" s="172"/>
+      <c r="C144" s="169" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -14985,8 +14944,8 @@
       </c>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B145" s="170"/>
-      <c r="C145" s="172"/>
+      <c r="B145" s="172"/>
+      <c r="C145" s="169"/>
       <c r="E145" s="77" t="s">
         <v>32</v>
       </c>
@@ -15015,10 +14974,10 @@
       <c r="R145" s="36"/>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B146" s="170"/>
-      <c r="C146" s="172"/>
+      <c r="B146" s="172"/>
+      <c r="C146" s="169"/>
       <c r="E146" s="77" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F146" s="36">
         <v>-3.074E-2</v>
@@ -15045,8 +15004,8 @@
       <c r="R146" s="36"/>
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B147" s="170"/>
-      <c r="C147" s="172" t="s">
+      <c r="B147" s="172"/>
+      <c r="C147" s="169" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -15096,8 +15055,8 @@
       </c>
     </row>
     <row r="148" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B148" s="170"/>
-      <c r="C148" s="172"/>
+      <c r="B148" s="172"/>
+      <c r="C148" s="169"/>
       <c r="E148" s="77" t="s">
         <v>263</v>
       </c>
@@ -15126,8 +15085,8 @@
       <c r="R148" s="36"/>
     </row>
     <row r="149" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B149" s="170"/>
-      <c r="C149" s="172"/>
+      <c r="B149" s="172"/>
+      <c r="C149" s="169"/>
       <c r="E149" s="77" t="s">
         <v>32</v>
       </c>
@@ -15156,8 +15115,8 @@
       <c r="R149" s="36"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B150" s="170"/>
-      <c r="C150" s="172" t="s">
+      <c r="B150" s="172"/>
+      <c r="C150" s="169" t="s">
         <v>36</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -15207,8 +15166,8 @@
       </c>
     </row>
     <row r="151" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B151" s="170"/>
-      <c r="C151" s="172"/>
+      <c r="B151" s="172"/>
+      <c r="C151" s="169"/>
       <c r="E151" s="77" t="s">
         <v>263</v>
       </c>
@@ -15237,8 +15196,8 @@
       <c r="R151" s="36"/>
     </row>
     <row r="152" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B152" s="170"/>
-      <c r="C152" s="172"/>
+      <c r="B152" s="172"/>
+      <c r="C152" s="169"/>
       <c r="E152" s="77" t="s">
         <v>32</v>
       </c>
@@ -15267,10 +15226,10 @@
       <c r="R152" s="36"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B153" s="170"/>
-      <c r="C153" s="172"/>
+      <c r="B153" s="172"/>
+      <c r="C153" s="169"/>
       <c r="E153" s="77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F153" s="36">
         <v>-1.6080000000000001E-2</v>
@@ -15297,8 +15256,8 @@
       <c r="R153" s="36"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B154" s="170"/>
-      <c r="C154" s="172" t="s">
+      <c r="B154" s="172"/>
+      <c r="C154" s="169" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -15348,8 +15307,8 @@
       </c>
     </row>
     <row r="155" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B155" s="170"/>
-      <c r="C155" s="172"/>
+      <c r="B155" s="172"/>
+      <c r="C155" s="169"/>
       <c r="E155" s="1" t="s">
         <v>263</v>
       </c>
@@ -15378,7 +15337,7 @@
       <c r="R155" s="36"/>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B156" s="170"/>
+      <c r="B156" s="172"/>
       <c r="C156" s="85"/>
       <c r="E156" s="1" t="s">
         <v>335</v>
@@ -15408,7 +15367,7 @@
       <c r="R156" s="36"/>
     </row>
     <row r="157" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B157" s="170"/>
+      <c r="B157" s="172"/>
       <c r="C157" s="85"/>
       <c r="E157" s="1" t="s">
         <v>32</v>
@@ -15438,10 +15397,10 @@
       <c r="R157" s="36"/>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B158" s="170"/>
+      <c r="B158" s="172"/>
       <c r="C158" s="85"/>
       <c r="E158" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F158" s="36">
         <v>0.41599000000000003</v>
@@ -15468,8 +15427,8 @@
       <c r="R158" s="36"/>
     </row>
     <row r="159" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B159" s="170"/>
-      <c r="C159" s="172" t="s">
+      <c r="B159" s="172"/>
+      <c r="C159" s="169" t="s">
         <v>19</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -15519,8 +15478,8 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B160" s="170"/>
-      <c r="C160" s="172"/>
+      <c r="B160" s="172"/>
+      <c r="C160" s="169"/>
       <c r="E160" s="77" t="s">
         <v>263</v>
       </c>
@@ -15549,8 +15508,8 @@
       <c r="R160" s="36"/>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B161" s="170"/>
-      <c r="C161" s="172" t="s">
+      <c r="B161" s="172"/>
+      <c r="C161" s="169" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -15600,8 +15559,8 @@
       </c>
     </row>
     <row r="162" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B162" s="170"/>
-      <c r="C162" s="172"/>
+      <c r="B162" s="172"/>
+      <c r="C162" s="169"/>
       <c r="E162" s="77" t="s">
         <v>263</v>
       </c>
@@ -15630,8 +15589,8 @@
       <c r="R162" s="36"/>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B163" s="170"/>
-      <c r="C163" s="172"/>
+      <c r="B163" s="172"/>
+      <c r="C163" s="169"/>
       <c r="E163" s="77" t="s">
         <v>32</v>
       </c>
@@ -15660,8 +15619,8 @@
       <c r="R163" s="36"/>
     </row>
     <row r="164" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B164" s="170"/>
-      <c r="C164" s="172" t="s">
+      <c r="B164" s="172"/>
+      <c r="C164" s="169" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -15686,7 +15645,7 @@
         <v>7.9399999999999991E-3</v>
       </c>
       <c r="K164" s="88" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L164" s="36">
         <v>1039.6247578713901</v>
@@ -15711,8 +15670,8 @@
       </c>
     </row>
     <row r="165" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B165" s="170"/>
-      <c r="C165" s="172"/>
+      <c r="B165" s="172"/>
+      <c r="C165" s="169"/>
       <c r="E165" s="77" t="s">
         <v>263</v>
       </c>
@@ -15741,8 +15700,8 @@
       <c r="R165" s="36"/>
     </row>
     <row r="166" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B166" s="170"/>
-      <c r="C166" s="172"/>
+      <c r="B166" s="172"/>
+      <c r="C166" s="169"/>
       <c r="E166" s="77" t="s">
         <v>32</v>
       </c>
@@ -15771,8 +15730,8 @@
       <c r="R166" s="36"/>
     </row>
     <row r="167" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B167" s="170"/>
-      <c r="C167" s="172"/>
+      <c r="B167" s="172"/>
+      <c r="C167" s="169"/>
       <c r="E167" s="77" t="s">
         <v>392</v>
       </c>
@@ -15801,8 +15760,8 @@
       <c r="R167" s="36"/>
     </row>
     <row r="168" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B168" s="170"/>
-      <c r="C168" s="172"/>
+      <c r="B168" s="172"/>
+      <c r="C168" s="169"/>
       <c r="E168" s="77" t="s">
         <v>393</v>
       </c>
@@ -15831,8 +15790,8 @@
       <c r="R168" s="36"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B169" s="170"/>
-      <c r="C169" s="172"/>
+      <c r="B169" s="172"/>
+      <c r="C169" s="169"/>
       <c r="E169" s="77" t="s">
         <v>394</v>
       </c>
@@ -15861,8 +15820,8 @@
       <c r="R169" s="36"/>
     </row>
     <row r="170" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B170" s="170"/>
-      <c r="C170" s="172"/>
+      <c r="B170" s="172"/>
+      <c r="C170" s="169"/>
       <c r="E170" s="77" t="s">
         <v>395</v>
       </c>
@@ -15891,8 +15850,8 @@
       <c r="R170" s="36"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B171" s="170"/>
-      <c r="C171" s="172"/>
+      <c r="B171" s="172"/>
+      <c r="C171" s="169"/>
       <c r="E171" s="77" t="s">
         <v>396</v>
       </c>
@@ -15921,8 +15880,8 @@
       <c r="R171" s="36"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B172" s="170"/>
-      <c r="C172" s="172" t="s">
+      <c r="B172" s="172"/>
+      <c r="C172" s="169" t="s">
         <v>38</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -15972,8 +15931,8 @@
       </c>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B173" s="170"/>
-      <c r="C173" s="172"/>
+      <c r="B173" s="172"/>
+      <c r="C173" s="169"/>
       <c r="E173" s="77" t="s">
         <v>263</v>
       </c>
@@ -16002,8 +15961,8 @@
       <c r="R173" s="36"/>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B174" s="170"/>
-      <c r="C174" s="172"/>
+      <c r="B174" s="172"/>
+      <c r="C174" s="169"/>
       <c r="E174" s="77" t="s">
         <v>32</v>
       </c>
@@ -16032,8 +15991,8 @@
       <c r="R174" s="36"/>
     </row>
     <row r="175" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B175" s="170"/>
-      <c r="C175" s="172" t="s">
+      <c r="B175" s="172"/>
+      <c r="C175" s="169" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -16083,8 +16042,8 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B176" s="170"/>
-      <c r="C176" s="172"/>
+      <c r="B176" s="172"/>
+      <c r="C176" s="169"/>
       <c r="E176" s="77" t="s">
         <v>263</v>
       </c>
@@ -16113,8 +16072,8 @@
       <c r="R176" s="36"/>
     </row>
     <row r="177" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B177" s="170"/>
-      <c r="C177" s="172"/>
+      <c r="B177" s="172"/>
+      <c r="C177" s="169"/>
       <c r="E177" s="77" t="s">
         <v>32</v>
       </c>
@@ -16143,8 +16102,8 @@
       <c r="R177" s="36"/>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B178" s="170"/>
-      <c r="C178" s="172"/>
+      <c r="B178" s="172"/>
+      <c r="C178" s="169"/>
       <c r="E178" s="77" t="s">
         <v>335</v>
       </c>
@@ -16173,8 +16132,8 @@
       <c r="R178" s="36"/>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B179" s="170"/>
-      <c r="C179" s="172" t="s">
+      <c r="B179" s="172"/>
+      <c r="C179" s="169" t="s">
         <v>33</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -16199,7 +16158,7 @@
         <v>3.3000000000000002E-9</v>
       </c>
       <c r="K179" s="88" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L179" s="36">
         <v>243.89788410026199</v>
@@ -16224,8 +16183,8 @@
       </c>
     </row>
     <row r="180" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B180" s="170"/>
-      <c r="C180" s="172"/>
+      <c r="B180" s="172"/>
+      <c r="C180" s="169"/>
       <c r="E180" s="77" t="s">
         <v>263</v>
       </c>
@@ -16254,8 +16213,8 @@
       <c r="R180" s="36"/>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B181" s="170"/>
-      <c r="C181" s="172"/>
+      <c r="B181" s="172"/>
+      <c r="C181" s="169"/>
       <c r="E181" s="77" t="s">
         <v>32</v>
       </c>
@@ -16284,8 +16243,8 @@
       <c r="R181" s="36"/>
     </row>
     <row r="182" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B182" s="170"/>
-      <c r="C182" s="172"/>
+      <c r="B182" s="172"/>
+      <c r="C182" s="169"/>
       <c r="E182" s="77" t="s">
         <v>392</v>
       </c>
@@ -16314,8 +16273,8 @@
       <c r="R182" s="36"/>
     </row>
     <row r="183" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B183" s="170"/>
-      <c r="C183" s="172"/>
+      <c r="B183" s="172"/>
+      <c r="C183" s="169"/>
       <c r="E183" s="77" t="s">
         <v>393</v>
       </c>
@@ -16344,8 +16303,8 @@
       <c r="R183" s="36"/>
     </row>
     <row r="184" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B184" s="170"/>
-      <c r="C184" s="172"/>
+      <c r="B184" s="172"/>
+      <c r="C184" s="169"/>
       <c r="E184" s="77" t="s">
         <v>394</v>
       </c>
@@ -16374,8 +16333,8 @@
       <c r="R184" s="36"/>
     </row>
     <row r="185" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B185" s="170"/>
-      <c r="C185" s="172"/>
+      <c r="B185" s="172"/>
+      <c r="C185" s="169"/>
       <c r="E185" s="77" t="s">
         <v>395</v>
       </c>
@@ -16404,8 +16363,8 @@
       <c r="R185" s="36"/>
     </row>
     <row r="186" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B186" s="170"/>
-      <c r="C186" s="172"/>
+      <c r="B186" s="172"/>
+      <c r="C186" s="169"/>
       <c r="E186" s="77" t="s">
         <v>396</v>
       </c>
@@ -16434,8 +16393,8 @@
       <c r="R186" s="36"/>
     </row>
     <row r="187" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B187" s="170"/>
-      <c r="C187" s="172" t="s">
+      <c r="B187" s="172"/>
+      <c r="C187" s="169" t="s">
         <v>39</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -16483,8 +16442,8 @@
       </c>
     </row>
     <row r="188" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B188" s="170"/>
-      <c r="C188" s="172"/>
+      <c r="B188" s="172"/>
+      <c r="C188" s="169"/>
       <c r="E188" s="77" t="s">
         <v>263</v>
       </c>
@@ -16511,8 +16470,8 @@
       <c r="R188" s="36"/>
     </row>
     <row r="189" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B189" s="170"/>
-      <c r="C189" s="172" t="s">
+      <c r="B189" s="172"/>
+      <c r="C189" s="169" t="s">
         <v>41</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -16562,8 +16521,8 @@
       </c>
     </row>
     <row r="190" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B190" s="170"/>
-      <c r="C190" s="172"/>
+      <c r="B190" s="172"/>
+      <c r="C190" s="169"/>
       <c r="E190" s="77" t="s">
         <v>263</v>
       </c>
@@ -16592,8 +16551,8 @@
       <c r="R190" s="36"/>
     </row>
     <row r="191" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B191" s="170"/>
-      <c r="C191" s="172"/>
+      <c r="B191" s="172"/>
+      <c r="C191" s="169"/>
       <c r="E191" s="77" t="s">
         <v>335</v>
       </c>
@@ -16622,8 +16581,8 @@
       <c r="R191" s="36"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B192" s="170"/>
-      <c r="C192" s="172" t="s">
+      <c r="B192" s="172"/>
+      <c r="C192" s="169" t="s">
         <v>42</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -16673,8 +16632,8 @@
       </c>
     </row>
     <row r="193" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B193" s="170"/>
-      <c r="C193" s="172"/>
+      <c r="B193" s="172"/>
+      <c r="C193" s="169"/>
       <c r="E193" s="77" t="s">
         <v>263</v>
       </c>
@@ -16703,8 +16662,8 @@
       <c r="R193" s="36"/>
     </row>
     <row r="194" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B194" s="170"/>
-      <c r="C194" s="172"/>
+      <c r="B194" s="172"/>
+      <c r="C194" s="169"/>
       <c r="E194" s="77" t="s">
         <v>32</v>
       </c>
@@ -16733,8 +16692,8 @@
       <c r="R194" s="36"/>
     </row>
     <row r="195" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B195" s="170"/>
-      <c r="C195" s="172"/>
+      <c r="B195" s="172"/>
+      <c r="C195" s="169"/>
       <c r="E195" s="77" t="s">
         <v>335</v>
       </c>
@@ -16763,8 +16722,8 @@
       <c r="R195" s="36"/>
     </row>
     <row r="196" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B196" s="170"/>
-      <c r="C196" s="172" t="s">
+      <c r="B196" s="172"/>
+      <c r="C196" s="169" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -16814,8 +16773,8 @@
       </c>
     </row>
     <row r="197" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B197" s="170"/>
-      <c r="C197" s="172"/>
+      <c r="B197" s="172"/>
+      <c r="C197" s="169"/>
       <c r="E197" s="1" t="s">
         <v>263</v>
       </c>
@@ -16844,8 +16803,8 @@
       <c r="R197" s="36"/>
     </row>
     <row r="198" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B198" s="170"/>
-      <c r="C198" s="172"/>
+      <c r="B198" s="172"/>
+      <c r="C198" s="169"/>
       <c r="E198" s="1" t="s">
         <v>335</v>
       </c>
@@ -16874,8 +16833,8 @@
       <c r="R198" s="36"/>
     </row>
     <row r="199" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B199" s="170"/>
-      <c r="C199" s="172"/>
+      <c r="B199" s="172"/>
+      <c r="C199" s="169"/>
       <c r="E199" s="1" t="s">
         <v>32</v>
       </c>
@@ -16904,11 +16863,11 @@
       <c r="R199" s="36"/>
     </row>
     <row r="200" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B200" s="171"/>
-      <c r="C200" s="173"/>
+      <c r="B200" s="173"/>
+      <c r="C200" s="170"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F200" s="87">
         <v>0.17069000000000001</v>
@@ -16935,28 +16894,28 @@
       <c r="R200" s="87"/>
     </row>
     <row r="206" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U206" s="164" t="s">
+      <c r="U206" s="152" t="s">
         <v>349</v>
       </c>
-      <c r="V206" s="164"/>
-      <c r="W206" s="164"/>
-      <c r="X206" s="164"/>
-      <c r="Y206" s="164"/>
-      <c r="Z206" s="164"/>
-      <c r="AA206" s="164"/>
-      <c r="AB206" s="164"/>
-      <c r="AC206" s="164"/>
-      <c r="AD206" s="164"/>
-      <c r="AE206" s="164"/>
-      <c r="AF206" s="164"/>
-      <c r="AG206" s="164"/>
-      <c r="AH206" s="164"/>
-      <c r="AI206" s="164"/>
-      <c r="AJ206" s="164"/>
-      <c r="AK206" s="164"/>
-      <c r="AL206" s="164"/>
-      <c r="AM206" s="164"/>
-      <c r="AN206" s="164"/>
+      <c r="V206" s="152"/>
+      <c r="W206" s="152"/>
+      <c r="X206" s="152"/>
+      <c r="Y206" s="152"/>
+      <c r="Z206" s="152"/>
+      <c r="AA206" s="152"/>
+      <c r="AB206" s="152"/>
+      <c r="AC206" s="152"/>
+      <c r="AD206" s="152"/>
+      <c r="AE206" s="152"/>
+      <c r="AF206" s="152"/>
+      <c r="AG206" s="152"/>
+      <c r="AH206" s="152"/>
+      <c r="AI206" s="152"/>
+      <c r="AJ206" s="152"/>
+      <c r="AK206" s="152"/>
+      <c r="AL206" s="152"/>
+      <c r="AM206" s="152"/>
+      <c r="AN206" s="152"/>
     </row>
     <row r="207" spans="2:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U207" s="13" t="s">
@@ -17231,28 +17190,28 @@
       <c r="AN211" s="13"/>
     </row>
     <row r="213" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U213" s="164" t="s">
+      <c r="U213" s="152" t="s">
         <v>350</v>
       </c>
-      <c r="V213" s="164"/>
-      <c r="W213" s="164"/>
-      <c r="X213" s="164"/>
-      <c r="Y213" s="164"/>
-      <c r="Z213" s="164"/>
-      <c r="AA213" s="164"/>
-      <c r="AB213" s="164"/>
-      <c r="AC213" s="164"/>
-      <c r="AD213" s="164"/>
-      <c r="AE213" s="164"/>
-      <c r="AF213" s="164"/>
-      <c r="AG213" s="164"/>
-      <c r="AH213" s="164"/>
-      <c r="AI213" s="164"/>
-      <c r="AJ213" s="164"/>
-      <c r="AK213" s="164"/>
-      <c r="AL213" s="164"/>
-      <c r="AM213" s="164"/>
-      <c r="AN213" s="164"/>
+      <c r="V213" s="152"/>
+      <c r="W213" s="152"/>
+      <c r="X213" s="152"/>
+      <c r="Y213" s="152"/>
+      <c r="Z213" s="152"/>
+      <c r="AA213" s="152"/>
+      <c r="AB213" s="152"/>
+      <c r="AC213" s="152"/>
+      <c r="AD213" s="152"/>
+      <c r="AE213" s="152"/>
+      <c r="AF213" s="152"/>
+      <c r="AG213" s="152"/>
+      <c r="AH213" s="152"/>
+      <c r="AI213" s="152"/>
+      <c r="AJ213" s="152"/>
+      <c r="AK213" s="152"/>
+      <c r="AL213" s="152"/>
+      <c r="AM213" s="152"/>
+      <c r="AN213" s="152"/>
     </row>
     <row r="214" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U214" s="13" t="s">
@@ -17542,28 +17501,28 @@
       </c>
     </row>
     <row r="221" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U221" s="164" t="s">
+      <c r="U221" s="152" t="s">
         <v>352</v>
       </c>
-      <c r="V221" s="164"/>
-      <c r="W221" s="164"/>
-      <c r="X221" s="164"/>
-      <c r="Y221" s="164"/>
-      <c r="Z221" s="164"/>
-      <c r="AA221" s="164"/>
-      <c r="AB221" s="164"/>
-      <c r="AC221" s="164"/>
-      <c r="AD221" s="164"/>
-      <c r="AE221" s="164"/>
-      <c r="AF221" s="164"/>
-      <c r="AG221" s="164"/>
-      <c r="AH221" s="164"/>
-      <c r="AI221" s="164"/>
-      <c r="AJ221" s="164"/>
-      <c r="AK221" s="164"/>
-      <c r="AL221" s="164"/>
-      <c r="AM221" s="164"/>
-      <c r="AN221" s="164"/>
+      <c r="V221" s="152"/>
+      <c r="W221" s="152"/>
+      <c r="X221" s="152"/>
+      <c r="Y221" s="152"/>
+      <c r="Z221" s="152"/>
+      <c r="AA221" s="152"/>
+      <c r="AB221" s="152"/>
+      <c r="AC221" s="152"/>
+      <c r="AD221" s="152"/>
+      <c r="AE221" s="152"/>
+      <c r="AF221" s="152"/>
+      <c r="AG221" s="152"/>
+      <c r="AH221" s="152"/>
+      <c r="AI221" s="152"/>
+      <c r="AJ221" s="152"/>
+      <c r="AK221" s="152"/>
+      <c r="AL221" s="152"/>
+      <c r="AM221" s="152"/>
+      <c r="AN221" s="152"/>
     </row>
     <row r="222" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U222" s="13" t="s">
@@ -17840,28 +17799,28 @@
       <c r="AN226" s="26"/>
     </row>
     <row r="229" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U229" s="164" t="s">
+      <c r="U229" s="152" t="s">
         <v>355</v>
       </c>
-      <c r="V229" s="164"/>
-      <c r="W229" s="164"/>
-      <c r="X229" s="164"/>
-      <c r="Y229" s="164"/>
-      <c r="Z229" s="164"/>
-      <c r="AA229" s="164"/>
-      <c r="AB229" s="164"/>
-      <c r="AC229" s="164"/>
-      <c r="AD229" s="164"/>
-      <c r="AE229" s="164"/>
-      <c r="AF229" s="164"/>
-      <c r="AG229" s="164"/>
-      <c r="AH229" s="164"/>
-      <c r="AI229" s="164"/>
-      <c r="AJ229" s="164"/>
-      <c r="AK229" s="164"/>
-      <c r="AL229" s="164"/>
-      <c r="AM229" s="164"/>
-      <c r="AN229" s="164"/>
+      <c r="V229" s="152"/>
+      <c r="W229" s="152"/>
+      <c r="X229" s="152"/>
+      <c r="Y229" s="152"/>
+      <c r="Z229" s="152"/>
+      <c r="AA229" s="152"/>
+      <c r="AB229" s="152"/>
+      <c r="AC229" s="152"/>
+      <c r="AD229" s="152"/>
+      <c r="AE229" s="152"/>
+      <c r="AF229" s="152"/>
+      <c r="AG229" s="152"/>
+      <c r="AH229" s="152"/>
+      <c r="AI229" s="152"/>
+      <c r="AJ229" s="152"/>
+      <c r="AK229" s="152"/>
+      <c r="AL229" s="152"/>
+      <c r="AM229" s="152"/>
+      <c r="AN229" s="152"/>
     </row>
     <row r="230" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U230" s="13" t="s">
@@ -18255,14 +18214,14 @@
         <v>273</v>
       </c>
       <c r="AA236" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AB236" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AC236" s="25"/>
       <c r="AD236" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AE236" s="1" t="s">
         <v>273</v>
@@ -18292,7 +18251,7 @@
         <v>273</v>
       </c>
       <c r="AN236" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="237" spans="21:40" s="25" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
@@ -18336,7 +18295,7 @@
         <v>343</v>
       </c>
       <c r="AL237" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AM237" s="26"/>
       <c r="AN237" s="26" t="s">
@@ -18346,40 +18305,32 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="71">
-    <mergeCell ref="U229:AN229"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="C196:C200"/>
-    <mergeCell ref="U206:AN206"/>
-    <mergeCell ref="U213:AN213"/>
-    <mergeCell ref="U221:AN221"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="C164:C171"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="C179:C186"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="B131:B200"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B5:B35"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B36:B80"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="C69:C70"/>
     <mergeCell ref="C117:C119"/>
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="C78:C79"/>
@@ -18391,32 +18342,40 @@
     <mergeCell ref="C94:C97"/>
     <mergeCell ref="C98:C100"/>
     <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B36:B80"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B3:S3"/>
-    <mergeCell ref="B5:B35"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B131:B200"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="C164:C171"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="C179:C186"/>
+    <mergeCell ref="U229:AN229"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="C196:C200"/>
+    <mergeCell ref="U206:AN206"/>
+    <mergeCell ref="U213:AN213"/>
+    <mergeCell ref="U221:AN221"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18443,14 +18402,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -18474,7 +18433,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="161" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -18488,7 +18447,7 @@
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="158"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
@@ -18497,7 +18456,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="158"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -18506,7 +18465,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="158"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -18515,7 +18474,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="159"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
@@ -18527,7 +18486,7 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="161" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18541,7 +18500,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="158"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
@@ -18553,7 +18512,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="158"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -18565,7 +18524,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="158"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -18574,7 +18533,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="159"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -18586,7 +18545,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="161" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -18602,7 +18561,7 @@
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="158"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -18614,7 +18573,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="158"/>
+      <c r="B16" s="162"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -18629,7 +18588,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="158"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -18641,7 +18600,7 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="159"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -18655,7 +18614,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="162" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -18666,7 +18625,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="158"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -18675,7 +18634,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="158"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -18684,7 +18643,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="158"/>
+      <c r="B22" s="162"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -18693,7 +18652,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="159"/>
+      <c r="B23" s="154"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
@@ -18705,18 +18664,18 @@
       <c r="G23" s="13"/>
     </row>
     <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="164" t="s">
+      <c r="J30" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="K30" s="164"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="164"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="164"/>
-      <c r="R30" s="164"/>
-      <c r="S30" s="164"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152"/>
     </row>
     <row r="31" spans="2:20" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J31" s="55" t="s">
@@ -18751,7 +18710,7 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J32" s="169" t="s">
+      <c r="J32" s="171" t="s">
         <v>79</v>
       </c>
       <c r="K32" s="14" t="s">
@@ -18765,7 +18724,7 @@
       </c>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J33" s="170"/>
+      <c r="J33" s="172"/>
       <c r="K33" s="14" t="s">
         <v>16</v>
       </c>
@@ -18774,7 +18733,7 @@
       </c>
     </row>
     <row r="34" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J34" s="170"/>
+      <c r="J34" s="172"/>
       <c r="K34" s="14" t="s">
         <v>17</v>
       </c>
@@ -18783,7 +18742,7 @@
       </c>
     </row>
     <row r="35" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J35" s="170"/>
+      <c r="J35" s="172"/>
       <c r="K35" s="14" t="s">
         <v>34</v>
       </c>
@@ -18792,7 +18751,7 @@
       </c>
     </row>
     <row r="36" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J36" s="170"/>
+      <c r="J36" s="172"/>
       <c r="K36" s="14" t="s">
         <v>35</v>
       </c>
@@ -18801,7 +18760,7 @@
       </c>
     </row>
     <row r="37" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J37" s="170"/>
+      <c r="J37" s="172"/>
       <c r="K37" s="14" t="s">
         <v>18</v>
       </c>
@@ -18813,7 +18772,7 @@
       </c>
     </row>
     <row r="38" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J38" s="170"/>
+      <c r="J38" s="172"/>
       <c r="K38" s="14" t="s">
         <v>37</v>
       </c>
@@ -18822,7 +18781,7 @@
       </c>
     </row>
     <row r="39" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J39" s="170"/>
+      <c r="J39" s="172"/>
       <c r="K39" s="14" t="s">
         <v>36</v>
       </c>
@@ -18831,7 +18790,7 @@
       </c>
     </row>
     <row r="40" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J40" s="170"/>
+      <c r="J40" s="172"/>
       <c r="K40" s="14" t="s">
         <v>12</v>
       </c>
@@ -18843,7 +18802,7 @@
       </c>
     </row>
     <row r="41" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J41" s="170"/>
+      <c r="J41" s="172"/>
       <c r="K41" s="14" t="s">
         <v>19</v>
       </c>
@@ -18855,7 +18814,7 @@
       </c>
     </row>
     <row r="42" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="170"/>
+      <c r="J42" s="172"/>
       <c r="K42" s="14" t="s">
         <v>13</v>
       </c>
@@ -18867,7 +18826,7 @@
       </c>
     </row>
     <row r="43" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J43" s="170"/>
+      <c r="J43" s="172"/>
       <c r="K43" s="14" t="s">
         <v>14</v>
       </c>
@@ -18876,7 +18835,7 @@
       </c>
     </row>
     <row r="44" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J44" s="170"/>
+      <c r="J44" s="172"/>
       <c r="K44" s="14" t="s">
         <v>38</v>
       </c>
@@ -18885,7 +18844,7 @@
       </c>
     </row>
     <row r="45" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J45" s="170"/>
+      <c r="J45" s="172"/>
       <c r="K45" s="14" t="s">
         <v>20</v>
       </c>
@@ -18897,7 +18856,7 @@
       </c>
     </row>
     <row r="46" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J46" s="170"/>
+      <c r="J46" s="172"/>
       <c r="K46" s="14" t="s">
         <v>33</v>
       </c>
@@ -18906,7 +18865,7 @@
       </c>
     </row>
     <row r="47" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J47" s="170"/>
+      <c r="J47" s="172"/>
       <c r="K47" s="14" t="s">
         <v>39</v>
       </c>
@@ -18918,7 +18877,7 @@
       </c>
     </row>
     <row r="48" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J48" s="170"/>
+      <c r="J48" s="172"/>
       <c r="K48" s="14" t="s">
         <v>41</v>
       </c>
@@ -18927,7 +18886,7 @@
       </c>
     </row>
     <row r="49" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J49" s="170"/>
+      <c r="J49" s="172"/>
       <c r="K49" s="14" t="s">
         <v>42</v>
       </c>
@@ -18936,7 +18895,7 @@
       </c>
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J50" s="170"/>
+      <c r="J50" s="172"/>
       <c r="K50" s="15" t="s">
         <v>15</v>
       </c>
@@ -18945,7 +18904,7 @@
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J51" s="169" t="s">
+      <c r="J51" s="171" t="s">
         <v>80</v>
       </c>
       <c r="K51" s="14" t="s">
@@ -18956,7 +18915,7 @@
       </c>
     </row>
     <row r="52" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J52" s="170"/>
+      <c r="J52" s="172"/>
       <c r="K52" s="14" t="s">
         <v>16</v>
       </c>
@@ -18965,7 +18924,7 @@
       </c>
     </row>
     <row r="53" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J53" s="170"/>
+      <c r="J53" s="172"/>
       <c r="K53" s="14" t="s">
         <v>17</v>
       </c>
@@ -18974,7 +18933,7 @@
       </c>
     </row>
     <row r="54" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J54" s="170"/>
+      <c r="J54" s="172"/>
       <c r="K54" s="14" t="s">
         <v>34</v>
       </c>
@@ -18983,7 +18942,7 @@
       </c>
     </row>
     <row r="55" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J55" s="170"/>
+      <c r="J55" s="172"/>
       <c r="K55" s="14" t="s">
         <v>35</v>
       </c>
@@ -18992,7 +18951,7 @@
       </c>
     </row>
     <row r="56" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J56" s="170"/>
+      <c r="J56" s="172"/>
       <c r="K56" s="14" t="s">
         <v>18</v>
       </c>
@@ -19001,7 +18960,7 @@
       </c>
     </row>
     <row r="57" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J57" s="170"/>
+      <c r="J57" s="172"/>
       <c r="K57" s="14" t="s">
         <v>37</v>
       </c>
@@ -19013,7 +18972,7 @@
       </c>
     </row>
     <row r="58" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J58" s="170"/>
+      <c r="J58" s="172"/>
       <c r="K58" s="14" t="s">
         <v>36</v>
       </c>
@@ -19022,7 +18981,7 @@
       </c>
     </row>
     <row r="59" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J59" s="170"/>
+      <c r="J59" s="172"/>
       <c r="K59" s="14" t="s">
         <v>12</v>
       </c>
@@ -19034,7 +18993,7 @@
       </c>
     </row>
     <row r="60" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J60" s="170"/>
+      <c r="J60" s="172"/>
       <c r="K60" s="14" t="s">
         <v>19</v>
       </c>
@@ -19043,7 +19002,7 @@
       </c>
     </row>
     <row r="61" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J61" s="170"/>
+      <c r="J61" s="172"/>
       <c r="K61" s="14" t="s">
         <v>13</v>
       </c>
@@ -19055,7 +19014,7 @@
       </c>
     </row>
     <row r="62" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J62" s="170"/>
+      <c r="J62" s="172"/>
       <c r="K62" s="14" t="s">
         <v>14</v>
       </c>
@@ -19064,7 +19023,7 @@
       </c>
     </row>
     <row r="63" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J63" s="170"/>
+      <c r="J63" s="172"/>
       <c r="K63" s="14" t="s">
         <v>38</v>
       </c>
@@ -19076,7 +19035,7 @@
       </c>
     </row>
     <row r="64" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J64" s="170"/>
+      <c r="J64" s="172"/>
       <c r="K64" s="14" t="s">
         <v>20</v>
       </c>
@@ -19088,7 +19047,7 @@
       </c>
     </row>
     <row r="65" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J65" s="170"/>
+      <c r="J65" s="172"/>
       <c r="K65" s="14" t="s">
         <v>33</v>
       </c>
@@ -19100,7 +19059,7 @@
       </c>
     </row>
     <row r="66" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J66" s="170"/>
+      <c r="J66" s="172"/>
       <c r="K66" s="14" t="s">
         <v>39</v>
       </c>
@@ -19112,7 +19071,7 @@
       </c>
     </row>
     <row r="67" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J67" s="170"/>
+      <c r="J67" s="172"/>
       <c r="K67" s="14" t="s">
         <v>41</v>
       </c>
@@ -19121,7 +19080,7 @@
       </c>
     </row>
     <row r="68" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J68" s="170"/>
+      <c r="J68" s="172"/>
       <c r="K68" s="14" t="s">
         <v>42</v>
       </c>
@@ -19133,7 +19092,7 @@
       </c>
     </row>
     <row r="69" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J69" s="170"/>
+      <c r="J69" s="172"/>
       <c r="K69" s="15" t="s">
         <v>15</v>
       </c>
@@ -19142,7 +19101,7 @@
       </c>
     </row>
     <row r="70" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J70" s="169" t="s">
+      <c r="J70" s="171" t="s">
         <v>81</v>
       </c>
       <c r="K70" s="14" t="s">
@@ -19156,7 +19115,7 @@
       </c>
     </row>
     <row r="71" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J71" s="170"/>
+      <c r="J71" s="172"/>
       <c r="K71" s="14" t="s">
         <v>16</v>
       </c>
@@ -19165,7 +19124,7 @@
       </c>
     </row>
     <row r="72" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J72" s="170"/>
+      <c r="J72" s="172"/>
       <c r="K72" s="14" t="s">
         <v>17</v>
       </c>
@@ -19177,7 +19136,7 @@
       </c>
     </row>
     <row r="73" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J73" s="170"/>
+      <c r="J73" s="172"/>
       <c r="K73" s="14" t="s">
         <v>34</v>
       </c>
@@ -19186,7 +19145,7 @@
       </c>
     </row>
     <row r="74" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J74" s="170"/>
+      <c r="J74" s="172"/>
       <c r="K74" s="14" t="s">
         <v>35</v>
       </c>
@@ -19195,7 +19154,7 @@
       </c>
     </row>
     <row r="75" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J75" s="170"/>
+      <c r="J75" s="172"/>
       <c r="K75" s="14" t="s">
         <v>18</v>
       </c>
@@ -19207,7 +19166,7 @@
       </c>
     </row>
     <row r="76" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J76" s="170"/>
+      <c r="J76" s="172"/>
       <c r="K76" s="14" t="s">
         <v>37</v>
       </c>
@@ -19216,7 +19175,7 @@
       </c>
     </row>
     <row r="77" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J77" s="170"/>
+      <c r="J77" s="172"/>
       <c r="K77" s="14" t="s">
         <v>36</v>
       </c>
@@ -19228,7 +19187,7 @@
       </c>
     </row>
     <row r="78" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J78" s="170"/>
+      <c r="J78" s="172"/>
       <c r="K78" s="14" t="s">
         <v>12</v>
       </c>
@@ -19237,7 +19196,7 @@
       </c>
     </row>
     <row r="79" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J79" s="170"/>
+      <c r="J79" s="172"/>
       <c r="K79" s="14" t="s">
         <v>19</v>
       </c>
@@ -19249,7 +19208,7 @@
       </c>
     </row>
     <row r="80" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J80" s="170"/>
+      <c r="J80" s="172"/>
       <c r="K80" s="14" t="s">
         <v>13</v>
       </c>
@@ -19261,7 +19220,7 @@
       </c>
     </row>
     <row r="81" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J81" s="170"/>
+      <c r="J81" s="172"/>
       <c r="K81" s="14" t="s">
         <v>14</v>
       </c>
@@ -19273,7 +19232,7 @@
       </c>
     </row>
     <row r="82" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J82" s="170"/>
+      <c r="J82" s="172"/>
       <c r="K82" s="14" t="s">
         <v>38</v>
       </c>
@@ -19288,7 +19247,7 @@
       </c>
     </row>
     <row r="83" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J83" s="170"/>
+      <c r="J83" s="172"/>
       <c r="K83" s="14" t="s">
         <v>20</v>
       </c>
@@ -19297,7 +19256,7 @@
       </c>
     </row>
     <row r="84" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J84" s="170"/>
+      <c r="J84" s="172"/>
       <c r="K84" s="14" t="s">
         <v>33</v>
       </c>
@@ -19306,7 +19265,7 @@
       </c>
     </row>
     <row r="85" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J85" s="170"/>
+      <c r="J85" s="172"/>
       <c r="K85" s="14" t="s">
         <v>39</v>
       </c>
@@ -19315,7 +19274,7 @@
       </c>
     </row>
     <row r="86" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J86" s="170"/>
+      <c r="J86" s="172"/>
       <c r="K86" s="14" t="s">
         <v>41</v>
       </c>
@@ -19330,7 +19289,7 @@
       </c>
     </row>
     <row r="87" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J87" s="170"/>
+      <c r="J87" s="172"/>
       <c r="K87" s="14" t="s">
         <v>42</v>
       </c>
@@ -19339,7 +19298,7 @@
       </c>
     </row>
     <row r="88" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J88" s="170"/>
+      <c r="J88" s="172"/>
       <c r="K88" s="15" t="s">
         <v>15</v>
       </c>
@@ -19351,7 +19310,7 @@
       </c>
     </row>
     <row r="89" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J89" s="169" t="s">
+      <c r="J89" s="171" t="s">
         <v>82</v>
       </c>
       <c r="K89" s="14" t="s">
@@ -19359,125 +19318,125 @@
       </c>
     </row>
     <row r="90" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J90" s="170"/>
+      <c r="J90" s="172"/>
       <c r="K90" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J91" s="170"/>
+      <c r="J91" s="172"/>
       <c r="K91" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J92" s="170"/>
+      <c r="J92" s="172"/>
       <c r="K92" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="93" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J93" s="170"/>
+      <c r="J93" s="172"/>
       <c r="K93" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J94" s="170"/>
+      <c r="J94" s="172"/>
       <c r="K94" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J95" s="170"/>
+      <c r="J95" s="172"/>
       <c r="K95" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="96" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J96" s="170"/>
+      <c r="J96" s="172"/>
       <c r="K96" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J97" s="170"/>
+      <c r="J97" s="172"/>
       <c r="K97" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J98" s="170"/>
+      <c r="J98" s="172"/>
       <c r="K98" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="99" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J99" s="170"/>
+      <c r="J99" s="172"/>
       <c r="K99" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J100" s="170"/>
+      <c r="J100" s="172"/>
       <c r="K100" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J101" s="170"/>
+      <c r="J101" s="172"/>
       <c r="K101" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J102" s="170"/>
+      <c r="J102" s="172"/>
       <c r="K102" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J103" s="170"/>
+      <c r="J103" s="172"/>
       <c r="K103" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="104" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J104" s="170"/>
+      <c r="J104" s="172"/>
       <c r="K104" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="105" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J105" s="170"/>
+      <c r="J105" s="172"/>
       <c r="K105" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="106" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J106" s="170"/>
+      <c r="J106" s="172"/>
       <c r="K106" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="107" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J107" s="170"/>
+      <c r="J107" s="172"/>
       <c r="K107" s="15" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J89:J107"/>
+    <mergeCell ref="J70:J88"/>
+    <mergeCell ref="J32:J50"/>
+    <mergeCell ref="J51:J69"/>
+    <mergeCell ref="J30:S30"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B23"/>
-    <mergeCell ref="J89:J107"/>
-    <mergeCell ref="J70:J88"/>
-    <mergeCell ref="J32:J50"/>
-    <mergeCell ref="J51:J69"/>
-    <mergeCell ref="J30:S30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67582ACC-482B-D04D-A6CB-B179127D58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A380C6CC-C024-8046-BA4E-454AA1B41F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11693" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11872" uniqueCount="469">
   <si>
     <t>Analyte</t>
   </si>
@@ -1563,6 +1563,66 @@
   <si>
     <t>PLI</t>
   </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>Table X. Model summaries for significant home description survey mixed models</t>
+  </si>
+  <si>
+    <t>TU - Q67
+Do you clean parts of your roof draining system?</t>
+  </si>
+  <si>
+    <t>hds question not significant</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>(Intercept)                -3.33716    0.45294 188.05922  -7.368 5.31e-12 ***</t>
+  </si>
+  <si>
+    <t>seasonMonsoon               0.59693    0.11211 158.15507   5.325 3.42e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q671                        0.37750    0.16712  48.97472   2.259   0.0284 *  </t>
+  </si>
+  <si>
+    <t>pH                          0.47586    0.07526 178.13601   6.323 2.01e-09 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonWinter:prox.normal   -0.20883    0.09158  68.48186  -2.280   0.0257 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonMonsoon:prox.normal   0.05164    0.13755 163.38622   0.375   0.7078    </t>
+  </si>
+  <si>
+    <t>GM - Q77
+Does your cistern have a screen or filter for incoming water from down spout on top of the tank?</t>
+  </si>
+  <si>
+    <t>(Intercept)     2.4349     0.1837 32.6992  13.257 1.06e-14 ***</t>
+  </si>
+  <si>
+    <t>seasonMonsoon   0.9362     0.1419 81.5937   6.596 3.92e-09 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prox.normal    -0.3093     0.1018 20.6389  -3.037  0.00635 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q771           -0.4216     0.2089 23.7079  -2.018  0.05508 .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept)  -0.3224     0.1156  -2.789 0.006393 ** </t>
+  </si>
+  <si>
+    <t>Q771         -0.4617     0.1335  -3.459 0.000816 ***</t>
+  </si>
+  <si>
+    <t>GM - Q79
+Do you ever NOT remove the screen or filter and leave your cistern without the filter?</t>
+  </si>
 </sst>
 </file>
 
@@ -2130,7 +2190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2440,17 +2500,14 @@
     <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2462,28 +2519,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2494,23 +2554,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2526,6 +2586,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3504,27 +3567,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="152" t="s">
+      <c r="M31" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="152"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="152"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="164"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="153" t="s">
+      <c r="M32" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="151" t="s">
+      <c r="N32" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="151"/>
-      <c r="P32" s="151"/>
-      <c r="Q32" s="151"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="163"/>
     </row>
     <row r="33" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M33" s="154"/>
+      <c r="M33" s="159"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -3620,7 +3683,7 @@
       </c>
     </row>
     <row r="46" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y46" s="161" t="s">
+      <c r="Y46" s="157" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="8" t="s">
@@ -3634,7 +3697,7 @@
       </c>
     </row>
     <row r="47" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y47" s="162"/>
+      <c r="Y47" s="158"/>
       <c r="Z47" s="8">
         <v>0</v>
       </c>
@@ -3646,7 +3709,7 @@
       </c>
     </row>
     <row r="48" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y48" s="162"/>
+      <c r="Y48" s="158"/>
       <c r="Z48" s="8">
         <v>0.5</v>
       </c>
@@ -3658,7 +3721,7 @@
       </c>
     </row>
     <row r="49" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y49" s="162"/>
+      <c r="Y49" s="158"/>
       <c r="Z49" s="8">
         <v>1</v>
       </c>
@@ -3670,7 +3733,7 @@
       </c>
     </row>
     <row r="50" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y50" s="162"/>
+      <c r="Y50" s="158"/>
       <c r="Z50" s="8">
         <v>1.5</v>
       </c>
@@ -3682,7 +3745,7 @@
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="154"/>
+      <c r="Y51" s="159"/>
       <c r="Z51" s="11">
         <v>2</v>
       </c>
@@ -3695,7 +3758,7 @@
       <c r="AC51" s="13"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y52" s="161" t="s">
+      <c r="Y52" s="157" t="s">
         <v>69</v>
       </c>
       <c r="Z52" s="1" t="s">
@@ -3704,62 +3767,62 @@
       <c r="AA52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC52" s="163" t="s">
+      <c r="AC52" s="160" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="162"/>
+      <c r="Y53" s="158"/>
       <c r="Z53" s="1">
         <v>0</v>
       </c>
       <c r="AA53" s="34">
         <v>6.1733623452348702E-2</v>
       </c>
-      <c r="AC53" s="165"/>
+      <c r="AC53" s="161"/>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y54" s="162"/>
+      <c r="Y54" s="158"/>
       <c r="Z54" s="1">
         <v>2</v>
       </c>
       <c r="AA54" s="34">
         <v>1.20772053410085E-2</v>
       </c>
-      <c r="AC54" s="165"/>
+      <c r="AC54" s="161"/>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y55" s="162"/>
+      <c r="Y55" s="158"/>
       <c r="Z55" s="1">
         <v>4</v>
       </c>
       <c r="AA55" s="31">
         <v>2.2662402083130201E-3</v>
       </c>
-      <c r="AC55" s="165"/>
+      <c r="AC55" s="161"/>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y56" s="162"/>
+      <c r="Y56" s="158"/>
       <c r="Z56" s="1">
         <v>6</v>
       </c>
       <c r="AA56" s="28">
         <v>4.2184786680835203E-4</v>
       </c>
-      <c r="AC56" s="165"/>
+      <c r="AC56" s="161"/>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y57" s="162"/>
+      <c r="Y57" s="158"/>
       <c r="Z57" s="1">
         <v>8</v>
       </c>
       <c r="AA57" s="28">
         <v>7.8406646322768398E-5</v>
       </c>
-      <c r="AC57" s="165"/>
+      <c r="AC57" s="161"/>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y58" s="154"/>
+      <c r="Y58" s="159"/>
       <c r="Z58" s="13">
         <v>10</v>
       </c>
@@ -3767,10 +3830,10 @@
         <v>1.4568956039108299E-5</v>
       </c>
       <c r="AB58" s="13"/>
-      <c r="AC58" s="164"/>
+      <c r="AC58" s="162"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y59" s="161" t="s">
+      <c r="Y59" s="157" t="s">
         <v>73</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -3779,72 +3842,72 @@
       <c r="AA59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" s="163" t="s">
+      <c r="AC59" s="160" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y60" s="162"/>
+      <c r="Y60" s="158"/>
       <c r="Z60" s="1">
         <v>0</v>
       </c>
       <c r="AA60" s="34">
         <v>4.213704983443E-2</v>
       </c>
-      <c r="AC60" s="165"/>
+      <c r="AC60" s="161"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y61" s="162"/>
+      <c r="Y61" s="158"/>
       <c r="Z61" s="1">
         <v>4</v>
       </c>
       <c r="AA61" s="36">
         <v>0.70383460067707004</v>
       </c>
-      <c r="AC61" s="165"/>
+      <c r="AC61" s="161"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y62" s="162"/>
+      <c r="Y62" s="158"/>
       <c r="Z62" s="1">
         <v>8</v>
       </c>
       <c r="AA62" s="36">
         <v>0.99227108557330002</v>
       </c>
-      <c r="AC62" s="165"/>
+      <c r="AC62" s="161"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y63" s="162"/>
+      <c r="Y63" s="158"/>
       <c r="Z63" s="1">
         <v>12</v>
       </c>
       <c r="AA63" s="37">
         <v>0.99985583826317304</v>
       </c>
-      <c r="AC63" s="165"/>
+      <c r="AC63" s="161"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y64" s="162"/>
+      <c r="Y64" s="158"/>
       <c r="Z64" s="1">
         <v>16</v>
       </c>
       <c r="AA64" s="37">
         <v>0.99999733107778499</v>
       </c>
-      <c r="AC64" s="165"/>
+      <c r="AC64" s="161"/>
     </row>
     <row r="65" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y65" s="162"/>
+      <c r="Y65" s="158"/>
       <c r="Z65" s="1">
         <v>20</v>
       </c>
       <c r="AA65" s="37">
         <v>0.99999995059606805</v>
       </c>
-      <c r="AC65" s="165"/>
+      <c r="AC65" s="161"/>
     </row>
     <row r="66" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y66" s="154"/>
+      <c r="Y66" s="159"/>
       <c r="Z66" s="13">
         <v>24</v>
       </c>
@@ -3852,7 +3915,7 @@
         <v>0.99999999908549497</v>
       </c>
       <c r="AB66" s="13"/>
-      <c r="AC66" s="164"/>
+      <c r="AC66" s="162"/>
     </row>
     <row r="71" spans="25:36" x14ac:dyDescent="0.2">
       <c r="AD71" s="1" t="s">
@@ -3901,7 +3964,7 @@
       </c>
     </row>
     <row r="74" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD74" s="163" t="s">
+      <c r="AD74" s="160" t="s">
         <v>9</v>
       </c>
       <c r="AE74" s="48" t="s">
@@ -3921,7 +3984,7 @@
       </c>
     </row>
     <row r="75" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="164"/>
+      <c r="AD75" s="162"/>
       <c r="AE75" s="49" t="s">
         <v>13</v>
       </c>
@@ -3939,7 +4002,7 @@
       </c>
     </row>
     <row r="76" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD76" s="163" t="s">
+      <c r="AD76" s="160" t="s">
         <v>10</v>
       </c>
       <c r="AE76" s="48" t="s">
@@ -3959,7 +4022,7 @@
       </c>
     </row>
     <row r="77" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD77" s="165"/>
+      <c r="AD77" s="161"/>
       <c r="AE77" s="50" t="s">
         <v>17</v>
       </c>
@@ -3977,7 +4040,7 @@
       </c>
     </row>
     <row r="78" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD78" s="164"/>
+      <c r="AD78" s="162"/>
       <c r="AE78" s="49" t="s">
         <v>12</v>
       </c>
@@ -3995,7 +4058,7 @@
       </c>
     </row>
     <row r="79" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD79" s="163" t="s">
+      <c r="AD79" s="160" t="s">
         <v>11</v>
       </c>
       <c r="AE79" s="48" t="s">
@@ -4015,7 +4078,7 @@
       </c>
     </row>
     <row r="80" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="165"/>
+      <c r="AD80" s="161"/>
       <c r="AE80" s="50" t="s">
         <v>19</v>
       </c>
@@ -4033,7 +4096,7 @@
       </c>
     </row>
     <row r="81" spans="30:47" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD81" s="165"/>
+      <c r="AD81" s="161"/>
       <c r="AE81" s="50" t="s">
         <v>13</v>
       </c>
@@ -4051,7 +4114,7 @@
       </c>
     </row>
     <row r="82" spans="30:47" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD82" s="164"/>
+      <c r="AD82" s="162"/>
       <c r="AE82" s="49" t="s">
         <v>15</v>
       </c>
@@ -4069,18 +4132,18 @@
       </c>
     </row>
     <row r="87" spans="30:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL87" s="152" t="s">
+      <c r="AL87" s="164" t="s">
         <v>274</v>
       </c>
-      <c r="AM87" s="152"/>
-      <c r="AN87" s="152"/>
-      <c r="AO87" s="152"/>
-      <c r="AP87" s="152"/>
-      <c r="AQ87" s="152"/>
-      <c r="AR87" s="152"/>
-      <c r="AS87" s="152"/>
-      <c r="AT87" s="152"/>
-      <c r="AU87" s="152"/>
+      <c r="AM87" s="164"/>
+      <c r="AN87" s="164"/>
+      <c r="AO87" s="164"/>
+      <c r="AP87" s="164"/>
+      <c r="AQ87" s="164"/>
+      <c r="AR87" s="164"/>
+      <c r="AS87" s="164"/>
+      <c r="AT87" s="164"/>
+      <c r="AU87" s="164"/>
     </row>
     <row r="88" spans="30:47" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AL88" s="55" t="s">
@@ -4115,13 +4178,13 @@
       </c>
     </row>
     <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL89" s="155" t="s">
+      <c r="AL89" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="AM89" s="158" t="s">
+      <c r="AM89" s="151" t="s">
         <v>279</v>
       </c>
-      <c r="AN89" s="161" t="s">
+      <c r="AN89" s="157" t="s">
         <v>13</v>
       </c>
       <c r="AO89" s="40" t="s">
@@ -4139,17 +4202,17 @@
       <c r="AS89" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT89" s="155" t="s">
+      <c r="AT89" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="AU89" s="158" t="s">
+      <c r="AU89" s="151" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL90" s="156"/>
-      <c r="AM90" s="159"/>
-      <c r="AN90" s="162"/>
+      <c r="AL90" s="155"/>
+      <c r="AM90" s="152"/>
+      <c r="AN90" s="158"/>
       <c r="AO90" s="1" t="s">
         <v>68</v>
       </c>
@@ -4165,13 +4228,13 @@
       <c r="AS90" s="58">
         <v>1E-3</v>
       </c>
-      <c r="AT90" s="156"/>
-      <c r="AU90" s="159"/>
+      <c r="AT90" s="155"/>
+      <c r="AU90" s="152"/>
     </row>
     <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL91" s="157"/>
-      <c r="AM91" s="160"/>
-      <c r="AN91" s="154"/>
+      <c r="AL91" s="156"/>
+      <c r="AM91" s="153"/>
+      <c r="AN91" s="159"/>
       <c r="AO91" s="13" t="s">
         <v>286</v>
       </c>
@@ -4187,17 +4250,17 @@
       <c r="AS91" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AT91" s="157"/>
-      <c r="AU91" s="160"/>
+      <c r="AT91" s="156"/>
+      <c r="AU91" s="153"/>
     </row>
     <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL92" s="155" t="s">
+      <c r="AL92" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="AM92" s="155" t="s">
+      <c r="AM92" s="154" t="s">
         <v>280</v>
       </c>
-      <c r="AN92" s="161" t="s">
+      <c r="AN92" s="157" t="s">
         <v>12</v>
       </c>
       <c r="AO92" s="40" t="s">
@@ -4215,17 +4278,17 @@
       <c r="AS92" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT92" s="155" t="s">
+      <c r="AT92" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="AU92" s="158" t="s">
+      <c r="AU92" s="151" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL93" s="156"/>
-      <c r="AM93" s="156"/>
-      <c r="AN93" s="162"/>
+      <c r="AL93" s="155"/>
+      <c r="AM93" s="155"/>
+      <c r="AN93" s="158"/>
       <c r="AO93" s="1" t="s">
         <v>68</v>
       </c>
@@ -4241,13 +4304,13 @@
       <c r="AS93" s="58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT93" s="156"/>
-      <c r="AU93" s="159"/>
+      <c r="AT93" s="155"/>
+      <c r="AU93" s="152"/>
     </row>
     <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL94" s="156"/>
-      <c r="AM94" s="156"/>
-      <c r="AN94" s="162"/>
+      <c r="AL94" s="155"/>
+      <c r="AM94" s="155"/>
+      <c r="AN94" s="158"/>
       <c r="AO94" s="1" t="s">
         <v>286</v>
       </c>
@@ -4263,15 +4326,15 @@
       <c r="AS94" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT94" s="156"/>
-      <c r="AU94" s="159"/>
+      <c r="AT94" s="155"/>
+      <c r="AU94" s="152"/>
     </row>
     <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL95" s="156"/>
-      <c r="AM95" s="159" t="s">
+      <c r="AL95" s="155"/>
+      <c r="AM95" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="AN95" s="162" t="s">
+      <c r="AN95" s="158" t="s">
         <v>17</v>
       </c>
       <c r="AO95" t="s">
@@ -4289,17 +4352,17 @@
       <c r="AS95" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="AT95" s="156" t="s">
+      <c r="AT95" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="AU95" s="159" t="s">
+      <c r="AU95" s="152" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL96" s="156"/>
-      <c r="AM96" s="159"/>
-      <c r="AN96" s="162"/>
+      <c r="AL96" s="155"/>
+      <c r="AM96" s="152"/>
+      <c r="AN96" s="158"/>
       <c r="AO96" s="1" t="s">
         <v>68</v>
       </c>
@@ -4315,13 +4378,13 @@
       <c r="AS96" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT96" s="156"/>
-      <c r="AU96" s="159"/>
+      <c r="AT96" s="155"/>
+      <c r="AU96" s="152"/>
     </row>
     <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL97" s="157"/>
-      <c r="AM97" s="160"/>
-      <c r="AN97" s="154"/>
+      <c r="AL97" s="156"/>
+      <c r="AM97" s="153"/>
+      <c r="AN97" s="159"/>
       <c r="AO97" s="13" t="s">
         <v>286</v>
       </c>
@@ -4337,17 +4400,17 @@
       <c r="AS97" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT97" s="157"/>
-      <c r="AU97" s="160"/>
+      <c r="AT97" s="156"/>
+      <c r="AU97" s="153"/>
     </row>
     <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL98" s="155" t="s">
+      <c r="AL98" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="AM98" s="158" t="s">
+      <c r="AM98" s="151" t="s">
         <v>279</v>
       </c>
-      <c r="AN98" s="161" t="s">
+      <c r="AN98" s="157" t="s">
         <v>13</v>
       </c>
       <c r="AO98" s="60" t="s">
@@ -4365,17 +4428,17 @@
       <c r="AS98" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT98" s="155" t="s">
+      <c r="AT98" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="AU98" s="158" t="s">
+      <c r="AU98" s="151" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL99" s="156"/>
-      <c r="AM99" s="159"/>
-      <c r="AN99" s="162"/>
+      <c r="AL99" s="155"/>
+      <c r="AM99" s="152"/>
+      <c r="AN99" s="158"/>
       <c r="AO99" s="1" t="s">
         <v>68</v>
       </c>
@@ -4391,13 +4454,13 @@
       <c r="AS99" s="58">
         <v>0.04</v>
       </c>
-      <c r="AT99" s="156"/>
-      <c r="AU99" s="159"/>
+      <c r="AT99" s="155"/>
+      <c r="AU99" s="152"/>
     </row>
     <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL100" s="157"/>
-      <c r="AM100" s="160"/>
-      <c r="AN100" s="154"/>
+      <c r="AL100" s="156"/>
+      <c r="AM100" s="153"/>
+      <c r="AN100" s="159"/>
       <c r="AO100" s="13" t="s">
         <v>286</v>
       </c>
@@ -4413,28 +4476,11 @@
       <c r="AS100" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT100" s="157"/>
-      <c r="AU100" s="160"/>
+      <c r="AT100" s="156"/>
+      <c r="AU100" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AM98:AM100"/>
-    <mergeCell ref="AL98:AL100"/>
-    <mergeCell ref="AL92:AL97"/>
-    <mergeCell ref="AM92:AM94"/>
-    <mergeCell ref="AM95:AM97"/>
-    <mergeCell ref="AU95:AU97"/>
-    <mergeCell ref="AT95:AT97"/>
-    <mergeCell ref="AT98:AT100"/>
-    <mergeCell ref="AU98:AU100"/>
-    <mergeCell ref="AN98:AN100"/>
-    <mergeCell ref="AN95:AN97"/>
-    <mergeCell ref="Y59:Y66"/>
-    <mergeCell ref="AC52:AC58"/>
-    <mergeCell ref="AC59:AC66"/>
-    <mergeCell ref="AT92:AT94"/>
-    <mergeCell ref="AU92:AU94"/>
-    <mergeCell ref="AN92:AN94"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="M31:Q31"/>
     <mergeCell ref="M32:M33"/>
@@ -4451,6 +4497,23 @@
     <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="Y46:Y51"/>
     <mergeCell ref="Y52:Y58"/>
+    <mergeCell ref="Y59:Y66"/>
+    <mergeCell ref="AC52:AC58"/>
+    <mergeCell ref="AC59:AC66"/>
+    <mergeCell ref="AT92:AT94"/>
+    <mergeCell ref="AU92:AU94"/>
+    <mergeCell ref="AN92:AN94"/>
+    <mergeCell ref="AU95:AU97"/>
+    <mergeCell ref="AT95:AT97"/>
+    <mergeCell ref="AT98:AT100"/>
+    <mergeCell ref="AU98:AU100"/>
+    <mergeCell ref="AN98:AN100"/>
+    <mergeCell ref="AN95:AN97"/>
+    <mergeCell ref="AM98:AM100"/>
+    <mergeCell ref="AL98:AL100"/>
+    <mergeCell ref="AL92:AL97"/>
+    <mergeCell ref="AM92:AM94"/>
+    <mergeCell ref="AM95:AM97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5438,8 +5501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C301AE6-CC50-864C-827E-D25EEF6A22D3}">
   <dimension ref="A2:AN151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9857,7 +9920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6964B3A-A93B-A24A-8DF2-4AA66B6335FC}">
   <dimension ref="B3:AO237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="V231" sqref="V231"/>
     </sheetView>
   </sheetViews>
@@ -9893,26 +9956,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="164" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="152"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
       <c r="T3" s="54"/>
     </row>
     <row r="4" spans="2:20" ht="60" thickTop="1" x14ac:dyDescent="0.2">
@@ -9972,7 +10035,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="169" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="85" t="s">
@@ -9986,7 +10049,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="172"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="85" t="s">
         <v>16</v>
       </c>
@@ -9998,8 +10061,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="172"/>
-      <c r="C7" s="169" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -10051,8 +10114,8 @@
       <c r="T7" s="25"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="172"/>
-      <c r="C8" s="169"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="171"/>
       <c r="E8" s="77" t="s">
         <v>263</v>
       </c>
@@ -10081,8 +10144,8 @@
       <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="172"/>
-      <c r="C9" s="169" t="s">
+      <c r="B9" s="170"/>
+      <c r="C9" s="171" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -10130,8 +10193,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="172"/>
-      <c r="C10" s="169"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="171"/>
       <c r="E10" s="84" t="s">
         <v>263</v>
       </c>
@@ -10158,8 +10221,8 @@
       <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="172"/>
-      <c r="C11" s="169"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="171"/>
       <c r="E11" s="77" t="s">
         <v>32</v>
       </c>
@@ -10186,7 +10249,7 @@
       <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="172"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="85" t="s">
         <v>35</v>
       </c>
@@ -10211,8 +10274,8 @@
       <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="172"/>
-      <c r="C13" s="169" t="s">
+      <c r="B13" s="170"/>
+      <c r="C13" s="171" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -10260,8 +10323,8 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="172"/>
-      <c r="C14" s="169"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="171"/>
       <c r="E14" s="77" t="s">
         <v>263</v>
       </c>
@@ -10288,8 +10351,8 @@
       <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="172"/>
-      <c r="C15" s="169" t="s">
+      <c r="B15" s="170"/>
+      <c r="C15" s="171" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -10337,8 +10400,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="172"/>
-      <c r="C16" s="169"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="171"/>
       <c r="E16" s="77" t="s">
         <v>263</v>
       </c>
@@ -10365,7 +10428,7 @@
       <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="172"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="85" t="s">
         <v>36</v>
       </c>
@@ -10390,7 +10453,7 @@
       <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="172"/>
+      <c r="B18" s="170"/>
       <c r="C18" s="85" t="s">
         <v>12</v>
       </c>
@@ -10415,8 +10478,8 @@
       <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="172"/>
-      <c r="C19" s="169" t="s">
+      <c r="B19" s="170"/>
+      <c r="C19" s="171" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -10466,8 +10529,8 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="172"/>
-      <c r="C20" s="169"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="171"/>
       <c r="E20" s="84" t="s">
         <v>263</v>
       </c>
@@ -10498,8 +10561,8 @@
       <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="172"/>
-      <c r="C21" s="169" t="s">
+      <c r="B21" s="170"/>
+      <c r="C21" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -10547,8 +10610,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="172"/>
-      <c r="C22" s="169"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="171"/>
       <c r="E22" s="77" t="s">
         <v>263</v>
       </c>
@@ -10575,8 +10638,8 @@
       <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="172"/>
-      <c r="C23" s="169" t="s">
+      <c r="B23" s="170"/>
+      <c r="C23" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -10622,8 +10685,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="172"/>
-      <c r="C24" s="169"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="171"/>
       <c r="E24" s="77" t="s">
         <v>32</v>
       </c>
@@ -10650,8 +10713,8 @@
       <c r="R24" s="36"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="172"/>
-      <c r="C25" s="169" t="s">
+      <c r="B25" s="170"/>
+      <c r="C25" s="171" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -10699,8 +10762,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="172"/>
-      <c r="C26" s="169"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="171"/>
       <c r="E26" s="77" t="s">
         <v>263</v>
       </c>
@@ -10727,7 +10790,7 @@
       <c r="R26" s="36"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="172"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="85" t="s">
         <v>20</v>
       </c>
@@ -10752,7 +10815,7 @@
       <c r="R27" s="36"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="172"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="85" t="s">
         <v>33</v>
       </c>
@@ -10777,8 +10840,8 @@
       <c r="R28" s="36"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="172"/>
-      <c r="C29" s="169" t="s">
+      <c r="B29" s="170"/>
+      <c r="C29" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="39" t="s">
@@ -10824,8 +10887,8 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="172"/>
-      <c r="C30" s="169"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="171"/>
       <c r="D30" s="39"/>
       <c r="E30" s="77" t="s">
         <v>32</v>
@@ -10853,7 +10916,7 @@
       <c r="R30" s="36"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="172"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="85" t="s">
         <v>41</v>
       </c>
@@ -10878,8 +10941,8 @@
       <c r="R31" s="36"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="172"/>
-      <c r="C32" s="169" t="s">
+      <c r="B32" s="170"/>
+      <c r="C32" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -10927,8 +10990,8 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="172"/>
-      <c r="C33" s="169"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="171"/>
       <c r="E33" s="77" t="s">
         <v>263</v>
       </c>
@@ -10955,8 +11018,8 @@
       <c r="R33" s="36"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="172"/>
-      <c r="C34" s="169"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="171"/>
       <c r="E34" s="77" t="s">
         <v>32</v>
       </c>
@@ -10983,7 +11046,7 @@
       <c r="R34" s="36"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="172"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="86" t="s">
         <v>15</v>
       </c>
@@ -11008,10 +11071,10 @@
       <c r="R35" s="36"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="171" t="s">
+      <c r="B36" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="174" t="s">
+      <c r="C36" s="172" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -11059,8 +11122,8 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="172"/>
-      <c r="C37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="171"/>
       <c r="E37" s="84" t="s">
         <v>415</v>
       </c>
@@ -11087,8 +11150,8 @@
       <c r="R37" s="36"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="172"/>
-      <c r="C38" s="169"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="171"/>
       <c r="E38" s="84" t="s">
         <v>416</v>
       </c>
@@ -11115,8 +11178,8 @@
       <c r="R38" s="36"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="172"/>
-      <c r="C39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="171"/>
       <c r="E39" s="84" t="s">
         <v>32</v>
       </c>
@@ -11143,8 +11206,8 @@
       <c r="R39" s="36"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="172"/>
-      <c r="C40" s="169" t="s">
+      <c r="B40" s="170"/>
+      <c r="C40" s="171" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -11192,8 +11255,8 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="172"/>
-      <c r="C41" s="169"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="171"/>
       <c r="E41" s="77" t="s">
         <v>335</v>
       </c>
@@ -11222,8 +11285,8 @@
       <c r="R41" s="36"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="172"/>
-      <c r="C42" s="169" t="s">
+      <c r="B42" s="170"/>
+      <c r="C42" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -11271,8 +11334,8 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="172"/>
-      <c r="C43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
       <c r="E43" s="77" t="s">
         <v>263</v>
       </c>
@@ -11299,8 +11362,8 @@
       <c r="R43" s="36"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="172"/>
-      <c r="C44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="171"/>
       <c r="E44" s="77" t="s">
         <v>32</v>
       </c>
@@ -11327,8 +11390,8 @@
       <c r="R44" s="36"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="172"/>
-      <c r="C45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="171"/>
       <c r="E45" s="77" t="s">
         <v>335</v>
       </c>
@@ -11355,8 +11418,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="172"/>
-      <c r="C46" s="169" t="s">
+      <c r="B46" s="170"/>
+      <c r="C46" s="171" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -11406,8 +11469,8 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="172"/>
-      <c r="C47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="171"/>
       <c r="E47" s="77" t="s">
         <v>263</v>
       </c>
@@ -11436,8 +11499,8 @@
       <c r="R47" s="36"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="172"/>
-      <c r="C48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="171"/>
       <c r="E48" s="77" t="s">
         <v>335</v>
       </c>
@@ -11466,8 +11529,8 @@
       <c r="R48" s="36"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="172"/>
-      <c r="C49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="171"/>
       <c r="E49" s="77" t="s">
         <v>32</v>
       </c>
@@ -11496,8 +11559,8 @@
       <c r="R49" s="36"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="172"/>
-      <c r="C50" s="169" t="s">
+      <c r="B50" s="170"/>
+      <c r="C50" s="171" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -11547,8 +11610,8 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="172"/>
-      <c r="C51" s="169"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="171"/>
       <c r="E51" s="77" t="s">
         <v>263</v>
       </c>
@@ -11577,8 +11640,8 @@
       <c r="R51" s="36"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="172"/>
-      <c r="C52" s="169"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="171"/>
       <c r="E52" s="77" t="s">
         <v>335</v>
       </c>
@@ -11607,8 +11670,8 @@
       <c r="R52" s="36"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="172"/>
-      <c r="C53" s="169" t="s">
+      <c r="B53" s="170"/>
+      <c r="C53" s="171" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -11658,8 +11721,8 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="172"/>
-      <c r="C54" s="169"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="171"/>
       <c r="E54" s="77" t="s">
         <v>263</v>
       </c>
@@ -11688,8 +11751,8 @@
       <c r="R54" s="36"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="172"/>
-      <c r="C55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="171"/>
       <c r="E55" s="77" t="s">
         <v>335</v>
       </c>
@@ -11718,8 +11781,8 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="172"/>
-      <c r="C56" s="169" t="s">
+      <c r="B56" s="170"/>
+      <c r="C56" s="171" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -11769,8 +11832,8 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="172"/>
-      <c r="C57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="171"/>
       <c r="E57" s="77" t="s">
         <v>263</v>
       </c>
@@ -11799,8 +11862,8 @@
       <c r="R57" s="36"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="172"/>
-      <c r="C58" s="169" t="s">
+      <c r="B58" s="170"/>
+      <c r="C58" s="171" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -11850,8 +11913,8 @@
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="172"/>
-      <c r="C59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="171"/>
       <c r="E59" s="77" t="s">
         <v>263</v>
       </c>
@@ -11880,8 +11943,8 @@
       <c r="R59" s="36"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="172"/>
-      <c r="C60" s="169" t="s">
+      <c r="B60" s="170"/>
+      <c r="C60" s="171" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -11931,8 +11994,8 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="172"/>
-      <c r="C61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="171"/>
       <c r="E61" s="77" t="s">
         <v>263</v>
       </c>
@@ -11961,7 +12024,7 @@
       <c r="R61" s="36"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="172"/>
+      <c r="B62" s="170"/>
       <c r="C62" s="85" t="s">
         <v>19</v>
       </c>
@@ -11986,8 +12049,8 @@
       <c r="R62" s="36"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="172"/>
-      <c r="C63" s="169" t="s">
+      <c r="B63" s="170"/>
+      <c r="C63" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -12037,8 +12100,8 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="172"/>
-      <c r="C64" s="169"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="171"/>
       <c r="E64" s="77" t="s">
         <v>263</v>
       </c>
@@ -12067,8 +12130,8 @@
       <c r="R64" s="36"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="172"/>
-      <c r="C65" s="169" t="s">
+      <c r="B65" s="170"/>
+      <c r="C65" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -12118,8 +12181,8 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="172"/>
-      <c r="C66" s="169"/>
+      <c r="B66" s="170"/>
+      <c r="C66" s="171"/>
       <c r="E66" s="77" t="s">
         <v>263</v>
       </c>
@@ -12148,8 +12211,8 @@
       <c r="R66" s="36"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="172"/>
-      <c r="C67" s="169"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="171"/>
       <c r="E67" s="77" t="s">
         <v>335</v>
       </c>
@@ -12178,8 +12241,8 @@
       <c r="R67" s="36"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="172"/>
-      <c r="C68" s="169"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="171"/>
       <c r="E68" s="77" t="s">
         <v>32</v>
       </c>
@@ -12208,8 +12271,8 @@
       <c r="R68" s="36"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="172"/>
-      <c r="C69" s="169" t="s">
+      <c r="B69" s="170"/>
+      <c r="C69" s="171" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -12259,8 +12322,8 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="172"/>
-      <c r="C70" s="169"/>
+      <c r="B70" s="170"/>
+      <c r="C70" s="171"/>
       <c r="E70" s="77" t="s">
         <v>263</v>
       </c>
@@ -12289,8 +12352,8 @@
       <c r="R70" s="36"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="172"/>
-      <c r="C71" s="169" t="s">
+      <c r="B71" s="170"/>
+      <c r="C71" s="171" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -12340,8 +12403,8 @@
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="172"/>
-      <c r="C72" s="169"/>
+      <c r="B72" s="170"/>
+      <c r="C72" s="171"/>
       <c r="E72" s="77" t="s">
         <v>263</v>
       </c>
@@ -12370,8 +12433,8 @@
       <c r="R72" s="36"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="172"/>
-      <c r="C73" s="169"/>
+      <c r="B73" s="170"/>
+      <c r="C73" s="171"/>
       <c r="E73" s="77" t="s">
         <v>335</v>
       </c>
@@ -12400,7 +12463,7 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="172"/>
+      <c r="B74" s="170"/>
       <c r="C74" s="85" t="s">
         <v>33</v>
       </c>
@@ -12425,7 +12488,7 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="172"/>
+      <c r="B75" s="170"/>
       <c r="C75" s="85" t="s">
         <v>39</v>
       </c>
@@ -12450,8 +12513,8 @@
       <c r="R75" s="36"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="172"/>
-      <c r="C76" s="169" t="s">
+      <c r="B76" s="170"/>
+      <c r="C76" s="171" t="s">
         <v>41</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -12501,8 +12564,8 @@
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="172"/>
-      <c r="C77" s="169"/>
+      <c r="B77" s="170"/>
+      <c r="C77" s="171"/>
       <c r="E77" s="77" t="s">
         <v>263</v>
       </c>
@@ -12531,8 +12594,8 @@
       <c r="R77" s="36"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="172"/>
-      <c r="C78" s="169" t="s">
+      <c r="B78" s="170"/>
+      <c r="C78" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -12582,8 +12645,8 @@
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="172"/>
-      <c r="C79" s="169"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="171"/>
       <c r="E79" s="77" t="s">
         <v>263</v>
       </c>
@@ -12612,8 +12675,8 @@
       <c r="R79" s="36"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="172"/>
-      <c r="C80" s="169" t="s">
+      <c r="B80" s="170"/>
+      <c r="C80" s="171" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -12664,7 +12727,7 @@
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="64"/>
-      <c r="C81" s="170"/>
+      <c r="C81" s="173"/>
       <c r="E81" s="77" t="s">
         <v>263</v>
       </c>
@@ -12693,7 +12756,7 @@
       <c r="R81" s="36"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="171" t="s">
+      <c r="B82" s="169" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="85" t="s">
@@ -12720,8 +12783,8 @@
       <c r="R82" s="36"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="172"/>
-      <c r="C83" s="169" t="s">
+      <c r="B83" s="170"/>
+      <c r="C83" s="171" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -12769,8 +12832,8 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="172"/>
-      <c r="C84" s="169"/>
+      <c r="B84" s="170"/>
+      <c r="C84" s="171"/>
       <c r="E84" s="77" t="s">
         <v>263</v>
       </c>
@@ -12797,8 +12860,8 @@
       <c r="R84" s="36"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="172"/>
-      <c r="C85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="171"/>
       <c r="E85" s="77" t="s">
         <v>335</v>
       </c>
@@ -12825,8 +12888,8 @@
       <c r="R85" s="36"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B86" s="172"/>
-      <c r="C86" s="169" t="s">
+      <c r="B86" s="170"/>
+      <c r="C86" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -12874,8 +12937,8 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="172"/>
-      <c r="C87" s="169"/>
+      <c r="B87" s="170"/>
+      <c r="C87" s="171"/>
       <c r="E87" s="77" t="s">
         <v>263</v>
       </c>
@@ -12902,8 +12965,8 @@
       <c r="R87" s="36"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="172"/>
-      <c r="C88" s="169"/>
+      <c r="B88" s="170"/>
+      <c r="C88" s="171"/>
       <c r="E88" s="77" t="s">
         <v>335</v>
       </c>
@@ -12930,8 +12993,8 @@
       <c r="R88" s="36"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="172"/>
-      <c r="C89" s="169"/>
+      <c r="B89" s="170"/>
+      <c r="C89" s="171"/>
       <c r="E89" s="77" t="s">
         <v>32</v>
       </c>
@@ -12958,8 +13021,8 @@
       <c r="R89" s="36"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="172"/>
-      <c r="C90" s="169" t="s">
+      <c r="B90" s="170"/>
+      <c r="C90" s="171" t="s">
         <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -13009,8 +13072,8 @@
       </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="172"/>
-      <c r="C91" s="169"/>
+      <c r="B91" s="170"/>
+      <c r="C91" s="171"/>
       <c r="E91" s="77" t="s">
         <v>263</v>
       </c>
@@ -13039,8 +13102,8 @@
       <c r="R91" s="36"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="172"/>
-      <c r="C92" s="169"/>
+      <c r="B92" s="170"/>
+      <c r="C92" s="171"/>
       <c r="E92" s="77" t="s">
         <v>335</v>
       </c>
@@ -13069,7 +13132,7 @@
       <c r="R92" s="36"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="172"/>
+      <c r="B93" s="170"/>
       <c r="C93" s="85" t="s">
         <v>35</v>
       </c>
@@ -13094,8 +13157,8 @@
       <c r="R93" s="36"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="172"/>
-      <c r="C94" s="169" t="s">
+      <c r="B94" s="170"/>
+      <c r="C94" s="171" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -13145,8 +13208,8 @@
       </c>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="172"/>
-      <c r="C95" s="169"/>
+      <c r="B95" s="170"/>
+      <c r="C95" s="171"/>
       <c r="E95" s="77" t="s">
         <v>263</v>
       </c>
@@ -13175,8 +13238,8 @@
       <c r="R95" s="36"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="172"/>
-      <c r="C96" s="169"/>
+      <c r="B96" s="170"/>
+      <c r="C96" s="171"/>
       <c r="E96" s="77" t="s">
         <v>335</v>
       </c>
@@ -13205,8 +13268,8 @@
       <c r="R96" s="36"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="172"/>
-      <c r="C97" s="169"/>
+      <c r="B97" s="170"/>
+      <c r="C97" s="171"/>
       <c r="E97" s="77" t="s">
         <v>32</v>
       </c>
@@ -13235,8 +13298,8 @@
       <c r="R97" s="36"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="172"/>
-      <c r="C98" s="169" t="s">
+      <c r="B98" s="170"/>
+      <c r="C98" s="171" t="s">
         <v>37</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -13284,8 +13347,8 @@
       </c>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="172"/>
-      <c r="C99" s="169"/>
+      <c r="B99" s="170"/>
+      <c r="C99" s="171"/>
       <c r="E99" s="77" t="s">
         <v>263</v>
       </c>
@@ -13312,8 +13375,8 @@
       <c r="R99" s="36"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="172"/>
-      <c r="C100" s="169"/>
+      <c r="B100" s="170"/>
+      <c r="C100" s="171"/>
       <c r="E100" s="77" t="s">
         <v>335</v>
       </c>
@@ -13340,8 +13403,8 @@
       <c r="R100" s="36"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B101" s="172"/>
-      <c r="C101" s="169" t="s">
+      <c r="B101" s="170"/>
+      <c r="C101" s="171" t="s">
         <v>36</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -13391,8 +13454,8 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="172"/>
-      <c r="C102" s="169"/>
+      <c r="B102" s="170"/>
+      <c r="C102" s="171"/>
       <c r="E102" s="77" t="s">
         <v>263</v>
       </c>
@@ -13421,8 +13484,8 @@
       <c r="R102" s="36"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="172"/>
-      <c r="C103" s="169" t="s">
+      <c r="B103" s="170"/>
+      <c r="C103" s="171" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -13470,8 +13533,8 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="172"/>
-      <c r="C104" s="169"/>
+      <c r="B104" s="170"/>
+      <c r="C104" s="171"/>
       <c r="E104" s="77" t="s">
         <v>263</v>
       </c>
@@ -13498,8 +13561,8 @@
       <c r="R104" s="36"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="172"/>
-      <c r="C105" s="169"/>
+      <c r="B105" s="170"/>
+      <c r="C105" s="171"/>
       <c r="E105" s="77" t="s">
         <v>335</v>
       </c>
@@ -13526,8 +13589,8 @@
       <c r="R105" s="36"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="172"/>
-      <c r="C106" s="169" t="s">
+      <c r="B106" s="170"/>
+      <c r="C106" s="171" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -13577,8 +13640,8 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="172"/>
-      <c r="C107" s="169"/>
+      <c r="B107" s="170"/>
+      <c r="C107" s="171"/>
       <c r="E107" s="77" t="s">
         <v>263</v>
       </c>
@@ -13607,8 +13670,8 @@
       <c r="R107" s="36"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="172"/>
-      <c r="C108" s="169"/>
+      <c r="B108" s="170"/>
+      <c r="C108" s="171"/>
       <c r="E108" s="77" t="s">
         <v>32</v>
       </c>
@@ -13637,8 +13700,8 @@
       <c r="R108" s="36"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="172"/>
-      <c r="C109" s="169" t="s">
+      <c r="B109" s="170"/>
+      <c r="C109" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -13686,8 +13749,8 @@
       </c>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="172"/>
-      <c r="C110" s="169"/>
+      <c r="B110" s="170"/>
+      <c r="C110" s="171"/>
       <c r="E110" s="77" t="s">
         <v>263</v>
       </c>
@@ -13714,8 +13777,8 @@
       <c r="R110" s="36"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="172"/>
-      <c r="C111" s="169"/>
+      <c r="B111" s="170"/>
+      <c r="C111" s="171"/>
       <c r="E111" s="77" t="s">
         <v>335</v>
       </c>
@@ -13742,8 +13805,8 @@
       <c r="R111" s="36"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="172"/>
-      <c r="C112" s="169" t="s">
+      <c r="B112" s="170"/>
+      <c r="C112" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -13791,8 +13854,8 @@
       </c>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="172"/>
-      <c r="C113" s="169"/>
+      <c r="B113" s="170"/>
+      <c r="C113" s="171"/>
       <c r="E113" s="77" t="s">
         <v>263</v>
       </c>
@@ -13819,8 +13882,8 @@
       <c r="R113" s="36"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="172"/>
-      <c r="C114" s="169"/>
+      <c r="B114" s="170"/>
+      <c r="C114" s="171"/>
       <c r="E114" s="77" t="s">
         <v>335</v>
       </c>
@@ -13847,8 +13910,8 @@
       <c r="R114" s="36"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="172"/>
-      <c r="C115" s="169" t="s">
+      <c r="B115" s="170"/>
+      <c r="C115" s="171" t="s">
         <v>38</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -13896,8 +13959,8 @@
       </c>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="172"/>
-      <c r="C116" s="169"/>
+      <c r="B116" s="170"/>
+      <c r="C116" s="171"/>
       <c r="E116" s="77" t="s">
         <v>263</v>
       </c>
@@ -13924,8 +13987,8 @@
       <c r="R116" s="36"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="172"/>
-      <c r="C117" s="169" t="s">
+      <c r="B117" s="170"/>
+      <c r="C117" s="171" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -13975,8 +14038,8 @@
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="172"/>
-      <c r="C118" s="169"/>
+      <c r="B118" s="170"/>
+      <c r="C118" s="171"/>
       <c r="E118" s="77" t="s">
         <v>263</v>
       </c>
@@ -14005,8 +14068,8 @@
       <c r="R118" s="36"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="172"/>
-      <c r="C119" s="169"/>
+      <c r="B119" s="170"/>
+      <c r="C119" s="171"/>
       <c r="E119" s="77" t="s">
         <v>335</v>
       </c>
@@ -14035,8 +14098,8 @@
       <c r="R119" s="36"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="172"/>
-      <c r="C120" s="169" t="s">
+      <c r="B120" s="170"/>
+      <c r="C120" s="171" t="s">
         <v>33</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -14084,8 +14147,8 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="172"/>
-      <c r="C121" s="169"/>
+      <c r="B121" s="170"/>
+      <c r="C121" s="171"/>
       <c r="E121" s="77" t="s">
         <v>263</v>
       </c>
@@ -14112,8 +14175,8 @@
       <c r="R121" s="36"/>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="172"/>
-      <c r="C122" s="169"/>
+      <c r="B122" s="170"/>
+      <c r="C122" s="171"/>
       <c r="E122" s="77" t="s">
         <v>335</v>
       </c>
@@ -14140,8 +14203,8 @@
       <c r="R122" s="36"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="172"/>
-      <c r="C123" s="169" t="s">
+      <c r="B123" s="170"/>
+      <c r="C123" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -14189,8 +14252,8 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="172"/>
-      <c r="C124" s="169"/>
+      <c r="B124" s="170"/>
+      <c r="C124" s="171"/>
       <c r="E124" s="77" t="s">
         <v>263</v>
       </c>
@@ -14217,8 +14280,8 @@
       <c r="R124" s="36"/>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="172"/>
-      <c r="C125" s="169" t="s">
+      <c r="B125" s="170"/>
+      <c r="C125" s="171" t="s">
         <v>41</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -14266,8 +14329,8 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="172"/>
-      <c r="C126" s="169"/>
+      <c r="B126" s="170"/>
+      <c r="C126" s="171"/>
       <c r="E126" s="77" t="s">
         <v>263</v>
       </c>
@@ -14294,8 +14357,8 @@
       <c r="R126" s="36"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="172"/>
-      <c r="C127" s="169" t="s">
+      <c r="B127" s="170"/>
+      <c r="C127" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -14345,8 +14408,8 @@
       </c>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="172"/>
-      <c r="C128" s="169"/>
+      <c r="B128" s="170"/>
+      <c r="C128" s="171"/>
       <c r="E128" s="77" t="s">
         <v>263</v>
       </c>
@@ -14375,8 +14438,8 @@
       <c r="R128" s="36"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="172"/>
-      <c r="C129" s="169" t="s">
+      <c r="B129" s="170"/>
+      <c r="C129" s="171" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -14427,7 +14490,7 @@
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="63"/>
-      <c r="C130" s="170"/>
+      <c r="C130" s="173"/>
       <c r="E130" s="77" t="s">
         <v>263</v>
       </c>
@@ -14456,10 +14519,10 @@
       <c r="R130" s="36"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="171" t="s">
+      <c r="B131" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="C131" s="174" t="s">
+      <c r="C131" s="172" t="s">
         <v>40</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -14507,8 +14570,8 @@
       </c>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="172"/>
-      <c r="C132" s="169"/>
+      <c r="B132" s="170"/>
+      <c r="C132" s="171"/>
       <c r="E132" s="77" t="s">
         <v>263</v>
       </c>
@@ -14535,8 +14598,8 @@
       <c r="R132" s="36"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="172"/>
-      <c r="C133" s="169" t="s">
+      <c r="B133" s="170"/>
+      <c r="C133" s="171" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -14584,8 +14647,8 @@
       </c>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B134" s="172"/>
-      <c r="C134" s="169"/>
+      <c r="B134" s="170"/>
+      <c r="C134" s="171"/>
       <c r="E134" s="77" t="s">
         <v>32</v>
       </c>
@@ -14614,8 +14677,8 @@
       <c r="R134" s="36"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="172"/>
-      <c r="C135" s="169" t="s">
+      <c r="B135" s="170"/>
+      <c r="C135" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -14665,8 +14728,8 @@
       </c>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="172"/>
-      <c r="C136" s="169"/>
+      <c r="B136" s="170"/>
+      <c r="C136" s="171"/>
       <c r="E136" s="77" t="s">
         <v>263</v>
       </c>
@@ -14695,8 +14758,8 @@
       <c r="R136" s="36"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="172"/>
-      <c r="C137" s="169"/>
+      <c r="B137" s="170"/>
+      <c r="C137" s="171"/>
       <c r="E137" s="77" t="s">
         <v>32</v>
       </c>
@@ -14725,8 +14788,8 @@
       <c r="R137" s="36"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="172"/>
-      <c r="C138" s="169" t="s">
+      <c r="B138" s="170"/>
+      <c r="C138" s="171" t="s">
         <v>34</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -14776,8 +14839,8 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="172"/>
-      <c r="C139" s="169"/>
+      <c r="B139" s="170"/>
+      <c r="C139" s="171"/>
       <c r="E139" s="77" t="s">
         <v>263</v>
       </c>
@@ -14806,8 +14869,8 @@
       <c r="R139" s="36"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B140" s="172"/>
-      <c r="C140" s="169"/>
+      <c r="B140" s="170"/>
+      <c r="C140" s="171"/>
       <c r="E140" s="77" t="s">
         <v>32</v>
       </c>
@@ -14836,8 +14899,8 @@
       <c r="R140" s="36"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B141" s="172"/>
-      <c r="C141" s="169" t="s">
+      <c r="B141" s="170"/>
+      <c r="C141" s="171" t="s">
         <v>35</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -14883,8 +14946,8 @@
       </c>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B142" s="172"/>
-      <c r="C142" s="169"/>
+      <c r="B142" s="170"/>
+      <c r="C142" s="171"/>
       <c r="E142" s="77" t="s">
         <v>32</v>
       </c>
@@ -14911,8 +14974,8 @@
       <c r="R142" s="36"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B143" s="172"/>
-      <c r="C143" s="169"/>
+      <c r="B143" s="170"/>
+      <c r="C143" s="171"/>
       <c r="E143" s="77" t="s">
         <v>335</v>
       </c>
@@ -14939,8 +15002,8 @@
       <c r="R143" s="36"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B144" s="172"/>
-      <c r="C144" s="169" t="s">
+      <c r="B144" s="170"/>
+      <c r="C144" s="171" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -14988,8 +15051,8 @@
       </c>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B145" s="172"/>
-      <c r="C145" s="169"/>
+      <c r="B145" s="170"/>
+      <c r="C145" s="171"/>
       <c r="E145" s="77" t="s">
         <v>32</v>
       </c>
@@ -15018,8 +15081,8 @@
       <c r="R145" s="36"/>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B146" s="172"/>
-      <c r="C146" s="169"/>
+      <c r="B146" s="170"/>
+      <c r="C146" s="171"/>
       <c r="E146" s="77" t="s">
         <v>414</v>
       </c>
@@ -15048,8 +15111,8 @@
       <c r="R146" s="36"/>
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B147" s="172"/>
-      <c r="C147" s="169" t="s">
+      <c r="B147" s="170"/>
+      <c r="C147" s="171" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -15099,8 +15162,8 @@
       </c>
     </row>
     <row r="148" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B148" s="172"/>
-      <c r="C148" s="169"/>
+      <c r="B148" s="170"/>
+      <c r="C148" s="171"/>
       <c r="E148" s="77" t="s">
         <v>263</v>
       </c>
@@ -15129,8 +15192,8 @@
       <c r="R148" s="36"/>
     </row>
     <row r="149" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B149" s="172"/>
-      <c r="C149" s="169"/>
+      <c r="B149" s="170"/>
+      <c r="C149" s="171"/>
       <c r="E149" s="77" t="s">
         <v>32</v>
       </c>
@@ -15159,8 +15222,8 @@
       <c r="R149" s="36"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B150" s="172"/>
-      <c r="C150" s="169" t="s">
+      <c r="B150" s="170"/>
+      <c r="C150" s="171" t="s">
         <v>36</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -15210,8 +15273,8 @@
       </c>
     </row>
     <row r="151" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B151" s="172"/>
-      <c r="C151" s="169"/>
+      <c r="B151" s="170"/>
+      <c r="C151" s="171"/>
       <c r="E151" s="77" t="s">
         <v>263</v>
       </c>
@@ -15240,8 +15303,8 @@
       <c r="R151" s="36"/>
     </row>
     <row r="152" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B152" s="172"/>
-      <c r="C152" s="169"/>
+      <c r="B152" s="170"/>
+      <c r="C152" s="171"/>
       <c r="E152" s="77" t="s">
         <v>32</v>
       </c>
@@ -15270,8 +15333,8 @@
       <c r="R152" s="36"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B153" s="172"/>
-      <c r="C153" s="169"/>
+      <c r="B153" s="170"/>
+      <c r="C153" s="171"/>
       <c r="E153" s="77" t="s">
         <v>445</v>
       </c>
@@ -15300,8 +15363,8 @@
       <c r="R153" s="36"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B154" s="172"/>
-      <c r="C154" s="169" t="s">
+      <c r="B154" s="170"/>
+      <c r="C154" s="171" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -15351,8 +15414,8 @@
       </c>
     </row>
     <row r="155" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B155" s="172"/>
-      <c r="C155" s="169"/>
+      <c r="B155" s="170"/>
+      <c r="C155" s="171"/>
       <c r="E155" s="1" t="s">
         <v>263</v>
       </c>
@@ -15381,7 +15444,7 @@
       <c r="R155" s="36"/>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B156" s="172"/>
+      <c r="B156" s="170"/>
       <c r="C156" s="85"/>
       <c r="E156" s="1" t="s">
         <v>335</v>
@@ -15411,7 +15474,7 @@
       <c r="R156" s="36"/>
     </row>
     <row r="157" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B157" s="172"/>
+      <c r="B157" s="170"/>
       <c r="C157" s="85"/>
       <c r="E157" s="1" t="s">
         <v>32</v>
@@ -15441,7 +15504,7 @@
       <c r="R157" s="36"/>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B158" s="172"/>
+      <c r="B158" s="170"/>
       <c r="C158" s="85"/>
       <c r="E158" s="1" t="s">
         <v>446</v>
@@ -15471,8 +15534,8 @@
       <c r="R158" s="36"/>
     </row>
     <row r="159" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B159" s="172"/>
-      <c r="C159" s="169" t="s">
+      <c r="B159" s="170"/>
+      <c r="C159" s="171" t="s">
         <v>19</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -15522,8 +15585,8 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B160" s="172"/>
-      <c r="C160" s="169"/>
+      <c r="B160" s="170"/>
+      <c r="C160" s="171"/>
       <c r="E160" s="77" t="s">
         <v>263</v>
       </c>
@@ -15552,8 +15615,8 @@
       <c r="R160" s="36"/>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B161" s="172"/>
-      <c r="C161" s="169" t="s">
+      <c r="B161" s="170"/>
+      <c r="C161" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -15603,8 +15666,8 @@
       </c>
     </row>
     <row r="162" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B162" s="172"/>
-      <c r="C162" s="169"/>
+      <c r="B162" s="170"/>
+      <c r="C162" s="171"/>
       <c r="E162" s="77" t="s">
         <v>263</v>
       </c>
@@ -15633,8 +15696,8 @@
       <c r="R162" s="36"/>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B163" s="172"/>
-      <c r="C163" s="169"/>
+      <c r="B163" s="170"/>
+      <c r="C163" s="171"/>
       <c r="E163" s="77" t="s">
         <v>32</v>
       </c>
@@ -15663,8 +15726,8 @@
       <c r="R163" s="36"/>
     </row>
     <row r="164" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B164" s="172"/>
-      <c r="C164" s="169" t="s">
+      <c r="B164" s="170"/>
+      <c r="C164" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -15714,8 +15777,8 @@
       </c>
     </row>
     <row r="165" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B165" s="172"/>
-      <c r="C165" s="169"/>
+      <c r="B165" s="170"/>
+      <c r="C165" s="171"/>
       <c r="E165" s="77" t="s">
         <v>263</v>
       </c>
@@ -15744,8 +15807,8 @@
       <c r="R165" s="36"/>
     </row>
     <row r="166" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B166" s="172"/>
-      <c r="C166" s="169"/>
+      <c r="B166" s="170"/>
+      <c r="C166" s="171"/>
       <c r="E166" s="77" t="s">
         <v>32</v>
       </c>
@@ -15774,8 +15837,8 @@
       <c r="R166" s="36"/>
     </row>
     <row r="167" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B167" s="172"/>
-      <c r="C167" s="169"/>
+      <c r="B167" s="170"/>
+      <c r="C167" s="171"/>
       <c r="E167" s="77" t="s">
         <v>392</v>
       </c>
@@ -15804,8 +15867,8 @@
       <c r="R167" s="36"/>
     </row>
     <row r="168" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B168" s="172"/>
-      <c r="C168" s="169"/>
+      <c r="B168" s="170"/>
+      <c r="C168" s="171"/>
       <c r="E168" s="77" t="s">
         <v>393</v>
       </c>
@@ -15834,8 +15897,8 @@
       <c r="R168" s="36"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B169" s="172"/>
-      <c r="C169" s="169"/>
+      <c r="B169" s="170"/>
+      <c r="C169" s="171"/>
       <c r="E169" s="77" t="s">
         <v>394</v>
       </c>
@@ -15864,8 +15927,8 @@
       <c r="R169" s="36"/>
     </row>
     <row r="170" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B170" s="172"/>
-      <c r="C170" s="169"/>
+      <c r="B170" s="170"/>
+      <c r="C170" s="171"/>
       <c r="E170" s="77" t="s">
         <v>395</v>
       </c>
@@ -15894,8 +15957,8 @@
       <c r="R170" s="36"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B171" s="172"/>
-      <c r="C171" s="169"/>
+      <c r="B171" s="170"/>
+      <c r="C171" s="171"/>
       <c r="E171" s="77" t="s">
         <v>396</v>
       </c>
@@ -15924,8 +15987,8 @@
       <c r="R171" s="36"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B172" s="172"/>
-      <c r="C172" s="169" t="s">
+      <c r="B172" s="170"/>
+      <c r="C172" s="171" t="s">
         <v>38</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -15975,8 +16038,8 @@
       </c>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B173" s="172"/>
-      <c r="C173" s="169"/>
+      <c r="B173" s="170"/>
+      <c r="C173" s="171"/>
       <c r="E173" s="77" t="s">
         <v>263</v>
       </c>
@@ -16005,8 +16068,8 @@
       <c r="R173" s="36"/>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B174" s="172"/>
-      <c r="C174" s="169"/>
+      <c r="B174" s="170"/>
+      <c r="C174" s="171"/>
       <c r="E174" s="77" t="s">
         <v>32</v>
       </c>
@@ -16035,8 +16098,8 @@
       <c r="R174" s="36"/>
     </row>
     <row r="175" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B175" s="172"/>
-      <c r="C175" s="169" t="s">
+      <c r="B175" s="170"/>
+      <c r="C175" s="171" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -16086,8 +16149,8 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B176" s="172"/>
-      <c r="C176" s="169"/>
+      <c r="B176" s="170"/>
+      <c r="C176" s="171"/>
       <c r="E176" s="77" t="s">
         <v>263</v>
       </c>
@@ -16116,8 +16179,8 @@
       <c r="R176" s="36"/>
     </row>
     <row r="177" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B177" s="172"/>
-      <c r="C177" s="169"/>
+      <c r="B177" s="170"/>
+      <c r="C177" s="171"/>
       <c r="E177" s="77" t="s">
         <v>32</v>
       </c>
@@ -16146,8 +16209,8 @@
       <c r="R177" s="36"/>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B178" s="172"/>
-      <c r="C178" s="169"/>
+      <c r="B178" s="170"/>
+      <c r="C178" s="171"/>
       <c r="E178" s="77" t="s">
         <v>335</v>
       </c>
@@ -16176,8 +16239,8 @@
       <c r="R178" s="36"/>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B179" s="172"/>
-      <c r="C179" s="169" t="s">
+      <c r="B179" s="170"/>
+      <c r="C179" s="171" t="s">
         <v>33</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -16227,8 +16290,8 @@
       </c>
     </row>
     <row r="180" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B180" s="172"/>
-      <c r="C180" s="169"/>
+      <c r="B180" s="170"/>
+      <c r="C180" s="171"/>
       <c r="E180" s="77" t="s">
         <v>263</v>
       </c>
@@ -16257,8 +16320,8 @@
       <c r="R180" s="36"/>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B181" s="172"/>
-      <c r="C181" s="169"/>
+      <c r="B181" s="170"/>
+      <c r="C181" s="171"/>
       <c r="E181" s="77" t="s">
         <v>32</v>
       </c>
@@ -16287,8 +16350,8 @@
       <c r="R181" s="36"/>
     </row>
     <row r="182" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B182" s="172"/>
-      <c r="C182" s="169"/>
+      <c r="B182" s="170"/>
+      <c r="C182" s="171"/>
       <c r="E182" s="77" t="s">
         <v>392</v>
       </c>
@@ -16317,8 +16380,8 @@
       <c r="R182" s="36"/>
     </row>
     <row r="183" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B183" s="172"/>
-      <c r="C183" s="169"/>
+      <c r="B183" s="170"/>
+      <c r="C183" s="171"/>
       <c r="E183" s="77" t="s">
         <v>393</v>
       </c>
@@ -16347,8 +16410,8 @@
       <c r="R183" s="36"/>
     </row>
     <row r="184" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B184" s="172"/>
-      <c r="C184" s="169"/>
+      <c r="B184" s="170"/>
+      <c r="C184" s="171"/>
       <c r="E184" s="77" t="s">
         <v>394</v>
       </c>
@@ -16377,8 +16440,8 @@
       <c r="R184" s="36"/>
     </row>
     <row r="185" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B185" s="172"/>
-      <c r="C185" s="169"/>
+      <c r="B185" s="170"/>
+      <c r="C185" s="171"/>
       <c r="E185" s="77" t="s">
         <v>395</v>
       </c>
@@ -16407,8 +16470,8 @@
       <c r="R185" s="36"/>
     </row>
     <row r="186" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B186" s="172"/>
-      <c r="C186" s="169"/>
+      <c r="B186" s="170"/>
+      <c r="C186" s="171"/>
       <c r="E186" s="77" t="s">
         <v>396</v>
       </c>
@@ -16437,8 +16500,8 @@
       <c r="R186" s="36"/>
     </row>
     <row r="187" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B187" s="172"/>
-      <c r="C187" s="169" t="s">
+      <c r="B187" s="170"/>
+      <c r="C187" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -16486,8 +16549,8 @@
       </c>
     </row>
     <row r="188" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B188" s="172"/>
-      <c r="C188" s="169"/>
+      <c r="B188" s="170"/>
+      <c r="C188" s="171"/>
       <c r="E188" s="77" t="s">
         <v>263</v>
       </c>
@@ -16514,8 +16577,8 @@
       <c r="R188" s="36"/>
     </row>
     <row r="189" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B189" s="172"/>
-      <c r="C189" s="169" t="s">
+      <c r="B189" s="170"/>
+      <c r="C189" s="171" t="s">
         <v>41</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -16565,8 +16628,8 @@
       </c>
     </row>
     <row r="190" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B190" s="172"/>
-      <c r="C190" s="169"/>
+      <c r="B190" s="170"/>
+      <c r="C190" s="171"/>
       <c r="E190" s="77" t="s">
         <v>263</v>
       </c>
@@ -16595,8 +16658,8 @@
       <c r="R190" s="36"/>
     </row>
     <row r="191" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B191" s="172"/>
-      <c r="C191" s="169"/>
+      <c r="B191" s="170"/>
+      <c r="C191" s="171"/>
       <c r="E191" s="77" t="s">
         <v>335</v>
       </c>
@@ -16625,8 +16688,8 @@
       <c r="R191" s="36"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B192" s="172"/>
-      <c r="C192" s="169" t="s">
+      <c r="B192" s="170"/>
+      <c r="C192" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -16676,8 +16739,8 @@
       </c>
     </row>
     <row r="193" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B193" s="172"/>
-      <c r="C193" s="169"/>
+      <c r="B193" s="170"/>
+      <c r="C193" s="171"/>
       <c r="E193" s="77" t="s">
         <v>263</v>
       </c>
@@ -16706,8 +16769,8 @@
       <c r="R193" s="36"/>
     </row>
     <row r="194" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B194" s="172"/>
-      <c r="C194" s="169"/>
+      <c r="B194" s="170"/>
+      <c r="C194" s="171"/>
       <c r="E194" s="77" t="s">
         <v>32</v>
       </c>
@@ -16736,8 +16799,8 @@
       <c r="R194" s="36"/>
     </row>
     <row r="195" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B195" s="172"/>
-      <c r="C195" s="169"/>
+      <c r="B195" s="170"/>
+      <c r="C195" s="171"/>
       <c r="E195" s="77" t="s">
         <v>335</v>
       </c>
@@ -16766,8 +16829,8 @@
       <c r="R195" s="36"/>
     </row>
     <row r="196" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B196" s="172"/>
-      <c r="C196" s="169" t="s">
+      <c r="B196" s="170"/>
+      <c r="C196" s="171" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -16817,8 +16880,8 @@
       </c>
     </row>
     <row r="197" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B197" s="172"/>
-      <c r="C197" s="169"/>
+      <c r="B197" s="170"/>
+      <c r="C197" s="171"/>
       <c r="E197" s="1" t="s">
         <v>263</v>
       </c>
@@ -16847,8 +16910,8 @@
       <c r="R197" s="36"/>
     </row>
     <row r="198" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B198" s="172"/>
-      <c r="C198" s="169"/>
+      <c r="B198" s="170"/>
+      <c r="C198" s="171"/>
       <c r="E198" s="1" t="s">
         <v>335</v>
       </c>
@@ -16877,8 +16940,8 @@
       <c r="R198" s="36"/>
     </row>
     <row r="199" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B199" s="172"/>
-      <c r="C199" s="169"/>
+      <c r="B199" s="170"/>
+      <c r="C199" s="171"/>
       <c r="E199" s="1" t="s">
         <v>32</v>
       </c>
@@ -16907,8 +16970,8 @@
       <c r="R199" s="36"/>
     </row>
     <row r="200" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B200" s="173"/>
-      <c r="C200" s="170"/>
+      <c r="B200" s="174"/>
+      <c r="C200" s="173"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13" t="s">
         <v>446</v>
@@ -16938,29 +17001,29 @@
       <c r="R200" s="87"/>
     </row>
     <row r="206" spans="2:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U206" s="152" t="s">
+      <c r="U206" s="164" t="s">
         <v>349</v>
       </c>
-      <c r="V206" s="152"/>
-      <c r="W206" s="152"/>
-      <c r="X206" s="152"/>
-      <c r="Y206" s="152"/>
-      <c r="Z206" s="152"/>
-      <c r="AA206" s="152"/>
-      <c r="AB206" s="152"/>
-      <c r="AC206" s="152"/>
-      <c r="AD206" s="152"/>
-      <c r="AE206" s="152"/>
-      <c r="AF206" s="152"/>
-      <c r="AG206" s="152"/>
-      <c r="AH206" s="152"/>
-      <c r="AI206" s="152"/>
-      <c r="AJ206" s="152"/>
-      <c r="AK206" s="152"/>
-      <c r="AL206" s="152"/>
-      <c r="AM206" s="152"/>
-      <c r="AN206" s="152"/>
-      <c r="AO206" s="152"/>
+      <c r="V206" s="164"/>
+      <c r="W206" s="164"/>
+      <c r="X206" s="164"/>
+      <c r="Y206" s="164"/>
+      <c r="Z206" s="164"/>
+      <c r="AA206" s="164"/>
+      <c r="AB206" s="164"/>
+      <c r="AC206" s="164"/>
+      <c r="AD206" s="164"/>
+      <c r="AE206" s="164"/>
+      <c r="AF206" s="164"/>
+      <c r="AG206" s="164"/>
+      <c r="AH206" s="164"/>
+      <c r="AI206" s="164"/>
+      <c r="AJ206" s="164"/>
+      <c r="AK206" s="164"/>
+      <c r="AL206" s="164"/>
+      <c r="AM206" s="164"/>
+      <c r="AN206" s="164"/>
+      <c r="AO206" s="164"/>
     </row>
     <row r="207" spans="2:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U207" s="13" t="s">
@@ -17240,29 +17303,29 @@
       <c r="AO211" s="13"/>
     </row>
     <row r="213" spans="21:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U213" s="152" t="s">
+      <c r="U213" s="164" t="s">
         <v>350</v>
       </c>
-      <c r="V213" s="152"/>
-      <c r="W213" s="152"/>
-      <c r="X213" s="152"/>
-      <c r="Y213" s="152"/>
-      <c r="Z213" s="152"/>
-      <c r="AA213" s="152"/>
-      <c r="AB213" s="152"/>
-      <c r="AC213" s="152"/>
-      <c r="AD213" s="152"/>
-      <c r="AE213" s="152"/>
-      <c r="AF213" s="152"/>
-      <c r="AG213" s="152"/>
-      <c r="AH213" s="152"/>
-      <c r="AI213" s="152"/>
-      <c r="AJ213" s="152"/>
-      <c r="AK213" s="152"/>
-      <c r="AL213" s="152"/>
-      <c r="AM213" s="152"/>
-      <c r="AN213" s="152"/>
-      <c r="AO213" s="152"/>
+      <c r="V213" s="164"/>
+      <c r="W213" s="164"/>
+      <c r="X213" s="164"/>
+      <c r="Y213" s="164"/>
+      <c r="Z213" s="164"/>
+      <c r="AA213" s="164"/>
+      <c r="AB213" s="164"/>
+      <c r="AC213" s="164"/>
+      <c r="AD213" s="164"/>
+      <c r="AE213" s="164"/>
+      <c r="AF213" s="164"/>
+      <c r="AG213" s="164"/>
+      <c r="AH213" s="164"/>
+      <c r="AI213" s="164"/>
+      <c r="AJ213" s="164"/>
+      <c r="AK213" s="164"/>
+      <c r="AL213" s="164"/>
+      <c r="AM213" s="164"/>
+      <c r="AN213" s="164"/>
+      <c r="AO213" s="164"/>
     </row>
     <row r="214" spans="21:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U214" s="13" t="s">
@@ -17558,29 +17621,29 @@
       </c>
     </row>
     <row r="221" spans="21:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U221" s="152" t="s">
+      <c r="U221" s="164" t="s">
         <v>352</v>
       </c>
-      <c r="V221" s="152"/>
-      <c r="W221" s="152"/>
-      <c r="X221" s="152"/>
-      <c r="Y221" s="152"/>
-      <c r="Z221" s="152"/>
-      <c r="AA221" s="152"/>
-      <c r="AB221" s="152"/>
-      <c r="AC221" s="152"/>
-      <c r="AD221" s="152"/>
-      <c r="AE221" s="152"/>
-      <c r="AF221" s="152"/>
-      <c r="AG221" s="152"/>
-      <c r="AH221" s="152"/>
-      <c r="AI221" s="152"/>
-      <c r="AJ221" s="152"/>
-      <c r="AK221" s="152"/>
-      <c r="AL221" s="152"/>
-      <c r="AM221" s="152"/>
-      <c r="AN221" s="152"/>
-      <c r="AO221" s="152"/>
+      <c r="V221" s="164"/>
+      <c r="W221" s="164"/>
+      <c r="X221" s="164"/>
+      <c r="Y221" s="164"/>
+      <c r="Z221" s="164"/>
+      <c r="AA221" s="164"/>
+      <c r="AB221" s="164"/>
+      <c r="AC221" s="164"/>
+      <c r="AD221" s="164"/>
+      <c r="AE221" s="164"/>
+      <c r="AF221" s="164"/>
+      <c r="AG221" s="164"/>
+      <c r="AH221" s="164"/>
+      <c r="AI221" s="164"/>
+      <c r="AJ221" s="164"/>
+      <c r="AK221" s="164"/>
+      <c r="AL221" s="164"/>
+      <c r="AM221" s="164"/>
+      <c r="AN221" s="164"/>
+      <c r="AO221" s="164"/>
     </row>
     <row r="222" spans="21:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U222" s="13" t="s">
@@ -17862,29 +17925,29 @@
       <c r="AO226" s="26"/>
     </row>
     <row r="229" spans="21:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U229" s="152" t="s">
+      <c r="U229" s="164" t="s">
         <v>355</v>
       </c>
-      <c r="V229" s="152"/>
-      <c r="W229" s="152"/>
-      <c r="X229" s="152"/>
-      <c r="Y229" s="152"/>
-      <c r="Z229" s="152"/>
-      <c r="AA229" s="152"/>
-      <c r="AB229" s="152"/>
-      <c r="AC229" s="152"/>
-      <c r="AD229" s="152"/>
-      <c r="AE229" s="152"/>
-      <c r="AF229" s="152"/>
-      <c r="AG229" s="152"/>
-      <c r="AH229" s="152"/>
-      <c r="AI229" s="152"/>
-      <c r="AJ229" s="152"/>
-      <c r="AK229" s="152"/>
-      <c r="AL229" s="152"/>
-      <c r="AM229" s="152"/>
-      <c r="AN229" s="152"/>
-      <c r="AO229" s="152"/>
+      <c r="V229" s="164"/>
+      <c r="W229" s="164"/>
+      <c r="X229" s="164"/>
+      <c r="Y229" s="164"/>
+      <c r="Z229" s="164"/>
+      <c r="AA229" s="164"/>
+      <c r="AB229" s="164"/>
+      <c r="AC229" s="164"/>
+      <c r="AD229" s="164"/>
+      <c r="AE229" s="164"/>
+      <c r="AF229" s="164"/>
+      <c r="AG229" s="164"/>
+      <c r="AH229" s="164"/>
+      <c r="AI229" s="164"/>
+      <c r="AJ229" s="164"/>
+      <c r="AK229" s="164"/>
+      <c r="AL229" s="164"/>
+      <c r="AM229" s="164"/>
+      <c r="AN229" s="164"/>
+      <c r="AO229" s="164"/>
     </row>
     <row r="230" spans="21:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U230" s="13" t="s">
@@ -18377,16 +18440,51 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="71">
-    <mergeCell ref="B3:S3"/>
-    <mergeCell ref="B5:B35"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C179:C186"/>
+    <mergeCell ref="U229:AO229"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="C196:C200"/>
+    <mergeCell ref="U206:AO206"/>
+    <mergeCell ref="U213:AO213"/>
+    <mergeCell ref="U221:AO221"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="B131:B200"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="C164:C171"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B82:B129"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C115:C116"/>
     <mergeCell ref="C71:C73"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C32:C34"/>
@@ -18403,51 +18501,16 @@
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C65:C68"/>
     <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="B82:B129"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B131:B200"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="C164:C171"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="C179:C186"/>
-    <mergeCell ref="U229:AO229"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="C196:C200"/>
-    <mergeCell ref="U206:AO206"/>
-    <mergeCell ref="U213:AO213"/>
-    <mergeCell ref="U221:AO221"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B5:B35"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18455,10 +18518,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E119337B-178C-1641-8548-9AE40C5AB899}">
-  <dimension ref="B2:T107"/>
+  <dimension ref="B1:AG199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H75" sqref="A75:XFD75"/>
+    <sheetView topLeftCell="O136" workbookViewId="0">
+      <selection activeCell="W181" sqref="W181:W199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18473,15 +18536,20 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="46" t="s">
+        <v>450</v>
+      </c>
+    </row>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -18505,7 +18573,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="157" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -18519,7 +18587,7 @@
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="162"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
@@ -18528,7 +18596,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="162"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -18537,7 +18605,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="162"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -18546,7 +18614,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="154"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
@@ -18558,7 +18626,7 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="157" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18572,7 +18640,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="162"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
@@ -18584,7 +18652,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="162"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -18596,7 +18664,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="162"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -18605,7 +18673,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="154"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -18617,7 +18685,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="157" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -18633,7 +18701,7 @@
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="162"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -18645,7 +18713,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="162"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -18660,7 +18728,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="162"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -18672,7 +18740,7 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="154"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -18686,7 +18754,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="158" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -18697,7 +18765,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="162"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -18706,7 +18774,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="162"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -18715,7 +18783,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="162"/>
+      <c r="B22" s="158"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -18724,7 +18792,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="154"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
@@ -18735,19 +18803,24 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J29" s="46" t="s">
+        <v>450</v>
+      </c>
+    </row>
     <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="152" t="s">
+      <c r="J30" s="164" t="s">
         <v>274</v>
       </c>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="152"/>
-      <c r="S30" s="152"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="164"/>
+      <c r="S30" s="164"/>
     </row>
     <row r="31" spans="2:20" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J31" s="55" t="s">
@@ -18782,7 +18855,7 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J32" s="171" t="s">
+      <c r="J32" s="169" t="s">
         <v>79</v>
       </c>
       <c r="K32" s="14" t="s">
@@ -18796,7 +18869,7 @@
       </c>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J33" s="172"/>
+      <c r="J33" s="170"/>
       <c r="K33" s="14" t="s">
         <v>16</v>
       </c>
@@ -18805,7 +18878,7 @@
       </c>
     </row>
     <row r="34" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J34" s="172"/>
+      <c r="J34" s="170"/>
       <c r="K34" s="14" t="s">
         <v>17</v>
       </c>
@@ -18814,7 +18887,7 @@
       </c>
     </row>
     <row r="35" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J35" s="172"/>
+      <c r="J35" s="170"/>
       <c r="K35" s="14" t="s">
         <v>34</v>
       </c>
@@ -18823,7 +18896,7 @@
       </c>
     </row>
     <row r="36" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J36" s="172"/>
+      <c r="J36" s="170"/>
       <c r="K36" s="14" t="s">
         <v>35</v>
       </c>
@@ -18832,7 +18905,7 @@
       </c>
     </row>
     <row r="37" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J37" s="172"/>
+      <c r="J37" s="170"/>
       <c r="K37" s="14" t="s">
         <v>18</v>
       </c>
@@ -18844,7 +18917,7 @@
       </c>
     </row>
     <row r="38" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J38" s="172"/>
+      <c r="J38" s="170"/>
       <c r="K38" s="14" t="s">
         <v>37</v>
       </c>
@@ -18853,7 +18926,7 @@
       </c>
     </row>
     <row r="39" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J39" s="172"/>
+      <c r="J39" s="170"/>
       <c r="K39" s="14" t="s">
         <v>36</v>
       </c>
@@ -18862,7 +18935,7 @@
       </c>
     </row>
     <row r="40" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J40" s="172"/>
+      <c r="J40" s="170"/>
       <c r="K40" s="14" t="s">
         <v>12</v>
       </c>
@@ -18874,7 +18947,7 @@
       </c>
     </row>
     <row r="41" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J41" s="172"/>
+      <c r="J41" s="170"/>
       <c r="K41" s="14" t="s">
         <v>19</v>
       </c>
@@ -18886,7 +18959,7 @@
       </c>
     </row>
     <row r="42" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="172"/>
+      <c r="J42" s="170"/>
       <c r="K42" s="14" t="s">
         <v>13</v>
       </c>
@@ -18898,7 +18971,7 @@
       </c>
     </row>
     <row r="43" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J43" s="172"/>
+      <c r="J43" s="170"/>
       <c r="K43" s="14" t="s">
         <v>14</v>
       </c>
@@ -18907,7 +18980,7 @@
       </c>
     </row>
     <row r="44" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J44" s="172"/>
+      <c r="J44" s="170"/>
       <c r="K44" s="14" t="s">
         <v>38</v>
       </c>
@@ -18916,7 +18989,7 @@
       </c>
     </row>
     <row r="45" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J45" s="172"/>
+      <c r="J45" s="170"/>
       <c r="K45" s="14" t="s">
         <v>20</v>
       </c>
@@ -18928,7 +19001,7 @@
       </c>
     </row>
     <row r="46" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J46" s="172"/>
+      <c r="J46" s="170"/>
       <c r="K46" s="14" t="s">
         <v>33</v>
       </c>
@@ -18937,7 +19010,7 @@
       </c>
     </row>
     <row r="47" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J47" s="172"/>
+      <c r="J47" s="170"/>
       <c r="K47" s="14" t="s">
         <v>39</v>
       </c>
@@ -18949,7 +19022,7 @@
       </c>
     </row>
     <row r="48" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J48" s="172"/>
+      <c r="J48" s="170"/>
       <c r="K48" s="14" t="s">
         <v>41</v>
       </c>
@@ -18958,7 +19031,7 @@
       </c>
     </row>
     <row r="49" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J49" s="172"/>
+      <c r="J49" s="170"/>
       <c r="K49" s="14" t="s">
         <v>42</v>
       </c>
@@ -18967,7 +19040,7 @@
       </c>
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J50" s="172"/>
+      <c r="J50" s="170"/>
       <c r="K50" s="15" t="s">
         <v>15</v>
       </c>
@@ -18976,7 +19049,7 @@
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J51" s="171" t="s">
+      <c r="J51" s="169" t="s">
         <v>80</v>
       </c>
       <c r="K51" s="14" t="s">
@@ -18987,7 +19060,7 @@
       </c>
     </row>
     <row r="52" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J52" s="172"/>
+      <c r="J52" s="170"/>
       <c r="K52" s="14" t="s">
         <v>16</v>
       </c>
@@ -18996,7 +19069,7 @@
       </c>
     </row>
     <row r="53" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J53" s="172"/>
+      <c r="J53" s="170"/>
       <c r="K53" s="14" t="s">
         <v>17</v>
       </c>
@@ -19005,7 +19078,7 @@
       </c>
     </row>
     <row r="54" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J54" s="172"/>
+      <c r="J54" s="170"/>
       <c r="K54" s="14" t="s">
         <v>34</v>
       </c>
@@ -19014,7 +19087,7 @@
       </c>
     </row>
     <row r="55" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J55" s="172"/>
+      <c r="J55" s="170"/>
       <c r="K55" s="14" t="s">
         <v>35</v>
       </c>
@@ -19023,7 +19096,7 @@
       </c>
     </row>
     <row r="56" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J56" s="172"/>
+      <c r="J56" s="170"/>
       <c r="K56" s="14" t="s">
         <v>18</v>
       </c>
@@ -19032,7 +19105,7 @@
       </c>
     </row>
     <row r="57" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J57" s="172"/>
+      <c r="J57" s="170"/>
       <c r="K57" s="14" t="s">
         <v>37</v>
       </c>
@@ -19044,7 +19117,7 @@
       </c>
     </row>
     <row r="58" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J58" s="172"/>
+      <c r="J58" s="170"/>
       <c r="K58" s="14" t="s">
         <v>36</v>
       </c>
@@ -19053,7 +19126,7 @@
       </c>
     </row>
     <row r="59" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J59" s="172"/>
+      <c r="J59" s="170"/>
       <c r="K59" s="14" t="s">
         <v>12</v>
       </c>
@@ -19065,7 +19138,7 @@
       </c>
     </row>
     <row r="60" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J60" s="172"/>
+      <c r="J60" s="170"/>
       <c r="K60" s="14" t="s">
         <v>19</v>
       </c>
@@ -19074,7 +19147,7 @@
       </c>
     </row>
     <row r="61" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J61" s="172"/>
+      <c r="J61" s="170"/>
       <c r="K61" s="14" t="s">
         <v>13</v>
       </c>
@@ -19086,7 +19159,7 @@
       </c>
     </row>
     <row r="62" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J62" s="172"/>
+      <c r="J62" s="170"/>
       <c r="K62" s="14" t="s">
         <v>14</v>
       </c>
@@ -19095,7 +19168,7 @@
       </c>
     </row>
     <row r="63" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J63" s="172"/>
+      <c r="J63" s="170"/>
       <c r="K63" s="14" t="s">
         <v>38</v>
       </c>
@@ -19107,7 +19180,7 @@
       </c>
     </row>
     <row r="64" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J64" s="172"/>
+      <c r="J64" s="170"/>
       <c r="K64" s="14" t="s">
         <v>20</v>
       </c>
@@ -19119,7 +19192,7 @@
       </c>
     </row>
     <row r="65" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J65" s="172"/>
+      <c r="J65" s="170"/>
       <c r="K65" s="14" t="s">
         <v>33</v>
       </c>
@@ -19131,7 +19204,7 @@
       </c>
     </row>
     <row r="66" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J66" s="172"/>
+      <c r="J66" s="170"/>
       <c r="K66" s="14" t="s">
         <v>39</v>
       </c>
@@ -19143,7 +19216,7 @@
       </c>
     </row>
     <row r="67" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J67" s="172"/>
+      <c r="J67" s="170"/>
       <c r="K67" s="14" t="s">
         <v>41</v>
       </c>
@@ -19152,7 +19225,7 @@
       </c>
     </row>
     <row r="68" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J68" s="172"/>
+      <c r="J68" s="170"/>
       <c r="K68" s="14" t="s">
         <v>42</v>
       </c>
@@ -19164,7 +19237,7 @@
       </c>
     </row>
     <row r="69" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J69" s="172"/>
+      <c r="J69" s="170"/>
       <c r="K69" s="15" t="s">
         <v>15</v>
       </c>
@@ -19173,7 +19246,7 @@
       </c>
     </row>
     <row r="70" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J70" s="171" t="s">
+      <c r="J70" s="169" t="s">
         <v>81</v>
       </c>
       <c r="K70" s="14" t="s">
@@ -19187,7 +19260,7 @@
       </c>
     </row>
     <row r="71" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J71" s="172"/>
+      <c r="J71" s="170"/>
       <c r="K71" s="14" t="s">
         <v>16</v>
       </c>
@@ -19196,7 +19269,7 @@
       </c>
     </row>
     <row r="72" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J72" s="172"/>
+      <c r="J72" s="170"/>
       <c r="K72" s="14" t="s">
         <v>17</v>
       </c>
@@ -19208,7 +19281,7 @@
       </c>
     </row>
     <row r="73" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J73" s="172"/>
+      <c r="J73" s="170"/>
       <c r="K73" s="14" t="s">
         <v>34</v>
       </c>
@@ -19217,7 +19290,7 @@
       </c>
     </row>
     <row r="74" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J74" s="172"/>
+      <c r="J74" s="170"/>
       <c r="K74" s="14" t="s">
         <v>35</v>
       </c>
@@ -19226,7 +19299,7 @@
       </c>
     </row>
     <row r="75" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J75" s="172"/>
+      <c r="J75" s="170"/>
       <c r="K75" s="14" t="s">
         <v>18</v>
       </c>
@@ -19238,7 +19311,7 @@
       </c>
     </row>
     <row r="76" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J76" s="172"/>
+      <c r="J76" s="170"/>
       <c r="K76" s="14" t="s">
         <v>37</v>
       </c>
@@ -19247,7 +19320,7 @@
       </c>
     </row>
     <row r="77" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J77" s="172"/>
+      <c r="J77" s="170"/>
       <c r="K77" s="14" t="s">
         <v>36</v>
       </c>
@@ -19259,7 +19332,7 @@
       </c>
     </row>
     <row r="78" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J78" s="172"/>
+      <c r="J78" s="170"/>
       <c r="K78" s="14" t="s">
         <v>12</v>
       </c>
@@ -19268,7 +19341,7 @@
       </c>
     </row>
     <row r="79" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J79" s="172"/>
+      <c r="J79" s="170"/>
       <c r="K79" s="14" t="s">
         <v>19</v>
       </c>
@@ -19280,7 +19353,7 @@
       </c>
     </row>
     <row r="80" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J80" s="172"/>
+      <c r="J80" s="170"/>
       <c r="K80" s="14" t="s">
         <v>13</v>
       </c>
@@ -19292,7 +19365,7 @@
       </c>
     </row>
     <row r="81" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J81" s="172"/>
+      <c r="J81" s="170"/>
       <c r="K81" s="14" t="s">
         <v>14</v>
       </c>
@@ -19304,7 +19377,7 @@
       </c>
     </row>
     <row r="82" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J82" s="172"/>
+      <c r="J82" s="170"/>
       <c r="K82" s="14" t="s">
         <v>38</v>
       </c>
@@ -19319,7 +19392,7 @@
       </c>
     </row>
     <row r="83" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J83" s="172"/>
+      <c r="J83" s="170"/>
       <c r="K83" s="14" t="s">
         <v>20</v>
       </c>
@@ -19328,7 +19401,7 @@
       </c>
     </row>
     <row r="84" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J84" s="172"/>
+      <c r="J84" s="170"/>
       <c r="K84" s="14" t="s">
         <v>33</v>
       </c>
@@ -19337,7 +19410,7 @@
       </c>
     </row>
     <row r="85" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J85" s="172"/>
+      <c r="J85" s="170"/>
       <c r="K85" s="14" t="s">
         <v>39</v>
       </c>
@@ -19346,7 +19419,7 @@
       </c>
     </row>
     <row r="86" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J86" s="172"/>
+      <c r="J86" s="170"/>
       <c r="K86" s="14" t="s">
         <v>41</v>
       </c>
@@ -19361,7 +19434,7 @@
       </c>
     </row>
     <row r="87" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J87" s="172"/>
+      <c r="J87" s="170"/>
       <c r="K87" s="14" t="s">
         <v>42</v>
       </c>
@@ -19370,7 +19443,7 @@
       </c>
     </row>
     <row r="88" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J88" s="172"/>
+      <c r="J88" s="170"/>
       <c r="K88" s="15" t="s">
         <v>15</v>
       </c>
@@ -19382,7 +19455,7 @@
       </c>
     </row>
     <row r="89" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J89" s="171" t="s">
+      <c r="J89" s="169" t="s">
         <v>82</v>
       </c>
       <c r="K89" s="14" t="s">
@@ -19390,125 +19463,936 @@
       </c>
     </row>
     <row r="90" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J90" s="172"/>
+      <c r="J90" s="170"/>
       <c r="K90" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J91" s="172"/>
+      <c r="J91" s="170"/>
       <c r="K91" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J92" s="172"/>
+      <c r="J92" s="170"/>
       <c r="K92" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="93" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J93" s="172"/>
+      <c r="J93" s="170"/>
       <c r="K93" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J94" s="172"/>
+      <c r="J94" s="170"/>
       <c r="K94" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J95" s="172"/>
+      <c r="J95" s="170"/>
       <c r="K95" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="96" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J96" s="172"/>
+      <c r="J96" s="170"/>
       <c r="K96" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J97" s="172"/>
+      <c r="J97" s="170"/>
       <c r="K97" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J98" s="172"/>
+      <c r="J98" s="170"/>
       <c r="K98" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="99" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J99" s="172"/>
+      <c r="J99" s="170"/>
       <c r="K99" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J100" s="172"/>
+      <c r="J100" s="170"/>
       <c r="K100" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J101" s="172"/>
+      <c r="J101" s="170"/>
       <c r="K101" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J102" s="172"/>
+      <c r="J102" s="170"/>
       <c r="K102" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J103" s="172"/>
+      <c r="J103" s="170"/>
       <c r="K103" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="104" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J104" s="172"/>
+      <c r="J104" s="170"/>
       <c r="K104" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="105" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J105" s="172"/>
+      <c r="J105" s="170"/>
       <c r="K105" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="106" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J106" s="172"/>
+      <c r="J106" s="170"/>
       <c r="K106" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="107" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J107" s="172"/>
+      <c r="J107" s="170"/>
       <c r="K107" s="15" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="113" spans="23:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W113" s="164" t="s">
+        <v>451</v>
+      </c>
+      <c r="X113" s="164"/>
+      <c r="Y113" s="164"/>
+      <c r="Z113" s="164"/>
+      <c r="AA113" s="164"/>
+      <c r="AB113" s="164"/>
+      <c r="AC113" s="164"/>
+      <c r="AD113" s="164"/>
+      <c r="AE113" s="164"/>
+      <c r="AF113" s="164"/>
+    </row>
+    <row r="114" spans="23:33" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="W114" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="X114" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y114" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z114" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA114" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB114" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC114" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD114" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE114" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF114" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG114" s="55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W115" s="180" t="s">
+        <v>452</v>
+      </c>
+      <c r="X115" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y115" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z115" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="116" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W116" s="170"/>
+      <c r="X116" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y116" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z116" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="117" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W117" s="170"/>
+      <c r="X117" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y117" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z117" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="118" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W118" s="170"/>
+      <c r="X118" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y118" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z118" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="119" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W119" s="170"/>
+      <c r="X119" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y119" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z119" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="120" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W120" s="170"/>
+      <c r="X120" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y120" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z120" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="121" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W121" s="170"/>
+      <c r="X121" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y121" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z121" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="122" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W122" s="170"/>
+      <c r="X122" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y122" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z122" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="123" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W123" s="170"/>
+      <c r="X123" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y123" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z123" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="124" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W124" s="170"/>
+      <c r="X124" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y124" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z124" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="125" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W125" s="170"/>
+      <c r="X125" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y125" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z125" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="126" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W126" s="170"/>
+      <c r="X126" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y126" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z126" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="127" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W127" s="170"/>
+      <c r="X127" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y127" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z127" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="128" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W128" s="170"/>
+      <c r="X128" s="14"/>
+      <c r="Z128" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="129" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W129" s="170"/>
+      <c r="X129" s="14"/>
+      <c r="Z129" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="130" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W130" s="170"/>
+      <c r="X130" s="14"/>
+      <c r="Z130" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="131" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W131" s="170"/>
+      <c r="X131" s="14"/>
+      <c r="Z131" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="132" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W132" s="170"/>
+      <c r="X132" s="14"/>
+      <c r="Z132" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="133" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W133" s="170"/>
+      <c r="X133" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y133" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z133" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="134" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W134" s="170"/>
+      <c r="X134" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y134" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z134" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="135" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W135" s="170"/>
+      <c r="X135" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y135" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z135" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="136" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W136" s="170"/>
+      <c r="X136" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y136" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z136" s="62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="137" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W137" s="170"/>
+      <c r="X137" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y137" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z137" s="62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="138" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W138" s="170"/>
+      <c r="X138" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y138" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z138" s="62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="139" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W139" s="180" t="s">
+        <v>461</v>
+      </c>
+      <c r="X139" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y139" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z139" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="140" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W140" s="170"/>
+      <c r="X140" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y140" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z140" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="141" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W141" s="170"/>
+      <c r="X141" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y141" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z141" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="142" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W142" s="170"/>
+      <c r="X142" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y142" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z142" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="143" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W143" s="170"/>
+      <c r="X143" s="14"/>
+      <c r="Z143" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="144" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W144" s="170"/>
+      <c r="X144" s="14"/>
+      <c r="Z144" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="145" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W145" s="170"/>
+      <c r="X145" s="14"/>
+      <c r="Z145" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="146" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W146" s="170"/>
+      <c r="X146" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y146" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z146" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="147" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W147" s="170"/>
+      <c r="X147" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y147" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z147" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="148" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W148" s="170"/>
+      <c r="X148" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y148" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z148" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="149" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W149" s="170"/>
+      <c r="X149" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y149" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z149" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="150" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W150" s="170"/>
+      <c r="X150" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y150" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z150" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="151" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W151" s="170"/>
+      <c r="X151" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y151" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z151" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="152" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W152" s="170"/>
+      <c r="X152" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y152" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z152" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="153" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W153" s="170"/>
+      <c r="X153" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y153" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z153" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="154" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W154" s="170"/>
+      <c r="X154" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y154" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z154" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="155" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W155" s="170"/>
+      <c r="X155" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y155" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z155" s="61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="156" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W156" s="170"/>
+      <c r="X156" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y156" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z156" s="61" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W157" s="170"/>
+      <c r="X157" s="14"/>
+      <c r="Z157" s="61" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="158" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W158" s="170"/>
+      <c r="X158" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y158" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z158" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="159" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W159" s="170"/>
+      <c r="X159" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y159" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z159" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="160" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W160" s="170"/>
+      <c r="X160" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y160" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z160" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="161" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W161" s="170"/>
+      <c r="X161" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z161" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="162" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W162" s="180" t="s">
+        <v>468</v>
+      </c>
+      <c r="X162" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z162" s="61"/>
+    </row>
+    <row r="163" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W163" s="170"/>
+      <c r="X163" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W164" s="170"/>
+      <c r="X164" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W165" s="170"/>
+      <c r="X165" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W166" s="170"/>
+      <c r="X166" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z166" s="61"/>
+    </row>
+    <row r="167" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W167" s="170"/>
+      <c r="X167" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W168" s="170"/>
+      <c r="X168" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W169" s="170"/>
+      <c r="X169" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W170" s="170"/>
+      <c r="X170" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W171" s="170"/>
+      <c r="X171" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W172" s="170"/>
+      <c r="X172" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W173" s="170"/>
+      <c r="X173" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W174" s="170"/>
+      <c r="X174" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W175" s="170"/>
+      <c r="X175" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W176" s="170"/>
+      <c r="X176" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W177" s="170"/>
+      <c r="X177" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="178" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W178" s="170"/>
+      <c r="X178" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="179" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W179" s="170"/>
+      <c r="X179" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W180" s="170"/>
+      <c r="X180" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W181" s="169" t="s">
+        <v>82</v>
+      </c>
+      <c r="X181" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W182" s="170"/>
+      <c r="X182" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W183" s="170"/>
+      <c r="X183" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W184" s="170"/>
+      <c r="X184" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W185" s="170"/>
+      <c r="X185" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W186" s="170"/>
+      <c r="X186" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W187" s="170"/>
+      <c r="X187" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W188" s="170"/>
+      <c r="X188" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W189" s="170"/>
+      <c r="X189" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W190" s="170"/>
+      <c r="X190" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W191" s="170"/>
+      <c r="X191" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W192" s="170"/>
+      <c r="X192" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W193" s="170"/>
+      <c r="X193" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W194" s="170"/>
+      <c r="X194" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W195" s="170"/>
+      <c r="X195" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W196" s="170"/>
+      <c r="X196" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="197" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W197" s="170"/>
+      <c r="X197" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W198" s="170"/>
+      <c r="X198" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="199" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W199" s="170"/>
+      <c r="X199" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="W113:AF113"/>
+    <mergeCell ref="W115:W138"/>
+    <mergeCell ref="W139:W161"/>
+    <mergeCell ref="W162:W180"/>
+    <mergeCell ref="W181:W199"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
     <mergeCell ref="J89:J107"/>
     <mergeCell ref="J70:J88"/>
     <mergeCell ref="J32:J50"/>
     <mergeCell ref="J51:J69"/>
     <mergeCell ref="J30:S30"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gift/Documents/Rprojects/project-harvest/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BAD892-502B-214D-8DCE-38607608E188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4709E221-998D-AE48-A271-3F7BF605188B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="660" windowWidth="27660" windowHeight="17500" activeTab="1" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11688" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11738" uniqueCount="457">
   <si>
     <t>Analyte</t>
   </si>
@@ -1557,6 +1557,33 @@
     <t>winter, prox is pos
 monsoon, prox is more pos</t>
   </si>
+  <si>
+    <t>Q60: What is your cistern made of?</t>
+  </si>
+  <si>
+    <t>Q65: How old is your cistern</t>
+  </si>
+  <si>
+    <t>Q652-5 years</t>
+  </si>
+  <si>
+    <t>Q655+ years</t>
+  </si>
+  <si>
+    <t>seasonMonsoon                3.44563    0.15489 2045.26442  22.245  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>Q60Other                    17.84690    3.77276   22.33300   4.730 9.78e-05 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q60Plastic                  -0.17904    2.57437   22.23334  -0.070  0.94517    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonWinter:prox.normal    -0.01444    0.60826   23.67804  -0.024  0.98126    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonMonsoon:prox.normal   -2.02104    0.61166   24.18507  -3.304  0.00296 ** </t>
+  </si>
 </sst>
 </file>
 
@@ -1628,7 +1655,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1699,6 +1726,12 @@
       <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2124,7 +2157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2434,17 +2467,14 @@
     <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2456,28 +2486,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2488,23 +2521,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2521,7 +2554,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2728,8 +2773,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{754A9160-A031-164E-8DDE-1E700AF4C60A}" name="Table2" displayName="Table2" ref="B3:N130" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
-  <autoFilter ref="B3:N130" xr:uid="{754A9160-A031-164E-8DDE-1E700AF4C60A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{754A9160-A031-164E-8DDE-1E700AF4C60A}" name="Table2" displayName="Table2" ref="B3:N167" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="B3:N167" xr:uid="{754A9160-A031-164E-8DDE-1E700AF4C60A}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{A4139E18-F49A-ED4E-AC32-363B2A2EF243}" name="Column1" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{6F5B0609-FC24-5244-8C65-143CDFC6C64F}" name="Column2" dataDxfId="11"/>
@@ -3501,27 +3546,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="152" t="s">
+      <c r="M31" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="152"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="152"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="164"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="153" t="s">
+      <c r="M32" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="151" t="s">
+      <c r="N32" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="151"/>
-      <c r="P32" s="151"/>
-      <c r="Q32" s="151"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="163"/>
     </row>
     <row r="33" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M33" s="154"/>
+      <c r="M33" s="159"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -3617,7 +3662,7 @@
       </c>
     </row>
     <row r="46" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y46" s="161" t="s">
+      <c r="Y46" s="157" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="8" t="s">
@@ -3631,7 +3676,7 @@
       </c>
     </row>
     <row r="47" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y47" s="162"/>
+      <c r="Y47" s="158"/>
       <c r="Z47" s="8">
         <v>0</v>
       </c>
@@ -3643,7 +3688,7 @@
       </c>
     </row>
     <row r="48" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y48" s="162"/>
+      <c r="Y48" s="158"/>
       <c r="Z48" s="8">
         <v>0.5</v>
       </c>
@@ -3655,7 +3700,7 @@
       </c>
     </row>
     <row r="49" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y49" s="162"/>
+      <c r="Y49" s="158"/>
       <c r="Z49" s="8">
         <v>1</v>
       </c>
@@ -3667,7 +3712,7 @@
       </c>
     </row>
     <row r="50" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y50" s="162"/>
+      <c r="Y50" s="158"/>
       <c r="Z50" s="8">
         <v>1.5</v>
       </c>
@@ -3679,7 +3724,7 @@
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="154"/>
+      <c r="Y51" s="159"/>
       <c r="Z51" s="11">
         <v>2</v>
       </c>
@@ -3692,7 +3737,7 @@
       <c r="AC51" s="13"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y52" s="161" t="s">
+      <c r="Y52" s="157" t="s">
         <v>69</v>
       </c>
       <c r="Z52" s="1" t="s">
@@ -3701,62 +3746,62 @@
       <c r="AA52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC52" s="163" t="s">
+      <c r="AC52" s="160" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="162"/>
+      <c r="Y53" s="158"/>
       <c r="Z53" s="1">
         <v>0</v>
       </c>
       <c r="AA53" s="34">
         <v>6.1733623452348702E-2</v>
       </c>
-      <c r="AC53" s="165"/>
+      <c r="AC53" s="161"/>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y54" s="162"/>
+      <c r="Y54" s="158"/>
       <c r="Z54" s="1">
         <v>2</v>
       </c>
       <c r="AA54" s="34">
         <v>1.20772053410085E-2</v>
       </c>
-      <c r="AC54" s="165"/>
+      <c r="AC54" s="161"/>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y55" s="162"/>
+      <c r="Y55" s="158"/>
       <c r="Z55" s="1">
         <v>4</v>
       </c>
       <c r="AA55" s="31">
         <v>2.2662402083130201E-3</v>
       </c>
-      <c r="AC55" s="165"/>
+      <c r="AC55" s="161"/>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y56" s="162"/>
+      <c r="Y56" s="158"/>
       <c r="Z56" s="1">
         <v>6</v>
       </c>
       <c r="AA56" s="28">
         <v>4.2184786680835203E-4</v>
       </c>
-      <c r="AC56" s="165"/>
+      <c r="AC56" s="161"/>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y57" s="162"/>
+      <c r="Y57" s="158"/>
       <c r="Z57" s="1">
         <v>8</v>
       </c>
       <c r="AA57" s="28">
         <v>7.8406646322768398E-5</v>
       </c>
-      <c r="AC57" s="165"/>
+      <c r="AC57" s="161"/>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y58" s="154"/>
+      <c r="Y58" s="159"/>
       <c r="Z58" s="13">
         <v>10</v>
       </c>
@@ -3764,10 +3809,10 @@
         <v>1.4568956039108299E-5</v>
       </c>
       <c r="AB58" s="13"/>
-      <c r="AC58" s="164"/>
+      <c r="AC58" s="162"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y59" s="161" t="s">
+      <c r="Y59" s="157" t="s">
         <v>73</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -3776,72 +3821,72 @@
       <c r="AA59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" s="163" t="s">
+      <c r="AC59" s="160" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y60" s="162"/>
+      <c r="Y60" s="158"/>
       <c r="Z60" s="1">
         <v>0</v>
       </c>
       <c r="AA60" s="34">
         <v>4.213704983443E-2</v>
       </c>
-      <c r="AC60" s="165"/>
+      <c r="AC60" s="161"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y61" s="162"/>
+      <c r="Y61" s="158"/>
       <c r="Z61" s="1">
         <v>4</v>
       </c>
       <c r="AA61" s="36">
         <v>0.70383460067707004</v>
       </c>
-      <c r="AC61" s="165"/>
+      <c r="AC61" s="161"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y62" s="162"/>
+      <c r="Y62" s="158"/>
       <c r="Z62" s="1">
         <v>8</v>
       </c>
       <c r="AA62" s="36">
         <v>0.99227108557330002</v>
       </c>
-      <c r="AC62" s="165"/>
+      <c r="AC62" s="161"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y63" s="162"/>
+      <c r="Y63" s="158"/>
       <c r="Z63" s="1">
         <v>12</v>
       </c>
       <c r="AA63" s="37">
         <v>0.99985583826317304</v>
       </c>
-      <c r="AC63" s="165"/>
+      <c r="AC63" s="161"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y64" s="162"/>
+      <c r="Y64" s="158"/>
       <c r="Z64" s="1">
         <v>16</v>
       </c>
       <c r="AA64" s="37">
         <v>0.99999733107778499</v>
       </c>
-      <c r="AC64" s="165"/>
+      <c r="AC64" s="161"/>
     </row>
     <row r="65" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y65" s="162"/>
+      <c r="Y65" s="158"/>
       <c r="Z65" s="1">
         <v>20</v>
       </c>
       <c r="AA65" s="37">
         <v>0.99999995059606805</v>
       </c>
-      <c r="AC65" s="165"/>
+      <c r="AC65" s="161"/>
     </row>
     <row r="66" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y66" s="154"/>
+      <c r="Y66" s="159"/>
       <c r="Z66" s="13">
         <v>24</v>
       </c>
@@ -3849,7 +3894,7 @@
         <v>0.99999999908549497</v>
       </c>
       <c r="AB66" s="13"/>
-      <c r="AC66" s="164"/>
+      <c r="AC66" s="162"/>
     </row>
     <row r="71" spans="25:36" x14ac:dyDescent="0.2">
       <c r="AD71" s="1" t="s">
@@ -3898,7 +3943,7 @@
       </c>
     </row>
     <row r="74" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD74" s="163" t="s">
+      <c r="AD74" s="160" t="s">
         <v>9</v>
       </c>
       <c r="AE74" s="48" t="s">
@@ -3918,7 +3963,7 @@
       </c>
     </row>
     <row r="75" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="164"/>
+      <c r="AD75" s="162"/>
       <c r="AE75" s="49" t="s">
         <v>13</v>
       </c>
@@ -3936,7 +3981,7 @@
       </c>
     </row>
     <row r="76" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD76" s="163" t="s">
+      <c r="AD76" s="160" t="s">
         <v>10</v>
       </c>
       <c r="AE76" s="48" t="s">
@@ -3956,7 +4001,7 @@
       </c>
     </row>
     <row r="77" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD77" s="165"/>
+      <c r="AD77" s="161"/>
       <c r="AE77" s="50" t="s">
         <v>17</v>
       </c>
@@ -3974,7 +4019,7 @@
       </c>
     </row>
     <row r="78" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD78" s="164"/>
+      <c r="AD78" s="162"/>
       <c r="AE78" s="49" t="s">
         <v>12</v>
       </c>
@@ -3992,7 +4037,7 @@
       </c>
     </row>
     <row r="79" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD79" s="163" t="s">
+      <c r="AD79" s="160" t="s">
         <v>11</v>
       </c>
       <c r="AE79" s="48" t="s">
@@ -4012,7 +4057,7 @@
       </c>
     </row>
     <row r="80" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="165"/>
+      <c r="AD80" s="161"/>
       <c r="AE80" s="50" t="s">
         <v>19</v>
       </c>
@@ -4030,7 +4075,7 @@
       </c>
     </row>
     <row r="81" spans="30:47" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD81" s="165"/>
+      <c r="AD81" s="161"/>
       <c r="AE81" s="50" t="s">
         <v>13</v>
       </c>
@@ -4048,7 +4093,7 @@
       </c>
     </row>
     <row r="82" spans="30:47" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD82" s="164"/>
+      <c r="AD82" s="162"/>
       <c r="AE82" s="49" t="s">
         <v>15</v>
       </c>
@@ -4066,18 +4111,18 @@
       </c>
     </row>
     <row r="87" spans="30:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL87" s="152" t="s">
+      <c r="AL87" s="164" t="s">
         <v>274</v>
       </c>
-      <c r="AM87" s="152"/>
-      <c r="AN87" s="152"/>
-      <c r="AO87" s="152"/>
-      <c r="AP87" s="152"/>
-      <c r="AQ87" s="152"/>
-      <c r="AR87" s="152"/>
-      <c r="AS87" s="152"/>
-      <c r="AT87" s="152"/>
-      <c r="AU87" s="152"/>
+      <c r="AM87" s="164"/>
+      <c r="AN87" s="164"/>
+      <c r="AO87" s="164"/>
+      <c r="AP87" s="164"/>
+      <c r="AQ87" s="164"/>
+      <c r="AR87" s="164"/>
+      <c r="AS87" s="164"/>
+      <c r="AT87" s="164"/>
+      <c r="AU87" s="164"/>
     </row>
     <row r="88" spans="30:47" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AL88" s="55" t="s">
@@ -4112,13 +4157,13 @@
       </c>
     </row>
     <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL89" s="155" t="s">
+      <c r="AL89" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="AM89" s="158" t="s">
+      <c r="AM89" s="151" t="s">
         <v>279</v>
       </c>
-      <c r="AN89" s="161" t="s">
+      <c r="AN89" s="157" t="s">
         <v>13</v>
       </c>
       <c r="AO89" s="40" t="s">
@@ -4136,17 +4181,17 @@
       <c r="AS89" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT89" s="155" t="s">
+      <c r="AT89" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="AU89" s="158" t="s">
+      <c r="AU89" s="151" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL90" s="156"/>
-      <c r="AM90" s="159"/>
-      <c r="AN90" s="162"/>
+      <c r="AL90" s="155"/>
+      <c r="AM90" s="152"/>
+      <c r="AN90" s="158"/>
       <c r="AO90" s="1" t="s">
         <v>68</v>
       </c>
@@ -4162,13 +4207,13 @@
       <c r="AS90" s="58">
         <v>1E-3</v>
       </c>
-      <c r="AT90" s="156"/>
-      <c r="AU90" s="159"/>
+      <c r="AT90" s="155"/>
+      <c r="AU90" s="152"/>
     </row>
     <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL91" s="157"/>
-      <c r="AM91" s="160"/>
-      <c r="AN91" s="154"/>
+      <c r="AL91" s="156"/>
+      <c r="AM91" s="153"/>
+      <c r="AN91" s="159"/>
       <c r="AO91" s="13" t="s">
         <v>286</v>
       </c>
@@ -4184,17 +4229,17 @@
       <c r="AS91" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AT91" s="157"/>
-      <c r="AU91" s="160"/>
+      <c r="AT91" s="156"/>
+      <c r="AU91" s="153"/>
     </row>
     <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL92" s="155" t="s">
+      <c r="AL92" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="AM92" s="155" t="s">
+      <c r="AM92" s="154" t="s">
         <v>280</v>
       </c>
-      <c r="AN92" s="161" t="s">
+      <c r="AN92" s="157" t="s">
         <v>12</v>
       </c>
       <c r="AO92" s="40" t="s">
@@ -4212,17 +4257,17 @@
       <c r="AS92" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT92" s="155" t="s">
+      <c r="AT92" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="AU92" s="158" t="s">
+      <c r="AU92" s="151" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL93" s="156"/>
-      <c r="AM93" s="156"/>
-      <c r="AN93" s="162"/>
+      <c r="AL93" s="155"/>
+      <c r="AM93" s="155"/>
+      <c r="AN93" s="158"/>
       <c r="AO93" s="1" t="s">
         <v>68</v>
       </c>
@@ -4238,13 +4283,13 @@
       <c r="AS93" s="58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT93" s="156"/>
-      <c r="AU93" s="159"/>
+      <c r="AT93" s="155"/>
+      <c r="AU93" s="152"/>
     </row>
     <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL94" s="156"/>
-      <c r="AM94" s="156"/>
-      <c r="AN94" s="162"/>
+      <c r="AL94" s="155"/>
+      <c r="AM94" s="155"/>
+      <c r="AN94" s="158"/>
       <c r="AO94" s="1" t="s">
         <v>286</v>
       </c>
@@ -4260,15 +4305,15 @@
       <c r="AS94" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT94" s="156"/>
-      <c r="AU94" s="159"/>
+      <c r="AT94" s="155"/>
+      <c r="AU94" s="152"/>
     </row>
     <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL95" s="156"/>
-      <c r="AM95" s="159" t="s">
+      <c r="AL95" s="155"/>
+      <c r="AM95" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="AN95" s="162" t="s">
+      <c r="AN95" s="158" t="s">
         <v>17</v>
       </c>
       <c r="AO95" t="s">
@@ -4286,17 +4331,17 @@
       <c r="AS95" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="AT95" s="156" t="s">
+      <c r="AT95" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="AU95" s="159" t="s">
+      <c r="AU95" s="152" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL96" s="156"/>
-      <c r="AM96" s="159"/>
-      <c r="AN96" s="162"/>
+      <c r="AL96" s="155"/>
+      <c r="AM96" s="152"/>
+      <c r="AN96" s="158"/>
       <c r="AO96" s="1" t="s">
         <v>68</v>
       </c>
@@ -4312,13 +4357,13 @@
       <c r="AS96" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT96" s="156"/>
-      <c r="AU96" s="159"/>
+      <c r="AT96" s="155"/>
+      <c r="AU96" s="152"/>
     </row>
     <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL97" s="157"/>
-      <c r="AM97" s="160"/>
-      <c r="AN97" s="154"/>
+      <c r="AL97" s="156"/>
+      <c r="AM97" s="153"/>
+      <c r="AN97" s="159"/>
       <c r="AO97" s="13" t="s">
         <v>286</v>
       </c>
@@ -4334,17 +4379,17 @@
       <c r="AS97" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT97" s="157"/>
-      <c r="AU97" s="160"/>
+      <c r="AT97" s="156"/>
+      <c r="AU97" s="153"/>
     </row>
     <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL98" s="155" t="s">
+      <c r="AL98" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="AM98" s="158" t="s">
+      <c r="AM98" s="151" t="s">
         <v>279</v>
       </c>
-      <c r="AN98" s="161" t="s">
+      <c r="AN98" s="157" t="s">
         <v>13</v>
       </c>
       <c r="AO98" s="60" t="s">
@@ -4362,17 +4407,17 @@
       <c r="AS98" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT98" s="155" t="s">
+      <c r="AT98" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="AU98" s="158" t="s">
+      <c r="AU98" s="151" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL99" s="156"/>
-      <c r="AM99" s="159"/>
-      <c r="AN99" s="162"/>
+      <c r="AL99" s="155"/>
+      <c r="AM99" s="152"/>
+      <c r="AN99" s="158"/>
       <c r="AO99" s="1" t="s">
         <v>68</v>
       </c>
@@ -4388,13 +4433,13 @@
       <c r="AS99" s="58">
         <v>0.04</v>
       </c>
-      <c r="AT99" s="156"/>
-      <c r="AU99" s="159"/>
+      <c r="AT99" s="155"/>
+      <c r="AU99" s="152"/>
     </row>
     <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL100" s="157"/>
-      <c r="AM100" s="160"/>
-      <c r="AN100" s="154"/>
+      <c r="AL100" s="156"/>
+      <c r="AM100" s="153"/>
+      <c r="AN100" s="159"/>
       <c r="AO100" s="13" t="s">
         <v>286</v>
       </c>
@@ -4410,28 +4455,11 @@
       <c r="AS100" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT100" s="157"/>
-      <c r="AU100" s="160"/>
+      <c r="AT100" s="156"/>
+      <c r="AU100" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AM98:AM100"/>
-    <mergeCell ref="AL98:AL100"/>
-    <mergeCell ref="AL92:AL97"/>
-    <mergeCell ref="AM92:AM94"/>
-    <mergeCell ref="AM95:AM97"/>
-    <mergeCell ref="AU95:AU97"/>
-    <mergeCell ref="AT95:AT97"/>
-    <mergeCell ref="AT98:AT100"/>
-    <mergeCell ref="AU98:AU100"/>
-    <mergeCell ref="AN98:AN100"/>
-    <mergeCell ref="AN95:AN97"/>
-    <mergeCell ref="Y59:Y66"/>
-    <mergeCell ref="AC52:AC58"/>
-    <mergeCell ref="AC59:AC66"/>
-    <mergeCell ref="AT92:AT94"/>
-    <mergeCell ref="AU92:AU94"/>
-    <mergeCell ref="AN92:AN94"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="M31:Q31"/>
     <mergeCell ref="M32:M33"/>
@@ -4448,6 +4476,23 @@
     <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="Y46:Y51"/>
     <mergeCell ref="Y52:Y58"/>
+    <mergeCell ref="Y59:Y66"/>
+    <mergeCell ref="AC52:AC58"/>
+    <mergeCell ref="AC59:AC66"/>
+    <mergeCell ref="AT92:AT94"/>
+    <mergeCell ref="AU92:AU94"/>
+    <mergeCell ref="AN92:AN94"/>
+    <mergeCell ref="AU95:AU97"/>
+    <mergeCell ref="AT95:AT97"/>
+    <mergeCell ref="AT98:AT100"/>
+    <mergeCell ref="AU98:AU100"/>
+    <mergeCell ref="AN98:AN100"/>
+    <mergeCell ref="AN95:AN97"/>
+    <mergeCell ref="AM98:AM100"/>
+    <mergeCell ref="AL98:AL100"/>
+    <mergeCell ref="AL92:AL97"/>
+    <mergeCell ref="AM92:AM94"/>
+    <mergeCell ref="AM95:AM97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5433,10 +5478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C301AE6-CC50-864C-827E-D25EEF6A22D3}">
-  <dimension ref="A2:AN151"/>
+  <dimension ref="A2:AN173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7366,377 +7411,385 @@
       <c r="M72" s="120"/>
       <c r="N72" s="121"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B73" s="122" t="s">
+    <row r="73" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B73" s="127"/>
+      <c r="C73" s="183" t="s">
+        <v>448</v>
+      </c>
+      <c r="D73" s="120"/>
+      <c r="E73" s="120"/>
+      <c r="F73" s="120"/>
+      <c r="G73" s="120"/>
+      <c r="H73" s="120"/>
+      <c r="I73" s="120"/>
+      <c r="J73" s="120"/>
+      <c r="K73" s="120"/>
+      <c r="L73" s="120"/>
+      <c r="M73" s="120"/>
+      <c r="N73" s="108"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B74" s="127"/>
+      <c r="C74" s="180" t="s">
+        <v>370</v>
+      </c>
+      <c r="D74" s="120">
+        <v>-1.4060699999999999</v>
+      </c>
+      <c r="E74" s="120">
+        <v>0.11106000000000001</v>
+      </c>
+      <c r="F74" s="120">
+        <v>358.00984999999997</v>
+      </c>
+      <c r="G74" s="120">
+        <v>-12.661</v>
+      </c>
+      <c r="H74" s="120" t="s">
+        <v>375</v>
+      </c>
+      <c r="I74" s="120">
+        <v>5213.7150000000001</v>
+      </c>
+      <c r="J74" s="120">
+        <v>5213.7439999999997</v>
+      </c>
+      <c r="K74" s="120">
+        <v>0.626</v>
+      </c>
+      <c r="L74" s="120">
+        <v>0.193</v>
+      </c>
+      <c r="M74" s="120">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="N74" s="108"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B75" s="127"/>
+      <c r="C75" s="180" t="s">
+        <v>328</v>
+      </c>
+      <c r="D75" s="120">
+        <v>0.43813000000000002</v>
+      </c>
+      <c r="E75" s="120">
+        <v>2.0969999999999999E-2</v>
+      </c>
+      <c r="F75" s="120">
+        <v>3731.8012699999999</v>
+      </c>
+      <c r="G75" s="120">
+        <v>20.898</v>
+      </c>
+      <c r="H75" s="120" t="s">
+        <v>375</v>
+      </c>
+      <c r="I75" s="120"/>
+      <c r="J75" s="120"/>
+      <c r="K75" s="120"/>
+      <c r="L75" s="120"/>
+      <c r="M75" s="120"/>
+      <c r="N75" s="108"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B76" s="127"/>
+      <c r="C76" s="181" t="s">
+        <v>335</v>
+      </c>
+      <c r="D76" s="120">
+        <v>-9.4210000000000002E-2</v>
+      </c>
+      <c r="E76" s="120">
+        <v>6.8459999999999993E-2</v>
+      </c>
+      <c r="F76" s="120">
+        <v>56.609220000000001</v>
+      </c>
+      <c r="G76" s="120">
+        <v>-1.3759999999999999</v>
+      </c>
+      <c r="H76" s="120">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I76" s="120"/>
+      <c r="J76" s="120"/>
+      <c r="K76" s="120"/>
+      <c r="L76" s="120"/>
+      <c r="M76" s="120"/>
+      <c r="N76" s="108"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B77" s="127"/>
+      <c r="C77" s="181" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="120">
+        <v>0.30337999999999998</v>
+      </c>
+      <c r="E77" s="120">
+        <v>1.4710000000000001E-2</v>
+      </c>
+      <c r="F77" s="120">
+        <v>3755.6698200000001</v>
+      </c>
+      <c r="G77" s="120">
+        <v>20.62</v>
+      </c>
+      <c r="H77" s="120" t="s">
+        <v>375</v>
+      </c>
+      <c r="I77" s="120"/>
+      <c r="J77" s="120"/>
+      <c r="K77" s="120"/>
+      <c r="L77" s="120"/>
+      <c r="M77" s="120"/>
+      <c r="N77" s="108"/>
+    </row>
+    <row r="78" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B78" s="127"/>
+      <c r="C78" s="181" t="s">
+        <v>372</v>
+      </c>
+      <c r="D78" s="120">
+        <v>0.27356000000000003</v>
+      </c>
+      <c r="E78" s="120">
+        <v>2.427E-2</v>
+      </c>
+      <c r="F78" s="120">
+        <v>3732.9315700000002</v>
+      </c>
+      <c r="G78" s="120">
+        <v>11.273</v>
+      </c>
+      <c r="H78" s="120" t="s">
+        <v>375</v>
+      </c>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="108"/>
+    </row>
+    <row r="79" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B79" s="127"/>
+      <c r="C79" s="182" t="s">
+        <v>449</v>
+      </c>
+      <c r="D79" s="120"/>
+      <c r="E79" s="120"/>
+      <c r="F79" s="120"/>
+      <c r="G79" s="120"/>
+      <c r="H79" s="120"/>
+      <c r="I79" s="120"/>
+      <c r="J79" s="120"/>
+      <c r="K79" s="120"/>
+      <c r="L79" s="120"/>
+      <c r="M79" s="120"/>
+      <c r="N79" s="108"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B80" s="127"/>
+      <c r="C80" s="181" t="s">
+        <v>370</v>
+      </c>
+      <c r="D80" s="120">
+        <v>-0.95282999999999995</v>
+      </c>
+      <c r="E80" s="120">
+        <v>0.30314000000000002</v>
+      </c>
+      <c r="F80" s="120">
+        <v>339.45970999999997</v>
+      </c>
+      <c r="G80" s="120">
+        <v>-3.1429999999999998</v>
+      </c>
+      <c r="H80" s="120">
+        <v>1.82E-3</v>
+      </c>
+      <c r="I80" s="120">
+        <v>12188.351000000001</v>
+      </c>
+      <c r="J80" s="120">
+        <v>12188.380999999999</v>
+      </c>
+      <c r="K80" s="120">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="L80" s="120">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="M80" s="120">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="N80" s="108"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B81" s="127"/>
+      <c r="C81" s="181" t="s">
+        <v>328</v>
+      </c>
+      <c r="D81" s="120">
+        <v>0.77410999999999996</v>
+      </c>
+      <c r="E81" s="120">
+        <v>5.6050000000000003E-2</v>
+      </c>
+      <c r="F81" s="120">
+        <v>3635.1842000000001</v>
+      </c>
+      <c r="G81" s="120">
+        <v>13.811999999999999</v>
+      </c>
+      <c r="H81" s="120" t="s">
+        <v>371</v>
+      </c>
+      <c r="I81" s="120"/>
+      <c r="J81" s="120"/>
+      <c r="K81" s="120"/>
+      <c r="L81" s="120"/>
+      <c r="M81" s="120"/>
+      <c r="N81" s="108"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B82" s="127"/>
+      <c r="C82" s="181" t="s">
+        <v>335</v>
+      </c>
+      <c r="D82" s="120">
+        <v>-0.25259999999999999</v>
+      </c>
+      <c r="E82" s="120">
+        <v>0.19047</v>
+      </c>
+      <c r="F82" s="120">
+        <v>55.28875</v>
+      </c>
+      <c r="G82" s="120">
+        <v>-1.3260000000000001</v>
+      </c>
+      <c r="H82" s="120">
+        <v>0.19020999999999999</v>
+      </c>
+      <c r="I82" s="120"/>
+      <c r="J82" s="120"/>
+      <c r="K82" s="120"/>
+      <c r="L82" s="120"/>
+      <c r="M82" s="120"/>
+      <c r="N82" s="108"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B83" s="127"/>
+      <c r="C83" s="139" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="120">
+        <v>0.49680999999999997</v>
+      </c>
+      <c r="E83" s="120">
+        <v>3.9949999999999999E-2</v>
+      </c>
+      <c r="F83" s="120">
+        <v>3660.3607999999999</v>
+      </c>
+      <c r="G83" s="120">
+        <v>12.435</v>
+      </c>
+      <c r="H83" s="120" t="s">
+        <v>371</v>
+      </c>
+      <c r="I83" s="120"/>
+      <c r="J83" s="120"/>
+      <c r="K83" s="120"/>
+      <c r="L83" s="120"/>
+      <c r="M83" s="120"/>
+      <c r="N83" s="108"/>
+    </row>
+    <row r="84" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B84" s="127"/>
+      <c r="C84" s="139" t="s">
+        <v>372</v>
+      </c>
+      <c r="D84" s="120">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="E84" s="120">
+        <v>6.7610000000000003E-2</v>
+      </c>
+      <c r="F84" s="120">
+        <v>3639.3596600000001</v>
+      </c>
+      <c r="G84" s="120">
+        <v>9.7040000000000006</v>
+      </c>
+      <c r="H84" s="120" t="s">
+        <v>371</v>
+      </c>
+      <c r="I84" s="120"/>
+      <c r="J84" s="120"/>
+      <c r="K84" s="120"/>
+      <c r="L84" s="120"/>
+      <c r="M84" s="120"/>
+      <c r="N84" s="108"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B85" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="98" t="s">
+      <c r="C85" s="98" t="s">
         <v>327</v>
       </c>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="99"/>
-      <c r="J73" s="99"/>
-      <c r="K73" s="99"/>
-      <c r="L73" s="99"/>
-      <c r="M73" s="99"/>
-      <c r="N73" s="101"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B74" s="123"/>
-      <c r="C74" s="34" t="s">
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
+      <c r="G85" s="99"/>
+      <c r="H85" s="99"/>
+      <c r="I85" s="99"/>
+      <c r="J85" s="99"/>
+      <c r="K85" s="99"/>
+      <c r="L85" s="99"/>
+      <c r="M85" s="99"/>
+      <c r="N85" s="101"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B86" s="123"/>
+      <c r="C86" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="D74" s="34">
+      <c r="D86" s="34">
         <v>0.63368000000000002</v>
       </c>
-      <c r="E74" s="34">
+      <c r="E86" s="34">
         <v>0.34806999999999999</v>
       </c>
-      <c r="F74" s="34">
+      <c r="F86" s="34">
         <v>161.06738000000001</v>
       </c>
-      <c r="G74" s="34">
+      <c r="G86" s="34">
         <v>1.821</v>
       </c>
-      <c r="H74" s="34">
+      <c r="H86" s="34">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="I74" s="34">
+      <c r="I86" s="34">
         <v>1325.019</v>
       </c>
-      <c r="J74" s="34">
+      <c r="J86" s="34">
         <v>1325.18</v>
       </c>
-      <c r="K74" s="34">
+      <c r="K86" s="34">
         <v>0.64200000000000002</v>
       </c>
-      <c r="L74" s="34">
+      <c r="L86" s="34">
         <v>0.188</v>
       </c>
-      <c r="M74" s="34">
+      <c r="M86" s="34">
         <v>0.57899999999999996</v>
       </c>
-      <c r="N74" s="108"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B75" s="123"/>
-      <c r="C75" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="D75" s="34">
-        <v>0.85819999999999996</v>
-      </c>
-      <c r="E75" s="34">
-        <v>5.9909999999999998E-2</v>
-      </c>
-      <c r="F75" s="34">
-        <v>699.99406999999997</v>
-      </c>
-      <c r="G75" s="34">
-        <v>14.324999999999999</v>
-      </c>
-      <c r="H75" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="108"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B76" s="123"/>
-      <c r="C76" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="D76" s="34">
-        <v>-3.8449999999999998E-2</v>
-      </c>
-      <c r="E76" s="34">
-        <v>0.19162000000000001</v>
-      </c>
-      <c r="F76" s="34">
-        <v>14.721679999999999</v>
-      </c>
-      <c r="G76" s="34">
-        <v>-0.20100000000000001</v>
-      </c>
-      <c r="H76" s="34">
-        <v>0.84370000000000001</v>
-      </c>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="108"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B77" s="123"/>
-      <c r="C77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="34">
-        <v>-0.11937</v>
-      </c>
-      <c r="E77" s="34">
-        <v>4.9979999999999997E-2</v>
-      </c>
-      <c r="F77" s="34">
-        <v>702.06358999999998</v>
-      </c>
-      <c r="G77" s="34">
-        <v>-2.3879999999999999</v>
-      </c>
-      <c r="H77" s="34">
-        <v>1.72E-2</v>
-      </c>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="108"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B78" s="123"/>
-      <c r="C78" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="D78" s="34">
-        <v>0.28866000000000003</v>
-      </c>
-      <c r="E78" s="34">
-        <v>6.6379999999999995E-2</v>
-      </c>
-      <c r="F78" s="34">
-        <v>702.94601999999998</v>
-      </c>
-      <c r="G78" s="34">
-        <v>4.3490000000000002</v>
-      </c>
-      <c r="H78" s="34">
-        <v>1.5699999999999999E-5</v>
-      </c>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="108"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B79" s="123"/>
-      <c r="C79" s="124" t="s">
-        <v>330</v>
-      </c>
-      <c r="D79" s="125"/>
-      <c r="E79" s="125"/>
-      <c r="F79" s="125"/>
-      <c r="G79" s="125"/>
-      <c r="H79" s="125"/>
-      <c r="I79" s="125"/>
-      <c r="J79" s="125"/>
-      <c r="K79" s="125"/>
-      <c r="L79" s="125"/>
-      <c r="M79" s="125"/>
-      <c r="N79" s="126"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B80" s="123"/>
-      <c r="C80" s="34" t="s">
-        <v>443</v>
-      </c>
-      <c r="D80" s="34">
-        <v>1.40262</v>
-      </c>
-      <c r="E80" s="34">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="F80" s="34">
-        <v>131.33672999999999</v>
-      </c>
-      <c r="G80" s="34">
-        <v>4.8529999999999998</v>
-      </c>
-      <c r="H80" s="34">
-        <v>3.3900000000000002E-6</v>
-      </c>
-      <c r="I80" s="34">
-        <v>1297.742</v>
-      </c>
-      <c r="J80" s="34">
-        <v>1297.8910000000001</v>
-      </c>
-      <c r="K80" s="34">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="L80" s="34">
-        <v>0.186</v>
-      </c>
-      <c r="M80" s="34">
-        <v>0.53</v>
-      </c>
-      <c r="N80" s="108"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="123"/>
-      <c r="C81" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="D81" s="34">
-        <v>0.81030000000000002</v>
-      </c>
-      <c r="E81" s="34">
-        <v>5.212E-2</v>
-      </c>
-      <c r="F81" s="34">
-        <v>759.31569999999999</v>
-      </c>
-      <c r="G81" s="34">
-        <v>15.545999999999999</v>
-      </c>
-      <c r="H81" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34"/>
-      <c r="N81" s="108"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B82" s="123"/>
-      <c r="C82" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="D82" s="34">
-        <v>-0.10468</v>
-      </c>
-      <c r="E82" s="34">
-        <v>0.16381000000000001</v>
-      </c>
-      <c r="F82" s="34">
-        <v>15.546620000000001</v>
-      </c>
-      <c r="G82" s="34">
-        <v>-0.63900000000000001</v>
-      </c>
-      <c r="H82" s="34">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="34"/>
-      <c r="N82" s="108"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B83" s="123"/>
-      <c r="C83" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D83" s="34">
-        <v>-0.22817999999999999</v>
-      </c>
-      <c r="E83" s="34">
-        <v>3.9480000000000001E-2</v>
-      </c>
-      <c r="F83" s="34">
-        <v>757.23148000000003</v>
-      </c>
-      <c r="G83" s="34">
-        <v>-5.78</v>
-      </c>
-      <c r="H83" s="34">
-        <v>1.09E-8</v>
-      </c>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="34"/>
-      <c r="N83" s="108"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B84" s="123"/>
-      <c r="C84" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="D84" s="34">
-        <v>0.28749999999999998</v>
-      </c>
-      <c r="E84" s="34">
-        <v>5.9369999999999999E-2</v>
-      </c>
-      <c r="F84" s="34">
-        <v>759.23428999999999</v>
-      </c>
-      <c r="G84" s="34">
-        <v>4.8419999999999996</v>
-      </c>
-      <c r="H84" s="34">
-        <v>1.5600000000000001E-6</v>
-      </c>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="108"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B85" s="123"/>
-      <c r="C85" s="113" t="s">
-        <v>332</v>
-      </c>
-      <c r="D85" s="114"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
-      <c r="G85" s="114"/>
-      <c r="H85" s="114"/>
-      <c r="I85" s="114"/>
-      <c r="J85" s="114"/>
-      <c r="K85" s="114"/>
-      <c r="L85" s="114"/>
-      <c r="M85" s="114"/>
-      <c r="N85" s="115"/>
-    </row>
-    <row r="86" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B86" s="127"/>
-      <c r="C86" s="128" t="s">
-        <v>370</v>
-      </c>
-      <c r="D86" s="129">
-        <v>0.63368000000000002</v>
-      </c>
-      <c r="E86" s="129">
-        <v>0.34806999999999999</v>
-      </c>
-      <c r="F86" s="129">
-        <v>161.06738000000001</v>
-      </c>
-      <c r="G86" s="129">
-        <v>1.821</v>
-      </c>
-      <c r="H86" s="129">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="I86" s="129" t="s">
-        <v>381</v>
-      </c>
-      <c r="J86" s="129"/>
-      <c r="K86" s="129"/>
-      <c r="L86" s="129"/>
-      <c r="M86" s="129"/>
-      <c r="N86" s="130"/>
+      <c r="N86" s="108"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="123"/>
@@ -7758,21 +7811,11 @@
       <c r="H87" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="I87" s="34">
-        <v>1325.019</v>
-      </c>
-      <c r="J87" s="34">
-        <v>1325.18</v>
-      </c>
-      <c r="K87" s="34">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="L87" s="34">
-        <v>0.188</v>
-      </c>
-      <c r="M87" s="34">
-        <v>0.57899999999999996</v>
-      </c>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
       <c r="N87" s="108"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
@@ -7830,7 +7873,7 @@
       <c r="N89" s="108"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B90" s="131"/>
+      <c r="B90" s="123"/>
       <c r="C90" s="34" t="s">
         <v>372</v>
       </c>
@@ -7857,77 +7900,75 @@
       <c r="N90" s="108"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B91" s="132" t="s">
-        <v>333</v>
-      </c>
-      <c r="C91" s="133" t="s">
+      <c r="B91" s="127"/>
+      <c r="C91" s="124" t="s">
         <v>330</v>
       </c>
-      <c r="D91" s="134"/>
-      <c r="E91" s="134"/>
-      <c r="F91" s="134"/>
-      <c r="G91" s="134"/>
-      <c r="H91" s="134"/>
-      <c r="I91" s="134"/>
-      <c r="J91" s="134"/>
-      <c r="K91" s="134"/>
-      <c r="L91" s="134"/>
-      <c r="M91" s="134"/>
-      <c r="N91" s="135"/>
+      <c r="D91" s="125"/>
+      <c r="E91" s="125"/>
+      <c r="F91" s="125"/>
+      <c r="G91" s="125"/>
+      <c r="H91" s="125"/>
+      <c r="I91" s="125"/>
+      <c r="J91" s="125"/>
+      <c r="K91" s="125"/>
+      <c r="L91" s="125"/>
+      <c r="M91" s="125"/>
+      <c r="N91" s="126"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="127"/>
-      <c r="C92" s="117" t="s">
-        <v>370</v>
+      <c r="C92" s="34" t="s">
+        <v>443</v>
       </c>
       <c r="D92" s="34">
-        <v>1.3440000000000001E-2</v>
+        <v>1.40262</v>
       </c>
       <c r="E92" s="34">
-        <v>0.19328000000000001</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="F92" s="34">
-        <v>316.88589000000002</v>
+        <v>131.33672999999999</v>
       </c>
       <c r="G92" s="34">
-        <v>7.0000000000000007E-2</v>
+        <v>4.8529999999999998</v>
       </c>
       <c r="H92" s="34">
-        <v>0.94461399999999995</v>
+        <v>3.3900000000000002E-6</v>
       </c>
       <c r="I92" s="34">
-        <v>2342.4589999999998</v>
+        <v>1297.742</v>
       </c>
       <c r="J92" s="34">
-        <v>2342.5459999999998</v>
+        <v>1297.8910000000001</v>
       </c>
       <c r="K92" s="34">
-        <v>0.56100000000000005</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="L92" s="34">
-        <v>0.41099999999999998</v>
+        <v>0.186</v>
       </c>
       <c r="M92" s="34">
-        <v>0.57599999999999996</v>
+        <v>0.53</v>
       </c>
       <c r="N92" s="108"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="127"/>
-      <c r="C93" s="117" t="s">
+      <c r="C93" s="34" t="s">
         <v>328</v>
       </c>
       <c r="D93" s="34">
-        <v>0.87324999999999997</v>
+        <v>0.81030000000000002</v>
       </c>
       <c r="E93" s="34">
-        <v>4.367E-2</v>
+        <v>5.212E-2</v>
       </c>
       <c r="F93" s="34">
-        <v>1283.91732</v>
+        <v>759.31569999999999</v>
       </c>
       <c r="G93" s="34">
-        <v>19.998000000000001</v>
+        <v>15.545999999999999</v>
       </c>
       <c r="H93" s="34" t="s">
         <v>371</v>
@@ -7941,23 +7982,23 @@
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="127"/>
-      <c r="C94" s="117" t="s">
+      <c r="C94" s="34" t="s">
         <v>335</v>
       </c>
       <c r="D94" s="34">
-        <v>-0.39752999999999999</v>
+        <v>-0.10468</v>
       </c>
       <c r="E94" s="34">
-        <v>9.3759999999999996E-2</v>
+        <v>0.16381000000000001</v>
       </c>
       <c r="F94" s="34">
-        <v>16.210660000000001</v>
+        <v>15.546620000000001</v>
       </c>
       <c r="G94" s="34">
-        <v>-4.24</v>
+        <v>-0.63900000000000001</v>
       </c>
       <c r="H94" s="34">
-        <v>6.0800000000000003E-4</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="I94" s="34"/>
       <c r="J94" s="34"/>
@@ -7968,23 +8009,23 @@
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="127"/>
-      <c r="C95" s="117" t="s">
+      <c r="C95" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D95" s="34">
-        <v>0.11496000000000001</v>
+        <v>-0.22817999999999999</v>
       </c>
       <c r="E95" s="34">
-        <v>2.9350000000000001E-2</v>
+        <v>3.9480000000000001E-2</v>
       </c>
       <c r="F95" s="34">
-        <v>1283.96469</v>
+        <v>757.23148000000003</v>
       </c>
       <c r="G95" s="34">
-        <v>3.9169999999999998</v>
+        <v>-5.78</v>
       </c>
       <c r="H95" s="34">
-        <v>9.4199999999999999E-5</v>
+        <v>1.09E-8</v>
       </c>
       <c r="I95" s="34"/>
       <c r="J95" s="34"/>
@@ -7995,23 +8036,23 @@
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="127"/>
-      <c r="C96" s="117" t="s">
+      <c r="C96" s="34" t="s">
         <v>372</v>
       </c>
       <c r="D96" s="34">
-        <v>-0.13475999999999999</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="E96" s="34">
-        <v>4.2979999999999997E-2</v>
+        <v>5.9369999999999999E-2</v>
       </c>
       <c r="F96" s="34">
-        <v>1279.3300300000001</v>
+        <v>759.23428999999999</v>
       </c>
       <c r="G96" s="34">
-        <v>-3.1349999999999998</v>
+        <v>4.8419999999999996</v>
       </c>
       <c r="H96" s="34">
-        <v>1.755E-3</v>
+        <v>1.5600000000000001E-6</v>
       </c>
       <c r="I96" s="34"/>
       <c r="J96" s="34"/>
@@ -8022,57 +8063,49 @@
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="127"/>
-      <c r="C97" s="136" t="s">
+      <c r="C97" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="D97" s="134"/>
-      <c r="E97" s="134"/>
-      <c r="F97" s="134"/>
-      <c r="G97" s="134"/>
-      <c r="H97" s="134"/>
-      <c r="I97" s="134"/>
-      <c r="J97" s="134"/>
-      <c r="K97" s="134"/>
-      <c r="L97" s="134"/>
-      <c r="M97" s="134"/>
-      <c r="N97" s="135"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D97" s="114"/>
+      <c r="E97" s="114"/>
+      <c r="F97" s="114"/>
+      <c r="G97" s="114"/>
+      <c r="H97" s="114"/>
+      <c r="I97" s="114"/>
+      <c r="J97" s="114"/>
+      <c r="K97" s="114"/>
+      <c r="L97" s="114"/>
+      <c r="M97" s="114"/>
+      <c r="N97" s="115"/>
+    </row>
+    <row r="98" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B98" s="127"/>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="128" t="s">
         <v>370</v>
       </c>
-      <c r="D98" s="34">
-        <v>1.3440000000000001E-2</v>
-      </c>
-      <c r="E98" s="34">
-        <v>0.19328000000000001</v>
-      </c>
-      <c r="F98" s="34">
-        <v>316.88589000000002</v>
-      </c>
-      <c r="G98" s="34">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H98" s="34">
-        <v>0.94461399999999995</v>
-      </c>
-      <c r="I98" s="34">
-        <v>2342.4589999999998</v>
-      </c>
-      <c r="J98" s="34">
-        <v>2342.5459999999998</v>
-      </c>
-      <c r="K98" s="34">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="L98" s="34">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="M98" s="34">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="N98" s="108"/>
+      <c r="D98" s="129">
+        <v>0.63368000000000002</v>
+      </c>
+      <c r="E98" s="129">
+        <v>0.34806999999999999</v>
+      </c>
+      <c r="F98" s="129">
+        <v>161.06738000000001</v>
+      </c>
+      <c r="G98" s="129">
+        <v>1.821</v>
+      </c>
+      <c r="H98" s="129">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="I98" s="129" t="s">
+        <v>381</v>
+      </c>
+      <c r="J98" s="129"/>
+      <c r="K98" s="129"/>
+      <c r="L98" s="129"/>
+      <c r="M98" s="129"/>
+      <c r="N98" s="130"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="127"/>
@@ -8080,25 +8113,35 @@
         <v>328</v>
       </c>
       <c r="D99" s="34">
-        <v>0.87324999999999997</v>
+        <v>0.85819999999999996</v>
       </c>
       <c r="E99" s="34">
-        <v>4.367E-2</v>
+        <v>5.9909999999999998E-2</v>
       </c>
       <c r="F99" s="34">
-        <v>1283.91732</v>
+        <v>699.99406999999997</v>
       </c>
       <c r="G99" s="34">
-        <v>19.998000000000001</v>
+        <v>14.324999999999999</v>
       </c>
       <c r="H99" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="34"/>
-      <c r="M99" s="34"/>
+      <c r="I99" s="34">
+        <v>1325.019</v>
+      </c>
+      <c r="J99" s="34">
+        <v>1325.18</v>
+      </c>
+      <c r="K99" s="34">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="L99" s="34">
+        <v>0.188</v>
+      </c>
+      <c r="M99" s="34">
+        <v>0.57899999999999996</v>
+      </c>
       <c r="N99" s="108"/>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.2">
@@ -8107,19 +8150,19 @@
         <v>335</v>
       </c>
       <c r="D100" s="34">
-        <v>-0.39752999999999999</v>
+        <v>-3.8449999999999998E-2</v>
       </c>
       <c r="E100" s="34">
-        <v>9.3759999999999996E-2</v>
+        <v>0.19162000000000001</v>
       </c>
       <c r="F100" s="34">
-        <v>16.210660000000001</v>
+        <v>14.721679999999999</v>
       </c>
       <c r="G100" s="34">
-        <v>-4.24</v>
+        <v>-0.20100000000000001</v>
       </c>
       <c r="H100" s="34">
-        <v>6.0800000000000003E-4</v>
+        <v>0.84370000000000001</v>
       </c>
       <c r="I100" s="34"/>
       <c r="J100" s="34"/>
@@ -8134,19 +8177,19 @@
         <v>32</v>
       </c>
       <c r="D101" s="34">
-        <v>0.11496000000000001</v>
+        <v>-0.11937</v>
       </c>
       <c r="E101" s="34">
-        <v>2.9350000000000001E-2</v>
+        <v>4.9979999999999997E-2</v>
       </c>
       <c r="F101" s="34">
-        <v>1283.96469</v>
+        <v>702.06358999999998</v>
       </c>
       <c r="G101" s="34">
-        <v>3.9169999999999998</v>
+        <v>-2.3879999999999999</v>
       </c>
       <c r="H101" s="34">
-        <v>9.4199999999999999E-5</v>
+        <v>1.72E-2</v>
       </c>
       <c r="I101" s="34"/>
       <c r="J101" s="34"/>
@@ -8156,107 +8199,105 @@
       <c r="N101" s="108"/>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B102" s="137"/>
-      <c r="C102" s="120" t="s">
+      <c r="B102" s="127"/>
+      <c r="C102" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="D102" s="120">
-        <v>-0.13475999999999999</v>
-      </c>
-      <c r="E102" s="120">
-        <v>4.2979999999999997E-2</v>
-      </c>
-      <c r="F102" s="120">
-        <v>1279.3300300000001</v>
-      </c>
-      <c r="G102" s="120">
-        <v>-3.1349999999999998</v>
-      </c>
-      <c r="H102" s="120">
-        <v>1.755E-3</v>
-      </c>
-      <c r="I102" s="120"/>
-      <c r="J102" s="120"/>
-      <c r="K102" s="120"/>
-      <c r="L102" s="120"/>
-      <c r="M102" s="120"/>
-      <c r="N102" s="121"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B103" s="138" t="s">
-        <v>334</v>
-      </c>
-      <c r="C103" s="98" t="s">
-        <v>327</v>
-      </c>
-      <c r="D103" s="99"/>
-      <c r="E103" s="99"/>
-      <c r="F103" s="99"/>
-      <c r="G103" s="99"/>
-      <c r="H103" s="99"/>
-      <c r="I103" s="99"/>
-      <c r="J103" s="99"/>
-      <c r="K103" s="99"/>
-      <c r="L103" s="99"/>
-      <c r="M103" s="99"/>
-      <c r="N103" s="101"/>
-    </row>
-    <row r="104" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B104" s="127"/>
+      <c r="D102" s="34">
+        <v>0.28866000000000003</v>
+      </c>
+      <c r="E102" s="34">
+        <v>6.6379999999999995E-2</v>
+      </c>
+      <c r="F102" s="34">
+        <v>702.94601999999998</v>
+      </c>
+      <c r="G102" s="34">
+        <v>4.3490000000000002</v>
+      </c>
+      <c r="H102" s="34">
+        <v>1.5699999999999999E-5</v>
+      </c>
+      <c r="I102" s="34"/>
+      <c r="J102" s="34"/>
+      <c r="K102" s="34"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="34"/>
+      <c r="N102" s="108"/>
+    </row>
+    <row r="103" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B103" s="123"/>
+      <c r="C103" s="183" t="s">
+        <v>448</v>
+      </c>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="108"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B104" s="123"/>
       <c r="C104" s="139" t="s">
         <v>370</v>
       </c>
       <c r="D104" s="34">
-        <v>0.73099999999999998</v>
+        <v>2.7902</v>
       </c>
       <c r="E104" s="34">
-        <v>0.1346</v>
+        <v>0.73360000000000003</v>
       </c>
       <c r="F104" s="34">
-        <v>29.454599999999999</v>
+        <v>147.3098</v>
       </c>
       <c r="G104" s="34">
-        <v>5.43</v>
+        <v>3.8029999999999999</v>
       </c>
       <c r="H104" s="34">
-        <v>7.3100000000000003E-6</v>
+        <v>2.0900000000000001E-4</v>
       </c>
       <c r="I104" s="34">
-        <v>248.357</v>
+        <v>2352.7089999999998</v>
       </c>
       <c r="J104" s="34">
-        <v>248.94499999999999</v>
+        <v>2352.87</v>
       </c>
       <c r="K104" s="34">
-        <v>0.61499999999999999</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="L104" s="34">
-        <v>0.33600000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="M104" s="34">
-        <v>0.55600000000000005</v>
+        <v>1.2070000000000001</v>
       </c>
       <c r="N104" s="108"/>
     </row>
-    <row r="105" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B105" s="127"/>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B105" s="123"/>
       <c r="C105" s="139" t="s">
         <v>328</v>
       </c>
       <c r="D105" s="34">
-        <v>0.79139999999999999</v>
+        <v>1.7905</v>
       </c>
       <c r="E105" s="34">
-        <v>0.1234</v>
+        <v>0.12509999999999999</v>
       </c>
       <c r="F105" s="34">
-        <v>87.846999999999994</v>
+        <v>699.44439999999997</v>
       </c>
       <c r="G105" s="34">
-        <v>6.4139999999999997</v>
-      </c>
-      <c r="H105" s="34">
-        <v>6.9200000000000001E-9</v>
+        <v>14.317</v>
+      </c>
+      <c r="H105" s="34" t="s">
+        <v>371</v>
       </c>
       <c r="I105" s="34"/>
       <c r="J105" s="34"/>
@@ -8265,25 +8306,25 @@
       <c r="M105" s="34"/>
       <c r="N105" s="108"/>
     </row>
-    <row r="106" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B106" s="127"/>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B106" s="123"/>
       <c r="C106" s="139" t="s">
         <v>335</v>
       </c>
       <c r="D106" s="34">
-        <v>-0.45540000000000003</v>
+        <v>-0.51429999999999998</v>
       </c>
       <c r="E106" s="34">
-        <v>0.13400000000000001</v>
+        <v>0.41389999999999999</v>
       </c>
       <c r="F106" s="34">
-        <v>24.351099999999999</v>
+        <v>14.429</v>
       </c>
       <c r="G106" s="34">
-        <v>-3.3969999999999998</v>
+        <v>-1.242</v>
       </c>
       <c r="H106" s="34">
-        <v>2.3400000000000001E-3</v>
+        <v>0.23391500000000001</v>
       </c>
       <c r="I106" s="34"/>
       <c r="J106" s="34"/>
@@ -8293,81 +8334,71 @@
       <c r="N106" s="108"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B107" s="127"/>
-      <c r="C107" s="109" t="s">
-        <v>329</v>
-      </c>
-      <c r="D107" s="110"/>
-      <c r="E107" s="110"/>
-      <c r="F107" s="110"/>
-      <c r="G107" s="110"/>
-      <c r="H107" s="110"/>
-      <c r="I107" s="110"/>
-      <c r="J107" s="110"/>
-      <c r="K107" s="110"/>
-      <c r="L107" s="110"/>
-      <c r="M107" s="110"/>
-      <c r="N107" s="111"/>
+      <c r="B107" s="123"/>
+      <c r="C107" s="139" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="34">
+        <v>-0.29470000000000002</v>
+      </c>
+      <c r="E107" s="34">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="F107" s="34">
+        <v>701.62940000000003</v>
+      </c>
+      <c r="G107" s="34">
+        <v>-2.8239999999999998</v>
+      </c>
+      <c r="H107" s="34">
+        <v>4.8820000000000001E-3</v>
+      </c>
+      <c r="I107" s="34"/>
+      <c r="J107" s="34"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="34"/>
+      <c r="M107" s="34"/>
+      <c r="N107" s="108"/>
     </row>
     <row r="108" spans="2:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="127"/>
-      <c r="C108" s="140" t="s">
-        <v>370</v>
-      </c>
-      <c r="D108" s="112">
-        <v>0.69825000000000004</v>
-      </c>
-      <c r="E108" s="112">
-        <v>0.13172</v>
-      </c>
-      <c r="F108" s="112">
-        <v>23.2364</v>
-      </c>
-      <c r="G108" s="112">
-        <v>5.3010000000000002</v>
-      </c>
-      <c r="H108" s="112">
-        <v>2.1500000000000001E-5</v>
-      </c>
-      <c r="I108" s="112">
-        <v>3390.99</v>
-      </c>
-      <c r="J108" s="112">
-        <v>3391.0320000000002</v>
-      </c>
-      <c r="K108" s="34">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="L108" s="34">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="M108" s="34">
-        <v>0.53200000000000003</v>
-      </c>
+      <c r="B108" s="123"/>
+      <c r="C108" s="139" t="s">
+        <v>372</v>
+      </c>
+      <c r="D108" s="34">
+        <v>1.615</v>
+      </c>
+      <c r="E108" s="34">
+        <v>0.1386</v>
+      </c>
+      <c r="F108" s="34">
+        <v>702.7758</v>
+      </c>
+      <c r="G108" s="34">
+        <v>11.651999999999999</v>
+      </c>
+      <c r="H108" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="34"/>
       <c r="N108" s="108"/>
     </row>
     <row r="109" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="127"/>
-      <c r="C109" s="140" t="s">
-        <v>328</v>
-      </c>
-      <c r="D109" s="112">
-        <v>0.88107000000000002</v>
-      </c>
-      <c r="E109" s="112">
-        <v>2.7009999999999999E-2</v>
-      </c>
-      <c r="F109" s="112">
-        <v>2039.48964</v>
-      </c>
-      <c r="G109" s="112">
-        <v>32.624000000000002</v>
-      </c>
-      <c r="H109" s="112" t="s">
-        <v>371</v>
-      </c>
-      <c r="I109" s="112"/>
-      <c r="J109" s="112"/>
+      <c r="B109" s="123"/>
+      <c r="C109" s="182" t="s">
+        <v>449</v>
+      </c>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
       <c r="K109" s="34"/>
       <c r="L109" s="34"/>
       <c r="M109" s="34"/>
@@ -8375,26 +8406,26 @@
     </row>
     <row r="110" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B110" s="127"/>
-      <c r="C110" s="140" t="s">
-        <v>335</v>
-      </c>
-      <c r="D110" s="112">
-        <v>-0.38419999999999999</v>
-      </c>
-      <c r="E110" s="112">
-        <v>0.13713</v>
-      </c>
-      <c r="F110" s="112">
-        <v>23.426690000000001</v>
-      </c>
-      <c r="G110" s="112">
-        <v>-2.802</v>
-      </c>
-      <c r="H110" s="112">
-        <v>0.01</v>
-      </c>
-      <c r="I110" s="112"/>
-      <c r="J110" s="112"/>
+      <c r="C110" s="139" t="s">
+        <v>370</v>
+      </c>
+      <c r="D110" s="34">
+        <v>2.1065</v>
+      </c>
+      <c r="E110" s="34">
+        <v>0.7288</v>
+      </c>
+      <c r="F110" s="34">
+        <v>141.1592</v>
+      </c>
+      <c r="G110" s="34">
+        <v>2.89</v>
+      </c>
+      <c r="H110" s="34">
+        <v>4.4600000000000004E-3</v>
+      </c>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34"/>
       <c r="K110" s="34"/>
       <c r="L110" s="34"/>
       <c r="M110" s="34"/>
@@ -8402,230 +8433,254 @@
     </row>
     <row r="111" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B111" s="127"/>
-      <c r="C111" s="140" t="s">
-        <v>372</v>
-      </c>
-      <c r="D111" s="112">
-        <v>-0.19671</v>
-      </c>
-      <c r="E111" s="112">
-        <v>3.1109999999999999E-2</v>
-      </c>
-      <c r="F111" s="112">
-        <v>2045.35952</v>
-      </c>
-      <c r="G111" s="112">
-        <v>-6.3230000000000004</v>
-      </c>
-      <c r="H111" s="112">
-        <v>3.14E-10</v>
-      </c>
-      <c r="I111" s="112"/>
-      <c r="J111" s="112"/>
-      <c r="K111" s="34"/>
-      <c r="L111" s="34"/>
-      <c r="M111" s="34"/>
+      <c r="C111" s="139" t="s">
+        <v>328</v>
+      </c>
+      <c r="D111" s="34">
+        <v>1.8064</v>
+      </c>
+      <c r="E111" s="34">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="F111" s="34">
+        <v>681.61419999999998</v>
+      </c>
+      <c r="G111" s="34">
+        <v>14.260999999999999</v>
+      </c>
+      <c r="H111" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="I111" s="34">
+        <v>2298.7080000000001</v>
+      </c>
+      <c r="J111" s="34">
+        <v>2298.9749999999999</v>
+      </c>
+      <c r="K111" s="34">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="L111" s="34">
+        <v>0.377</v>
+      </c>
+      <c r="M111" s="34">
+        <v>1.224</v>
+      </c>
       <c r="N111" s="108"/>
     </row>
     <row r="112" spans="2:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="127"/>
-      <c r="C112" s="140"/>
-      <c r="D112" s="112"/>
-      <c r="E112" s="112"/>
-      <c r="F112" s="112"/>
-      <c r="G112" s="112"/>
-      <c r="H112" s="112"/>
-      <c r="I112" s="112"/>
-      <c r="J112" s="112"/>
+      <c r="B112" s="123"/>
+      <c r="C112" s="139" t="s">
+        <v>335</v>
+      </c>
+      <c r="D112" s="34">
+        <v>-0.27200000000000002</v>
+      </c>
+      <c r="E112" s="34">
+        <v>0.30520000000000003</v>
+      </c>
+      <c r="F112" s="34">
+        <v>13.651899999999999</v>
+      </c>
+      <c r="G112" s="34">
+        <v>-0.89100000000000001</v>
+      </c>
+      <c r="H112" s="34">
+        <v>0.38829999999999998</v>
+      </c>
+      <c r="I112" s="34"/>
+      <c r="J112" s="34"/>
       <c r="K112" s="34"/>
       <c r="L112" s="34"/>
       <c r="M112" s="34"/>
       <c r="N112" s="108"/>
     </row>
     <row r="113" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="127"/>
-      <c r="C113" s="141" t="s">
-        <v>330</v>
-      </c>
-      <c r="D113" s="141"/>
-      <c r="E113" s="141"/>
-      <c r="F113" s="141"/>
-      <c r="G113" s="141"/>
-      <c r="H113" s="141"/>
-      <c r="I113" s="141"/>
-      <c r="J113" s="141"/>
-      <c r="K113" s="142"/>
-      <c r="L113" s="142"/>
-      <c r="M113" s="142"/>
-      <c r="N113" s="143"/>
+      <c r="B113" s="123"/>
+      <c r="C113" s="139" t="s">
+        <v>450</v>
+      </c>
+      <c r="D113" s="34">
+        <v>1.7222999999999999</v>
+      </c>
+      <c r="E113" s="34">
+        <v>0.67379999999999995</v>
+      </c>
+      <c r="F113" s="34">
+        <v>12.7841</v>
+      </c>
+      <c r="G113" s="34">
+        <v>2.556</v>
+      </c>
+      <c r="H113" s="34">
+        <v>2.4160000000000001E-2</v>
+      </c>
+      <c r="I113" s="34"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="34"/>
+      <c r="M113" s="34"/>
+      <c r="N113" s="108"/>
     </row>
     <row r="114" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B114" s="127"/>
-      <c r="C114" s="140" t="s">
-        <v>370</v>
-      </c>
-      <c r="D114" s="112">
-        <v>-0.53754999999999997</v>
-      </c>
-      <c r="E114" s="112">
-        <v>0.33405000000000001</v>
-      </c>
-      <c r="F114" s="112">
-        <v>41.405059999999999</v>
-      </c>
-      <c r="G114" s="112">
-        <v>-1.609</v>
-      </c>
-      <c r="H114" s="112">
-        <v>0.1152</v>
-      </c>
-      <c r="I114" s="112">
-        <v>4222.8729999999996</v>
-      </c>
-      <c r="J114" s="112">
-        <v>4222.942</v>
-      </c>
-      <c r="K114" s="34">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="L114" s="34">
-        <v>0.22</v>
-      </c>
-      <c r="M114" s="34">
-        <v>0.64100000000000001</v>
-      </c>
+      <c r="C114" s="139" t="s">
+        <v>451</v>
+      </c>
+      <c r="D114" s="34">
+        <v>1.6962999999999999</v>
+      </c>
+      <c r="E114" s="34">
+        <v>0.66539999999999999</v>
+      </c>
+      <c r="F114" s="34">
+        <v>12.5114</v>
+      </c>
+      <c r="G114" s="34">
+        <v>2.5489999999999999</v>
+      </c>
+      <c r="H114" s="34">
+        <v>2.4819999999999998E-2</v>
+      </c>
+      <c r="I114" s="34"/>
+      <c r="J114" s="34"/>
+      <c r="K114" s="34"/>
+      <c r="L114" s="34"/>
+      <c r="M114" s="34"/>
       <c r="N114" s="108"/>
     </row>
     <row r="115" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B115" s="127"/>
-      <c r="C115" s="150" t="s">
-        <v>409</v>
-      </c>
-      <c r="D115" s="112">
-        <v>1.75373</v>
-      </c>
-      <c r="E115" s="112">
-        <v>0.42177999999999999</v>
-      </c>
-      <c r="F115" s="112">
-        <v>26.521979999999999</v>
-      </c>
-      <c r="G115" s="112">
-        <v>4.1580000000000004</v>
-      </c>
-      <c r="H115" s="112">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I115" s="112"/>
-      <c r="J115" s="112"/>
+      <c r="B115" s="123"/>
+      <c r="C115" s="139" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="34">
+        <v>-0.2762</v>
+      </c>
+      <c r="E115" s="34">
+        <v>0.105</v>
+      </c>
+      <c r="F115" s="34">
+        <v>680.91240000000005</v>
+      </c>
+      <c r="G115" s="34">
+        <v>-2.6309999999999998</v>
+      </c>
+      <c r="H115" s="34">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="I115" s="34"/>
+      <c r="J115" s="34"/>
       <c r="K115" s="34"/>
       <c r="L115" s="34"/>
       <c r="M115" s="34"/>
       <c r="N115" s="108"/>
     </row>
     <row r="116" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="127"/>
-      <c r="C116" s="140" t="s">
-        <v>32</v>
-      </c>
-      <c r="D116" s="112">
-        <v>0.22725000000000001</v>
-      </c>
-      <c r="E116" s="112">
-        <v>2.9010000000000001E-2</v>
-      </c>
-      <c r="F116" s="112">
-        <v>2089.2865900000002</v>
-      </c>
-      <c r="G116" s="112">
-        <v>7.8339999999999996</v>
-      </c>
-      <c r="H116" s="112">
-        <v>7.4800000000000001E-15</v>
-      </c>
-      <c r="I116" s="112"/>
-      <c r="J116" s="112"/>
+      <c r="B116" s="131"/>
+      <c r="C116" s="139" t="s">
+        <v>372</v>
+      </c>
+      <c r="D116" s="34">
+        <v>1.6345000000000001</v>
+      </c>
+      <c r="E116" s="34">
+        <v>0.14019999999999999</v>
+      </c>
+      <c r="F116" s="34">
+        <v>683.81780000000003</v>
+      </c>
+      <c r="G116" s="34">
+        <v>11.66</v>
+      </c>
+      <c r="H116" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
       <c r="K116" s="34"/>
       <c r="L116" s="34"/>
       <c r="M116" s="34"/>
       <c r="N116" s="108"/>
     </row>
-    <row r="117" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B117" s="127"/>
-      <c r="C117" s="150" t="s">
-        <v>439</v>
-      </c>
-      <c r="D117" s="112">
-        <v>1.9009999999999999E-2</v>
-      </c>
-      <c r="E117" s="112">
-        <v>0.39251999999999998</v>
-      </c>
-      <c r="F117" s="112">
-        <v>25.99879</v>
-      </c>
-      <c r="G117" s="112">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H117" s="112">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="I117" s="112"/>
-      <c r="J117" s="112"/>
-      <c r="K117" s="34"/>
-      <c r="L117" s="34"/>
-      <c r="M117" s="34"/>
-      <c r="N117" s="108"/>
-    </row>
-    <row r="118" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B117" s="132" t="s">
+        <v>333</v>
+      </c>
+      <c r="C117" s="133" t="s">
+        <v>330</v>
+      </c>
+      <c r="D117" s="134"/>
+      <c r="E117" s="134"/>
+      <c r="F117" s="134"/>
+      <c r="G117" s="134"/>
+      <c r="H117" s="134"/>
+      <c r="I117" s="134"/>
+      <c r="J117" s="134"/>
+      <c r="K117" s="134"/>
+      <c r="L117" s="134"/>
+      <c r="M117" s="134"/>
+      <c r="N117" s="135"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B118" s="127"/>
-      <c r="C118" s="150" t="s">
-        <v>440</v>
-      </c>
-      <c r="D118" s="112">
-        <v>-1.66638</v>
-      </c>
-      <c r="E118" s="112">
-        <v>0.35249999999999998</v>
-      </c>
-      <c r="F118" s="112">
-        <v>27.357869999999998</v>
-      </c>
-      <c r="G118" s="112">
-        <v>-4.7270000000000003</v>
-      </c>
-      <c r="H118" s="112">
-        <v>6.1500000000000004E-5</v>
-      </c>
-      <c r="I118" s="112"/>
-      <c r="J118" s="112"/>
-      <c r="K118" s="34"/>
-      <c r="L118" s="34"/>
-      <c r="M118" s="34"/>
+      <c r="C118" s="117" t="s">
+        <v>370</v>
+      </c>
+      <c r="D118" s="34">
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="E118" s="34">
+        <v>0.19328000000000001</v>
+      </c>
+      <c r="F118" s="34">
+        <v>316.88589000000002</v>
+      </c>
+      <c r="G118" s="34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H118" s="34">
+        <v>0.94461399999999995</v>
+      </c>
+      <c r="I118" s="34">
+        <v>2342.4589999999998</v>
+      </c>
+      <c r="J118" s="34">
+        <v>2342.5459999999998</v>
+      </c>
+      <c r="K118" s="34">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="L118" s="34">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="M118" s="34">
+        <v>0.57599999999999996</v>
+      </c>
       <c r="N118" s="108"/>
     </row>
-    <row r="119" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B119" s="127"/>
-      <c r="C119" s="150" t="s">
-        <v>441</v>
-      </c>
-      <c r="D119" s="112">
-        <v>-1.91638</v>
-      </c>
-      <c r="E119" s="112">
-        <v>0.35210999999999998</v>
-      </c>
-      <c r="F119" s="112">
-        <v>27.239059999999998</v>
-      </c>
-      <c r="G119" s="112">
-        <v>-5.4429999999999996</v>
-      </c>
-      <c r="H119" s="112">
-        <v>9.0399999999999998E-6</v>
-      </c>
-      <c r="I119" s="112"/>
-      <c r="J119" s="112"/>
+      <c r="C119" s="117" t="s">
+        <v>328</v>
+      </c>
+      <c r="D119" s="34">
+        <v>0.87324999999999997</v>
+      </c>
+      <c r="E119" s="34">
+        <v>4.367E-2</v>
+      </c>
+      <c r="F119" s="34">
+        <v>1283.91732</v>
+      </c>
+      <c r="G119" s="34">
+        <v>19.998000000000001</v>
+      </c>
+      <c r="H119" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="I119" s="34"/>
+      <c r="J119" s="34"/>
       <c r="K119" s="34"/>
       <c r="L119" s="34"/>
       <c r="M119" s="34"/>
@@ -8633,212 +8688,212 @@
     </row>
     <row r="120" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="127"/>
-      <c r="C120" s="144" t="s">
-        <v>331</v>
-      </c>
-      <c r="D120" s="145"/>
-      <c r="E120" s="145"/>
-      <c r="F120" s="145"/>
-      <c r="G120" s="145"/>
-      <c r="H120" s="145"/>
-      <c r="I120" s="145"/>
-      <c r="J120" s="114"/>
-      <c r="K120" s="114"/>
-      <c r="L120" s="114"/>
-      <c r="M120" s="114"/>
-      <c r="N120" s="115"/>
+      <c r="C120" s="117" t="s">
+        <v>335</v>
+      </c>
+      <c r="D120" s="34">
+        <v>-0.39752999999999999</v>
+      </c>
+      <c r="E120" s="34">
+        <v>9.3759999999999996E-2</v>
+      </c>
+      <c r="F120" s="34">
+        <v>16.210660000000001</v>
+      </c>
+      <c r="G120" s="34">
+        <v>-4.24</v>
+      </c>
+      <c r="H120" s="34">
+        <v>6.0800000000000003E-4</v>
+      </c>
+      <c r="I120" s="34"/>
+      <c r="J120" s="34"/>
+      <c r="K120" s="34"/>
+      <c r="L120" s="34"/>
+      <c r="M120" s="34"/>
+      <c r="N120" s="108"/>
     </row>
     <row r="121" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="127"/>
-      <c r="C121" s="140" t="s">
-        <v>370</v>
-      </c>
-      <c r="D121" s="112">
-        <v>0.69825000000000004</v>
-      </c>
-      <c r="E121" s="112">
-        <v>0.13172</v>
-      </c>
-      <c r="F121" s="112">
-        <v>23.2364</v>
-      </c>
-      <c r="G121" s="112">
-        <v>5.3010000000000002</v>
-      </c>
-      <c r="H121" s="112">
-        <v>2.1500000000000001E-5</v>
-      </c>
-      <c r="I121" s="112">
-        <v>3390.99</v>
-      </c>
-      <c r="J121" s="34">
-        <v>3391.0320000000002</v>
-      </c>
-      <c r="K121" s="34">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="L121" s="34">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="M121" s="34">
-        <v>0.53200000000000003</v>
-      </c>
+      <c r="C121" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" s="34">
+        <v>0.11496000000000001</v>
+      </c>
+      <c r="E121" s="34">
+        <v>2.9350000000000001E-2</v>
+      </c>
+      <c r="F121" s="34">
+        <v>1283.96469</v>
+      </c>
+      <c r="G121" s="34">
+        <v>3.9169999999999998</v>
+      </c>
+      <c r="H121" s="34">
+        <v>9.4199999999999999E-5</v>
+      </c>
+      <c r="I121" s="34"/>
+      <c r="J121" s="34"/>
+      <c r="K121" s="34"/>
+      <c r="L121" s="34"/>
+      <c r="M121" s="34"/>
       <c r="N121" s="108"/>
     </row>
-    <row r="122" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" s="127"/>
-      <c r="C122" s="140" t="s">
-        <v>328</v>
-      </c>
-      <c r="D122" s="112">
-        <v>0.88107000000000002</v>
-      </c>
-      <c r="E122" s="112">
-        <v>2.7009999999999999E-2</v>
-      </c>
-      <c r="F122" s="112">
-        <v>2039.48964</v>
-      </c>
-      <c r="G122" s="112">
-        <v>32.624000000000002</v>
-      </c>
-      <c r="H122" s="112" t="s">
-        <v>371</v>
-      </c>
-      <c r="I122" s="112"/>
+      <c r="C122" s="117" t="s">
+        <v>372</v>
+      </c>
+      <c r="D122" s="34">
+        <v>-0.13475999999999999</v>
+      </c>
+      <c r="E122" s="34">
+        <v>4.2979999999999997E-2</v>
+      </c>
+      <c r="F122" s="34">
+        <v>1279.3300300000001</v>
+      </c>
+      <c r="G122" s="34">
+        <v>-3.1349999999999998</v>
+      </c>
+      <c r="H122" s="34">
+        <v>1.755E-3</v>
+      </c>
+      <c r="I122" s="34"/>
       <c r="J122" s="34"/>
       <c r="K122" s="34"/>
       <c r="L122" s="34"/>
       <c r="M122" s="34"/>
       <c r="N122" s="108"/>
     </row>
-    <row r="123" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B123" s="127"/>
-      <c r="C123" s="140" t="s">
-        <v>335</v>
-      </c>
-      <c r="D123" s="112">
-        <v>-0.38419999999999999</v>
-      </c>
-      <c r="E123" s="112">
-        <v>0.13713</v>
-      </c>
-      <c r="F123" s="112">
-        <v>23.426690000000001</v>
-      </c>
-      <c r="G123" s="112">
-        <v>-2.802</v>
-      </c>
-      <c r="H123" s="112">
-        <v>0.01</v>
-      </c>
-      <c r="I123" s="112"/>
-      <c r="J123" s="34"/>
-      <c r="K123" s="34"/>
-      <c r="L123" s="34"/>
-      <c r="M123" s="34"/>
-      <c r="N123" s="108"/>
-    </row>
-    <row r="124" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="C123" s="136" t="s">
+        <v>332</v>
+      </c>
+      <c r="D123" s="134"/>
+      <c r="E123" s="134"/>
+      <c r="F123" s="134"/>
+      <c r="G123" s="134"/>
+      <c r="H123" s="134"/>
+      <c r="I123" s="134"/>
+      <c r="J123" s="134"/>
+      <c r="K123" s="134"/>
+      <c r="L123" s="134"/>
+      <c r="M123" s="134"/>
+      <c r="N123" s="135"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="127"/>
-      <c r="C124" s="140" t="s">
-        <v>372</v>
-      </c>
-      <c r="D124" s="112">
-        <v>-0.19671</v>
-      </c>
-      <c r="E124" s="112">
-        <v>3.1109999999999999E-2</v>
-      </c>
-      <c r="F124" s="112">
-        <v>2045.35952</v>
-      </c>
-      <c r="G124" s="112">
-        <v>-6.3230000000000004</v>
-      </c>
-      <c r="H124" s="112">
-        <v>3.14E-10</v>
-      </c>
-      <c r="I124" s="112"/>
-      <c r="J124" s="34"/>
-      <c r="K124" s="34"/>
-      <c r="L124" s="34"/>
-      <c r="M124" s="34"/>
+      <c r="C124" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="D124" s="34">
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="E124" s="34">
+        <v>0.19328000000000001</v>
+      </c>
+      <c r="F124" s="34">
+        <v>316.88589000000002</v>
+      </c>
+      <c r="G124" s="34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H124" s="34">
+        <v>0.94461399999999995</v>
+      </c>
+      <c r="I124" s="34">
+        <v>2342.4589999999998</v>
+      </c>
+      <c r="J124" s="34">
+        <v>2342.5459999999998</v>
+      </c>
+      <c r="K124" s="34">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="L124" s="34">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="M124" s="34">
+        <v>0.57599999999999996</v>
+      </c>
       <c r="N124" s="108"/>
     </row>
-    <row r="125" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B125" s="127"/>
-      <c r="C125" s="142" t="s">
-        <v>332</v>
-      </c>
-      <c r="D125" s="142"/>
-      <c r="E125" s="142"/>
-      <c r="F125" s="142"/>
-      <c r="G125" s="142"/>
-      <c r="H125" s="142"/>
-      <c r="I125" s="142"/>
-      <c r="J125" s="142"/>
-      <c r="K125" s="142"/>
-      <c r="L125" s="142"/>
-      <c r="M125" s="142"/>
-      <c r="N125" s="143"/>
+      <c r="C125" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D125" s="34">
+        <v>0.87324999999999997</v>
+      </c>
+      <c r="E125" s="34">
+        <v>4.367E-2</v>
+      </c>
+      <c r="F125" s="34">
+        <v>1283.91732</v>
+      </c>
+      <c r="G125" s="34">
+        <v>19.998000000000001</v>
+      </c>
+      <c r="H125" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="I125" s="34"/>
+      <c r="J125" s="34"/>
+      <c r="K125" s="34"/>
+      <c r="L125" s="34"/>
+      <c r="M125" s="34"/>
+      <c r="N125" s="108"/>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="127"/>
-      <c r="C126" s="139" t="s">
-        <v>370</v>
+      <c r="C126" s="34" t="s">
+        <v>335</v>
       </c>
       <c r="D126" s="34">
-        <v>0.84911000000000003</v>
+        <v>-0.39752999999999999</v>
       </c>
       <c r="E126" s="34">
-        <v>0.22067999999999999</v>
+        <v>9.3759999999999996E-2</v>
       </c>
       <c r="F126" s="34">
-        <v>23.22897</v>
+        <v>16.210660000000001</v>
       </c>
       <c r="G126" s="34">
-        <v>3.8479999999999999</v>
+        <v>-4.24</v>
       </c>
       <c r="H126" s="34">
-        <v>8.0900000000000004E-4</v>
-      </c>
-      <c r="I126" s="34">
-        <v>3393.069</v>
-      </c>
-      <c r="J126" s="34">
-        <v>3393.1239999999998</v>
-      </c>
-      <c r="K126" s="34">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="L126" s="34">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="M126" s="34">
-        <v>0.53200000000000003</v>
-      </c>
+        <v>6.0800000000000003E-4</v>
+      </c>
+      <c r="I126" s="34"/>
+      <c r="J126" s="34"/>
+      <c r="K126" s="34"/>
+      <c r="L126" s="34"/>
+      <c r="M126" s="34"/>
       <c r="N126" s="108"/>
     </row>
     <row r="127" spans="2:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="127"/>
-      <c r="C127" s="139" t="s">
-        <v>328</v>
+      <c r="C127" s="34" t="s">
+        <v>32</v>
       </c>
       <c r="D127" s="34">
-        <v>0.88075999999999999</v>
+        <v>0.11496000000000001</v>
       </c>
       <c r="E127" s="34">
-        <v>2.7009999999999999E-2</v>
+        <v>2.9350000000000001E-2</v>
       </c>
       <c r="F127" s="34">
-        <v>2039.4976999999999</v>
+        <v>1283.96469</v>
       </c>
       <c r="G127" s="34">
-        <v>32.613</v>
-      </c>
-      <c r="H127" s="34" t="s">
-        <v>371</v>
+        <v>3.9169999999999998</v>
+      </c>
+      <c r="H127" s="34">
+        <v>9.4199999999999999E-5</v>
       </c>
       <c r="I127" s="34"/>
       <c r="J127" s="34"/>
@@ -8848,123 +8903,632 @@
       <c r="N127" s="108"/>
     </row>
     <row r="128" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="127"/>
-      <c r="C128" s="180" t="s">
-        <v>410</v>
-      </c>
-      <c r="D128" s="34">
-        <v>-0.23485</v>
-      </c>
-      <c r="E128" s="34">
-        <v>0.27795999999999998</v>
-      </c>
-      <c r="F128" s="34">
-        <v>22.944400000000002</v>
-      </c>
-      <c r="G128" s="34">
-        <v>-0.84499999999999997</v>
-      </c>
-      <c r="H128" s="34">
-        <v>0.406893</v>
-      </c>
-      <c r="I128" s="34"/>
-      <c r="J128" s="34"/>
-      <c r="K128" s="34"/>
-      <c r="L128" s="34"/>
-      <c r="M128" s="34"/>
-      <c r="N128" s="108"/>
+      <c r="B128" s="137"/>
+      <c r="C128" s="120" t="s">
+        <v>372</v>
+      </c>
+      <c r="D128" s="120">
+        <v>-0.13475999999999999</v>
+      </c>
+      <c r="E128" s="120">
+        <v>4.2979999999999997E-2</v>
+      </c>
+      <c r="F128" s="120">
+        <v>1279.3300300000001</v>
+      </c>
+      <c r="G128" s="120">
+        <v>-3.1349999999999998</v>
+      </c>
+      <c r="H128" s="120">
+        <v>1.755E-3</v>
+      </c>
+      <c r="I128" s="120"/>
+      <c r="J128" s="120"/>
+      <c r="K128" s="120"/>
+      <c r="L128" s="120"/>
+      <c r="M128" s="120"/>
+      <c r="N128" s="121"/>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B129" s="127"/>
-      <c r="C129" s="139" t="s">
-        <v>389</v>
-      </c>
-      <c r="D129" s="34">
-        <v>-0.35688999999999999</v>
-      </c>
-      <c r="E129" s="34">
-        <v>0.13889000000000001</v>
-      </c>
-      <c r="F129" s="34">
-        <v>23.33747</v>
-      </c>
-      <c r="G129" s="34">
-        <v>-2.57</v>
-      </c>
-      <c r="H129" s="34">
-        <v>1.7024000000000001E-2</v>
-      </c>
-      <c r="I129" s="34"/>
-      <c r="J129" s="34"/>
-      <c r="K129" s="34"/>
-      <c r="L129" s="34"/>
-      <c r="M129" s="34"/>
-      <c r="N129" s="108"/>
+      <c r="B129" s="138" t="s">
+        <v>334</v>
+      </c>
+      <c r="C129" s="98" t="s">
+        <v>327</v>
+      </c>
+      <c r="D129" s="99"/>
+      <c r="E129" s="99"/>
+      <c r="F129" s="99"/>
+      <c r="G129" s="99"/>
+      <c r="H129" s="99"/>
+      <c r="I129" s="99"/>
+      <c r="J129" s="99"/>
+      <c r="K129" s="99"/>
+      <c r="L129" s="99"/>
+      <c r="M129" s="99"/>
+      <c r="N129" s="101"/>
     </row>
     <row r="130" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B130" s="127"/>
       <c r="C130" s="139" t="s">
+        <v>370</v>
+      </c>
+      <c r="D130" s="34">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="E130" s="34">
+        <v>0.1346</v>
+      </c>
+      <c r="F130" s="34">
+        <v>29.454599999999999</v>
+      </c>
+      <c r="G130" s="34">
+        <v>5.43</v>
+      </c>
+      <c r="H130" s="34">
+        <v>7.3100000000000003E-6</v>
+      </c>
+      <c r="I130" s="34">
+        <v>248.357</v>
+      </c>
+      <c r="J130" s="34">
+        <v>248.94499999999999</v>
+      </c>
+      <c r="K130" s="34">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="L130" s="34">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="M130" s="34">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="N130" s="108"/>
+    </row>
+    <row r="131" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="127"/>
+      <c r="C131" s="139" t="s">
+        <v>328</v>
+      </c>
+      <c r="D131" s="34">
+        <v>0.79139999999999999</v>
+      </c>
+      <c r="E131" s="34">
+        <v>0.1234</v>
+      </c>
+      <c r="F131" s="34">
+        <v>87.846999999999994</v>
+      </c>
+      <c r="G131" s="34">
+        <v>6.4139999999999997</v>
+      </c>
+      <c r="H131" s="34">
+        <v>6.9200000000000001E-9</v>
+      </c>
+      <c r="I131" s="34"/>
+      <c r="J131" s="34"/>
+      <c r="K131" s="34"/>
+      <c r="L131" s="34"/>
+      <c r="M131" s="34"/>
+      <c r="N131" s="108"/>
+    </row>
+    <row r="132" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B132" s="127"/>
+      <c r="C132" s="139" t="s">
+        <v>335</v>
+      </c>
+      <c r="D132" s="34">
+        <v>-0.45540000000000003</v>
+      </c>
+      <c r="E132" s="34">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F132" s="34">
+        <v>24.351099999999999</v>
+      </c>
+      <c r="G132" s="34">
+        <v>-3.3969999999999998</v>
+      </c>
+      <c r="H132" s="34">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="I132" s="34"/>
+      <c r="J132" s="34"/>
+      <c r="K132" s="34"/>
+      <c r="L132" s="34"/>
+      <c r="M132" s="34"/>
+      <c r="N132" s="108"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B133" s="127"/>
+      <c r="C133" s="109" t="s">
+        <v>329</v>
+      </c>
+      <c r="D133" s="110"/>
+      <c r="E133" s="110"/>
+      <c r="F133" s="110"/>
+      <c r="G133" s="110"/>
+      <c r="H133" s="110"/>
+      <c r="I133" s="110"/>
+      <c r="J133" s="110"/>
+      <c r="K133" s="110"/>
+      <c r="L133" s="110"/>
+      <c r="M133" s="110"/>
+      <c r="N133" s="111"/>
+    </row>
+    <row r="134" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B134" s="127"/>
+      <c r="C134" s="140" t="s">
+        <v>370</v>
+      </c>
+      <c r="D134" s="112">
+        <v>0.69825000000000004</v>
+      </c>
+      <c r="E134" s="112">
+        <v>0.13172</v>
+      </c>
+      <c r="F134" s="112">
+        <v>23.2364</v>
+      </c>
+      <c r="G134" s="112">
+        <v>5.3010000000000002</v>
+      </c>
+      <c r="H134" s="112">
+        <v>2.1500000000000001E-5</v>
+      </c>
+      <c r="I134" s="112">
+        <v>3390.99</v>
+      </c>
+      <c r="J134" s="112">
+        <v>3391.0320000000002</v>
+      </c>
+      <c r="K134" s="34">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="L134" s="34">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="M134" s="34">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="N134" s="108"/>
+    </row>
+    <row r="135" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="127"/>
+      <c r="C135" s="140" t="s">
+        <v>328</v>
+      </c>
+      <c r="D135" s="112">
+        <v>0.88107000000000002</v>
+      </c>
+      <c r="E135" s="112">
+        <v>2.7009999999999999E-2</v>
+      </c>
+      <c r="F135" s="112">
+        <v>2039.48964</v>
+      </c>
+      <c r="G135" s="112">
+        <v>32.624000000000002</v>
+      </c>
+      <c r="H135" s="112" t="s">
+        <v>371</v>
+      </c>
+      <c r="I135" s="112"/>
+      <c r="J135" s="112"/>
+      <c r="K135" s="34"/>
+      <c r="L135" s="34"/>
+      <c r="M135" s="34"/>
+      <c r="N135" s="108"/>
+    </row>
+    <row r="136" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="127"/>
+      <c r="C136" s="140" t="s">
+        <v>335</v>
+      </c>
+      <c r="D136" s="112">
+        <v>-0.38419999999999999</v>
+      </c>
+      <c r="E136" s="112">
+        <v>0.13713</v>
+      </c>
+      <c r="F136" s="112">
+        <v>23.426690000000001</v>
+      </c>
+      <c r="G136" s="112">
+        <v>-2.802</v>
+      </c>
+      <c r="H136" s="112">
+        <v>0.01</v>
+      </c>
+      <c r="I136" s="112"/>
+      <c r="J136" s="112"/>
+      <c r="K136" s="34"/>
+      <c r="L136" s="34"/>
+      <c r="M136" s="34"/>
+      <c r="N136" s="108"/>
+    </row>
+    <row r="137" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B137" s="127"/>
+      <c r="C137" s="140" t="s">
         <v>372</v>
       </c>
-      <c r="D130" s="34">
-        <v>-0.55330000000000001</v>
-      </c>
-      <c r="E130" s="34">
-        <v>0.13969000000000001</v>
-      </c>
-      <c r="F130" s="34">
-        <v>23.87529</v>
-      </c>
-      <c r="G130" s="34">
-        <v>-3.9609999999999999</v>
-      </c>
-      <c r="H130" s="34">
-        <v>5.8600000000000004E-4</v>
-      </c>
-      <c r="I130" s="34"/>
-      <c r="J130" s="34"/>
-      <c r="K130" s="34"/>
-      <c r="L130" s="34"/>
-      <c r="M130" s="34"/>
-      <c r="N130" s="108"/>
-    </row>
-    <row r="131" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C132" s="19"/>
-    </row>
-    <row r="135" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D137" s="112">
+        <v>-0.19671</v>
+      </c>
+      <c r="E137" s="112">
+        <v>3.1109999999999999E-2</v>
+      </c>
+      <c r="F137" s="112">
+        <v>2045.35952</v>
+      </c>
+      <c r="G137" s="112">
+        <v>-6.3230000000000004</v>
+      </c>
+      <c r="H137" s="112">
+        <v>3.14E-10</v>
+      </c>
+      <c r="I137" s="112"/>
+      <c r="J137" s="112"/>
+      <c r="K137" s="34"/>
+      <c r="L137" s="34"/>
+      <c r="M137" s="34"/>
+      <c r="N137" s="108"/>
+    </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C138" s="25"/>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B139" s="90"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="25"/>
-      <c r="F139" s="25"/>
-      <c r="G139" s="25"/>
-      <c r="H139" s="25"/>
-      <c r="I139" s="25"/>
-      <c r="J139" s="25"/>
-      <c r="K139" s="25"/>
-      <c r="L139" s="25"/>
-      <c r="M139" s="25"/>
-      <c r="N139" s="25"/>
+      <c r="B138" s="127"/>
+      <c r="C138" s="140"/>
+      <c r="D138" s="112"/>
+      <c r="E138" s="112"/>
+      <c r="F138" s="112"/>
+      <c r="G138" s="112"/>
+      <c r="H138" s="112"/>
+      <c r="I138" s="112"/>
+      <c r="J138" s="112"/>
+      <c r="K138" s="34"/>
+      <c r="L138" s="34"/>
+      <c r="M138" s="34"/>
+      <c r="N138" s="108"/>
+    </row>
+    <row r="139" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B139" s="127"/>
+      <c r="C139" s="141" t="s">
+        <v>330</v>
+      </c>
+      <c r="D139" s="141"/>
+      <c r="E139" s="141"/>
+      <c r="F139" s="141"/>
+      <c r="G139" s="141"/>
+      <c r="H139" s="141"/>
+      <c r="I139" s="141"/>
+      <c r="J139" s="141"/>
+      <c r="K139" s="142"/>
+      <c r="L139" s="142"/>
+      <c r="M139" s="142"/>
+      <c r="N139" s="143"/>
+    </row>
+    <row r="140" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B140" s="127"/>
+      <c r="C140" s="140" t="s">
+        <v>370</v>
+      </c>
+      <c r="D140" s="112">
+        <v>-0.53754999999999997</v>
+      </c>
+      <c r="E140" s="112">
+        <v>0.33405000000000001</v>
+      </c>
+      <c r="F140" s="112">
+        <v>41.405059999999999</v>
+      </c>
+      <c r="G140" s="112">
+        <v>-1.609</v>
+      </c>
+      <c r="H140" s="112">
+        <v>0.1152</v>
+      </c>
+      <c r="I140" s="112">
+        <v>4222.8729999999996</v>
+      </c>
+      <c r="J140" s="112">
+        <v>4222.942</v>
+      </c>
+      <c r="K140" s="34">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="L140" s="34">
+        <v>0.22</v>
+      </c>
+      <c r="M140" s="34">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="N140" s="108"/>
+    </row>
+    <row r="141" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B141" s="127"/>
+      <c r="C141" s="150" t="s">
+        <v>409</v>
+      </c>
+      <c r="D141" s="112">
+        <v>1.75373</v>
+      </c>
+      <c r="E141" s="112">
+        <v>0.42177999999999999</v>
+      </c>
+      <c r="F141" s="112">
+        <v>26.521979999999999</v>
+      </c>
+      <c r="G141" s="112">
+        <v>4.1580000000000004</v>
+      </c>
+      <c r="H141" s="112">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I141" s="112"/>
+      <c r="J141" s="112"/>
+      <c r="K141" s="34"/>
+      <c r="L141" s="34"/>
+      <c r="M141" s="34"/>
+      <c r="N141" s="108"/>
+    </row>
+    <row r="142" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B142" s="127"/>
+      <c r="C142" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="D142" s="112">
+        <v>0.22725000000000001</v>
+      </c>
+      <c r="E142" s="112">
+        <v>2.9010000000000001E-2</v>
+      </c>
+      <c r="F142" s="112">
+        <v>2089.2865900000002</v>
+      </c>
+      <c r="G142" s="112">
+        <v>7.8339999999999996</v>
+      </c>
+      <c r="H142" s="112">
+        <v>7.4800000000000001E-15</v>
+      </c>
+      <c r="I142" s="112"/>
+      <c r="J142" s="112"/>
+      <c r="K142" s="34"/>
+      <c r="L142" s="34"/>
+      <c r="M142" s="34"/>
+      <c r="N142" s="108"/>
+    </row>
+    <row r="143" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B143" s="127"/>
+      <c r="C143" s="150" t="s">
+        <v>439</v>
+      </c>
+      <c r="D143" s="112">
+        <v>1.9009999999999999E-2</v>
+      </c>
+      <c r="E143" s="112">
+        <v>0.39251999999999998</v>
+      </c>
+      <c r="F143" s="112">
+        <v>25.99879</v>
+      </c>
+      <c r="G143" s="112">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H143" s="112">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="I143" s="112"/>
+      <c r="J143" s="112"/>
+      <c r="K143" s="34"/>
+      <c r="L143" s="34"/>
+      <c r="M143" s="34"/>
+      <c r="N143" s="108"/>
+    </row>
+    <row r="144" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B144" s="127"/>
+      <c r="C144" s="150" t="s">
+        <v>440</v>
+      </c>
+      <c r="D144" s="112">
+        <v>-1.66638</v>
+      </c>
+      <c r="E144" s="112">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="F144" s="112">
+        <v>27.357869999999998</v>
+      </c>
+      <c r="G144" s="112">
+        <v>-4.7270000000000003</v>
+      </c>
+      <c r="H144" s="112">
+        <v>6.1500000000000004E-5</v>
+      </c>
+      <c r="I144" s="112"/>
+      <c r="J144" s="112"/>
+      <c r="K144" s="34"/>
+      <c r="L144" s="34"/>
+      <c r="M144" s="34"/>
+      <c r="N144" s="108"/>
+    </row>
+    <row r="145" spans="2:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="B145" s="127"/>
+      <c r="C145" s="150" t="s">
+        <v>441</v>
+      </c>
+      <c r="D145" s="112">
+        <v>-1.91638</v>
+      </c>
+      <c r="E145" s="112">
+        <v>0.35210999999999998</v>
+      </c>
+      <c r="F145" s="112">
+        <v>27.239059999999998</v>
+      </c>
+      <c r="G145" s="112">
+        <v>-5.4429999999999996</v>
+      </c>
+      <c r="H145" s="112">
+        <v>9.0399999999999998E-6</v>
+      </c>
+      <c r="I145" s="112"/>
+      <c r="J145" s="112"/>
+      <c r="K145" s="34"/>
+      <c r="L145" s="34"/>
+      <c r="M145" s="34"/>
+      <c r="N145" s="108"/>
+    </row>
+    <row r="146" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B146" s="127"/>
+      <c r="C146" s="144" t="s">
+        <v>331</v>
+      </c>
+      <c r="D146" s="145"/>
+      <c r="E146" s="145"/>
+      <c r="F146" s="145"/>
+      <c r="G146" s="145"/>
+      <c r="H146" s="145"/>
+      <c r="I146" s="145"/>
+      <c r="J146" s="114"/>
+      <c r="K146" s="114"/>
+      <c r="L146" s="114"/>
+      <c r="M146" s="114"/>
+      <c r="N146" s="115"/>
+    </row>
+    <row r="147" spans="2:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="B147" s="127"/>
+      <c r="C147" s="140" t="s">
+        <v>370</v>
+      </c>
+      <c r="D147" s="112">
+        <v>0.69825000000000004</v>
+      </c>
+      <c r="E147" s="112">
+        <v>0.13172</v>
+      </c>
+      <c r="F147" s="112">
+        <v>23.2364</v>
+      </c>
+      <c r="G147" s="112">
+        <v>5.3010000000000002</v>
+      </c>
+      <c r="H147" s="112">
+        <v>2.1500000000000001E-5</v>
+      </c>
+      <c r="I147" s="112">
+        <v>3390.99</v>
+      </c>
+      <c r="J147" s="34">
+        <v>3391.0320000000002</v>
+      </c>
+      <c r="K147" s="34">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="L147" s="34">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="M147" s="34">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="N147" s="108"/>
+    </row>
+    <row r="148" spans="2:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="B148" s="127"/>
+      <c r="C148" s="140" t="s">
+        <v>328</v>
+      </c>
+      <c r="D148" s="112">
+        <v>0.88107000000000002</v>
+      </c>
+      <c r="E148" s="112">
+        <v>2.7009999999999999E-2</v>
+      </c>
+      <c r="F148" s="112">
+        <v>2039.48964</v>
+      </c>
+      <c r="G148" s="112">
+        <v>32.624000000000002</v>
+      </c>
+      <c r="H148" s="112" t="s">
+        <v>371</v>
+      </c>
+      <c r="I148" s="112"/>
+      <c r="J148" s="34"/>
+      <c r="K148" s="34"/>
+      <c r="L148" s="34"/>
+      <c r="M148" s="34"/>
+      <c r="N148" s="108"/>
+    </row>
+    <row r="149" spans="2:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="B149" s="127"/>
+      <c r="C149" s="140" t="s">
+        <v>335</v>
+      </c>
+      <c r="D149" s="112">
+        <v>-0.38419999999999999</v>
+      </c>
+      <c r="E149" s="112">
+        <v>0.13713</v>
+      </c>
+      <c r="F149" s="112">
+        <v>23.426690000000001</v>
+      </c>
+      <c r="G149" s="112">
+        <v>-2.802</v>
+      </c>
+      <c r="H149" s="112">
+        <v>0.01</v>
+      </c>
+      <c r="I149" s="112"/>
+      <c r="J149" s="34"/>
+      <c r="K149" s="34"/>
+      <c r="L149" s="34"/>
+      <c r="M149" s="34"/>
+      <c r="N149" s="108"/>
+    </row>
+    <row r="150" spans="2:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="B150" s="127"/>
+      <c r="C150" s="140" t="s">
+        <v>372</v>
+      </c>
+      <c r="D150" s="112">
+        <v>-0.19671</v>
+      </c>
+      <c r="E150" s="112">
+        <v>3.1109999999999999E-2</v>
+      </c>
+      <c r="F150" s="112">
+        <v>2045.35952</v>
+      </c>
+      <c r="G150" s="112">
+        <v>-6.3230000000000004</v>
+      </c>
+      <c r="H150" s="112">
+        <v>3.14E-10</v>
+      </c>
+      <c r="I150" s="112"/>
+      <c r="J150" s="34"/>
+      <c r="K150" s="34"/>
+      <c r="L150" s="34"/>
+      <c r="M150" s="34"/>
+      <c r="N150" s="108"/>
     </row>
     <row r="151" spans="2:40" s="25" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="89"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
+      <c r="B151" s="127"/>
+      <c r="C151" s="142" t="s">
+        <v>332</v>
+      </c>
+      <c r="D151" s="142"/>
+      <c r="E151" s="142"/>
+      <c r="F151" s="142"/>
+      <c r="G151" s="142"/>
+      <c r="H151" s="142"/>
+      <c r="I151" s="142"/>
+      <c r="J151" s="142"/>
+      <c r="K151" s="142"/>
+      <c r="L151" s="142"/>
+      <c r="M151" s="142"/>
+      <c r="N151" s="143"/>
       <c r="U151" s="1"/>
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
@@ -8985,6 +9549,405 @@
       <c r="AL151" s="1"/>
       <c r="AM151" s="1"/>
       <c r="AN151" s="1"/>
+    </row>
+    <row r="152" spans="2:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="B152" s="127"/>
+      <c r="C152" s="139" t="s">
+        <v>370</v>
+      </c>
+      <c r="D152" s="34">
+        <v>0.84911000000000003</v>
+      </c>
+      <c r="E152" s="34">
+        <v>0.22067999999999999</v>
+      </c>
+      <c r="F152" s="34">
+        <v>23.22897</v>
+      </c>
+      <c r="G152" s="34">
+        <v>3.8479999999999999</v>
+      </c>
+      <c r="H152" s="34">
+        <v>8.0900000000000004E-4</v>
+      </c>
+      <c r="I152" s="34">
+        <v>3393.069</v>
+      </c>
+      <c r="J152" s="34">
+        <v>3393.1239999999998</v>
+      </c>
+      <c r="K152" s="34">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="L152" s="34">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="M152" s="34">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="N152" s="108"/>
+    </row>
+    <row r="153" spans="2:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="B153" s="127"/>
+      <c r="C153" s="139" t="s">
+        <v>328</v>
+      </c>
+      <c r="D153" s="34">
+        <v>0.88075999999999999</v>
+      </c>
+      <c r="E153" s="34">
+        <v>2.7009999999999999E-2</v>
+      </c>
+      <c r="F153" s="34">
+        <v>2039.4976999999999</v>
+      </c>
+      <c r="G153" s="34">
+        <v>32.613</v>
+      </c>
+      <c r="H153" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="I153" s="34"/>
+      <c r="J153" s="34"/>
+      <c r="K153" s="34"/>
+      <c r="L153" s="34"/>
+      <c r="M153" s="34"/>
+      <c r="N153" s="108"/>
+    </row>
+    <row r="154" spans="2:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="B154" s="127"/>
+      <c r="C154" s="140" t="s">
+        <v>410</v>
+      </c>
+      <c r="D154" s="34">
+        <v>-0.23485</v>
+      </c>
+      <c r="E154" s="34">
+        <v>0.27795999999999998</v>
+      </c>
+      <c r="F154" s="34">
+        <v>22.944400000000002</v>
+      </c>
+      <c r="G154" s="34">
+        <v>-0.84499999999999997</v>
+      </c>
+      <c r="H154" s="34">
+        <v>0.406893</v>
+      </c>
+      <c r="I154" s="34"/>
+      <c r="J154" s="34"/>
+      <c r="K154" s="34"/>
+      <c r="L154" s="34"/>
+      <c r="M154" s="34"/>
+      <c r="N154" s="108"/>
+    </row>
+    <row r="155" spans="2:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="B155" s="127"/>
+      <c r="C155" s="139" t="s">
+        <v>389</v>
+      </c>
+      <c r="D155" s="34">
+        <v>-0.35688999999999999</v>
+      </c>
+      <c r="E155" s="34">
+        <v>0.13889000000000001</v>
+      </c>
+      <c r="F155" s="34">
+        <v>23.33747</v>
+      </c>
+      <c r="G155" s="34">
+        <v>-2.57</v>
+      </c>
+      <c r="H155" s="34">
+        <v>1.7024000000000001E-2</v>
+      </c>
+      <c r="I155" s="34"/>
+      <c r="J155" s="34"/>
+      <c r="K155" s="34"/>
+      <c r="L155" s="34"/>
+      <c r="M155" s="34"/>
+      <c r="N155" s="108"/>
+    </row>
+    <row r="156" spans="2:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="B156" s="127"/>
+      <c r="C156" s="139" t="s">
+        <v>372</v>
+      </c>
+      <c r="D156" s="34">
+        <v>-0.55330000000000001</v>
+      </c>
+      <c r="E156" s="34">
+        <v>0.13969000000000001</v>
+      </c>
+      <c r="F156" s="34">
+        <v>23.87529</v>
+      </c>
+      <c r="G156" s="34">
+        <v>-3.9609999999999999</v>
+      </c>
+      <c r="H156" s="34">
+        <v>5.8600000000000004E-4</v>
+      </c>
+      <c r="I156" s="34"/>
+      <c r="J156" s="34"/>
+      <c r="K156" s="34"/>
+      <c r="L156" s="34"/>
+      <c r="M156" s="34"/>
+      <c r="N156" s="108"/>
+    </row>
+    <row r="157" spans="2:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="B157" s="127"/>
+      <c r="C157" s="183" t="s">
+        <v>448</v>
+      </c>
+      <c r="D157" s="34"/>
+      <c r="E157" s="34"/>
+      <c r="F157" s="34"/>
+      <c r="G157" s="34"/>
+      <c r="H157" s="34"/>
+      <c r="I157" s="34"/>
+      <c r="J157" s="34"/>
+      <c r="K157" s="34"/>
+      <c r="L157" s="34"/>
+      <c r="M157" s="34"/>
+      <c r="N157" s="108"/>
+    </row>
+    <row r="158" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B158" s="127"/>
+      <c r="C158" s="139" t="s">
+        <v>452</v>
+      </c>
+      <c r="D158" s="34"/>
+      <c r="E158" s="34"/>
+      <c r="F158" s="34"/>
+      <c r="G158" s="34"/>
+      <c r="H158" s="34"/>
+      <c r="I158" s="34"/>
+      <c r="J158" s="34"/>
+      <c r="K158" s="34"/>
+      <c r="L158" s="34"/>
+      <c r="M158" s="34"/>
+      <c r="N158" s="108"/>
+    </row>
+    <row r="159" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B159" s="127"/>
+      <c r="C159" s="139" t="s">
+        <v>453</v>
+      </c>
+      <c r="D159" s="34"/>
+      <c r="E159" s="34"/>
+      <c r="F159" s="34"/>
+      <c r="G159" s="34"/>
+      <c r="H159" s="34"/>
+      <c r="I159" s="34"/>
+      <c r="J159" s="34"/>
+      <c r="K159" s="34"/>
+      <c r="L159" s="34"/>
+      <c r="M159" s="34"/>
+      <c r="N159" s="108"/>
+    </row>
+    <row r="160" spans="2:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="B160" s="127"/>
+      <c r="C160" s="139" t="s">
+        <v>454</v>
+      </c>
+      <c r="D160" s="34"/>
+      <c r="E160" s="34"/>
+      <c r="F160" s="34"/>
+      <c r="G160" s="34"/>
+      <c r="H160" s="34"/>
+      <c r="I160" s="34"/>
+      <c r="J160" s="34"/>
+      <c r="K160" s="34"/>
+      <c r="L160" s="34"/>
+      <c r="M160" s="34"/>
+      <c r="N160" s="108"/>
+    </row>
+    <row r="161" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B161" s="127"/>
+      <c r="C161" s="139" t="s">
+        <v>455</v>
+      </c>
+      <c r="D161" s="34"/>
+      <c r="E161" s="34"/>
+      <c r="F161" s="34"/>
+      <c r="G161" s="34"/>
+      <c r="H161" s="34"/>
+      <c r="I161" s="34"/>
+      <c r="J161" s="34"/>
+      <c r="K161" s="34"/>
+      <c r="L161" s="34"/>
+      <c r="M161" s="34"/>
+      <c r="N161" s="108"/>
+    </row>
+    <row r="162" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B162" s="127"/>
+      <c r="C162" s="184" t="s">
+        <v>456</v>
+      </c>
+      <c r="D162" s="34"/>
+      <c r="E162" s="34"/>
+      <c r="F162" s="34"/>
+      <c r="G162" s="34"/>
+      <c r="H162" s="34"/>
+      <c r="I162" s="34"/>
+      <c r="J162" s="34"/>
+      <c r="K162" s="34"/>
+      <c r="L162" s="34"/>
+      <c r="M162" s="34"/>
+      <c r="N162" s="108"/>
+    </row>
+    <row r="163" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B163" s="127"/>
+      <c r="C163" s="182" t="s">
+        <v>449</v>
+      </c>
+      <c r="D163" s="34"/>
+      <c r="E163" s="34"/>
+      <c r="F163" s="34"/>
+      <c r="G163" s="34"/>
+      <c r="H163" s="34"/>
+      <c r="I163" s="34"/>
+      <c r="J163" s="34"/>
+      <c r="K163" s="34"/>
+      <c r="L163" s="34"/>
+      <c r="M163" s="34"/>
+      <c r="N163" s="108"/>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B164" s="127"/>
+      <c r="C164" s="181" t="s">
+        <v>370</v>
+      </c>
+      <c r="D164" s="34">
+        <v>3.3893</v>
+      </c>
+      <c r="E164" s="34">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="F164" s="34">
+        <v>23.191299999999998</v>
+      </c>
+      <c r="G164" s="34">
+        <v>3.827</v>
+      </c>
+      <c r="H164" s="34">
+        <v>8.5300000000000003E-4</v>
+      </c>
+      <c r="I164" s="34">
+        <v>10556.664000000001</v>
+      </c>
+      <c r="J164" s="34">
+        <v>10556.705</v>
+      </c>
+      <c r="K164" s="34">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="L164" s="34">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="M164" s="34">
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="N164" s="108"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B165" s="127"/>
+      <c r="C165" s="181" t="s">
+        <v>328</v>
+      </c>
+      <c r="D165" s="34">
+        <v>3.4525000000000001</v>
+      </c>
+      <c r="E165" s="34">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="F165" s="34">
+        <v>2037.0192</v>
+      </c>
+      <c r="G165" s="34">
+        <v>22.254999999999999</v>
+      </c>
+      <c r="H165" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="I165" s="34"/>
+      <c r="J165" s="34"/>
+      <c r="K165" s="34"/>
+      <c r="L165" s="34"/>
+      <c r="M165" s="34"/>
+      <c r="N165" s="108"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B166" s="127"/>
+      <c r="C166" s="181" t="s">
+        <v>335</v>
+      </c>
+      <c r="D166" s="34">
+        <v>-1.5739000000000001</v>
+      </c>
+      <c r="E166" s="34">
+        <v>0.9214</v>
+      </c>
+      <c r="F166" s="34">
+        <v>23.3308</v>
+      </c>
+      <c r="G166" s="34">
+        <v>-1.708</v>
+      </c>
+      <c r="H166" s="34">
+        <v>0.100883</v>
+      </c>
+      <c r="I166" s="34"/>
+      <c r="J166" s="34"/>
+      <c r="K166" s="34"/>
+      <c r="L166" s="34"/>
+      <c r="M166" s="34"/>
+      <c r="N166" s="108"/>
+    </row>
+    <row r="167" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B167" s="127"/>
+      <c r="C167" s="139" t="s">
+        <v>372</v>
+      </c>
+      <c r="D167" s="34">
+        <v>-2.0167000000000002</v>
+      </c>
+      <c r="E167" s="34">
+        <v>0.17879999999999999</v>
+      </c>
+      <c r="F167" s="34">
+        <v>2041.9645</v>
+      </c>
+      <c r="G167" s="34">
+        <v>-11.282</v>
+      </c>
+      <c r="H167" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="I167" s="34"/>
+      <c r="J167" s="34"/>
+      <c r="K167" s="34"/>
+      <c r="L167" s="34"/>
+      <c r="M167" s="34"/>
+      <c r="N167" s="108"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C172" s="25"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B173" s="90"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="25"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="25"/>
+      <c r="K173" s="25"/>
+      <c r="L173" s="25"/>
+      <c r="M173" s="25"/>
+      <c r="N173" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9849,26 +10812,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="164" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="152"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
       <c r="T3" s="54"/>
     </row>
     <row r="4" spans="2:20" ht="60" thickTop="1" x14ac:dyDescent="0.2">
@@ -9928,7 +10891,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="169" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="85" t="s">
@@ -9942,7 +10905,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="172"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="85" t="s">
         <v>16</v>
       </c>
@@ -9954,8 +10917,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="172"/>
-      <c r="C7" s="169" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -10007,8 +10970,8 @@
       <c r="T7" s="25"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="172"/>
-      <c r="C8" s="169"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="171"/>
       <c r="E8" s="77" t="s">
         <v>263</v>
       </c>
@@ -10037,8 +11000,8 @@
       <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="172"/>
-      <c r="C9" s="169" t="s">
+      <c r="B9" s="170"/>
+      <c r="C9" s="171" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -10086,8 +11049,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="172"/>
-      <c r="C10" s="169"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="171"/>
       <c r="E10" s="84" t="s">
         <v>263</v>
       </c>
@@ -10114,8 +11077,8 @@
       <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="172"/>
-      <c r="C11" s="169"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="171"/>
       <c r="E11" s="77" t="s">
         <v>32</v>
       </c>
@@ -10142,7 +11105,7 @@
       <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="172"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="85" t="s">
         <v>35</v>
       </c>
@@ -10167,8 +11130,8 @@
       <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="172"/>
-      <c r="C13" s="169" t="s">
+      <c r="B13" s="170"/>
+      <c r="C13" s="171" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -10216,8 +11179,8 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="172"/>
-      <c r="C14" s="169"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="171"/>
       <c r="E14" s="77" t="s">
         <v>263</v>
       </c>
@@ -10244,8 +11207,8 @@
       <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="172"/>
-      <c r="C15" s="169" t="s">
+      <c r="B15" s="170"/>
+      <c r="C15" s="171" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -10293,8 +11256,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="172"/>
-      <c r="C16" s="169"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="171"/>
       <c r="E16" s="77" t="s">
         <v>263</v>
       </c>
@@ -10321,7 +11284,7 @@
       <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="172"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="85" t="s">
         <v>36</v>
       </c>
@@ -10346,7 +11309,7 @@
       <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="172"/>
+      <c r="B18" s="170"/>
       <c r="C18" s="85" t="s">
         <v>12</v>
       </c>
@@ -10371,8 +11334,8 @@
       <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="172"/>
-      <c r="C19" s="169" t="s">
+      <c r="B19" s="170"/>
+      <c r="C19" s="171" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -10422,8 +11385,8 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="172"/>
-      <c r="C20" s="169"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="171"/>
       <c r="E20" s="84" t="s">
         <v>263</v>
       </c>
@@ -10454,8 +11417,8 @@
       <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="172"/>
-      <c r="C21" s="169" t="s">
+      <c r="B21" s="170"/>
+      <c r="C21" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -10503,8 +11466,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="172"/>
-      <c r="C22" s="169"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="171"/>
       <c r="E22" s="77" t="s">
         <v>263</v>
       </c>
@@ -10531,8 +11494,8 @@
       <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="172"/>
-      <c r="C23" s="169" t="s">
+      <c r="B23" s="170"/>
+      <c r="C23" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -10578,8 +11541,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="172"/>
-      <c r="C24" s="169"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="171"/>
       <c r="E24" s="77" t="s">
         <v>32</v>
       </c>
@@ -10606,8 +11569,8 @@
       <c r="R24" s="36"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="172"/>
-      <c r="C25" s="169" t="s">
+      <c r="B25" s="170"/>
+      <c r="C25" s="171" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -10655,8 +11618,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="172"/>
-      <c r="C26" s="169"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="171"/>
       <c r="E26" s="77" t="s">
         <v>263</v>
       </c>
@@ -10683,7 +11646,7 @@
       <c r="R26" s="36"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="172"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="85" t="s">
         <v>20</v>
       </c>
@@ -10708,7 +11671,7 @@
       <c r="R27" s="36"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="172"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="85" t="s">
         <v>33</v>
       </c>
@@ -10733,8 +11696,8 @@
       <c r="R28" s="36"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="172"/>
-      <c r="C29" s="169" t="s">
+      <c r="B29" s="170"/>
+      <c r="C29" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="39" t="s">
@@ -10780,8 +11743,8 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="172"/>
-      <c r="C30" s="169"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="171"/>
       <c r="D30" s="39"/>
       <c r="E30" s="77" t="s">
         <v>32</v>
@@ -10809,7 +11772,7 @@
       <c r="R30" s="36"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="172"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="85" t="s">
         <v>41</v>
       </c>
@@ -10834,8 +11797,8 @@
       <c r="R31" s="36"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="172"/>
-      <c r="C32" s="169" t="s">
+      <c r="B32" s="170"/>
+      <c r="C32" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -10883,8 +11846,8 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="172"/>
-      <c r="C33" s="169"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="171"/>
       <c r="E33" s="77" t="s">
         <v>263</v>
       </c>
@@ -10911,8 +11874,8 @@
       <c r="R33" s="36"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="172"/>
-      <c r="C34" s="169"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="171"/>
       <c r="E34" s="77" t="s">
         <v>32</v>
       </c>
@@ -10939,7 +11902,7 @@
       <c r="R34" s="36"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="172"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="86" t="s">
         <v>15</v>
       </c>
@@ -10964,10 +11927,10 @@
       <c r="R35" s="36"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="171" t="s">
+      <c r="B36" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="174" t="s">
+      <c r="C36" s="172" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -11015,8 +11978,8 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="172"/>
-      <c r="C37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="171"/>
       <c r="E37" s="84" t="s">
         <v>414</v>
       </c>
@@ -11043,8 +12006,8 @@
       <c r="R37" s="36"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="172"/>
-      <c r="C38" s="169"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="171"/>
       <c r="E38" s="84" t="s">
         <v>415</v>
       </c>
@@ -11071,8 +12034,8 @@
       <c r="R38" s="36"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="172"/>
-      <c r="C39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="171"/>
       <c r="E39" s="84" t="s">
         <v>32</v>
       </c>
@@ -11099,8 +12062,8 @@
       <c r="R39" s="36"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="172"/>
-      <c r="C40" s="169" t="s">
+      <c r="B40" s="170"/>
+      <c r="C40" s="171" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -11148,8 +12111,8 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="172"/>
-      <c r="C41" s="169"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="171"/>
       <c r="E41" s="77" t="s">
         <v>335</v>
       </c>
@@ -11178,8 +12141,8 @@
       <c r="R41" s="36"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="172"/>
-      <c r="C42" s="169" t="s">
+      <c r="B42" s="170"/>
+      <c r="C42" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -11227,8 +12190,8 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="172"/>
-      <c r="C43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
       <c r="E43" s="77" t="s">
         <v>263</v>
       </c>
@@ -11255,8 +12218,8 @@
       <c r="R43" s="36"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="172"/>
-      <c r="C44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="171"/>
       <c r="E44" s="77" t="s">
         <v>32</v>
       </c>
@@ -11283,8 +12246,8 @@
       <c r="R44" s="36"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="172"/>
-      <c r="C45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="171"/>
       <c r="E45" s="77" t="s">
         <v>335</v>
       </c>
@@ -11311,8 +12274,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="172"/>
-      <c r="C46" s="169" t="s">
+      <c r="B46" s="170"/>
+      <c r="C46" s="171" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -11362,8 +12325,8 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="172"/>
-      <c r="C47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="171"/>
       <c r="E47" s="77" t="s">
         <v>263</v>
       </c>
@@ -11392,8 +12355,8 @@
       <c r="R47" s="36"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="172"/>
-      <c r="C48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="171"/>
       <c r="E48" s="77" t="s">
         <v>335</v>
       </c>
@@ -11422,8 +12385,8 @@
       <c r="R48" s="36"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="172"/>
-      <c r="C49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="171"/>
       <c r="E49" s="77" t="s">
         <v>32</v>
       </c>
@@ -11452,8 +12415,8 @@
       <c r="R49" s="36"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="172"/>
-      <c r="C50" s="169" t="s">
+      <c r="B50" s="170"/>
+      <c r="C50" s="171" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -11503,8 +12466,8 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="172"/>
-      <c r="C51" s="169"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="171"/>
       <c r="E51" s="77" t="s">
         <v>263</v>
       </c>
@@ -11533,8 +12496,8 @@
       <c r="R51" s="36"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="172"/>
-      <c r="C52" s="169"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="171"/>
       <c r="E52" s="77" t="s">
         <v>335</v>
       </c>
@@ -11563,8 +12526,8 @@
       <c r="R52" s="36"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="172"/>
-      <c r="C53" s="169" t="s">
+      <c r="B53" s="170"/>
+      <c r="C53" s="171" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -11614,8 +12577,8 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="172"/>
-      <c r="C54" s="169"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="171"/>
       <c r="E54" s="77" t="s">
         <v>263</v>
       </c>
@@ -11644,8 +12607,8 @@
       <c r="R54" s="36"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="172"/>
-      <c r="C55" s="169"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="171"/>
       <c r="E55" s="77" t="s">
         <v>335</v>
       </c>
@@ -11674,8 +12637,8 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="172"/>
-      <c r="C56" s="169" t="s">
+      <c r="B56" s="170"/>
+      <c r="C56" s="171" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -11725,8 +12688,8 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="172"/>
-      <c r="C57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="171"/>
       <c r="E57" s="77" t="s">
         <v>263</v>
       </c>
@@ -11755,8 +12718,8 @@
       <c r="R57" s="36"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="172"/>
-      <c r="C58" s="169" t="s">
+      <c r="B58" s="170"/>
+      <c r="C58" s="171" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -11806,8 +12769,8 @@
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="172"/>
-      <c r="C59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="171"/>
       <c r="E59" s="77" t="s">
         <v>263</v>
       </c>
@@ -11836,8 +12799,8 @@
       <c r="R59" s="36"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="172"/>
-      <c r="C60" s="169" t="s">
+      <c r="B60" s="170"/>
+      <c r="C60" s="171" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -11887,8 +12850,8 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="172"/>
-      <c r="C61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="171"/>
       <c r="E61" s="77" t="s">
         <v>263</v>
       </c>
@@ -11917,7 +12880,7 @@
       <c r="R61" s="36"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="172"/>
+      <c r="B62" s="170"/>
       <c r="C62" s="85" t="s">
         <v>19</v>
       </c>
@@ -11942,8 +12905,8 @@
       <c r="R62" s="36"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="172"/>
-      <c r="C63" s="169" t="s">
+      <c r="B63" s="170"/>
+      <c r="C63" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -11993,8 +12956,8 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="172"/>
-      <c r="C64" s="169"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="171"/>
       <c r="E64" s="77" t="s">
         <v>263</v>
       </c>
@@ -12023,8 +12986,8 @@
       <c r="R64" s="36"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="172"/>
-      <c r="C65" s="169" t="s">
+      <c r="B65" s="170"/>
+      <c r="C65" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -12074,8 +13037,8 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="172"/>
-      <c r="C66" s="169"/>
+      <c r="B66" s="170"/>
+      <c r="C66" s="171"/>
       <c r="E66" s="77" t="s">
         <v>263</v>
       </c>
@@ -12104,8 +13067,8 @@
       <c r="R66" s="36"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="172"/>
-      <c r="C67" s="169"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="171"/>
       <c r="E67" s="77" t="s">
         <v>335</v>
       </c>
@@ -12134,8 +13097,8 @@
       <c r="R67" s="36"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="172"/>
-      <c r="C68" s="169"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="171"/>
       <c r="E68" s="77" t="s">
         <v>32</v>
       </c>
@@ -12164,8 +13127,8 @@
       <c r="R68" s="36"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="172"/>
-      <c r="C69" s="169" t="s">
+      <c r="B69" s="170"/>
+      <c r="C69" s="171" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -12215,8 +13178,8 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="172"/>
-      <c r="C70" s="169"/>
+      <c r="B70" s="170"/>
+      <c r="C70" s="171"/>
       <c r="E70" s="77" t="s">
         <v>263</v>
       </c>
@@ -12245,8 +13208,8 @@
       <c r="R70" s="36"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="172"/>
-      <c r="C71" s="169" t="s">
+      <c r="B71" s="170"/>
+      <c r="C71" s="171" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -12296,8 +13259,8 @@
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="172"/>
-      <c r="C72" s="169"/>
+      <c r="B72" s="170"/>
+      <c r="C72" s="171"/>
       <c r="E72" s="77" t="s">
         <v>263</v>
       </c>
@@ -12326,8 +13289,8 @@
       <c r="R72" s="36"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="172"/>
-      <c r="C73" s="169"/>
+      <c r="B73" s="170"/>
+      <c r="C73" s="171"/>
       <c r="E73" s="77" t="s">
         <v>335</v>
       </c>
@@ -12356,7 +13319,7 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="172"/>
+      <c r="B74" s="170"/>
       <c r="C74" s="85" t="s">
         <v>33</v>
       </c>
@@ -12381,7 +13344,7 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="172"/>
+      <c r="B75" s="170"/>
       <c r="C75" s="85" t="s">
         <v>39</v>
       </c>
@@ -12406,8 +13369,8 @@
       <c r="R75" s="36"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="172"/>
-      <c r="C76" s="169" t="s">
+      <c r="B76" s="170"/>
+      <c r="C76" s="171" t="s">
         <v>41</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -12457,8 +13420,8 @@
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="172"/>
-      <c r="C77" s="169"/>
+      <c r="B77" s="170"/>
+      <c r="C77" s="171"/>
       <c r="E77" s="77" t="s">
         <v>263</v>
       </c>
@@ -12487,8 +13450,8 @@
       <c r="R77" s="36"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="172"/>
-      <c r="C78" s="169" t="s">
+      <c r="B78" s="170"/>
+      <c r="C78" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -12538,8 +13501,8 @@
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="172"/>
-      <c r="C79" s="169"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="171"/>
       <c r="E79" s="77" t="s">
         <v>263</v>
       </c>
@@ -12568,8 +13531,8 @@
       <c r="R79" s="36"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="172"/>
-      <c r="C80" s="169" t="s">
+      <c r="B80" s="170"/>
+      <c r="C80" s="171" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -12620,7 +13583,7 @@
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="64"/>
-      <c r="C81" s="170"/>
+      <c r="C81" s="173"/>
       <c r="E81" s="77" t="s">
         <v>263</v>
       </c>
@@ -12649,7 +13612,7 @@
       <c r="R81" s="36"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="171" t="s">
+      <c r="B82" s="169" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="85" t="s">
@@ -12676,8 +13639,8 @@
       <c r="R82" s="36"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="172"/>
-      <c r="C83" s="169" t="s">
+      <c r="B83" s="170"/>
+      <c r="C83" s="171" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -12725,8 +13688,8 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="172"/>
-      <c r="C84" s="169"/>
+      <c r="B84" s="170"/>
+      <c r="C84" s="171"/>
       <c r="E84" s="77" t="s">
         <v>263</v>
       </c>
@@ -12753,8 +13716,8 @@
       <c r="R84" s="36"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="172"/>
-      <c r="C85" s="169"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="171"/>
       <c r="E85" s="77" t="s">
         <v>335</v>
       </c>
@@ -12781,8 +13744,8 @@
       <c r="R85" s="36"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B86" s="172"/>
-      <c r="C86" s="169" t="s">
+      <c r="B86" s="170"/>
+      <c r="C86" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -12830,8 +13793,8 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="172"/>
-      <c r="C87" s="169"/>
+      <c r="B87" s="170"/>
+      <c r="C87" s="171"/>
       <c r="E87" s="77" t="s">
         <v>263</v>
       </c>
@@ -12858,8 +13821,8 @@
       <c r="R87" s="36"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="172"/>
-      <c r="C88" s="169"/>
+      <c r="B88" s="170"/>
+      <c r="C88" s="171"/>
       <c r="E88" s="77" t="s">
         <v>335</v>
       </c>
@@ -12886,8 +13849,8 @@
       <c r="R88" s="36"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="172"/>
-      <c r="C89" s="169"/>
+      <c r="B89" s="170"/>
+      <c r="C89" s="171"/>
       <c r="E89" s="77" t="s">
         <v>32</v>
       </c>
@@ -12914,8 +13877,8 @@
       <c r="R89" s="36"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="172"/>
-      <c r="C90" s="169" t="s">
+      <c r="B90" s="170"/>
+      <c r="C90" s="171" t="s">
         <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -12965,8 +13928,8 @@
       </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="172"/>
-      <c r="C91" s="169"/>
+      <c r="B91" s="170"/>
+      <c r="C91" s="171"/>
       <c r="E91" s="77" t="s">
         <v>263</v>
       </c>
@@ -12995,8 +13958,8 @@
       <c r="R91" s="36"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="172"/>
-      <c r="C92" s="169"/>
+      <c r="B92" s="170"/>
+      <c r="C92" s="171"/>
       <c r="E92" s="77" t="s">
         <v>335</v>
       </c>
@@ -13025,7 +13988,7 @@
       <c r="R92" s="36"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="172"/>
+      <c r="B93" s="170"/>
       <c r="C93" s="85" t="s">
         <v>35</v>
       </c>
@@ -13050,8 +14013,8 @@
       <c r="R93" s="36"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="172"/>
-      <c r="C94" s="169" t="s">
+      <c r="B94" s="170"/>
+      <c r="C94" s="171" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -13101,8 +14064,8 @@
       </c>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="172"/>
-      <c r="C95" s="169"/>
+      <c r="B95" s="170"/>
+      <c r="C95" s="171"/>
       <c r="E95" s="77" t="s">
         <v>263</v>
       </c>
@@ -13131,8 +14094,8 @@
       <c r="R95" s="36"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="172"/>
-      <c r="C96" s="169"/>
+      <c r="B96" s="170"/>
+      <c r="C96" s="171"/>
       <c r="E96" s="77" t="s">
         <v>335</v>
       </c>
@@ -13161,8 +14124,8 @@
       <c r="R96" s="36"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="172"/>
-      <c r="C97" s="169"/>
+      <c r="B97" s="170"/>
+      <c r="C97" s="171"/>
       <c r="E97" s="77" t="s">
         <v>32</v>
       </c>
@@ -13191,8 +14154,8 @@
       <c r="R97" s="36"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="172"/>
-      <c r="C98" s="169" t="s">
+      <c r="B98" s="170"/>
+      <c r="C98" s="171" t="s">
         <v>37</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -13240,8 +14203,8 @@
       </c>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="172"/>
-      <c r="C99" s="169"/>
+      <c r="B99" s="170"/>
+      <c r="C99" s="171"/>
       <c r="E99" s="77" t="s">
         <v>263</v>
       </c>
@@ -13268,8 +14231,8 @@
       <c r="R99" s="36"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="172"/>
-      <c r="C100" s="169"/>
+      <c r="B100" s="170"/>
+      <c r="C100" s="171"/>
       <c r="E100" s="77" t="s">
         <v>335</v>
       </c>
@@ -13296,8 +14259,8 @@
       <c r="R100" s="36"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B101" s="172"/>
-      <c r="C101" s="169" t="s">
+      <c r="B101" s="170"/>
+      <c r="C101" s="171" t="s">
         <v>36</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -13347,8 +14310,8 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="172"/>
-      <c r="C102" s="169"/>
+      <c r="B102" s="170"/>
+      <c r="C102" s="171"/>
       <c r="E102" s="77" t="s">
         <v>263</v>
       </c>
@@ -13377,8 +14340,8 @@
       <c r="R102" s="36"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="172"/>
-      <c r="C103" s="169" t="s">
+      <c r="B103" s="170"/>
+      <c r="C103" s="171" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -13426,8 +14389,8 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="172"/>
-      <c r="C104" s="169"/>
+      <c r="B104" s="170"/>
+      <c r="C104" s="171"/>
       <c r="E104" s="77" t="s">
         <v>263</v>
       </c>
@@ -13454,8 +14417,8 @@
       <c r="R104" s="36"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="172"/>
-      <c r="C105" s="169"/>
+      <c r="B105" s="170"/>
+      <c r="C105" s="171"/>
       <c r="E105" s="77" t="s">
         <v>335</v>
       </c>
@@ -13482,8 +14445,8 @@
       <c r="R105" s="36"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="172"/>
-      <c r="C106" s="169" t="s">
+      <c r="B106" s="170"/>
+      <c r="C106" s="171" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -13533,8 +14496,8 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="172"/>
-      <c r="C107" s="169"/>
+      <c r="B107" s="170"/>
+      <c r="C107" s="171"/>
       <c r="E107" s="77" t="s">
         <v>263</v>
       </c>
@@ -13563,8 +14526,8 @@
       <c r="R107" s="36"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="172"/>
-      <c r="C108" s="169"/>
+      <c r="B108" s="170"/>
+      <c r="C108" s="171"/>
       <c r="E108" s="77" t="s">
         <v>32</v>
       </c>
@@ -13593,8 +14556,8 @@
       <c r="R108" s="36"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="172"/>
-      <c r="C109" s="169" t="s">
+      <c r="B109" s="170"/>
+      <c r="C109" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -13642,8 +14605,8 @@
       </c>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="172"/>
-      <c r="C110" s="169"/>
+      <c r="B110" s="170"/>
+      <c r="C110" s="171"/>
       <c r="E110" s="77" t="s">
         <v>263</v>
       </c>
@@ -13670,8 +14633,8 @@
       <c r="R110" s="36"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="172"/>
-      <c r="C111" s="169"/>
+      <c r="B111" s="170"/>
+      <c r="C111" s="171"/>
       <c r="E111" s="77" t="s">
         <v>335</v>
       </c>
@@ -13698,8 +14661,8 @@
       <c r="R111" s="36"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="172"/>
-      <c r="C112" s="169" t="s">
+      <c r="B112" s="170"/>
+      <c r="C112" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -13747,8 +14710,8 @@
       </c>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="172"/>
-      <c r="C113" s="169"/>
+      <c r="B113" s="170"/>
+      <c r="C113" s="171"/>
       <c r="E113" s="77" t="s">
         <v>263</v>
       </c>
@@ -13775,8 +14738,8 @@
       <c r="R113" s="36"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="172"/>
-      <c r="C114" s="169"/>
+      <c r="B114" s="170"/>
+      <c r="C114" s="171"/>
       <c r="E114" s="77" t="s">
         <v>335</v>
       </c>
@@ -13803,8 +14766,8 @@
       <c r="R114" s="36"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="172"/>
-      <c r="C115" s="169" t="s">
+      <c r="B115" s="170"/>
+      <c r="C115" s="171" t="s">
         <v>38</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -13852,8 +14815,8 @@
       </c>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="172"/>
-      <c r="C116" s="169"/>
+      <c r="B116" s="170"/>
+      <c r="C116" s="171"/>
       <c r="E116" s="77" t="s">
         <v>263</v>
       </c>
@@ -13880,8 +14843,8 @@
       <c r="R116" s="36"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="172"/>
-      <c r="C117" s="169" t="s">
+      <c r="B117" s="170"/>
+      <c r="C117" s="171" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -13931,8 +14894,8 @@
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="172"/>
-      <c r="C118" s="169"/>
+      <c r="B118" s="170"/>
+      <c r="C118" s="171"/>
       <c r="E118" s="77" t="s">
         <v>263</v>
       </c>
@@ -13961,8 +14924,8 @@
       <c r="R118" s="36"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="172"/>
-      <c r="C119" s="169"/>
+      <c r="B119" s="170"/>
+      <c r="C119" s="171"/>
       <c r="E119" s="77" t="s">
         <v>335</v>
       </c>
@@ -13991,8 +14954,8 @@
       <c r="R119" s="36"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="172"/>
-      <c r="C120" s="169" t="s">
+      <c r="B120" s="170"/>
+      <c r="C120" s="171" t="s">
         <v>33</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -14040,8 +15003,8 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="172"/>
-      <c r="C121" s="169"/>
+      <c r="B121" s="170"/>
+      <c r="C121" s="171"/>
       <c r="E121" s="77" t="s">
         <v>263</v>
       </c>
@@ -14068,8 +15031,8 @@
       <c r="R121" s="36"/>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="172"/>
-      <c r="C122" s="169"/>
+      <c r="B122" s="170"/>
+      <c r="C122" s="171"/>
       <c r="E122" s="77" t="s">
         <v>335</v>
       </c>
@@ -14096,8 +15059,8 @@
       <c r="R122" s="36"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="172"/>
-      <c r="C123" s="169" t="s">
+      <c r="B123" s="170"/>
+      <c r="C123" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -14145,8 +15108,8 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="172"/>
-      <c r="C124" s="169"/>
+      <c r="B124" s="170"/>
+      <c r="C124" s="171"/>
       <c r="E124" s="77" t="s">
         <v>263</v>
       </c>
@@ -14173,8 +15136,8 @@
       <c r="R124" s="36"/>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="172"/>
-      <c r="C125" s="169" t="s">
+      <c r="B125" s="170"/>
+      <c r="C125" s="171" t="s">
         <v>41</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -14222,8 +15185,8 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="172"/>
-      <c r="C126" s="169"/>
+      <c r="B126" s="170"/>
+      <c r="C126" s="171"/>
       <c r="E126" s="77" t="s">
         <v>263</v>
       </c>
@@ -14250,8 +15213,8 @@
       <c r="R126" s="36"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="172"/>
-      <c r="C127" s="169" t="s">
+      <c r="B127" s="170"/>
+      <c r="C127" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -14301,8 +15264,8 @@
       </c>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="172"/>
-      <c r="C128" s="169"/>
+      <c r="B128" s="170"/>
+      <c r="C128" s="171"/>
       <c r="E128" s="77" t="s">
         <v>263</v>
       </c>
@@ -14331,8 +15294,8 @@
       <c r="R128" s="36"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="172"/>
-      <c r="C129" s="169" t="s">
+      <c r="B129" s="170"/>
+      <c r="C129" s="171" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -14383,7 +15346,7 @@
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="63"/>
-      <c r="C130" s="170"/>
+      <c r="C130" s="173"/>
       <c r="E130" s="77" t="s">
         <v>263</v>
       </c>
@@ -14412,10 +15375,10 @@
       <c r="R130" s="36"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="171" t="s">
+      <c r="B131" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="C131" s="174" t="s">
+      <c r="C131" s="172" t="s">
         <v>40</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -14463,8 +15426,8 @@
       </c>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="172"/>
-      <c r="C132" s="169"/>
+      <c r="B132" s="170"/>
+      <c r="C132" s="171"/>
       <c r="E132" s="77" t="s">
         <v>263</v>
       </c>
@@ -14491,8 +15454,8 @@
       <c r="R132" s="36"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="172"/>
-      <c r="C133" s="169" t="s">
+      <c r="B133" s="170"/>
+      <c r="C133" s="171" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -14540,8 +15503,8 @@
       </c>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B134" s="172"/>
-      <c r="C134" s="169"/>
+      <c r="B134" s="170"/>
+      <c r="C134" s="171"/>
       <c r="E134" s="77" t="s">
         <v>32</v>
       </c>
@@ -14570,8 +15533,8 @@
       <c r="R134" s="36"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="172"/>
-      <c r="C135" s="169" t="s">
+      <c r="B135" s="170"/>
+      <c r="C135" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -14621,8 +15584,8 @@
       </c>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="172"/>
-      <c r="C136" s="169"/>
+      <c r="B136" s="170"/>
+      <c r="C136" s="171"/>
       <c r="E136" s="77" t="s">
         <v>263</v>
       </c>
@@ -14651,8 +15614,8 @@
       <c r="R136" s="36"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="172"/>
-      <c r="C137" s="169"/>
+      <c r="B137" s="170"/>
+      <c r="C137" s="171"/>
       <c r="E137" s="77" t="s">
         <v>32</v>
       </c>
@@ -14681,8 +15644,8 @@
       <c r="R137" s="36"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="172"/>
-      <c r="C138" s="169" t="s">
+      <c r="B138" s="170"/>
+      <c r="C138" s="171" t="s">
         <v>34</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -14732,8 +15695,8 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="172"/>
-      <c r="C139" s="169"/>
+      <c r="B139" s="170"/>
+      <c r="C139" s="171"/>
       <c r="E139" s="77" t="s">
         <v>263</v>
       </c>
@@ -14762,8 +15725,8 @@
       <c r="R139" s="36"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B140" s="172"/>
-      <c r="C140" s="169"/>
+      <c r="B140" s="170"/>
+      <c r="C140" s="171"/>
       <c r="E140" s="77" t="s">
         <v>32</v>
       </c>
@@ -14792,8 +15755,8 @@
       <c r="R140" s="36"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B141" s="172"/>
-      <c r="C141" s="169" t="s">
+      <c r="B141" s="170"/>
+      <c r="C141" s="171" t="s">
         <v>35</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -14839,8 +15802,8 @@
       </c>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B142" s="172"/>
-      <c r="C142" s="169"/>
+      <c r="B142" s="170"/>
+      <c r="C142" s="171"/>
       <c r="E142" s="77" t="s">
         <v>32</v>
       </c>
@@ -14867,8 +15830,8 @@
       <c r="R142" s="36"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B143" s="172"/>
-      <c r="C143" s="169"/>
+      <c r="B143" s="170"/>
+      <c r="C143" s="171"/>
       <c r="E143" s="77" t="s">
         <v>335</v>
       </c>
@@ -14895,8 +15858,8 @@
       <c r="R143" s="36"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B144" s="172"/>
-      <c r="C144" s="169" t="s">
+      <c r="B144" s="170"/>
+      <c r="C144" s="171" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -14944,8 +15907,8 @@
       </c>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B145" s="172"/>
-      <c r="C145" s="169"/>
+      <c r="B145" s="170"/>
+      <c r="C145" s="171"/>
       <c r="E145" s="77" t="s">
         <v>32</v>
       </c>
@@ -14974,8 +15937,8 @@
       <c r="R145" s="36"/>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B146" s="172"/>
-      <c r="C146" s="169"/>
+      <c r="B146" s="170"/>
+      <c r="C146" s="171"/>
       <c r="E146" s="77" t="s">
         <v>413</v>
       </c>
@@ -15004,8 +15967,8 @@
       <c r="R146" s="36"/>
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B147" s="172"/>
-      <c r="C147" s="169" t="s">
+      <c r="B147" s="170"/>
+      <c r="C147" s="171" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -15055,8 +16018,8 @@
       </c>
     </row>
     <row r="148" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B148" s="172"/>
-      <c r="C148" s="169"/>
+      <c r="B148" s="170"/>
+      <c r="C148" s="171"/>
       <c r="E148" s="77" t="s">
         <v>263</v>
       </c>
@@ -15085,8 +16048,8 @@
       <c r="R148" s="36"/>
     </row>
     <row r="149" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B149" s="172"/>
-      <c r="C149" s="169"/>
+      <c r="B149" s="170"/>
+      <c r="C149" s="171"/>
       <c r="E149" s="77" t="s">
         <v>32</v>
       </c>
@@ -15115,8 +16078,8 @@
       <c r="R149" s="36"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B150" s="172"/>
-      <c r="C150" s="169" t="s">
+      <c r="B150" s="170"/>
+      <c r="C150" s="171" t="s">
         <v>36</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -15166,8 +16129,8 @@
       </c>
     </row>
     <row r="151" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B151" s="172"/>
-      <c r="C151" s="169"/>
+      <c r="B151" s="170"/>
+      <c r="C151" s="171"/>
       <c r="E151" s="77" t="s">
         <v>263</v>
       </c>
@@ -15196,8 +16159,8 @@
       <c r="R151" s="36"/>
     </row>
     <row r="152" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B152" s="172"/>
-      <c r="C152" s="169"/>
+      <c r="B152" s="170"/>
+      <c r="C152" s="171"/>
       <c r="E152" s="77" t="s">
         <v>32</v>
       </c>
@@ -15226,8 +16189,8 @@
       <c r="R152" s="36"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B153" s="172"/>
-      <c r="C153" s="169"/>
+      <c r="B153" s="170"/>
+      <c r="C153" s="171"/>
       <c r="E153" s="77" t="s">
         <v>444</v>
       </c>
@@ -15256,8 +16219,8 @@
       <c r="R153" s="36"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B154" s="172"/>
-      <c r="C154" s="169" t="s">
+      <c r="B154" s="170"/>
+      <c r="C154" s="171" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -15307,8 +16270,8 @@
       </c>
     </row>
     <row r="155" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B155" s="172"/>
-      <c r="C155" s="169"/>
+      <c r="B155" s="170"/>
+      <c r="C155" s="171"/>
       <c r="E155" s="1" t="s">
         <v>263</v>
       </c>
@@ -15337,7 +16300,7 @@
       <c r="R155" s="36"/>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B156" s="172"/>
+      <c r="B156" s="170"/>
       <c r="C156" s="85"/>
       <c r="E156" s="1" t="s">
         <v>335</v>
@@ -15367,7 +16330,7 @@
       <c r="R156" s="36"/>
     </row>
     <row r="157" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B157" s="172"/>
+      <c r="B157" s="170"/>
       <c r="C157" s="85"/>
       <c r="E157" s="1" t="s">
         <v>32</v>
@@ -15397,7 +16360,7 @@
       <c r="R157" s="36"/>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B158" s="172"/>
+      <c r="B158" s="170"/>
       <c r="C158" s="85"/>
       <c r="E158" s="1" t="s">
         <v>445</v>
@@ -15427,8 +16390,8 @@
       <c r="R158" s="36"/>
     </row>
     <row r="159" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B159" s="172"/>
-      <c r="C159" s="169" t="s">
+      <c r="B159" s="170"/>
+      <c r="C159" s="171" t="s">
         <v>19</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -15478,8 +16441,8 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B160" s="172"/>
-      <c r="C160" s="169"/>
+      <c r="B160" s="170"/>
+      <c r="C160" s="171"/>
       <c r="E160" s="77" t="s">
         <v>263</v>
       </c>
@@ -15508,8 +16471,8 @@
       <c r="R160" s="36"/>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B161" s="172"/>
-      <c r="C161" s="169" t="s">
+      <c r="B161" s="170"/>
+      <c r="C161" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -15559,8 +16522,8 @@
       </c>
     </row>
     <row r="162" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B162" s="172"/>
-      <c r="C162" s="169"/>
+      <c r="B162" s="170"/>
+      <c r="C162" s="171"/>
       <c r="E162" s="77" t="s">
         <v>263</v>
       </c>
@@ -15589,8 +16552,8 @@
       <c r="R162" s="36"/>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B163" s="172"/>
-      <c r="C163" s="169"/>
+      <c r="B163" s="170"/>
+      <c r="C163" s="171"/>
       <c r="E163" s="77" t="s">
         <v>32</v>
       </c>
@@ -15619,8 +16582,8 @@
       <c r="R163" s="36"/>
     </row>
     <row r="164" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B164" s="172"/>
-      <c r="C164" s="169" t="s">
+      <c r="B164" s="170"/>
+      <c r="C164" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -15670,8 +16633,8 @@
       </c>
     </row>
     <row r="165" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B165" s="172"/>
-      <c r="C165" s="169"/>
+      <c r="B165" s="170"/>
+      <c r="C165" s="171"/>
       <c r="E165" s="77" t="s">
         <v>263</v>
       </c>
@@ -15700,8 +16663,8 @@
       <c r="R165" s="36"/>
     </row>
     <row r="166" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B166" s="172"/>
-      <c r="C166" s="169"/>
+      <c r="B166" s="170"/>
+      <c r="C166" s="171"/>
       <c r="E166" s="77" t="s">
         <v>32</v>
       </c>
@@ -15730,8 +16693,8 @@
       <c r="R166" s="36"/>
     </row>
     <row r="167" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B167" s="172"/>
-      <c r="C167" s="169"/>
+      <c r="B167" s="170"/>
+      <c r="C167" s="171"/>
       <c r="E167" s="77" t="s">
         <v>392</v>
       </c>
@@ -15760,8 +16723,8 @@
       <c r="R167" s="36"/>
     </row>
     <row r="168" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B168" s="172"/>
-      <c r="C168" s="169"/>
+      <c r="B168" s="170"/>
+      <c r="C168" s="171"/>
       <c r="E168" s="77" t="s">
         <v>393</v>
       </c>
@@ -15790,8 +16753,8 @@
       <c r="R168" s="36"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B169" s="172"/>
-      <c r="C169" s="169"/>
+      <c r="B169" s="170"/>
+      <c r="C169" s="171"/>
       <c r="E169" s="77" t="s">
         <v>394</v>
       </c>
@@ -15820,8 +16783,8 @@
       <c r="R169" s="36"/>
     </row>
     <row r="170" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B170" s="172"/>
-      <c r="C170" s="169"/>
+      <c r="B170" s="170"/>
+      <c r="C170" s="171"/>
       <c r="E170" s="77" t="s">
         <v>395</v>
       </c>
@@ -15850,8 +16813,8 @@
       <c r="R170" s="36"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B171" s="172"/>
-      <c r="C171" s="169"/>
+      <c r="B171" s="170"/>
+      <c r="C171" s="171"/>
       <c r="E171" s="77" t="s">
         <v>396</v>
       </c>
@@ -15880,8 +16843,8 @@
       <c r="R171" s="36"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B172" s="172"/>
-      <c r="C172" s="169" t="s">
+      <c r="B172" s="170"/>
+      <c r="C172" s="171" t="s">
         <v>38</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -15931,8 +16894,8 @@
       </c>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B173" s="172"/>
-      <c r="C173" s="169"/>
+      <c r="B173" s="170"/>
+      <c r="C173" s="171"/>
       <c r="E173" s="77" t="s">
         <v>263</v>
       </c>
@@ -15961,8 +16924,8 @@
       <c r="R173" s="36"/>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B174" s="172"/>
-      <c r="C174" s="169"/>
+      <c r="B174" s="170"/>
+      <c r="C174" s="171"/>
       <c r="E174" s="77" t="s">
         <v>32</v>
       </c>
@@ -15991,8 +16954,8 @@
       <c r="R174" s="36"/>
     </row>
     <row r="175" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B175" s="172"/>
-      <c r="C175" s="169" t="s">
+      <c r="B175" s="170"/>
+      <c r="C175" s="171" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -16042,8 +17005,8 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B176" s="172"/>
-      <c r="C176" s="169"/>
+      <c r="B176" s="170"/>
+      <c r="C176" s="171"/>
       <c r="E176" s="77" t="s">
         <v>263</v>
       </c>
@@ -16072,8 +17035,8 @@
       <c r="R176" s="36"/>
     </row>
     <row r="177" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B177" s="172"/>
-      <c r="C177" s="169"/>
+      <c r="B177" s="170"/>
+      <c r="C177" s="171"/>
       <c r="E177" s="77" t="s">
         <v>32</v>
       </c>
@@ -16102,8 +17065,8 @@
       <c r="R177" s="36"/>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B178" s="172"/>
-      <c r="C178" s="169"/>
+      <c r="B178" s="170"/>
+      <c r="C178" s="171"/>
       <c r="E178" s="77" t="s">
         <v>335</v>
       </c>
@@ -16132,8 +17095,8 @@
       <c r="R178" s="36"/>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B179" s="172"/>
-      <c r="C179" s="169" t="s">
+      <c r="B179" s="170"/>
+      <c r="C179" s="171" t="s">
         <v>33</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -16183,8 +17146,8 @@
       </c>
     </row>
     <row r="180" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B180" s="172"/>
-      <c r="C180" s="169"/>
+      <c r="B180" s="170"/>
+      <c r="C180" s="171"/>
       <c r="E180" s="77" t="s">
         <v>263</v>
       </c>
@@ -16213,8 +17176,8 @@
       <c r="R180" s="36"/>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B181" s="172"/>
-      <c r="C181" s="169"/>
+      <c r="B181" s="170"/>
+      <c r="C181" s="171"/>
       <c r="E181" s="77" t="s">
         <v>32</v>
       </c>
@@ -16243,8 +17206,8 @@
       <c r="R181" s="36"/>
     </row>
     <row r="182" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B182" s="172"/>
-      <c r="C182" s="169"/>
+      <c r="B182" s="170"/>
+      <c r="C182" s="171"/>
       <c r="E182" s="77" t="s">
         <v>392</v>
       </c>
@@ -16273,8 +17236,8 @@
       <c r="R182" s="36"/>
     </row>
     <row r="183" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B183" s="172"/>
-      <c r="C183" s="169"/>
+      <c r="B183" s="170"/>
+      <c r="C183" s="171"/>
       <c r="E183" s="77" t="s">
         <v>393</v>
       </c>
@@ -16303,8 +17266,8 @@
       <c r="R183" s="36"/>
     </row>
     <row r="184" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B184" s="172"/>
-      <c r="C184" s="169"/>
+      <c r="B184" s="170"/>
+      <c r="C184" s="171"/>
       <c r="E184" s="77" t="s">
         <v>394</v>
       </c>
@@ -16333,8 +17296,8 @@
       <c r="R184" s="36"/>
     </row>
     <row r="185" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B185" s="172"/>
-      <c r="C185" s="169"/>
+      <c r="B185" s="170"/>
+      <c r="C185" s="171"/>
       <c r="E185" s="77" t="s">
         <v>395</v>
       </c>
@@ -16363,8 +17326,8 @@
       <c r="R185" s="36"/>
     </row>
     <row r="186" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B186" s="172"/>
-      <c r="C186" s="169"/>
+      <c r="B186" s="170"/>
+      <c r="C186" s="171"/>
       <c r="E186" s="77" t="s">
         <v>396</v>
       </c>
@@ -16393,8 +17356,8 @@
       <c r="R186" s="36"/>
     </row>
     <row r="187" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B187" s="172"/>
-      <c r="C187" s="169" t="s">
+      <c r="B187" s="170"/>
+      <c r="C187" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -16442,8 +17405,8 @@
       </c>
     </row>
     <row r="188" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B188" s="172"/>
-      <c r="C188" s="169"/>
+      <c r="B188" s="170"/>
+      <c r="C188" s="171"/>
       <c r="E188" s="77" t="s">
         <v>263</v>
       </c>
@@ -16470,8 +17433,8 @@
       <c r="R188" s="36"/>
     </row>
     <row r="189" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B189" s="172"/>
-      <c r="C189" s="169" t="s">
+      <c r="B189" s="170"/>
+      <c r="C189" s="171" t="s">
         <v>41</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -16521,8 +17484,8 @@
       </c>
     </row>
     <row r="190" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B190" s="172"/>
-      <c r="C190" s="169"/>
+      <c r="B190" s="170"/>
+      <c r="C190" s="171"/>
       <c r="E190" s="77" t="s">
         <v>263</v>
       </c>
@@ -16551,8 +17514,8 @@
       <c r="R190" s="36"/>
     </row>
     <row r="191" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B191" s="172"/>
-      <c r="C191" s="169"/>
+      <c r="B191" s="170"/>
+      <c r="C191" s="171"/>
       <c r="E191" s="77" t="s">
         <v>335</v>
       </c>
@@ -16581,8 +17544,8 @@
       <c r="R191" s="36"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B192" s="172"/>
-      <c r="C192" s="169" t="s">
+      <c r="B192" s="170"/>
+      <c r="C192" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -16632,8 +17595,8 @@
       </c>
     </row>
     <row r="193" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B193" s="172"/>
-      <c r="C193" s="169"/>
+      <c r="B193" s="170"/>
+      <c r="C193" s="171"/>
       <c r="E193" s="77" t="s">
         <v>263</v>
       </c>
@@ -16662,8 +17625,8 @@
       <c r="R193" s="36"/>
     </row>
     <row r="194" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B194" s="172"/>
-      <c r="C194" s="169"/>
+      <c r="B194" s="170"/>
+      <c r="C194" s="171"/>
       <c r="E194" s="77" t="s">
         <v>32</v>
       </c>
@@ -16692,8 +17655,8 @@
       <c r="R194" s="36"/>
     </row>
     <row r="195" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B195" s="172"/>
-      <c r="C195" s="169"/>
+      <c r="B195" s="170"/>
+      <c r="C195" s="171"/>
       <c r="E195" s="77" t="s">
         <v>335</v>
       </c>
@@ -16722,8 +17685,8 @@
       <c r="R195" s="36"/>
     </row>
     <row r="196" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B196" s="172"/>
-      <c r="C196" s="169" t="s">
+      <c r="B196" s="170"/>
+      <c r="C196" s="171" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -16773,8 +17736,8 @@
       </c>
     </row>
     <row r="197" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B197" s="172"/>
-      <c r="C197" s="169"/>
+      <c r="B197" s="170"/>
+      <c r="C197" s="171"/>
       <c r="E197" s="1" t="s">
         <v>263</v>
       </c>
@@ -16803,8 +17766,8 @@
       <c r="R197" s="36"/>
     </row>
     <row r="198" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B198" s="172"/>
-      <c r="C198" s="169"/>
+      <c r="B198" s="170"/>
+      <c r="C198" s="171"/>
       <c r="E198" s="1" t="s">
         <v>335</v>
       </c>
@@ -16833,8 +17796,8 @@
       <c r="R198" s="36"/>
     </row>
     <row r="199" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B199" s="172"/>
-      <c r="C199" s="169"/>
+      <c r="B199" s="170"/>
+      <c r="C199" s="171"/>
       <c r="E199" s="1" t="s">
         <v>32</v>
       </c>
@@ -16863,8 +17826,8 @@
       <c r="R199" s="36"/>
     </row>
     <row r="200" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B200" s="173"/>
-      <c r="C200" s="170"/>
+      <c r="B200" s="174"/>
+      <c r="C200" s="173"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13" t="s">
         <v>445</v>
@@ -16894,28 +17857,28 @@
       <c r="R200" s="87"/>
     </row>
     <row r="206" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U206" s="152" t="s">
+      <c r="U206" s="164" t="s">
         <v>349</v>
       </c>
-      <c r="V206" s="152"/>
-      <c r="W206" s="152"/>
-      <c r="X206" s="152"/>
-      <c r="Y206" s="152"/>
-      <c r="Z206" s="152"/>
-      <c r="AA206" s="152"/>
-      <c r="AB206" s="152"/>
-      <c r="AC206" s="152"/>
-      <c r="AD206" s="152"/>
-      <c r="AE206" s="152"/>
-      <c r="AF206" s="152"/>
-      <c r="AG206" s="152"/>
-      <c r="AH206" s="152"/>
-      <c r="AI206" s="152"/>
-      <c r="AJ206" s="152"/>
-      <c r="AK206" s="152"/>
-      <c r="AL206" s="152"/>
-      <c r="AM206" s="152"/>
-      <c r="AN206" s="152"/>
+      <c r="V206" s="164"/>
+      <c r="W206" s="164"/>
+      <c r="X206" s="164"/>
+      <c r="Y206" s="164"/>
+      <c r="Z206" s="164"/>
+      <c r="AA206" s="164"/>
+      <c r="AB206" s="164"/>
+      <c r="AC206" s="164"/>
+      <c r="AD206" s="164"/>
+      <c r="AE206" s="164"/>
+      <c r="AF206" s="164"/>
+      <c r="AG206" s="164"/>
+      <c r="AH206" s="164"/>
+      <c r="AI206" s="164"/>
+      <c r="AJ206" s="164"/>
+      <c r="AK206" s="164"/>
+      <c r="AL206" s="164"/>
+      <c r="AM206" s="164"/>
+      <c r="AN206" s="164"/>
     </row>
     <row r="207" spans="2:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U207" s="13" t="s">
@@ -17190,28 +18153,28 @@
       <c r="AN211" s="13"/>
     </row>
     <row r="213" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U213" s="152" t="s">
+      <c r="U213" s="164" t="s">
         <v>350</v>
       </c>
-      <c r="V213" s="152"/>
-      <c r="W213" s="152"/>
-      <c r="X213" s="152"/>
-      <c r="Y213" s="152"/>
-      <c r="Z213" s="152"/>
-      <c r="AA213" s="152"/>
-      <c r="AB213" s="152"/>
-      <c r="AC213" s="152"/>
-      <c r="AD213" s="152"/>
-      <c r="AE213" s="152"/>
-      <c r="AF213" s="152"/>
-      <c r="AG213" s="152"/>
-      <c r="AH213" s="152"/>
-      <c r="AI213" s="152"/>
-      <c r="AJ213" s="152"/>
-      <c r="AK213" s="152"/>
-      <c r="AL213" s="152"/>
-      <c r="AM213" s="152"/>
-      <c r="AN213" s="152"/>
+      <c r="V213" s="164"/>
+      <c r="W213" s="164"/>
+      <c r="X213" s="164"/>
+      <c r="Y213" s="164"/>
+      <c r="Z213" s="164"/>
+      <c r="AA213" s="164"/>
+      <c r="AB213" s="164"/>
+      <c r="AC213" s="164"/>
+      <c r="AD213" s="164"/>
+      <c r="AE213" s="164"/>
+      <c r="AF213" s="164"/>
+      <c r="AG213" s="164"/>
+      <c r="AH213" s="164"/>
+      <c r="AI213" s="164"/>
+      <c r="AJ213" s="164"/>
+      <c r="AK213" s="164"/>
+      <c r="AL213" s="164"/>
+      <c r="AM213" s="164"/>
+      <c r="AN213" s="164"/>
     </row>
     <row r="214" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U214" s="13" t="s">
@@ -17501,28 +18464,28 @@
       </c>
     </row>
     <row r="221" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U221" s="152" t="s">
+      <c r="U221" s="164" t="s">
         <v>352</v>
       </c>
-      <c r="V221" s="152"/>
-      <c r="W221" s="152"/>
-      <c r="X221" s="152"/>
-      <c r="Y221" s="152"/>
-      <c r="Z221" s="152"/>
-      <c r="AA221" s="152"/>
-      <c r="AB221" s="152"/>
-      <c r="AC221" s="152"/>
-      <c r="AD221" s="152"/>
-      <c r="AE221" s="152"/>
-      <c r="AF221" s="152"/>
-      <c r="AG221" s="152"/>
-      <c r="AH221" s="152"/>
-      <c r="AI221" s="152"/>
-      <c r="AJ221" s="152"/>
-      <c r="AK221" s="152"/>
-      <c r="AL221" s="152"/>
-      <c r="AM221" s="152"/>
-      <c r="AN221" s="152"/>
+      <c r="V221" s="164"/>
+      <c r="W221" s="164"/>
+      <c r="X221" s="164"/>
+      <c r="Y221" s="164"/>
+      <c r="Z221" s="164"/>
+      <c r="AA221" s="164"/>
+      <c r="AB221" s="164"/>
+      <c r="AC221" s="164"/>
+      <c r="AD221" s="164"/>
+      <c r="AE221" s="164"/>
+      <c r="AF221" s="164"/>
+      <c r="AG221" s="164"/>
+      <c r="AH221" s="164"/>
+      <c r="AI221" s="164"/>
+      <c r="AJ221" s="164"/>
+      <c r="AK221" s="164"/>
+      <c r="AL221" s="164"/>
+      <c r="AM221" s="164"/>
+      <c r="AN221" s="164"/>
     </row>
     <row r="222" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U222" s="13" t="s">
@@ -17799,28 +18762,28 @@
       <c r="AN226" s="26"/>
     </row>
     <row r="229" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U229" s="152" t="s">
+      <c r="U229" s="164" t="s">
         <v>355</v>
       </c>
-      <c r="V229" s="152"/>
-      <c r="W229" s="152"/>
-      <c r="X229" s="152"/>
-      <c r="Y229" s="152"/>
-      <c r="Z229" s="152"/>
-      <c r="AA229" s="152"/>
-      <c r="AB229" s="152"/>
-      <c r="AC229" s="152"/>
-      <c r="AD229" s="152"/>
-      <c r="AE229" s="152"/>
-      <c r="AF229" s="152"/>
-      <c r="AG229" s="152"/>
-      <c r="AH229" s="152"/>
-      <c r="AI229" s="152"/>
-      <c r="AJ229" s="152"/>
-      <c r="AK229" s="152"/>
-      <c r="AL229" s="152"/>
-      <c r="AM229" s="152"/>
-      <c r="AN229" s="152"/>
+      <c r="V229" s="164"/>
+      <c r="W229" s="164"/>
+      <c r="X229" s="164"/>
+      <c r="Y229" s="164"/>
+      <c r="Z229" s="164"/>
+      <c r="AA229" s="164"/>
+      <c r="AB229" s="164"/>
+      <c r="AC229" s="164"/>
+      <c r="AD229" s="164"/>
+      <c r="AE229" s="164"/>
+      <c r="AF229" s="164"/>
+      <c r="AG229" s="164"/>
+      <c r="AH229" s="164"/>
+      <c r="AI229" s="164"/>
+      <c r="AJ229" s="164"/>
+      <c r="AK229" s="164"/>
+      <c r="AL229" s="164"/>
+      <c r="AM229" s="164"/>
+      <c r="AN229" s="164"/>
     </row>
     <row r="230" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U230" s="13" t="s">
@@ -18305,16 +19268,51 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="71">
-    <mergeCell ref="B3:S3"/>
-    <mergeCell ref="B5:B35"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C179:C186"/>
+    <mergeCell ref="U229:AN229"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="C196:C200"/>
+    <mergeCell ref="U206:AN206"/>
+    <mergeCell ref="U213:AN213"/>
+    <mergeCell ref="U221:AN221"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="B131:B200"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="C164:C171"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B82:B129"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C115:C116"/>
     <mergeCell ref="C71:C73"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C32:C34"/>
@@ -18331,51 +19329,16 @@
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C65:C68"/>
     <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="B82:B129"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B131:B200"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="C164:C171"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="C179:C186"/>
-    <mergeCell ref="U229:AN229"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="C196:C200"/>
-    <mergeCell ref="U206:AN206"/>
-    <mergeCell ref="U213:AN213"/>
-    <mergeCell ref="U221:AN221"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B5:B35"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18402,14 +19365,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -18433,7 +19396,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="157" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -18447,7 +19410,7 @@
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="162"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
@@ -18456,7 +19419,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="162"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -18465,7 +19428,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="162"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -18474,7 +19437,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="154"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
@@ -18486,7 +19449,7 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="157" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18500,7 +19463,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="162"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
@@ -18512,7 +19475,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="162"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -18524,7 +19487,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="162"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -18533,7 +19496,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="154"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -18545,7 +19508,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="157" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -18561,7 +19524,7 @@
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="162"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -18573,7 +19536,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="162"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -18588,7 +19551,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="162"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -18600,7 +19563,7 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="154"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -18614,7 +19577,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="158" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -18625,7 +19588,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="162"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -18634,7 +19597,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="162"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -18643,7 +19606,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="162"/>
+      <c r="B22" s="158"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -18652,7 +19615,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="154"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
@@ -18664,18 +19627,18 @@
       <c r="G23" s="13"/>
     </row>
     <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="152" t="s">
+      <c r="J30" s="164" t="s">
         <v>274</v>
       </c>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="152"/>
-      <c r="S30" s="152"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="164"/>
+      <c r="S30" s="164"/>
     </row>
     <row r="31" spans="2:20" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J31" s="55" t="s">
@@ -18710,7 +19673,7 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J32" s="171" t="s">
+      <c r="J32" s="169" t="s">
         <v>79</v>
       </c>
       <c r="K32" s="14" t="s">
@@ -18724,7 +19687,7 @@
       </c>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J33" s="172"/>
+      <c r="J33" s="170"/>
       <c r="K33" s="14" t="s">
         <v>16</v>
       </c>
@@ -18733,7 +19696,7 @@
       </c>
     </row>
     <row r="34" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J34" s="172"/>
+      <c r="J34" s="170"/>
       <c r="K34" s="14" t="s">
         <v>17</v>
       </c>
@@ -18742,7 +19705,7 @@
       </c>
     </row>
     <row r="35" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J35" s="172"/>
+      <c r="J35" s="170"/>
       <c r="K35" s="14" t="s">
         <v>34</v>
       </c>
@@ -18751,7 +19714,7 @@
       </c>
     </row>
     <row r="36" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J36" s="172"/>
+      <c r="J36" s="170"/>
       <c r="K36" s="14" t="s">
         <v>35</v>
       </c>
@@ -18760,7 +19723,7 @@
       </c>
     </row>
     <row r="37" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J37" s="172"/>
+      <c r="J37" s="170"/>
       <c r="K37" s="14" t="s">
         <v>18</v>
       </c>
@@ -18772,7 +19735,7 @@
       </c>
     </row>
     <row r="38" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J38" s="172"/>
+      <c r="J38" s="170"/>
       <c r="K38" s="14" t="s">
         <v>37</v>
       </c>
@@ -18781,7 +19744,7 @@
       </c>
     </row>
     <row r="39" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J39" s="172"/>
+      <c r="J39" s="170"/>
       <c r="K39" s="14" t="s">
         <v>36</v>
       </c>
@@ -18790,7 +19753,7 @@
       </c>
     </row>
     <row r="40" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J40" s="172"/>
+      <c r="J40" s="170"/>
       <c r="K40" s="14" t="s">
         <v>12</v>
       </c>
@@ -18802,7 +19765,7 @@
       </c>
     </row>
     <row r="41" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J41" s="172"/>
+      <c r="J41" s="170"/>
       <c r="K41" s="14" t="s">
         <v>19</v>
       </c>
@@ -18814,7 +19777,7 @@
       </c>
     </row>
     <row r="42" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="172"/>
+      <c r="J42" s="170"/>
       <c r="K42" s="14" t="s">
         <v>13</v>
       </c>
@@ -18826,7 +19789,7 @@
       </c>
     </row>
     <row r="43" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J43" s="172"/>
+      <c r="J43" s="170"/>
       <c r="K43" s="14" t="s">
         <v>14</v>
       </c>
@@ -18835,7 +19798,7 @@
       </c>
     </row>
     <row r="44" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J44" s="172"/>
+      <c r="J44" s="170"/>
       <c r="K44" s="14" t="s">
         <v>38</v>
       </c>
@@ -18844,7 +19807,7 @@
       </c>
     </row>
     <row r="45" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J45" s="172"/>
+      <c r="J45" s="170"/>
       <c r="K45" s="14" t="s">
         <v>20</v>
       </c>
@@ -18856,7 +19819,7 @@
       </c>
     </row>
     <row r="46" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J46" s="172"/>
+      <c r="J46" s="170"/>
       <c r="K46" s="14" t="s">
         <v>33</v>
       </c>
@@ -18865,7 +19828,7 @@
       </c>
     </row>
     <row r="47" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J47" s="172"/>
+      <c r="J47" s="170"/>
       <c r="K47" s="14" t="s">
         <v>39</v>
       </c>
@@ -18877,7 +19840,7 @@
       </c>
     </row>
     <row r="48" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J48" s="172"/>
+      <c r="J48" s="170"/>
       <c r="K48" s="14" t="s">
         <v>41</v>
       </c>
@@ -18886,7 +19849,7 @@
       </c>
     </row>
     <row r="49" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J49" s="172"/>
+      <c r="J49" s="170"/>
       <c r="K49" s="14" t="s">
         <v>42</v>
       </c>
@@ -18895,7 +19858,7 @@
       </c>
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J50" s="172"/>
+      <c r="J50" s="170"/>
       <c r="K50" s="15" t="s">
         <v>15</v>
       </c>
@@ -18904,7 +19867,7 @@
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J51" s="171" t="s">
+      <c r="J51" s="169" t="s">
         <v>80</v>
       </c>
       <c r="K51" s="14" t="s">
@@ -18915,7 +19878,7 @@
       </c>
     </row>
     <row r="52" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J52" s="172"/>
+      <c r="J52" s="170"/>
       <c r="K52" s="14" t="s">
         <v>16</v>
       </c>
@@ -18924,7 +19887,7 @@
       </c>
     </row>
     <row r="53" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J53" s="172"/>
+      <c r="J53" s="170"/>
       <c r="K53" s="14" t="s">
         <v>17</v>
       </c>
@@ -18933,7 +19896,7 @@
       </c>
     </row>
     <row r="54" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J54" s="172"/>
+      <c r="J54" s="170"/>
       <c r="K54" s="14" t="s">
         <v>34</v>
       </c>
@@ -18942,7 +19905,7 @@
       </c>
     </row>
     <row r="55" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J55" s="172"/>
+      <c r="J55" s="170"/>
       <c r="K55" s="14" t="s">
         <v>35</v>
       </c>
@@ -18951,7 +19914,7 @@
       </c>
     </row>
     <row r="56" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J56" s="172"/>
+      <c r="J56" s="170"/>
       <c r="K56" s="14" t="s">
         <v>18</v>
       </c>
@@ -18960,7 +19923,7 @@
       </c>
     </row>
     <row r="57" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J57" s="172"/>
+      <c r="J57" s="170"/>
       <c r="K57" s="14" t="s">
         <v>37</v>
       </c>
@@ -18972,7 +19935,7 @@
       </c>
     </row>
     <row r="58" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J58" s="172"/>
+      <c r="J58" s="170"/>
       <c r="K58" s="14" t="s">
         <v>36</v>
       </c>
@@ -18981,7 +19944,7 @@
       </c>
     </row>
     <row r="59" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J59" s="172"/>
+      <c r="J59" s="170"/>
       <c r="K59" s="14" t="s">
         <v>12</v>
       </c>
@@ -18993,7 +19956,7 @@
       </c>
     </row>
     <row r="60" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J60" s="172"/>
+      <c r="J60" s="170"/>
       <c r="K60" s="14" t="s">
         <v>19</v>
       </c>
@@ -19002,7 +19965,7 @@
       </c>
     </row>
     <row r="61" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J61" s="172"/>
+      <c r="J61" s="170"/>
       <c r="K61" s="14" t="s">
         <v>13</v>
       </c>
@@ -19014,7 +19977,7 @@
       </c>
     </row>
     <row r="62" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J62" s="172"/>
+      <c r="J62" s="170"/>
       <c r="K62" s="14" t="s">
         <v>14</v>
       </c>
@@ -19023,7 +19986,7 @@
       </c>
     </row>
     <row r="63" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J63" s="172"/>
+      <c r="J63" s="170"/>
       <c r="K63" s="14" t="s">
         <v>38</v>
       </c>
@@ -19035,7 +19998,7 @@
       </c>
     </row>
     <row r="64" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J64" s="172"/>
+      <c r="J64" s="170"/>
       <c r="K64" s="14" t="s">
         <v>20</v>
       </c>
@@ -19047,7 +20010,7 @@
       </c>
     </row>
     <row r="65" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J65" s="172"/>
+      <c r="J65" s="170"/>
       <c r="K65" s="14" t="s">
         <v>33</v>
       </c>
@@ -19059,7 +20022,7 @@
       </c>
     </row>
     <row r="66" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J66" s="172"/>
+      <c r="J66" s="170"/>
       <c r="K66" s="14" t="s">
         <v>39</v>
       </c>
@@ -19071,7 +20034,7 @@
       </c>
     </row>
     <row r="67" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J67" s="172"/>
+      <c r="J67" s="170"/>
       <c r="K67" s="14" t="s">
         <v>41</v>
       </c>
@@ -19080,7 +20043,7 @@
       </c>
     </row>
     <row r="68" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J68" s="172"/>
+      <c r="J68" s="170"/>
       <c r="K68" s="14" t="s">
         <v>42</v>
       </c>
@@ -19092,7 +20055,7 @@
       </c>
     </row>
     <row r="69" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J69" s="172"/>
+      <c r="J69" s="170"/>
       <c r="K69" s="15" t="s">
         <v>15</v>
       </c>
@@ -19101,7 +20064,7 @@
       </c>
     </row>
     <row r="70" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J70" s="171" t="s">
+      <c r="J70" s="169" t="s">
         <v>81</v>
       </c>
       <c r="K70" s="14" t="s">
@@ -19115,7 +20078,7 @@
       </c>
     </row>
     <row r="71" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J71" s="172"/>
+      <c r="J71" s="170"/>
       <c r="K71" s="14" t="s">
         <v>16</v>
       </c>
@@ -19124,7 +20087,7 @@
       </c>
     </row>
     <row r="72" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J72" s="172"/>
+      <c r="J72" s="170"/>
       <c r="K72" s="14" t="s">
         <v>17</v>
       </c>
@@ -19136,7 +20099,7 @@
       </c>
     </row>
     <row r="73" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J73" s="172"/>
+      <c r="J73" s="170"/>
       <c r="K73" s="14" t="s">
         <v>34</v>
       </c>
@@ -19145,7 +20108,7 @@
       </c>
     </row>
     <row r="74" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J74" s="172"/>
+      <c r="J74" s="170"/>
       <c r="K74" s="14" t="s">
         <v>35</v>
       </c>
@@ -19154,7 +20117,7 @@
       </c>
     </row>
     <row r="75" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J75" s="172"/>
+      <c r="J75" s="170"/>
       <c r="K75" s="14" t="s">
         <v>18</v>
       </c>
@@ -19166,7 +20129,7 @@
       </c>
     </row>
     <row r="76" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J76" s="172"/>
+      <c r="J76" s="170"/>
       <c r="K76" s="14" t="s">
         <v>37</v>
       </c>
@@ -19175,7 +20138,7 @@
       </c>
     </row>
     <row r="77" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J77" s="172"/>
+      <c r="J77" s="170"/>
       <c r="K77" s="14" t="s">
         <v>36</v>
       </c>
@@ -19187,7 +20150,7 @@
       </c>
     </row>
     <row r="78" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J78" s="172"/>
+      <c r="J78" s="170"/>
       <c r="K78" s="14" t="s">
         <v>12</v>
       </c>
@@ -19196,7 +20159,7 @@
       </c>
     </row>
     <row r="79" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J79" s="172"/>
+      <c r="J79" s="170"/>
       <c r="K79" s="14" t="s">
         <v>19</v>
       </c>
@@ -19208,7 +20171,7 @@
       </c>
     </row>
     <row r="80" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J80" s="172"/>
+      <c r="J80" s="170"/>
       <c r="K80" s="14" t="s">
         <v>13</v>
       </c>
@@ -19220,7 +20183,7 @@
       </c>
     </row>
     <row r="81" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J81" s="172"/>
+      <c r="J81" s="170"/>
       <c r="K81" s="14" t="s">
         <v>14</v>
       </c>
@@ -19232,7 +20195,7 @@
       </c>
     </row>
     <row r="82" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J82" s="172"/>
+      <c r="J82" s="170"/>
       <c r="K82" s="14" t="s">
         <v>38</v>
       </c>
@@ -19247,7 +20210,7 @@
       </c>
     </row>
     <row r="83" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J83" s="172"/>
+      <c r="J83" s="170"/>
       <c r="K83" s="14" t="s">
         <v>20</v>
       </c>
@@ -19256,7 +20219,7 @@
       </c>
     </row>
     <row r="84" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J84" s="172"/>
+      <c r="J84" s="170"/>
       <c r="K84" s="14" t="s">
         <v>33</v>
       </c>
@@ -19265,7 +20228,7 @@
       </c>
     </row>
     <row r="85" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J85" s="172"/>
+      <c r="J85" s="170"/>
       <c r="K85" s="14" t="s">
         <v>39</v>
       </c>
@@ -19274,7 +20237,7 @@
       </c>
     </row>
     <row r="86" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J86" s="172"/>
+      <c r="J86" s="170"/>
       <c r="K86" s="14" t="s">
         <v>41</v>
       </c>
@@ -19289,7 +20252,7 @@
       </c>
     </row>
     <row r="87" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J87" s="172"/>
+      <c r="J87" s="170"/>
       <c r="K87" s="14" t="s">
         <v>42</v>
       </c>
@@ -19298,7 +20261,7 @@
       </c>
     </row>
     <row r="88" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J88" s="172"/>
+      <c r="J88" s="170"/>
       <c r="K88" s="15" t="s">
         <v>15</v>
       </c>
@@ -19310,7 +20273,7 @@
       </c>
     </row>
     <row r="89" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J89" s="171" t="s">
+      <c r="J89" s="169" t="s">
         <v>82</v>
       </c>
       <c r="K89" s="14" t="s">
@@ -19318,125 +20281,125 @@
       </c>
     </row>
     <row r="90" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J90" s="172"/>
+      <c r="J90" s="170"/>
       <c r="K90" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J91" s="172"/>
+      <c r="J91" s="170"/>
       <c r="K91" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J92" s="172"/>
+      <c r="J92" s="170"/>
       <c r="K92" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="93" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J93" s="172"/>
+      <c r="J93" s="170"/>
       <c r="K93" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J94" s="172"/>
+      <c r="J94" s="170"/>
       <c r="K94" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J95" s="172"/>
+      <c r="J95" s="170"/>
       <c r="K95" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="96" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J96" s="172"/>
+      <c r="J96" s="170"/>
       <c r="K96" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J97" s="172"/>
+      <c r="J97" s="170"/>
       <c r="K97" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J98" s="172"/>
+      <c r="J98" s="170"/>
       <c r="K98" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="99" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J99" s="172"/>
+      <c r="J99" s="170"/>
       <c r="K99" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J100" s="172"/>
+      <c r="J100" s="170"/>
       <c r="K100" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J101" s="172"/>
+      <c r="J101" s="170"/>
       <c r="K101" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J102" s="172"/>
+      <c r="J102" s="170"/>
       <c r="K102" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J103" s="172"/>
+      <c r="J103" s="170"/>
       <c r="K103" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="104" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J104" s="172"/>
+      <c r="J104" s="170"/>
       <c r="K104" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="105" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J105" s="172"/>
+      <c r="J105" s="170"/>
       <c r="K105" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="106" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J106" s="172"/>
+      <c r="J106" s="170"/>
       <c r="K106" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="107" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J107" s="172"/>
+      <c r="J107" s="170"/>
       <c r="K107" s="15" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
     <mergeCell ref="J89:J107"/>
     <mergeCell ref="J70:J88"/>
     <mergeCell ref="J32:J50"/>
     <mergeCell ref="J51:J69"/>
     <mergeCell ref="J30:S30"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A380C6CC-C024-8046-BA4E-454AA1B41F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9376F3-554C-F042-9BE1-2A464D4FB0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="4" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
   <sheets>
     <sheet name="exceedances" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'exceedance%_overall'!$A$1:$G$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'exceedance%_site'!$A$1:$H$2935</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'exceedance%_ssn'!$A$1:$H$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HDS!$K$32:$K$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HDS!$W$114:$AG$182</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PCAs!$A$1:$P$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11872" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11895" uniqueCount="464">
   <si>
     <t>Analyte</t>
   </si>
@@ -1580,48 +1580,33 @@
     <t>mixed</t>
   </si>
   <si>
-    <t>(Intercept)                -3.33716    0.45294 188.05922  -7.368 5.31e-12 ***</t>
+    <t>GM - Q79
+Do you ever NOT remove the screen/filter and leave your cistern without the filter?</t>
   </si>
   <si>
-    <t>seasonMonsoon               0.59693    0.11211 158.15507   5.325 3.42e-07 ***</t>
+    <t>Winter:proximity</t>
   </si>
   <si>
-    <t xml:space="preserve">Q671                        0.37750    0.16712  48.97472   2.259   0.0284 *  </t>
+    <t>Monsoon:proximity</t>
   </si>
   <si>
-    <t>pH                          0.47586    0.07526 178.13601   6.323 2.01e-09 ***</t>
+    <t>Does clean parts of roof draining system</t>
   </si>
   <si>
-    <t xml:space="preserve">seasonWinter:prox.normal   -0.20883    0.09158  68.48186  -2.280   0.0257 *  </t>
+    <t>Winter, does not clean parts of roof draining system</t>
   </si>
   <si>
-    <t xml:space="preserve">seasonMonsoon:prox.normal   0.05164    0.13755 163.38622   0.375   0.7078    </t>
+    <t>Cistern does have a screen/filter</t>
   </si>
   <si>
     <t>GM - Q77
-Does your cistern have a screen or filter for incoming water from down spout on top of the tank?</t>
+Does your cistern have a screen/filter for incoming water from down spout on top of the tank?</t>
   </si>
   <si>
-    <t>(Intercept)     2.4349     0.1837 32.6992  13.257 1.06e-14 ***</t>
+    <t>Winter, cistern does not have a screen/filter</t>
   </si>
   <si>
-    <t>seasonMonsoon   0.9362     0.1419 81.5937   6.596 3.92e-09 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prox.normal    -0.3093     0.1018 20.6389  -3.037  0.00635 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q771           -0.4216     0.2089 23.7079  -2.018  0.05508 .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Intercept)  -0.3224     0.1156  -2.789 0.006393 ** </t>
-  </si>
-  <si>
-    <t>Q771         -0.4617     0.1335  -3.459 0.000816 ***</t>
-  </si>
-  <si>
-    <t>GM - Q79
-Do you ever NOT remove the screen or filter and leave your cistern without the filter?</t>
+    <t>RE-DO</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2500,6 +2485,9 @@
     <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2589,6 +2577,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3567,27 +3572,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="164" t="s">
+      <c r="M31" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="164"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="164"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="165"/>
+      <c r="P31" s="165"/>
+      <c r="Q31" s="165"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="165" t="s">
+      <c r="M32" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="163" t="s">
+      <c r="N32" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="164"/>
     </row>
     <row r="33" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M33" s="159"/>
+      <c r="M33" s="160"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -3661,29 +3666,29 @@
       </c>
     </row>
     <row r="44" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y44" s="166" t="s">
+      <c r="Y44" s="167" t="s">
         <v>77</v>
       </c>
-      <c r="Z44" s="166"/>
-      <c r="AA44" s="166"/>
-      <c r="AB44" s="166"/>
-      <c r="AC44" s="166"/>
+      <c r="Z44" s="167"/>
+      <c r="AA44" s="167"/>
+      <c r="AB44" s="167"/>
+      <c r="AC44" s="167"/>
     </row>
     <row r="45" spans="13:29" x14ac:dyDescent="0.2">
       <c r="Y45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Z45" s="167" t="s">
+      <c r="Z45" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="AA45" s="167"/>
-      <c r="AB45" s="167"/>
+      <c r="AA45" s="168"/>
+      <c r="AB45" s="168"/>
       <c r="AC45" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y46" s="157" t="s">
+      <c r="Y46" s="158" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="8" t="s">
@@ -3697,7 +3702,7 @@
       </c>
     </row>
     <row r="47" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y47" s="158"/>
+      <c r="Y47" s="159"/>
       <c r="Z47" s="8">
         <v>0</v>
       </c>
@@ -3709,7 +3714,7 @@
       </c>
     </row>
     <row r="48" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y48" s="158"/>
+      <c r="Y48" s="159"/>
       <c r="Z48" s="8">
         <v>0.5</v>
       </c>
@@ -3721,7 +3726,7 @@
       </c>
     </row>
     <row r="49" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y49" s="158"/>
+      <c r="Y49" s="159"/>
       <c r="Z49" s="8">
         <v>1</v>
       </c>
@@ -3733,7 +3738,7 @@
       </c>
     </row>
     <row r="50" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y50" s="158"/>
+      <c r="Y50" s="159"/>
       <c r="Z50" s="8">
         <v>1.5</v>
       </c>
@@ -3745,7 +3750,7 @@
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="159"/>
+      <c r="Y51" s="160"/>
       <c r="Z51" s="11">
         <v>2</v>
       </c>
@@ -3758,7 +3763,7 @@
       <c r="AC51" s="13"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y52" s="157" t="s">
+      <c r="Y52" s="158" t="s">
         <v>69</v>
       </c>
       <c r="Z52" s="1" t="s">
@@ -3767,62 +3772,62 @@
       <c r="AA52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC52" s="160" t="s">
+      <c r="AC52" s="161" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="158"/>
+      <c r="Y53" s="159"/>
       <c r="Z53" s="1">
         <v>0</v>
       </c>
       <c r="AA53" s="34">
         <v>6.1733623452348702E-2</v>
       </c>
-      <c r="AC53" s="161"/>
+      <c r="AC53" s="162"/>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y54" s="158"/>
+      <c r="Y54" s="159"/>
       <c r="Z54" s="1">
         <v>2</v>
       </c>
       <c r="AA54" s="34">
         <v>1.20772053410085E-2</v>
       </c>
-      <c r="AC54" s="161"/>
+      <c r="AC54" s="162"/>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y55" s="158"/>
+      <c r="Y55" s="159"/>
       <c r="Z55" s="1">
         <v>4</v>
       </c>
       <c r="AA55" s="31">
         <v>2.2662402083130201E-3</v>
       </c>
-      <c r="AC55" s="161"/>
+      <c r="AC55" s="162"/>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y56" s="158"/>
+      <c r="Y56" s="159"/>
       <c r="Z56" s="1">
         <v>6</v>
       </c>
       <c r="AA56" s="28">
         <v>4.2184786680835203E-4</v>
       </c>
-      <c r="AC56" s="161"/>
+      <c r="AC56" s="162"/>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y57" s="158"/>
+      <c r="Y57" s="159"/>
       <c r="Z57" s="1">
         <v>8</v>
       </c>
       <c r="AA57" s="28">
         <v>7.8406646322768398E-5</v>
       </c>
-      <c r="AC57" s="161"/>
+      <c r="AC57" s="162"/>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y58" s="159"/>
+      <c r="Y58" s="160"/>
       <c r="Z58" s="13">
         <v>10</v>
       </c>
@@ -3830,10 +3835,10 @@
         <v>1.4568956039108299E-5</v>
       </c>
       <c r="AB58" s="13"/>
-      <c r="AC58" s="162"/>
+      <c r="AC58" s="163"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y59" s="157" t="s">
+      <c r="Y59" s="158" t="s">
         <v>73</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -3842,72 +3847,72 @@
       <c r="AA59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" s="160" t="s">
+      <c r="AC59" s="161" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y60" s="158"/>
+      <c r="Y60" s="159"/>
       <c r="Z60" s="1">
         <v>0</v>
       </c>
       <c r="AA60" s="34">
         <v>4.213704983443E-2</v>
       </c>
-      <c r="AC60" s="161"/>
+      <c r="AC60" s="162"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y61" s="158"/>
+      <c r="Y61" s="159"/>
       <c r="Z61" s="1">
         <v>4</v>
       </c>
       <c r="AA61" s="36">
         <v>0.70383460067707004</v>
       </c>
-      <c r="AC61" s="161"/>
+      <c r="AC61" s="162"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y62" s="158"/>
+      <c r="Y62" s="159"/>
       <c r="Z62" s="1">
         <v>8</v>
       </c>
       <c r="AA62" s="36">
         <v>0.99227108557330002</v>
       </c>
-      <c r="AC62" s="161"/>
+      <c r="AC62" s="162"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y63" s="158"/>
+      <c r="Y63" s="159"/>
       <c r="Z63" s="1">
         <v>12</v>
       </c>
       <c r="AA63" s="37">
         <v>0.99985583826317304</v>
       </c>
-      <c r="AC63" s="161"/>
+      <c r="AC63" s="162"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y64" s="158"/>
+      <c r="Y64" s="159"/>
       <c r="Z64" s="1">
         <v>16</v>
       </c>
       <c r="AA64" s="37">
         <v>0.99999733107778499</v>
       </c>
-      <c r="AC64" s="161"/>
+      <c r="AC64" s="162"/>
     </row>
     <row r="65" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y65" s="158"/>
+      <c r="Y65" s="159"/>
       <c r="Z65" s="1">
         <v>20</v>
       </c>
       <c r="AA65" s="37">
         <v>0.99999995059606805</v>
       </c>
-      <c r="AC65" s="161"/>
+      <c r="AC65" s="162"/>
     </row>
     <row r="66" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y66" s="159"/>
+      <c r="Y66" s="160"/>
       <c r="Z66" s="13">
         <v>24</v>
       </c>
@@ -3915,7 +3920,7 @@
         <v>0.99999999908549497</v>
       </c>
       <c r="AB66" s="13"/>
-      <c r="AC66" s="162"/>
+      <c r="AC66" s="163"/>
     </row>
     <row r="71" spans="25:36" x14ac:dyDescent="0.2">
       <c r="AD71" s="1" t="s">
@@ -3964,7 +3969,7 @@
       </c>
     </row>
     <row r="74" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD74" s="160" t="s">
+      <c r="AD74" s="161" t="s">
         <v>9</v>
       </c>
       <c r="AE74" s="48" t="s">
@@ -3984,7 +3989,7 @@
       </c>
     </row>
     <row r="75" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="162"/>
+      <c r="AD75" s="163"/>
       <c r="AE75" s="49" t="s">
         <v>13</v>
       </c>
@@ -4002,7 +4007,7 @@
       </c>
     </row>
     <row r="76" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD76" s="160" t="s">
+      <c r="AD76" s="161" t="s">
         <v>10</v>
       </c>
       <c r="AE76" s="48" t="s">
@@ -4022,7 +4027,7 @@
       </c>
     </row>
     <row r="77" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD77" s="161"/>
+      <c r="AD77" s="162"/>
       <c r="AE77" s="50" t="s">
         <v>17</v>
       </c>
@@ -4040,7 +4045,7 @@
       </c>
     </row>
     <row r="78" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD78" s="162"/>
+      <c r="AD78" s="163"/>
       <c r="AE78" s="49" t="s">
         <v>12</v>
       </c>
@@ -4058,7 +4063,7 @@
       </c>
     </row>
     <row r="79" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD79" s="160" t="s">
+      <c r="AD79" s="161" t="s">
         <v>11</v>
       </c>
       <c r="AE79" s="48" t="s">
@@ -4078,7 +4083,7 @@
       </c>
     </row>
     <row r="80" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="161"/>
+      <c r="AD80" s="162"/>
       <c r="AE80" s="50" t="s">
         <v>19</v>
       </c>
@@ -4096,7 +4101,7 @@
       </c>
     </row>
     <row r="81" spans="30:47" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD81" s="161"/>
+      <c r="AD81" s="162"/>
       <c r="AE81" s="50" t="s">
         <v>13</v>
       </c>
@@ -4114,7 +4119,7 @@
       </c>
     </row>
     <row r="82" spans="30:47" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD82" s="162"/>
+      <c r="AD82" s="163"/>
       <c r="AE82" s="49" t="s">
         <v>15</v>
       </c>
@@ -4132,18 +4137,18 @@
       </c>
     </row>
     <row r="87" spans="30:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL87" s="164" t="s">
+      <c r="AL87" s="165" t="s">
         <v>274</v>
       </c>
-      <c r="AM87" s="164"/>
-      <c r="AN87" s="164"/>
-      <c r="AO87" s="164"/>
-      <c r="AP87" s="164"/>
-      <c r="AQ87" s="164"/>
-      <c r="AR87" s="164"/>
-      <c r="AS87" s="164"/>
-      <c r="AT87" s="164"/>
-      <c r="AU87" s="164"/>
+      <c r="AM87" s="165"/>
+      <c r="AN87" s="165"/>
+      <c r="AO87" s="165"/>
+      <c r="AP87" s="165"/>
+      <c r="AQ87" s="165"/>
+      <c r="AR87" s="165"/>
+      <c r="AS87" s="165"/>
+      <c r="AT87" s="165"/>
+      <c r="AU87" s="165"/>
     </row>
     <row r="88" spans="30:47" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AL88" s="55" t="s">
@@ -4178,13 +4183,13 @@
       </c>
     </row>
     <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL89" s="154" t="s">
+      <c r="AL89" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="AM89" s="151" t="s">
+      <c r="AM89" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="AN89" s="157" t="s">
+      <c r="AN89" s="158" t="s">
         <v>13</v>
       </c>
       <c r="AO89" s="40" t="s">
@@ -4202,17 +4207,17 @@
       <c r="AS89" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT89" s="154" t="s">
+      <c r="AT89" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="AU89" s="151" t="s">
+      <c r="AU89" s="152" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL90" s="155"/>
-      <c r="AM90" s="152"/>
-      <c r="AN90" s="158"/>
+      <c r="AL90" s="156"/>
+      <c r="AM90" s="153"/>
+      <c r="AN90" s="159"/>
       <c r="AO90" s="1" t="s">
         <v>68</v>
       </c>
@@ -4228,13 +4233,13 @@
       <c r="AS90" s="58">
         <v>1E-3</v>
       </c>
-      <c r="AT90" s="155"/>
-      <c r="AU90" s="152"/>
+      <c r="AT90" s="156"/>
+      <c r="AU90" s="153"/>
     </row>
     <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL91" s="156"/>
-      <c r="AM91" s="153"/>
-      <c r="AN91" s="159"/>
+      <c r="AL91" s="157"/>
+      <c r="AM91" s="154"/>
+      <c r="AN91" s="160"/>
       <c r="AO91" s="13" t="s">
         <v>286</v>
       </c>
@@ -4250,17 +4255,17 @@
       <c r="AS91" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AT91" s="156"/>
-      <c r="AU91" s="153"/>
+      <c r="AT91" s="157"/>
+      <c r="AU91" s="154"/>
     </row>
     <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL92" s="154" t="s">
+      <c r="AL92" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="AM92" s="154" t="s">
+      <c r="AM92" s="155" t="s">
         <v>280</v>
       </c>
-      <c r="AN92" s="157" t="s">
+      <c r="AN92" s="158" t="s">
         <v>12</v>
       </c>
       <c r="AO92" s="40" t="s">
@@ -4278,17 +4283,17 @@
       <c r="AS92" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT92" s="154" t="s">
+      <c r="AT92" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="AU92" s="151" t="s">
+      <c r="AU92" s="152" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL93" s="155"/>
-      <c r="AM93" s="155"/>
-      <c r="AN93" s="158"/>
+      <c r="AL93" s="156"/>
+      <c r="AM93" s="156"/>
+      <c r="AN93" s="159"/>
       <c r="AO93" s="1" t="s">
         <v>68</v>
       </c>
@@ -4304,13 +4309,13 @@
       <c r="AS93" s="58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT93" s="155"/>
-      <c r="AU93" s="152"/>
+      <c r="AT93" s="156"/>
+      <c r="AU93" s="153"/>
     </row>
     <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL94" s="155"/>
-      <c r="AM94" s="155"/>
-      <c r="AN94" s="158"/>
+      <c r="AL94" s="156"/>
+      <c r="AM94" s="156"/>
+      <c r="AN94" s="159"/>
       <c r="AO94" s="1" t="s">
         <v>286</v>
       </c>
@@ -4326,15 +4331,15 @@
       <c r="AS94" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT94" s="155"/>
-      <c r="AU94" s="152"/>
+      <c r="AT94" s="156"/>
+      <c r="AU94" s="153"/>
     </row>
     <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL95" s="155"/>
-      <c r="AM95" s="152" t="s">
+      <c r="AL95" s="156"/>
+      <c r="AM95" s="153" t="s">
         <v>279</v>
       </c>
-      <c r="AN95" s="158" t="s">
+      <c r="AN95" s="159" t="s">
         <v>17</v>
       </c>
       <c r="AO95" t="s">
@@ -4352,17 +4357,17 @@
       <c r="AS95" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="AT95" s="155" t="s">
+      <c r="AT95" s="156" t="s">
         <v>287</v>
       </c>
-      <c r="AU95" s="152" t="s">
+      <c r="AU95" s="153" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL96" s="155"/>
-      <c r="AM96" s="152"/>
-      <c r="AN96" s="158"/>
+      <c r="AL96" s="156"/>
+      <c r="AM96" s="153"/>
+      <c r="AN96" s="159"/>
       <c r="AO96" s="1" t="s">
         <v>68</v>
       </c>
@@ -4378,13 +4383,13 @@
       <c r="AS96" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT96" s="155"/>
-      <c r="AU96" s="152"/>
+      <c r="AT96" s="156"/>
+      <c r="AU96" s="153"/>
     </row>
     <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL97" s="156"/>
-      <c r="AM97" s="153"/>
-      <c r="AN97" s="159"/>
+      <c r="AL97" s="157"/>
+      <c r="AM97" s="154"/>
+      <c r="AN97" s="160"/>
       <c r="AO97" s="13" t="s">
         <v>286</v>
       </c>
@@ -4400,17 +4405,17 @@
       <c r="AS97" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT97" s="156"/>
-      <c r="AU97" s="153"/>
+      <c r="AT97" s="157"/>
+      <c r="AU97" s="154"/>
     </row>
     <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL98" s="154" t="s">
+      <c r="AL98" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="AM98" s="151" t="s">
+      <c r="AM98" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="AN98" s="157" t="s">
+      <c r="AN98" s="158" t="s">
         <v>13</v>
       </c>
       <c r="AO98" s="60" t="s">
@@ -4428,17 +4433,17 @@
       <c r="AS98" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT98" s="154" t="s">
+      <c r="AT98" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="AU98" s="151" t="s">
+      <c r="AU98" s="152" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL99" s="155"/>
-      <c r="AM99" s="152"/>
-      <c r="AN99" s="158"/>
+      <c r="AL99" s="156"/>
+      <c r="AM99" s="153"/>
+      <c r="AN99" s="159"/>
       <c r="AO99" s="1" t="s">
         <v>68</v>
       </c>
@@ -4454,13 +4459,13 @@
       <c r="AS99" s="58">
         <v>0.04</v>
       </c>
-      <c r="AT99" s="155"/>
-      <c r="AU99" s="152"/>
+      <c r="AT99" s="156"/>
+      <c r="AU99" s="153"/>
     </row>
     <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL100" s="156"/>
-      <c r="AM100" s="153"/>
-      <c r="AN100" s="159"/>
+      <c r="AL100" s="157"/>
+      <c r="AM100" s="154"/>
+      <c r="AN100" s="160"/>
       <c r="AO100" s="13" t="s">
         <v>286</v>
       </c>
@@ -4476,8 +4481,8 @@
       <c r="AS100" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT100" s="156"/>
-      <c r="AU100" s="153"/>
+      <c r="AT100" s="157"/>
+      <c r="AU100" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -5501,7 +5506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C301AE6-CC50-864C-827E-D25EEF6A22D3}">
   <dimension ref="A2:AN151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
@@ -9127,21 +9132,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="167" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
       <c r="N2" s="54"/>
       <c r="O2" s="1"/>
     </row>
@@ -9188,7 +9193,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="169" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="61" t="s">
@@ -9230,7 +9235,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="168"/>
+      <c r="A5" s="169"/>
       <c r="B5" s="1" t="s">
         <v>328</v>
       </c>
@@ -9260,7 +9265,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="168"/>
+      <c r="A6" s="169"/>
       <c r="B6" s="1" t="s">
         <v>335</v>
       </c>
@@ -9288,7 +9293,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="168"/>
+      <c r="A7" s="169"/>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
@@ -9316,7 +9321,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="168"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="61" t="s">
         <v>372</v>
       </c>
@@ -9344,7 +9349,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="168"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="1" t="s">
         <v>373</v>
       </c>
@@ -9920,8 +9925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6964B3A-A93B-A24A-8DF2-4AA66B6335FC}">
   <dimension ref="B3:AO237"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="V231" sqref="V231"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9956,26 +9961,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="165" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
       <c r="T3" s="54"/>
     </row>
     <row r="4" spans="2:20" ht="60" thickTop="1" x14ac:dyDescent="0.2">
@@ -10035,7 +10040,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="170" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="85" t="s">
@@ -10049,7 +10054,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="170"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="85" t="s">
         <v>16</v>
       </c>
@@ -10061,8 +10066,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="170"/>
-      <c r="C7" s="171" t="s">
+      <c r="B7" s="171"/>
+      <c r="C7" s="172" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -10114,8 +10119,8 @@
       <c r="T7" s="25"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="170"/>
-      <c r="C8" s="171"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
       <c r="E8" s="77" t="s">
         <v>263</v>
       </c>
@@ -10144,8 +10149,8 @@
       <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="170"/>
-      <c r="C9" s="171" t="s">
+      <c r="B9" s="171"/>
+      <c r="C9" s="172" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -10193,8 +10198,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="170"/>
-      <c r="C10" s="171"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="172"/>
       <c r="E10" s="84" t="s">
         <v>263</v>
       </c>
@@ -10221,8 +10226,8 @@
       <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="170"/>
-      <c r="C11" s="171"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="172"/>
       <c r="E11" s="77" t="s">
         <v>32</v>
       </c>
@@ -10249,7 +10254,7 @@
       <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="170"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="85" t="s">
         <v>35</v>
       </c>
@@ -10274,8 +10279,8 @@
       <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="170"/>
-      <c r="C13" s="171" t="s">
+      <c r="B13" s="171"/>
+      <c r="C13" s="172" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -10323,8 +10328,8 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="170"/>
-      <c r="C14" s="171"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="172"/>
       <c r="E14" s="77" t="s">
         <v>263</v>
       </c>
@@ -10351,8 +10356,8 @@
       <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="170"/>
-      <c r="C15" s="171" t="s">
+      <c r="B15" s="171"/>
+      <c r="C15" s="172" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -10400,8 +10405,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="170"/>
-      <c r="C16" s="171"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="172"/>
       <c r="E16" s="77" t="s">
         <v>263</v>
       </c>
@@ -10428,7 +10433,7 @@
       <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="170"/>
+      <c r="B17" s="171"/>
       <c r="C17" s="85" t="s">
         <v>36</v>
       </c>
@@ -10453,7 +10458,7 @@
       <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="170"/>
+      <c r="B18" s="171"/>
       <c r="C18" s="85" t="s">
         <v>12</v>
       </c>
@@ -10478,8 +10483,8 @@
       <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="170"/>
-      <c r="C19" s="171" t="s">
+      <c r="B19" s="171"/>
+      <c r="C19" s="172" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -10529,8 +10534,8 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="170"/>
-      <c r="C20" s="171"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="172"/>
       <c r="E20" s="84" t="s">
         <v>263</v>
       </c>
@@ -10561,8 +10566,8 @@
       <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="170"/>
-      <c r="C21" s="171" t="s">
+      <c r="B21" s="171"/>
+      <c r="C21" s="172" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -10610,8 +10615,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="170"/>
-      <c r="C22" s="171"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="172"/>
       <c r="E22" s="77" t="s">
         <v>263</v>
       </c>
@@ -10638,8 +10643,8 @@
       <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="170"/>
-      <c r="C23" s="171" t="s">
+      <c r="B23" s="171"/>
+      <c r="C23" s="172" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -10685,8 +10690,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="170"/>
-      <c r="C24" s="171"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="172"/>
       <c r="E24" s="77" t="s">
         <v>32</v>
       </c>
@@ -10713,8 +10718,8 @@
       <c r="R24" s="36"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="170"/>
-      <c r="C25" s="171" t="s">
+      <c r="B25" s="171"/>
+      <c r="C25" s="172" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -10762,8 +10767,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="170"/>
-      <c r="C26" s="171"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="172"/>
       <c r="E26" s="77" t="s">
         <v>263</v>
       </c>
@@ -10790,7 +10795,7 @@
       <c r="R26" s="36"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="170"/>
+      <c r="B27" s="171"/>
       <c r="C27" s="85" t="s">
         <v>20</v>
       </c>
@@ -10815,7 +10820,7 @@
       <c r="R27" s="36"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="170"/>
+      <c r="B28" s="171"/>
       <c r="C28" s="85" t="s">
         <v>33</v>
       </c>
@@ -10840,8 +10845,8 @@
       <c r="R28" s="36"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="170"/>
-      <c r="C29" s="171" t="s">
+      <c r="B29" s="171"/>
+      <c r="C29" s="172" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="39" t="s">
@@ -10887,8 +10892,8 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="170"/>
-      <c r="C30" s="171"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="172"/>
       <c r="D30" s="39"/>
       <c r="E30" s="77" t="s">
         <v>32</v>
@@ -10916,7 +10921,7 @@
       <c r="R30" s="36"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="170"/>
+      <c r="B31" s="171"/>
       <c r="C31" s="85" t="s">
         <v>41</v>
       </c>
@@ -10941,8 +10946,8 @@
       <c r="R31" s="36"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="170"/>
-      <c r="C32" s="171" t="s">
+      <c r="B32" s="171"/>
+      <c r="C32" s="172" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -10990,8 +10995,8 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="170"/>
-      <c r="C33" s="171"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="172"/>
       <c r="E33" s="77" t="s">
         <v>263</v>
       </c>
@@ -11018,8 +11023,8 @@
       <c r="R33" s="36"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="170"/>
-      <c r="C34" s="171"/>
+      <c r="B34" s="171"/>
+      <c r="C34" s="172"/>
       <c r="E34" s="77" t="s">
         <v>32</v>
       </c>
@@ -11046,7 +11051,7 @@
       <c r="R34" s="36"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="170"/>
+      <c r="B35" s="171"/>
       <c r="C35" s="86" t="s">
         <v>15</v>
       </c>
@@ -11071,10 +11076,10 @@
       <c r="R35" s="36"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="172" t="s">
+      <c r="C36" s="173" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -11122,8 +11127,8 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="170"/>
-      <c r="C37" s="171"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="172"/>
       <c r="E37" s="84" t="s">
         <v>415</v>
       </c>
@@ -11150,8 +11155,8 @@
       <c r="R37" s="36"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="170"/>
-      <c r="C38" s="171"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="172"/>
       <c r="E38" s="84" t="s">
         <v>416</v>
       </c>
@@ -11178,8 +11183,8 @@
       <c r="R38" s="36"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="170"/>
-      <c r="C39" s="171"/>
+      <c r="B39" s="171"/>
+      <c r="C39" s="172"/>
       <c r="E39" s="84" t="s">
         <v>32</v>
       </c>
@@ -11206,8 +11211,8 @@
       <c r="R39" s="36"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="170"/>
-      <c r="C40" s="171" t="s">
+      <c r="B40" s="171"/>
+      <c r="C40" s="172" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -11255,8 +11260,8 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="170"/>
-      <c r="C41" s="171"/>
+      <c r="B41" s="171"/>
+      <c r="C41" s="172"/>
       <c r="E41" s="77" t="s">
         <v>335</v>
       </c>
@@ -11285,8 +11290,8 @@
       <c r="R41" s="36"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="170"/>
-      <c r="C42" s="171" t="s">
+      <c r="B42" s="171"/>
+      <c r="C42" s="172" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -11334,8 +11339,8 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="170"/>
-      <c r="C43" s="171"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="172"/>
       <c r="E43" s="77" t="s">
         <v>263</v>
       </c>
@@ -11362,8 +11367,8 @@
       <c r="R43" s="36"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="170"/>
-      <c r="C44" s="171"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="172"/>
       <c r="E44" s="77" t="s">
         <v>32</v>
       </c>
@@ -11390,8 +11395,8 @@
       <c r="R44" s="36"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="170"/>
-      <c r="C45" s="171"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="172"/>
       <c r="E45" s="77" t="s">
         <v>335</v>
       </c>
@@ -11418,8 +11423,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="170"/>
-      <c r="C46" s="171" t="s">
+      <c r="B46" s="171"/>
+      <c r="C46" s="172" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -11469,8 +11474,8 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="170"/>
-      <c r="C47" s="171"/>
+      <c r="B47" s="171"/>
+      <c r="C47" s="172"/>
       <c r="E47" s="77" t="s">
         <v>263</v>
       </c>
@@ -11499,8 +11504,8 @@
       <c r="R47" s="36"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="170"/>
-      <c r="C48" s="171"/>
+      <c r="B48" s="171"/>
+      <c r="C48" s="172"/>
       <c r="E48" s="77" t="s">
         <v>335</v>
       </c>
@@ -11529,8 +11534,8 @@
       <c r="R48" s="36"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="170"/>
-      <c r="C49" s="171"/>
+      <c r="B49" s="171"/>
+      <c r="C49" s="172"/>
       <c r="E49" s="77" t="s">
         <v>32</v>
       </c>
@@ -11559,8 +11564,8 @@
       <c r="R49" s="36"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="170"/>
-      <c r="C50" s="171" t="s">
+      <c r="B50" s="171"/>
+      <c r="C50" s="172" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -11610,8 +11615,8 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="170"/>
-      <c r="C51" s="171"/>
+      <c r="B51" s="171"/>
+      <c r="C51" s="172"/>
       <c r="E51" s="77" t="s">
         <v>263</v>
       </c>
@@ -11640,8 +11645,8 @@
       <c r="R51" s="36"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="170"/>
-      <c r="C52" s="171"/>
+      <c r="B52" s="171"/>
+      <c r="C52" s="172"/>
       <c r="E52" s="77" t="s">
         <v>335</v>
       </c>
@@ -11670,8 +11675,8 @@
       <c r="R52" s="36"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="170"/>
-      <c r="C53" s="171" t="s">
+      <c r="B53" s="171"/>
+      <c r="C53" s="172" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -11721,8 +11726,8 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="170"/>
-      <c r="C54" s="171"/>
+      <c r="B54" s="171"/>
+      <c r="C54" s="172"/>
       <c r="E54" s="77" t="s">
         <v>263</v>
       </c>
@@ -11751,8 +11756,8 @@
       <c r="R54" s="36"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="170"/>
-      <c r="C55" s="171"/>
+      <c r="B55" s="171"/>
+      <c r="C55" s="172"/>
       <c r="E55" s="77" t="s">
         <v>335</v>
       </c>
@@ -11781,8 +11786,8 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="170"/>
-      <c r="C56" s="171" t="s">
+      <c r="B56" s="171"/>
+      <c r="C56" s="172" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -11832,8 +11837,8 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="170"/>
-      <c r="C57" s="171"/>
+      <c r="B57" s="171"/>
+      <c r="C57" s="172"/>
       <c r="E57" s="77" t="s">
         <v>263</v>
       </c>
@@ -11862,8 +11867,8 @@
       <c r="R57" s="36"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="170"/>
-      <c r="C58" s="171" t="s">
+      <c r="B58" s="171"/>
+      <c r="C58" s="172" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -11913,8 +11918,8 @@
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="170"/>
-      <c r="C59" s="171"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="172"/>
       <c r="E59" s="77" t="s">
         <v>263</v>
       </c>
@@ -11943,8 +11948,8 @@
       <c r="R59" s="36"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="170"/>
-      <c r="C60" s="171" t="s">
+      <c r="B60" s="171"/>
+      <c r="C60" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -11994,8 +11999,8 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="170"/>
-      <c r="C61" s="171"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="172"/>
       <c r="E61" s="77" t="s">
         <v>263</v>
       </c>
@@ -12024,7 +12029,7 @@
       <c r="R61" s="36"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="170"/>
+      <c r="B62" s="171"/>
       <c r="C62" s="85" t="s">
         <v>19</v>
       </c>
@@ -12049,8 +12054,8 @@
       <c r="R62" s="36"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="170"/>
-      <c r="C63" s="171" t="s">
+      <c r="B63" s="171"/>
+      <c r="C63" s="172" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -12100,8 +12105,8 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="170"/>
-      <c r="C64" s="171"/>
+      <c r="B64" s="171"/>
+      <c r="C64" s="172"/>
       <c r="E64" s="77" t="s">
         <v>263</v>
       </c>
@@ -12130,8 +12135,8 @@
       <c r="R64" s="36"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="170"/>
-      <c r="C65" s="171" t="s">
+      <c r="B65" s="171"/>
+      <c r="C65" s="172" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -12181,8 +12186,8 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="170"/>
-      <c r="C66" s="171"/>
+      <c r="B66" s="171"/>
+      <c r="C66" s="172"/>
       <c r="E66" s="77" t="s">
         <v>263</v>
       </c>
@@ -12211,8 +12216,8 @@
       <c r="R66" s="36"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="170"/>
-      <c r="C67" s="171"/>
+      <c r="B67" s="171"/>
+      <c r="C67" s="172"/>
       <c r="E67" s="77" t="s">
         <v>335</v>
       </c>
@@ -12241,8 +12246,8 @@
       <c r="R67" s="36"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="170"/>
-      <c r="C68" s="171"/>
+      <c r="B68" s="171"/>
+      <c r="C68" s="172"/>
       <c r="E68" s="77" t="s">
         <v>32</v>
       </c>
@@ -12271,8 +12276,8 @@
       <c r="R68" s="36"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="170"/>
-      <c r="C69" s="171" t="s">
+      <c r="B69" s="171"/>
+      <c r="C69" s="172" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -12322,8 +12327,8 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="170"/>
-      <c r="C70" s="171"/>
+      <c r="B70" s="171"/>
+      <c r="C70" s="172"/>
       <c r="E70" s="77" t="s">
         <v>263</v>
       </c>
@@ -12352,8 +12357,8 @@
       <c r="R70" s="36"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="170"/>
-      <c r="C71" s="171" t="s">
+      <c r="B71" s="171"/>
+      <c r="C71" s="172" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -12403,8 +12408,8 @@
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="170"/>
-      <c r="C72" s="171"/>
+      <c r="B72" s="171"/>
+      <c r="C72" s="172"/>
       <c r="E72" s="77" t="s">
         <v>263</v>
       </c>
@@ -12433,8 +12438,8 @@
       <c r="R72" s="36"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="170"/>
-      <c r="C73" s="171"/>
+      <c r="B73" s="171"/>
+      <c r="C73" s="172"/>
       <c r="E73" s="77" t="s">
         <v>335</v>
       </c>
@@ -12463,7 +12468,7 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="170"/>
+      <c r="B74" s="171"/>
       <c r="C74" s="85" t="s">
         <v>33</v>
       </c>
@@ -12488,7 +12493,7 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="170"/>
+      <c r="B75" s="171"/>
       <c r="C75" s="85" t="s">
         <v>39</v>
       </c>
@@ -12513,8 +12518,8 @@
       <c r="R75" s="36"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="170"/>
-      <c r="C76" s="171" t="s">
+      <c r="B76" s="171"/>
+      <c r="C76" s="172" t="s">
         <v>41</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -12564,8 +12569,8 @@
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="170"/>
-      <c r="C77" s="171"/>
+      <c r="B77" s="171"/>
+      <c r="C77" s="172"/>
       <c r="E77" s="77" t="s">
         <v>263</v>
       </c>
@@ -12594,8 +12599,8 @@
       <c r="R77" s="36"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="170"/>
-      <c r="C78" s="171" t="s">
+      <c r="B78" s="171"/>
+      <c r="C78" s="172" t="s">
         <v>42</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -12645,8 +12650,8 @@
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="170"/>
-      <c r="C79" s="171"/>
+      <c r="B79" s="171"/>
+      <c r="C79" s="172"/>
       <c r="E79" s="77" t="s">
         <v>263</v>
       </c>
@@ -12675,8 +12680,8 @@
       <c r="R79" s="36"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="170"/>
-      <c r="C80" s="171" t="s">
+      <c r="B80" s="171"/>
+      <c r="C80" s="172" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -12727,7 +12732,7 @@
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="64"/>
-      <c r="C81" s="173"/>
+      <c r="C81" s="174"/>
       <c r="E81" s="77" t="s">
         <v>263</v>
       </c>
@@ -12756,7 +12761,7 @@
       <c r="R81" s="36"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="169" t="s">
+      <c r="B82" s="170" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="85" t="s">
@@ -12783,8 +12788,8 @@
       <c r="R82" s="36"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="170"/>
-      <c r="C83" s="171" t="s">
+      <c r="B83" s="171"/>
+      <c r="C83" s="172" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -12832,8 +12837,8 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="170"/>
-      <c r="C84" s="171"/>
+      <c r="B84" s="171"/>
+      <c r="C84" s="172"/>
       <c r="E84" s="77" t="s">
         <v>263</v>
       </c>
@@ -12860,8 +12865,8 @@
       <c r="R84" s="36"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="170"/>
-      <c r="C85" s="171"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="172"/>
       <c r="E85" s="77" t="s">
         <v>335</v>
       </c>
@@ -12888,8 +12893,8 @@
       <c r="R85" s="36"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B86" s="170"/>
-      <c r="C86" s="171" t="s">
+      <c r="B86" s="171"/>
+      <c r="C86" s="172" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -12937,8 +12942,8 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="170"/>
-      <c r="C87" s="171"/>
+      <c r="B87" s="171"/>
+      <c r="C87" s="172"/>
       <c r="E87" s="77" t="s">
         <v>263</v>
       </c>
@@ -12965,8 +12970,8 @@
       <c r="R87" s="36"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="170"/>
-      <c r="C88" s="171"/>
+      <c r="B88" s="171"/>
+      <c r="C88" s="172"/>
       <c r="E88" s="77" t="s">
         <v>335</v>
       </c>
@@ -12993,8 +12998,8 @@
       <c r="R88" s="36"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="170"/>
-      <c r="C89" s="171"/>
+      <c r="B89" s="171"/>
+      <c r="C89" s="172"/>
       <c r="E89" s="77" t="s">
         <v>32</v>
       </c>
@@ -13021,8 +13026,8 @@
       <c r="R89" s="36"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="170"/>
-      <c r="C90" s="171" t="s">
+      <c r="B90" s="171"/>
+      <c r="C90" s="172" t="s">
         <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -13072,8 +13077,8 @@
       </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="170"/>
-      <c r="C91" s="171"/>
+      <c r="B91" s="171"/>
+      <c r="C91" s="172"/>
       <c r="E91" s="77" t="s">
         <v>263</v>
       </c>
@@ -13102,8 +13107,8 @@
       <c r="R91" s="36"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="170"/>
-      <c r="C92" s="171"/>
+      <c r="B92" s="171"/>
+      <c r="C92" s="172"/>
       <c r="E92" s="77" t="s">
         <v>335</v>
       </c>
@@ -13132,7 +13137,7 @@
       <c r="R92" s="36"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="170"/>
+      <c r="B93" s="171"/>
       <c r="C93" s="85" t="s">
         <v>35</v>
       </c>
@@ -13157,8 +13162,8 @@
       <c r="R93" s="36"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="170"/>
-      <c r="C94" s="171" t="s">
+      <c r="B94" s="171"/>
+      <c r="C94" s="172" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -13208,8 +13213,8 @@
       </c>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="170"/>
-      <c r="C95" s="171"/>
+      <c r="B95" s="171"/>
+      <c r="C95" s="172"/>
       <c r="E95" s="77" t="s">
         <v>263</v>
       </c>
@@ -13238,8 +13243,8 @@
       <c r="R95" s="36"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="170"/>
-      <c r="C96" s="171"/>
+      <c r="B96" s="171"/>
+      <c r="C96" s="172"/>
       <c r="E96" s="77" t="s">
         <v>335</v>
       </c>
@@ -13268,8 +13273,8 @@
       <c r="R96" s="36"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="170"/>
-      <c r="C97" s="171"/>
+      <c r="B97" s="171"/>
+      <c r="C97" s="172"/>
       <c r="E97" s="77" t="s">
         <v>32</v>
       </c>
@@ -13298,8 +13303,8 @@
       <c r="R97" s="36"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="170"/>
-      <c r="C98" s="171" t="s">
+      <c r="B98" s="171"/>
+      <c r="C98" s="172" t="s">
         <v>37</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -13347,8 +13352,8 @@
       </c>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="170"/>
-      <c r="C99" s="171"/>
+      <c r="B99" s="171"/>
+      <c r="C99" s="172"/>
       <c r="E99" s="77" t="s">
         <v>263</v>
       </c>
@@ -13375,8 +13380,8 @@
       <c r="R99" s="36"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="170"/>
-      <c r="C100" s="171"/>
+      <c r="B100" s="171"/>
+      <c r="C100" s="172"/>
       <c r="E100" s="77" t="s">
         <v>335</v>
       </c>
@@ -13403,8 +13408,8 @@
       <c r="R100" s="36"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B101" s="170"/>
-      <c r="C101" s="171" t="s">
+      <c r="B101" s="171"/>
+      <c r="C101" s="172" t="s">
         <v>36</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -13454,8 +13459,8 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="170"/>
-      <c r="C102" s="171"/>
+      <c r="B102" s="171"/>
+      <c r="C102" s="172"/>
       <c r="E102" s="77" t="s">
         <v>263</v>
       </c>
@@ -13484,8 +13489,8 @@
       <c r="R102" s="36"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="170"/>
-      <c r="C103" s="171" t="s">
+      <c r="B103" s="171"/>
+      <c r="C103" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -13533,8 +13538,8 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="170"/>
-      <c r="C104" s="171"/>
+      <c r="B104" s="171"/>
+      <c r="C104" s="172"/>
       <c r="E104" s="77" t="s">
         <v>263</v>
       </c>
@@ -13561,8 +13566,8 @@
       <c r="R104" s="36"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="170"/>
-      <c r="C105" s="171"/>
+      <c r="B105" s="171"/>
+      <c r="C105" s="172"/>
       <c r="E105" s="77" t="s">
         <v>335</v>
       </c>
@@ -13589,8 +13594,8 @@
       <c r="R105" s="36"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="170"/>
-      <c r="C106" s="171" t="s">
+      <c r="B106" s="171"/>
+      <c r="C106" s="172" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -13640,8 +13645,8 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="170"/>
-      <c r="C107" s="171"/>
+      <c r="B107" s="171"/>
+      <c r="C107" s="172"/>
       <c r="E107" s="77" t="s">
         <v>263</v>
       </c>
@@ -13670,8 +13675,8 @@
       <c r="R107" s="36"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="170"/>
-      <c r="C108" s="171"/>
+      <c r="B108" s="171"/>
+      <c r="C108" s="172"/>
       <c r="E108" s="77" t="s">
         <v>32</v>
       </c>
@@ -13700,8 +13705,8 @@
       <c r="R108" s="36"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="170"/>
-      <c r="C109" s="171" t="s">
+      <c r="B109" s="171"/>
+      <c r="C109" s="172" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -13749,8 +13754,8 @@
       </c>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="170"/>
-      <c r="C110" s="171"/>
+      <c r="B110" s="171"/>
+      <c r="C110" s="172"/>
       <c r="E110" s="77" t="s">
         <v>263</v>
       </c>
@@ -13777,8 +13782,8 @@
       <c r="R110" s="36"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="170"/>
-      <c r="C111" s="171"/>
+      <c r="B111" s="171"/>
+      <c r="C111" s="172"/>
       <c r="E111" s="77" t="s">
         <v>335</v>
       </c>
@@ -13805,8 +13810,8 @@
       <c r="R111" s="36"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="170"/>
-      <c r="C112" s="171" t="s">
+      <c r="B112" s="171"/>
+      <c r="C112" s="172" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -13854,8 +13859,8 @@
       </c>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="170"/>
-      <c r="C113" s="171"/>
+      <c r="B113" s="171"/>
+      <c r="C113" s="172"/>
       <c r="E113" s="77" t="s">
         <v>263</v>
       </c>
@@ -13882,8 +13887,8 @@
       <c r="R113" s="36"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="170"/>
-      <c r="C114" s="171"/>
+      <c r="B114" s="171"/>
+      <c r="C114" s="172"/>
       <c r="E114" s="77" t="s">
         <v>335</v>
       </c>
@@ -13910,8 +13915,8 @@
       <c r="R114" s="36"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="170"/>
-      <c r="C115" s="171" t="s">
+      <c r="B115" s="171"/>
+      <c r="C115" s="172" t="s">
         <v>38</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -13959,8 +13964,8 @@
       </c>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="170"/>
-      <c r="C116" s="171"/>
+      <c r="B116" s="171"/>
+      <c r="C116" s="172"/>
       <c r="E116" s="77" t="s">
         <v>263</v>
       </c>
@@ -13987,8 +13992,8 @@
       <c r="R116" s="36"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="170"/>
-      <c r="C117" s="171" t="s">
+      <c r="B117" s="171"/>
+      <c r="C117" s="172" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -14038,8 +14043,8 @@
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="170"/>
-      <c r="C118" s="171"/>
+      <c r="B118" s="171"/>
+      <c r="C118" s="172"/>
       <c r="E118" s="77" t="s">
         <v>263</v>
       </c>
@@ -14068,8 +14073,8 @@
       <c r="R118" s="36"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="170"/>
-      <c r="C119" s="171"/>
+      <c r="B119" s="171"/>
+      <c r="C119" s="172"/>
       <c r="E119" s="77" t="s">
         <v>335</v>
       </c>
@@ -14098,8 +14103,8 @@
       <c r="R119" s="36"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="170"/>
-      <c r="C120" s="171" t="s">
+      <c r="B120" s="171"/>
+      <c r="C120" s="172" t="s">
         <v>33</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -14147,8 +14152,8 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="170"/>
-      <c r="C121" s="171"/>
+      <c r="B121" s="171"/>
+      <c r="C121" s="172"/>
       <c r="E121" s="77" t="s">
         <v>263</v>
       </c>
@@ -14175,8 +14180,8 @@
       <c r="R121" s="36"/>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="170"/>
-      <c r="C122" s="171"/>
+      <c r="B122" s="171"/>
+      <c r="C122" s="172"/>
       <c r="E122" s="77" t="s">
         <v>335</v>
       </c>
@@ -14203,8 +14208,8 @@
       <c r="R122" s="36"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="170"/>
-      <c r="C123" s="171" t="s">
+      <c r="B123" s="171"/>
+      <c r="C123" s="172" t="s">
         <v>39</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -14252,8 +14257,8 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="170"/>
-      <c r="C124" s="171"/>
+      <c r="B124" s="171"/>
+      <c r="C124" s="172"/>
       <c r="E124" s="77" t="s">
         <v>263</v>
       </c>
@@ -14280,8 +14285,8 @@
       <c r="R124" s="36"/>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="170"/>
-      <c r="C125" s="171" t="s">
+      <c r="B125" s="171"/>
+      <c r="C125" s="172" t="s">
         <v>41</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -14329,8 +14334,8 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="170"/>
-      <c r="C126" s="171"/>
+      <c r="B126" s="171"/>
+      <c r="C126" s="172"/>
       <c r="E126" s="77" t="s">
         <v>263</v>
       </c>
@@ -14357,8 +14362,8 @@
       <c r="R126" s="36"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="170"/>
-      <c r="C127" s="171" t="s">
+      <c r="B127" s="171"/>
+      <c r="C127" s="172" t="s">
         <v>42</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -14408,8 +14413,8 @@
       </c>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="170"/>
-      <c r="C128" s="171"/>
+      <c r="B128" s="171"/>
+      <c r="C128" s="172"/>
       <c r="E128" s="77" t="s">
         <v>263</v>
       </c>
@@ -14438,8 +14443,8 @@
       <c r="R128" s="36"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="170"/>
-      <c r="C129" s="171" t="s">
+      <c r="B129" s="171"/>
+      <c r="C129" s="172" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -14490,7 +14495,7 @@
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="63"/>
-      <c r="C130" s="173"/>
+      <c r="C130" s="174"/>
       <c r="E130" s="77" t="s">
         <v>263</v>
       </c>
@@ -14519,10 +14524,10 @@
       <c r="R130" s="36"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="169" t="s">
+      <c r="B131" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="C131" s="172" t="s">
+      <c r="C131" s="173" t="s">
         <v>40</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -14570,8 +14575,8 @@
       </c>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="170"/>
-      <c r="C132" s="171"/>
+      <c r="B132" s="171"/>
+      <c r="C132" s="172"/>
       <c r="E132" s="77" t="s">
         <v>263</v>
       </c>
@@ -14598,8 +14603,8 @@
       <c r="R132" s="36"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="170"/>
-      <c r="C133" s="171" t="s">
+      <c r="B133" s="171"/>
+      <c r="C133" s="172" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -14647,8 +14652,8 @@
       </c>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B134" s="170"/>
-      <c r="C134" s="171"/>
+      <c r="B134" s="171"/>
+      <c r="C134" s="172"/>
       <c r="E134" s="77" t="s">
         <v>32</v>
       </c>
@@ -14677,8 +14682,8 @@
       <c r="R134" s="36"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="170"/>
-      <c r="C135" s="171" t="s">
+      <c r="B135" s="171"/>
+      <c r="C135" s="172" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -14728,8 +14733,8 @@
       </c>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="170"/>
-      <c r="C136" s="171"/>
+      <c r="B136" s="171"/>
+      <c r="C136" s="172"/>
       <c r="E136" s="77" t="s">
         <v>263</v>
       </c>
@@ -14758,8 +14763,8 @@
       <c r="R136" s="36"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="170"/>
-      <c r="C137" s="171"/>
+      <c r="B137" s="171"/>
+      <c r="C137" s="172"/>
       <c r="E137" s="77" t="s">
         <v>32</v>
       </c>
@@ -14788,8 +14793,8 @@
       <c r="R137" s="36"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="170"/>
-      <c r="C138" s="171" t="s">
+      <c r="B138" s="171"/>
+      <c r="C138" s="172" t="s">
         <v>34</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -14839,8 +14844,8 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="170"/>
-      <c r="C139" s="171"/>
+      <c r="B139" s="171"/>
+      <c r="C139" s="172"/>
       <c r="E139" s="77" t="s">
         <v>263</v>
       </c>
@@ -14869,8 +14874,8 @@
       <c r="R139" s="36"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B140" s="170"/>
-      <c r="C140" s="171"/>
+      <c r="B140" s="171"/>
+      <c r="C140" s="172"/>
       <c r="E140" s="77" t="s">
         <v>32</v>
       </c>
@@ -14899,8 +14904,8 @@
       <c r="R140" s="36"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B141" s="170"/>
-      <c r="C141" s="171" t="s">
+      <c r="B141" s="171"/>
+      <c r="C141" s="172" t="s">
         <v>35</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -14946,8 +14951,8 @@
       </c>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B142" s="170"/>
-      <c r="C142" s="171"/>
+      <c r="B142" s="171"/>
+      <c r="C142" s="172"/>
       <c r="E142" s="77" t="s">
         <v>32</v>
       </c>
@@ -14974,8 +14979,8 @@
       <c r="R142" s="36"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B143" s="170"/>
-      <c r="C143" s="171"/>
+      <c r="B143" s="171"/>
+      <c r="C143" s="172"/>
       <c r="E143" s="77" t="s">
         <v>335</v>
       </c>
@@ -15002,8 +15007,8 @@
       <c r="R143" s="36"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B144" s="170"/>
-      <c r="C144" s="171" t="s">
+      <c r="B144" s="171"/>
+      <c r="C144" s="172" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -15051,8 +15056,8 @@
       </c>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B145" s="170"/>
-      <c r="C145" s="171"/>
+      <c r="B145" s="171"/>
+      <c r="C145" s="172"/>
       <c r="E145" s="77" t="s">
         <v>32</v>
       </c>
@@ -15081,8 +15086,8 @@
       <c r="R145" s="36"/>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B146" s="170"/>
-      <c r="C146" s="171"/>
+      <c r="B146" s="171"/>
+      <c r="C146" s="172"/>
       <c r="E146" s="77" t="s">
         <v>414</v>
       </c>
@@ -15111,8 +15116,8 @@
       <c r="R146" s="36"/>
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B147" s="170"/>
-      <c r="C147" s="171" t="s">
+      <c r="B147" s="171"/>
+      <c r="C147" s="172" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -15162,8 +15167,8 @@
       </c>
     </row>
     <row r="148" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B148" s="170"/>
-      <c r="C148" s="171"/>
+      <c r="B148" s="171"/>
+      <c r="C148" s="172"/>
       <c r="E148" s="77" t="s">
         <v>263</v>
       </c>
@@ -15192,8 +15197,8 @@
       <c r="R148" s="36"/>
     </row>
     <row r="149" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B149" s="170"/>
-      <c r="C149" s="171"/>
+      <c r="B149" s="171"/>
+      <c r="C149" s="172"/>
       <c r="E149" s="77" t="s">
         <v>32</v>
       </c>
@@ -15222,8 +15227,8 @@
       <c r="R149" s="36"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B150" s="170"/>
-      <c r="C150" s="171" t="s">
+      <c r="B150" s="171"/>
+      <c r="C150" s="172" t="s">
         <v>36</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -15273,8 +15278,8 @@
       </c>
     </row>
     <row r="151" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B151" s="170"/>
-      <c r="C151" s="171"/>
+      <c r="B151" s="171"/>
+      <c r="C151" s="172"/>
       <c r="E151" s="77" t="s">
         <v>263</v>
       </c>
@@ -15303,8 +15308,8 @@
       <c r="R151" s="36"/>
     </row>
     <row r="152" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B152" s="170"/>
-      <c r="C152" s="171"/>
+      <c r="B152" s="171"/>
+      <c r="C152" s="172"/>
       <c r="E152" s="77" t="s">
         <v>32</v>
       </c>
@@ -15333,8 +15338,8 @@
       <c r="R152" s="36"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B153" s="170"/>
-      <c r="C153" s="171"/>
+      <c r="B153" s="171"/>
+      <c r="C153" s="172"/>
       <c r="E153" s="77" t="s">
         <v>445</v>
       </c>
@@ -15363,8 +15368,8 @@
       <c r="R153" s="36"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B154" s="170"/>
-      <c r="C154" s="171" t="s">
+      <c r="B154" s="171"/>
+      <c r="C154" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -15414,8 +15419,8 @@
       </c>
     </row>
     <row r="155" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B155" s="170"/>
-      <c r="C155" s="171"/>
+      <c r="B155" s="171"/>
+      <c r="C155" s="172"/>
       <c r="E155" s="1" t="s">
         <v>263</v>
       </c>
@@ -15444,7 +15449,7 @@
       <c r="R155" s="36"/>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B156" s="170"/>
+      <c r="B156" s="171"/>
       <c r="C156" s="85"/>
       <c r="E156" s="1" t="s">
         <v>335</v>
@@ -15474,7 +15479,7 @@
       <c r="R156" s="36"/>
     </row>
     <row r="157" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B157" s="170"/>
+      <c r="B157" s="171"/>
       <c r="C157" s="85"/>
       <c r="E157" s="1" t="s">
         <v>32</v>
@@ -15504,7 +15509,7 @@
       <c r="R157" s="36"/>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B158" s="170"/>
+      <c r="B158" s="171"/>
       <c r="C158" s="85"/>
       <c r="E158" s="1" t="s">
         <v>446</v>
@@ -15534,8 +15539,8 @@
       <c r="R158" s="36"/>
     </row>
     <row r="159" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B159" s="170"/>
-      <c r="C159" s="171" t="s">
+      <c r="B159" s="171"/>
+      <c r="C159" s="172" t="s">
         <v>19</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -15585,8 +15590,8 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B160" s="170"/>
-      <c r="C160" s="171"/>
+      <c r="B160" s="171"/>
+      <c r="C160" s="172"/>
       <c r="E160" s="77" t="s">
         <v>263</v>
       </c>
@@ -15615,8 +15620,8 @@
       <c r="R160" s="36"/>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B161" s="170"/>
-      <c r="C161" s="171" t="s">
+      <c r="B161" s="171"/>
+      <c r="C161" s="172" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -15666,8 +15671,8 @@
       </c>
     </row>
     <row r="162" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B162" s="170"/>
-      <c r="C162" s="171"/>
+      <c r="B162" s="171"/>
+      <c r="C162" s="172"/>
       <c r="E162" s="77" t="s">
         <v>263</v>
       </c>
@@ -15696,8 +15701,8 @@
       <c r="R162" s="36"/>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B163" s="170"/>
-      <c r="C163" s="171"/>
+      <c r="B163" s="171"/>
+      <c r="C163" s="172"/>
       <c r="E163" s="77" t="s">
         <v>32</v>
       </c>
@@ -15726,8 +15731,8 @@
       <c r="R163" s="36"/>
     </row>
     <row r="164" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B164" s="170"/>
-      <c r="C164" s="171" t="s">
+      <c r="B164" s="171"/>
+      <c r="C164" s="172" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -15777,8 +15782,8 @@
       </c>
     </row>
     <row r="165" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B165" s="170"/>
-      <c r="C165" s="171"/>
+      <c r="B165" s="171"/>
+      <c r="C165" s="172"/>
       <c r="E165" s="77" t="s">
         <v>263</v>
       </c>
@@ -15807,8 +15812,8 @@
       <c r="R165" s="36"/>
     </row>
     <row r="166" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B166" s="170"/>
-      <c r="C166" s="171"/>
+      <c r="B166" s="171"/>
+      <c r="C166" s="172"/>
       <c r="E166" s="77" t="s">
         <v>32</v>
       </c>
@@ -15837,8 +15842,8 @@
       <c r="R166" s="36"/>
     </row>
     <row r="167" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B167" s="170"/>
-      <c r="C167" s="171"/>
+      <c r="B167" s="171"/>
+      <c r="C167" s="172"/>
       <c r="E167" s="77" t="s">
         <v>392</v>
       </c>
@@ -15867,8 +15872,8 @@
       <c r="R167" s="36"/>
     </row>
     <row r="168" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B168" s="170"/>
-      <c r="C168" s="171"/>
+      <c r="B168" s="171"/>
+      <c r="C168" s="172"/>
       <c r="E168" s="77" t="s">
         <v>393</v>
       </c>
@@ -15897,8 +15902,8 @@
       <c r="R168" s="36"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B169" s="170"/>
-      <c r="C169" s="171"/>
+      <c r="B169" s="171"/>
+      <c r="C169" s="172"/>
       <c r="E169" s="77" t="s">
         <v>394</v>
       </c>
@@ -15927,8 +15932,8 @@
       <c r="R169" s="36"/>
     </row>
     <row r="170" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B170" s="170"/>
-      <c r="C170" s="171"/>
+      <c r="B170" s="171"/>
+      <c r="C170" s="172"/>
       <c r="E170" s="77" t="s">
         <v>395</v>
       </c>
@@ -15957,8 +15962,8 @@
       <c r="R170" s="36"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B171" s="170"/>
-      <c r="C171" s="171"/>
+      <c r="B171" s="171"/>
+      <c r="C171" s="172"/>
       <c r="E171" s="77" t="s">
         <v>396</v>
       </c>
@@ -15987,8 +15992,8 @@
       <c r="R171" s="36"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B172" s="170"/>
-      <c r="C172" s="171" t="s">
+      <c r="B172" s="171"/>
+      <c r="C172" s="172" t="s">
         <v>38</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -16038,8 +16043,8 @@
       </c>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B173" s="170"/>
-      <c r="C173" s="171"/>
+      <c r="B173" s="171"/>
+      <c r="C173" s="172"/>
       <c r="E173" s="77" t="s">
         <v>263</v>
       </c>
@@ -16068,8 +16073,8 @@
       <c r="R173" s="36"/>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B174" s="170"/>
-      <c r="C174" s="171"/>
+      <c r="B174" s="171"/>
+      <c r="C174" s="172"/>
       <c r="E174" s="77" t="s">
         <v>32</v>
       </c>
@@ -16098,8 +16103,8 @@
       <c r="R174" s="36"/>
     </row>
     <row r="175" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B175" s="170"/>
-      <c r="C175" s="171" t="s">
+      <c r="B175" s="171"/>
+      <c r="C175" s="172" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -16149,8 +16154,8 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B176" s="170"/>
-      <c r="C176" s="171"/>
+      <c r="B176" s="171"/>
+      <c r="C176" s="172"/>
       <c r="E176" s="77" t="s">
         <v>263</v>
       </c>
@@ -16179,8 +16184,8 @@
       <c r="R176" s="36"/>
     </row>
     <row r="177" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B177" s="170"/>
-      <c r="C177" s="171"/>
+      <c r="B177" s="171"/>
+      <c r="C177" s="172"/>
       <c r="E177" s="77" t="s">
         <v>32</v>
       </c>
@@ -16209,8 +16214,8 @@
       <c r="R177" s="36"/>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B178" s="170"/>
-      <c r="C178" s="171"/>
+      <c r="B178" s="171"/>
+      <c r="C178" s="172"/>
       <c r="E178" s="77" t="s">
         <v>335</v>
       </c>
@@ -16239,8 +16244,8 @@
       <c r="R178" s="36"/>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B179" s="170"/>
-      <c r="C179" s="171" t="s">
+      <c r="B179" s="171"/>
+      <c r="C179" s="172" t="s">
         <v>33</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -16290,8 +16295,8 @@
       </c>
     </row>
     <row r="180" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B180" s="170"/>
-      <c r="C180" s="171"/>
+      <c r="B180" s="171"/>
+      <c r="C180" s="172"/>
       <c r="E180" s="77" t="s">
         <v>263</v>
       </c>
@@ -16320,8 +16325,8 @@
       <c r="R180" s="36"/>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B181" s="170"/>
-      <c r="C181" s="171"/>
+      <c r="B181" s="171"/>
+      <c r="C181" s="172"/>
       <c r="E181" s="77" t="s">
         <v>32</v>
       </c>
@@ -16350,8 +16355,8 @@
       <c r="R181" s="36"/>
     </row>
     <row r="182" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B182" s="170"/>
-      <c r="C182" s="171"/>
+      <c r="B182" s="171"/>
+      <c r="C182" s="172"/>
       <c r="E182" s="77" t="s">
         <v>392</v>
       </c>
@@ -16380,8 +16385,8 @@
       <c r="R182" s="36"/>
     </row>
     <row r="183" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B183" s="170"/>
-      <c r="C183" s="171"/>
+      <c r="B183" s="171"/>
+      <c r="C183" s="172"/>
       <c r="E183" s="77" t="s">
         <v>393</v>
       </c>
@@ -16410,8 +16415,8 @@
       <c r="R183" s="36"/>
     </row>
     <row r="184" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B184" s="170"/>
-      <c r="C184" s="171"/>
+      <c r="B184" s="171"/>
+      <c r="C184" s="172"/>
       <c r="E184" s="77" t="s">
         <v>394</v>
       </c>
@@ -16440,8 +16445,8 @@
       <c r="R184" s="36"/>
     </row>
     <row r="185" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B185" s="170"/>
-      <c r="C185" s="171"/>
+      <c r="B185" s="171"/>
+      <c r="C185" s="172"/>
       <c r="E185" s="77" t="s">
         <v>395</v>
       </c>
@@ -16470,8 +16475,8 @@
       <c r="R185" s="36"/>
     </row>
     <row r="186" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B186" s="170"/>
-      <c r="C186" s="171"/>
+      <c r="B186" s="171"/>
+      <c r="C186" s="172"/>
       <c r="E186" s="77" t="s">
         <v>396</v>
       </c>
@@ -16500,8 +16505,8 @@
       <c r="R186" s="36"/>
     </row>
     <row r="187" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B187" s="170"/>
-      <c r="C187" s="171" t="s">
+      <c r="B187" s="171"/>
+      <c r="C187" s="172" t="s">
         <v>39</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -16549,8 +16554,8 @@
       </c>
     </row>
     <row r="188" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B188" s="170"/>
-      <c r="C188" s="171"/>
+      <c r="B188" s="171"/>
+      <c r="C188" s="172"/>
       <c r="E188" s="77" t="s">
         <v>263</v>
       </c>
@@ -16577,8 +16582,8 @@
       <c r="R188" s="36"/>
     </row>
     <row r="189" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B189" s="170"/>
-      <c r="C189" s="171" t="s">
+      <c r="B189" s="171"/>
+      <c r="C189" s="172" t="s">
         <v>41</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -16628,8 +16633,8 @@
       </c>
     </row>
     <row r="190" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B190" s="170"/>
-      <c r="C190" s="171"/>
+      <c r="B190" s="171"/>
+      <c r="C190" s="172"/>
       <c r="E190" s="77" t="s">
         <v>263</v>
       </c>
@@ -16658,8 +16663,8 @@
       <c r="R190" s="36"/>
     </row>
     <row r="191" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B191" s="170"/>
-      <c r="C191" s="171"/>
+      <c r="B191" s="171"/>
+      <c r="C191" s="172"/>
       <c r="E191" s="77" t="s">
         <v>335</v>
       </c>
@@ -16688,8 +16693,8 @@
       <c r="R191" s="36"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B192" s="170"/>
-      <c r="C192" s="171" t="s">
+      <c r="B192" s="171"/>
+      <c r="C192" s="172" t="s">
         <v>42</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -16739,8 +16744,8 @@
       </c>
     </row>
     <row r="193" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B193" s="170"/>
-      <c r="C193" s="171"/>
+      <c r="B193" s="171"/>
+      <c r="C193" s="172"/>
       <c r="E193" s="77" t="s">
         <v>263</v>
       </c>
@@ -16769,8 +16774,8 @@
       <c r="R193" s="36"/>
     </row>
     <row r="194" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B194" s="170"/>
-      <c r="C194" s="171"/>
+      <c r="B194" s="171"/>
+      <c r="C194" s="172"/>
       <c r="E194" s="77" t="s">
         <v>32</v>
       </c>
@@ -16799,8 +16804,8 @@
       <c r="R194" s="36"/>
     </row>
     <row r="195" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B195" s="170"/>
-      <c r="C195" s="171"/>
+      <c r="B195" s="171"/>
+      <c r="C195" s="172"/>
       <c r="E195" s="77" t="s">
         <v>335</v>
       </c>
@@ -16829,8 +16834,8 @@
       <c r="R195" s="36"/>
     </row>
     <row r="196" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B196" s="170"/>
-      <c r="C196" s="171" t="s">
+      <c r="B196" s="171"/>
+      <c r="C196" s="172" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -16880,8 +16885,8 @@
       </c>
     </row>
     <row r="197" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B197" s="170"/>
-      <c r="C197" s="171"/>
+      <c r="B197" s="171"/>
+      <c r="C197" s="172"/>
       <c r="E197" s="1" t="s">
         <v>263</v>
       </c>
@@ -16910,8 +16915,8 @@
       <c r="R197" s="36"/>
     </row>
     <row r="198" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B198" s="170"/>
-      <c r="C198" s="171"/>
+      <c r="B198" s="171"/>
+      <c r="C198" s="172"/>
       <c r="E198" s="1" t="s">
         <v>335</v>
       </c>
@@ -16940,8 +16945,8 @@
       <c r="R198" s="36"/>
     </row>
     <row r="199" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B199" s="170"/>
-      <c r="C199" s="171"/>
+      <c r="B199" s="171"/>
+      <c r="C199" s="172"/>
       <c r="E199" s="1" t="s">
         <v>32</v>
       </c>
@@ -16970,8 +16975,8 @@
       <c r="R199" s="36"/>
     </row>
     <row r="200" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B200" s="174"/>
-      <c r="C200" s="173"/>
+      <c r="B200" s="175"/>
+      <c r="C200" s="174"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13" t="s">
         <v>446</v>
@@ -17001,29 +17006,29 @@
       <c r="R200" s="87"/>
     </row>
     <row r="206" spans="2:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U206" s="164" t="s">
+      <c r="U206" s="165" t="s">
         <v>349</v>
       </c>
-      <c r="V206" s="164"/>
-      <c r="W206" s="164"/>
-      <c r="X206" s="164"/>
-      <c r="Y206" s="164"/>
-      <c r="Z206" s="164"/>
-      <c r="AA206" s="164"/>
-      <c r="AB206" s="164"/>
-      <c r="AC206" s="164"/>
-      <c r="AD206" s="164"/>
-      <c r="AE206" s="164"/>
-      <c r="AF206" s="164"/>
-      <c r="AG206" s="164"/>
-      <c r="AH206" s="164"/>
-      <c r="AI206" s="164"/>
-      <c r="AJ206" s="164"/>
-      <c r="AK206" s="164"/>
-      <c r="AL206" s="164"/>
-      <c r="AM206" s="164"/>
-      <c r="AN206" s="164"/>
-      <c r="AO206" s="164"/>
+      <c r="V206" s="165"/>
+      <c r="W206" s="165"/>
+      <c r="X206" s="165"/>
+      <c r="Y206" s="165"/>
+      <c r="Z206" s="165"/>
+      <c r="AA206" s="165"/>
+      <c r="AB206" s="165"/>
+      <c r="AC206" s="165"/>
+      <c r="AD206" s="165"/>
+      <c r="AE206" s="165"/>
+      <c r="AF206" s="165"/>
+      <c r="AG206" s="165"/>
+      <c r="AH206" s="165"/>
+      <c r="AI206" s="165"/>
+      <c r="AJ206" s="165"/>
+      <c r="AK206" s="165"/>
+      <c r="AL206" s="165"/>
+      <c r="AM206" s="165"/>
+      <c r="AN206" s="165"/>
+      <c r="AO206" s="165"/>
     </row>
     <row r="207" spans="2:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U207" s="13" t="s">
@@ -17303,29 +17308,29 @@
       <c r="AO211" s="13"/>
     </row>
     <row r="213" spans="21:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U213" s="164" t="s">
+      <c r="U213" s="165" t="s">
         <v>350</v>
       </c>
-      <c r="V213" s="164"/>
-      <c r="W213" s="164"/>
-      <c r="X213" s="164"/>
-      <c r="Y213" s="164"/>
-      <c r="Z213" s="164"/>
-      <c r="AA213" s="164"/>
-      <c r="AB213" s="164"/>
-      <c r="AC213" s="164"/>
-      <c r="AD213" s="164"/>
-      <c r="AE213" s="164"/>
-      <c r="AF213" s="164"/>
-      <c r="AG213" s="164"/>
-      <c r="AH213" s="164"/>
-      <c r="AI213" s="164"/>
-      <c r="AJ213" s="164"/>
-      <c r="AK213" s="164"/>
-      <c r="AL213" s="164"/>
-      <c r="AM213" s="164"/>
-      <c r="AN213" s="164"/>
-      <c r="AO213" s="164"/>
+      <c r="V213" s="165"/>
+      <c r="W213" s="165"/>
+      <c r="X213" s="165"/>
+      <c r="Y213" s="165"/>
+      <c r="Z213" s="165"/>
+      <c r="AA213" s="165"/>
+      <c r="AB213" s="165"/>
+      <c r="AC213" s="165"/>
+      <c r="AD213" s="165"/>
+      <c r="AE213" s="165"/>
+      <c r="AF213" s="165"/>
+      <c r="AG213" s="165"/>
+      <c r="AH213" s="165"/>
+      <c r="AI213" s="165"/>
+      <c r="AJ213" s="165"/>
+      <c r="AK213" s="165"/>
+      <c r="AL213" s="165"/>
+      <c r="AM213" s="165"/>
+      <c r="AN213" s="165"/>
+      <c r="AO213" s="165"/>
     </row>
     <row r="214" spans="21:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U214" s="13" t="s">
@@ -17621,29 +17626,29 @@
       </c>
     </row>
     <row r="221" spans="21:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U221" s="164" t="s">
+      <c r="U221" s="165" t="s">
         <v>352</v>
       </c>
-      <c r="V221" s="164"/>
-      <c r="W221" s="164"/>
-      <c r="X221" s="164"/>
-      <c r="Y221" s="164"/>
-      <c r="Z221" s="164"/>
-      <c r="AA221" s="164"/>
-      <c r="AB221" s="164"/>
-      <c r="AC221" s="164"/>
-      <c r="AD221" s="164"/>
-      <c r="AE221" s="164"/>
-      <c r="AF221" s="164"/>
-      <c r="AG221" s="164"/>
-      <c r="AH221" s="164"/>
-      <c r="AI221" s="164"/>
-      <c r="AJ221" s="164"/>
-      <c r="AK221" s="164"/>
-      <c r="AL221" s="164"/>
-      <c r="AM221" s="164"/>
-      <c r="AN221" s="164"/>
-      <c r="AO221" s="164"/>
+      <c r="V221" s="165"/>
+      <c r="W221" s="165"/>
+      <c r="X221" s="165"/>
+      <c r="Y221" s="165"/>
+      <c r="Z221" s="165"/>
+      <c r="AA221" s="165"/>
+      <c r="AB221" s="165"/>
+      <c r="AC221" s="165"/>
+      <c r="AD221" s="165"/>
+      <c r="AE221" s="165"/>
+      <c r="AF221" s="165"/>
+      <c r="AG221" s="165"/>
+      <c r="AH221" s="165"/>
+      <c r="AI221" s="165"/>
+      <c r="AJ221" s="165"/>
+      <c r="AK221" s="165"/>
+      <c r="AL221" s="165"/>
+      <c r="AM221" s="165"/>
+      <c r="AN221" s="165"/>
+      <c r="AO221" s="165"/>
     </row>
     <row r="222" spans="21:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U222" s="13" t="s">
@@ -17925,29 +17930,29 @@
       <c r="AO226" s="26"/>
     </row>
     <row r="229" spans="21:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U229" s="164" t="s">
+      <c r="U229" s="165" t="s">
         <v>355</v>
       </c>
-      <c r="V229" s="164"/>
-      <c r="W229" s="164"/>
-      <c r="X229" s="164"/>
-      <c r="Y229" s="164"/>
-      <c r="Z229" s="164"/>
-      <c r="AA229" s="164"/>
-      <c r="AB229" s="164"/>
-      <c r="AC229" s="164"/>
-      <c r="AD229" s="164"/>
-      <c r="AE229" s="164"/>
-      <c r="AF229" s="164"/>
-      <c r="AG229" s="164"/>
-      <c r="AH229" s="164"/>
-      <c r="AI229" s="164"/>
-      <c r="AJ229" s="164"/>
-      <c r="AK229" s="164"/>
-      <c r="AL229" s="164"/>
-      <c r="AM229" s="164"/>
-      <c r="AN229" s="164"/>
-      <c r="AO229" s="164"/>
+      <c r="V229" s="165"/>
+      <c r="W229" s="165"/>
+      <c r="X229" s="165"/>
+      <c r="Y229" s="165"/>
+      <c r="Z229" s="165"/>
+      <c r="AA229" s="165"/>
+      <c r="AB229" s="165"/>
+      <c r="AC229" s="165"/>
+      <c r="AD229" s="165"/>
+      <c r="AE229" s="165"/>
+      <c r="AF229" s="165"/>
+      <c r="AG229" s="165"/>
+      <c r="AH229" s="165"/>
+      <c r="AI229" s="165"/>
+      <c r="AJ229" s="165"/>
+      <c r="AK229" s="165"/>
+      <c r="AL229" s="165"/>
+      <c r="AM229" s="165"/>
+      <c r="AN229" s="165"/>
+      <c r="AO229" s="165"/>
     </row>
     <row r="230" spans="21:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U230" s="13" t="s">
@@ -18518,10 +18523,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E119337B-178C-1641-8548-9AE40C5AB899}">
-  <dimension ref="B1:AG199"/>
+  <dimension ref="B1:AG182"/>
   <sheetViews>
-    <sheetView topLeftCell="O136" workbookViewId="0">
-      <selection activeCell="W181" sqref="W181:W199"/>
+    <sheetView tabSelected="1" topLeftCell="S101" workbookViewId="0">
+      <selection activeCell="V163" sqref="V163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18533,7 +18538,14 @@
     <col min="5" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="22" width="10.83203125" style="1"/>
+    <col min="23" max="23" width="11.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="151"/>
+    <col min="25" max="25" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="13.83203125" style="1" customWidth="1"/>
+    <col min="27" max="31" width="10.83203125" style="1"/>
+    <col min="32" max="32" width="14.5" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
@@ -18542,14 +18554,14 @@
       </c>
     </row>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="165" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -18573,7 +18585,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="158" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -18587,7 +18599,7 @@
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="158"/>
+      <c r="B5" s="159"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
@@ -18596,7 +18608,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="158"/>
+      <c r="B6" s="159"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -18605,7 +18617,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="158"/>
+      <c r="B7" s="159"/>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -18614,7 +18626,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="159"/>
+      <c r="B8" s="160"/>
       <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
@@ -18626,7 +18638,7 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="158" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18640,7 +18652,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="158"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
@@ -18652,7 +18664,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="158"/>
+      <c r="B11" s="159"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -18664,7 +18676,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="158"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -18673,7 +18685,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="159"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -18685,7 +18697,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="158" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -18701,7 +18713,7 @@
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="158"/>
+      <c r="B15" s="159"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -18713,7 +18725,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="158"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -18728,7 +18740,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="158"/>
+      <c r="B17" s="159"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -18740,7 +18752,7 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="159"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -18754,7 +18766,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="159" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -18765,7 +18777,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="158"/>
+      <c r="B20" s="159"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -18774,7 +18786,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="158"/>
+      <c r="B21" s="159"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -18783,7 +18795,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="158"/>
+      <c r="B22" s="159"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -18792,7 +18804,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="159"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
@@ -18809,18 +18821,18 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="164" t="s">
+      <c r="J30" s="165" t="s">
         <v>274</v>
       </c>
-      <c r="K30" s="164"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="164"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="164"/>
-      <c r="R30" s="164"/>
-      <c r="S30" s="164"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="165"/>
+      <c r="Q30" s="165"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
     </row>
     <row r="31" spans="2:20" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J31" s="55" t="s">
@@ -18855,7 +18867,7 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J32" s="169" t="s">
+      <c r="J32" s="170" t="s">
         <v>79</v>
       </c>
       <c r="K32" s="14" t="s">
@@ -18869,7 +18881,7 @@
       </c>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J33" s="170"/>
+      <c r="J33" s="171"/>
       <c r="K33" s="14" t="s">
         <v>16</v>
       </c>
@@ -18878,7 +18890,7 @@
       </c>
     </row>
     <row r="34" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J34" s="170"/>
+      <c r="J34" s="171"/>
       <c r="K34" s="14" t="s">
         <v>17</v>
       </c>
@@ -18887,7 +18899,7 @@
       </c>
     </row>
     <row r="35" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J35" s="170"/>
+      <c r="J35" s="171"/>
       <c r="K35" s="14" t="s">
         <v>34</v>
       </c>
@@ -18896,7 +18908,7 @@
       </c>
     </row>
     <row r="36" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J36" s="170"/>
+      <c r="J36" s="171"/>
       <c r="K36" s="14" t="s">
         <v>35</v>
       </c>
@@ -18905,7 +18917,7 @@
       </c>
     </row>
     <row r="37" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J37" s="170"/>
+      <c r="J37" s="171"/>
       <c r="K37" s="14" t="s">
         <v>18</v>
       </c>
@@ -18917,7 +18929,7 @@
       </c>
     </row>
     <row r="38" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J38" s="170"/>
+      <c r="J38" s="171"/>
       <c r="K38" s="14" t="s">
         <v>37</v>
       </c>
@@ -18926,7 +18938,7 @@
       </c>
     </row>
     <row r="39" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J39" s="170"/>
+      <c r="J39" s="171"/>
       <c r="K39" s="14" t="s">
         <v>36</v>
       </c>
@@ -18935,7 +18947,7 @@
       </c>
     </row>
     <row r="40" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J40" s="170"/>
+      <c r="J40" s="171"/>
       <c r="K40" s="14" t="s">
         <v>12</v>
       </c>
@@ -18947,7 +18959,7 @@
       </c>
     </row>
     <row r="41" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J41" s="170"/>
+      <c r="J41" s="171"/>
       <c r="K41" s="14" t="s">
         <v>19</v>
       </c>
@@ -18959,7 +18971,7 @@
       </c>
     </row>
     <row r="42" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="170"/>
+      <c r="J42" s="171"/>
       <c r="K42" s="14" t="s">
         <v>13</v>
       </c>
@@ -18971,7 +18983,7 @@
       </c>
     </row>
     <row r="43" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J43" s="170"/>
+      <c r="J43" s="171"/>
       <c r="K43" s="14" t="s">
         <v>14</v>
       </c>
@@ -18980,7 +18992,7 @@
       </c>
     </row>
     <row r="44" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J44" s="170"/>
+      <c r="J44" s="171"/>
       <c r="K44" s="14" t="s">
         <v>38</v>
       </c>
@@ -18989,7 +19001,7 @@
       </c>
     </row>
     <row r="45" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J45" s="170"/>
+      <c r="J45" s="171"/>
       <c r="K45" s="14" t="s">
         <v>20</v>
       </c>
@@ -19001,7 +19013,7 @@
       </c>
     </row>
     <row r="46" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J46" s="170"/>
+      <c r="J46" s="171"/>
       <c r="K46" s="14" t="s">
         <v>33</v>
       </c>
@@ -19010,7 +19022,7 @@
       </c>
     </row>
     <row r="47" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J47" s="170"/>
+      <c r="J47" s="171"/>
       <c r="K47" s="14" t="s">
         <v>39</v>
       </c>
@@ -19022,7 +19034,7 @@
       </c>
     </row>
     <row r="48" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J48" s="170"/>
+      <c r="J48" s="171"/>
       <c r="K48" s="14" t="s">
         <v>41</v>
       </c>
@@ -19031,7 +19043,7 @@
       </c>
     </row>
     <row r="49" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J49" s="170"/>
+      <c r="J49" s="171"/>
       <c r="K49" s="14" t="s">
         <v>42</v>
       </c>
@@ -19040,7 +19052,7 @@
       </c>
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J50" s="170"/>
+      <c r="J50" s="171"/>
       <c r="K50" s="15" t="s">
         <v>15</v>
       </c>
@@ -19049,7 +19061,7 @@
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J51" s="169" t="s">
+      <c r="J51" s="170" t="s">
         <v>80</v>
       </c>
       <c r="K51" s="14" t="s">
@@ -19060,7 +19072,7 @@
       </c>
     </row>
     <row r="52" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J52" s="170"/>
+      <c r="J52" s="171"/>
       <c r="K52" s="14" t="s">
         <v>16</v>
       </c>
@@ -19069,7 +19081,7 @@
       </c>
     </row>
     <row r="53" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J53" s="170"/>
+      <c r="J53" s="171"/>
       <c r="K53" s="14" t="s">
         <v>17</v>
       </c>
@@ -19078,7 +19090,7 @@
       </c>
     </row>
     <row r="54" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J54" s="170"/>
+      <c r="J54" s="171"/>
       <c r="K54" s="14" t="s">
         <v>34</v>
       </c>
@@ -19087,7 +19099,7 @@
       </c>
     </row>
     <row r="55" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J55" s="170"/>
+      <c r="J55" s="171"/>
       <c r="K55" s="14" t="s">
         <v>35</v>
       </c>
@@ -19096,7 +19108,7 @@
       </c>
     </row>
     <row r="56" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J56" s="170"/>
+      <c r="J56" s="171"/>
       <c r="K56" s="14" t="s">
         <v>18</v>
       </c>
@@ -19105,7 +19117,7 @@
       </c>
     </row>
     <row r="57" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J57" s="170"/>
+      <c r="J57" s="171"/>
       <c r="K57" s="14" t="s">
         <v>37</v>
       </c>
@@ -19117,7 +19129,7 @@
       </c>
     </row>
     <row r="58" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J58" s="170"/>
+      <c r="J58" s="171"/>
       <c r="K58" s="14" t="s">
         <v>36</v>
       </c>
@@ -19126,7 +19138,7 @@
       </c>
     </row>
     <row r="59" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J59" s="170"/>
+      <c r="J59" s="171"/>
       <c r="K59" s="14" t="s">
         <v>12</v>
       </c>
@@ -19138,7 +19150,7 @@
       </c>
     </row>
     <row r="60" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J60" s="170"/>
+      <c r="J60" s="171"/>
       <c r="K60" s="14" t="s">
         <v>19</v>
       </c>
@@ -19147,7 +19159,7 @@
       </c>
     </row>
     <row r="61" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J61" s="170"/>
+      <c r="J61" s="171"/>
       <c r="K61" s="14" t="s">
         <v>13</v>
       </c>
@@ -19159,7 +19171,7 @@
       </c>
     </row>
     <row r="62" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J62" s="170"/>
+      <c r="J62" s="171"/>
       <c r="K62" s="14" t="s">
         <v>14</v>
       </c>
@@ -19168,7 +19180,7 @@
       </c>
     </row>
     <row r="63" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J63" s="170"/>
+      <c r="J63" s="171"/>
       <c r="K63" s="14" t="s">
         <v>38</v>
       </c>
@@ -19180,7 +19192,7 @@
       </c>
     </row>
     <row r="64" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J64" s="170"/>
+      <c r="J64" s="171"/>
       <c r="K64" s="14" t="s">
         <v>20</v>
       </c>
@@ -19192,7 +19204,7 @@
       </c>
     </row>
     <row r="65" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J65" s="170"/>
+      <c r="J65" s="171"/>
       <c r="K65" s="14" t="s">
         <v>33</v>
       </c>
@@ -19204,7 +19216,7 @@
       </c>
     </row>
     <row r="66" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J66" s="170"/>
+      <c r="J66" s="171"/>
       <c r="K66" s="14" t="s">
         <v>39</v>
       </c>
@@ -19216,7 +19228,7 @@
       </c>
     </row>
     <row r="67" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J67" s="170"/>
+      <c r="J67" s="171"/>
       <c r="K67" s="14" t="s">
         <v>41</v>
       </c>
@@ -19225,7 +19237,7 @@
       </c>
     </row>
     <row r="68" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J68" s="170"/>
+      <c r="J68" s="171"/>
       <c r="K68" s="14" t="s">
         <v>42</v>
       </c>
@@ -19237,7 +19249,7 @@
       </c>
     </row>
     <row r="69" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J69" s="170"/>
+      <c r="J69" s="171"/>
       <c r="K69" s="15" t="s">
         <v>15</v>
       </c>
@@ -19246,7 +19258,7 @@
       </c>
     </row>
     <row r="70" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J70" s="169" t="s">
+      <c r="J70" s="170" t="s">
         <v>81</v>
       </c>
       <c r="K70" s="14" t="s">
@@ -19260,7 +19272,7 @@
       </c>
     </row>
     <row r="71" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J71" s="170"/>
+      <c r="J71" s="171"/>
       <c r="K71" s="14" t="s">
         <v>16</v>
       </c>
@@ -19269,7 +19281,7 @@
       </c>
     </row>
     <row r="72" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J72" s="170"/>
+      <c r="J72" s="171"/>
       <c r="K72" s="14" t="s">
         <v>17</v>
       </c>
@@ -19281,7 +19293,7 @@
       </c>
     </row>
     <row r="73" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J73" s="170"/>
+      <c r="J73" s="171"/>
       <c r="K73" s="14" t="s">
         <v>34</v>
       </c>
@@ -19290,7 +19302,7 @@
       </c>
     </row>
     <row r="74" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J74" s="170"/>
+      <c r="J74" s="171"/>
       <c r="K74" s="14" t="s">
         <v>35</v>
       </c>
@@ -19299,7 +19311,7 @@
       </c>
     </row>
     <row r="75" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J75" s="170"/>
+      <c r="J75" s="171"/>
       <c r="K75" s="14" t="s">
         <v>18</v>
       </c>
@@ -19311,7 +19323,7 @@
       </c>
     </row>
     <row r="76" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J76" s="170"/>
+      <c r="J76" s="171"/>
       <c r="K76" s="14" t="s">
         <v>37</v>
       </c>
@@ -19320,7 +19332,7 @@
       </c>
     </row>
     <row r="77" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J77" s="170"/>
+      <c r="J77" s="171"/>
       <c r="K77" s="14" t="s">
         <v>36</v>
       </c>
@@ -19332,7 +19344,7 @@
       </c>
     </row>
     <row r="78" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J78" s="170"/>
+      <c r="J78" s="171"/>
       <c r="K78" s="14" t="s">
         <v>12</v>
       </c>
@@ -19341,7 +19353,7 @@
       </c>
     </row>
     <row r="79" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J79" s="170"/>
+      <c r="J79" s="171"/>
       <c r="K79" s="14" t="s">
         <v>19</v>
       </c>
@@ -19353,7 +19365,7 @@
       </c>
     </row>
     <row r="80" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J80" s="170"/>
+      <c r="J80" s="171"/>
       <c r="K80" s="14" t="s">
         <v>13</v>
       </c>
@@ -19365,7 +19377,7 @@
       </c>
     </row>
     <row r="81" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J81" s="170"/>
+      <c r="J81" s="171"/>
       <c r="K81" s="14" t="s">
         <v>14</v>
       </c>
@@ -19377,7 +19389,7 @@
       </c>
     </row>
     <row r="82" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J82" s="170"/>
+      <c r="J82" s="171"/>
       <c r="K82" s="14" t="s">
         <v>38</v>
       </c>
@@ -19392,7 +19404,7 @@
       </c>
     </row>
     <row r="83" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J83" s="170"/>
+      <c r="J83" s="171"/>
       <c r="K83" s="14" t="s">
         <v>20</v>
       </c>
@@ -19401,7 +19413,7 @@
       </c>
     </row>
     <row r="84" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J84" s="170"/>
+      <c r="J84" s="171"/>
       <c r="K84" s="14" t="s">
         <v>33</v>
       </c>
@@ -19410,7 +19422,7 @@
       </c>
     </row>
     <row r="85" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J85" s="170"/>
+      <c r="J85" s="171"/>
       <c r="K85" s="14" t="s">
         <v>39</v>
       </c>
@@ -19419,7 +19431,7 @@
       </c>
     </row>
     <row r="86" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J86" s="170"/>
+      <c r="J86" s="171"/>
       <c r="K86" s="14" t="s">
         <v>41</v>
       </c>
@@ -19434,7 +19446,7 @@
       </c>
     </row>
     <row r="87" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J87" s="170"/>
+      <c r="J87" s="171"/>
       <c r="K87" s="14" t="s">
         <v>42</v>
       </c>
@@ -19443,7 +19455,7 @@
       </c>
     </row>
     <row r="88" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J88" s="170"/>
+      <c r="J88" s="171"/>
       <c r="K88" s="15" t="s">
         <v>15</v>
       </c>
@@ -19455,7 +19467,7 @@
       </c>
     </row>
     <row r="89" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J89" s="169" t="s">
+      <c r="J89" s="170" t="s">
         <v>82</v>
       </c>
       <c r="K89" s="14" t="s">
@@ -19463,132 +19475,132 @@
       </c>
     </row>
     <row r="90" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J90" s="170"/>
+      <c r="J90" s="171"/>
       <c r="K90" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J91" s="170"/>
+      <c r="J91" s="171"/>
       <c r="K91" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J92" s="170"/>
+      <c r="J92" s="171"/>
       <c r="K92" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="93" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J93" s="170"/>
+      <c r="J93" s="171"/>
       <c r="K93" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J94" s="170"/>
+      <c r="J94" s="171"/>
       <c r="K94" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J95" s="170"/>
+      <c r="J95" s="171"/>
       <c r="K95" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="96" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J96" s="170"/>
+      <c r="J96" s="171"/>
       <c r="K96" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J97" s="170"/>
+      <c r="J97" s="171"/>
       <c r="K97" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J98" s="170"/>
+      <c r="J98" s="171"/>
       <c r="K98" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="99" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J99" s="170"/>
+      <c r="J99" s="171"/>
       <c r="K99" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J100" s="170"/>
+      <c r="J100" s="171"/>
       <c r="K100" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J101" s="170"/>
+      <c r="J101" s="171"/>
       <c r="K101" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J102" s="170"/>
+      <c r="J102" s="171"/>
       <c r="K102" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J103" s="170"/>
+      <c r="J103" s="171"/>
       <c r="K103" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="104" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J104" s="170"/>
+      <c r="J104" s="171"/>
       <c r="K104" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="105" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J105" s="170"/>
+      <c r="J105" s="171"/>
       <c r="K105" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="106" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J106" s="170"/>
+      <c r="J106" s="171"/>
       <c r="K106" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="107" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J107" s="170"/>
+      <c r="J107" s="171"/>
       <c r="K107" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="23:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="W113" s="164" t="s">
+      <c r="W113" s="165" t="s">
         <v>451</v>
       </c>
-      <c r="X113" s="164"/>
-      <c r="Y113" s="164"/>
-      <c r="Z113" s="164"/>
-      <c r="AA113" s="164"/>
-      <c r="AB113" s="164"/>
-      <c r="AC113" s="164"/>
-      <c r="AD113" s="164"/>
-      <c r="AE113" s="164"/>
-      <c r="AF113" s="164"/>
-    </row>
-    <row r="114" spans="23:33" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="X113" s="165"/>
+      <c r="Y113" s="165"/>
+      <c r="Z113" s="165"/>
+      <c r="AA113" s="165"/>
+      <c r="AB113" s="165"/>
+      <c r="AC113" s="165"/>
+      <c r="AD113" s="165"/>
+      <c r="AE113" s="165"/>
+      <c r="AF113" s="165"/>
+    </row>
+    <row r="114" spans="23:33" ht="52" thickTop="1" x14ac:dyDescent="0.2">
       <c r="W114" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="X114" s="55" t="s">
+      <c r="X114" s="188" t="s">
         <v>275</v>
       </c>
       <c r="Y114" s="55" t="s">
@@ -19597,33 +19609,33 @@
       <c r="Z114" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="AA114" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB114" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC114" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD114" s="55" t="s">
+      <c r="AA114" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB114" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC114" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD114" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE114" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="AE114" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF114" s="55" t="s">
-        <v>278</v>
+      <c r="AF114" s="26" t="s">
+        <v>336</v>
       </c>
       <c r="AG114" s="55" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="115" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W115" s="180" t="s">
+      <c r="W115" s="181" t="s">
         <v>452</v>
       </c>
-      <c r="X115" s="14" t="s">
+      <c r="X115" s="189" t="s">
         <v>40</v>
       </c>
       <c r="Y115" s="1" t="s">
@@ -19634,8 +19646,8 @@
       </c>
     </row>
     <row r="116" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W116" s="170"/>
-      <c r="X116" s="14" t="s">
+      <c r="W116" s="171"/>
+      <c r="X116" s="189" t="s">
         <v>16</v>
       </c>
       <c r="Y116" s="1" t="s">
@@ -19646,8 +19658,8 @@
       </c>
     </row>
     <row r="117" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W117" s="170"/>
-      <c r="X117" s="14" t="s">
+      <c r="W117" s="171"/>
+      <c r="X117" s="189" t="s">
         <v>17</v>
       </c>
       <c r="Y117" s="1" t="s">
@@ -19658,8 +19670,8 @@
       </c>
     </row>
     <row r="118" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W118" s="170"/>
-      <c r="X118" s="14" t="s">
+      <c r="W118" s="171"/>
+      <c r="X118" s="189" t="s">
         <v>34</v>
       </c>
       <c r="Y118" s="1" t="s">
@@ -19670,8 +19682,8 @@
       </c>
     </row>
     <row r="119" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W119" s="170"/>
-      <c r="X119" s="14" t="s">
+      <c r="W119" s="171"/>
+      <c r="X119" s="189" t="s">
         <v>35</v>
       </c>
       <c r="Y119" s="1" t="s">
@@ -19682,8 +19694,8 @@
       </c>
     </row>
     <row r="120" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W120" s="170"/>
-      <c r="X120" s="14" t="s">
+      <c r="W120" s="171"/>
+      <c r="X120" s="189" t="s">
         <v>18</v>
       </c>
       <c r="Y120" s="1" t="s">
@@ -19694,8 +19706,8 @@
       </c>
     </row>
     <row r="121" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W121" s="170"/>
-      <c r="X121" s="14" t="s">
+      <c r="W121" s="171"/>
+      <c r="X121" s="189" t="s">
         <v>37</v>
       </c>
       <c r="Y121" s="1" t="s">
@@ -19706,8 +19718,8 @@
       </c>
     </row>
     <row r="122" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W122" s="170"/>
-      <c r="X122" s="14" t="s">
+      <c r="W122" s="171"/>
+      <c r="X122" s="189" t="s">
         <v>36</v>
       </c>
       <c r="Y122" s="1" t="s">
@@ -19718,8 +19730,8 @@
       </c>
     </row>
     <row r="123" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W123" s="170"/>
-      <c r="X123" s="14" t="s">
+      <c r="W123" s="171"/>
+      <c r="X123" s="189" t="s">
         <v>12</v>
       </c>
       <c r="Y123" s="1" t="s">
@@ -19730,8 +19742,8 @@
       </c>
     </row>
     <row r="124" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W124" s="170"/>
-      <c r="X124" s="14" t="s">
+      <c r="W124" s="171"/>
+      <c r="X124" s="189" t="s">
         <v>19</v>
       </c>
       <c r="Y124" s="1" t="s">
@@ -19742,8 +19754,8 @@
       </c>
     </row>
     <row r="125" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W125" s="170"/>
-      <c r="X125" s="14" t="s">
+      <c r="W125" s="171"/>
+      <c r="X125" s="189" t="s">
         <v>13</v>
       </c>
       <c r="Y125" s="1" t="s">
@@ -19754,8 +19766,8 @@
       </c>
     </row>
     <row r="126" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W126" s="170"/>
-      <c r="X126" s="14" t="s">
+      <c r="W126" s="171"/>
+      <c r="X126" s="189" t="s">
         <v>14</v>
       </c>
       <c r="Y126" s="1" t="s">
@@ -19766,55 +19778,153 @@
       </c>
     </row>
     <row r="127" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W127" s="170"/>
-      <c r="X127" s="14" t="s">
+      <c r="W127" s="171"/>
+      <c r="X127" s="187" t="s">
         <v>38</v>
       </c>
       <c r="Y127" s="1" t="s">
         <v>454</v>
       </c>
       <c r="Z127" s="1" t="s">
-        <v>455</v>
+        <v>284</v>
+      </c>
+      <c r="AA127" s="36">
+        <v>-3.3371599999999999</v>
+      </c>
+      <c r="AB127" s="36">
+        <v>0.45294000000000001</v>
+      </c>
+      <c r="AC127" s="36">
+        <v>188.05922000000001</v>
+      </c>
+      <c r="AD127" s="36">
+        <v>-7.3680000000000003</v>
+      </c>
+      <c r="AE127" s="36">
+        <v>5.3099999999999998E-12</v>
+      </c>
+      <c r="AF127" s="162" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="128" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W128" s="170"/>
-      <c r="X128" s="14"/>
+      <c r="W128" s="171"/>
+      <c r="X128" s="187"/>
       <c r="Z128" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA128" s="36">
+        <v>0.59692999999999996</v>
+      </c>
+      <c r="AB128" s="36">
+        <v>0.11211</v>
+      </c>
+      <c r="AC128" s="36">
+        <v>158.15506999999999</v>
+      </c>
+      <c r="AD128" s="36">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="AE128" s="36">
+        <v>3.4200000000000002E-7</v>
+      </c>
+      <c r="AF128" s="162"/>
+    </row>
+    <row r="129" spans="23:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W129" s="171"/>
+      <c r="X129" s="187"/>
+      <c r="Z129" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA129" s="36">
+        <v>0.3775</v>
+      </c>
+      <c r="AB129" s="36">
+        <v>0.16711999999999999</v>
+      </c>
+      <c r="AC129" s="36">
+        <v>48.974719999999998</v>
+      </c>
+      <c r="AD129" s="36">
+        <v>2.2589999999999999</v>
+      </c>
+      <c r="AE129" s="36">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="AF129" s="162"/>
+    </row>
+    <row r="130" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W130" s="171"/>
+      <c r="X130" s="187"/>
+      <c r="Z130" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA130" s="36">
+        <v>0.47586000000000001</v>
+      </c>
+      <c r="AB130" s="36">
+        <v>7.5259999999999994E-2</v>
+      </c>
+      <c r="AC130" s="36">
+        <v>178.13601</v>
+      </c>
+      <c r="AD130" s="36">
+        <v>6.3230000000000004</v>
+      </c>
+      <c r="AE130" s="36">
+        <v>2.0099999999999999E-9</v>
+      </c>
+      <c r="AF130" s="162"/>
+    </row>
+    <row r="131" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W131" s="171"/>
+      <c r="X131" s="187"/>
+      <c r="Z131" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="129" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W129" s="170"/>
-      <c r="X129" s="14"/>
-      <c r="Z129" s="1" t="s">
+      <c r="AA131" s="36">
+        <v>-0.20882999999999999</v>
+      </c>
+      <c r="AB131" s="36">
+        <v>9.1579999999999995E-2</v>
+      </c>
+      <c r="AC131" s="36">
+        <v>68.481859999999998</v>
+      </c>
+      <c r="AD131" s="36">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AE131" s="36">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="AF131" s="162"/>
+    </row>
+    <row r="132" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W132" s="171"/>
+      <c r="X132" s="187"/>
+      <c r="Z132" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="130" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W130" s="170"/>
-      <c r="X130" s="14"/>
-      <c r="Z130" s="62" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="131" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W131" s="170"/>
-      <c r="X131" s="14"/>
-      <c r="Z131" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="132" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W132" s="170"/>
-      <c r="X132" s="14"/>
-      <c r="Z132" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="133" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W133" s="170"/>
-      <c r="X133" s="14" t="s">
+      <c r="AA132" s="36">
+        <v>5.1639999999999998E-2</v>
+      </c>
+      <c r="AB132" s="36">
+        <v>0.13755000000000001</v>
+      </c>
+      <c r="AC132" s="36">
+        <v>163.38622000000001</v>
+      </c>
+      <c r="AD132" s="36">
+        <v>0.375</v>
+      </c>
+      <c r="AE132" s="36">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="AF132" s="162"/>
+    </row>
+    <row r="133" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W133" s="171"/>
+      <c r="X133" s="189" t="s">
         <v>20</v>
       </c>
       <c r="Y133" s="1" t="s">
@@ -19823,10 +19933,15 @@
       <c r="Z133" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="134" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W134" s="170"/>
-      <c r="X134" s="14" t="s">
+      <c r="AA133" s="36"/>
+      <c r="AB133" s="36"/>
+      <c r="AC133" s="36"/>
+      <c r="AD133" s="36"/>
+      <c r="AE133" s="36"/>
+    </row>
+    <row r="134" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W134" s="171"/>
+      <c r="X134" s="189" t="s">
         <v>33</v>
       </c>
       <c r="Y134" s="1" t="s">
@@ -19835,10 +19950,15 @@
       <c r="Z134" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="135" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W135" s="170"/>
-      <c r="X135" s="14" t="s">
+      <c r="AA134" s="36"/>
+      <c r="AB134" s="36"/>
+      <c r="AC134" s="36"/>
+      <c r="AD134" s="36"/>
+      <c r="AE134" s="36"/>
+    </row>
+    <row r="135" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W135" s="171"/>
+      <c r="X135" s="189" t="s">
         <v>39</v>
       </c>
       <c r="Y135" s="1" t="s">
@@ -19847,48 +19967,68 @@
       <c r="Z135" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="136" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W136" s="170"/>
-      <c r="X136" s="14" t="s">
+      <c r="AA135" s="36"/>
+      <c r="AB135" s="36"/>
+      <c r="AC135" s="36"/>
+      <c r="AD135" s="36"/>
+      <c r="AE135" s="36"/>
+    </row>
+    <row r="136" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W136" s="171"/>
+      <c r="X136" s="189" t="s">
         <v>41</v>
       </c>
       <c r="Y136" s="62" t="s">
         <v>454</v>
       </c>
-      <c r="Z136" s="62" t="s">
+      <c r="Z136" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="137" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W137" s="170"/>
-      <c r="X137" s="14" t="s">
+      <c r="AA136" s="36"/>
+      <c r="AB136" s="36"/>
+      <c r="AC136" s="36"/>
+      <c r="AD136" s="36"/>
+      <c r="AE136" s="36"/>
+    </row>
+    <row r="137" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W137" s="171"/>
+      <c r="X137" s="189" t="s">
         <v>42</v>
       </c>
       <c r="Y137" s="62" t="s">
         <v>454</v>
       </c>
-      <c r="Z137" s="62" t="s">
+      <c r="Z137" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="138" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W138" s="170"/>
-      <c r="X138" s="15" t="s">
+      <c r="AA137" s="36"/>
+      <c r="AB137" s="36"/>
+      <c r="AC137" s="36"/>
+      <c r="AD137" s="36"/>
+      <c r="AE137" s="36"/>
+    </row>
+    <row r="138" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W138" s="171"/>
+      <c r="X138" s="190" t="s">
         <v>15</v>
       </c>
       <c r="Y138" s="62" t="s">
         <v>454</v>
       </c>
-      <c r="Z138" s="62" t="s">
+      <c r="Z138" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="139" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W139" s="180" t="s">
+      <c r="AA138" s="36"/>
+      <c r="AB138" s="36"/>
+      <c r="AC138" s="36"/>
+      <c r="AD138" s="36"/>
+      <c r="AE138" s="36"/>
+    </row>
+    <row r="139" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W139" s="181" t="s">
         <v>461</v>
       </c>
-      <c r="X139" s="14" t="s">
+      <c r="X139" s="189" t="s">
         <v>40</v>
       </c>
       <c r="Y139" s="1" t="s">
@@ -19897,10 +20037,15 @@
       <c r="Z139" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="140" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W140" s="170"/>
-      <c r="X140" s="14" t="s">
+      <c r="AA139" s="36"/>
+      <c r="AB139" s="36"/>
+      <c r="AC139" s="36"/>
+      <c r="AD139" s="36"/>
+      <c r="AE139" s="36"/>
+    </row>
+    <row r="140" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W140" s="171"/>
+      <c r="X140" s="189" t="s">
         <v>16</v>
       </c>
       <c r="Y140" s="1" t="s">
@@ -19909,10 +20054,15 @@
       <c r="Z140" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="141" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W141" s="170"/>
-      <c r="X141" s="14" t="s">
+      <c r="AA140" s="36"/>
+      <c r="AB140" s="36"/>
+      <c r="AC140" s="36"/>
+      <c r="AD140" s="36"/>
+      <c r="AE140" s="36"/>
+    </row>
+    <row r="141" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W141" s="171"/>
+      <c r="X141" s="189" t="s">
         <v>17</v>
       </c>
       <c r="Y141" s="1" t="s">
@@ -19921,43 +20071,114 @@
       <c r="Z141" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="142" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W142" s="170"/>
-      <c r="X142" s="14" t="s">
+      <c r="AA141" s="36"/>
+      <c r="AB141" s="36"/>
+      <c r="AC141" s="36"/>
+      <c r="AD141" s="36"/>
+      <c r="AE141" s="36"/>
+    </row>
+    <row r="142" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W142" s="171"/>
+      <c r="X142" s="187" t="s">
         <v>34</v>
       </c>
       <c r="Y142" s="1" t="s">
         <v>454</v>
       </c>
       <c r="Z142" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA142" s="36">
+        <v>2.4348999999999998</v>
+      </c>
+      <c r="AB142" s="36">
+        <v>0.1837</v>
+      </c>
+      <c r="AC142" s="36">
+        <v>32.699199999999998</v>
+      </c>
+      <c r="AD142" s="36">
+        <v>13.257</v>
+      </c>
+      <c r="AE142" s="36">
+        <v>1.06E-14</v>
+      </c>
+      <c r="AF142" s="162" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="143" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W143" s="170"/>
-      <c r="X143" s="14"/>
+    <row r="143" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W143" s="171"/>
+      <c r="X143" s="187"/>
       <c r="Z143" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="144" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W144" s="170"/>
-      <c r="X144" s="14"/>
+        <v>263</v>
+      </c>
+      <c r="AA143" s="36">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="AB143" s="36">
+        <v>0.1419</v>
+      </c>
+      <c r="AC143" s="36">
+        <v>81.593699999999998</v>
+      </c>
+      <c r="AD143" s="36">
+        <v>6.5960000000000001</v>
+      </c>
+      <c r="AE143" s="36">
+        <v>3.9199999999999997E-9</v>
+      </c>
+      <c r="AF143" s="162"/>
+    </row>
+    <row r="144" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W144" s="171"/>
+      <c r="X144" s="187"/>
       <c r="Z144" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="145" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W145" s="170"/>
-      <c r="X145" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="AA144" s="36">
+        <v>-0.30930000000000002</v>
+      </c>
+      <c r="AB144" s="36">
+        <v>0.1018</v>
+      </c>
+      <c r="AC144" s="36">
+        <v>20.6389</v>
+      </c>
+      <c r="AD144" s="36">
+        <v>-3.0369999999999999</v>
+      </c>
+      <c r="AE144" s="36">
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="AF144" s="162"/>
+    </row>
+    <row r="145" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W145" s="171"/>
+      <c r="X145" s="187"/>
       <c r="Z145" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="146" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W146" s="170"/>
-      <c r="X146" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA145" s="36">
+        <v>-0.42159999999999997</v>
+      </c>
+      <c r="AB145" s="36">
+        <v>0.2089</v>
+      </c>
+      <c r="AC145" s="36">
+        <v>23.707899999999999</v>
+      </c>
+      <c r="AD145" s="36">
+        <v>-2.0179999999999998</v>
+      </c>
+      <c r="AE145" s="36">
+        <v>5.5079999999999997E-2</v>
+      </c>
+      <c r="AF145" s="162"/>
+    </row>
+    <row r="146" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W146" s="171"/>
+      <c r="X146" s="189" t="s">
         <v>35</v>
       </c>
       <c r="Y146" s="1" t="s">
@@ -19966,10 +20187,15 @@
       <c r="Z146" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="147" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W147" s="170"/>
-      <c r="X147" s="14" t="s">
+      <c r="AA146" s="36"/>
+      <c r="AB146" s="36"/>
+      <c r="AC146" s="36"/>
+      <c r="AD146" s="36"/>
+      <c r="AE146" s="36"/>
+    </row>
+    <row r="147" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W147" s="171"/>
+      <c r="X147" s="189" t="s">
         <v>18</v>
       </c>
       <c r="Y147" s="1" t="s">
@@ -19978,10 +20204,15 @@
       <c r="Z147" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="148" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W148" s="170"/>
-      <c r="X148" s="14" t="s">
+      <c r="AA147" s="36"/>
+      <c r="AB147" s="36"/>
+      <c r="AC147" s="36"/>
+      <c r="AD147" s="36"/>
+      <c r="AE147" s="36"/>
+    </row>
+    <row r="148" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W148" s="171"/>
+      <c r="X148" s="189" t="s">
         <v>37</v>
       </c>
       <c r="Y148" s="1" t="s">
@@ -19990,10 +20221,15 @@
       <c r="Z148" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="149" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W149" s="170"/>
-      <c r="X149" s="14" t="s">
+      <c r="AA148" s="36"/>
+      <c r="AB148" s="36"/>
+      <c r="AC148" s="36"/>
+      <c r="AD148" s="36"/>
+      <c r="AE148" s="36"/>
+    </row>
+    <row r="149" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W149" s="171"/>
+      <c r="X149" s="189" t="s">
         <v>36</v>
       </c>
       <c r="Y149" s="1" t="s">
@@ -20002,10 +20238,15 @@
       <c r="Z149" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="150" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W150" s="170"/>
-      <c r="X150" s="14" t="s">
+      <c r="AA149" s="36"/>
+      <c r="AB149" s="36"/>
+      <c r="AC149" s="36"/>
+      <c r="AD149" s="36"/>
+      <c r="AE149" s="36"/>
+    </row>
+    <row r="150" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W150" s="171"/>
+      <c r="X150" s="189" t="s">
         <v>12</v>
       </c>
       <c r="Y150" s="1" t="s">
@@ -20014,10 +20255,15 @@
       <c r="Z150" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="151" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W151" s="170"/>
-      <c r="X151" s="14" t="s">
+      <c r="AA150" s="36"/>
+      <c r="AB150" s="36"/>
+      <c r="AC150" s="36"/>
+      <c r="AD150" s="36"/>
+      <c r="AE150" s="36"/>
+    </row>
+    <row r="151" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W151" s="171"/>
+      <c r="X151" s="189" t="s">
         <v>19</v>
       </c>
       <c r="Y151" s="1" t="s">
@@ -20026,10 +20272,15 @@
       <c r="Z151" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="152" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W152" s="170"/>
-      <c r="X152" s="14" t="s">
+      <c r="AA151" s="36"/>
+      <c r="AB151" s="36"/>
+      <c r="AC151" s="36"/>
+      <c r="AD151" s="36"/>
+      <c r="AE151" s="36"/>
+    </row>
+    <row r="152" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W152" s="171"/>
+      <c r="X152" s="189" t="s">
         <v>13</v>
       </c>
       <c r="Y152" s="1" t="s">
@@ -20038,10 +20289,15 @@
       <c r="Z152" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="153" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W153" s="170"/>
-      <c r="X153" s="14" t="s">
+      <c r="AA152" s="36"/>
+      <c r="AB152" s="36"/>
+      <c r="AC152" s="36"/>
+      <c r="AD152" s="36"/>
+      <c r="AE152" s="36"/>
+    </row>
+    <row r="153" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W153" s="171"/>
+      <c r="X153" s="189" t="s">
         <v>14</v>
       </c>
       <c r="Y153" s="1" t="s">
@@ -20050,10 +20306,15 @@
       <c r="Z153" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="154" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W154" s="170"/>
-      <c r="X154" s="14" t="s">
+      <c r="AA153" s="36"/>
+      <c r="AB153" s="36"/>
+      <c r="AC153" s="36"/>
+      <c r="AD153" s="36"/>
+      <c r="AE153" s="36"/>
+    </row>
+    <row r="154" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W154" s="171"/>
+      <c r="X154" s="189" t="s">
         <v>38</v>
       </c>
       <c r="Y154" s="1" t="s">
@@ -20062,10 +20323,15 @@
       <c r="Z154" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="155" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W155" s="170"/>
-      <c r="X155" s="14" t="s">
+      <c r="AA154" s="36"/>
+      <c r="AB154" s="36"/>
+      <c r="AC154" s="36"/>
+      <c r="AD154" s="36"/>
+      <c r="AE154" s="36"/>
+    </row>
+    <row r="155" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W155" s="171"/>
+      <c r="X155" s="189" t="s">
         <v>20</v>
       </c>
       <c r="Y155" s="1" t="s">
@@ -20074,315 +20340,567 @@
       <c r="Z155" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="156" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W156" s="170"/>
-      <c r="X156" s="14" t="s">
+      <c r="AA155" s="36"/>
+      <c r="AB155" s="36"/>
+      <c r="AC155" s="36"/>
+      <c r="AD155" s="36"/>
+      <c r="AE155" s="36"/>
+    </row>
+    <row r="156" spans="23:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W156" s="171"/>
+      <c r="X156" s="187" t="s">
         <v>33</v>
       </c>
       <c r="Y156" s="1" t="s">
         <v>337</v>
       </c>
       <c r="Z156" s="61" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="157" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W157" s="170"/>
-      <c r="X157" s="14"/>
-      <c r="Z157" s="61" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="158" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W158" s="170"/>
-      <c r="X158" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA156" s="36">
+        <v>-0.32240000000000002</v>
+      </c>
+      <c r="AB156" s="36">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="AD156" s="36">
+        <v>-2.7890000000000001</v>
+      </c>
+      <c r="AE156" s="36">
+        <v>6.3930000000000002E-3</v>
+      </c>
+      <c r="AF156" s="162" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="157" spans="23:32" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W157" s="171"/>
+      <c r="X157" s="187"/>
+      <c r="Z157" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA157" s="36">
+        <v>-0.4617</v>
+      </c>
+      <c r="AB157" s="36">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="AD157" s="36">
+        <v>-3.4590000000000001</v>
+      </c>
+      <c r="AE157" s="36">
+        <v>8.1599999999999999E-4</v>
+      </c>
+      <c r="AF157" s="162"/>
+    </row>
+    <row r="158" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W158" s="171"/>
+      <c r="X158" s="189" t="s">
         <v>39</v>
       </c>
       <c r="Y158" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="Z158" s="1" t="s">
+      <c r="Z158" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="159" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W159" s="170"/>
-      <c r="X159" s="14" t="s">
+      <c r="AA158" s="36"/>
+      <c r="AB158" s="36"/>
+      <c r="AC158" s="36"/>
+      <c r="AD158" s="36"/>
+      <c r="AE158" s="36"/>
+      <c r="AF158" s="50"/>
+    </row>
+    <row r="159" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W159" s="171"/>
+      <c r="X159" s="189" t="s">
         <v>41</v>
       </c>
       <c r="Y159" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="Z159" s="1" t="s">
+      <c r="Z159" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="160" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W160" s="170"/>
-      <c r="X160" s="14" t="s">
+      <c r="AA159" s="36"/>
+      <c r="AB159" s="36"/>
+      <c r="AC159" s="36"/>
+      <c r="AD159" s="36"/>
+      <c r="AE159" s="36"/>
+      <c r="AF159" s="50"/>
+    </row>
+    <row r="160" spans="23:32" x14ac:dyDescent="0.2">
+      <c r="W160" s="171"/>
+      <c r="X160" s="189" t="s">
         <v>42</v>
       </c>
       <c r="Y160" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="Z160" s="1" t="s">
+      <c r="Z160" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="161" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W161" s="170"/>
-      <c r="X161" s="15" t="s">
+      <c r="AA160" s="36"/>
+      <c r="AB160" s="36"/>
+      <c r="AC160" s="36"/>
+      <c r="AD160" s="36"/>
+      <c r="AE160" s="36"/>
+    </row>
+    <row r="161" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W161" s="171"/>
+      <c r="X161" s="190" t="s">
         <v>15</v>
       </c>
       <c r="Y161" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="Z161" s="1" t="s">
+      <c r="Z161" s="61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="162" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W162" s="180" t="s">
-        <v>468</v>
-      </c>
-      <c r="X162" s="14" t="s">
+      <c r="AA161" s="36"/>
+      <c r="AB161" s="36"/>
+      <c r="AC161" s="36"/>
+      <c r="AD161" s="36"/>
+      <c r="AE161" s="36"/>
+    </row>
+    <row r="162" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="V162" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="W162" s="181" t="s">
+        <v>455</v>
+      </c>
+      <c r="X162" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="Z162" s="61"/>
-    </row>
-    <row r="163" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W163" s="170"/>
-      <c r="X163" s="14" t="s">
+      <c r="Y162" s="182" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z162" s="61" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA162" s="186"/>
+      <c r="AB162" s="186"/>
+      <c r="AC162" s="186"/>
+      <c r="AD162" s="186"/>
+      <c r="AE162" s="186"/>
+      <c r="AF162" s="182"/>
+      <c r="AG162" s="182"/>
+    </row>
+    <row r="163" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W163" s="171"/>
+      <c r="X163" s="189" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="164" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W164" s="170"/>
-      <c r="X164" s="14" t="s">
+      <c r="Y163" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z163" s="61" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA163" s="186"/>
+      <c r="AB163" s="186"/>
+      <c r="AC163" s="186"/>
+      <c r="AD163" s="186"/>
+      <c r="AE163" s="186"/>
+      <c r="AF163" s="182"/>
+      <c r="AG163" s="182"/>
+    </row>
+    <row r="164" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W164" s="171"/>
+      <c r="X164" s="189" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="165" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W165" s="170"/>
-      <c r="X165" s="14" t="s">
+      <c r="Y164" s="182" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z164" s="61" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA164" s="186"/>
+      <c r="AB164" s="186"/>
+      <c r="AC164" s="186"/>
+      <c r="AD164" s="186"/>
+      <c r="AE164" s="186"/>
+      <c r="AF164" s="182"/>
+      <c r="AG164" s="182"/>
+    </row>
+    <row r="165" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W165" s="171"/>
+      <c r="X165" s="189" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="166" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W166" s="170"/>
-      <c r="X166" s="14" t="s">
+      <c r="Y165" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z165" s="61" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA165" s="186"/>
+      <c r="AB165" s="186"/>
+      <c r="AC165" s="186"/>
+      <c r="AD165" s="186"/>
+      <c r="AE165" s="186"/>
+      <c r="AF165" s="182"/>
+      <c r="AG165" s="182"/>
+    </row>
+    <row r="166" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W166" s="171"/>
+      <c r="X166" s="187" t="s">
         <v>35</v>
       </c>
-      <c r="Z166" s="61"/>
-    </row>
-    <row r="167" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W167" s="170"/>
-      <c r="X167" s="14" t="s">
+      <c r="Y166" s="182"/>
+      <c r="Z166" s="183" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA166" s="186">
+        <v>-3.6413000000000002</v>
+      </c>
+      <c r="AB166" s="186">
+        <v>0.25559999999999999</v>
+      </c>
+      <c r="AC166" s="186">
+        <v>29.048200000000001</v>
+      </c>
+      <c r="AD166" s="186">
+        <v>-14.247</v>
+      </c>
+      <c r="AE166" s="186">
+        <v>1.2199999999999999E-14</v>
+      </c>
+      <c r="AF166" s="182"/>
+      <c r="AG166" s="182"/>
+    </row>
+    <row r="167" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W167" s="171"/>
+      <c r="X167" s="187"/>
+      <c r="Y167" s="182"/>
+      <c r="Z167" s="182" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA167" s="186">
+        <v>-0.6512</v>
+      </c>
+      <c r="AB167" s="186">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="AC167" s="186">
+        <v>29.339400000000001</v>
+      </c>
+      <c r="AD167" s="186">
+        <v>-4.6349999999999998</v>
+      </c>
+      <c r="AE167" s="186">
+        <v>6.8300000000000007E-5</v>
+      </c>
+      <c r="AF167" s="182"/>
+      <c r="AG167" s="182"/>
+    </row>
+    <row r="168" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W168" s="171"/>
+      <c r="X168" s="187"/>
+      <c r="Y168" s="182"/>
+      <c r="Z168" s="182" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA168" s="186">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="AB168" s="186">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="AC168" s="186">
+        <v>29.959399999999999</v>
+      </c>
+      <c r="AD168" s="186">
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="AE168" s="186">
+        <v>1.72E-2</v>
+      </c>
+      <c r="AF168" s="182"/>
+      <c r="AG168" s="182"/>
+    </row>
+    <row r="169" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W169" s="171"/>
+      <c r="X169" s="189" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="168" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W168" s="170"/>
-      <c r="X168" s="14" t="s">
+      <c r="Y169" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z169" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA169" s="186"/>
+      <c r="AB169" s="186"/>
+      <c r="AC169" s="186"/>
+      <c r="AD169" s="186"/>
+      <c r="AE169" s="186"/>
+      <c r="AF169" s="182"/>
+      <c r="AG169" s="182"/>
+    </row>
+    <row r="170" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W170" s="171"/>
+      <c r="X170" s="189" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="169" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W169" s="170"/>
-      <c r="X169" s="14" t="s">
+      <c r="Y170" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z170" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA170" s="186"/>
+      <c r="AB170" s="186"/>
+      <c r="AC170" s="186"/>
+      <c r="AD170" s="186"/>
+      <c r="AE170" s="186"/>
+      <c r="AF170" s="182"/>
+      <c r="AG170" s="182"/>
+    </row>
+    <row r="171" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W171" s="171"/>
+      <c r="X171" s="189" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="170" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W170" s="170"/>
-      <c r="X170" s="14" t="s">
+      <c r="Y171" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z171" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA171" s="186"/>
+      <c r="AB171" s="186"/>
+      <c r="AC171" s="186"/>
+      <c r="AD171" s="186"/>
+      <c r="AE171" s="186"/>
+      <c r="AF171" s="182"/>
+      <c r="AG171" s="182"/>
+    </row>
+    <row r="172" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W172" s="171"/>
+      <c r="X172" s="189" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="171" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W171" s="170"/>
-      <c r="X171" s="14" t="s">
+      <c r="Y172" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z172" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA172" s="186"/>
+      <c r="AB172" s="186"/>
+      <c r="AC172" s="186"/>
+      <c r="AD172" s="186"/>
+      <c r="AE172" s="186"/>
+      <c r="AF172" s="182"/>
+      <c r="AG172" s="182"/>
+    </row>
+    <row r="173" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W173" s="171"/>
+      <c r="X173" s="189" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="172" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W172" s="170"/>
-      <c r="X172" s="14" t="s">
+      <c r="Y173" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z173" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA173" s="186"/>
+      <c r="AB173" s="186"/>
+      <c r="AC173" s="186"/>
+      <c r="AD173" s="186"/>
+      <c r="AE173" s="186"/>
+      <c r="AF173" s="182"/>
+      <c r="AG173" s="182"/>
+    </row>
+    <row r="174" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W174" s="171"/>
+      <c r="X174" s="189" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="173" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W173" s="170"/>
-      <c r="X173" s="14" t="s">
+      <c r="Y174" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z174" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA174" s="186"/>
+      <c r="AB174" s="186"/>
+      <c r="AC174" s="186"/>
+      <c r="AD174" s="186"/>
+      <c r="AE174" s="186"/>
+      <c r="AF174" s="182"/>
+      <c r="AG174" s="182"/>
+    </row>
+    <row r="175" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W175" s="171"/>
+      <c r="X175" s="189" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="174" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W174" s="170"/>
-      <c r="X174" s="14" t="s">
+      <c r="Y175" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z175" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA175" s="186"/>
+      <c r="AB175" s="186"/>
+      <c r="AC175" s="186"/>
+      <c r="AD175" s="186"/>
+      <c r="AE175" s="186"/>
+      <c r="AF175" s="182"/>
+      <c r="AG175" s="182"/>
+    </row>
+    <row r="176" spans="22:33" x14ac:dyDescent="0.2">
+      <c r="W176" s="171"/>
+      <c r="X176" s="189" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="175" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W175" s="170"/>
-      <c r="X175" s="14" t="s">
+      <c r="Y176" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z176" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA176" s="186"/>
+      <c r="AB176" s="186"/>
+      <c r="AC176" s="186"/>
+      <c r="AD176" s="186"/>
+      <c r="AE176" s="186"/>
+      <c r="AF176" s="182"/>
+      <c r="AG176" s="182"/>
+    </row>
+    <row r="177" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W177" s="171"/>
+      <c r="X177" s="189" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="176" spans="23:26" x14ac:dyDescent="0.2">
-      <c r="W176" s="170"/>
-      <c r="X176" s="14" t="s">
+      <c r="Y177" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z177" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA177" s="182"/>
+      <c r="AB177" s="182"/>
+      <c r="AC177" s="182"/>
+      <c r="AD177" s="182"/>
+      <c r="AE177" s="182"/>
+      <c r="AF177" s="182"/>
+      <c r="AG177" s="182"/>
+    </row>
+    <row r="178" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W178" s="171"/>
+      <c r="X178" s="189" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="177" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W177" s="170"/>
-      <c r="X177" s="14" t="s">
+      <c r="Y178" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z178" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA178" s="182"/>
+      <c r="AB178" s="182"/>
+      <c r="AC178" s="182"/>
+      <c r="AD178" s="182"/>
+      <c r="AE178" s="182"/>
+      <c r="AF178" s="182"/>
+      <c r="AG178" s="182"/>
+    </row>
+    <row r="179" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W179" s="171"/>
+      <c r="X179" s="189" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="178" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W178" s="170"/>
-      <c r="X178" s="14" t="s">
+      <c r="Y179" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z179" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA179" s="182"/>
+      <c r="AB179" s="182"/>
+      <c r="AC179" s="182"/>
+      <c r="AD179" s="182"/>
+      <c r="AE179" s="182"/>
+      <c r="AF179" s="182"/>
+      <c r="AG179" s="182"/>
+    </row>
+    <row r="180" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W180" s="171"/>
+      <c r="X180" s="189" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="179" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W179" s="170"/>
-      <c r="X179" s="14" t="s">
+      <c r="Y180" s="182" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z180" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA180" s="182"/>
+      <c r="AB180" s="182"/>
+      <c r="AC180" s="182"/>
+      <c r="AD180" s="182"/>
+      <c r="AE180" s="182"/>
+      <c r="AF180" s="182"/>
+      <c r="AG180" s="182"/>
+    </row>
+    <row r="181" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W181" s="171"/>
+      <c r="X181" s="189" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="180" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W180" s="170"/>
-      <c r="X180" s="15" t="s">
+      <c r="Y181" s="184" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z181" s="184" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA181" s="182"/>
+      <c r="AB181" s="182"/>
+      <c r="AC181" s="182"/>
+      <c r="AD181" s="182"/>
+      <c r="AE181" s="182"/>
+      <c r="AF181" s="182"/>
+      <c r="AG181" s="182"/>
+    </row>
+    <row r="182" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W182" s="175"/>
+      <c r="X182" s="190" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W181" s="169" t="s">
-        <v>82</v>
-      </c>
-      <c r="X181" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="182" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W182" s="170"/>
-      <c r="X182" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W183" s="170"/>
-      <c r="X183" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="184" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W184" s="170"/>
-      <c r="X184" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W185" s="170"/>
-      <c r="X185" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="186" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W186" s="170"/>
-      <c r="X186" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W187" s="170"/>
-      <c r="X187" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="188" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W188" s="170"/>
-      <c r="X188" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="189" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W189" s="170"/>
-      <c r="X189" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W190" s="170"/>
-      <c r="X190" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="191" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W191" s="170"/>
-      <c r="X191" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W192" s="170"/>
-      <c r="X192" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="193" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W193" s="170"/>
-      <c r="X193" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="194" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W194" s="170"/>
-      <c r="X194" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W195" s="170"/>
-      <c r="X195" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="196" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W196" s="170"/>
-      <c r="X196" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="197" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W197" s="170"/>
-      <c r="X197" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="198" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W198" s="170"/>
-      <c r="X198" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="199" spans="23:24" x14ac:dyDescent="0.2">
-      <c r="W199" s="170"/>
-      <c r="X199" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="Y182" s="185" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z182" s="185" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA182" s="13"/>
+      <c r="AB182" s="13"/>
+      <c r="AC182" s="13"/>
+      <c r="AD182" s="13"/>
+      <c r="AE182" s="13"/>
+      <c r="AF182" s="13"/>
+      <c r="AG182" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <autoFilter ref="W114:AG182" xr:uid="{E119337B-178C-1641-8548-9AE40C5AB899}"/>
+  <mergeCells count="21">
     <mergeCell ref="W113:AF113"/>
     <mergeCell ref="W115:W138"/>
     <mergeCell ref="W139:W161"/>
-    <mergeCell ref="W162:W180"/>
-    <mergeCell ref="W181:W199"/>
+    <mergeCell ref="W162:W182"/>
+    <mergeCell ref="X166:X168"/>
+    <mergeCell ref="X156:X157"/>
+    <mergeCell ref="X142:X145"/>
+    <mergeCell ref="X127:X132"/>
+    <mergeCell ref="AF127:AF132"/>
+    <mergeCell ref="AF142:AF145"/>
+    <mergeCell ref="AF156:AF157"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
@@ -20412,35 +20930,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="178" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="177" t="s">
+      <c r="A1" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="175" t="s">
+      <c r="C1" s="176"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="177" t="s">
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="177" t="s">
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="177"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="179"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>

--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gift/Documents/Rprojects/project-harvest/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4709E221-998D-AE48-A271-3F7BF605188B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B6C675-E072-FD4C-879B-79DE40FFEAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="660" windowWidth="27660" windowHeight="17500" activeTab="1" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11738" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11739" uniqueCount="454">
   <si>
     <t>Analyte</t>
   </si>
@@ -1570,19 +1570,10 @@
     <t>Q655+ years</t>
   </si>
   <si>
-    <t>seasonMonsoon                3.44563    0.15489 2045.26442  22.245  &lt; 2e-16 ***</t>
+    <t>Q60Other</t>
   </si>
   <si>
-    <t>Q60Other                    17.84690    3.77276   22.33300   4.730 9.78e-05 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q60Plastic                  -0.17904    2.57437   22.23334  -0.070  0.94517    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">seasonWinter:prox.normal    -0.01444    0.60826   23.67804  -0.024  0.98126    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">seasonMonsoon:prox.normal   -2.02104    0.61166   24.18507  -3.304  0.00296 ** </t>
+    <t>Q60Plastic</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2467,14 +2458,29 @@
     <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2486,31 +2492,28 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2521,23 +2524,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2553,21 +2556,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3546,27 +3534,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="164" t="s">
+      <c r="M31" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="164"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="164"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="156"/>
+      <c r="Q31" s="156"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="165" t="s">
+      <c r="M32" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="163" t="s">
+      <c r="N32" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
+      <c r="O32" s="155"/>
+      <c r="P32" s="155"/>
+      <c r="Q32" s="155"/>
     </row>
     <row r="33" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M33" s="159"/>
+      <c r="M33" s="158"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -3640,29 +3628,29 @@
       </c>
     </row>
     <row r="44" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y44" s="166" t="s">
+      <c r="Y44" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="Z44" s="166"/>
-      <c r="AA44" s="166"/>
-      <c r="AB44" s="166"/>
-      <c r="AC44" s="166"/>
+      <c r="Z44" s="170"/>
+      <c r="AA44" s="170"/>
+      <c r="AB44" s="170"/>
+      <c r="AC44" s="170"/>
     </row>
     <row r="45" spans="13:29" x14ac:dyDescent="0.2">
       <c r="Y45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Z45" s="167" t="s">
+      <c r="Z45" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="AA45" s="167"/>
-      <c r="AB45" s="167"/>
+      <c r="AA45" s="171"/>
+      <c r="AB45" s="171"/>
       <c r="AC45" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y46" s="157" t="s">
+      <c r="Y46" s="165" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="8" t="s">
@@ -3676,7 +3664,7 @@
       </c>
     </row>
     <row r="47" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y47" s="158"/>
+      <c r="Y47" s="166"/>
       <c r="Z47" s="8">
         <v>0</v>
       </c>
@@ -3688,7 +3676,7 @@
       </c>
     </row>
     <row r="48" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y48" s="158"/>
+      <c r="Y48" s="166"/>
       <c r="Z48" s="8">
         <v>0.5</v>
       </c>
@@ -3700,7 +3688,7 @@
       </c>
     </row>
     <row r="49" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y49" s="158"/>
+      <c r="Y49" s="166"/>
       <c r="Z49" s="8">
         <v>1</v>
       </c>
@@ -3712,7 +3700,7 @@
       </c>
     </row>
     <row r="50" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y50" s="158"/>
+      <c r="Y50" s="166"/>
       <c r="Z50" s="8">
         <v>1.5</v>
       </c>
@@ -3724,7 +3712,7 @@
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="159"/>
+      <c r="Y51" s="158"/>
       <c r="Z51" s="11">
         <v>2</v>
       </c>
@@ -3737,7 +3725,7 @@
       <c r="AC51" s="13"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y52" s="157" t="s">
+      <c r="Y52" s="165" t="s">
         <v>69</v>
       </c>
       <c r="Z52" s="1" t="s">
@@ -3746,62 +3734,62 @@
       <c r="AA52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC52" s="160" t="s">
+      <c r="AC52" s="167" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="158"/>
+      <c r="Y53" s="166"/>
       <c r="Z53" s="1">
         <v>0</v>
       </c>
       <c r="AA53" s="34">
         <v>6.1733623452348702E-2</v>
       </c>
-      <c r="AC53" s="161"/>
+      <c r="AC53" s="169"/>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y54" s="158"/>
+      <c r="Y54" s="166"/>
       <c r="Z54" s="1">
         <v>2</v>
       </c>
       <c r="AA54" s="34">
         <v>1.20772053410085E-2</v>
       </c>
-      <c r="AC54" s="161"/>
+      <c r="AC54" s="169"/>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y55" s="158"/>
+      <c r="Y55" s="166"/>
       <c r="Z55" s="1">
         <v>4</v>
       </c>
       <c r="AA55" s="31">
         <v>2.2662402083130201E-3</v>
       </c>
-      <c r="AC55" s="161"/>
+      <c r="AC55" s="169"/>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y56" s="158"/>
+      <c r="Y56" s="166"/>
       <c r="Z56" s="1">
         <v>6</v>
       </c>
       <c r="AA56" s="28">
         <v>4.2184786680835203E-4</v>
       </c>
-      <c r="AC56" s="161"/>
+      <c r="AC56" s="169"/>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y57" s="158"/>
+      <c r="Y57" s="166"/>
       <c r="Z57" s="1">
         <v>8</v>
       </c>
       <c r="AA57" s="28">
         <v>7.8406646322768398E-5</v>
       </c>
-      <c r="AC57" s="161"/>
+      <c r="AC57" s="169"/>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y58" s="159"/>
+      <c r="Y58" s="158"/>
       <c r="Z58" s="13">
         <v>10</v>
       </c>
@@ -3809,10 +3797,10 @@
         <v>1.4568956039108299E-5</v>
       </c>
       <c r="AB58" s="13"/>
-      <c r="AC58" s="162"/>
+      <c r="AC58" s="168"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y59" s="157" t="s">
+      <c r="Y59" s="165" t="s">
         <v>73</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -3821,72 +3809,72 @@
       <c r="AA59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" s="160" t="s">
+      <c r="AC59" s="167" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y60" s="158"/>
+      <c r="Y60" s="166"/>
       <c r="Z60" s="1">
         <v>0</v>
       </c>
       <c r="AA60" s="34">
         <v>4.213704983443E-2</v>
       </c>
-      <c r="AC60" s="161"/>
+      <c r="AC60" s="169"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y61" s="158"/>
+      <c r="Y61" s="166"/>
       <c r="Z61" s="1">
         <v>4</v>
       </c>
       <c r="AA61" s="36">
         <v>0.70383460067707004</v>
       </c>
-      <c r="AC61" s="161"/>
+      <c r="AC61" s="169"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y62" s="158"/>
+      <c r="Y62" s="166"/>
       <c r="Z62" s="1">
         <v>8</v>
       </c>
       <c r="AA62" s="36">
         <v>0.99227108557330002</v>
       </c>
-      <c r="AC62" s="161"/>
+      <c r="AC62" s="169"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y63" s="158"/>
+      <c r="Y63" s="166"/>
       <c r="Z63" s="1">
         <v>12</v>
       </c>
       <c r="AA63" s="37">
         <v>0.99985583826317304</v>
       </c>
-      <c r="AC63" s="161"/>
+      <c r="AC63" s="169"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y64" s="158"/>
+      <c r="Y64" s="166"/>
       <c r="Z64" s="1">
         <v>16</v>
       </c>
       <c r="AA64" s="37">
         <v>0.99999733107778499</v>
       </c>
-      <c r="AC64" s="161"/>
+      <c r="AC64" s="169"/>
     </row>
     <row r="65" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y65" s="158"/>
+      <c r="Y65" s="166"/>
       <c r="Z65" s="1">
         <v>20</v>
       </c>
       <c r="AA65" s="37">
         <v>0.99999995059606805</v>
       </c>
-      <c r="AC65" s="161"/>
+      <c r="AC65" s="169"/>
     </row>
     <row r="66" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y66" s="159"/>
+      <c r="Y66" s="158"/>
       <c r="Z66" s="13">
         <v>24</v>
       </c>
@@ -3894,7 +3882,7 @@
         <v>0.99999999908549497</v>
       </c>
       <c r="AB66" s="13"/>
-      <c r="AC66" s="162"/>
+      <c r="AC66" s="168"/>
     </row>
     <row r="71" spans="25:36" x14ac:dyDescent="0.2">
       <c r="AD71" s="1" t="s">
@@ -3943,7 +3931,7 @@
       </c>
     </row>
     <row r="74" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD74" s="160" t="s">
+      <c r="AD74" s="167" t="s">
         <v>9</v>
       </c>
       <c r="AE74" s="48" t="s">
@@ -3963,7 +3951,7 @@
       </c>
     </row>
     <row r="75" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="162"/>
+      <c r="AD75" s="168"/>
       <c r="AE75" s="49" t="s">
         <v>13</v>
       </c>
@@ -3981,7 +3969,7 @@
       </c>
     </row>
     <row r="76" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD76" s="160" t="s">
+      <c r="AD76" s="167" t="s">
         <v>10</v>
       </c>
       <c r="AE76" s="48" t="s">
@@ -4001,7 +3989,7 @@
       </c>
     </row>
     <row r="77" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD77" s="161"/>
+      <c r="AD77" s="169"/>
       <c r="AE77" s="50" t="s">
         <v>17</v>
       </c>
@@ -4019,7 +4007,7 @@
       </c>
     </row>
     <row r="78" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD78" s="162"/>
+      <c r="AD78" s="168"/>
       <c r="AE78" s="49" t="s">
         <v>12</v>
       </c>
@@ -4037,7 +4025,7 @@
       </c>
     </row>
     <row r="79" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD79" s="160" t="s">
+      <c r="AD79" s="167" t="s">
         <v>11</v>
       </c>
       <c r="AE79" s="48" t="s">
@@ -4057,7 +4045,7 @@
       </c>
     </row>
     <row r="80" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="161"/>
+      <c r="AD80" s="169"/>
       <c r="AE80" s="50" t="s">
         <v>19</v>
       </c>
@@ -4075,7 +4063,7 @@
       </c>
     </row>
     <row r="81" spans="30:47" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD81" s="161"/>
+      <c r="AD81" s="169"/>
       <c r="AE81" s="50" t="s">
         <v>13</v>
       </c>
@@ -4093,7 +4081,7 @@
       </c>
     </row>
     <row r="82" spans="30:47" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD82" s="162"/>
+      <c r="AD82" s="168"/>
       <c r="AE82" s="49" t="s">
         <v>15</v>
       </c>
@@ -4111,18 +4099,18 @@
       </c>
     </row>
     <row r="87" spans="30:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL87" s="164" t="s">
+      <c r="AL87" s="156" t="s">
         <v>274</v>
       </c>
-      <c r="AM87" s="164"/>
-      <c r="AN87" s="164"/>
-      <c r="AO87" s="164"/>
-      <c r="AP87" s="164"/>
-      <c r="AQ87" s="164"/>
-      <c r="AR87" s="164"/>
-      <c r="AS87" s="164"/>
-      <c r="AT87" s="164"/>
-      <c r="AU87" s="164"/>
+      <c r="AM87" s="156"/>
+      <c r="AN87" s="156"/>
+      <c r="AO87" s="156"/>
+      <c r="AP87" s="156"/>
+      <c r="AQ87" s="156"/>
+      <c r="AR87" s="156"/>
+      <c r="AS87" s="156"/>
+      <c r="AT87" s="156"/>
+      <c r="AU87" s="156"/>
     </row>
     <row r="88" spans="30:47" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AL88" s="55" t="s">
@@ -4157,13 +4145,13 @@
       </c>
     </row>
     <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL89" s="154" t="s">
+      <c r="AL89" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="AM89" s="151" t="s">
+      <c r="AM89" s="162" t="s">
         <v>279</v>
       </c>
-      <c r="AN89" s="157" t="s">
+      <c r="AN89" s="165" t="s">
         <v>13</v>
       </c>
       <c r="AO89" s="40" t="s">
@@ -4181,17 +4169,17 @@
       <c r="AS89" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT89" s="154" t="s">
+      <c r="AT89" s="159" t="s">
         <v>287</v>
       </c>
-      <c r="AU89" s="151" t="s">
+      <c r="AU89" s="162" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL90" s="155"/>
-      <c r="AM90" s="152"/>
-      <c r="AN90" s="158"/>
+      <c r="AL90" s="160"/>
+      <c r="AM90" s="163"/>
+      <c r="AN90" s="166"/>
       <c r="AO90" s="1" t="s">
         <v>68</v>
       </c>
@@ -4207,13 +4195,13 @@
       <c r="AS90" s="58">
         <v>1E-3</v>
       </c>
-      <c r="AT90" s="155"/>
-      <c r="AU90" s="152"/>
+      <c r="AT90" s="160"/>
+      <c r="AU90" s="163"/>
     </row>
     <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL91" s="156"/>
-      <c r="AM91" s="153"/>
-      <c r="AN91" s="159"/>
+      <c r="AL91" s="161"/>
+      <c r="AM91" s="164"/>
+      <c r="AN91" s="158"/>
       <c r="AO91" s="13" t="s">
         <v>286</v>
       </c>
@@ -4229,17 +4217,17 @@
       <c r="AS91" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AT91" s="156"/>
-      <c r="AU91" s="153"/>
+      <c r="AT91" s="161"/>
+      <c r="AU91" s="164"/>
     </row>
     <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL92" s="154" t="s">
+      <c r="AL92" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="AM92" s="154" t="s">
+      <c r="AM92" s="159" t="s">
         <v>280</v>
       </c>
-      <c r="AN92" s="157" t="s">
+      <c r="AN92" s="165" t="s">
         <v>12</v>
       </c>
       <c r="AO92" s="40" t="s">
@@ -4257,17 +4245,17 @@
       <c r="AS92" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT92" s="154" t="s">
+      <c r="AT92" s="159" t="s">
         <v>287</v>
       </c>
-      <c r="AU92" s="151" t="s">
+      <c r="AU92" s="162" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL93" s="155"/>
-      <c r="AM93" s="155"/>
-      <c r="AN93" s="158"/>
+      <c r="AL93" s="160"/>
+      <c r="AM93" s="160"/>
+      <c r="AN93" s="166"/>
       <c r="AO93" s="1" t="s">
         <v>68</v>
       </c>
@@ -4283,13 +4271,13 @@
       <c r="AS93" s="58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT93" s="155"/>
-      <c r="AU93" s="152"/>
+      <c r="AT93" s="160"/>
+      <c r="AU93" s="163"/>
     </row>
     <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL94" s="155"/>
-      <c r="AM94" s="155"/>
-      <c r="AN94" s="158"/>
+      <c r="AL94" s="160"/>
+      <c r="AM94" s="160"/>
+      <c r="AN94" s="166"/>
       <c r="AO94" s="1" t="s">
         <v>286</v>
       </c>
@@ -4305,15 +4293,15 @@
       <c r="AS94" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT94" s="155"/>
-      <c r="AU94" s="152"/>
+      <c r="AT94" s="160"/>
+      <c r="AU94" s="163"/>
     </row>
     <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL95" s="155"/>
-      <c r="AM95" s="152" t="s">
+      <c r="AL95" s="160"/>
+      <c r="AM95" s="163" t="s">
         <v>279</v>
       </c>
-      <c r="AN95" s="158" t="s">
+      <c r="AN95" s="166" t="s">
         <v>17</v>
       </c>
       <c r="AO95" t="s">
@@ -4331,17 +4319,17 @@
       <c r="AS95" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="AT95" s="155" t="s">
+      <c r="AT95" s="160" t="s">
         <v>287</v>
       </c>
-      <c r="AU95" s="152" t="s">
+      <c r="AU95" s="163" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL96" s="155"/>
-      <c r="AM96" s="152"/>
-      <c r="AN96" s="158"/>
+      <c r="AL96" s="160"/>
+      <c r="AM96" s="163"/>
+      <c r="AN96" s="166"/>
       <c r="AO96" s="1" t="s">
         <v>68</v>
       </c>
@@ -4357,13 +4345,13 @@
       <c r="AS96" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT96" s="155"/>
-      <c r="AU96" s="152"/>
+      <c r="AT96" s="160"/>
+      <c r="AU96" s="163"/>
     </row>
     <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL97" s="156"/>
-      <c r="AM97" s="153"/>
-      <c r="AN97" s="159"/>
+      <c r="AL97" s="161"/>
+      <c r="AM97" s="164"/>
+      <c r="AN97" s="158"/>
       <c r="AO97" s="13" t="s">
         <v>286</v>
       </c>
@@ -4379,17 +4367,17 @@
       <c r="AS97" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT97" s="156"/>
-      <c r="AU97" s="153"/>
+      <c r="AT97" s="161"/>
+      <c r="AU97" s="164"/>
     </row>
     <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL98" s="154" t="s">
+      <c r="AL98" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="AM98" s="151" t="s">
+      <c r="AM98" s="162" t="s">
         <v>279</v>
       </c>
-      <c r="AN98" s="157" t="s">
+      <c r="AN98" s="165" t="s">
         <v>13</v>
       </c>
       <c r="AO98" s="60" t="s">
@@ -4407,17 +4395,17 @@
       <c r="AS98" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT98" s="154" t="s">
+      <c r="AT98" s="159" t="s">
         <v>287</v>
       </c>
-      <c r="AU98" s="151" t="s">
+      <c r="AU98" s="162" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL99" s="155"/>
-      <c r="AM99" s="152"/>
-      <c r="AN99" s="158"/>
+      <c r="AL99" s="160"/>
+      <c r="AM99" s="163"/>
+      <c r="AN99" s="166"/>
       <c r="AO99" s="1" t="s">
         <v>68</v>
       </c>
@@ -4433,13 +4421,13 @@
       <c r="AS99" s="58">
         <v>0.04</v>
       </c>
-      <c r="AT99" s="155"/>
-      <c r="AU99" s="152"/>
+      <c r="AT99" s="160"/>
+      <c r="AU99" s="163"/>
     </row>
     <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL100" s="156"/>
-      <c r="AM100" s="153"/>
-      <c r="AN100" s="159"/>
+      <c r="AL100" s="161"/>
+      <c r="AM100" s="164"/>
+      <c r="AN100" s="158"/>
       <c r="AO100" s="13" t="s">
         <v>286</v>
       </c>
@@ -4455,11 +4443,28 @@
       <c r="AS100" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT100" s="156"/>
-      <c r="AU100" s="153"/>
+      <c r="AT100" s="161"/>
+      <c r="AU100" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="AM98:AM100"/>
+    <mergeCell ref="AL98:AL100"/>
+    <mergeCell ref="AL92:AL97"/>
+    <mergeCell ref="AM92:AM94"/>
+    <mergeCell ref="AM95:AM97"/>
+    <mergeCell ref="AU95:AU97"/>
+    <mergeCell ref="AT95:AT97"/>
+    <mergeCell ref="AT98:AT100"/>
+    <mergeCell ref="AU98:AU100"/>
+    <mergeCell ref="AN98:AN100"/>
+    <mergeCell ref="AN95:AN97"/>
+    <mergeCell ref="Y59:Y66"/>
+    <mergeCell ref="AC52:AC58"/>
+    <mergeCell ref="AC59:AC66"/>
+    <mergeCell ref="AT92:AT94"/>
+    <mergeCell ref="AU92:AU94"/>
+    <mergeCell ref="AN92:AN94"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="M31:Q31"/>
     <mergeCell ref="M32:M33"/>
@@ -4476,23 +4481,6 @@
     <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="Y46:Y51"/>
     <mergeCell ref="Y52:Y58"/>
-    <mergeCell ref="Y59:Y66"/>
-    <mergeCell ref="AC52:AC58"/>
-    <mergeCell ref="AC59:AC66"/>
-    <mergeCell ref="AT92:AT94"/>
-    <mergeCell ref="AU92:AU94"/>
-    <mergeCell ref="AN92:AN94"/>
-    <mergeCell ref="AU95:AU97"/>
-    <mergeCell ref="AT95:AT97"/>
-    <mergeCell ref="AT98:AT100"/>
-    <mergeCell ref="AU98:AU100"/>
-    <mergeCell ref="AN98:AN100"/>
-    <mergeCell ref="AN95:AN97"/>
-    <mergeCell ref="AM98:AM100"/>
-    <mergeCell ref="AL98:AL100"/>
-    <mergeCell ref="AL92:AL97"/>
-    <mergeCell ref="AM92:AM94"/>
-    <mergeCell ref="AM95:AM97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5480,8 +5468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C301AE6-CC50-864C-827E-D25EEF6A22D3}">
   <dimension ref="A2:AN173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J173" sqref="J173"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I158" sqref="I158:I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7413,7 +7401,7 @@
     </row>
     <row r="73" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B73" s="127"/>
-      <c r="C73" s="183" t="s">
+      <c r="C73" s="153" t="s">
         <v>448</v>
       </c>
       <c r="D73" s="120"/>
@@ -7428,9 +7416,9 @@
       <c r="M73" s="120"/>
       <c r="N73" s="108"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B74" s="127"/>
-      <c r="C74" s="180" t="s">
+      <c r="C74" s="151" t="s">
         <v>370</v>
       </c>
       <c r="D74" s="120">
@@ -7465,9 +7453,9 @@
       </c>
       <c r="N74" s="108"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B75" s="127"/>
-      <c r="C75" s="180" t="s">
+      <c r="C75" s="151" t="s">
         <v>328</v>
       </c>
       <c r="D75" s="120">
@@ -7492,9 +7480,9 @@
       <c r="M75" s="120"/>
       <c r="N75" s="108"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B76" s="127"/>
-      <c r="C76" s="181" t="s">
+      <c r="C76" s="139" t="s">
         <v>335</v>
       </c>
       <c r="D76" s="120">
@@ -7519,9 +7507,9 @@
       <c r="M76" s="120"/>
       <c r="N76" s="108"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B77" s="127"/>
-      <c r="C77" s="181" t="s">
+      <c r="C77" s="139" t="s">
         <v>32</v>
       </c>
       <c r="D77" s="120">
@@ -7548,7 +7536,7 @@
     </row>
     <row r="78" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B78" s="127"/>
-      <c r="C78" s="181" t="s">
+      <c r="C78" s="139" t="s">
         <v>372</v>
       </c>
       <c r="D78" s="120">
@@ -7575,7 +7563,7 @@
     </row>
     <row r="79" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B79" s="127"/>
-      <c r="C79" s="182" t="s">
+      <c r="C79" s="152" t="s">
         <v>449</v>
       </c>
       <c r="D79" s="120"/>
@@ -7590,9 +7578,9 @@
       <c r="M79" s="120"/>
       <c r="N79" s="108"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B80" s="127"/>
-      <c r="C80" s="181" t="s">
+      <c r="C80" s="139" t="s">
         <v>370</v>
       </c>
       <c r="D80" s="120">
@@ -7627,9 +7615,9 @@
       </c>
       <c r="N80" s="108"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B81" s="127"/>
-      <c r="C81" s="181" t="s">
+      <c r="C81" s="139" t="s">
         <v>328</v>
       </c>
       <c r="D81" s="120">
@@ -7654,9 +7642,9 @@
       <c r="M81" s="120"/>
       <c r="N81" s="108"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B82" s="127"/>
-      <c r="C82" s="181" t="s">
+      <c r="C82" s="139" t="s">
         <v>335</v>
       </c>
       <c r="D82" s="120">
@@ -7681,7 +7669,7 @@
       <c r="M82" s="120"/>
       <c r="N82" s="108"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B83" s="127"/>
       <c r="C83" s="139" t="s">
         <v>32</v>
@@ -8227,7 +8215,7 @@
     </row>
     <row r="103" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B103" s="123"/>
-      <c r="C103" s="183" t="s">
+      <c r="C103" s="153" t="s">
         <v>448</v>
       </c>
       <c r="D103" s="34"/>
@@ -8242,7 +8230,7 @@
       <c r="M103" s="34"/>
       <c r="N103" s="108"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B104" s="123"/>
       <c r="C104" s="139" t="s">
         <v>370</v>
@@ -8279,7 +8267,7 @@
       </c>
       <c r="N104" s="108"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B105" s="123"/>
       <c r="C105" s="139" t="s">
         <v>328</v>
@@ -8306,7 +8294,7 @@
       <c r="M105" s="34"/>
       <c r="N105" s="108"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B106" s="123"/>
       <c r="C106" s="139" t="s">
         <v>335</v>
@@ -8333,7 +8321,7 @@
       <c r="M106" s="34"/>
       <c r="N106" s="108"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B107" s="123"/>
       <c r="C107" s="139" t="s">
         <v>32</v>
@@ -8389,7 +8377,7 @@
     </row>
     <row r="109" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="123"/>
-      <c r="C109" s="182" t="s">
+      <c r="C109" s="152" t="s">
         <v>449</v>
       </c>
       <c r="D109" s="34"/>
@@ -9697,7 +9685,7 @@
     </row>
     <row r="157" spans="2:40" ht="17" x14ac:dyDescent="0.2">
       <c r="B157" s="127"/>
-      <c r="C157" s="183" t="s">
+      <c r="C157" s="153" t="s">
         <v>448</v>
       </c>
       <c r="D157" s="34"/>
@@ -9712,16 +9700,26 @@
       <c r="M157" s="34"/>
       <c r="N157" s="108"/>
     </row>
-    <row r="158" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:40" ht="17" x14ac:dyDescent="0.2">
       <c r="B158" s="127"/>
       <c r="C158" s="139" t="s">
-        <v>452</v>
-      </c>
-      <c r="D158" s="34"/>
-      <c r="E158" s="34"/>
-      <c r="F158" s="34"/>
-      <c r="G158" s="34"/>
-      <c r="H158" s="34"/>
+        <v>328</v>
+      </c>
+      <c r="D158" s="34">
+        <v>3.44563</v>
+      </c>
+      <c r="E158" s="34">
+        <v>0.15489</v>
+      </c>
+      <c r="F158" s="34">
+        <v>2045.26442</v>
+      </c>
+      <c r="G158" s="34">
+        <v>22.245000000000001</v>
+      </c>
+      <c r="H158" s="34" t="s">
+        <v>371</v>
+      </c>
       <c r="I158" s="34"/>
       <c r="J158" s="34"/>
       <c r="K158" s="34"/>
@@ -9729,16 +9727,26 @@
       <c r="M158" s="34"/>
       <c r="N158" s="108"/>
     </row>
-    <row r="159" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:40" ht="17" x14ac:dyDescent="0.2">
       <c r="B159" s="127"/>
       <c r="C159" s="139" t="s">
-        <v>453</v>
-      </c>
-      <c r="D159" s="34"/>
-      <c r="E159" s="34"/>
-      <c r="F159" s="34"/>
-      <c r="G159" s="34"/>
-      <c r="H159" s="34"/>
+        <v>452</v>
+      </c>
+      <c r="D159" s="34">
+        <v>17.846900000000002</v>
+      </c>
+      <c r="E159" s="34">
+        <v>3.7727599999999999</v>
+      </c>
+      <c r="F159" s="34">
+        <v>22.332999999999998</v>
+      </c>
+      <c r="G159" s="34">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="H159" s="34">
+        <v>9.7800000000000006E-5</v>
+      </c>
       <c r="I159" s="34"/>
       <c r="J159" s="34"/>
       <c r="K159" s="34"/>
@@ -9749,13 +9757,23 @@
     <row r="160" spans="2:40" ht="17" x14ac:dyDescent="0.2">
       <c r="B160" s="127"/>
       <c r="C160" s="139" t="s">
-        <v>454</v>
-      </c>
-      <c r="D160" s="34"/>
-      <c r="E160" s="34"/>
-      <c r="F160" s="34"/>
-      <c r="G160" s="34"/>
-      <c r="H160" s="34"/>
+        <v>453</v>
+      </c>
+      <c r="D160" s="34">
+        <v>-0.17904</v>
+      </c>
+      <c r="E160" s="34">
+        <v>2.57437</v>
+      </c>
+      <c r="F160" s="34">
+        <v>22.233339999999998</v>
+      </c>
+      <c r="G160" s="34">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H160" s="34">
+        <v>0.94516999999999995</v>
+      </c>
       <c r="I160" s="34"/>
       <c r="J160" s="34"/>
       <c r="K160" s="34"/>
@@ -9766,13 +9784,23 @@
     <row r="161" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B161" s="127"/>
       <c r="C161" s="139" t="s">
-        <v>455</v>
-      </c>
-      <c r="D161" s="34"/>
-      <c r="E161" s="34"/>
-      <c r="F161" s="34"/>
-      <c r="G161" s="34"/>
-      <c r="H161" s="34"/>
+        <v>389</v>
+      </c>
+      <c r="D161" s="34">
+        <v>-1.444E-2</v>
+      </c>
+      <c r="E161" s="34">
+        <v>0.60826000000000002</v>
+      </c>
+      <c r="F161" s="34">
+        <v>23.678039999999999</v>
+      </c>
+      <c r="G161" s="34">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="H161" s="34">
+        <v>0.98126000000000002</v>
+      </c>
       <c r="I161" s="34"/>
       <c r="J161" s="34"/>
       <c r="K161" s="34"/>
@@ -9782,14 +9810,24 @@
     </row>
     <row r="162" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B162" s="127"/>
-      <c r="C162" s="184" t="s">
-        <v>456</v>
-      </c>
-      <c r="D162" s="34"/>
-      <c r="E162" s="34"/>
-      <c r="F162" s="34"/>
-      <c r="G162" s="34"/>
-      <c r="H162" s="34"/>
+      <c r="C162" s="154" t="s">
+        <v>372</v>
+      </c>
+      <c r="D162" s="34">
+        <v>-2.0210400000000002</v>
+      </c>
+      <c r="E162" s="34">
+        <v>0.61165999999999998</v>
+      </c>
+      <c r="F162" s="34">
+        <v>24.18507</v>
+      </c>
+      <c r="G162" s="34">
+        <v>-3.3039999999999998</v>
+      </c>
+      <c r="H162" s="34">
+        <v>2.96E-3</v>
+      </c>
       <c r="I162" s="34"/>
       <c r="J162" s="34"/>
       <c r="K162" s="34"/>
@@ -9799,7 +9837,7 @@
     </row>
     <row r="163" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B163" s="127"/>
-      <c r="C163" s="182" t="s">
+      <c r="C163" s="152" t="s">
         <v>449</v>
       </c>
       <c r="D163" s="34"/>
@@ -9814,9 +9852,9 @@
       <c r="M163" s="34"/>
       <c r="N163" s="108"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B164" s="127"/>
-      <c r="C164" s="181" t="s">
+      <c r="C164" s="139" t="s">
         <v>370</v>
       </c>
       <c r="D164" s="34">
@@ -9851,9 +9889,9 @@
       </c>
       <c r="N164" s="108"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B165" s="127"/>
-      <c r="C165" s="181" t="s">
+      <c r="C165" s="139" t="s">
         <v>328</v>
       </c>
       <c r="D165" s="34">
@@ -9878,9 +9916,9 @@
       <c r="M165" s="34"/>
       <c r="N165" s="108"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B166" s="127"/>
-      <c r="C166" s="181" t="s">
+      <c r="C166" s="139" t="s">
         <v>335</v>
       </c>
       <c r="D166" s="34">
@@ -9983,21 +10021,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="170" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
       <c r="N2" s="54"/>
       <c r="O2" s="1"/>
     </row>
@@ -10044,7 +10082,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="172" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="61" t="s">
@@ -10086,7 +10124,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="168"/>
+      <c r="A5" s="172"/>
       <c r="B5" s="1" t="s">
         <v>328</v>
       </c>
@@ -10116,7 +10154,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="168"/>
+      <c r="A6" s="172"/>
       <c r="B6" s="1" t="s">
         <v>335</v>
       </c>
@@ -10144,7 +10182,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="168"/>
+      <c r="A7" s="172"/>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
@@ -10172,7 +10210,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="168"/>
+      <c r="A8" s="172"/>
       <c r="B8" s="61" t="s">
         <v>372</v>
       </c>
@@ -10200,7 +10238,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="168"/>
+      <c r="A9" s="172"/>
       <c r="B9" s="1" t="s">
         <v>373</v>
       </c>
@@ -10776,7 +10814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6964B3A-A93B-A24A-8DF2-4AA66B6335FC}">
   <dimension ref="B3:AN237"/>
   <sheetViews>
-    <sheetView zoomScale="146" workbookViewId="0">
+    <sheetView topLeftCell="O221" zoomScale="83" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -10812,26 +10850,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="156" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
       <c r="T3" s="54"/>
     </row>
     <row r="4" spans="2:20" ht="60" thickTop="1" x14ac:dyDescent="0.2">
@@ -10891,7 +10929,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="175" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="85" t="s">
@@ -10905,7 +10943,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="170"/>
+      <c r="B6" s="176"/>
       <c r="C6" s="85" t="s">
         <v>16</v>
       </c>
@@ -10917,8 +10955,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="170"/>
-      <c r="C7" s="171" t="s">
+      <c r="B7" s="176"/>
+      <c r="C7" s="173" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -10970,8 +11008,8 @@
       <c r="T7" s="25"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="170"/>
-      <c r="C8" s="171"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="173"/>
       <c r="E8" s="77" t="s">
         <v>263</v>
       </c>
@@ -11000,8 +11038,8 @@
       <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="170"/>
-      <c r="C9" s="171" t="s">
+      <c r="B9" s="176"/>
+      <c r="C9" s="173" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -11049,8 +11087,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="170"/>
-      <c r="C10" s="171"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="173"/>
       <c r="E10" s="84" t="s">
         <v>263</v>
       </c>
@@ -11077,8 +11115,8 @@
       <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="170"/>
-      <c r="C11" s="171"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="173"/>
       <c r="E11" s="77" t="s">
         <v>32</v>
       </c>
@@ -11105,7 +11143,7 @@
       <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="170"/>
+      <c r="B12" s="176"/>
       <c r="C12" s="85" t="s">
         <v>35</v>
       </c>
@@ -11130,8 +11168,8 @@
       <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="170"/>
-      <c r="C13" s="171" t="s">
+      <c r="B13" s="176"/>
+      <c r="C13" s="173" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -11179,8 +11217,8 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="170"/>
-      <c r="C14" s="171"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="173"/>
       <c r="E14" s="77" t="s">
         <v>263</v>
       </c>
@@ -11207,8 +11245,8 @@
       <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="170"/>
-      <c r="C15" s="171" t="s">
+      <c r="B15" s="176"/>
+      <c r="C15" s="173" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -11256,8 +11294,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="170"/>
-      <c r="C16" s="171"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="173"/>
       <c r="E16" s="77" t="s">
         <v>263</v>
       </c>
@@ -11284,7 +11322,7 @@
       <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="170"/>
+      <c r="B17" s="176"/>
       <c r="C17" s="85" t="s">
         <v>36</v>
       </c>
@@ -11309,7 +11347,7 @@
       <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="170"/>
+      <c r="B18" s="176"/>
       <c r="C18" s="85" t="s">
         <v>12</v>
       </c>
@@ -11334,8 +11372,8 @@
       <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="170"/>
-      <c r="C19" s="171" t="s">
+      <c r="B19" s="176"/>
+      <c r="C19" s="173" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -11385,8 +11423,8 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="170"/>
-      <c r="C20" s="171"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="173"/>
       <c r="E20" s="84" t="s">
         <v>263</v>
       </c>
@@ -11417,8 +11455,8 @@
       <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="170"/>
-      <c r="C21" s="171" t="s">
+      <c r="B21" s="176"/>
+      <c r="C21" s="173" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -11466,8 +11504,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="170"/>
-      <c r="C22" s="171"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="173"/>
       <c r="E22" s="77" t="s">
         <v>263</v>
       </c>
@@ -11494,8 +11532,8 @@
       <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="170"/>
-      <c r="C23" s="171" t="s">
+      <c r="B23" s="176"/>
+      <c r="C23" s="173" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -11541,8 +11579,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="170"/>
-      <c r="C24" s="171"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="173"/>
       <c r="E24" s="77" t="s">
         <v>32</v>
       </c>
@@ -11569,8 +11607,8 @@
       <c r="R24" s="36"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="170"/>
-      <c r="C25" s="171" t="s">
+      <c r="B25" s="176"/>
+      <c r="C25" s="173" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -11618,8 +11656,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="170"/>
-      <c r="C26" s="171"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="173"/>
       <c r="E26" s="77" t="s">
         <v>263</v>
       </c>
@@ -11646,7 +11684,7 @@
       <c r="R26" s="36"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="170"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="85" t="s">
         <v>20</v>
       </c>
@@ -11671,7 +11709,7 @@
       <c r="R27" s="36"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="170"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="85" t="s">
         <v>33</v>
       </c>
@@ -11696,8 +11734,8 @@
       <c r="R28" s="36"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="170"/>
-      <c r="C29" s="171" t="s">
+      <c r="B29" s="176"/>
+      <c r="C29" s="173" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="39" t="s">
@@ -11743,8 +11781,8 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="170"/>
-      <c r="C30" s="171"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="173"/>
       <c r="D30" s="39"/>
       <c r="E30" s="77" t="s">
         <v>32</v>
@@ -11772,7 +11810,7 @@
       <c r="R30" s="36"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="170"/>
+      <c r="B31" s="176"/>
       <c r="C31" s="85" t="s">
         <v>41</v>
       </c>
@@ -11797,8 +11835,8 @@
       <c r="R31" s="36"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="170"/>
-      <c r="C32" s="171" t="s">
+      <c r="B32" s="176"/>
+      <c r="C32" s="173" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -11846,8 +11884,8 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="170"/>
-      <c r="C33" s="171"/>
+      <c r="B33" s="176"/>
+      <c r="C33" s="173"/>
       <c r="E33" s="77" t="s">
         <v>263</v>
       </c>
@@ -11874,8 +11912,8 @@
       <c r="R33" s="36"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="170"/>
-      <c r="C34" s="171"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="173"/>
       <c r="E34" s="77" t="s">
         <v>32</v>
       </c>
@@ -11902,7 +11940,7 @@
       <c r="R34" s="36"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="170"/>
+      <c r="B35" s="176"/>
       <c r="C35" s="86" t="s">
         <v>15</v>
       </c>
@@ -11927,10 +11965,10 @@
       <c r="R35" s="36"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="172" t="s">
+      <c r="C36" s="178" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -11978,8 +12016,8 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="170"/>
-      <c r="C37" s="171"/>
+      <c r="B37" s="176"/>
+      <c r="C37" s="173"/>
       <c r="E37" s="84" t="s">
         <v>414</v>
       </c>
@@ -12006,8 +12044,8 @@
       <c r="R37" s="36"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="170"/>
-      <c r="C38" s="171"/>
+      <c r="B38" s="176"/>
+      <c r="C38" s="173"/>
       <c r="E38" s="84" t="s">
         <v>415</v>
       </c>
@@ -12034,8 +12072,8 @@
       <c r="R38" s="36"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="170"/>
-      <c r="C39" s="171"/>
+      <c r="B39" s="176"/>
+      <c r="C39" s="173"/>
       <c r="E39" s="84" t="s">
         <v>32</v>
       </c>
@@ -12062,8 +12100,8 @@
       <c r="R39" s="36"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="170"/>
-      <c r="C40" s="171" t="s">
+      <c r="B40" s="176"/>
+      <c r="C40" s="173" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -12111,8 +12149,8 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="170"/>
-      <c r="C41" s="171"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="173"/>
       <c r="E41" s="77" t="s">
         <v>335</v>
       </c>
@@ -12141,8 +12179,8 @@
       <c r="R41" s="36"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="170"/>
-      <c r="C42" s="171" t="s">
+      <c r="B42" s="176"/>
+      <c r="C42" s="173" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -12190,8 +12228,8 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="170"/>
-      <c r="C43" s="171"/>
+      <c r="B43" s="176"/>
+      <c r="C43" s="173"/>
       <c r="E43" s="77" t="s">
         <v>263</v>
       </c>
@@ -12218,8 +12256,8 @@
       <c r="R43" s="36"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="170"/>
-      <c r="C44" s="171"/>
+      <c r="B44" s="176"/>
+      <c r="C44" s="173"/>
       <c r="E44" s="77" t="s">
         <v>32</v>
       </c>
@@ -12246,8 +12284,8 @@
       <c r="R44" s="36"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="170"/>
-      <c r="C45" s="171"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="173"/>
       <c r="E45" s="77" t="s">
         <v>335</v>
       </c>
@@ -12274,8 +12312,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="170"/>
-      <c r="C46" s="171" t="s">
+      <c r="B46" s="176"/>
+      <c r="C46" s="173" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -12325,8 +12363,8 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="170"/>
-      <c r="C47" s="171"/>
+      <c r="B47" s="176"/>
+      <c r="C47" s="173"/>
       <c r="E47" s="77" t="s">
         <v>263</v>
       </c>
@@ -12355,8 +12393,8 @@
       <c r="R47" s="36"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="170"/>
-      <c r="C48" s="171"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="173"/>
       <c r="E48" s="77" t="s">
         <v>335</v>
       </c>
@@ -12385,8 +12423,8 @@
       <c r="R48" s="36"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="170"/>
-      <c r="C49" s="171"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="173"/>
       <c r="E49" s="77" t="s">
         <v>32</v>
       </c>
@@ -12415,8 +12453,8 @@
       <c r="R49" s="36"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="170"/>
-      <c r="C50" s="171" t="s">
+      <c r="B50" s="176"/>
+      <c r="C50" s="173" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -12466,8 +12504,8 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="170"/>
-      <c r="C51" s="171"/>
+      <c r="B51" s="176"/>
+      <c r="C51" s="173"/>
       <c r="E51" s="77" t="s">
         <v>263</v>
       </c>
@@ -12496,8 +12534,8 @@
       <c r="R51" s="36"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="170"/>
-      <c r="C52" s="171"/>
+      <c r="B52" s="176"/>
+      <c r="C52" s="173"/>
       <c r="E52" s="77" t="s">
         <v>335</v>
       </c>
@@ -12526,8 +12564,8 @@
       <c r="R52" s="36"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="170"/>
-      <c r="C53" s="171" t="s">
+      <c r="B53" s="176"/>
+      <c r="C53" s="173" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -12577,8 +12615,8 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="170"/>
-      <c r="C54" s="171"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="173"/>
       <c r="E54" s="77" t="s">
         <v>263</v>
       </c>
@@ -12607,8 +12645,8 @@
       <c r="R54" s="36"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="170"/>
-      <c r="C55" s="171"/>
+      <c r="B55" s="176"/>
+      <c r="C55" s="173"/>
       <c r="E55" s="77" t="s">
         <v>335</v>
       </c>
@@ -12637,8 +12675,8 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="170"/>
-      <c r="C56" s="171" t="s">
+      <c r="B56" s="176"/>
+      <c r="C56" s="173" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -12688,8 +12726,8 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="170"/>
-      <c r="C57" s="171"/>
+      <c r="B57" s="176"/>
+      <c r="C57" s="173"/>
       <c r="E57" s="77" t="s">
         <v>263</v>
       </c>
@@ -12718,8 +12756,8 @@
       <c r="R57" s="36"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="170"/>
-      <c r="C58" s="171" t="s">
+      <c r="B58" s="176"/>
+      <c r="C58" s="173" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -12769,8 +12807,8 @@
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="170"/>
-      <c r="C59" s="171"/>
+      <c r="B59" s="176"/>
+      <c r="C59" s="173"/>
       <c r="E59" s="77" t="s">
         <v>263</v>
       </c>
@@ -12799,8 +12837,8 @@
       <c r="R59" s="36"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="170"/>
-      <c r="C60" s="171" t="s">
+      <c r="B60" s="176"/>
+      <c r="C60" s="173" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -12850,8 +12888,8 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="170"/>
-      <c r="C61" s="171"/>
+      <c r="B61" s="176"/>
+      <c r="C61" s="173"/>
       <c r="E61" s="77" t="s">
         <v>263</v>
       </c>
@@ -12880,7 +12918,7 @@
       <c r="R61" s="36"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="170"/>
+      <c r="B62" s="176"/>
       <c r="C62" s="85" t="s">
         <v>19</v>
       </c>
@@ -12905,8 +12943,8 @@
       <c r="R62" s="36"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="170"/>
-      <c r="C63" s="171" t="s">
+      <c r="B63" s="176"/>
+      <c r="C63" s="173" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -12956,8 +12994,8 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="170"/>
-      <c r="C64" s="171"/>
+      <c r="B64" s="176"/>
+      <c r="C64" s="173"/>
       <c r="E64" s="77" t="s">
         <v>263</v>
       </c>
@@ -12986,8 +13024,8 @@
       <c r="R64" s="36"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="170"/>
-      <c r="C65" s="171" t="s">
+      <c r="B65" s="176"/>
+      <c r="C65" s="173" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -13037,8 +13075,8 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="170"/>
-      <c r="C66" s="171"/>
+      <c r="B66" s="176"/>
+      <c r="C66" s="173"/>
       <c r="E66" s="77" t="s">
         <v>263</v>
       </c>
@@ -13067,8 +13105,8 @@
       <c r="R66" s="36"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="170"/>
-      <c r="C67" s="171"/>
+      <c r="B67" s="176"/>
+      <c r="C67" s="173"/>
       <c r="E67" s="77" t="s">
         <v>335</v>
       </c>
@@ -13097,8 +13135,8 @@
       <c r="R67" s="36"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="170"/>
-      <c r="C68" s="171"/>
+      <c r="B68" s="176"/>
+      <c r="C68" s="173"/>
       <c r="E68" s="77" t="s">
         <v>32</v>
       </c>
@@ -13127,8 +13165,8 @@
       <c r="R68" s="36"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="170"/>
-      <c r="C69" s="171" t="s">
+      <c r="B69" s="176"/>
+      <c r="C69" s="173" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -13178,8 +13216,8 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="170"/>
-      <c r="C70" s="171"/>
+      <c r="B70" s="176"/>
+      <c r="C70" s="173"/>
       <c r="E70" s="77" t="s">
         <v>263</v>
       </c>
@@ -13208,8 +13246,8 @@
       <c r="R70" s="36"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="170"/>
-      <c r="C71" s="171" t="s">
+      <c r="B71" s="176"/>
+      <c r="C71" s="173" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -13259,8 +13297,8 @@
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="170"/>
-      <c r="C72" s="171"/>
+      <c r="B72" s="176"/>
+      <c r="C72" s="173"/>
       <c r="E72" s="77" t="s">
         <v>263</v>
       </c>
@@ -13289,8 +13327,8 @@
       <c r="R72" s="36"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="170"/>
-      <c r="C73" s="171"/>
+      <c r="B73" s="176"/>
+      <c r="C73" s="173"/>
       <c r="E73" s="77" t="s">
         <v>335</v>
       </c>
@@ -13319,7 +13357,7 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="170"/>
+      <c r="B74" s="176"/>
       <c r="C74" s="85" t="s">
         <v>33</v>
       </c>
@@ -13344,7 +13382,7 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="170"/>
+      <c r="B75" s="176"/>
       <c r="C75" s="85" t="s">
         <v>39</v>
       </c>
@@ -13369,8 +13407,8 @@
       <c r="R75" s="36"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="170"/>
-      <c r="C76" s="171" t="s">
+      <c r="B76" s="176"/>
+      <c r="C76" s="173" t="s">
         <v>41</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -13420,8 +13458,8 @@
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="170"/>
-      <c r="C77" s="171"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="173"/>
       <c r="E77" s="77" t="s">
         <v>263</v>
       </c>
@@ -13450,8 +13488,8 @@
       <c r="R77" s="36"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="170"/>
-      <c r="C78" s="171" t="s">
+      <c r="B78" s="176"/>
+      <c r="C78" s="173" t="s">
         <v>42</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -13501,8 +13539,8 @@
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="170"/>
-      <c r="C79" s="171"/>
+      <c r="B79" s="176"/>
+      <c r="C79" s="173"/>
       <c r="E79" s="77" t="s">
         <v>263</v>
       </c>
@@ -13531,8 +13569,8 @@
       <c r="R79" s="36"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="170"/>
-      <c r="C80" s="171" t="s">
+      <c r="B80" s="176"/>
+      <c r="C80" s="173" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -13583,7 +13621,7 @@
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="64"/>
-      <c r="C81" s="173"/>
+      <c r="C81" s="174"/>
       <c r="E81" s="77" t="s">
         <v>263</v>
       </c>
@@ -13612,7 +13650,7 @@
       <c r="R81" s="36"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="169" t="s">
+      <c r="B82" s="175" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="85" t="s">
@@ -13639,8 +13677,8 @@
       <c r="R82" s="36"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="170"/>
-      <c r="C83" s="171" t="s">
+      <c r="B83" s="176"/>
+      <c r="C83" s="173" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -13688,8 +13726,8 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="170"/>
-      <c r="C84" s="171"/>
+      <c r="B84" s="176"/>
+      <c r="C84" s="173"/>
       <c r="E84" s="77" t="s">
         <v>263</v>
       </c>
@@ -13716,8 +13754,8 @@
       <c r="R84" s="36"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="170"/>
-      <c r="C85" s="171"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="173"/>
       <c r="E85" s="77" t="s">
         <v>335</v>
       </c>
@@ -13744,8 +13782,8 @@
       <c r="R85" s="36"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B86" s="170"/>
-      <c r="C86" s="171" t="s">
+      <c r="B86" s="176"/>
+      <c r="C86" s="173" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -13793,8 +13831,8 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="170"/>
-      <c r="C87" s="171"/>
+      <c r="B87" s="176"/>
+      <c r="C87" s="173"/>
       <c r="E87" s="77" t="s">
         <v>263</v>
       </c>
@@ -13821,8 +13859,8 @@
       <c r="R87" s="36"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="170"/>
-      <c r="C88" s="171"/>
+      <c r="B88" s="176"/>
+      <c r="C88" s="173"/>
       <c r="E88" s="77" t="s">
         <v>335</v>
       </c>
@@ -13849,8 +13887,8 @@
       <c r="R88" s="36"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="170"/>
-      <c r="C89" s="171"/>
+      <c r="B89" s="176"/>
+      <c r="C89" s="173"/>
       <c r="E89" s="77" t="s">
         <v>32</v>
       </c>
@@ -13877,8 +13915,8 @@
       <c r="R89" s="36"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="170"/>
-      <c r="C90" s="171" t="s">
+      <c r="B90" s="176"/>
+      <c r="C90" s="173" t="s">
         <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -13928,8 +13966,8 @@
       </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="170"/>
-      <c r="C91" s="171"/>
+      <c r="B91" s="176"/>
+      <c r="C91" s="173"/>
       <c r="E91" s="77" t="s">
         <v>263</v>
       </c>
@@ -13958,8 +13996,8 @@
       <c r="R91" s="36"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="170"/>
-      <c r="C92" s="171"/>
+      <c r="B92" s="176"/>
+      <c r="C92" s="173"/>
       <c r="E92" s="77" t="s">
         <v>335</v>
       </c>
@@ -13988,7 +14026,7 @@
       <c r="R92" s="36"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="170"/>
+      <c r="B93" s="176"/>
       <c r="C93" s="85" t="s">
         <v>35</v>
       </c>
@@ -14013,8 +14051,8 @@
       <c r="R93" s="36"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="170"/>
-      <c r="C94" s="171" t="s">
+      <c r="B94" s="176"/>
+      <c r="C94" s="173" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -14064,8 +14102,8 @@
       </c>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="170"/>
-      <c r="C95" s="171"/>
+      <c r="B95" s="176"/>
+      <c r="C95" s="173"/>
       <c r="E95" s="77" t="s">
         <v>263</v>
       </c>
@@ -14094,8 +14132,8 @@
       <c r="R95" s="36"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="170"/>
-      <c r="C96" s="171"/>
+      <c r="B96" s="176"/>
+      <c r="C96" s="173"/>
       <c r="E96" s="77" t="s">
         <v>335</v>
       </c>
@@ -14124,8 +14162,8 @@
       <c r="R96" s="36"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="170"/>
-      <c r="C97" s="171"/>
+      <c r="B97" s="176"/>
+      <c r="C97" s="173"/>
       <c r="E97" s="77" t="s">
         <v>32</v>
       </c>
@@ -14154,8 +14192,8 @@
       <c r="R97" s="36"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="170"/>
-      <c r="C98" s="171" t="s">
+      <c r="B98" s="176"/>
+      <c r="C98" s="173" t="s">
         <v>37</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -14203,8 +14241,8 @@
       </c>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="170"/>
-      <c r="C99" s="171"/>
+      <c r="B99" s="176"/>
+      <c r="C99" s="173"/>
       <c r="E99" s="77" t="s">
         <v>263</v>
       </c>
@@ -14231,8 +14269,8 @@
       <c r="R99" s="36"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="170"/>
-      <c r="C100" s="171"/>
+      <c r="B100" s="176"/>
+      <c r="C100" s="173"/>
       <c r="E100" s="77" t="s">
         <v>335</v>
       </c>
@@ -14259,8 +14297,8 @@
       <c r="R100" s="36"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B101" s="170"/>
-      <c r="C101" s="171" t="s">
+      <c r="B101" s="176"/>
+      <c r="C101" s="173" t="s">
         <v>36</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -14310,8 +14348,8 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="170"/>
-      <c r="C102" s="171"/>
+      <c r="B102" s="176"/>
+      <c r="C102" s="173"/>
       <c r="E102" s="77" t="s">
         <v>263</v>
       </c>
@@ -14340,8 +14378,8 @@
       <c r="R102" s="36"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="170"/>
-      <c r="C103" s="171" t="s">
+      <c r="B103" s="176"/>
+      <c r="C103" s="173" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -14389,8 +14427,8 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="170"/>
-      <c r="C104" s="171"/>
+      <c r="B104" s="176"/>
+      <c r="C104" s="173"/>
       <c r="E104" s="77" t="s">
         <v>263</v>
       </c>
@@ -14417,8 +14455,8 @@
       <c r="R104" s="36"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="170"/>
-      <c r="C105" s="171"/>
+      <c r="B105" s="176"/>
+      <c r="C105" s="173"/>
       <c r="E105" s="77" t="s">
         <v>335</v>
       </c>
@@ -14445,8 +14483,8 @@
       <c r="R105" s="36"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="170"/>
-      <c r="C106" s="171" t="s">
+      <c r="B106" s="176"/>
+      <c r="C106" s="173" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -14496,8 +14534,8 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="170"/>
-      <c r="C107" s="171"/>
+      <c r="B107" s="176"/>
+      <c r="C107" s="173"/>
       <c r="E107" s="77" t="s">
         <v>263</v>
       </c>
@@ -14526,8 +14564,8 @@
       <c r="R107" s="36"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="170"/>
-      <c r="C108" s="171"/>
+      <c r="B108" s="176"/>
+      <c r="C108" s="173"/>
       <c r="E108" s="77" t="s">
         <v>32</v>
       </c>
@@ -14556,8 +14594,8 @@
       <c r="R108" s="36"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="170"/>
-      <c r="C109" s="171" t="s">
+      <c r="B109" s="176"/>
+      <c r="C109" s="173" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -14605,8 +14643,8 @@
       </c>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="170"/>
-      <c r="C110" s="171"/>
+      <c r="B110" s="176"/>
+      <c r="C110" s="173"/>
       <c r="E110" s="77" t="s">
         <v>263</v>
       </c>
@@ -14633,8 +14671,8 @@
       <c r="R110" s="36"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="170"/>
-      <c r="C111" s="171"/>
+      <c r="B111" s="176"/>
+      <c r="C111" s="173"/>
       <c r="E111" s="77" t="s">
         <v>335</v>
       </c>
@@ -14661,8 +14699,8 @@
       <c r="R111" s="36"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="170"/>
-      <c r="C112" s="171" t="s">
+      <c r="B112" s="176"/>
+      <c r="C112" s="173" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -14710,8 +14748,8 @@
       </c>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="170"/>
-      <c r="C113" s="171"/>
+      <c r="B113" s="176"/>
+      <c r="C113" s="173"/>
       <c r="E113" s="77" t="s">
         <v>263</v>
       </c>
@@ -14738,8 +14776,8 @@
       <c r="R113" s="36"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="170"/>
-      <c r="C114" s="171"/>
+      <c r="B114" s="176"/>
+      <c r="C114" s="173"/>
       <c r="E114" s="77" t="s">
         <v>335</v>
       </c>
@@ -14766,8 +14804,8 @@
       <c r="R114" s="36"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="170"/>
-      <c r="C115" s="171" t="s">
+      <c r="B115" s="176"/>
+      <c r="C115" s="173" t="s">
         <v>38</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -14815,8 +14853,8 @@
       </c>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="170"/>
-      <c r="C116" s="171"/>
+      <c r="B116" s="176"/>
+      <c r="C116" s="173"/>
       <c r="E116" s="77" t="s">
         <v>263</v>
       </c>
@@ -14843,8 +14881,8 @@
       <c r="R116" s="36"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="170"/>
-      <c r="C117" s="171" t="s">
+      <c r="B117" s="176"/>
+      <c r="C117" s="173" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -14894,8 +14932,8 @@
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="170"/>
-      <c r="C118" s="171"/>
+      <c r="B118" s="176"/>
+      <c r="C118" s="173"/>
       <c r="E118" s="77" t="s">
         <v>263</v>
       </c>
@@ -14924,8 +14962,8 @@
       <c r="R118" s="36"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="170"/>
-      <c r="C119" s="171"/>
+      <c r="B119" s="176"/>
+      <c r="C119" s="173"/>
       <c r="E119" s="77" t="s">
         <v>335</v>
       </c>
@@ -14954,8 +14992,8 @@
       <c r="R119" s="36"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="170"/>
-      <c r="C120" s="171" t="s">
+      <c r="B120" s="176"/>
+      <c r="C120" s="173" t="s">
         <v>33</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -15003,8 +15041,8 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="170"/>
-      <c r="C121" s="171"/>
+      <c r="B121" s="176"/>
+      <c r="C121" s="173"/>
       <c r="E121" s="77" t="s">
         <v>263</v>
       </c>
@@ -15031,8 +15069,8 @@
       <c r="R121" s="36"/>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="170"/>
-      <c r="C122" s="171"/>
+      <c r="B122" s="176"/>
+      <c r="C122" s="173"/>
       <c r="E122" s="77" t="s">
         <v>335</v>
       </c>
@@ -15059,8 +15097,8 @@
       <c r="R122" s="36"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="170"/>
-      <c r="C123" s="171" t="s">
+      <c r="B123" s="176"/>
+      <c r="C123" s="173" t="s">
         <v>39</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -15108,8 +15146,8 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="170"/>
-      <c r="C124" s="171"/>
+      <c r="B124" s="176"/>
+      <c r="C124" s="173"/>
       <c r="E124" s="77" t="s">
         <v>263</v>
       </c>
@@ -15136,8 +15174,8 @@
       <c r="R124" s="36"/>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="170"/>
-      <c r="C125" s="171" t="s">
+      <c r="B125" s="176"/>
+      <c r="C125" s="173" t="s">
         <v>41</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -15185,8 +15223,8 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="170"/>
-      <c r="C126" s="171"/>
+      <c r="B126" s="176"/>
+      <c r="C126" s="173"/>
       <c r="E126" s="77" t="s">
         <v>263</v>
       </c>
@@ -15213,8 +15251,8 @@
       <c r="R126" s="36"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="170"/>
-      <c r="C127" s="171" t="s">
+      <c r="B127" s="176"/>
+      <c r="C127" s="173" t="s">
         <v>42</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -15264,8 +15302,8 @@
       </c>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="170"/>
-      <c r="C128" s="171"/>
+      <c r="B128" s="176"/>
+      <c r="C128" s="173"/>
       <c r="E128" s="77" t="s">
         <v>263</v>
       </c>
@@ -15294,8 +15332,8 @@
       <c r="R128" s="36"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="170"/>
-      <c r="C129" s="171" t="s">
+      <c r="B129" s="176"/>
+      <c r="C129" s="173" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -15346,7 +15384,7 @@
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="63"/>
-      <c r="C130" s="173"/>
+      <c r="C130" s="174"/>
       <c r="E130" s="77" t="s">
         <v>263</v>
       </c>
@@ -15375,10 +15413,10 @@
       <c r="R130" s="36"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="169" t="s">
+      <c r="B131" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="C131" s="172" t="s">
+      <c r="C131" s="178" t="s">
         <v>40</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -15426,8 +15464,8 @@
       </c>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="170"/>
-      <c r="C132" s="171"/>
+      <c r="B132" s="176"/>
+      <c r="C132" s="173"/>
       <c r="E132" s="77" t="s">
         <v>263</v>
       </c>
@@ -15454,8 +15492,8 @@
       <c r="R132" s="36"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="170"/>
-      <c r="C133" s="171" t="s">
+      <c r="B133" s="176"/>
+      <c r="C133" s="173" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -15503,8 +15541,8 @@
       </c>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B134" s="170"/>
-      <c r="C134" s="171"/>
+      <c r="B134" s="176"/>
+      <c r="C134" s="173"/>
       <c r="E134" s="77" t="s">
         <v>32</v>
       </c>
@@ -15533,8 +15571,8 @@
       <c r="R134" s="36"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="170"/>
-      <c r="C135" s="171" t="s">
+      <c r="B135" s="176"/>
+      <c r="C135" s="173" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -15584,8 +15622,8 @@
       </c>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="170"/>
-      <c r="C136" s="171"/>
+      <c r="B136" s="176"/>
+      <c r="C136" s="173"/>
       <c r="E136" s="77" t="s">
         <v>263</v>
       </c>
@@ -15614,8 +15652,8 @@
       <c r="R136" s="36"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="170"/>
-      <c r="C137" s="171"/>
+      <c r="B137" s="176"/>
+      <c r="C137" s="173"/>
       <c r="E137" s="77" t="s">
         <v>32</v>
       </c>
@@ -15644,8 +15682,8 @@
       <c r="R137" s="36"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="170"/>
-      <c r="C138" s="171" t="s">
+      <c r="B138" s="176"/>
+      <c r="C138" s="173" t="s">
         <v>34</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -15695,8 +15733,8 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="170"/>
-      <c r="C139" s="171"/>
+      <c r="B139" s="176"/>
+      <c r="C139" s="173"/>
       <c r="E139" s="77" t="s">
         <v>263</v>
       </c>
@@ -15725,8 +15763,8 @@
       <c r="R139" s="36"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B140" s="170"/>
-      <c r="C140" s="171"/>
+      <c r="B140" s="176"/>
+      <c r="C140" s="173"/>
       <c r="E140" s="77" t="s">
         <v>32</v>
       </c>
@@ -15755,8 +15793,8 @@
       <c r="R140" s="36"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B141" s="170"/>
-      <c r="C141" s="171" t="s">
+      <c r="B141" s="176"/>
+      <c r="C141" s="173" t="s">
         <v>35</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -15802,8 +15840,8 @@
       </c>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B142" s="170"/>
-      <c r="C142" s="171"/>
+      <c r="B142" s="176"/>
+      <c r="C142" s="173"/>
       <c r="E142" s="77" t="s">
         <v>32</v>
       </c>
@@ -15830,8 +15868,8 @@
       <c r="R142" s="36"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B143" s="170"/>
-      <c r="C143" s="171"/>
+      <c r="B143" s="176"/>
+      <c r="C143" s="173"/>
       <c r="E143" s="77" t="s">
         <v>335</v>
       </c>
@@ -15858,8 +15896,8 @@
       <c r="R143" s="36"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B144" s="170"/>
-      <c r="C144" s="171" t="s">
+      <c r="B144" s="176"/>
+      <c r="C144" s="173" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -15907,8 +15945,8 @@
       </c>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B145" s="170"/>
-      <c r="C145" s="171"/>
+      <c r="B145" s="176"/>
+      <c r="C145" s="173"/>
       <c r="E145" s="77" t="s">
         <v>32</v>
       </c>
@@ -15937,8 +15975,8 @@
       <c r="R145" s="36"/>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B146" s="170"/>
-      <c r="C146" s="171"/>
+      <c r="B146" s="176"/>
+      <c r="C146" s="173"/>
       <c r="E146" s="77" t="s">
         <v>413</v>
       </c>
@@ -15967,8 +16005,8 @@
       <c r="R146" s="36"/>
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B147" s="170"/>
-      <c r="C147" s="171" t="s">
+      <c r="B147" s="176"/>
+      <c r="C147" s="173" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -16018,8 +16056,8 @@
       </c>
     </row>
     <row r="148" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B148" s="170"/>
-      <c r="C148" s="171"/>
+      <c r="B148" s="176"/>
+      <c r="C148" s="173"/>
       <c r="E148" s="77" t="s">
         <v>263</v>
       </c>
@@ -16048,8 +16086,8 @@
       <c r="R148" s="36"/>
     </row>
     <row r="149" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B149" s="170"/>
-      <c r="C149" s="171"/>
+      <c r="B149" s="176"/>
+      <c r="C149" s="173"/>
       <c r="E149" s="77" t="s">
         <v>32</v>
       </c>
@@ -16078,8 +16116,8 @@
       <c r="R149" s="36"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B150" s="170"/>
-      <c r="C150" s="171" t="s">
+      <c r="B150" s="176"/>
+      <c r="C150" s="173" t="s">
         <v>36</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -16129,8 +16167,8 @@
       </c>
     </row>
     <row r="151" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B151" s="170"/>
-      <c r="C151" s="171"/>
+      <c r="B151" s="176"/>
+      <c r="C151" s="173"/>
       <c r="E151" s="77" t="s">
         <v>263</v>
       </c>
@@ -16159,8 +16197,8 @@
       <c r="R151" s="36"/>
     </row>
     <row r="152" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B152" s="170"/>
-      <c r="C152" s="171"/>
+      <c r="B152" s="176"/>
+      <c r="C152" s="173"/>
       <c r="E152" s="77" t="s">
         <v>32</v>
       </c>
@@ -16189,8 +16227,8 @@
       <c r="R152" s="36"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B153" s="170"/>
-      <c r="C153" s="171"/>
+      <c r="B153" s="176"/>
+      <c r="C153" s="173"/>
       <c r="E153" s="77" t="s">
         <v>444</v>
       </c>
@@ -16219,8 +16257,8 @@
       <c r="R153" s="36"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B154" s="170"/>
-      <c r="C154" s="171" t="s">
+      <c r="B154" s="176"/>
+      <c r="C154" s="173" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -16270,8 +16308,8 @@
       </c>
     </row>
     <row r="155" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B155" s="170"/>
-      <c r="C155" s="171"/>
+      <c r="B155" s="176"/>
+      <c r="C155" s="173"/>
       <c r="E155" s="1" t="s">
         <v>263</v>
       </c>
@@ -16300,7 +16338,7 @@
       <c r="R155" s="36"/>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B156" s="170"/>
+      <c r="B156" s="176"/>
       <c r="C156" s="85"/>
       <c r="E156" s="1" t="s">
         <v>335</v>
@@ -16330,7 +16368,7 @@
       <c r="R156" s="36"/>
     </row>
     <row r="157" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B157" s="170"/>
+      <c r="B157" s="176"/>
       <c r="C157" s="85"/>
       <c r="E157" s="1" t="s">
         <v>32</v>
@@ -16360,7 +16398,7 @@
       <c r="R157" s="36"/>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B158" s="170"/>
+      <c r="B158" s="176"/>
       <c r="C158" s="85"/>
       <c r="E158" s="1" t="s">
         <v>445</v>
@@ -16390,8 +16428,8 @@
       <c r="R158" s="36"/>
     </row>
     <row r="159" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B159" s="170"/>
-      <c r="C159" s="171" t="s">
+      <c r="B159" s="176"/>
+      <c r="C159" s="173" t="s">
         <v>19</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -16441,8 +16479,8 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B160" s="170"/>
-      <c r="C160" s="171"/>
+      <c r="B160" s="176"/>
+      <c r="C160" s="173"/>
       <c r="E160" s="77" t="s">
         <v>263</v>
       </c>
@@ -16471,8 +16509,8 @@
       <c r="R160" s="36"/>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B161" s="170"/>
-      <c r="C161" s="171" t="s">
+      <c r="B161" s="176"/>
+      <c r="C161" s="173" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -16522,8 +16560,8 @@
       </c>
     </row>
     <row r="162" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B162" s="170"/>
-      <c r="C162" s="171"/>
+      <c r="B162" s="176"/>
+      <c r="C162" s="173"/>
       <c r="E162" s="77" t="s">
         <v>263</v>
       </c>
@@ -16552,8 +16590,8 @@
       <c r="R162" s="36"/>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B163" s="170"/>
-      <c r="C163" s="171"/>
+      <c r="B163" s="176"/>
+      <c r="C163" s="173"/>
       <c r="E163" s="77" t="s">
         <v>32</v>
       </c>
@@ -16582,8 +16620,8 @@
       <c r="R163" s="36"/>
     </row>
     <row r="164" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B164" s="170"/>
-      <c r="C164" s="171" t="s">
+      <c r="B164" s="176"/>
+      <c r="C164" s="173" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -16633,8 +16671,8 @@
       </c>
     </row>
     <row r="165" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B165" s="170"/>
-      <c r="C165" s="171"/>
+      <c r="B165" s="176"/>
+      <c r="C165" s="173"/>
       <c r="E165" s="77" t="s">
         <v>263</v>
       </c>
@@ -16663,8 +16701,8 @@
       <c r="R165" s="36"/>
     </row>
     <row r="166" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B166" s="170"/>
-      <c r="C166" s="171"/>
+      <c r="B166" s="176"/>
+      <c r="C166" s="173"/>
       <c r="E166" s="77" t="s">
         <v>32</v>
       </c>
@@ -16693,8 +16731,8 @@
       <c r="R166" s="36"/>
     </row>
     <row r="167" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B167" s="170"/>
-      <c r="C167" s="171"/>
+      <c r="B167" s="176"/>
+      <c r="C167" s="173"/>
       <c r="E167" s="77" t="s">
         <v>392</v>
       </c>
@@ -16723,8 +16761,8 @@
       <c r="R167" s="36"/>
     </row>
     <row r="168" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B168" s="170"/>
-      <c r="C168" s="171"/>
+      <c r="B168" s="176"/>
+      <c r="C168" s="173"/>
       <c r="E168" s="77" t="s">
         <v>393</v>
       </c>
@@ -16753,8 +16791,8 @@
       <c r="R168" s="36"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B169" s="170"/>
-      <c r="C169" s="171"/>
+      <c r="B169" s="176"/>
+      <c r="C169" s="173"/>
       <c r="E169" s="77" t="s">
         <v>394</v>
       </c>
@@ -16783,8 +16821,8 @@
       <c r="R169" s="36"/>
     </row>
     <row r="170" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B170" s="170"/>
-      <c r="C170" s="171"/>
+      <c r="B170" s="176"/>
+      <c r="C170" s="173"/>
       <c r="E170" s="77" t="s">
         <v>395</v>
       </c>
@@ -16813,8 +16851,8 @@
       <c r="R170" s="36"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B171" s="170"/>
-      <c r="C171" s="171"/>
+      <c r="B171" s="176"/>
+      <c r="C171" s="173"/>
       <c r="E171" s="77" t="s">
         <v>396</v>
       </c>
@@ -16843,8 +16881,8 @@
       <c r="R171" s="36"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B172" s="170"/>
-      <c r="C172" s="171" t="s">
+      <c r="B172" s="176"/>
+      <c r="C172" s="173" t="s">
         <v>38</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -16894,8 +16932,8 @@
       </c>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B173" s="170"/>
-      <c r="C173" s="171"/>
+      <c r="B173" s="176"/>
+      <c r="C173" s="173"/>
       <c r="E173" s="77" t="s">
         <v>263</v>
       </c>
@@ -16924,8 +16962,8 @@
       <c r="R173" s="36"/>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B174" s="170"/>
-      <c r="C174" s="171"/>
+      <c r="B174" s="176"/>
+      <c r="C174" s="173"/>
       <c r="E174" s="77" t="s">
         <v>32</v>
       </c>
@@ -16954,8 +16992,8 @@
       <c r="R174" s="36"/>
     </row>
     <row r="175" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B175" s="170"/>
-      <c r="C175" s="171" t="s">
+      <c r="B175" s="176"/>
+      <c r="C175" s="173" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -17005,8 +17043,8 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B176" s="170"/>
-      <c r="C176" s="171"/>
+      <c r="B176" s="176"/>
+      <c r="C176" s="173"/>
       <c r="E176" s="77" t="s">
         <v>263</v>
       </c>
@@ -17035,8 +17073,8 @@
       <c r="R176" s="36"/>
     </row>
     <row r="177" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B177" s="170"/>
-      <c r="C177" s="171"/>
+      <c r="B177" s="176"/>
+      <c r="C177" s="173"/>
       <c r="E177" s="77" t="s">
         <v>32</v>
       </c>
@@ -17065,8 +17103,8 @@
       <c r="R177" s="36"/>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B178" s="170"/>
-      <c r="C178" s="171"/>
+      <c r="B178" s="176"/>
+      <c r="C178" s="173"/>
       <c r="E178" s="77" t="s">
         <v>335</v>
       </c>
@@ -17095,8 +17133,8 @@
       <c r="R178" s="36"/>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B179" s="170"/>
-      <c r="C179" s="171" t="s">
+      <c r="B179" s="176"/>
+      <c r="C179" s="173" t="s">
         <v>33</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -17146,8 +17184,8 @@
       </c>
     </row>
     <row r="180" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B180" s="170"/>
-      <c r="C180" s="171"/>
+      <c r="B180" s="176"/>
+      <c r="C180" s="173"/>
       <c r="E180" s="77" t="s">
         <v>263</v>
       </c>
@@ -17176,8 +17214,8 @@
       <c r="R180" s="36"/>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B181" s="170"/>
-      <c r="C181" s="171"/>
+      <c r="B181" s="176"/>
+      <c r="C181" s="173"/>
       <c r="E181" s="77" t="s">
         <v>32</v>
       </c>
@@ -17206,8 +17244,8 @@
       <c r="R181" s="36"/>
     </row>
     <row r="182" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B182" s="170"/>
-      <c r="C182" s="171"/>
+      <c r="B182" s="176"/>
+      <c r="C182" s="173"/>
       <c r="E182" s="77" t="s">
         <v>392</v>
       </c>
@@ -17236,8 +17274,8 @@
       <c r="R182" s="36"/>
     </row>
     <row r="183" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B183" s="170"/>
-      <c r="C183" s="171"/>
+      <c r="B183" s="176"/>
+      <c r="C183" s="173"/>
       <c r="E183" s="77" t="s">
         <v>393</v>
       </c>
@@ -17266,8 +17304,8 @@
       <c r="R183" s="36"/>
     </row>
     <row r="184" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B184" s="170"/>
-      <c r="C184" s="171"/>
+      <c r="B184" s="176"/>
+      <c r="C184" s="173"/>
       <c r="E184" s="77" t="s">
         <v>394</v>
       </c>
@@ -17296,8 +17334,8 @@
       <c r="R184" s="36"/>
     </row>
     <row r="185" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B185" s="170"/>
-      <c r="C185" s="171"/>
+      <c r="B185" s="176"/>
+      <c r="C185" s="173"/>
       <c r="E185" s="77" t="s">
         <v>395</v>
       </c>
@@ -17326,8 +17364,8 @@
       <c r="R185" s="36"/>
     </row>
     <row r="186" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B186" s="170"/>
-      <c r="C186" s="171"/>
+      <c r="B186" s="176"/>
+      <c r="C186" s="173"/>
       <c r="E186" s="77" t="s">
         <v>396</v>
       </c>
@@ -17356,8 +17394,8 @@
       <c r="R186" s="36"/>
     </row>
     <row r="187" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B187" s="170"/>
-      <c r="C187" s="171" t="s">
+      <c r="B187" s="176"/>
+      <c r="C187" s="173" t="s">
         <v>39</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -17405,8 +17443,8 @@
       </c>
     </row>
     <row r="188" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B188" s="170"/>
-      <c r="C188" s="171"/>
+      <c r="B188" s="176"/>
+      <c r="C188" s="173"/>
       <c r="E188" s="77" t="s">
         <v>263</v>
       </c>
@@ -17433,8 +17471,8 @@
       <c r="R188" s="36"/>
     </row>
     <row r="189" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B189" s="170"/>
-      <c r="C189" s="171" t="s">
+      <c r="B189" s="176"/>
+      <c r="C189" s="173" t="s">
         <v>41</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -17484,8 +17522,8 @@
       </c>
     </row>
     <row r="190" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B190" s="170"/>
-      <c r="C190" s="171"/>
+      <c r="B190" s="176"/>
+      <c r="C190" s="173"/>
       <c r="E190" s="77" t="s">
         <v>263</v>
       </c>
@@ -17514,8 +17552,8 @@
       <c r="R190" s="36"/>
     </row>
     <row r="191" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B191" s="170"/>
-      <c r="C191" s="171"/>
+      <c r="B191" s="176"/>
+      <c r="C191" s="173"/>
       <c r="E191" s="77" t="s">
         <v>335</v>
       </c>
@@ -17544,8 +17582,8 @@
       <c r="R191" s="36"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B192" s="170"/>
-      <c r="C192" s="171" t="s">
+      <c r="B192" s="176"/>
+      <c r="C192" s="173" t="s">
         <v>42</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -17595,8 +17633,8 @@
       </c>
     </row>
     <row r="193" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B193" s="170"/>
-      <c r="C193" s="171"/>
+      <c r="B193" s="176"/>
+      <c r="C193" s="173"/>
       <c r="E193" s="77" t="s">
         <v>263</v>
       </c>
@@ -17625,8 +17663,8 @@
       <c r="R193" s="36"/>
     </row>
     <row r="194" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B194" s="170"/>
-      <c r="C194" s="171"/>
+      <c r="B194" s="176"/>
+      <c r="C194" s="173"/>
       <c r="E194" s="77" t="s">
         <v>32</v>
       </c>
@@ -17655,8 +17693,8 @@
       <c r="R194" s="36"/>
     </row>
     <row r="195" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B195" s="170"/>
-      <c r="C195" s="171"/>
+      <c r="B195" s="176"/>
+      <c r="C195" s="173"/>
       <c r="E195" s="77" t="s">
         <v>335</v>
       </c>
@@ -17685,8 +17723,8 @@
       <c r="R195" s="36"/>
     </row>
     <row r="196" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B196" s="170"/>
-      <c r="C196" s="171" t="s">
+      <c r="B196" s="176"/>
+      <c r="C196" s="173" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -17736,8 +17774,8 @@
       </c>
     </row>
     <row r="197" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B197" s="170"/>
-      <c r="C197" s="171"/>
+      <c r="B197" s="176"/>
+      <c r="C197" s="173"/>
       <c r="E197" s="1" t="s">
         <v>263</v>
       </c>
@@ -17766,8 +17804,8 @@
       <c r="R197" s="36"/>
     </row>
     <row r="198" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B198" s="170"/>
-      <c r="C198" s="171"/>
+      <c r="B198" s="176"/>
+      <c r="C198" s="173"/>
       <c r="E198" s="1" t="s">
         <v>335</v>
       </c>
@@ -17796,8 +17834,8 @@
       <c r="R198" s="36"/>
     </row>
     <row r="199" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B199" s="170"/>
-      <c r="C199" s="171"/>
+      <c r="B199" s="176"/>
+      <c r="C199" s="173"/>
       <c r="E199" s="1" t="s">
         <v>32</v>
       </c>
@@ -17826,8 +17864,8 @@
       <c r="R199" s="36"/>
     </row>
     <row r="200" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B200" s="174"/>
-      <c r="C200" s="173"/>
+      <c r="B200" s="177"/>
+      <c r="C200" s="174"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13" t="s">
         <v>445</v>
@@ -17857,28 +17895,28 @@
       <c r="R200" s="87"/>
     </row>
     <row r="206" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U206" s="164" t="s">
+      <c r="U206" s="156" t="s">
         <v>349</v>
       </c>
-      <c r="V206" s="164"/>
-      <c r="W206" s="164"/>
-      <c r="X206" s="164"/>
-      <c r="Y206" s="164"/>
-      <c r="Z206" s="164"/>
-      <c r="AA206" s="164"/>
-      <c r="AB206" s="164"/>
-      <c r="AC206" s="164"/>
-      <c r="AD206" s="164"/>
-      <c r="AE206" s="164"/>
-      <c r="AF206" s="164"/>
-      <c r="AG206" s="164"/>
-      <c r="AH206" s="164"/>
-      <c r="AI206" s="164"/>
-      <c r="AJ206" s="164"/>
-      <c r="AK206" s="164"/>
-      <c r="AL206" s="164"/>
-      <c r="AM206" s="164"/>
-      <c r="AN206" s="164"/>
+      <c r="V206" s="156"/>
+      <c r="W206" s="156"/>
+      <c r="X206" s="156"/>
+      <c r="Y206" s="156"/>
+      <c r="Z206" s="156"/>
+      <c r="AA206" s="156"/>
+      <c r="AB206" s="156"/>
+      <c r="AC206" s="156"/>
+      <c r="AD206" s="156"/>
+      <c r="AE206" s="156"/>
+      <c r="AF206" s="156"/>
+      <c r="AG206" s="156"/>
+      <c r="AH206" s="156"/>
+      <c r="AI206" s="156"/>
+      <c r="AJ206" s="156"/>
+      <c r="AK206" s="156"/>
+      <c r="AL206" s="156"/>
+      <c r="AM206" s="156"/>
+      <c r="AN206" s="156"/>
     </row>
     <row r="207" spans="2:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U207" s="13" t="s">
@@ -18153,28 +18191,28 @@
       <c r="AN211" s="13"/>
     </row>
     <row r="213" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U213" s="164" t="s">
+      <c r="U213" s="156" t="s">
         <v>350</v>
       </c>
-      <c r="V213" s="164"/>
-      <c r="W213" s="164"/>
-      <c r="X213" s="164"/>
-      <c r="Y213" s="164"/>
-      <c r="Z213" s="164"/>
-      <c r="AA213" s="164"/>
-      <c r="AB213" s="164"/>
-      <c r="AC213" s="164"/>
-      <c r="AD213" s="164"/>
-      <c r="AE213" s="164"/>
-      <c r="AF213" s="164"/>
-      <c r="AG213" s="164"/>
-      <c r="AH213" s="164"/>
-      <c r="AI213" s="164"/>
-      <c r="AJ213" s="164"/>
-      <c r="AK213" s="164"/>
-      <c r="AL213" s="164"/>
-      <c r="AM213" s="164"/>
-      <c r="AN213" s="164"/>
+      <c r="V213" s="156"/>
+      <c r="W213" s="156"/>
+      <c r="X213" s="156"/>
+      <c r="Y213" s="156"/>
+      <c r="Z213" s="156"/>
+      <c r="AA213" s="156"/>
+      <c r="AB213" s="156"/>
+      <c r="AC213" s="156"/>
+      <c r="AD213" s="156"/>
+      <c r="AE213" s="156"/>
+      <c r="AF213" s="156"/>
+      <c r="AG213" s="156"/>
+      <c r="AH213" s="156"/>
+      <c r="AI213" s="156"/>
+      <c r="AJ213" s="156"/>
+      <c r="AK213" s="156"/>
+      <c r="AL213" s="156"/>
+      <c r="AM213" s="156"/>
+      <c r="AN213" s="156"/>
     </row>
     <row r="214" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U214" s="13" t="s">
@@ -18464,28 +18502,28 @@
       </c>
     </row>
     <row r="221" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U221" s="164" t="s">
+      <c r="U221" s="156" t="s">
         <v>352</v>
       </c>
-      <c r="V221" s="164"/>
-      <c r="W221" s="164"/>
-      <c r="X221" s="164"/>
-      <c r="Y221" s="164"/>
-      <c r="Z221" s="164"/>
-      <c r="AA221" s="164"/>
-      <c r="AB221" s="164"/>
-      <c r="AC221" s="164"/>
-      <c r="AD221" s="164"/>
-      <c r="AE221" s="164"/>
-      <c r="AF221" s="164"/>
-      <c r="AG221" s="164"/>
-      <c r="AH221" s="164"/>
-      <c r="AI221" s="164"/>
-      <c r="AJ221" s="164"/>
-      <c r="AK221" s="164"/>
-      <c r="AL221" s="164"/>
-      <c r="AM221" s="164"/>
-      <c r="AN221" s="164"/>
+      <c r="V221" s="156"/>
+      <c r="W221" s="156"/>
+      <c r="X221" s="156"/>
+      <c r="Y221" s="156"/>
+      <c r="Z221" s="156"/>
+      <c r="AA221" s="156"/>
+      <c r="AB221" s="156"/>
+      <c r="AC221" s="156"/>
+      <c r="AD221" s="156"/>
+      <c r="AE221" s="156"/>
+      <c r="AF221" s="156"/>
+      <c r="AG221" s="156"/>
+      <c r="AH221" s="156"/>
+      <c r="AI221" s="156"/>
+      <c r="AJ221" s="156"/>
+      <c r="AK221" s="156"/>
+      <c r="AL221" s="156"/>
+      <c r="AM221" s="156"/>
+      <c r="AN221" s="156"/>
     </row>
     <row r="222" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U222" s="13" t="s">
@@ -18762,28 +18800,28 @@
       <c r="AN226" s="26"/>
     </row>
     <row r="229" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U229" s="164" t="s">
+      <c r="U229" s="156" t="s">
         <v>355</v>
       </c>
-      <c r="V229" s="164"/>
-      <c r="W229" s="164"/>
-      <c r="X229" s="164"/>
-      <c r="Y229" s="164"/>
-      <c r="Z229" s="164"/>
-      <c r="AA229" s="164"/>
-      <c r="AB229" s="164"/>
-      <c r="AC229" s="164"/>
-      <c r="AD229" s="164"/>
-      <c r="AE229" s="164"/>
-      <c r="AF229" s="164"/>
-      <c r="AG229" s="164"/>
-      <c r="AH229" s="164"/>
-      <c r="AI229" s="164"/>
-      <c r="AJ229" s="164"/>
-      <c r="AK229" s="164"/>
-      <c r="AL229" s="164"/>
-      <c r="AM229" s="164"/>
-      <c r="AN229" s="164"/>
+      <c r="V229" s="156"/>
+      <c r="W229" s="156"/>
+      <c r="X229" s="156"/>
+      <c r="Y229" s="156"/>
+      <c r="Z229" s="156"/>
+      <c r="AA229" s="156"/>
+      <c r="AB229" s="156"/>
+      <c r="AC229" s="156"/>
+      <c r="AD229" s="156"/>
+      <c r="AE229" s="156"/>
+      <c r="AF229" s="156"/>
+      <c r="AG229" s="156"/>
+      <c r="AH229" s="156"/>
+      <c r="AI229" s="156"/>
+      <c r="AJ229" s="156"/>
+      <c r="AK229" s="156"/>
+      <c r="AL229" s="156"/>
+      <c r="AM229" s="156"/>
+      <c r="AN229" s="156"/>
     </row>
     <row r="230" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U230" s="13" t="s">
@@ -19268,19 +19306,48 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="71">
-    <mergeCell ref="C179:C186"/>
-    <mergeCell ref="U229:AN229"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="C196:C200"/>
-    <mergeCell ref="U206:AN206"/>
-    <mergeCell ref="U213:AN213"/>
-    <mergeCell ref="U221:AN221"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B5:B35"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B36:B80"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B82:B129"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C115:C116"/>
     <mergeCell ref="B131:B200"/>
     <mergeCell ref="C131:C132"/>
     <mergeCell ref="C133:C134"/>
@@ -19297,48 +19364,19 @@
     <mergeCell ref="C164:C171"/>
     <mergeCell ref="C172:C174"/>
     <mergeCell ref="C175:C178"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="B82:B129"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B36:B80"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B3:S3"/>
-    <mergeCell ref="B5:B35"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C179:C186"/>
+    <mergeCell ref="U229:AN229"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="C196:C200"/>
+    <mergeCell ref="U206:AN206"/>
+    <mergeCell ref="U213:AN213"/>
+    <mergeCell ref="U221:AN221"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19365,14 +19403,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -19396,7 +19434,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="165" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -19410,7 +19448,7 @@
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="158"/>
+      <c r="B5" s="166"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
@@ -19419,7 +19457,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="158"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -19428,7 +19466,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="158"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -19437,7 +19475,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="159"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
@@ -19449,7 +19487,7 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="165" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -19463,7 +19501,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="158"/>
+      <c r="B10" s="166"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
@@ -19475,7 +19513,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="158"/>
+      <c r="B11" s="166"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -19487,7 +19525,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="158"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -19496,7 +19534,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="159"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -19508,7 +19546,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="165" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -19524,7 +19562,7 @@
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="158"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -19536,7 +19574,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="158"/>
+      <c r="B16" s="166"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -19551,7 +19589,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="158"/>
+      <c r="B17" s="166"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -19563,7 +19601,7 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="159"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -19577,7 +19615,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="166" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -19588,7 +19626,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="158"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -19597,7 +19635,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="158"/>
+      <c r="B21" s="166"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -19606,7 +19644,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="158"/>
+      <c r="B22" s="166"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -19615,7 +19653,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="159"/>
+      <c r="B23" s="158"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
@@ -19627,18 +19665,18 @@
       <c r="G23" s="13"/>
     </row>
     <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="164" t="s">
+      <c r="J30" s="156" t="s">
         <v>274</v>
       </c>
-      <c r="K30" s="164"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="164"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="164"/>
-      <c r="R30" s="164"/>
-      <c r="S30" s="164"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="156"/>
+      <c r="N30" s="156"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="156"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="156"/>
+      <c r="S30" s="156"/>
     </row>
     <row r="31" spans="2:20" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J31" s="55" t="s">
@@ -19673,7 +19711,7 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J32" s="169" t="s">
+      <c r="J32" s="175" t="s">
         <v>79</v>
       </c>
       <c r="K32" s="14" t="s">
@@ -19687,7 +19725,7 @@
       </c>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J33" s="170"/>
+      <c r="J33" s="176"/>
       <c r="K33" s="14" t="s">
         <v>16</v>
       </c>
@@ -19696,7 +19734,7 @@
       </c>
     </row>
     <row r="34" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J34" s="170"/>
+      <c r="J34" s="176"/>
       <c r="K34" s="14" t="s">
         <v>17</v>
       </c>
@@ -19705,7 +19743,7 @@
       </c>
     </row>
     <row r="35" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J35" s="170"/>
+      <c r="J35" s="176"/>
       <c r="K35" s="14" t="s">
         <v>34</v>
       </c>
@@ -19714,7 +19752,7 @@
       </c>
     </row>
     <row r="36" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J36" s="170"/>
+      <c r="J36" s="176"/>
       <c r="K36" s="14" t="s">
         <v>35</v>
       </c>
@@ -19723,7 +19761,7 @@
       </c>
     </row>
     <row r="37" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J37" s="170"/>
+      <c r="J37" s="176"/>
       <c r="K37" s="14" t="s">
         <v>18</v>
       </c>
@@ -19735,7 +19773,7 @@
       </c>
     </row>
     <row r="38" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J38" s="170"/>
+      <c r="J38" s="176"/>
       <c r="K38" s="14" t="s">
         <v>37</v>
       </c>
@@ -19744,7 +19782,7 @@
       </c>
     </row>
     <row r="39" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J39" s="170"/>
+      <c r="J39" s="176"/>
       <c r="K39" s="14" t="s">
         <v>36</v>
       </c>
@@ -19753,7 +19791,7 @@
       </c>
     </row>
     <row r="40" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J40" s="170"/>
+      <c r="J40" s="176"/>
       <c r="K40" s="14" t="s">
         <v>12</v>
       </c>
@@ -19765,7 +19803,7 @@
       </c>
     </row>
     <row r="41" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J41" s="170"/>
+      <c r="J41" s="176"/>
       <c r="K41" s="14" t="s">
         <v>19</v>
       </c>
@@ -19777,7 +19815,7 @@
       </c>
     </row>
     <row r="42" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="170"/>
+      <c r="J42" s="176"/>
       <c r="K42" s="14" t="s">
         <v>13</v>
       </c>
@@ -19789,7 +19827,7 @@
       </c>
     </row>
     <row r="43" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J43" s="170"/>
+      <c r="J43" s="176"/>
       <c r="K43" s="14" t="s">
         <v>14</v>
       </c>
@@ -19798,7 +19836,7 @@
       </c>
     </row>
     <row r="44" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J44" s="170"/>
+      <c r="J44" s="176"/>
       <c r="K44" s="14" t="s">
         <v>38</v>
       </c>
@@ -19807,7 +19845,7 @@
       </c>
     </row>
     <row r="45" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J45" s="170"/>
+      <c r="J45" s="176"/>
       <c r="K45" s="14" t="s">
         <v>20</v>
       </c>
@@ -19819,7 +19857,7 @@
       </c>
     </row>
     <row r="46" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J46" s="170"/>
+      <c r="J46" s="176"/>
       <c r="K46" s="14" t="s">
         <v>33</v>
       </c>
@@ -19828,7 +19866,7 @@
       </c>
     </row>
     <row r="47" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J47" s="170"/>
+      <c r="J47" s="176"/>
       <c r="K47" s="14" t="s">
         <v>39</v>
       </c>
@@ -19840,7 +19878,7 @@
       </c>
     </row>
     <row r="48" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J48" s="170"/>
+      <c r="J48" s="176"/>
       <c r="K48" s="14" t="s">
         <v>41</v>
       </c>
@@ -19849,7 +19887,7 @@
       </c>
     </row>
     <row r="49" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J49" s="170"/>
+      <c r="J49" s="176"/>
       <c r="K49" s="14" t="s">
         <v>42</v>
       </c>
@@ -19858,7 +19896,7 @@
       </c>
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J50" s="170"/>
+      <c r="J50" s="176"/>
       <c r="K50" s="15" t="s">
         <v>15</v>
       </c>
@@ -19867,7 +19905,7 @@
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J51" s="169" t="s">
+      <c r="J51" s="175" t="s">
         <v>80</v>
       </c>
       <c r="K51" s="14" t="s">
@@ -19878,7 +19916,7 @@
       </c>
     </row>
     <row r="52" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J52" s="170"/>
+      <c r="J52" s="176"/>
       <c r="K52" s="14" t="s">
         <v>16</v>
       </c>
@@ -19887,7 +19925,7 @@
       </c>
     </row>
     <row r="53" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J53" s="170"/>
+      <c r="J53" s="176"/>
       <c r="K53" s="14" t="s">
         <v>17</v>
       </c>
@@ -19896,7 +19934,7 @@
       </c>
     </row>
     <row r="54" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J54" s="170"/>
+      <c r="J54" s="176"/>
       <c r="K54" s="14" t="s">
         <v>34</v>
       </c>
@@ -19905,7 +19943,7 @@
       </c>
     </row>
     <row r="55" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J55" s="170"/>
+      <c r="J55" s="176"/>
       <c r="K55" s="14" t="s">
         <v>35</v>
       </c>
@@ -19914,7 +19952,7 @@
       </c>
     </row>
     <row r="56" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J56" s="170"/>
+      <c r="J56" s="176"/>
       <c r="K56" s="14" t="s">
         <v>18</v>
       </c>
@@ -19923,7 +19961,7 @@
       </c>
     </row>
     <row r="57" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J57" s="170"/>
+      <c r="J57" s="176"/>
       <c r="K57" s="14" t="s">
         <v>37</v>
       </c>
@@ -19935,7 +19973,7 @@
       </c>
     </row>
     <row r="58" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J58" s="170"/>
+      <c r="J58" s="176"/>
       <c r="K58" s="14" t="s">
         <v>36</v>
       </c>
@@ -19944,7 +19982,7 @@
       </c>
     </row>
     <row r="59" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J59" s="170"/>
+      <c r="J59" s="176"/>
       <c r="K59" s="14" t="s">
         <v>12</v>
       </c>
@@ -19956,7 +19994,7 @@
       </c>
     </row>
     <row r="60" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J60" s="170"/>
+      <c r="J60" s="176"/>
       <c r="K60" s="14" t="s">
         <v>19</v>
       </c>
@@ -19965,7 +20003,7 @@
       </c>
     </row>
     <row r="61" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J61" s="170"/>
+      <c r="J61" s="176"/>
       <c r="K61" s="14" t="s">
         <v>13</v>
       </c>
@@ -19977,7 +20015,7 @@
       </c>
     </row>
     <row r="62" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J62" s="170"/>
+      <c r="J62" s="176"/>
       <c r="K62" s="14" t="s">
         <v>14</v>
       </c>
@@ -19986,7 +20024,7 @@
       </c>
     </row>
     <row r="63" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J63" s="170"/>
+      <c r="J63" s="176"/>
       <c r="K63" s="14" t="s">
         <v>38</v>
       </c>
@@ -19998,7 +20036,7 @@
       </c>
     </row>
     <row r="64" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J64" s="170"/>
+      <c r="J64" s="176"/>
       <c r="K64" s="14" t="s">
         <v>20</v>
       </c>
@@ -20010,7 +20048,7 @@
       </c>
     </row>
     <row r="65" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J65" s="170"/>
+      <c r="J65" s="176"/>
       <c r="K65" s="14" t="s">
         <v>33</v>
       </c>
@@ -20022,7 +20060,7 @@
       </c>
     </row>
     <row r="66" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J66" s="170"/>
+      <c r="J66" s="176"/>
       <c r="K66" s="14" t="s">
         <v>39</v>
       </c>
@@ -20034,7 +20072,7 @@
       </c>
     </row>
     <row r="67" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J67" s="170"/>
+      <c r="J67" s="176"/>
       <c r="K67" s="14" t="s">
         <v>41</v>
       </c>
@@ -20043,7 +20081,7 @@
       </c>
     </row>
     <row r="68" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J68" s="170"/>
+      <c r="J68" s="176"/>
       <c r="K68" s="14" t="s">
         <v>42</v>
       </c>
@@ -20055,7 +20093,7 @@
       </c>
     </row>
     <row r="69" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J69" s="170"/>
+      <c r="J69" s="176"/>
       <c r="K69" s="15" t="s">
         <v>15</v>
       </c>
@@ -20064,7 +20102,7 @@
       </c>
     </row>
     <row r="70" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J70" s="169" t="s">
+      <c r="J70" s="175" t="s">
         <v>81</v>
       </c>
       <c r="K70" s="14" t="s">
@@ -20078,7 +20116,7 @@
       </c>
     </row>
     <row r="71" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J71" s="170"/>
+      <c r="J71" s="176"/>
       <c r="K71" s="14" t="s">
         <v>16</v>
       </c>
@@ -20087,7 +20125,7 @@
       </c>
     </row>
     <row r="72" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J72" s="170"/>
+      <c r="J72" s="176"/>
       <c r="K72" s="14" t="s">
         <v>17</v>
       </c>
@@ -20099,7 +20137,7 @@
       </c>
     </row>
     <row r="73" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J73" s="170"/>
+      <c r="J73" s="176"/>
       <c r="K73" s="14" t="s">
         <v>34</v>
       </c>
@@ -20108,7 +20146,7 @@
       </c>
     </row>
     <row r="74" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J74" s="170"/>
+      <c r="J74" s="176"/>
       <c r="K74" s="14" t="s">
         <v>35</v>
       </c>
@@ -20117,7 +20155,7 @@
       </c>
     </row>
     <row r="75" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J75" s="170"/>
+      <c r="J75" s="176"/>
       <c r="K75" s="14" t="s">
         <v>18</v>
       </c>
@@ -20129,7 +20167,7 @@
       </c>
     </row>
     <row r="76" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J76" s="170"/>
+      <c r="J76" s="176"/>
       <c r="K76" s="14" t="s">
         <v>37</v>
       </c>
@@ -20138,7 +20176,7 @@
       </c>
     </row>
     <row r="77" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J77" s="170"/>
+      <c r="J77" s="176"/>
       <c r="K77" s="14" t="s">
         <v>36</v>
       </c>
@@ -20150,7 +20188,7 @@
       </c>
     </row>
     <row r="78" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J78" s="170"/>
+      <c r="J78" s="176"/>
       <c r="K78" s="14" t="s">
         <v>12</v>
       </c>
@@ -20159,7 +20197,7 @@
       </c>
     </row>
     <row r="79" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J79" s="170"/>
+      <c r="J79" s="176"/>
       <c r="K79" s="14" t="s">
         <v>19</v>
       </c>
@@ -20171,7 +20209,7 @@
       </c>
     </row>
     <row r="80" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J80" s="170"/>
+      <c r="J80" s="176"/>
       <c r="K80" s="14" t="s">
         <v>13</v>
       </c>
@@ -20183,7 +20221,7 @@
       </c>
     </row>
     <row r="81" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J81" s="170"/>
+      <c r="J81" s="176"/>
       <c r="K81" s="14" t="s">
         <v>14</v>
       </c>
@@ -20195,7 +20233,7 @@
       </c>
     </row>
     <row r="82" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J82" s="170"/>
+      <c r="J82" s="176"/>
       <c r="K82" s="14" t="s">
         <v>38</v>
       </c>
@@ -20210,7 +20248,7 @@
       </c>
     </row>
     <row r="83" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J83" s="170"/>
+      <c r="J83" s="176"/>
       <c r="K83" s="14" t="s">
         <v>20</v>
       </c>
@@ -20219,7 +20257,7 @@
       </c>
     </row>
     <row r="84" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J84" s="170"/>
+      <c r="J84" s="176"/>
       <c r="K84" s="14" t="s">
         <v>33</v>
       </c>
@@ -20228,7 +20266,7 @@
       </c>
     </row>
     <row r="85" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J85" s="170"/>
+      <c r="J85" s="176"/>
       <c r="K85" s="14" t="s">
         <v>39</v>
       </c>
@@ -20237,7 +20275,7 @@
       </c>
     </row>
     <row r="86" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J86" s="170"/>
+      <c r="J86" s="176"/>
       <c r="K86" s="14" t="s">
         <v>41</v>
       </c>
@@ -20252,7 +20290,7 @@
       </c>
     </row>
     <row r="87" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J87" s="170"/>
+      <c r="J87" s="176"/>
       <c r="K87" s="14" t="s">
         <v>42</v>
       </c>
@@ -20261,7 +20299,7 @@
       </c>
     </row>
     <row r="88" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J88" s="170"/>
+      <c r="J88" s="176"/>
       <c r="K88" s="15" t="s">
         <v>15</v>
       </c>
@@ -20273,7 +20311,7 @@
       </c>
     </row>
     <row r="89" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J89" s="169" t="s">
+      <c r="J89" s="175" t="s">
         <v>82</v>
       </c>
       <c r="K89" s="14" t="s">
@@ -20281,125 +20319,125 @@
       </c>
     </row>
     <row r="90" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J90" s="170"/>
+      <c r="J90" s="176"/>
       <c r="K90" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J91" s="170"/>
+      <c r="J91" s="176"/>
       <c r="K91" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J92" s="170"/>
+      <c r="J92" s="176"/>
       <c r="K92" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="93" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J93" s="170"/>
+      <c r="J93" s="176"/>
       <c r="K93" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J94" s="170"/>
+      <c r="J94" s="176"/>
       <c r="K94" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J95" s="170"/>
+      <c r="J95" s="176"/>
       <c r="K95" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="96" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J96" s="170"/>
+      <c r="J96" s="176"/>
       <c r="K96" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J97" s="170"/>
+      <c r="J97" s="176"/>
       <c r="K97" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J98" s="170"/>
+      <c r="J98" s="176"/>
       <c r="K98" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="99" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J99" s="170"/>
+      <c r="J99" s="176"/>
       <c r="K99" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J100" s="170"/>
+      <c r="J100" s="176"/>
       <c r="K100" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J101" s="170"/>
+      <c r="J101" s="176"/>
       <c r="K101" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J102" s="170"/>
+      <c r="J102" s="176"/>
       <c r="K102" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J103" s="170"/>
+      <c r="J103" s="176"/>
       <c r="K103" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="104" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J104" s="170"/>
+      <c r="J104" s="176"/>
       <c r="K104" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="105" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J105" s="170"/>
+      <c r="J105" s="176"/>
       <c r="K105" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="106" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J106" s="170"/>
+      <c r="J106" s="176"/>
       <c r="K106" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="107" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J107" s="170"/>
+      <c r="J107" s="176"/>
       <c r="K107" s="15" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J89:J107"/>
+    <mergeCell ref="J70:J88"/>
+    <mergeCell ref="J32:J50"/>
+    <mergeCell ref="J51:J69"/>
+    <mergeCell ref="J30:S30"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B23"/>
-    <mergeCell ref="J89:J107"/>
-    <mergeCell ref="J70:J88"/>
-    <mergeCell ref="J32:J50"/>
-    <mergeCell ref="J51:J69"/>
-    <mergeCell ref="J30:S30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20419,35 +20457,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="178" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="177" t="s">
+      <c r="A1" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="175" t="s">
+      <c r="C1" s="179"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="177" t="s">
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="177" t="s">
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="176"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="180"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="179"/>
+      <c r="A2" s="183"/>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>

--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9376F3-554C-F042-9BE1-2A464D4FB0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A380C6CC-C024-8046-BA4E-454AA1B41F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="4" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
   <sheets>
     <sheet name="exceedances" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'exceedance%_overall'!$A$1:$G$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'exceedance%_site'!$A$1:$H$2935</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'exceedance%_ssn'!$A$1:$H$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HDS!$W$114:$AG$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HDS!$K$32:$K$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PCAs!$A$1:$P$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11895" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11872" uniqueCount="469">
   <si>
     <t>Analyte</t>
   </si>
@@ -1580,33 +1580,48 @@
     <t>mixed</t>
   </si>
   <si>
-    <t>GM - Q79
-Do you ever NOT remove the screen/filter and leave your cistern without the filter?</t>
+    <t>(Intercept)                -3.33716    0.45294 188.05922  -7.368 5.31e-12 ***</t>
   </si>
   <si>
-    <t>Winter:proximity</t>
+    <t>seasonMonsoon               0.59693    0.11211 158.15507   5.325 3.42e-07 ***</t>
   </si>
   <si>
-    <t>Monsoon:proximity</t>
+    <t xml:space="preserve">Q671                        0.37750    0.16712  48.97472   2.259   0.0284 *  </t>
   </si>
   <si>
-    <t>Does clean parts of roof draining system</t>
+    <t>pH                          0.47586    0.07526 178.13601   6.323 2.01e-09 ***</t>
   </si>
   <si>
-    <t>Winter, does not clean parts of roof draining system</t>
+    <t xml:space="preserve">seasonWinter:prox.normal   -0.20883    0.09158  68.48186  -2.280   0.0257 *  </t>
   </si>
   <si>
-    <t>Cistern does have a screen/filter</t>
+    <t xml:space="preserve">seasonMonsoon:prox.normal   0.05164    0.13755 163.38622   0.375   0.7078    </t>
   </si>
   <si>
     <t>GM - Q77
-Does your cistern have a screen/filter for incoming water from down spout on top of the tank?</t>
+Does your cistern have a screen or filter for incoming water from down spout on top of the tank?</t>
   </si>
   <si>
-    <t>Winter, cistern does not have a screen/filter</t>
+    <t>(Intercept)     2.4349     0.1837 32.6992  13.257 1.06e-14 ***</t>
   </si>
   <si>
-    <t>RE-DO</t>
+    <t>seasonMonsoon   0.9362     0.1419 81.5937   6.596 3.92e-09 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prox.normal    -0.3093     0.1018 20.6389  -3.037  0.00635 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q771           -0.4216     0.2089 23.7079  -2.018  0.05508 .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept)  -0.3224     0.1156  -2.789 0.006393 ** </t>
+  </si>
+  <si>
+    <t>Q771         -0.4617     0.1335  -3.459 0.000816 ***</t>
+  </si>
+  <si>
+    <t>GM - Q79
+Do you ever NOT remove the screen or filter and leave your cistern without the filter?</t>
   </si>
 </sst>
 </file>
@@ -2175,7 +2190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2485,9 +2500,6 @@
     <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2577,23 +2589,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3572,27 +3567,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="165" t="s">
+      <c r="M31" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="165"/>
-      <c r="O31" s="165"/>
-      <c r="P31" s="165"/>
-      <c r="Q31" s="165"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="164"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="166" t="s">
+      <c r="M32" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="164" t="s">
+      <c r="N32" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="164"/>
-      <c r="P32" s="164"/>
-      <c r="Q32" s="164"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="163"/>
     </row>
     <row r="33" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M33" s="160"/>
+      <c r="M33" s="159"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -3666,29 +3661,29 @@
       </c>
     </row>
     <row r="44" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y44" s="167" t="s">
+      <c r="Y44" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="Z44" s="167"/>
-      <c r="AA44" s="167"/>
-      <c r="AB44" s="167"/>
-      <c r="AC44" s="167"/>
+      <c r="Z44" s="166"/>
+      <c r="AA44" s="166"/>
+      <c r="AB44" s="166"/>
+      <c r="AC44" s="166"/>
     </row>
     <row r="45" spans="13:29" x14ac:dyDescent="0.2">
       <c r="Y45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Z45" s="168" t="s">
+      <c r="Z45" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="AA45" s="168"/>
-      <c r="AB45" s="168"/>
+      <c r="AA45" s="167"/>
+      <c r="AB45" s="167"/>
       <c r="AC45" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y46" s="158" t="s">
+      <c r="Y46" s="157" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="8" t="s">
@@ -3702,7 +3697,7 @@
       </c>
     </row>
     <row r="47" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y47" s="159"/>
+      <c r="Y47" s="158"/>
       <c r="Z47" s="8">
         <v>0</v>
       </c>
@@ -3714,7 +3709,7 @@
       </c>
     </row>
     <row r="48" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y48" s="159"/>
+      <c r="Y48" s="158"/>
       <c r="Z48" s="8">
         <v>0.5</v>
       </c>
@@ -3726,7 +3721,7 @@
       </c>
     </row>
     <row r="49" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y49" s="159"/>
+      <c r="Y49" s="158"/>
       <c r="Z49" s="8">
         <v>1</v>
       </c>
@@ -3738,7 +3733,7 @@
       </c>
     </row>
     <row r="50" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y50" s="159"/>
+      <c r="Y50" s="158"/>
       <c r="Z50" s="8">
         <v>1.5</v>
       </c>
@@ -3750,7 +3745,7 @@
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="160"/>
+      <c r="Y51" s="159"/>
       <c r="Z51" s="11">
         <v>2</v>
       </c>
@@ -3763,7 +3758,7 @@
       <c r="AC51" s="13"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y52" s="158" t="s">
+      <c r="Y52" s="157" t="s">
         <v>69</v>
       </c>
       <c r="Z52" s="1" t="s">
@@ -3772,62 +3767,62 @@
       <c r="AA52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC52" s="161" t="s">
+      <c r="AC52" s="160" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="159"/>
+      <c r="Y53" s="158"/>
       <c r="Z53" s="1">
         <v>0</v>
       </c>
       <c r="AA53" s="34">
         <v>6.1733623452348702E-2</v>
       </c>
-      <c r="AC53" s="162"/>
+      <c r="AC53" s="161"/>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y54" s="159"/>
+      <c r="Y54" s="158"/>
       <c r="Z54" s="1">
         <v>2</v>
       </c>
       <c r="AA54" s="34">
         <v>1.20772053410085E-2</v>
       </c>
-      <c r="AC54" s="162"/>
+      <c r="AC54" s="161"/>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y55" s="159"/>
+      <c r="Y55" s="158"/>
       <c r="Z55" s="1">
         <v>4</v>
       </c>
       <c r="AA55" s="31">
         <v>2.2662402083130201E-3</v>
       </c>
-      <c r="AC55" s="162"/>
+      <c r="AC55" s="161"/>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y56" s="159"/>
+      <c r="Y56" s="158"/>
       <c r="Z56" s="1">
         <v>6</v>
       </c>
       <c r="AA56" s="28">
         <v>4.2184786680835203E-4</v>
       </c>
-      <c r="AC56" s="162"/>
+      <c r="AC56" s="161"/>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y57" s="159"/>
+      <c r="Y57" s="158"/>
       <c r="Z57" s="1">
         <v>8</v>
       </c>
       <c r="AA57" s="28">
         <v>7.8406646322768398E-5</v>
       </c>
-      <c r="AC57" s="162"/>
+      <c r="AC57" s="161"/>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y58" s="160"/>
+      <c r="Y58" s="159"/>
       <c r="Z58" s="13">
         <v>10</v>
       </c>
@@ -3835,10 +3830,10 @@
         <v>1.4568956039108299E-5</v>
       </c>
       <c r="AB58" s="13"/>
-      <c r="AC58" s="163"/>
+      <c r="AC58" s="162"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y59" s="158" t="s">
+      <c r="Y59" s="157" t="s">
         <v>73</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -3847,72 +3842,72 @@
       <c r="AA59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" s="161" t="s">
+      <c r="AC59" s="160" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y60" s="159"/>
+      <c r="Y60" s="158"/>
       <c r="Z60" s="1">
         <v>0</v>
       </c>
       <c r="AA60" s="34">
         <v>4.213704983443E-2</v>
       </c>
-      <c r="AC60" s="162"/>
+      <c r="AC60" s="161"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y61" s="159"/>
+      <c r="Y61" s="158"/>
       <c r="Z61" s="1">
         <v>4</v>
       </c>
       <c r="AA61" s="36">
         <v>0.70383460067707004</v>
       </c>
-      <c r="AC61" s="162"/>
+      <c r="AC61" s="161"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y62" s="159"/>
+      <c r="Y62" s="158"/>
       <c r="Z62" s="1">
         <v>8</v>
       </c>
       <c r="AA62" s="36">
         <v>0.99227108557330002</v>
       </c>
-      <c r="AC62" s="162"/>
+      <c r="AC62" s="161"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y63" s="159"/>
+      <c r="Y63" s="158"/>
       <c r="Z63" s="1">
         <v>12</v>
       </c>
       <c r="AA63" s="37">
         <v>0.99985583826317304</v>
       </c>
-      <c r="AC63" s="162"/>
+      <c r="AC63" s="161"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y64" s="159"/>
+      <c r="Y64" s="158"/>
       <c r="Z64" s="1">
         <v>16</v>
       </c>
       <c r="AA64" s="37">
         <v>0.99999733107778499</v>
       </c>
-      <c r="AC64" s="162"/>
+      <c r="AC64" s="161"/>
     </row>
     <row r="65" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y65" s="159"/>
+      <c r="Y65" s="158"/>
       <c r="Z65" s="1">
         <v>20</v>
       </c>
       <c r="AA65" s="37">
         <v>0.99999995059606805</v>
       </c>
-      <c r="AC65" s="162"/>
+      <c r="AC65" s="161"/>
     </row>
     <row r="66" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y66" s="160"/>
+      <c r="Y66" s="159"/>
       <c r="Z66" s="13">
         <v>24</v>
       </c>
@@ -3920,7 +3915,7 @@
         <v>0.99999999908549497</v>
       </c>
       <c r="AB66" s="13"/>
-      <c r="AC66" s="163"/>
+      <c r="AC66" s="162"/>
     </row>
     <row r="71" spans="25:36" x14ac:dyDescent="0.2">
       <c r="AD71" s="1" t="s">
@@ -3969,7 +3964,7 @@
       </c>
     </row>
     <row r="74" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD74" s="161" t="s">
+      <c r="AD74" s="160" t="s">
         <v>9</v>
       </c>
       <c r="AE74" s="48" t="s">
@@ -3989,7 +3984,7 @@
       </c>
     </row>
     <row r="75" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="163"/>
+      <c r="AD75" s="162"/>
       <c r="AE75" s="49" t="s">
         <v>13</v>
       </c>
@@ -4007,7 +4002,7 @@
       </c>
     </row>
     <row r="76" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD76" s="161" t="s">
+      <c r="AD76" s="160" t="s">
         <v>10</v>
       </c>
       <c r="AE76" s="48" t="s">
@@ -4027,7 +4022,7 @@
       </c>
     </row>
     <row r="77" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD77" s="162"/>
+      <c r="AD77" s="161"/>
       <c r="AE77" s="50" t="s">
         <v>17</v>
       </c>
@@ -4045,7 +4040,7 @@
       </c>
     </row>
     <row r="78" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD78" s="163"/>
+      <c r="AD78" s="162"/>
       <c r="AE78" s="49" t="s">
         <v>12</v>
       </c>
@@ -4063,7 +4058,7 @@
       </c>
     </row>
     <row r="79" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD79" s="161" t="s">
+      <c r="AD79" s="160" t="s">
         <v>11</v>
       </c>
       <c r="AE79" s="48" t="s">
@@ -4083,7 +4078,7 @@
       </c>
     </row>
     <row r="80" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="162"/>
+      <c r="AD80" s="161"/>
       <c r="AE80" s="50" t="s">
         <v>19</v>
       </c>
@@ -4101,7 +4096,7 @@
       </c>
     </row>
     <row r="81" spans="30:47" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD81" s="162"/>
+      <c r="AD81" s="161"/>
       <c r="AE81" s="50" t="s">
         <v>13</v>
       </c>
@@ -4119,7 +4114,7 @@
       </c>
     </row>
     <row r="82" spans="30:47" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD82" s="163"/>
+      <c r="AD82" s="162"/>
       <c r="AE82" s="49" t="s">
         <v>15</v>
       </c>
@@ -4137,18 +4132,18 @@
       </c>
     </row>
     <row r="87" spans="30:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL87" s="165" t="s">
+      <c r="AL87" s="164" t="s">
         <v>274</v>
       </c>
-      <c r="AM87" s="165"/>
-      <c r="AN87" s="165"/>
-      <c r="AO87" s="165"/>
-      <c r="AP87" s="165"/>
-      <c r="AQ87" s="165"/>
-      <c r="AR87" s="165"/>
-      <c r="AS87" s="165"/>
-      <c r="AT87" s="165"/>
-      <c r="AU87" s="165"/>
+      <c r="AM87" s="164"/>
+      <c r="AN87" s="164"/>
+      <c r="AO87" s="164"/>
+      <c r="AP87" s="164"/>
+      <c r="AQ87" s="164"/>
+      <c r="AR87" s="164"/>
+      <c r="AS87" s="164"/>
+      <c r="AT87" s="164"/>
+      <c r="AU87" s="164"/>
     </row>
     <row r="88" spans="30:47" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AL88" s="55" t="s">
@@ -4183,13 +4178,13 @@
       </c>
     </row>
     <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL89" s="155" t="s">
+      <c r="AL89" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="AM89" s="152" t="s">
+      <c r="AM89" s="151" t="s">
         <v>279</v>
       </c>
-      <c r="AN89" s="158" t="s">
+      <c r="AN89" s="157" t="s">
         <v>13</v>
       </c>
       <c r="AO89" s="40" t="s">
@@ -4207,17 +4202,17 @@
       <c r="AS89" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT89" s="155" t="s">
+      <c r="AT89" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="AU89" s="152" t="s">
+      <c r="AU89" s="151" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL90" s="156"/>
-      <c r="AM90" s="153"/>
-      <c r="AN90" s="159"/>
+      <c r="AL90" s="155"/>
+      <c r="AM90" s="152"/>
+      <c r="AN90" s="158"/>
       <c r="AO90" s="1" t="s">
         <v>68</v>
       </c>
@@ -4233,13 +4228,13 @@
       <c r="AS90" s="58">
         <v>1E-3</v>
       </c>
-      <c r="AT90" s="156"/>
-      <c r="AU90" s="153"/>
+      <c r="AT90" s="155"/>
+      <c r="AU90" s="152"/>
     </row>
     <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL91" s="157"/>
-      <c r="AM91" s="154"/>
-      <c r="AN91" s="160"/>
+      <c r="AL91" s="156"/>
+      <c r="AM91" s="153"/>
+      <c r="AN91" s="159"/>
       <c r="AO91" s="13" t="s">
         <v>286</v>
       </c>
@@ -4255,17 +4250,17 @@
       <c r="AS91" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AT91" s="157"/>
-      <c r="AU91" s="154"/>
+      <c r="AT91" s="156"/>
+      <c r="AU91" s="153"/>
     </row>
     <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL92" s="155" t="s">
+      <c r="AL92" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="AM92" s="155" t="s">
+      <c r="AM92" s="154" t="s">
         <v>280</v>
       </c>
-      <c r="AN92" s="158" t="s">
+      <c r="AN92" s="157" t="s">
         <v>12</v>
       </c>
       <c r="AO92" s="40" t="s">
@@ -4283,17 +4278,17 @@
       <c r="AS92" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT92" s="155" t="s">
+      <c r="AT92" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="AU92" s="152" t="s">
+      <c r="AU92" s="151" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL93" s="156"/>
-      <c r="AM93" s="156"/>
-      <c r="AN93" s="159"/>
+      <c r="AL93" s="155"/>
+      <c r="AM93" s="155"/>
+      <c r="AN93" s="158"/>
       <c r="AO93" s="1" t="s">
         <v>68</v>
       </c>
@@ -4309,13 +4304,13 @@
       <c r="AS93" s="58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT93" s="156"/>
-      <c r="AU93" s="153"/>
+      <c r="AT93" s="155"/>
+      <c r="AU93" s="152"/>
     </row>
     <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL94" s="156"/>
-      <c r="AM94" s="156"/>
-      <c r="AN94" s="159"/>
+      <c r="AL94" s="155"/>
+      <c r="AM94" s="155"/>
+      <c r="AN94" s="158"/>
       <c r="AO94" s="1" t="s">
         <v>286</v>
       </c>
@@ -4331,15 +4326,15 @@
       <c r="AS94" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT94" s="156"/>
-      <c r="AU94" s="153"/>
+      <c r="AT94" s="155"/>
+      <c r="AU94" s="152"/>
     </row>
     <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL95" s="156"/>
-      <c r="AM95" s="153" t="s">
+      <c r="AL95" s="155"/>
+      <c r="AM95" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="AN95" s="159" t="s">
+      <c r="AN95" s="158" t="s">
         <v>17</v>
       </c>
       <c r="AO95" t="s">
@@ -4357,17 +4352,17 @@
       <c r="AS95" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="AT95" s="156" t="s">
+      <c r="AT95" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="AU95" s="153" t="s">
+      <c r="AU95" s="152" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL96" s="156"/>
-      <c r="AM96" s="153"/>
-      <c r="AN96" s="159"/>
+      <c r="AL96" s="155"/>
+      <c r="AM96" s="152"/>
+      <c r="AN96" s="158"/>
       <c r="AO96" s="1" t="s">
         <v>68</v>
       </c>
@@ -4383,13 +4378,13 @@
       <c r="AS96" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT96" s="156"/>
-      <c r="AU96" s="153"/>
+      <c r="AT96" s="155"/>
+      <c r="AU96" s="152"/>
     </row>
     <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL97" s="157"/>
-      <c r="AM97" s="154"/>
-      <c r="AN97" s="160"/>
+      <c r="AL97" s="156"/>
+      <c r="AM97" s="153"/>
+      <c r="AN97" s="159"/>
       <c r="AO97" s="13" t="s">
         <v>286</v>
       </c>
@@ -4405,17 +4400,17 @@
       <c r="AS97" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT97" s="157"/>
-      <c r="AU97" s="154"/>
+      <c r="AT97" s="156"/>
+      <c r="AU97" s="153"/>
     </row>
     <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL98" s="155" t="s">
+      <c r="AL98" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="AM98" s="152" t="s">
+      <c r="AM98" s="151" t="s">
         <v>279</v>
       </c>
-      <c r="AN98" s="158" t="s">
+      <c r="AN98" s="157" t="s">
         <v>13</v>
       </c>
       <c r="AO98" s="60" t="s">
@@ -4433,17 +4428,17 @@
       <c r="AS98" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT98" s="155" t="s">
+      <c r="AT98" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="AU98" s="152" t="s">
+      <c r="AU98" s="151" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL99" s="156"/>
-      <c r="AM99" s="153"/>
-      <c r="AN99" s="159"/>
+      <c r="AL99" s="155"/>
+      <c r="AM99" s="152"/>
+      <c r="AN99" s="158"/>
       <c r="AO99" s="1" t="s">
         <v>68</v>
       </c>
@@ -4459,13 +4454,13 @@
       <c r="AS99" s="58">
         <v>0.04</v>
       </c>
-      <c r="AT99" s="156"/>
-      <c r="AU99" s="153"/>
+      <c r="AT99" s="155"/>
+      <c r="AU99" s="152"/>
     </row>
     <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL100" s="157"/>
-      <c r="AM100" s="154"/>
-      <c r="AN100" s="160"/>
+      <c r="AL100" s="156"/>
+      <c r="AM100" s="153"/>
+      <c r="AN100" s="159"/>
       <c r="AO100" s="13" t="s">
         <v>286</v>
       </c>
@@ -4481,8 +4476,8 @@
       <c r="AS100" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT100" s="157"/>
-      <c r="AU100" s="154"/>
+      <c r="AT100" s="156"/>
+      <c r="AU100" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -5506,7 +5501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C301AE6-CC50-864C-827E-D25EEF6A22D3}">
   <dimension ref="A2:AN151"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
@@ -9132,21 +9127,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="166" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
       <c r="N2" s="54"/>
       <c r="O2" s="1"/>
     </row>
@@ -9193,7 +9188,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="168" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="61" t="s">
@@ -9235,7 +9230,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="169"/>
+      <c r="A5" s="168"/>
       <c r="B5" s="1" t="s">
         <v>328</v>
       </c>
@@ -9265,7 +9260,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="169"/>
+      <c r="A6" s="168"/>
       <c r="B6" s="1" t="s">
         <v>335</v>
       </c>
@@ -9293,7 +9288,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="169"/>
+      <c r="A7" s="168"/>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
@@ -9321,7 +9316,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="169"/>
+      <c r="A8" s="168"/>
       <c r="B8" s="61" t="s">
         <v>372</v>
       </c>
@@ -9349,7 +9344,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="169"/>
+      <c r="A9" s="168"/>
       <c r="B9" s="1" t="s">
         <v>373</v>
       </c>
@@ -9925,8 +9920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6964B3A-A93B-A24A-8DF2-4AA66B6335FC}">
   <dimension ref="B3:AO237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:K4"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="V231" sqref="V231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9961,26 +9956,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="164" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
       <c r="T3" s="54"/>
     </row>
     <row r="4" spans="2:20" ht="60" thickTop="1" x14ac:dyDescent="0.2">
@@ -10040,7 +10035,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="169" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="85" t="s">
@@ -10054,7 +10049,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="171"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="85" t="s">
         <v>16</v>
       </c>
@@ -10066,8 +10061,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="171"/>
-      <c r="C7" s="172" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -10119,8 +10114,8 @@
       <c r="T7" s="25"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="171"/>
       <c r="E8" s="77" t="s">
         <v>263</v>
       </c>
@@ -10149,8 +10144,8 @@
       <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="171"/>
-      <c r="C9" s="172" t="s">
+      <c r="B9" s="170"/>
+      <c r="C9" s="171" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -10198,8 +10193,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="171"/>
-      <c r="C10" s="172"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="171"/>
       <c r="E10" s="84" t="s">
         <v>263</v>
       </c>
@@ -10226,8 +10221,8 @@
       <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="171"/>
-      <c r="C11" s="172"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="171"/>
       <c r="E11" s="77" t="s">
         <v>32</v>
       </c>
@@ -10254,7 +10249,7 @@
       <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="171"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="85" t="s">
         <v>35</v>
       </c>
@@ -10279,8 +10274,8 @@
       <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="171"/>
-      <c r="C13" s="172" t="s">
+      <c r="B13" s="170"/>
+      <c r="C13" s="171" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -10328,8 +10323,8 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="171"/>
-      <c r="C14" s="172"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="171"/>
       <c r="E14" s="77" t="s">
         <v>263</v>
       </c>
@@ -10356,8 +10351,8 @@
       <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="171"/>
-      <c r="C15" s="172" t="s">
+      <c r="B15" s="170"/>
+      <c r="C15" s="171" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -10405,8 +10400,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="171"/>
-      <c r="C16" s="172"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="171"/>
       <c r="E16" s="77" t="s">
         <v>263</v>
       </c>
@@ -10433,7 +10428,7 @@
       <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="171"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="85" t="s">
         <v>36</v>
       </c>
@@ -10458,7 +10453,7 @@
       <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="171"/>
+      <c r="B18" s="170"/>
       <c r="C18" s="85" t="s">
         <v>12</v>
       </c>
@@ -10483,8 +10478,8 @@
       <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="171"/>
-      <c r="C19" s="172" t="s">
+      <c r="B19" s="170"/>
+      <c r="C19" s="171" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -10534,8 +10529,8 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="171"/>
-      <c r="C20" s="172"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="171"/>
       <c r="E20" s="84" t="s">
         <v>263</v>
       </c>
@@ -10566,8 +10561,8 @@
       <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="171"/>
-      <c r="C21" s="172" t="s">
+      <c r="B21" s="170"/>
+      <c r="C21" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -10615,8 +10610,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="171"/>
-      <c r="C22" s="172"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="171"/>
       <c r="E22" s="77" t="s">
         <v>263</v>
       </c>
@@ -10643,8 +10638,8 @@
       <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="171"/>
-      <c r="C23" s="172" t="s">
+      <c r="B23" s="170"/>
+      <c r="C23" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -10690,8 +10685,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="171"/>
-      <c r="C24" s="172"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="171"/>
       <c r="E24" s="77" t="s">
         <v>32</v>
       </c>
@@ -10718,8 +10713,8 @@
       <c r="R24" s="36"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="171"/>
-      <c r="C25" s="172" t="s">
+      <c r="B25" s="170"/>
+      <c r="C25" s="171" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -10767,8 +10762,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="171"/>
-      <c r="C26" s="172"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="171"/>
       <c r="E26" s="77" t="s">
         <v>263</v>
       </c>
@@ -10795,7 +10790,7 @@
       <c r="R26" s="36"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="171"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="85" t="s">
         <v>20</v>
       </c>
@@ -10820,7 +10815,7 @@
       <c r="R27" s="36"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="171"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="85" t="s">
         <v>33</v>
       </c>
@@ -10845,8 +10840,8 @@
       <c r="R28" s="36"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="171"/>
-      <c r="C29" s="172" t="s">
+      <c r="B29" s="170"/>
+      <c r="C29" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="39" t="s">
@@ -10892,8 +10887,8 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="171"/>
-      <c r="C30" s="172"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="171"/>
       <c r="D30" s="39"/>
       <c r="E30" s="77" t="s">
         <v>32</v>
@@ -10921,7 +10916,7 @@
       <c r="R30" s="36"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="171"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="85" t="s">
         <v>41</v>
       </c>
@@ -10946,8 +10941,8 @@
       <c r="R31" s="36"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="171"/>
-      <c r="C32" s="172" t="s">
+      <c r="B32" s="170"/>
+      <c r="C32" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -10995,8 +10990,8 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="171"/>
-      <c r="C33" s="172"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="171"/>
       <c r="E33" s="77" t="s">
         <v>263</v>
       </c>
@@ -11023,8 +11018,8 @@
       <c r="R33" s="36"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="171"/>
-      <c r="C34" s="172"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="171"/>
       <c r="E34" s="77" t="s">
         <v>32</v>
       </c>
@@ -11051,7 +11046,7 @@
       <c r="R34" s="36"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="171"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="86" t="s">
         <v>15</v>
       </c>
@@ -11076,10 +11071,10 @@
       <c r="R35" s="36"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="173" t="s">
+      <c r="C36" s="172" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -11127,8 +11122,8 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="171"/>
-      <c r="C37" s="172"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="171"/>
       <c r="E37" s="84" t="s">
         <v>415</v>
       </c>
@@ -11155,8 +11150,8 @@
       <c r="R37" s="36"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="171"/>
-      <c r="C38" s="172"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="171"/>
       <c r="E38" s="84" t="s">
         <v>416</v>
       </c>
@@ -11183,8 +11178,8 @@
       <c r="R38" s="36"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="171"/>
-      <c r="C39" s="172"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="171"/>
       <c r="E39" s="84" t="s">
         <v>32</v>
       </c>
@@ -11211,8 +11206,8 @@
       <c r="R39" s="36"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="171"/>
-      <c r="C40" s="172" t="s">
+      <c r="B40" s="170"/>
+      <c r="C40" s="171" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -11260,8 +11255,8 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="171"/>
-      <c r="C41" s="172"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="171"/>
       <c r="E41" s="77" t="s">
         <v>335</v>
       </c>
@@ -11290,8 +11285,8 @@
       <c r="R41" s="36"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="171"/>
-      <c r="C42" s="172" t="s">
+      <c r="B42" s="170"/>
+      <c r="C42" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -11339,8 +11334,8 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="171"/>
-      <c r="C43" s="172"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
       <c r="E43" s="77" t="s">
         <v>263</v>
       </c>
@@ -11367,8 +11362,8 @@
       <c r="R43" s="36"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="171"/>
-      <c r="C44" s="172"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="171"/>
       <c r="E44" s="77" t="s">
         <v>32</v>
       </c>
@@ -11395,8 +11390,8 @@
       <c r="R44" s="36"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="171"/>
-      <c r="C45" s="172"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="171"/>
       <c r="E45" s="77" t="s">
         <v>335</v>
       </c>
@@ -11423,8 +11418,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="171"/>
-      <c r="C46" s="172" t="s">
+      <c r="B46" s="170"/>
+      <c r="C46" s="171" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -11474,8 +11469,8 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="171"/>
-      <c r="C47" s="172"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="171"/>
       <c r="E47" s="77" t="s">
         <v>263</v>
       </c>
@@ -11504,8 +11499,8 @@
       <c r="R47" s="36"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="171"/>
-      <c r="C48" s="172"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="171"/>
       <c r="E48" s="77" t="s">
         <v>335</v>
       </c>
@@ -11534,8 +11529,8 @@
       <c r="R48" s="36"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="171"/>
-      <c r="C49" s="172"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="171"/>
       <c r="E49" s="77" t="s">
         <v>32</v>
       </c>
@@ -11564,8 +11559,8 @@
       <c r="R49" s="36"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="171"/>
-      <c r="C50" s="172" t="s">
+      <c r="B50" s="170"/>
+      <c r="C50" s="171" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -11615,8 +11610,8 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="171"/>
-      <c r="C51" s="172"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="171"/>
       <c r="E51" s="77" t="s">
         <v>263</v>
       </c>
@@ -11645,8 +11640,8 @@
       <c r="R51" s="36"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="171"/>
-      <c r="C52" s="172"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="171"/>
       <c r="E52" s="77" t="s">
         <v>335</v>
       </c>
@@ -11675,8 +11670,8 @@
       <c r="R52" s="36"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="171"/>
-      <c r="C53" s="172" t="s">
+      <c r="B53" s="170"/>
+      <c r="C53" s="171" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -11726,8 +11721,8 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="171"/>
-      <c r="C54" s="172"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="171"/>
       <c r="E54" s="77" t="s">
         <v>263</v>
       </c>
@@ -11756,8 +11751,8 @@
       <c r="R54" s="36"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="171"/>
-      <c r="C55" s="172"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="171"/>
       <c r="E55" s="77" t="s">
         <v>335</v>
       </c>
@@ -11786,8 +11781,8 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="171"/>
-      <c r="C56" s="172" t="s">
+      <c r="B56" s="170"/>
+      <c r="C56" s="171" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -11837,8 +11832,8 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="171"/>
-      <c r="C57" s="172"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="171"/>
       <c r="E57" s="77" t="s">
         <v>263</v>
       </c>
@@ -11867,8 +11862,8 @@
       <c r="R57" s="36"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="171"/>
-      <c r="C58" s="172" t="s">
+      <c r="B58" s="170"/>
+      <c r="C58" s="171" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -11918,8 +11913,8 @@
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="171"/>
-      <c r="C59" s="172"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="171"/>
       <c r="E59" s="77" t="s">
         <v>263</v>
       </c>
@@ -11948,8 +11943,8 @@
       <c r="R59" s="36"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="171"/>
-      <c r="C60" s="172" t="s">
+      <c r="B60" s="170"/>
+      <c r="C60" s="171" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -11999,8 +11994,8 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="171"/>
-      <c r="C61" s="172"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="171"/>
       <c r="E61" s="77" t="s">
         <v>263</v>
       </c>
@@ -12029,7 +12024,7 @@
       <c r="R61" s="36"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="171"/>
+      <c r="B62" s="170"/>
       <c r="C62" s="85" t="s">
         <v>19</v>
       </c>
@@ -12054,8 +12049,8 @@
       <c r="R62" s="36"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="171"/>
-      <c r="C63" s="172" t="s">
+      <c r="B63" s="170"/>
+      <c r="C63" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -12105,8 +12100,8 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="171"/>
-      <c r="C64" s="172"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="171"/>
       <c r="E64" s="77" t="s">
         <v>263</v>
       </c>
@@ -12135,8 +12130,8 @@
       <c r="R64" s="36"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="171"/>
-      <c r="C65" s="172" t="s">
+      <c r="B65" s="170"/>
+      <c r="C65" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -12186,8 +12181,8 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="171"/>
-      <c r="C66" s="172"/>
+      <c r="B66" s="170"/>
+      <c r="C66" s="171"/>
       <c r="E66" s="77" t="s">
         <v>263</v>
       </c>
@@ -12216,8 +12211,8 @@
       <c r="R66" s="36"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="171"/>
-      <c r="C67" s="172"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="171"/>
       <c r="E67" s="77" t="s">
         <v>335</v>
       </c>
@@ -12246,8 +12241,8 @@
       <c r="R67" s="36"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="171"/>
-      <c r="C68" s="172"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="171"/>
       <c r="E68" s="77" t="s">
         <v>32</v>
       </c>
@@ -12276,8 +12271,8 @@
       <c r="R68" s="36"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="171"/>
-      <c r="C69" s="172" t="s">
+      <c r="B69" s="170"/>
+      <c r="C69" s="171" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -12327,8 +12322,8 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="171"/>
-      <c r="C70" s="172"/>
+      <c r="B70" s="170"/>
+      <c r="C70" s="171"/>
       <c r="E70" s="77" t="s">
         <v>263</v>
       </c>
@@ -12357,8 +12352,8 @@
       <c r="R70" s="36"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="171"/>
-      <c r="C71" s="172" t="s">
+      <c r="B71" s="170"/>
+      <c r="C71" s="171" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -12408,8 +12403,8 @@
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="171"/>
-      <c r="C72" s="172"/>
+      <c r="B72" s="170"/>
+      <c r="C72" s="171"/>
       <c r="E72" s="77" t="s">
         <v>263</v>
       </c>
@@ -12438,8 +12433,8 @@
       <c r="R72" s="36"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="171"/>
-      <c r="C73" s="172"/>
+      <c r="B73" s="170"/>
+      <c r="C73" s="171"/>
       <c r="E73" s="77" t="s">
         <v>335</v>
       </c>
@@ -12468,7 +12463,7 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="171"/>
+      <c r="B74" s="170"/>
       <c r="C74" s="85" t="s">
         <v>33</v>
       </c>
@@ -12493,7 +12488,7 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="171"/>
+      <c r="B75" s="170"/>
       <c r="C75" s="85" t="s">
         <v>39</v>
       </c>
@@ -12518,8 +12513,8 @@
       <c r="R75" s="36"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="171"/>
-      <c r="C76" s="172" t="s">
+      <c r="B76" s="170"/>
+      <c r="C76" s="171" t="s">
         <v>41</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -12569,8 +12564,8 @@
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="171"/>
-      <c r="C77" s="172"/>
+      <c r="B77" s="170"/>
+      <c r="C77" s="171"/>
       <c r="E77" s="77" t="s">
         <v>263</v>
       </c>
@@ -12599,8 +12594,8 @@
       <c r="R77" s="36"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="171"/>
-      <c r="C78" s="172" t="s">
+      <c r="B78" s="170"/>
+      <c r="C78" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -12650,8 +12645,8 @@
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="171"/>
-      <c r="C79" s="172"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="171"/>
       <c r="E79" s="77" t="s">
         <v>263</v>
       </c>
@@ -12680,8 +12675,8 @@
       <c r="R79" s="36"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="171"/>
-      <c r="C80" s="172" t="s">
+      <c r="B80" s="170"/>
+      <c r="C80" s="171" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -12732,7 +12727,7 @@
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="64"/>
-      <c r="C81" s="174"/>
+      <c r="C81" s="173"/>
       <c r="E81" s="77" t="s">
         <v>263</v>
       </c>
@@ -12761,7 +12756,7 @@
       <c r="R81" s="36"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="170" t="s">
+      <c r="B82" s="169" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="85" t="s">
@@ -12788,8 +12783,8 @@
       <c r="R82" s="36"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="171"/>
-      <c r="C83" s="172" t="s">
+      <c r="B83" s="170"/>
+      <c r="C83" s="171" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -12837,8 +12832,8 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="171"/>
-      <c r="C84" s="172"/>
+      <c r="B84" s="170"/>
+      <c r="C84" s="171"/>
       <c r="E84" s="77" t="s">
         <v>263</v>
       </c>
@@ -12865,8 +12860,8 @@
       <c r="R84" s="36"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="171"/>
-      <c r="C85" s="172"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="171"/>
       <c r="E85" s="77" t="s">
         <v>335</v>
       </c>
@@ -12893,8 +12888,8 @@
       <c r="R85" s="36"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B86" s="171"/>
-      <c r="C86" s="172" t="s">
+      <c r="B86" s="170"/>
+      <c r="C86" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -12942,8 +12937,8 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="171"/>
-      <c r="C87" s="172"/>
+      <c r="B87" s="170"/>
+      <c r="C87" s="171"/>
       <c r="E87" s="77" t="s">
         <v>263</v>
       </c>
@@ -12970,8 +12965,8 @@
       <c r="R87" s="36"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="171"/>
-      <c r="C88" s="172"/>
+      <c r="B88" s="170"/>
+      <c r="C88" s="171"/>
       <c r="E88" s="77" t="s">
         <v>335</v>
       </c>
@@ -12998,8 +12993,8 @@
       <c r="R88" s="36"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="171"/>
-      <c r="C89" s="172"/>
+      <c r="B89" s="170"/>
+      <c r="C89" s="171"/>
       <c r="E89" s="77" t="s">
         <v>32</v>
       </c>
@@ -13026,8 +13021,8 @@
       <c r="R89" s="36"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="171"/>
-      <c r="C90" s="172" t="s">
+      <c r="B90" s="170"/>
+      <c r="C90" s="171" t="s">
         <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -13077,8 +13072,8 @@
       </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="171"/>
-      <c r="C91" s="172"/>
+      <c r="B91" s="170"/>
+      <c r="C91" s="171"/>
       <c r="E91" s="77" t="s">
         <v>263</v>
       </c>
@@ -13107,8 +13102,8 @@
       <c r="R91" s="36"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="171"/>
-      <c r="C92" s="172"/>
+      <c r="B92" s="170"/>
+      <c r="C92" s="171"/>
       <c r="E92" s="77" t="s">
         <v>335</v>
       </c>
@@ -13137,7 +13132,7 @@
       <c r="R92" s="36"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="171"/>
+      <c r="B93" s="170"/>
       <c r="C93" s="85" t="s">
         <v>35</v>
       </c>
@@ -13162,8 +13157,8 @@
       <c r="R93" s="36"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="171"/>
-      <c r="C94" s="172" t="s">
+      <c r="B94" s="170"/>
+      <c r="C94" s="171" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -13213,8 +13208,8 @@
       </c>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="171"/>
-      <c r="C95" s="172"/>
+      <c r="B95" s="170"/>
+      <c r="C95" s="171"/>
       <c r="E95" s="77" t="s">
         <v>263</v>
       </c>
@@ -13243,8 +13238,8 @@
       <c r="R95" s="36"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="171"/>
-      <c r="C96" s="172"/>
+      <c r="B96" s="170"/>
+      <c r="C96" s="171"/>
       <c r="E96" s="77" t="s">
         <v>335</v>
       </c>
@@ -13273,8 +13268,8 @@
       <c r="R96" s="36"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="171"/>
-      <c r="C97" s="172"/>
+      <c r="B97" s="170"/>
+      <c r="C97" s="171"/>
       <c r="E97" s="77" t="s">
         <v>32</v>
       </c>
@@ -13303,8 +13298,8 @@
       <c r="R97" s="36"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="171"/>
-      <c r="C98" s="172" t="s">
+      <c r="B98" s="170"/>
+      <c r="C98" s="171" t="s">
         <v>37</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -13352,8 +13347,8 @@
       </c>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="171"/>
-      <c r="C99" s="172"/>
+      <c r="B99" s="170"/>
+      <c r="C99" s="171"/>
       <c r="E99" s="77" t="s">
         <v>263</v>
       </c>
@@ -13380,8 +13375,8 @@
       <c r="R99" s="36"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="171"/>
-      <c r="C100" s="172"/>
+      <c r="B100" s="170"/>
+      <c r="C100" s="171"/>
       <c r="E100" s="77" t="s">
         <v>335</v>
       </c>
@@ -13408,8 +13403,8 @@
       <c r="R100" s="36"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B101" s="171"/>
-      <c r="C101" s="172" t="s">
+      <c r="B101" s="170"/>
+      <c r="C101" s="171" t="s">
         <v>36</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -13459,8 +13454,8 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="171"/>
-      <c r="C102" s="172"/>
+      <c r="B102" s="170"/>
+      <c r="C102" s="171"/>
       <c r="E102" s="77" t="s">
         <v>263</v>
       </c>
@@ -13489,8 +13484,8 @@
       <c r="R102" s="36"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="171"/>
-      <c r="C103" s="172" t="s">
+      <c r="B103" s="170"/>
+      <c r="C103" s="171" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -13538,8 +13533,8 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="171"/>
-      <c r="C104" s="172"/>
+      <c r="B104" s="170"/>
+      <c r="C104" s="171"/>
       <c r="E104" s="77" t="s">
         <v>263</v>
       </c>
@@ -13566,8 +13561,8 @@
       <c r="R104" s="36"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="171"/>
-      <c r="C105" s="172"/>
+      <c r="B105" s="170"/>
+      <c r="C105" s="171"/>
       <c r="E105" s="77" t="s">
         <v>335</v>
       </c>
@@ -13594,8 +13589,8 @@
       <c r="R105" s="36"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="171"/>
-      <c r="C106" s="172" t="s">
+      <c r="B106" s="170"/>
+      <c r="C106" s="171" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -13645,8 +13640,8 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="171"/>
-      <c r="C107" s="172"/>
+      <c r="B107" s="170"/>
+      <c r="C107" s="171"/>
       <c r="E107" s="77" t="s">
         <v>263</v>
       </c>
@@ -13675,8 +13670,8 @@
       <c r="R107" s="36"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="171"/>
-      <c r="C108" s="172"/>
+      <c r="B108" s="170"/>
+      <c r="C108" s="171"/>
       <c r="E108" s="77" t="s">
         <v>32</v>
       </c>
@@ -13705,8 +13700,8 @@
       <c r="R108" s="36"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="171"/>
-      <c r="C109" s="172" t="s">
+      <c r="B109" s="170"/>
+      <c r="C109" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -13754,8 +13749,8 @@
       </c>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="171"/>
-      <c r="C110" s="172"/>
+      <c r="B110" s="170"/>
+      <c r="C110" s="171"/>
       <c r="E110" s="77" t="s">
         <v>263</v>
       </c>
@@ -13782,8 +13777,8 @@
       <c r="R110" s="36"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="171"/>
-      <c r="C111" s="172"/>
+      <c r="B111" s="170"/>
+      <c r="C111" s="171"/>
       <c r="E111" s="77" t="s">
         <v>335</v>
       </c>
@@ -13810,8 +13805,8 @@
       <c r="R111" s="36"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="171"/>
-      <c r="C112" s="172" t="s">
+      <c r="B112" s="170"/>
+      <c r="C112" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -13859,8 +13854,8 @@
       </c>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="171"/>
-      <c r="C113" s="172"/>
+      <c r="B113" s="170"/>
+      <c r="C113" s="171"/>
       <c r="E113" s="77" t="s">
         <v>263</v>
       </c>
@@ -13887,8 +13882,8 @@
       <c r="R113" s="36"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="171"/>
-      <c r="C114" s="172"/>
+      <c r="B114" s="170"/>
+      <c r="C114" s="171"/>
       <c r="E114" s="77" t="s">
         <v>335</v>
       </c>
@@ -13915,8 +13910,8 @@
       <c r="R114" s="36"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="171"/>
-      <c r="C115" s="172" t="s">
+      <c r="B115" s="170"/>
+      <c r="C115" s="171" t="s">
         <v>38</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -13964,8 +13959,8 @@
       </c>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="171"/>
-      <c r="C116" s="172"/>
+      <c r="B116" s="170"/>
+      <c r="C116" s="171"/>
       <c r="E116" s="77" t="s">
         <v>263</v>
       </c>
@@ -13992,8 +13987,8 @@
       <c r="R116" s="36"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="171"/>
-      <c r="C117" s="172" t="s">
+      <c r="B117" s="170"/>
+      <c r="C117" s="171" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -14043,8 +14038,8 @@
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="171"/>
-      <c r="C118" s="172"/>
+      <c r="B118" s="170"/>
+      <c r="C118" s="171"/>
       <c r="E118" s="77" t="s">
         <v>263</v>
       </c>
@@ -14073,8 +14068,8 @@
       <c r="R118" s="36"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="171"/>
-      <c r="C119" s="172"/>
+      <c r="B119" s="170"/>
+      <c r="C119" s="171"/>
       <c r="E119" s="77" t="s">
         <v>335</v>
       </c>
@@ -14103,8 +14098,8 @@
       <c r="R119" s="36"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="171"/>
-      <c r="C120" s="172" t="s">
+      <c r="B120" s="170"/>
+      <c r="C120" s="171" t="s">
         <v>33</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -14152,8 +14147,8 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="171"/>
-      <c r="C121" s="172"/>
+      <c r="B121" s="170"/>
+      <c r="C121" s="171"/>
       <c r="E121" s="77" t="s">
         <v>263</v>
       </c>
@@ -14180,8 +14175,8 @@
       <c r="R121" s="36"/>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="171"/>
-      <c r="C122" s="172"/>
+      <c r="B122" s="170"/>
+      <c r="C122" s="171"/>
       <c r="E122" s="77" t="s">
         <v>335</v>
       </c>
@@ -14208,8 +14203,8 @@
       <c r="R122" s="36"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="171"/>
-      <c r="C123" s="172" t="s">
+      <c r="B123" s="170"/>
+      <c r="C123" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -14257,8 +14252,8 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="171"/>
-      <c r="C124" s="172"/>
+      <c r="B124" s="170"/>
+      <c r="C124" s="171"/>
       <c r="E124" s="77" t="s">
         <v>263</v>
       </c>
@@ -14285,8 +14280,8 @@
       <c r="R124" s="36"/>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="171"/>
-      <c r="C125" s="172" t="s">
+      <c r="B125" s="170"/>
+      <c r="C125" s="171" t="s">
         <v>41</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -14334,8 +14329,8 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="171"/>
-      <c r="C126" s="172"/>
+      <c r="B126" s="170"/>
+      <c r="C126" s="171"/>
       <c r="E126" s="77" t="s">
         <v>263</v>
       </c>
@@ -14362,8 +14357,8 @@
       <c r="R126" s="36"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="171"/>
-      <c r="C127" s="172" t="s">
+      <c r="B127" s="170"/>
+      <c r="C127" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -14413,8 +14408,8 @@
       </c>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="171"/>
-      <c r="C128" s="172"/>
+      <c r="B128" s="170"/>
+      <c r="C128" s="171"/>
       <c r="E128" s="77" t="s">
         <v>263</v>
       </c>
@@ -14443,8 +14438,8 @@
       <c r="R128" s="36"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="171"/>
-      <c r="C129" s="172" t="s">
+      <c r="B129" s="170"/>
+      <c r="C129" s="171" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -14495,7 +14490,7 @@
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="63"/>
-      <c r="C130" s="174"/>
+      <c r="C130" s="173"/>
       <c r="E130" s="77" t="s">
         <v>263</v>
       </c>
@@ -14524,10 +14519,10 @@
       <c r="R130" s="36"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="170" t="s">
+      <c r="B131" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="C131" s="173" t="s">
+      <c r="C131" s="172" t="s">
         <v>40</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -14575,8 +14570,8 @@
       </c>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="171"/>
-      <c r="C132" s="172"/>
+      <c r="B132" s="170"/>
+      <c r="C132" s="171"/>
       <c r="E132" s="77" t="s">
         <v>263</v>
       </c>
@@ -14603,8 +14598,8 @@
       <c r="R132" s="36"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="171"/>
-      <c r="C133" s="172" t="s">
+      <c r="B133" s="170"/>
+      <c r="C133" s="171" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -14652,8 +14647,8 @@
       </c>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B134" s="171"/>
-      <c r="C134" s="172"/>
+      <c r="B134" s="170"/>
+      <c r="C134" s="171"/>
       <c r="E134" s="77" t="s">
         <v>32</v>
       </c>
@@ -14682,8 +14677,8 @@
       <c r="R134" s="36"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="171"/>
-      <c r="C135" s="172" t="s">
+      <c r="B135" s="170"/>
+      <c r="C135" s="171" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -14733,8 +14728,8 @@
       </c>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="171"/>
-      <c r="C136" s="172"/>
+      <c r="B136" s="170"/>
+      <c r="C136" s="171"/>
       <c r="E136" s="77" t="s">
         <v>263</v>
       </c>
@@ -14763,8 +14758,8 @@
       <c r="R136" s="36"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="171"/>
-      <c r="C137" s="172"/>
+      <c r="B137" s="170"/>
+      <c r="C137" s="171"/>
       <c r="E137" s="77" t="s">
         <v>32</v>
       </c>
@@ -14793,8 +14788,8 @@
       <c r="R137" s="36"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="171"/>
-      <c r="C138" s="172" t="s">
+      <c r="B138" s="170"/>
+      <c r="C138" s="171" t="s">
         <v>34</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -14844,8 +14839,8 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="171"/>
-      <c r="C139" s="172"/>
+      <c r="B139" s="170"/>
+      <c r="C139" s="171"/>
       <c r="E139" s="77" t="s">
         <v>263</v>
       </c>
@@ -14874,8 +14869,8 @@
       <c r="R139" s="36"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B140" s="171"/>
-      <c r="C140" s="172"/>
+      <c r="B140" s="170"/>
+      <c r="C140" s="171"/>
       <c r="E140" s="77" t="s">
         <v>32</v>
       </c>
@@ -14904,8 +14899,8 @@
       <c r="R140" s="36"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B141" s="171"/>
-      <c r="C141" s="172" t="s">
+      <c r="B141" s="170"/>
+      <c r="C141" s="171" t="s">
         <v>35</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -14951,8 +14946,8 @@
       </c>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B142" s="171"/>
-      <c r="C142" s="172"/>
+      <c r="B142" s="170"/>
+      <c r="C142" s="171"/>
       <c r="E142" s="77" t="s">
         <v>32</v>
       </c>
@@ -14979,8 +14974,8 @@
       <c r="R142" s="36"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B143" s="171"/>
-      <c r="C143" s="172"/>
+      <c r="B143" s="170"/>
+      <c r="C143" s="171"/>
       <c r="E143" s="77" t="s">
         <v>335</v>
       </c>
@@ -15007,8 +15002,8 @@
       <c r="R143" s="36"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B144" s="171"/>
-      <c r="C144" s="172" t="s">
+      <c r="B144" s="170"/>
+      <c r="C144" s="171" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -15056,8 +15051,8 @@
       </c>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B145" s="171"/>
-      <c r="C145" s="172"/>
+      <c r="B145" s="170"/>
+      <c r="C145" s="171"/>
       <c r="E145" s="77" t="s">
         <v>32</v>
       </c>
@@ -15086,8 +15081,8 @@
       <c r="R145" s="36"/>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B146" s="171"/>
-      <c r="C146" s="172"/>
+      <c r="B146" s="170"/>
+      <c r="C146" s="171"/>
       <c r="E146" s="77" t="s">
         <v>414</v>
       </c>
@@ -15116,8 +15111,8 @@
       <c r="R146" s="36"/>
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B147" s="171"/>
-      <c r="C147" s="172" t="s">
+      <c r="B147" s="170"/>
+      <c r="C147" s="171" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -15167,8 +15162,8 @@
       </c>
     </row>
     <row r="148" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B148" s="171"/>
-      <c r="C148" s="172"/>
+      <c r="B148" s="170"/>
+      <c r="C148" s="171"/>
       <c r="E148" s="77" t="s">
         <v>263</v>
       </c>
@@ -15197,8 +15192,8 @@
       <c r="R148" s="36"/>
     </row>
     <row r="149" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B149" s="171"/>
-      <c r="C149" s="172"/>
+      <c r="B149" s="170"/>
+      <c r="C149" s="171"/>
       <c r="E149" s="77" t="s">
         <v>32</v>
       </c>
@@ -15227,8 +15222,8 @@
       <c r="R149" s="36"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B150" s="171"/>
-      <c r="C150" s="172" t="s">
+      <c r="B150" s="170"/>
+      <c r="C150" s="171" t="s">
         <v>36</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -15278,8 +15273,8 @@
       </c>
     </row>
     <row r="151" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B151" s="171"/>
-      <c r="C151" s="172"/>
+      <c r="B151" s="170"/>
+      <c r="C151" s="171"/>
       <c r="E151" s="77" t="s">
         <v>263</v>
       </c>
@@ -15308,8 +15303,8 @@
       <c r="R151" s="36"/>
     </row>
     <row r="152" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B152" s="171"/>
-      <c r="C152" s="172"/>
+      <c r="B152" s="170"/>
+      <c r="C152" s="171"/>
       <c r="E152" s="77" t="s">
         <v>32</v>
       </c>
@@ -15338,8 +15333,8 @@
       <c r="R152" s="36"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B153" s="171"/>
-      <c r="C153" s="172"/>
+      <c r="B153" s="170"/>
+      <c r="C153" s="171"/>
       <c r="E153" s="77" t="s">
         <v>445</v>
       </c>
@@ -15368,8 +15363,8 @@
       <c r="R153" s="36"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B154" s="171"/>
-      <c r="C154" s="172" t="s">
+      <c r="B154" s="170"/>
+      <c r="C154" s="171" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -15419,8 +15414,8 @@
       </c>
     </row>
     <row r="155" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B155" s="171"/>
-      <c r="C155" s="172"/>
+      <c r="B155" s="170"/>
+      <c r="C155" s="171"/>
       <c r="E155" s="1" t="s">
         <v>263</v>
       </c>
@@ -15449,7 +15444,7 @@
       <c r="R155" s="36"/>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B156" s="171"/>
+      <c r="B156" s="170"/>
       <c r="C156" s="85"/>
       <c r="E156" s="1" t="s">
         <v>335</v>
@@ -15479,7 +15474,7 @@
       <c r="R156" s="36"/>
     </row>
     <row r="157" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B157" s="171"/>
+      <c r="B157" s="170"/>
       <c r="C157" s="85"/>
       <c r="E157" s="1" t="s">
         <v>32</v>
@@ -15509,7 +15504,7 @@
       <c r="R157" s="36"/>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B158" s="171"/>
+      <c r="B158" s="170"/>
       <c r="C158" s="85"/>
       <c r="E158" s="1" t="s">
         <v>446</v>
@@ -15539,8 +15534,8 @@
       <c r="R158" s="36"/>
     </row>
     <row r="159" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B159" s="171"/>
-      <c r="C159" s="172" t="s">
+      <c r="B159" s="170"/>
+      <c r="C159" s="171" t="s">
         <v>19</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -15590,8 +15585,8 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B160" s="171"/>
-      <c r="C160" s="172"/>
+      <c r="B160" s="170"/>
+      <c r="C160" s="171"/>
       <c r="E160" s="77" t="s">
         <v>263</v>
       </c>
@@ -15620,8 +15615,8 @@
       <c r="R160" s="36"/>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B161" s="171"/>
-      <c r="C161" s="172" t="s">
+      <c r="B161" s="170"/>
+      <c r="C161" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -15671,8 +15666,8 @@
       </c>
     </row>
     <row r="162" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B162" s="171"/>
-      <c r="C162" s="172"/>
+      <c r="B162" s="170"/>
+      <c r="C162" s="171"/>
       <c r="E162" s="77" t="s">
         <v>263</v>
       </c>
@@ -15701,8 +15696,8 @@
       <c r="R162" s="36"/>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B163" s="171"/>
-      <c r="C163" s="172"/>
+      <c r="B163" s="170"/>
+      <c r="C163" s="171"/>
       <c r="E163" s="77" t="s">
         <v>32</v>
       </c>
@@ -15731,8 +15726,8 @@
       <c r="R163" s="36"/>
     </row>
     <row r="164" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B164" s="171"/>
-      <c r="C164" s="172" t="s">
+      <c r="B164" s="170"/>
+      <c r="C164" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -15782,8 +15777,8 @@
       </c>
     </row>
     <row r="165" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B165" s="171"/>
-      <c r="C165" s="172"/>
+      <c r="B165" s="170"/>
+      <c r="C165" s="171"/>
       <c r="E165" s="77" t="s">
         <v>263</v>
       </c>
@@ -15812,8 +15807,8 @@
       <c r="R165" s="36"/>
     </row>
     <row r="166" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B166" s="171"/>
-      <c r="C166" s="172"/>
+      <c r="B166" s="170"/>
+      <c r="C166" s="171"/>
       <c r="E166" s="77" t="s">
         <v>32</v>
       </c>
@@ -15842,8 +15837,8 @@
       <c r="R166" s="36"/>
     </row>
     <row r="167" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B167" s="171"/>
-      <c r="C167" s="172"/>
+      <c r="B167" s="170"/>
+      <c r="C167" s="171"/>
       <c r="E167" s="77" t="s">
         <v>392</v>
       </c>
@@ -15872,8 +15867,8 @@
       <c r="R167" s="36"/>
     </row>
     <row r="168" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B168" s="171"/>
-      <c r="C168" s="172"/>
+      <c r="B168" s="170"/>
+      <c r="C168" s="171"/>
       <c r="E168" s="77" t="s">
         <v>393</v>
       </c>
@@ -15902,8 +15897,8 @@
       <c r="R168" s="36"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B169" s="171"/>
-      <c r="C169" s="172"/>
+      <c r="B169" s="170"/>
+      <c r="C169" s="171"/>
       <c r="E169" s="77" t="s">
         <v>394</v>
       </c>
@@ -15932,8 +15927,8 @@
       <c r="R169" s="36"/>
     </row>
     <row r="170" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B170" s="171"/>
-      <c r="C170" s="172"/>
+      <c r="B170" s="170"/>
+      <c r="C170" s="171"/>
       <c r="E170" s="77" t="s">
         <v>395</v>
       </c>
@@ -15962,8 +15957,8 @@
       <c r="R170" s="36"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B171" s="171"/>
-      <c r="C171" s="172"/>
+      <c r="B171" s="170"/>
+      <c r="C171" s="171"/>
       <c r="E171" s="77" t="s">
         <v>396</v>
       </c>
@@ -15992,8 +15987,8 @@
       <c r="R171" s="36"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B172" s="171"/>
-      <c r="C172" s="172" t="s">
+      <c r="B172" s="170"/>
+      <c r="C172" s="171" t="s">
         <v>38</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -16043,8 +16038,8 @@
       </c>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B173" s="171"/>
-      <c r="C173" s="172"/>
+      <c r="B173" s="170"/>
+      <c r="C173" s="171"/>
       <c r="E173" s="77" t="s">
         <v>263</v>
       </c>
@@ -16073,8 +16068,8 @@
       <c r="R173" s="36"/>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B174" s="171"/>
-      <c r="C174" s="172"/>
+      <c r="B174" s="170"/>
+      <c r="C174" s="171"/>
       <c r="E174" s="77" t="s">
         <v>32</v>
       </c>
@@ -16103,8 +16098,8 @@
       <c r="R174" s="36"/>
     </row>
     <row r="175" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B175" s="171"/>
-      <c r="C175" s="172" t="s">
+      <c r="B175" s="170"/>
+      <c r="C175" s="171" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -16154,8 +16149,8 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B176" s="171"/>
-      <c r="C176" s="172"/>
+      <c r="B176" s="170"/>
+      <c r="C176" s="171"/>
       <c r="E176" s="77" t="s">
         <v>263</v>
       </c>
@@ -16184,8 +16179,8 @@
       <c r="R176" s="36"/>
     </row>
     <row r="177" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B177" s="171"/>
-      <c r="C177" s="172"/>
+      <c r="B177" s="170"/>
+      <c r="C177" s="171"/>
       <c r="E177" s="77" t="s">
         <v>32</v>
       </c>
@@ -16214,8 +16209,8 @@
       <c r="R177" s="36"/>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B178" s="171"/>
-      <c r="C178" s="172"/>
+      <c r="B178" s="170"/>
+      <c r="C178" s="171"/>
       <c r="E178" s="77" t="s">
         <v>335</v>
       </c>
@@ -16244,8 +16239,8 @@
       <c r="R178" s="36"/>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B179" s="171"/>
-      <c r="C179" s="172" t="s">
+      <c r="B179" s="170"/>
+      <c r="C179" s="171" t="s">
         <v>33</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -16295,8 +16290,8 @@
       </c>
     </row>
     <row r="180" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B180" s="171"/>
-      <c r="C180" s="172"/>
+      <c r="B180" s="170"/>
+      <c r="C180" s="171"/>
       <c r="E180" s="77" t="s">
         <v>263</v>
       </c>
@@ -16325,8 +16320,8 @@
       <c r="R180" s="36"/>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B181" s="171"/>
-      <c r="C181" s="172"/>
+      <c r="B181" s="170"/>
+      <c r="C181" s="171"/>
       <c r="E181" s="77" t="s">
         <v>32</v>
       </c>
@@ -16355,8 +16350,8 @@
       <c r="R181" s="36"/>
     </row>
     <row r="182" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B182" s="171"/>
-      <c r="C182" s="172"/>
+      <c r="B182" s="170"/>
+      <c r="C182" s="171"/>
       <c r="E182" s="77" t="s">
         <v>392</v>
       </c>
@@ -16385,8 +16380,8 @@
       <c r="R182" s="36"/>
     </row>
     <row r="183" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B183" s="171"/>
-      <c r="C183" s="172"/>
+      <c r="B183" s="170"/>
+      <c r="C183" s="171"/>
       <c r="E183" s="77" t="s">
         <v>393</v>
       </c>
@@ -16415,8 +16410,8 @@
       <c r="R183" s="36"/>
     </row>
     <row r="184" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B184" s="171"/>
-      <c r="C184" s="172"/>
+      <c r="B184" s="170"/>
+      <c r="C184" s="171"/>
       <c r="E184" s="77" t="s">
         <v>394</v>
       </c>
@@ -16445,8 +16440,8 @@
       <c r="R184" s="36"/>
     </row>
     <row r="185" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B185" s="171"/>
-      <c r="C185" s="172"/>
+      <c r="B185" s="170"/>
+      <c r="C185" s="171"/>
       <c r="E185" s="77" t="s">
         <v>395</v>
       </c>
@@ -16475,8 +16470,8 @@
       <c r="R185" s="36"/>
     </row>
     <row r="186" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B186" s="171"/>
-      <c r="C186" s="172"/>
+      <c r="B186" s="170"/>
+      <c r="C186" s="171"/>
       <c r="E186" s="77" t="s">
         <v>396</v>
       </c>
@@ -16505,8 +16500,8 @@
       <c r="R186" s="36"/>
     </row>
     <row r="187" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B187" s="171"/>
-      <c r="C187" s="172" t="s">
+      <c r="B187" s="170"/>
+      <c r="C187" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -16554,8 +16549,8 @@
       </c>
     </row>
     <row r="188" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B188" s="171"/>
-      <c r="C188" s="172"/>
+      <c r="B188" s="170"/>
+      <c r="C188" s="171"/>
       <c r="E188" s="77" t="s">
         <v>263</v>
       </c>
@@ -16582,8 +16577,8 @@
       <c r="R188" s="36"/>
     </row>
     <row r="189" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B189" s="171"/>
-      <c r="C189" s="172" t="s">
+      <c r="B189" s="170"/>
+      <c r="C189" s="171" t="s">
         <v>41</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -16633,8 +16628,8 @@
       </c>
     </row>
     <row r="190" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B190" s="171"/>
-      <c r="C190" s="172"/>
+      <c r="B190" s="170"/>
+      <c r="C190" s="171"/>
       <c r="E190" s="77" t="s">
         <v>263</v>
       </c>
@@ -16663,8 +16658,8 @@
       <c r="R190" s="36"/>
     </row>
     <row r="191" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B191" s="171"/>
-      <c r="C191" s="172"/>
+      <c r="B191" s="170"/>
+      <c r="C191" s="171"/>
       <c r="E191" s="77" t="s">
         <v>335</v>
       </c>
@@ -16693,8 +16688,8 @@
       <c r="R191" s="36"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B192" s="171"/>
-      <c r="C192" s="172" t="s">
+      <c r="B192" s="170"/>
+      <c r="C192" s="171" t="s">
         <v>42</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -16744,8 +16739,8 @@
       </c>
     </row>
     <row r="193" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B193" s="171"/>
-      <c r="C193" s="172"/>
+      <c r="B193" s="170"/>
+      <c r="C193" s="171"/>
       <c r="E193" s="77" t="s">
         <v>263</v>
       </c>
@@ -16774,8 +16769,8 @@
       <c r="R193" s="36"/>
     </row>
     <row r="194" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B194" s="171"/>
-      <c r="C194" s="172"/>
+      <c r="B194" s="170"/>
+      <c r="C194" s="171"/>
       <c r="E194" s="77" t="s">
         <v>32</v>
       </c>
@@ -16804,8 +16799,8 @@
       <c r="R194" s="36"/>
     </row>
     <row r="195" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B195" s="171"/>
-      <c r="C195" s="172"/>
+      <c r="B195" s="170"/>
+      <c r="C195" s="171"/>
       <c r="E195" s="77" t="s">
         <v>335</v>
       </c>
@@ -16834,8 +16829,8 @@
       <c r="R195" s="36"/>
     </row>
     <row r="196" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B196" s="171"/>
-      <c r="C196" s="172" t="s">
+      <c r="B196" s="170"/>
+      <c r="C196" s="171" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -16885,8 +16880,8 @@
       </c>
     </row>
     <row r="197" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B197" s="171"/>
-      <c r="C197" s="172"/>
+      <c r="B197" s="170"/>
+      <c r="C197" s="171"/>
       <c r="E197" s="1" t="s">
         <v>263</v>
       </c>
@@ -16915,8 +16910,8 @@
       <c r="R197" s="36"/>
     </row>
     <row r="198" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B198" s="171"/>
-      <c r="C198" s="172"/>
+      <c r="B198" s="170"/>
+      <c r="C198" s="171"/>
       <c r="E198" s="1" t="s">
         <v>335</v>
       </c>
@@ -16945,8 +16940,8 @@
       <c r="R198" s="36"/>
     </row>
     <row r="199" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B199" s="171"/>
-      <c r="C199" s="172"/>
+      <c r="B199" s="170"/>
+      <c r="C199" s="171"/>
       <c r="E199" s="1" t="s">
         <v>32</v>
       </c>
@@ -16975,8 +16970,8 @@
       <c r="R199" s="36"/>
     </row>
     <row r="200" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B200" s="175"/>
-      <c r="C200" s="174"/>
+      <c r="B200" s="174"/>
+      <c r="C200" s="173"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13" t="s">
         <v>446</v>
@@ -17006,29 +17001,29 @@
       <c r="R200" s="87"/>
     </row>
     <row r="206" spans="2:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U206" s="165" t="s">
+      <c r="U206" s="164" t="s">
         <v>349</v>
       </c>
-      <c r="V206" s="165"/>
-      <c r="W206" s="165"/>
-      <c r="X206" s="165"/>
-      <c r="Y206" s="165"/>
-      <c r="Z206" s="165"/>
-      <c r="AA206" s="165"/>
-      <c r="AB206" s="165"/>
-      <c r="AC206" s="165"/>
-      <c r="AD206" s="165"/>
-      <c r="AE206" s="165"/>
-      <c r="AF206" s="165"/>
-      <c r="AG206" s="165"/>
-      <c r="AH206" s="165"/>
-      <c r="AI206" s="165"/>
-      <c r="AJ206" s="165"/>
-      <c r="AK206" s="165"/>
-      <c r="AL206" s="165"/>
-      <c r="AM206" s="165"/>
-      <c r="AN206" s="165"/>
-      <c r="AO206" s="165"/>
+      <c r="V206" s="164"/>
+      <c r="W206" s="164"/>
+      <c r="X206" s="164"/>
+      <c r="Y206" s="164"/>
+      <c r="Z206" s="164"/>
+      <c r="AA206" s="164"/>
+      <c r="AB206" s="164"/>
+      <c r="AC206" s="164"/>
+      <c r="AD206" s="164"/>
+      <c r="AE206" s="164"/>
+      <c r="AF206" s="164"/>
+      <c r="AG206" s="164"/>
+      <c r="AH206" s="164"/>
+      <c r="AI206" s="164"/>
+      <c r="AJ206" s="164"/>
+      <c r="AK206" s="164"/>
+      <c r="AL206" s="164"/>
+      <c r="AM206" s="164"/>
+      <c r="AN206" s="164"/>
+      <c r="AO206" s="164"/>
     </row>
     <row r="207" spans="2:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U207" s="13" t="s">
@@ -17308,29 +17303,29 @@
       <c r="AO211" s="13"/>
     </row>
     <row r="213" spans="21:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U213" s="165" t="s">
+      <c r="U213" s="164" t="s">
         <v>350</v>
       </c>
-      <c r="V213" s="165"/>
-      <c r="W213" s="165"/>
-      <c r="X213" s="165"/>
-      <c r="Y213" s="165"/>
-      <c r="Z213" s="165"/>
-      <c r="AA213" s="165"/>
-      <c r="AB213" s="165"/>
-      <c r="AC213" s="165"/>
-      <c r="AD213" s="165"/>
-      <c r="AE213" s="165"/>
-      <c r="AF213" s="165"/>
-      <c r="AG213" s="165"/>
-      <c r="AH213" s="165"/>
-      <c r="AI213" s="165"/>
-      <c r="AJ213" s="165"/>
-      <c r="AK213" s="165"/>
-      <c r="AL213" s="165"/>
-      <c r="AM213" s="165"/>
-      <c r="AN213" s="165"/>
-      <c r="AO213" s="165"/>
+      <c r="V213" s="164"/>
+      <c r="W213" s="164"/>
+      <c r="X213" s="164"/>
+      <c r="Y213" s="164"/>
+      <c r="Z213" s="164"/>
+      <c r="AA213" s="164"/>
+      <c r="AB213" s="164"/>
+      <c r="AC213" s="164"/>
+      <c r="AD213" s="164"/>
+      <c r="AE213" s="164"/>
+      <c r="AF213" s="164"/>
+      <c r="AG213" s="164"/>
+      <c r="AH213" s="164"/>
+      <c r="AI213" s="164"/>
+      <c r="AJ213" s="164"/>
+      <c r="AK213" s="164"/>
+      <c r="AL213" s="164"/>
+      <c r="AM213" s="164"/>
+      <c r="AN213" s="164"/>
+      <c r="AO213" s="164"/>
     </row>
     <row r="214" spans="21:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U214" s="13" t="s">
@@ -17626,29 +17621,29 @@
       </c>
     </row>
     <row r="221" spans="21:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U221" s="165" t="s">
+      <c r="U221" s="164" t="s">
         <v>352</v>
       </c>
-      <c r="V221" s="165"/>
-      <c r="W221" s="165"/>
-      <c r="X221" s="165"/>
-      <c r="Y221" s="165"/>
-      <c r="Z221" s="165"/>
-      <c r="AA221" s="165"/>
-      <c r="AB221" s="165"/>
-      <c r="AC221" s="165"/>
-      <c r="AD221" s="165"/>
-      <c r="AE221" s="165"/>
-      <c r="AF221" s="165"/>
-      <c r="AG221" s="165"/>
-      <c r="AH221" s="165"/>
-      <c r="AI221" s="165"/>
-      <c r="AJ221" s="165"/>
-      <c r="AK221" s="165"/>
-      <c r="AL221" s="165"/>
-      <c r="AM221" s="165"/>
-      <c r="AN221" s="165"/>
-      <c r="AO221" s="165"/>
+      <c r="V221" s="164"/>
+      <c r="W221" s="164"/>
+      <c r="X221" s="164"/>
+      <c r="Y221" s="164"/>
+      <c r="Z221" s="164"/>
+      <c r="AA221" s="164"/>
+      <c r="AB221" s="164"/>
+      <c r="AC221" s="164"/>
+      <c r="AD221" s="164"/>
+      <c r="AE221" s="164"/>
+      <c r="AF221" s="164"/>
+      <c r="AG221" s="164"/>
+      <c r="AH221" s="164"/>
+      <c r="AI221" s="164"/>
+      <c r="AJ221" s="164"/>
+      <c r="AK221" s="164"/>
+      <c r="AL221" s="164"/>
+      <c r="AM221" s="164"/>
+      <c r="AN221" s="164"/>
+      <c r="AO221" s="164"/>
     </row>
     <row r="222" spans="21:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U222" s="13" t="s">
@@ -17930,29 +17925,29 @@
       <c r="AO226" s="26"/>
     </row>
     <row r="229" spans="21:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U229" s="165" t="s">
+      <c r="U229" s="164" t="s">
         <v>355</v>
       </c>
-      <c r="V229" s="165"/>
-      <c r="W229" s="165"/>
-      <c r="X229" s="165"/>
-      <c r="Y229" s="165"/>
-      <c r="Z229" s="165"/>
-      <c r="AA229" s="165"/>
-      <c r="AB229" s="165"/>
-      <c r="AC229" s="165"/>
-      <c r="AD229" s="165"/>
-      <c r="AE229" s="165"/>
-      <c r="AF229" s="165"/>
-      <c r="AG229" s="165"/>
-      <c r="AH229" s="165"/>
-      <c r="AI229" s="165"/>
-      <c r="AJ229" s="165"/>
-      <c r="AK229" s="165"/>
-      <c r="AL229" s="165"/>
-      <c r="AM229" s="165"/>
-      <c r="AN229" s="165"/>
-      <c r="AO229" s="165"/>
+      <c r="V229" s="164"/>
+      <c r="W229" s="164"/>
+      <c r="X229" s="164"/>
+      <c r="Y229" s="164"/>
+      <c r="Z229" s="164"/>
+      <c r="AA229" s="164"/>
+      <c r="AB229" s="164"/>
+      <c r="AC229" s="164"/>
+      <c r="AD229" s="164"/>
+      <c r="AE229" s="164"/>
+      <c r="AF229" s="164"/>
+      <c r="AG229" s="164"/>
+      <c r="AH229" s="164"/>
+      <c r="AI229" s="164"/>
+      <c r="AJ229" s="164"/>
+      <c r="AK229" s="164"/>
+      <c r="AL229" s="164"/>
+      <c r="AM229" s="164"/>
+      <c r="AN229" s="164"/>
+      <c r="AO229" s="164"/>
     </row>
     <row r="230" spans="21:41" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U230" s="13" t="s">
@@ -18523,10 +18518,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E119337B-178C-1641-8548-9AE40C5AB899}">
-  <dimension ref="B1:AG182"/>
+  <dimension ref="B1:AG199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S101" workbookViewId="0">
-      <selection activeCell="V163" sqref="V163"/>
+    <sheetView topLeftCell="O136" workbookViewId="0">
+      <selection activeCell="W181" sqref="W181:W199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18538,14 +18533,7 @@
     <col min="5" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" style="1" customWidth="1"/>
-    <col min="9" max="22" width="10.83203125" style="1"/>
-    <col min="23" max="23" width="11.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="151"/>
-    <col min="25" max="25" width="10.83203125" style="1"/>
-    <col min="26" max="26" width="13.83203125" style="1" customWidth="1"/>
-    <col min="27" max="31" width="10.83203125" style="1"/>
-    <col min="32" max="32" width="14.5" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
@@ -18554,14 +18542,14 @@
       </c>
     </row>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -18585,7 +18573,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="157" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -18599,7 +18587,7 @@
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="159"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
@@ -18608,7 +18596,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="159"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -18617,7 +18605,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="159"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -18626,7 +18614,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="160"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
@@ -18638,7 +18626,7 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="157" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18652,7 +18640,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="159"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
@@ -18664,7 +18652,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="159"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -18676,7 +18664,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="159"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -18685,7 +18673,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="160"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -18697,7 +18685,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="157" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -18713,7 +18701,7 @@
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="159"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -18725,7 +18713,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="159"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -18740,7 +18728,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="159"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -18752,7 +18740,7 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="160"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -18766,7 +18754,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="159" t="s">
+      <c r="B19" s="158" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -18777,7 +18765,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="159"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -18786,7 +18774,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="159"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -18795,7 +18783,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="159"/>
+      <c r="B22" s="158"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -18804,7 +18792,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="160"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
@@ -18821,18 +18809,18 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="165" t="s">
+      <c r="J30" s="164" t="s">
         <v>274</v>
       </c>
-      <c r="K30" s="165"/>
-      <c r="L30" s="165"/>
-      <c r="M30" s="165"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="165"/>
-      <c r="P30" s="165"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="164"/>
+      <c r="S30" s="164"/>
     </row>
     <row r="31" spans="2:20" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J31" s="55" t="s">
@@ -18867,7 +18855,7 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J32" s="170" t="s">
+      <c r="J32" s="169" t="s">
         <v>79</v>
       </c>
       <c r="K32" s="14" t="s">
@@ -18881,7 +18869,7 @@
       </c>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J33" s="171"/>
+      <c r="J33" s="170"/>
       <c r="K33" s="14" t="s">
         <v>16</v>
       </c>
@@ -18890,7 +18878,7 @@
       </c>
     </row>
     <row r="34" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J34" s="171"/>
+      <c r="J34" s="170"/>
       <c r="K34" s="14" t="s">
         <v>17</v>
       </c>
@@ -18899,7 +18887,7 @@
       </c>
     </row>
     <row r="35" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J35" s="171"/>
+      <c r="J35" s="170"/>
       <c r="K35" s="14" t="s">
         <v>34</v>
       </c>
@@ -18908,7 +18896,7 @@
       </c>
     </row>
     <row r="36" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J36" s="171"/>
+      <c r="J36" s="170"/>
       <c r="K36" s="14" t="s">
         <v>35</v>
       </c>
@@ -18917,7 +18905,7 @@
       </c>
     </row>
     <row r="37" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J37" s="171"/>
+      <c r="J37" s="170"/>
       <c r="K37" s="14" t="s">
         <v>18</v>
       </c>
@@ -18929,7 +18917,7 @@
       </c>
     </row>
     <row r="38" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J38" s="171"/>
+      <c r="J38" s="170"/>
       <c r="K38" s="14" t="s">
         <v>37</v>
       </c>
@@ -18938,7 +18926,7 @@
       </c>
     </row>
     <row r="39" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J39" s="171"/>
+      <c r="J39" s="170"/>
       <c r="K39" s="14" t="s">
         <v>36</v>
       </c>
@@ -18947,7 +18935,7 @@
       </c>
     </row>
     <row r="40" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J40" s="171"/>
+      <c r="J40" s="170"/>
       <c r="K40" s="14" t="s">
         <v>12</v>
       </c>
@@ -18959,7 +18947,7 @@
       </c>
     </row>
     <row r="41" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J41" s="171"/>
+      <c r="J41" s="170"/>
       <c r="K41" s="14" t="s">
         <v>19</v>
       </c>
@@ -18971,7 +18959,7 @@
       </c>
     </row>
     <row r="42" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="171"/>
+      <c r="J42" s="170"/>
       <c r="K42" s="14" t="s">
         <v>13</v>
       </c>
@@ -18983,7 +18971,7 @@
       </c>
     </row>
     <row r="43" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J43" s="171"/>
+      <c r="J43" s="170"/>
       <c r="K43" s="14" t="s">
         <v>14</v>
       </c>
@@ -18992,7 +18980,7 @@
       </c>
     </row>
     <row r="44" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J44" s="171"/>
+      <c r="J44" s="170"/>
       <c r="K44" s="14" t="s">
         <v>38</v>
       </c>
@@ -19001,7 +18989,7 @@
       </c>
     </row>
     <row r="45" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J45" s="171"/>
+      <c r="J45" s="170"/>
       <c r="K45" s="14" t="s">
         <v>20</v>
       </c>
@@ -19013,7 +19001,7 @@
       </c>
     </row>
     <row r="46" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J46" s="171"/>
+      <c r="J46" s="170"/>
       <c r="K46" s="14" t="s">
         <v>33</v>
       </c>
@@ -19022,7 +19010,7 @@
       </c>
     </row>
     <row r="47" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J47" s="171"/>
+      <c r="J47" s="170"/>
       <c r="K47" s="14" t="s">
         <v>39</v>
       </c>
@@ -19034,7 +19022,7 @@
       </c>
     </row>
     <row r="48" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J48" s="171"/>
+      <c r="J48" s="170"/>
       <c r="K48" s="14" t="s">
         <v>41</v>
       </c>
@@ -19043,7 +19031,7 @@
       </c>
     </row>
     <row r="49" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J49" s="171"/>
+      <c r="J49" s="170"/>
       <c r="K49" s="14" t="s">
         <v>42</v>
       </c>
@@ -19052,7 +19040,7 @@
       </c>
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J50" s="171"/>
+      <c r="J50" s="170"/>
       <c r="K50" s="15" t="s">
         <v>15</v>
       </c>
@@ -19061,7 +19049,7 @@
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J51" s="170" t="s">
+      <c r="J51" s="169" t="s">
         <v>80</v>
       </c>
       <c r="K51" s="14" t="s">
@@ -19072,7 +19060,7 @@
       </c>
     </row>
     <row r="52" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J52" s="171"/>
+      <c r="J52" s="170"/>
       <c r="K52" s="14" t="s">
         <v>16</v>
       </c>
@@ -19081,7 +19069,7 @@
       </c>
     </row>
     <row r="53" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J53" s="171"/>
+      <c r="J53" s="170"/>
       <c r="K53" s="14" t="s">
         <v>17</v>
       </c>
@@ -19090,7 +19078,7 @@
       </c>
     </row>
     <row r="54" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J54" s="171"/>
+      <c r="J54" s="170"/>
       <c r="K54" s="14" t="s">
         <v>34</v>
       </c>
@@ -19099,7 +19087,7 @@
       </c>
     </row>
     <row r="55" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J55" s="171"/>
+      <c r="J55" s="170"/>
       <c r="K55" s="14" t="s">
         <v>35</v>
       </c>
@@ -19108,7 +19096,7 @@
       </c>
     </row>
     <row r="56" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J56" s="171"/>
+      <c r="J56" s="170"/>
       <c r="K56" s="14" t="s">
         <v>18</v>
       </c>
@@ -19117,7 +19105,7 @@
       </c>
     </row>
     <row r="57" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J57" s="171"/>
+      <c r="J57" s="170"/>
       <c r="K57" s="14" t="s">
         <v>37</v>
       </c>
@@ -19129,7 +19117,7 @@
       </c>
     </row>
     <row r="58" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J58" s="171"/>
+      <c r="J58" s="170"/>
       <c r="K58" s="14" t="s">
         <v>36</v>
       </c>
@@ -19138,7 +19126,7 @@
       </c>
     </row>
     <row r="59" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J59" s="171"/>
+      <c r="J59" s="170"/>
       <c r="K59" s="14" t="s">
         <v>12</v>
       </c>
@@ -19150,7 +19138,7 @@
       </c>
     </row>
     <row r="60" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J60" s="171"/>
+      <c r="J60" s="170"/>
       <c r="K60" s="14" t="s">
         <v>19</v>
       </c>
@@ -19159,7 +19147,7 @@
       </c>
     </row>
     <row r="61" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J61" s="171"/>
+      <c r="J61" s="170"/>
       <c r="K61" s="14" t="s">
         <v>13</v>
       </c>
@@ -19171,7 +19159,7 @@
       </c>
     </row>
     <row r="62" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J62" s="171"/>
+      <c r="J62" s="170"/>
       <c r="K62" s="14" t="s">
         <v>14</v>
       </c>
@@ -19180,7 +19168,7 @@
       </c>
     </row>
     <row r="63" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J63" s="171"/>
+      <c r="J63" s="170"/>
       <c r="K63" s="14" t="s">
         <v>38</v>
       </c>
@@ -19192,7 +19180,7 @@
       </c>
     </row>
     <row r="64" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J64" s="171"/>
+      <c r="J64" s="170"/>
       <c r="K64" s="14" t="s">
         <v>20</v>
       </c>
@@ -19204,7 +19192,7 @@
       </c>
     </row>
     <row r="65" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J65" s="171"/>
+      <c r="J65" s="170"/>
       <c r="K65" s="14" t="s">
         <v>33</v>
       </c>
@@ -19216,7 +19204,7 @@
       </c>
     </row>
     <row r="66" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J66" s="171"/>
+      <c r="J66" s="170"/>
       <c r="K66" s="14" t="s">
         <v>39</v>
       </c>
@@ -19228,7 +19216,7 @@
       </c>
     </row>
     <row r="67" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J67" s="171"/>
+      <c r="J67" s="170"/>
       <c r="K67" s="14" t="s">
         <v>41</v>
       </c>
@@ -19237,7 +19225,7 @@
       </c>
     </row>
     <row r="68" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J68" s="171"/>
+      <c r="J68" s="170"/>
       <c r="K68" s="14" t="s">
         <v>42</v>
       </c>
@@ -19249,7 +19237,7 @@
       </c>
     </row>
     <row r="69" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J69" s="171"/>
+      <c r="J69" s="170"/>
       <c r="K69" s="15" t="s">
         <v>15</v>
       </c>
@@ -19258,7 +19246,7 @@
       </c>
     </row>
     <row r="70" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J70" s="170" t="s">
+      <c r="J70" s="169" t="s">
         <v>81</v>
       </c>
       <c r="K70" s="14" t="s">
@@ -19272,7 +19260,7 @@
       </c>
     </row>
     <row r="71" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J71" s="171"/>
+      <c r="J71" s="170"/>
       <c r="K71" s="14" t="s">
         <v>16</v>
       </c>
@@ -19281,7 +19269,7 @@
       </c>
     </row>
     <row r="72" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J72" s="171"/>
+      <c r="J72" s="170"/>
       <c r="K72" s="14" t="s">
         <v>17</v>
       </c>
@@ -19293,7 +19281,7 @@
       </c>
     </row>
     <row r="73" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J73" s="171"/>
+      <c r="J73" s="170"/>
       <c r="K73" s="14" t="s">
         <v>34</v>
       </c>
@@ -19302,7 +19290,7 @@
       </c>
     </row>
     <row r="74" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J74" s="171"/>
+      <c r="J74" s="170"/>
       <c r="K74" s="14" t="s">
         <v>35</v>
       </c>
@@ -19311,7 +19299,7 @@
       </c>
     </row>
     <row r="75" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J75" s="171"/>
+      <c r="J75" s="170"/>
       <c r="K75" s="14" t="s">
         <v>18</v>
       </c>
@@ -19323,7 +19311,7 @@
       </c>
     </row>
     <row r="76" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J76" s="171"/>
+      <c r="J76" s="170"/>
       <c r="K76" s="14" t="s">
         <v>37</v>
       </c>
@@ -19332,7 +19320,7 @@
       </c>
     </row>
     <row r="77" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J77" s="171"/>
+      <c r="J77" s="170"/>
       <c r="K77" s="14" t="s">
         <v>36</v>
       </c>
@@ -19344,7 +19332,7 @@
       </c>
     </row>
     <row r="78" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J78" s="171"/>
+      <c r="J78" s="170"/>
       <c r="K78" s="14" t="s">
         <v>12</v>
       </c>
@@ -19353,7 +19341,7 @@
       </c>
     </row>
     <row r="79" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J79" s="171"/>
+      <c r="J79" s="170"/>
       <c r="K79" s="14" t="s">
         <v>19</v>
       </c>
@@ -19365,7 +19353,7 @@
       </c>
     </row>
     <row r="80" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J80" s="171"/>
+      <c r="J80" s="170"/>
       <c r="K80" s="14" t="s">
         <v>13</v>
       </c>
@@ -19377,7 +19365,7 @@
       </c>
     </row>
     <row r="81" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J81" s="171"/>
+      <c r="J81" s="170"/>
       <c r="K81" s="14" t="s">
         <v>14</v>
       </c>
@@ -19389,7 +19377,7 @@
       </c>
     </row>
     <row r="82" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J82" s="171"/>
+      <c r="J82" s="170"/>
       <c r="K82" s="14" t="s">
         <v>38</v>
       </c>
@@ -19404,7 +19392,7 @@
       </c>
     </row>
     <row r="83" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J83" s="171"/>
+      <c r="J83" s="170"/>
       <c r="K83" s="14" t="s">
         <v>20</v>
       </c>
@@ -19413,7 +19401,7 @@
       </c>
     </row>
     <row r="84" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J84" s="171"/>
+      <c r="J84" s="170"/>
       <c r="K84" s="14" t="s">
         <v>33</v>
       </c>
@@ -19422,7 +19410,7 @@
       </c>
     </row>
     <row r="85" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J85" s="171"/>
+      <c r="J85" s="170"/>
       <c r="K85" s="14" t="s">
         <v>39</v>
       </c>
@@ -19431,7 +19419,7 @@
       </c>
     </row>
     <row r="86" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J86" s="171"/>
+      <c r="J86" s="170"/>
       <c r="K86" s="14" t="s">
         <v>41</v>
       </c>
@@ -19446,7 +19434,7 @@
       </c>
     </row>
     <row r="87" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J87" s="171"/>
+      <c r="J87" s="170"/>
       <c r="K87" s="14" t="s">
         <v>42</v>
       </c>
@@ -19455,7 +19443,7 @@
       </c>
     </row>
     <row r="88" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J88" s="171"/>
+      <c r="J88" s="170"/>
       <c r="K88" s="15" t="s">
         <v>15</v>
       </c>
@@ -19467,7 +19455,7 @@
       </c>
     </row>
     <row r="89" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J89" s="170" t="s">
+      <c r="J89" s="169" t="s">
         <v>82</v>
       </c>
       <c r="K89" s="14" t="s">
@@ -19475,132 +19463,132 @@
       </c>
     </row>
     <row r="90" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J90" s="171"/>
+      <c r="J90" s="170"/>
       <c r="K90" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J91" s="171"/>
+      <c r="J91" s="170"/>
       <c r="K91" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J92" s="171"/>
+      <c r="J92" s="170"/>
       <c r="K92" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="93" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J93" s="171"/>
+      <c r="J93" s="170"/>
       <c r="K93" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J94" s="171"/>
+      <c r="J94" s="170"/>
       <c r="K94" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J95" s="171"/>
+      <c r="J95" s="170"/>
       <c r="K95" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="96" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J96" s="171"/>
+      <c r="J96" s="170"/>
       <c r="K96" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J97" s="171"/>
+      <c r="J97" s="170"/>
       <c r="K97" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J98" s="171"/>
+      <c r="J98" s="170"/>
       <c r="K98" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="99" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J99" s="171"/>
+      <c r="J99" s="170"/>
       <c r="K99" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J100" s="171"/>
+      <c r="J100" s="170"/>
       <c r="K100" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J101" s="171"/>
+      <c r="J101" s="170"/>
       <c r="K101" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J102" s="171"/>
+      <c r="J102" s="170"/>
       <c r="K102" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J103" s="171"/>
+      <c r="J103" s="170"/>
       <c r="K103" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="104" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J104" s="171"/>
+      <c r="J104" s="170"/>
       <c r="K104" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="105" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J105" s="171"/>
+      <c r="J105" s="170"/>
       <c r="K105" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="106" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J106" s="171"/>
+      <c r="J106" s="170"/>
       <c r="K106" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="107" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J107" s="171"/>
+      <c r="J107" s="170"/>
       <c r="K107" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="23:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="W113" s="165" t="s">
+      <c r="W113" s="164" t="s">
         <v>451</v>
       </c>
-      <c r="X113" s="165"/>
-      <c r="Y113" s="165"/>
-      <c r="Z113" s="165"/>
-      <c r="AA113" s="165"/>
-      <c r="AB113" s="165"/>
-      <c r="AC113" s="165"/>
-      <c r="AD113" s="165"/>
-      <c r="AE113" s="165"/>
-      <c r="AF113" s="165"/>
-    </row>
-    <row r="114" spans="23:33" ht="52" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="X113" s="164"/>
+      <c r="Y113" s="164"/>
+      <c r="Z113" s="164"/>
+      <c r="AA113" s="164"/>
+      <c r="AB113" s="164"/>
+      <c r="AC113" s="164"/>
+      <c r="AD113" s="164"/>
+      <c r="AE113" s="164"/>
+      <c r="AF113" s="164"/>
+    </row>
+    <row r="114" spans="23:33" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="W114" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="X114" s="188" t="s">
+      <c r="X114" s="55" t="s">
         <v>275</v>
       </c>
       <c r="Y114" s="55" t="s">
@@ -19609,33 +19597,33 @@
       <c r="Z114" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="AA114" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB114" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="AC114" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="AD114" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="AE114" s="13" t="s">
+      <c r="AA114" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB114" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC114" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD114" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="AF114" s="26" t="s">
-        <v>336</v>
+      <c r="AE114" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF114" s="55" t="s">
+        <v>278</v>
       </c>
       <c r="AG114" s="55" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="115" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W115" s="181" t="s">
+      <c r="W115" s="180" t="s">
         <v>452</v>
       </c>
-      <c r="X115" s="189" t="s">
+      <c r="X115" s="14" t="s">
         <v>40</v>
       </c>
       <c r="Y115" s="1" t="s">
@@ -19646,8 +19634,8 @@
       </c>
     </row>
     <row r="116" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W116" s="171"/>
-      <c r="X116" s="189" t="s">
+      <c r="W116" s="170"/>
+      <c r="X116" s="14" t="s">
         <v>16</v>
       </c>
       <c r="Y116" s="1" t="s">
@@ -19658,8 +19646,8 @@
       </c>
     </row>
     <row r="117" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W117" s="171"/>
-      <c r="X117" s="189" t="s">
+      <c r="W117" s="170"/>
+      <c r="X117" s="14" t="s">
         <v>17</v>
       </c>
       <c r="Y117" s="1" t="s">
@@ -19670,8 +19658,8 @@
       </c>
     </row>
     <row r="118" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W118" s="171"/>
-      <c r="X118" s="189" t="s">
+      <c r="W118" s="170"/>
+      <c r="X118" s="14" t="s">
         <v>34</v>
       </c>
       <c r="Y118" s="1" t="s">
@@ -19682,8 +19670,8 @@
       </c>
     </row>
     <row r="119" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W119" s="171"/>
-      <c r="X119" s="189" t="s">
+      <c r="W119" s="170"/>
+      <c r="X119" s="14" t="s">
         <v>35</v>
       </c>
       <c r="Y119" s="1" t="s">
@@ -19694,8 +19682,8 @@
       </c>
     </row>
     <row r="120" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W120" s="171"/>
-      <c r="X120" s="189" t="s">
+      <c r="W120" s="170"/>
+      <c r="X120" s="14" t="s">
         <v>18</v>
       </c>
       <c r="Y120" s="1" t="s">
@@ -19706,8 +19694,8 @@
       </c>
     </row>
     <row r="121" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W121" s="171"/>
-      <c r="X121" s="189" t="s">
+      <c r="W121" s="170"/>
+      <c r="X121" s="14" t="s">
         <v>37</v>
       </c>
       <c r="Y121" s="1" t="s">
@@ -19718,8 +19706,8 @@
       </c>
     </row>
     <row r="122" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W122" s="171"/>
-      <c r="X122" s="189" t="s">
+      <c r="W122" s="170"/>
+      <c r="X122" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y122" s="1" t="s">
@@ -19730,8 +19718,8 @@
       </c>
     </row>
     <row r="123" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W123" s="171"/>
-      <c r="X123" s="189" t="s">
+      <c r="W123" s="170"/>
+      <c r="X123" s="14" t="s">
         <v>12</v>
       </c>
       <c r="Y123" s="1" t="s">
@@ -19742,8 +19730,8 @@
       </c>
     </row>
     <row r="124" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W124" s="171"/>
-      <c r="X124" s="189" t="s">
+      <c r="W124" s="170"/>
+      <c r="X124" s="14" t="s">
         <v>19</v>
       </c>
       <c r="Y124" s="1" t="s">
@@ -19754,8 +19742,8 @@
       </c>
     </row>
     <row r="125" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W125" s="171"/>
-      <c r="X125" s="189" t="s">
+      <c r="W125" s="170"/>
+      <c r="X125" s="14" t="s">
         <v>13</v>
       </c>
       <c r="Y125" s="1" t="s">
@@ -19766,8 +19754,8 @@
       </c>
     </row>
     <row r="126" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W126" s="171"/>
-      <c r="X126" s="189" t="s">
+      <c r="W126" s="170"/>
+      <c r="X126" s="14" t="s">
         <v>14</v>
       </c>
       <c r="Y126" s="1" t="s">
@@ -19778,153 +19766,55 @@
       </c>
     </row>
     <row r="127" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W127" s="171"/>
-      <c r="X127" s="187" t="s">
+      <c r="W127" s="170"/>
+      <c r="X127" s="14" t="s">
         <v>38</v>
       </c>
       <c r="Y127" s="1" t="s">
         <v>454</v>
       </c>
       <c r="Z127" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA127" s="36">
-        <v>-3.3371599999999999</v>
-      </c>
-      <c r="AB127" s="36">
-        <v>0.45294000000000001</v>
-      </c>
-      <c r="AC127" s="36">
-        <v>188.05922000000001</v>
-      </c>
-      <c r="AD127" s="36">
-        <v>-7.3680000000000003</v>
-      </c>
-      <c r="AE127" s="36">
-        <v>5.3099999999999998E-12</v>
-      </c>
-      <c r="AF127" s="162" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="128" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W128" s="170"/>
+      <c r="X128" s="14"/>
+      <c r="Z128" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="129" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W129" s="170"/>
+      <c r="X129" s="14"/>
+      <c r="Z129" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="130" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W130" s="170"/>
+      <c r="X130" s="14"/>
+      <c r="Z130" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="131" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W131" s="170"/>
+      <c r="X131" s="14"/>
+      <c r="Z131" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="128" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W128" s="171"/>
-      <c r="X128" s="187"/>
-      <c r="Z128" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA128" s="36">
-        <v>0.59692999999999996</v>
-      </c>
-      <c r="AB128" s="36">
-        <v>0.11211</v>
-      </c>
-      <c r="AC128" s="36">
-        <v>158.15506999999999</v>
-      </c>
-      <c r="AD128" s="36">
-        <v>5.3250000000000002</v>
-      </c>
-      <c r="AE128" s="36">
-        <v>3.4200000000000002E-7</v>
-      </c>
-      <c r="AF128" s="162"/>
-    </row>
-    <row r="129" spans="23:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="W129" s="171"/>
-      <c r="X129" s="187"/>
-      <c r="Z129" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA129" s="36">
-        <v>0.3775</v>
-      </c>
-      <c r="AB129" s="36">
-        <v>0.16711999999999999</v>
-      </c>
-      <c r="AC129" s="36">
-        <v>48.974719999999998</v>
-      </c>
-      <c r="AD129" s="36">
-        <v>2.2589999999999999</v>
-      </c>
-      <c r="AE129" s="36">
-        <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="AF129" s="162"/>
-    </row>
-    <row r="130" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W130" s="171"/>
-      <c r="X130" s="187"/>
-      <c r="Z130" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA130" s="36">
-        <v>0.47586000000000001</v>
-      </c>
-      <c r="AB130" s="36">
-        <v>7.5259999999999994E-2</v>
-      </c>
-      <c r="AC130" s="36">
-        <v>178.13601</v>
-      </c>
-      <c r="AD130" s="36">
-        <v>6.3230000000000004</v>
-      </c>
-      <c r="AE130" s="36">
-        <v>2.0099999999999999E-9</v>
-      </c>
-      <c r="AF130" s="162"/>
-    </row>
-    <row r="131" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W131" s="171"/>
-      <c r="X131" s="187"/>
-      <c r="Z131" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="AA131" s="36">
-        <v>-0.20882999999999999</v>
-      </c>
-      <c r="AB131" s="36">
-        <v>9.1579999999999995E-2</v>
-      </c>
-      <c r="AC131" s="36">
-        <v>68.481859999999998</v>
-      </c>
-      <c r="AD131" s="36">
-        <v>-2.2799999999999998</v>
-      </c>
-      <c r="AE131" s="36">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="AF131" s="162"/>
-    </row>
-    <row r="132" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W132" s="171"/>
-      <c r="X132" s="187"/>
+    <row r="132" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W132" s="170"/>
+      <c r="X132" s="14"/>
       <c r="Z132" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA132" s="36">
-        <v>5.1639999999999998E-2</v>
-      </c>
-      <c r="AB132" s="36">
-        <v>0.13755000000000001</v>
-      </c>
-      <c r="AC132" s="36">
-        <v>163.38622000000001</v>
-      </c>
-      <c r="AD132" s="36">
-        <v>0.375</v>
-      </c>
-      <c r="AE132" s="36">
-        <v>0.70779999999999998</v>
-      </c>
-      <c r="AF132" s="162"/>
-    </row>
-    <row r="133" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W133" s="171"/>
-      <c r="X133" s="189" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="133" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W133" s="170"/>
+      <c r="X133" s="14" t="s">
         <v>20</v>
       </c>
       <c r="Y133" s="1" t="s">
@@ -19933,15 +19823,10 @@
       <c r="Z133" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA133" s="36"/>
-      <c r="AB133" s="36"/>
-      <c r="AC133" s="36"/>
-      <c r="AD133" s="36"/>
-      <c r="AE133" s="36"/>
-    </row>
-    <row r="134" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W134" s="171"/>
-      <c r="X134" s="189" t="s">
+    </row>
+    <row r="134" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W134" s="170"/>
+      <c r="X134" s="14" t="s">
         <v>33</v>
       </c>
       <c r="Y134" s="1" t="s">
@@ -19950,15 +19835,10 @@
       <c r="Z134" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA134" s="36"/>
-      <c r="AB134" s="36"/>
-      <c r="AC134" s="36"/>
-      <c r="AD134" s="36"/>
-      <c r="AE134" s="36"/>
-    </row>
-    <row r="135" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W135" s="171"/>
-      <c r="X135" s="189" t="s">
+    </row>
+    <row r="135" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W135" s="170"/>
+      <c r="X135" s="14" t="s">
         <v>39</v>
       </c>
       <c r="Y135" s="1" t="s">
@@ -19967,68 +19847,48 @@
       <c r="Z135" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA135" s="36"/>
-      <c r="AB135" s="36"/>
-      <c r="AC135" s="36"/>
-      <c r="AD135" s="36"/>
-      <c r="AE135" s="36"/>
-    </row>
-    <row r="136" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W136" s="171"/>
-      <c r="X136" s="189" t="s">
+    </row>
+    <row r="136" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W136" s="170"/>
+      <c r="X136" s="14" t="s">
         <v>41</v>
       </c>
       <c r="Y136" s="62" t="s">
         <v>454</v>
       </c>
-      <c r="Z136" s="61" t="s">
+      <c r="Z136" s="62" t="s">
         <v>453</v>
       </c>
-      <c r="AA136" s="36"/>
-      <c r="AB136" s="36"/>
-      <c r="AC136" s="36"/>
-      <c r="AD136" s="36"/>
-      <c r="AE136" s="36"/>
-    </row>
-    <row r="137" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W137" s="171"/>
-      <c r="X137" s="189" t="s">
+    </row>
+    <row r="137" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W137" s="170"/>
+      <c r="X137" s="14" t="s">
         <v>42</v>
       </c>
       <c r="Y137" s="62" t="s">
         <v>454</v>
       </c>
-      <c r="Z137" s="61" t="s">
+      <c r="Z137" s="62" t="s">
         <v>453</v>
       </c>
-      <c r="AA137" s="36"/>
-      <c r="AB137" s="36"/>
-      <c r="AC137" s="36"/>
-      <c r="AD137" s="36"/>
-      <c r="AE137" s="36"/>
-    </row>
-    <row r="138" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W138" s="171"/>
-      <c r="X138" s="190" t="s">
+    </row>
+    <row r="138" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W138" s="170"/>
+      <c r="X138" s="15" t="s">
         <v>15</v>
       </c>
       <c r="Y138" s="62" t="s">
         <v>454</v>
       </c>
-      <c r="Z138" s="61" t="s">
+      <c r="Z138" s="62" t="s">
         <v>453</v>
       </c>
-      <c r="AA138" s="36"/>
-      <c r="AB138" s="36"/>
-      <c r="AC138" s="36"/>
-      <c r="AD138" s="36"/>
-      <c r="AE138" s="36"/>
-    </row>
-    <row r="139" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W139" s="181" t="s">
+    </row>
+    <row r="139" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W139" s="180" t="s">
         <v>461</v>
       </c>
-      <c r="X139" s="189" t="s">
+      <c r="X139" s="14" t="s">
         <v>40</v>
       </c>
       <c r="Y139" s="1" t="s">
@@ -20037,15 +19897,10 @@
       <c r="Z139" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA139" s="36"/>
-      <c r="AB139" s="36"/>
-      <c r="AC139" s="36"/>
-      <c r="AD139" s="36"/>
-      <c r="AE139" s="36"/>
-    </row>
-    <row r="140" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W140" s="171"/>
-      <c r="X140" s="189" t="s">
+    </row>
+    <row r="140" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W140" s="170"/>
+      <c r="X140" s="14" t="s">
         <v>16</v>
       </c>
       <c r="Y140" s="1" t="s">
@@ -20054,15 +19909,10 @@
       <c r="Z140" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA140" s="36"/>
-      <c r="AB140" s="36"/>
-      <c r="AC140" s="36"/>
-      <c r="AD140" s="36"/>
-      <c r="AE140" s="36"/>
-    </row>
-    <row r="141" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W141" s="171"/>
-      <c r="X141" s="189" t="s">
+    </row>
+    <row r="141" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W141" s="170"/>
+      <c r="X141" s="14" t="s">
         <v>17</v>
       </c>
       <c r="Y141" s="1" t="s">
@@ -20071,114 +19921,43 @@
       <c r="Z141" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA141" s="36"/>
-      <c r="AB141" s="36"/>
-      <c r="AC141" s="36"/>
-      <c r="AD141" s="36"/>
-      <c r="AE141" s="36"/>
-    </row>
-    <row r="142" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W142" s="171"/>
-      <c r="X142" s="187" t="s">
+    </row>
+    <row r="142" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W142" s="170"/>
+      <c r="X142" s="14" t="s">
         <v>34</v>
       </c>
       <c r="Y142" s="1" t="s">
         <v>454</v>
       </c>
       <c r="Z142" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA142" s="36">
-        <v>2.4348999999999998</v>
-      </c>
-      <c r="AB142" s="36">
-        <v>0.1837</v>
-      </c>
-      <c r="AC142" s="36">
-        <v>32.699199999999998</v>
-      </c>
-      <c r="AD142" s="36">
-        <v>13.257</v>
-      </c>
-      <c r="AE142" s="36">
-        <v>1.06E-14</v>
-      </c>
-      <c r="AF142" s="162" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="143" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W143" s="171"/>
-      <c r="X143" s="187"/>
+    <row r="143" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W143" s="170"/>
+      <c r="X143" s="14"/>
       <c r="Z143" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA143" s="36">
-        <v>0.93620000000000003</v>
-      </c>
-      <c r="AB143" s="36">
-        <v>0.1419</v>
-      </c>
-      <c r="AC143" s="36">
-        <v>81.593699999999998</v>
-      </c>
-      <c r="AD143" s="36">
-        <v>6.5960000000000001</v>
-      </c>
-      <c r="AE143" s="36">
-        <v>3.9199999999999997E-9</v>
-      </c>
-      <c r="AF143" s="162"/>
-    </row>
-    <row r="144" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W144" s="171"/>
-      <c r="X144" s="187"/>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="144" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W144" s="170"/>
+      <c r="X144" s="14"/>
       <c r="Z144" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA144" s="36">
-        <v>-0.30930000000000002</v>
-      </c>
-      <c r="AB144" s="36">
-        <v>0.1018</v>
-      </c>
-      <c r="AC144" s="36">
-        <v>20.6389</v>
-      </c>
-      <c r="AD144" s="36">
-        <v>-3.0369999999999999</v>
-      </c>
-      <c r="AE144" s="36">
-        <v>6.3499999999999997E-3</v>
-      </c>
-      <c r="AF144" s="162"/>
-    </row>
-    <row r="145" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W145" s="171"/>
-      <c r="X145" s="187"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="145" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W145" s="170"/>
+      <c r="X145" s="14"/>
       <c r="Z145" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="AA145" s="36">
-        <v>-0.42159999999999997</v>
-      </c>
-      <c r="AB145" s="36">
-        <v>0.2089</v>
-      </c>
-      <c r="AC145" s="36">
-        <v>23.707899999999999</v>
-      </c>
-      <c r="AD145" s="36">
-        <v>-2.0179999999999998</v>
-      </c>
-      <c r="AE145" s="36">
-        <v>5.5079999999999997E-2</v>
-      </c>
-      <c r="AF145" s="162"/>
-    </row>
-    <row r="146" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W146" s="171"/>
-      <c r="X146" s="189" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="146" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W146" s="170"/>
+      <c r="X146" s="14" t="s">
         <v>35</v>
       </c>
       <c r="Y146" s="1" t="s">
@@ -20187,15 +19966,10 @@
       <c r="Z146" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA146" s="36"/>
-      <c r="AB146" s="36"/>
-      <c r="AC146" s="36"/>
-      <c r="AD146" s="36"/>
-      <c r="AE146" s="36"/>
-    </row>
-    <row r="147" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W147" s="171"/>
-      <c r="X147" s="189" t="s">
+    </row>
+    <row r="147" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W147" s="170"/>
+      <c r="X147" s="14" t="s">
         <v>18</v>
       </c>
       <c r="Y147" s="1" t="s">
@@ -20204,15 +19978,10 @@
       <c r="Z147" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA147" s="36"/>
-      <c r="AB147" s="36"/>
-      <c r="AC147" s="36"/>
-      <c r="AD147" s="36"/>
-      <c r="AE147" s="36"/>
-    </row>
-    <row r="148" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W148" s="171"/>
-      <c r="X148" s="189" t="s">
+    </row>
+    <row r="148" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W148" s="170"/>
+      <c r="X148" s="14" t="s">
         <v>37</v>
       </c>
       <c r="Y148" s="1" t="s">
@@ -20221,15 +19990,10 @@
       <c r="Z148" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA148" s="36"/>
-      <c r="AB148" s="36"/>
-      <c r="AC148" s="36"/>
-      <c r="AD148" s="36"/>
-      <c r="AE148" s="36"/>
-    </row>
-    <row r="149" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W149" s="171"/>
-      <c r="X149" s="189" t="s">
+    </row>
+    <row r="149" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W149" s="170"/>
+      <c r="X149" s="14" t="s">
         <v>36</v>
       </c>
       <c r="Y149" s="1" t="s">
@@ -20238,15 +20002,10 @@
       <c r="Z149" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA149" s="36"/>
-      <c r="AB149" s="36"/>
-      <c r="AC149" s="36"/>
-      <c r="AD149" s="36"/>
-      <c r="AE149" s="36"/>
-    </row>
-    <row r="150" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W150" s="171"/>
-      <c r="X150" s="189" t="s">
+    </row>
+    <row r="150" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W150" s="170"/>
+      <c r="X150" s="14" t="s">
         <v>12</v>
       </c>
       <c r="Y150" s="1" t="s">
@@ -20255,15 +20014,10 @@
       <c r="Z150" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA150" s="36"/>
-      <c r="AB150" s="36"/>
-      <c r="AC150" s="36"/>
-      <c r="AD150" s="36"/>
-      <c r="AE150" s="36"/>
-    </row>
-    <row r="151" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W151" s="171"/>
-      <c r="X151" s="189" t="s">
+    </row>
+    <row r="151" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W151" s="170"/>
+      <c r="X151" s="14" t="s">
         <v>19</v>
       </c>
       <c r="Y151" s="1" t="s">
@@ -20272,15 +20026,10 @@
       <c r="Z151" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA151" s="36"/>
-      <c r="AB151" s="36"/>
-      <c r="AC151" s="36"/>
-      <c r="AD151" s="36"/>
-      <c r="AE151" s="36"/>
-    </row>
-    <row r="152" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W152" s="171"/>
-      <c r="X152" s="189" t="s">
+    </row>
+    <row r="152" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W152" s="170"/>
+      <c r="X152" s="14" t="s">
         <v>13</v>
       </c>
       <c r="Y152" s="1" t="s">
@@ -20289,15 +20038,10 @@
       <c r="Z152" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA152" s="36"/>
-      <c r="AB152" s="36"/>
-      <c r="AC152" s="36"/>
-      <c r="AD152" s="36"/>
-      <c r="AE152" s="36"/>
-    </row>
-    <row r="153" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W153" s="171"/>
-      <c r="X153" s="189" t="s">
+    </row>
+    <row r="153" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W153" s="170"/>
+      <c r="X153" s="14" t="s">
         <v>14</v>
       </c>
       <c r="Y153" s="1" t="s">
@@ -20306,15 +20050,10 @@
       <c r="Z153" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA153" s="36"/>
-      <c r="AB153" s="36"/>
-      <c r="AC153" s="36"/>
-      <c r="AD153" s="36"/>
-      <c r="AE153" s="36"/>
-    </row>
-    <row r="154" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W154" s="171"/>
-      <c r="X154" s="189" t="s">
+    </row>
+    <row r="154" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W154" s="170"/>
+      <c r="X154" s="14" t="s">
         <v>38</v>
       </c>
       <c r="Y154" s="1" t="s">
@@ -20323,15 +20062,10 @@
       <c r="Z154" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA154" s="36"/>
-      <c r="AB154" s="36"/>
-      <c r="AC154" s="36"/>
-      <c r="AD154" s="36"/>
-      <c r="AE154" s="36"/>
-    </row>
-    <row r="155" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W155" s="171"/>
-      <c r="X155" s="189" t="s">
+    </row>
+    <row r="155" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W155" s="170"/>
+      <c r="X155" s="14" t="s">
         <v>20</v>
       </c>
       <c r="Y155" s="1" t="s">
@@ -20340,567 +20074,315 @@
       <c r="Z155" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="AA155" s="36"/>
-      <c r="AB155" s="36"/>
-      <c r="AC155" s="36"/>
-      <c r="AD155" s="36"/>
-      <c r="AE155" s="36"/>
-    </row>
-    <row r="156" spans="23:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="W156" s="171"/>
-      <c r="X156" s="187" t="s">
+    </row>
+    <row r="156" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W156" s="170"/>
+      <c r="X156" s="14" t="s">
         <v>33</v>
       </c>
       <c r="Y156" s="1" t="s">
         <v>337</v>
       </c>
       <c r="Z156" s="61" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA156" s="36">
-        <v>-0.32240000000000002</v>
-      </c>
-      <c r="AB156" s="36">
-        <v>0.11559999999999999</v>
-      </c>
-      <c r="AD156" s="36">
-        <v>-2.7890000000000001</v>
-      </c>
-      <c r="AE156" s="36">
-        <v>6.3930000000000002E-3</v>
-      </c>
-      <c r="AF156" s="162" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="157" spans="23:32" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="W157" s="171"/>
-      <c r="X157" s="187"/>
-      <c r="Z157" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="AA157" s="36">
-        <v>-0.4617</v>
-      </c>
-      <c r="AB157" s="36">
-        <v>0.13350000000000001</v>
-      </c>
-      <c r="AD157" s="36">
-        <v>-3.4590000000000001</v>
-      </c>
-      <c r="AE157" s="36">
-        <v>8.1599999999999999E-4</v>
-      </c>
-      <c r="AF157" s="162"/>
-    </row>
-    <row r="158" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W158" s="171"/>
-      <c r="X158" s="189" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W157" s="170"/>
+      <c r="X157" s="14"/>
+      <c r="Z157" s="61" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="158" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W158" s="170"/>
+      <c r="X158" s="14" t="s">
         <v>39</v>
       </c>
       <c r="Y158" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="Z158" s="61" t="s">
+      <c r="Z158" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="AA158" s="36"/>
-      <c r="AB158" s="36"/>
-      <c r="AC158" s="36"/>
-      <c r="AD158" s="36"/>
-      <c r="AE158" s="36"/>
-      <c r="AF158" s="50"/>
-    </row>
-    <row r="159" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W159" s="171"/>
-      <c r="X159" s="189" t="s">
+    </row>
+    <row r="159" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W159" s="170"/>
+      <c r="X159" s="14" t="s">
         <v>41</v>
       </c>
       <c r="Y159" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="Z159" s="61" t="s">
+      <c r="Z159" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="AA159" s="36"/>
-      <c r="AB159" s="36"/>
-      <c r="AC159" s="36"/>
-      <c r="AD159" s="36"/>
-      <c r="AE159" s="36"/>
-      <c r="AF159" s="50"/>
-    </row>
-    <row r="160" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W160" s="171"/>
-      <c r="X160" s="189" t="s">
+    </row>
+    <row r="160" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W160" s="170"/>
+      <c r="X160" s="14" t="s">
         <v>42</v>
       </c>
       <c r="Y160" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="Z160" s="61" t="s">
+      <c r="Z160" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="AA160" s="36"/>
-      <c r="AB160" s="36"/>
-      <c r="AC160" s="36"/>
-      <c r="AD160" s="36"/>
-      <c r="AE160" s="36"/>
-    </row>
-    <row r="161" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W161" s="171"/>
-      <c r="X161" s="190" t="s">
+    </row>
+    <row r="161" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W161" s="170"/>
+      <c r="X161" s="15" t="s">
         <v>15</v>
       </c>
       <c r="Y161" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="Z161" s="61" t="s">
+      <c r="Z161" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="AA161" s="36"/>
-      <c r="AB161" s="36"/>
-      <c r="AC161" s="36"/>
-      <c r="AD161" s="36"/>
-      <c r="AE161" s="36"/>
-    </row>
-    <row r="162" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="V162" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="W162" s="181" t="s">
-        <v>455</v>
-      </c>
-      <c r="X162" s="189" t="s">
+    </row>
+    <row r="162" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W162" s="180" t="s">
+        <v>468</v>
+      </c>
+      <c r="X162" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Y162" s="182" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z162" s="61" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA162" s="186"/>
-      <c r="AB162" s="186"/>
-      <c r="AC162" s="186"/>
-      <c r="AD162" s="186"/>
-      <c r="AE162" s="186"/>
-      <c r="AF162" s="182"/>
-      <c r="AG162" s="182"/>
-    </row>
-    <row r="163" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W163" s="171"/>
-      <c r="X163" s="189" t="s">
+      <c r="Z162" s="61"/>
+    </row>
+    <row r="163" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W163" s="170"/>
+      <c r="X163" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Y163" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z163" s="61" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA163" s="186"/>
-      <c r="AB163" s="186"/>
-      <c r="AC163" s="186"/>
-      <c r="AD163" s="186"/>
-      <c r="AE163" s="186"/>
-      <c r="AF163" s="182"/>
-      <c r="AG163" s="182"/>
-    </row>
-    <row r="164" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W164" s="171"/>
-      <c r="X164" s="189" t="s">
+    </row>
+    <row r="164" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W164" s="170"/>
+      <c r="X164" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Y164" s="182" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z164" s="61" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA164" s="186"/>
-      <c r="AB164" s="186"/>
-      <c r="AC164" s="186"/>
-      <c r="AD164" s="186"/>
-      <c r="AE164" s="186"/>
-      <c r="AF164" s="182"/>
-      <c r="AG164" s="182"/>
-    </row>
-    <row r="165" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W165" s="171"/>
-      <c r="X165" s="189" t="s">
+    </row>
+    <row r="165" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W165" s="170"/>
+      <c r="X165" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Y165" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z165" s="61" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA165" s="186"/>
-      <c r="AB165" s="186"/>
-      <c r="AC165" s="186"/>
-      <c r="AD165" s="186"/>
-      <c r="AE165" s="186"/>
-      <c r="AF165" s="182"/>
-      <c r="AG165" s="182"/>
-    </row>
-    <row r="166" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W166" s="171"/>
-      <c r="X166" s="187" t="s">
+    </row>
+    <row r="166" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W166" s="170"/>
+      <c r="X166" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Y166" s="182"/>
-      <c r="Z166" s="183" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA166" s="186">
-        <v>-3.6413000000000002</v>
-      </c>
-      <c r="AB166" s="186">
-        <v>0.25559999999999999</v>
-      </c>
-      <c r="AC166" s="186">
-        <v>29.048200000000001</v>
-      </c>
-      <c r="AD166" s="186">
-        <v>-14.247</v>
-      </c>
-      <c r="AE166" s="186">
-        <v>1.2199999999999999E-14</v>
-      </c>
-      <c r="AF166" s="182"/>
-      <c r="AG166" s="182"/>
-    </row>
-    <row r="167" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W167" s="171"/>
-      <c r="X167" s="187"/>
-      <c r="Y167" s="182"/>
-      <c r="Z167" s="182" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA167" s="186">
-        <v>-0.6512</v>
-      </c>
-      <c r="AB167" s="186">
-        <v>0.14050000000000001</v>
-      </c>
-      <c r="AC167" s="186">
-        <v>29.339400000000001</v>
-      </c>
-      <c r="AD167" s="186">
-        <v>-4.6349999999999998</v>
-      </c>
-      <c r="AE167" s="186">
-        <v>6.8300000000000007E-5</v>
-      </c>
-      <c r="AF167" s="182"/>
-      <c r="AG167" s="182"/>
-    </row>
-    <row r="168" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W168" s="171"/>
-      <c r="X168" s="187"/>
-      <c r="Y168" s="182"/>
-      <c r="Z168" s="182" t="s">
-        <v>409</v>
-      </c>
-      <c r="AA168" s="186">
-        <v>0.77510000000000001</v>
-      </c>
-      <c r="AB168" s="186">
-        <v>0.30740000000000001</v>
-      </c>
-      <c r="AC168" s="186">
-        <v>29.959399999999999</v>
-      </c>
-      <c r="AD168" s="186">
-        <v>2.5209999999999999</v>
-      </c>
-      <c r="AE168" s="186">
-        <v>1.72E-2</v>
-      </c>
-      <c r="AF168" s="182"/>
-      <c r="AG168" s="182"/>
-    </row>
-    <row r="169" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W169" s="171"/>
-      <c r="X169" s="189" t="s">
+      <c r="Z166" s="61"/>
+    </row>
+    <row r="167" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W167" s="170"/>
+      <c r="X167" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y169" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z169" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA169" s="186"/>
-      <c r="AB169" s="186"/>
-      <c r="AC169" s="186"/>
-      <c r="AD169" s="186"/>
-      <c r="AE169" s="186"/>
-      <c r="AF169" s="182"/>
-      <c r="AG169" s="182"/>
-    </row>
-    <row r="170" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W170" s="171"/>
-      <c r="X170" s="189" t="s">
+    </row>
+    <row r="168" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W168" s="170"/>
+      <c r="X168" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Y170" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z170" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA170" s="186"/>
-      <c r="AB170" s="186"/>
-      <c r="AC170" s="186"/>
-      <c r="AD170" s="186"/>
-      <c r="AE170" s="186"/>
-      <c r="AF170" s="182"/>
-      <c r="AG170" s="182"/>
-    </row>
-    <row r="171" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W171" s="171"/>
-      <c r="X171" s="189" t="s">
+    </row>
+    <row r="169" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W169" s="170"/>
+      <c r="X169" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Y171" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z171" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA171" s="186"/>
-      <c r="AB171" s="186"/>
-      <c r="AC171" s="186"/>
-      <c r="AD171" s="186"/>
-      <c r="AE171" s="186"/>
-      <c r="AF171" s="182"/>
-      <c r="AG171" s="182"/>
-    </row>
-    <row r="172" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W172" s="171"/>
-      <c r="X172" s="189" t="s">
+    </row>
+    <row r="170" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W170" s="170"/>
+      <c r="X170" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Y172" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z172" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA172" s="186"/>
-      <c r="AB172" s="186"/>
-      <c r="AC172" s="186"/>
-      <c r="AD172" s="186"/>
-      <c r="AE172" s="186"/>
-      <c r="AF172" s="182"/>
-      <c r="AG172" s="182"/>
-    </row>
-    <row r="173" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W173" s="171"/>
-      <c r="X173" s="189" t="s">
+    </row>
+    <row r="171" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W171" s="170"/>
+      <c r="X171" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Y173" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z173" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA173" s="186"/>
-      <c r="AB173" s="186"/>
-      <c r="AC173" s="186"/>
-      <c r="AD173" s="186"/>
-      <c r="AE173" s="186"/>
-      <c r="AF173" s="182"/>
-      <c r="AG173" s="182"/>
-    </row>
-    <row r="174" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W174" s="171"/>
-      <c r="X174" s="189" t="s">
+    </row>
+    <row r="172" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W172" s="170"/>
+      <c r="X172" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Y174" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z174" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA174" s="186"/>
-      <c r="AB174" s="186"/>
-      <c r="AC174" s="186"/>
-      <c r="AD174" s="186"/>
-      <c r="AE174" s="186"/>
-      <c r="AF174" s="182"/>
-      <c r="AG174" s="182"/>
-    </row>
-    <row r="175" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W175" s="171"/>
-      <c r="X175" s="189" t="s">
+    </row>
+    <row r="173" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W173" s="170"/>
+      <c r="X173" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Y175" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z175" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA175" s="186"/>
-      <c r="AB175" s="186"/>
-      <c r="AC175" s="186"/>
-      <c r="AD175" s="186"/>
-      <c r="AE175" s="186"/>
-      <c r="AF175" s="182"/>
-      <c r="AG175" s="182"/>
-    </row>
-    <row r="176" spans="22:33" x14ac:dyDescent="0.2">
-      <c r="W176" s="171"/>
-      <c r="X176" s="189" t="s">
+    </row>
+    <row r="174" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W174" s="170"/>
+      <c r="X174" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Y176" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z176" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA176" s="186"/>
-      <c r="AB176" s="186"/>
-      <c r="AC176" s="186"/>
-      <c r="AD176" s="186"/>
-      <c r="AE176" s="186"/>
-      <c r="AF176" s="182"/>
-      <c r="AG176" s="182"/>
-    </row>
-    <row r="177" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W177" s="171"/>
-      <c r="X177" s="189" t="s">
+    </row>
+    <row r="175" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W175" s="170"/>
+      <c r="X175" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Y177" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z177" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA177" s="182"/>
-      <c r="AB177" s="182"/>
-      <c r="AC177" s="182"/>
-      <c r="AD177" s="182"/>
-      <c r="AE177" s="182"/>
-      <c r="AF177" s="182"/>
-      <c r="AG177" s="182"/>
-    </row>
-    <row r="178" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W178" s="171"/>
-      <c r="X178" s="189" t="s">
+    </row>
+    <row r="176" spans="23:26" x14ac:dyDescent="0.2">
+      <c r="W176" s="170"/>
+      <c r="X176" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Y178" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z178" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA178" s="182"/>
-      <c r="AB178" s="182"/>
-      <c r="AC178" s="182"/>
-      <c r="AD178" s="182"/>
-      <c r="AE178" s="182"/>
-      <c r="AF178" s="182"/>
-      <c r="AG178" s="182"/>
-    </row>
-    <row r="179" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W179" s="171"/>
-      <c r="X179" s="189" t="s">
+    </row>
+    <row r="177" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W177" s="170"/>
+      <c r="X177" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Y179" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z179" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA179" s="182"/>
-      <c r="AB179" s="182"/>
-      <c r="AC179" s="182"/>
-      <c r="AD179" s="182"/>
-      <c r="AE179" s="182"/>
-      <c r="AF179" s="182"/>
-      <c r="AG179" s="182"/>
-    </row>
-    <row r="180" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W180" s="171"/>
-      <c r="X180" s="189" t="s">
+    </row>
+    <row r="178" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W178" s="170"/>
+      <c r="X178" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Y180" s="182" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z180" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA180" s="182"/>
-      <c r="AB180" s="182"/>
-      <c r="AC180" s="182"/>
-      <c r="AD180" s="182"/>
-      <c r="AE180" s="182"/>
-      <c r="AF180" s="182"/>
-      <c r="AG180" s="182"/>
-    </row>
-    <row r="181" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W181" s="171"/>
-      <c r="X181" s="189" t="s">
+    </row>
+    <row r="179" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W179" s="170"/>
+      <c r="X179" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Y181" s="184" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z181" s="184" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA181" s="182"/>
-      <c r="AB181" s="182"/>
-      <c r="AC181" s="182"/>
-      <c r="AD181" s="182"/>
-      <c r="AE181" s="182"/>
-      <c r="AF181" s="182"/>
-      <c r="AG181" s="182"/>
-    </row>
-    <row r="182" spans="23:33" x14ac:dyDescent="0.2">
-      <c r="W182" s="175"/>
-      <c r="X182" s="190" t="s">
+    </row>
+    <row r="180" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W180" s="170"/>
+      <c r="X180" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Y182" s="185" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z182" s="185" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA182" s="13"/>
-      <c r="AB182" s="13"/>
-      <c r="AC182" s="13"/>
-      <c r="AD182" s="13"/>
-      <c r="AE182" s="13"/>
-      <c r="AF182" s="13"/>
-      <c r="AG182" s="13"/>
+    </row>
+    <row r="181" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W181" s="169" t="s">
+        <v>82</v>
+      </c>
+      <c r="X181" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W182" s="170"/>
+      <c r="X182" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W183" s="170"/>
+      <c r="X183" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W184" s="170"/>
+      <c r="X184" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W185" s="170"/>
+      <c r="X185" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W186" s="170"/>
+      <c r="X186" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W187" s="170"/>
+      <c r="X187" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W188" s="170"/>
+      <c r="X188" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W189" s="170"/>
+      <c r="X189" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W190" s="170"/>
+      <c r="X190" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W191" s="170"/>
+      <c r="X191" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W192" s="170"/>
+      <c r="X192" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W193" s="170"/>
+      <c r="X193" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W194" s="170"/>
+      <c r="X194" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W195" s="170"/>
+      <c r="X195" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W196" s="170"/>
+      <c r="X196" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="197" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W197" s="170"/>
+      <c r="X197" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W198" s="170"/>
+      <c r="X198" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="199" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W199" s="170"/>
+      <c r="X199" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="W114:AG182" xr:uid="{E119337B-178C-1641-8548-9AE40C5AB899}"/>
-  <mergeCells count="21">
+  <mergeCells count="15">
     <mergeCell ref="W113:AF113"/>
     <mergeCell ref="W115:W138"/>
     <mergeCell ref="W139:W161"/>
-    <mergeCell ref="W162:W182"/>
-    <mergeCell ref="X166:X168"/>
-    <mergeCell ref="X156:X157"/>
-    <mergeCell ref="X142:X145"/>
-    <mergeCell ref="X127:X132"/>
-    <mergeCell ref="AF127:AF132"/>
-    <mergeCell ref="AF142:AF145"/>
-    <mergeCell ref="AF156:AF157"/>
+    <mergeCell ref="W162:W180"/>
+    <mergeCell ref="W181:W199"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
@@ -20930,35 +20412,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="178" t="s">
+      <c r="A1" s="178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="176" t="s">
+      <c r="C1" s="175"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="178" t="s">
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="178" t="s">
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="177"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="176"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="180"/>
+      <c r="A2" s="179"/>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>

--- a/Figures/summaries_csvs/model_summary.xlsx
+++ b/Figures/summaries_csvs/model_summary.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gift/Documents/Rprojects/project-harvest/Figures/summaries_csvs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B6C675-E072-FD4C-879B-79DE40FFEAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3426629E-C667-3343-9CE6-5CAEEC76D2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="660" windowWidth="27660" windowHeight="17500" activeTab="1" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="27660" windowHeight="16340" activeTab="4" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
   <sheets>
     <sheet name="exceedances" sheetId="1" r:id="rId1"/>
     <sheet name="pli+hds" sheetId="11" r:id="rId2"/>
     <sheet name="pli only" sheetId="9" r:id="rId3"/>
     <sheet name="overall individual" sheetId="12" r:id="rId4"/>
-    <sheet name="HDS" sheetId="3" r:id="rId5"/>
+    <sheet name="HDS" sheetId="13" r:id="rId5"/>
     <sheet name="PCAs" sheetId="2" r:id="rId6"/>
     <sheet name="exceedance%_overall" sheetId="4" r:id="rId7"/>
     <sheet name="exceedance%_com" sheetId="5" r:id="rId8"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11739" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11918" uniqueCount="473">
   <si>
     <t>Analyte</t>
   </si>
@@ -1575,6 +1575,66 @@
   <si>
     <t>Q60Plastic</t>
   </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>Table X. Model summaries for significant home description survey mixed models</t>
+  </si>
+  <si>
+    <t>TU - Q67
+Do you clean parts of your roof draining system?</t>
+  </si>
+  <si>
+    <t>hds question not significant</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>(Intercept)                -3.33716    0.45294 188.05922  -7.368 5.31e-12 ***</t>
+  </si>
+  <si>
+    <t>seasonMonsoon               0.59693    0.11211 158.15507   5.325 3.42e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q671                        0.37750    0.16712  48.97472   2.259   0.0284 *  </t>
+  </si>
+  <si>
+    <t>pH                          0.47586    0.07526 178.13601   6.323 2.01e-09 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonWinter:prox.normal   -0.20883    0.09158  68.48186  -2.280   0.0257 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonMonsoon:prox.normal   0.05164    0.13755 163.38622   0.375   0.7078    </t>
+  </si>
+  <si>
+    <t>GM - Q77
+Does your cistern have a screen or filter for incoming water from down spout on top of the tank?</t>
+  </si>
+  <si>
+    <t>(Intercept)     2.4349     0.1837 32.6992  13.257 1.06e-14 ***</t>
+  </si>
+  <si>
+    <t>seasonMonsoon   0.9362     0.1419 81.5937   6.596 3.92e-09 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prox.normal    -0.3093     0.1018 20.6389  -3.037  0.00635 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q771           -0.4216     0.2089 23.7079  -2.018  0.05508 .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept)  -0.3224     0.1156  -2.789 0.006393 ** </t>
+  </si>
+  <si>
+    <t>Q771         -0.4617     0.1335  -3.459 0.000816 ***</t>
+  </si>
+  <si>
+    <t>GM - Q79
+Do you ever NOT remove the screen or filter and leave your cistern without the filter?</t>
+  </si>
 </sst>
 </file>
 
@@ -2148,7 +2208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2470,17 +2530,14 @@
     <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2492,28 +2549,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2524,23 +2584,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2556,6 +2616,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3534,27 +3597,27 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="156" t="s">
+      <c r="M31" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="156"/>
-      <c r="Q31" s="156"/>
+      <c r="N31" s="168"/>
+      <c r="O31" s="168"/>
+      <c r="P31" s="168"/>
+      <c r="Q31" s="168"/>
     </row>
     <row r="32" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M32" s="157" t="s">
+      <c r="M32" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="155" t="s">
+      <c r="N32" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="155"/>
-      <c r="P32" s="155"/>
-      <c r="Q32" s="155"/>
+      <c r="O32" s="167"/>
+      <c r="P32" s="167"/>
+      <c r="Q32" s="167"/>
     </row>
     <row r="33" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="M33" s="158"/>
+      <c r="M33" s="163"/>
       <c r="N33" s="13" t="s">
         <v>21</v>
       </c>
@@ -3650,7 +3713,7 @@
       </c>
     </row>
     <row r="46" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y46" s="165" t="s">
+      <c r="Y46" s="161" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="8" t="s">
@@ -3664,7 +3727,7 @@
       </c>
     </row>
     <row r="47" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y47" s="166"/>
+      <c r="Y47" s="162"/>
       <c r="Z47" s="8">
         <v>0</v>
       </c>
@@ -3676,7 +3739,7 @@
       </c>
     </row>
     <row r="48" spans="13:29" x14ac:dyDescent="0.2">
-      <c r="Y48" s="166"/>
+      <c r="Y48" s="162"/>
       <c r="Z48" s="8">
         <v>0.5</v>
       </c>
@@ -3688,7 +3751,7 @@
       </c>
     </row>
     <row r="49" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y49" s="166"/>
+      <c r="Y49" s="162"/>
       <c r="Z49" s="8">
         <v>1</v>
       </c>
@@ -3700,7 +3763,7 @@
       </c>
     </row>
     <row r="50" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y50" s="166"/>
+      <c r="Y50" s="162"/>
       <c r="Z50" s="8">
         <v>1.5</v>
       </c>
@@ -3712,7 +3775,7 @@
       </c>
     </row>
     <row r="51" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y51" s="158"/>
+      <c r="Y51" s="163"/>
       <c r="Z51" s="11">
         <v>2</v>
       </c>
@@ -3725,7 +3788,7 @@
       <c r="AC51" s="13"/>
     </row>
     <row r="52" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y52" s="165" t="s">
+      <c r="Y52" s="161" t="s">
         <v>69</v>
       </c>
       <c r="Z52" s="1" t="s">
@@ -3734,62 +3797,62 @@
       <c r="AA52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC52" s="167" t="s">
+      <c r="AC52" s="164" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y53" s="166"/>
+      <c r="Y53" s="162"/>
       <c r="Z53" s="1">
         <v>0</v>
       </c>
       <c r="AA53" s="34">
         <v>6.1733623452348702E-2</v>
       </c>
-      <c r="AC53" s="169"/>
+      <c r="AC53" s="165"/>
     </row>
     <row r="54" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y54" s="166"/>
+      <c r="Y54" s="162"/>
       <c r="Z54" s="1">
         <v>2</v>
       </c>
       <c r="AA54" s="34">
         <v>1.20772053410085E-2</v>
       </c>
-      <c r="AC54" s="169"/>
+      <c r="AC54" s="165"/>
     </row>
     <row r="55" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y55" s="166"/>
+      <c r="Y55" s="162"/>
       <c r="Z55" s="1">
         <v>4</v>
       </c>
       <c r="AA55" s="31">
         <v>2.2662402083130201E-3</v>
       </c>
-      <c r="AC55" s="169"/>
+      <c r="AC55" s="165"/>
     </row>
     <row r="56" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y56" s="166"/>
+      <c r="Y56" s="162"/>
       <c r="Z56" s="1">
         <v>6</v>
       </c>
       <c r="AA56" s="28">
         <v>4.2184786680835203E-4</v>
       </c>
-      <c r="AC56" s="169"/>
+      <c r="AC56" s="165"/>
     </row>
     <row r="57" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y57" s="166"/>
+      <c r="Y57" s="162"/>
       <c r="Z57" s="1">
         <v>8</v>
       </c>
       <c r="AA57" s="28">
         <v>7.8406646322768398E-5</v>
       </c>
-      <c r="AC57" s="169"/>
+      <c r="AC57" s="165"/>
     </row>
     <row r="58" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y58" s="158"/>
+      <c r="Y58" s="163"/>
       <c r="Z58" s="13">
         <v>10</v>
       </c>
@@ -3797,10 +3860,10 @@
         <v>1.4568956039108299E-5</v>
       </c>
       <c r="AB58" s="13"/>
-      <c r="AC58" s="168"/>
+      <c r="AC58" s="166"/>
     </row>
     <row r="59" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y59" s="165" t="s">
+      <c r="Y59" s="161" t="s">
         <v>73</v>
       </c>
       <c r="Z59" s="1" t="s">
@@ -3809,72 +3872,72 @@
       <c r="AA59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC59" s="167" t="s">
+      <c r="AC59" s="164" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y60" s="166"/>
+      <c r="Y60" s="162"/>
       <c r="Z60" s="1">
         <v>0</v>
       </c>
       <c r="AA60" s="34">
         <v>4.213704983443E-2</v>
       </c>
-      <c r="AC60" s="169"/>
+      <c r="AC60" s="165"/>
     </row>
     <row r="61" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y61" s="166"/>
+      <c r="Y61" s="162"/>
       <c r="Z61" s="1">
         <v>4</v>
       </c>
       <c r="AA61" s="36">
         <v>0.70383460067707004</v>
       </c>
-      <c r="AC61" s="169"/>
+      <c r="AC61" s="165"/>
     </row>
     <row r="62" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y62" s="166"/>
+      <c r="Y62" s="162"/>
       <c r="Z62" s="1">
         <v>8</v>
       </c>
       <c r="AA62" s="36">
         <v>0.99227108557330002</v>
       </c>
-      <c r="AC62" s="169"/>
+      <c r="AC62" s="165"/>
     </row>
     <row r="63" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y63" s="166"/>
+      <c r="Y63" s="162"/>
       <c r="Z63" s="1">
         <v>12</v>
       </c>
       <c r="AA63" s="37">
         <v>0.99985583826317304</v>
       </c>
-      <c r="AC63" s="169"/>
+      <c r="AC63" s="165"/>
     </row>
     <row r="64" spans="25:29" x14ac:dyDescent="0.2">
-      <c r="Y64" s="166"/>
+      <c r="Y64" s="162"/>
       <c r="Z64" s="1">
         <v>16</v>
       </c>
       <c r="AA64" s="37">
         <v>0.99999733107778499</v>
       </c>
-      <c r="AC64" s="169"/>
+      <c r="AC64" s="165"/>
     </row>
     <row r="65" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y65" s="166"/>
+      <c r="Y65" s="162"/>
       <c r="Z65" s="1">
         <v>20</v>
       </c>
       <c r="AA65" s="37">
         <v>0.99999995059606805</v>
       </c>
-      <c r="AC65" s="169"/>
+      <c r="AC65" s="165"/>
     </row>
     <row r="66" spans="25:36" x14ac:dyDescent="0.2">
-      <c r="Y66" s="158"/>
+      <c r="Y66" s="163"/>
       <c r="Z66" s="13">
         <v>24</v>
       </c>
@@ -3882,7 +3945,7 @@
         <v>0.99999999908549497</v>
       </c>
       <c r="AB66" s="13"/>
-      <c r="AC66" s="168"/>
+      <c r="AC66" s="166"/>
     </row>
     <row r="71" spans="25:36" x14ac:dyDescent="0.2">
       <c r="AD71" s="1" t="s">
@@ -3931,7 +3994,7 @@
       </c>
     </row>
     <row r="74" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD74" s="167" t="s">
+      <c r="AD74" s="164" t="s">
         <v>9</v>
       </c>
       <c r="AE74" s="48" t="s">
@@ -3951,7 +4014,7 @@
       </c>
     </row>
     <row r="75" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="168"/>
+      <c r="AD75" s="166"/>
       <c r="AE75" s="49" t="s">
         <v>13</v>
       </c>
@@ -3969,7 +4032,7 @@
       </c>
     </row>
     <row r="76" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD76" s="167" t="s">
+      <c r="AD76" s="164" t="s">
         <v>10</v>
       </c>
       <c r="AE76" s="48" t="s">
@@ -3989,7 +4052,7 @@
       </c>
     </row>
     <row r="77" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD77" s="169"/>
+      <c r="AD77" s="165"/>
       <c r="AE77" s="50" t="s">
         <v>17</v>
       </c>
@@ -4007,7 +4070,7 @@
       </c>
     </row>
     <row r="78" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD78" s="168"/>
+      <c r="AD78" s="166"/>
       <c r="AE78" s="49" t="s">
         <v>12</v>
       </c>
@@ -4025,7 +4088,7 @@
       </c>
     </row>
     <row r="79" spans="25:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD79" s="167" t="s">
+      <c r="AD79" s="164" t="s">
         <v>11</v>
       </c>
       <c r="AE79" s="48" t="s">
@@ -4045,7 +4108,7 @@
       </c>
     </row>
     <row r="80" spans="25:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="169"/>
+      <c r="AD80" s="165"/>
       <c r="AE80" s="50" t="s">
         <v>19</v>
       </c>
@@ -4063,7 +4126,7 @@
       </c>
     </row>
     <row r="81" spans="30:47" ht="17" x14ac:dyDescent="0.2">
-      <c r="AD81" s="169"/>
+      <c r="AD81" s="165"/>
       <c r="AE81" s="50" t="s">
         <v>13</v>
       </c>
@@ -4081,7 +4144,7 @@
       </c>
     </row>
     <row r="82" spans="30:47" ht="34" x14ac:dyDescent="0.2">
-      <c r="AD82" s="168"/>
+      <c r="AD82" s="166"/>
       <c r="AE82" s="49" t="s">
         <v>15</v>
       </c>
@@ -4099,18 +4162,18 @@
       </c>
     </row>
     <row r="87" spans="30:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AL87" s="156" t="s">
+      <c r="AL87" s="168" t="s">
         <v>274</v>
       </c>
-      <c r="AM87" s="156"/>
-      <c r="AN87" s="156"/>
-      <c r="AO87" s="156"/>
-      <c r="AP87" s="156"/>
-      <c r="AQ87" s="156"/>
-      <c r="AR87" s="156"/>
-      <c r="AS87" s="156"/>
-      <c r="AT87" s="156"/>
-      <c r="AU87" s="156"/>
+      <c r="AM87" s="168"/>
+      <c r="AN87" s="168"/>
+      <c r="AO87" s="168"/>
+      <c r="AP87" s="168"/>
+      <c r="AQ87" s="168"/>
+      <c r="AR87" s="168"/>
+      <c r="AS87" s="168"/>
+      <c r="AT87" s="168"/>
+      <c r="AU87" s="168"/>
     </row>
     <row r="88" spans="30:47" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AL88" s="55" t="s">
@@ -4145,13 +4208,13 @@
       </c>
     </row>
     <row r="89" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL89" s="159" t="s">
+      <c r="AL89" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="AM89" s="162" t="s">
+      <c r="AM89" s="155" t="s">
         <v>279</v>
       </c>
-      <c r="AN89" s="165" t="s">
+      <c r="AN89" s="161" t="s">
         <v>13</v>
       </c>
       <c r="AO89" s="40" t="s">
@@ -4169,17 +4232,17 @@
       <c r="AS89" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT89" s="159" t="s">
+      <c r="AT89" s="158" t="s">
         <v>287</v>
       </c>
-      <c r="AU89" s="162" t="s">
+      <c r="AU89" s="155" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="90" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL90" s="160"/>
-      <c r="AM90" s="163"/>
-      <c r="AN90" s="166"/>
+      <c r="AL90" s="159"/>
+      <c r="AM90" s="156"/>
+      <c r="AN90" s="162"/>
       <c r="AO90" s="1" t="s">
         <v>68</v>
       </c>
@@ -4195,13 +4258,13 @@
       <c r="AS90" s="58">
         <v>1E-3</v>
       </c>
-      <c r="AT90" s="160"/>
-      <c r="AU90" s="163"/>
+      <c r="AT90" s="159"/>
+      <c r="AU90" s="156"/>
     </row>
     <row r="91" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL91" s="161"/>
-      <c r="AM91" s="164"/>
-      <c r="AN91" s="158"/>
+      <c r="AL91" s="160"/>
+      <c r="AM91" s="157"/>
+      <c r="AN91" s="163"/>
       <c r="AO91" s="13" t="s">
         <v>286</v>
       </c>
@@ -4217,17 +4280,17 @@
       <c r="AS91" s="59">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AT91" s="161"/>
-      <c r="AU91" s="164"/>
+      <c r="AT91" s="160"/>
+      <c r="AU91" s="157"/>
     </row>
     <row r="92" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL92" s="159" t="s">
+      <c r="AL92" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AM92" s="159" t="s">
+      <c r="AM92" s="158" t="s">
         <v>280</v>
       </c>
-      <c r="AN92" s="165" t="s">
+      <c r="AN92" s="161" t="s">
         <v>12</v>
       </c>
       <c r="AO92" s="40" t="s">
@@ -4245,17 +4308,17 @@
       <c r="AS92" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT92" s="159" t="s">
+      <c r="AT92" s="158" t="s">
         <v>287</v>
       </c>
-      <c r="AU92" s="162" t="s">
+      <c r="AU92" s="155" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL93" s="160"/>
-      <c r="AM93" s="160"/>
-      <c r="AN93" s="166"/>
+      <c r="AL93" s="159"/>
+      <c r="AM93" s="159"/>
+      <c r="AN93" s="162"/>
       <c r="AO93" s="1" t="s">
         <v>68</v>
       </c>
@@ -4271,13 +4334,13 @@
       <c r="AS93" s="58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AT93" s="160"/>
-      <c r="AU93" s="163"/>
+      <c r="AT93" s="159"/>
+      <c r="AU93" s="156"/>
     </row>
     <row r="94" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL94" s="160"/>
-      <c r="AM94" s="160"/>
-      <c r="AN94" s="166"/>
+      <c r="AL94" s="159"/>
+      <c r="AM94" s="159"/>
+      <c r="AN94" s="162"/>
       <c r="AO94" s="1" t="s">
         <v>286</v>
       </c>
@@ -4293,15 +4356,15 @@
       <c r="AS94" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT94" s="160"/>
-      <c r="AU94" s="163"/>
+      <c r="AT94" s="159"/>
+      <c r="AU94" s="156"/>
     </row>
     <row r="95" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL95" s="160"/>
-      <c r="AM95" s="163" t="s">
+      <c r="AL95" s="159"/>
+      <c r="AM95" s="156" t="s">
         <v>279</v>
       </c>
-      <c r="AN95" s="166" t="s">
+      <c r="AN95" s="162" t="s">
         <v>17</v>
       </c>
       <c r="AO95" t="s">
@@ -4319,17 +4382,17 @@
       <c r="AS95" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="AT95" s="160" t="s">
+      <c r="AT95" s="159" t="s">
         <v>287</v>
       </c>
-      <c r="AU95" s="163" t="s">
+      <c r="AU95" s="156" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="96" spans="30:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL96" s="160"/>
-      <c r="AM96" s="163"/>
-      <c r="AN96" s="166"/>
+      <c r="AL96" s="159"/>
+      <c r="AM96" s="156"/>
+      <c r="AN96" s="162"/>
       <c r="AO96" s="1" t="s">
         <v>68</v>
       </c>
@@ -4345,13 +4408,13 @@
       <c r="AS96" s="58">
         <v>2E-3</v>
       </c>
-      <c r="AT96" s="160"/>
-      <c r="AU96" s="163"/>
+      <c r="AT96" s="159"/>
+      <c r="AU96" s="156"/>
     </row>
     <row r="97" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL97" s="161"/>
-      <c r="AM97" s="164"/>
-      <c r="AN97" s="158"/>
+      <c r="AL97" s="160"/>
+      <c r="AM97" s="157"/>
+      <c r="AN97" s="163"/>
       <c r="AO97" s="13" t="s">
         <v>286</v>
       </c>
@@ -4367,17 +4430,17 @@
       <c r="AS97" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT97" s="161"/>
-      <c r="AU97" s="164"/>
+      <c r="AT97" s="160"/>
+      <c r="AU97" s="157"/>
     </row>
     <row r="98" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL98" s="159" t="s">
+      <c r="AL98" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AM98" s="162" t="s">
+      <c r="AM98" s="155" t="s">
         <v>279</v>
       </c>
-      <c r="AN98" s="165" t="s">
+      <c r="AN98" s="161" t="s">
         <v>13</v>
       </c>
       <c r="AO98" s="60" t="s">
@@ -4395,17 +4458,17 @@
       <c r="AS98" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="AT98" s="159" t="s">
+      <c r="AT98" s="158" t="s">
         <v>287</v>
       </c>
-      <c r="AU98" s="162" t="s">
+      <c r="AU98" s="155" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="99" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL99" s="160"/>
-      <c r="AM99" s="163"/>
-      <c r="AN99" s="166"/>
+      <c r="AL99" s="159"/>
+      <c r="AM99" s="156"/>
+      <c r="AN99" s="162"/>
       <c r="AO99" s="1" t="s">
         <v>68</v>
       </c>
@@ -4421,13 +4484,13 @@
       <c r="AS99" s="58">
         <v>0.04</v>
       </c>
-      <c r="AT99" s="160"/>
-      <c r="AU99" s="163"/>
+      <c r="AT99" s="159"/>
+      <c r="AU99" s="156"/>
     </row>
     <row r="100" spans="38:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL100" s="161"/>
-      <c r="AM100" s="164"/>
-      <c r="AN100" s="158"/>
+      <c r="AL100" s="160"/>
+      <c r="AM100" s="157"/>
+      <c r="AN100" s="163"/>
       <c r="AO100" s="13" t="s">
         <v>286</v>
       </c>
@@ -4443,28 +4506,11 @@
       <c r="AS100" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AT100" s="161"/>
-      <c r="AU100" s="164"/>
+      <c r="AT100" s="160"/>
+      <c r="AU100" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AM98:AM100"/>
-    <mergeCell ref="AL98:AL100"/>
-    <mergeCell ref="AL92:AL97"/>
-    <mergeCell ref="AM92:AM94"/>
-    <mergeCell ref="AM95:AM97"/>
-    <mergeCell ref="AU95:AU97"/>
-    <mergeCell ref="AT95:AT97"/>
-    <mergeCell ref="AT98:AT100"/>
-    <mergeCell ref="AU98:AU100"/>
-    <mergeCell ref="AN98:AN100"/>
-    <mergeCell ref="AN95:AN97"/>
-    <mergeCell ref="Y59:Y66"/>
-    <mergeCell ref="AC52:AC58"/>
-    <mergeCell ref="AC59:AC66"/>
-    <mergeCell ref="AT92:AT94"/>
-    <mergeCell ref="AU92:AU94"/>
-    <mergeCell ref="AN92:AN94"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="M31:Q31"/>
     <mergeCell ref="M32:M33"/>
@@ -4481,6 +4527,23 @@
     <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="Y46:Y51"/>
     <mergeCell ref="Y52:Y58"/>
+    <mergeCell ref="Y59:Y66"/>
+    <mergeCell ref="AC52:AC58"/>
+    <mergeCell ref="AC59:AC66"/>
+    <mergeCell ref="AT92:AT94"/>
+    <mergeCell ref="AU92:AU94"/>
+    <mergeCell ref="AN92:AN94"/>
+    <mergeCell ref="AU95:AU97"/>
+    <mergeCell ref="AT95:AT97"/>
+    <mergeCell ref="AT98:AT100"/>
+    <mergeCell ref="AU98:AU100"/>
+    <mergeCell ref="AN98:AN100"/>
+    <mergeCell ref="AN95:AN97"/>
+    <mergeCell ref="AM98:AM100"/>
+    <mergeCell ref="AL98:AL100"/>
+    <mergeCell ref="AL92:AL97"/>
+    <mergeCell ref="AM92:AM94"/>
+    <mergeCell ref="AM95:AM97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5468,7 +5531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C301AE6-CC50-864C-827E-D25EEF6A22D3}">
   <dimension ref="A2:AN173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I158" sqref="I158:I162"/>
     </sheetView>
   </sheetViews>
@@ -10814,7 +10877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6964B3A-A93B-A24A-8DF2-4AA66B6335FC}">
   <dimension ref="B3:AN237"/>
   <sheetViews>
-    <sheetView topLeftCell="O221" zoomScale="83" workbookViewId="0">
+    <sheetView topLeftCell="O172" zoomScale="83" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -10850,26 +10913,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="168" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
       <c r="T3" s="54"/>
     </row>
     <row r="4" spans="2:20" ht="60" thickTop="1" x14ac:dyDescent="0.2">
@@ -10929,7 +10992,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="173" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="85" t="s">
@@ -10943,7 +11006,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="176"/>
+      <c r="B6" s="174"/>
       <c r="C6" s="85" t="s">
         <v>16</v>
       </c>
@@ -10955,8 +11018,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="176"/>
-      <c r="C7" s="173" t="s">
+      <c r="B7" s="174"/>
+      <c r="C7" s="175" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -11008,8 +11071,8 @@
       <c r="T7" s="25"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="176"/>
-      <c r="C8" s="173"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="175"/>
       <c r="E8" s="77" t="s">
         <v>263</v>
       </c>
@@ -11038,8 +11101,8 @@
       <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="176"/>
-      <c r="C9" s="173" t="s">
+      <c r="B9" s="174"/>
+      <c r="C9" s="175" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -11087,8 +11150,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="176"/>
-      <c r="C10" s="173"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="175"/>
       <c r="E10" s="84" t="s">
         <v>263</v>
       </c>
@@ -11115,8 +11178,8 @@
       <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="176"/>
-      <c r="C11" s="173"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="175"/>
       <c r="E11" s="77" t="s">
         <v>32</v>
       </c>
@@ -11143,7 +11206,7 @@
       <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="176"/>
+      <c r="B12" s="174"/>
       <c r="C12" s="85" t="s">
         <v>35</v>
       </c>
@@ -11168,8 +11231,8 @@
       <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="176"/>
-      <c r="C13" s="173" t="s">
+      <c r="B13" s="174"/>
+      <c r="C13" s="175" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -11217,8 +11280,8 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="176"/>
-      <c r="C14" s="173"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="175"/>
       <c r="E14" s="77" t="s">
         <v>263</v>
       </c>
@@ -11245,8 +11308,8 @@
       <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="176"/>
-      <c r="C15" s="173" t="s">
+      <c r="B15" s="174"/>
+      <c r="C15" s="175" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -11294,8 +11357,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="176"/>
-      <c r="C16" s="173"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
       <c r="E16" s="77" t="s">
         <v>263</v>
       </c>
@@ -11322,7 +11385,7 @@
       <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="176"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="85" t="s">
         <v>36</v>
       </c>
@@ -11347,7 +11410,7 @@
       <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="176"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="85" t="s">
         <v>12</v>
       </c>
@@ -11372,8 +11435,8 @@
       <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="176"/>
-      <c r="C19" s="173" t="s">
+      <c r="B19" s="174"/>
+      <c r="C19" s="175" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -11423,8 +11486,8 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="176"/>
-      <c r="C20" s="173"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="175"/>
       <c r="E20" s="84" t="s">
         <v>263</v>
       </c>
@@ -11455,8 +11518,8 @@
       <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="176"/>
-      <c r="C21" s="173" t="s">
+      <c r="B21" s="174"/>
+      <c r="C21" s="175" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -11504,8 +11567,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="176"/>
-      <c r="C22" s="173"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="175"/>
       <c r="E22" s="77" t="s">
         <v>263</v>
       </c>
@@ -11532,8 +11595,8 @@
       <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="176"/>
-      <c r="C23" s="173" t="s">
+      <c r="B23" s="174"/>
+      <c r="C23" s="175" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -11579,8 +11642,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="176"/>
-      <c r="C24" s="173"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
       <c r="E24" s="77" t="s">
         <v>32</v>
       </c>
@@ -11607,8 +11670,8 @@
       <c r="R24" s="36"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="176"/>
-      <c r="C25" s="173" t="s">
+      <c r="B25" s="174"/>
+      <c r="C25" s="175" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -11656,8 +11719,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="176"/>
-      <c r="C26" s="173"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="175"/>
       <c r="E26" s="77" t="s">
         <v>263</v>
       </c>
@@ -11684,7 +11747,7 @@
       <c r="R26" s="36"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="176"/>
+      <c r="B27" s="174"/>
       <c r="C27" s="85" t="s">
         <v>20</v>
       </c>
@@ -11709,7 +11772,7 @@
       <c r="R27" s="36"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="176"/>
+      <c r="B28" s="174"/>
       <c r="C28" s="85" t="s">
         <v>33</v>
       </c>
@@ -11734,8 +11797,8 @@
       <c r="R28" s="36"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="176"/>
-      <c r="C29" s="173" t="s">
+      <c r="B29" s="174"/>
+      <c r="C29" s="175" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="39" t="s">
@@ -11781,8 +11844,8 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="176"/>
-      <c r="C30" s="173"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="175"/>
       <c r="D30" s="39"/>
       <c r="E30" s="77" t="s">
         <v>32</v>
@@ -11810,7 +11873,7 @@
       <c r="R30" s="36"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="176"/>
+      <c r="B31" s="174"/>
       <c r="C31" s="85" t="s">
         <v>41</v>
       </c>
@@ -11835,8 +11898,8 @@
       <c r="R31" s="36"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="176"/>
-      <c r="C32" s="173" t="s">
+      <c r="B32" s="174"/>
+      <c r="C32" s="175" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -11884,8 +11947,8 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="176"/>
-      <c r="C33" s="173"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="175"/>
       <c r="E33" s="77" t="s">
         <v>263</v>
       </c>
@@ -11912,8 +11975,8 @@
       <c r="R33" s="36"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="176"/>
-      <c r="C34" s="173"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="175"/>
       <c r="E34" s="77" t="s">
         <v>32</v>
       </c>
@@ -11940,7 +12003,7 @@
       <c r="R34" s="36"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="176"/>
+      <c r="B35" s="174"/>
       <c r="C35" s="86" t="s">
         <v>15</v>
       </c>
@@ -11965,10 +12028,10 @@
       <c r="R35" s="36"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="175" t="s">
+      <c r="B36" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="178" t="s">
+      <c r="C36" s="176" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -12016,8 +12079,8 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="176"/>
-      <c r="C37" s="173"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="175"/>
       <c r="E37" s="84" t="s">
         <v>414</v>
       </c>
@@ -12044,8 +12107,8 @@
       <c r="R37" s="36"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="176"/>
-      <c r="C38" s="173"/>
+      <c r="B38" s="174"/>
+      <c r="C38" s="175"/>
       <c r="E38" s="84" t="s">
         <v>415</v>
       </c>
@@ -12072,8 +12135,8 @@
       <c r="R38" s="36"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="176"/>
-      <c r="C39" s="173"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="175"/>
       <c r="E39" s="84" t="s">
         <v>32</v>
       </c>
@@ -12100,8 +12163,8 @@
       <c r="R39" s="36"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="176"/>
-      <c r="C40" s="173" t="s">
+      <c r="B40" s="174"/>
+      <c r="C40" s="175" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -12149,8 +12212,8 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="176"/>
-      <c r="C41" s="173"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="175"/>
       <c r="E41" s="77" t="s">
         <v>335</v>
       </c>
@@ -12179,8 +12242,8 @@
       <c r="R41" s="36"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="176"/>
-      <c r="C42" s="173" t="s">
+      <c r="B42" s="174"/>
+      <c r="C42" s="175" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -12228,8 +12291,8 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="176"/>
-      <c r="C43" s="173"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="175"/>
       <c r="E43" s="77" t="s">
         <v>263</v>
       </c>
@@ -12256,8 +12319,8 @@
       <c r="R43" s="36"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="176"/>
-      <c r="C44" s="173"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="175"/>
       <c r="E44" s="77" t="s">
         <v>32</v>
       </c>
@@ -12284,8 +12347,8 @@
       <c r="R44" s="36"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="176"/>
-      <c r="C45" s="173"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="175"/>
       <c r="E45" s="77" t="s">
         <v>335</v>
       </c>
@@ -12312,8 +12375,8 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="176"/>
-      <c r="C46" s="173" t="s">
+      <c r="B46" s="174"/>
+      <c r="C46" s="175" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -12363,8 +12426,8 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="176"/>
-      <c r="C47" s="173"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="175"/>
       <c r="E47" s="77" t="s">
         <v>263</v>
       </c>
@@ -12393,8 +12456,8 @@
       <c r="R47" s="36"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="176"/>
-      <c r="C48" s="173"/>
+      <c r="B48" s="174"/>
+      <c r="C48" s="175"/>
       <c r="E48" s="77" t="s">
         <v>335</v>
       </c>
@@ -12423,8 +12486,8 @@
       <c r="R48" s="36"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="176"/>
-      <c r="C49" s="173"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="175"/>
       <c r="E49" s="77" t="s">
         <v>32</v>
       </c>
@@ -12453,8 +12516,8 @@
       <c r="R49" s="36"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="176"/>
-      <c r="C50" s="173" t="s">
+      <c r="B50" s="174"/>
+      <c r="C50" s="175" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -12504,8 +12567,8 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="176"/>
-      <c r="C51" s="173"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="175"/>
       <c r="E51" s="77" t="s">
         <v>263</v>
       </c>
@@ -12534,8 +12597,8 @@
       <c r="R51" s="36"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="176"/>
-      <c r="C52" s="173"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="175"/>
       <c r="E52" s="77" t="s">
         <v>335</v>
       </c>
@@ -12564,8 +12627,8 @@
       <c r="R52" s="36"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="176"/>
-      <c r="C53" s="173" t="s">
+      <c r="B53" s="174"/>
+      <c r="C53" s="175" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -12615,8 +12678,8 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="176"/>
-      <c r="C54" s="173"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="175"/>
       <c r="E54" s="77" t="s">
         <v>263</v>
       </c>
@@ -12645,8 +12708,8 @@
       <c r="R54" s="36"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="176"/>
-      <c r="C55" s="173"/>
+      <c r="B55" s="174"/>
+      <c r="C55" s="175"/>
       <c r="E55" s="77" t="s">
         <v>335</v>
       </c>
@@ -12675,8 +12738,8 @@
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="176"/>
-      <c r="C56" s="173" t="s">
+      <c r="B56" s="174"/>
+      <c r="C56" s="175" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -12726,8 +12789,8 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="176"/>
-      <c r="C57" s="173"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="175"/>
       <c r="E57" s="77" t="s">
         <v>263</v>
       </c>
@@ -12756,8 +12819,8 @@
       <c r="R57" s="36"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="176"/>
-      <c r="C58" s="173" t="s">
+      <c r="B58" s="174"/>
+      <c r="C58" s="175" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -12807,8 +12870,8 @@
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="176"/>
-      <c r="C59" s="173"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="175"/>
       <c r="E59" s="77" t="s">
         <v>263</v>
       </c>
@@ -12837,8 +12900,8 @@
       <c r="R59" s="36"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="176"/>
-      <c r="C60" s="173" t="s">
+      <c r="B60" s="174"/>
+      <c r="C60" s="175" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -12888,8 +12951,8 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="176"/>
-      <c r="C61" s="173"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="175"/>
       <c r="E61" s="77" t="s">
         <v>263</v>
       </c>
@@ -12918,7 +12981,7 @@
       <c r="R61" s="36"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="176"/>
+      <c r="B62" s="174"/>
       <c r="C62" s="85" t="s">
         <v>19</v>
       </c>
@@ -12943,8 +13006,8 @@
       <c r="R62" s="36"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="176"/>
-      <c r="C63" s="173" t="s">
+      <c r="B63" s="174"/>
+      <c r="C63" s="175" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -12994,8 +13057,8 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="176"/>
-      <c r="C64" s="173"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="175"/>
       <c r="E64" s="77" t="s">
         <v>263</v>
       </c>
@@ -13024,8 +13087,8 @@
       <c r="R64" s="36"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="176"/>
-      <c r="C65" s="173" t="s">
+      <c r="B65" s="174"/>
+      <c r="C65" s="175" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -13075,8 +13138,8 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="176"/>
-      <c r="C66" s="173"/>
+      <c r="B66" s="174"/>
+      <c r="C66" s="175"/>
       <c r="E66" s="77" t="s">
         <v>263</v>
       </c>
@@ -13105,8 +13168,8 @@
       <c r="R66" s="36"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="176"/>
-      <c r="C67" s="173"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="175"/>
       <c r="E67" s="77" t="s">
         <v>335</v>
       </c>
@@ -13135,8 +13198,8 @@
       <c r="R67" s="36"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="176"/>
-      <c r="C68" s="173"/>
+      <c r="B68" s="174"/>
+      <c r="C68" s="175"/>
       <c r="E68" s="77" t="s">
         <v>32</v>
       </c>
@@ -13165,8 +13228,8 @@
       <c r="R68" s="36"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="176"/>
-      <c r="C69" s="173" t="s">
+      <c r="B69" s="174"/>
+      <c r="C69" s="175" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -13216,8 +13279,8 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="176"/>
-      <c r="C70" s="173"/>
+      <c r="B70" s="174"/>
+      <c r="C70" s="175"/>
       <c r="E70" s="77" t="s">
         <v>263</v>
       </c>
@@ -13246,8 +13309,8 @@
       <c r="R70" s="36"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="176"/>
-      <c r="C71" s="173" t="s">
+      <c r="B71" s="174"/>
+      <c r="C71" s="175" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -13297,8 +13360,8 @@
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="176"/>
-      <c r="C72" s="173"/>
+      <c r="B72" s="174"/>
+      <c r="C72" s="175"/>
       <c r="E72" s="77" t="s">
         <v>263</v>
       </c>
@@ -13327,8 +13390,8 @@
       <c r="R72" s="36"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="176"/>
-      <c r="C73" s="173"/>
+      <c r="B73" s="174"/>
+      <c r="C73" s="175"/>
       <c r="E73" s="77" t="s">
         <v>335</v>
       </c>
@@ -13357,7 +13420,7 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="176"/>
+      <c r="B74" s="174"/>
       <c r="C74" s="85" t="s">
         <v>33</v>
       </c>
@@ -13382,7 +13445,7 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="176"/>
+      <c r="B75" s="174"/>
       <c r="C75" s="85" t="s">
         <v>39</v>
       </c>
@@ -13407,8 +13470,8 @@
       <c r="R75" s="36"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="176"/>
-      <c r="C76" s="173" t="s">
+      <c r="B76" s="174"/>
+      <c r="C76" s="175" t="s">
         <v>41</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -13458,8 +13521,8 @@
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="176"/>
-      <c r="C77" s="173"/>
+      <c r="B77" s="174"/>
+      <c r="C77" s="175"/>
       <c r="E77" s="77" t="s">
         <v>263</v>
       </c>
@@ -13488,8 +13551,8 @@
       <c r="R77" s="36"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="176"/>
-      <c r="C78" s="173" t="s">
+      <c r="B78" s="174"/>
+      <c r="C78" s="175" t="s">
         <v>42</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -13539,8 +13602,8 @@
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="176"/>
-      <c r="C79" s="173"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="175"/>
       <c r="E79" s="77" t="s">
         <v>263</v>
       </c>
@@ -13569,8 +13632,8 @@
       <c r="R79" s="36"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="176"/>
-      <c r="C80" s="173" t="s">
+      <c r="B80" s="174"/>
+      <c r="C80" s="175" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -13621,7 +13684,7 @@
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="64"/>
-      <c r="C81" s="174"/>
+      <c r="C81" s="177"/>
       <c r="E81" s="77" t="s">
         <v>263</v>
       </c>
@@ -13650,7 +13713,7 @@
       <c r="R81" s="36"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="175" t="s">
+      <c r="B82" s="173" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="85" t="s">
@@ -13677,8 +13740,8 @@
       <c r="R82" s="36"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="176"/>
-      <c r="C83" s="173" t="s">
+      <c r="B83" s="174"/>
+      <c r="C83" s="175" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -13726,8 +13789,8 @@
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="176"/>
-      <c r="C84" s="173"/>
+      <c r="B84" s="174"/>
+      <c r="C84" s="175"/>
       <c r="E84" s="77" t="s">
         <v>263</v>
       </c>
@@ -13754,8 +13817,8 @@
       <c r="R84" s="36"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="176"/>
-      <c r="C85" s="173"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="175"/>
       <c r="E85" s="77" t="s">
         <v>335</v>
       </c>
@@ -13782,8 +13845,8 @@
       <c r="R85" s="36"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B86" s="176"/>
-      <c r="C86" s="173" t="s">
+      <c r="B86" s="174"/>
+      <c r="C86" s="175" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -13831,8 +13894,8 @@
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="176"/>
-      <c r="C87" s="173"/>
+      <c r="B87" s="174"/>
+      <c r="C87" s="175"/>
       <c r="E87" s="77" t="s">
         <v>263</v>
       </c>
@@ -13859,8 +13922,8 @@
       <c r="R87" s="36"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="176"/>
-      <c r="C88" s="173"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="175"/>
       <c r="E88" s="77" t="s">
         <v>335</v>
       </c>
@@ -13887,8 +13950,8 @@
       <c r="R88" s="36"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="176"/>
-      <c r="C89" s="173"/>
+      <c r="B89" s="174"/>
+      <c r="C89" s="175"/>
       <c r="E89" s="77" t="s">
         <v>32</v>
       </c>
@@ -13915,8 +13978,8 @@
       <c r="R89" s="36"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="176"/>
-      <c r="C90" s="173" t="s">
+      <c r="B90" s="174"/>
+      <c r="C90" s="175" t="s">
         <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -13966,8 +14029,8 @@
       </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="176"/>
-      <c r="C91" s="173"/>
+      <c r="B91" s="174"/>
+      <c r="C91" s="175"/>
       <c r="E91" s="77" t="s">
         <v>263</v>
       </c>
@@ -13996,8 +14059,8 @@
       <c r="R91" s="36"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="176"/>
-      <c r="C92" s="173"/>
+      <c r="B92" s="174"/>
+      <c r="C92" s="175"/>
       <c r="E92" s="77" t="s">
         <v>335</v>
       </c>
@@ -14026,7 +14089,7 @@
       <c r="R92" s="36"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="176"/>
+      <c r="B93" s="174"/>
       <c r="C93" s="85" t="s">
         <v>35</v>
       </c>
@@ -14051,8 +14114,8 @@
       <c r="R93" s="36"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="176"/>
-      <c r="C94" s="173" t="s">
+      <c r="B94" s="174"/>
+      <c r="C94" s="175" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -14102,8 +14165,8 @@
       </c>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="176"/>
-      <c r="C95" s="173"/>
+      <c r="B95" s="174"/>
+      <c r="C95" s="175"/>
       <c r="E95" s="77" t="s">
         <v>263</v>
       </c>
@@ -14132,8 +14195,8 @@
       <c r="R95" s="36"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="176"/>
-      <c r="C96" s="173"/>
+      <c r="B96" s="174"/>
+      <c r="C96" s="175"/>
       <c r="E96" s="77" t="s">
         <v>335</v>
       </c>
@@ -14162,8 +14225,8 @@
       <c r="R96" s="36"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="176"/>
-      <c r="C97" s="173"/>
+      <c r="B97" s="174"/>
+      <c r="C97" s="175"/>
       <c r="E97" s="77" t="s">
         <v>32</v>
       </c>
@@ -14192,8 +14255,8 @@
       <c r="R97" s="36"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="176"/>
-      <c r="C98" s="173" t="s">
+      <c r="B98" s="174"/>
+      <c r="C98" s="175" t="s">
         <v>37</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -14241,8 +14304,8 @@
       </c>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="176"/>
-      <c r="C99" s="173"/>
+      <c r="B99" s="174"/>
+      <c r="C99" s="175"/>
       <c r="E99" s="77" t="s">
         <v>263</v>
       </c>
@@ -14269,8 +14332,8 @@
       <c r="R99" s="36"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="176"/>
-      <c r="C100" s="173"/>
+      <c r="B100" s="174"/>
+      <c r="C100" s="175"/>
       <c r="E100" s="77" t="s">
         <v>335</v>
       </c>
@@ -14297,8 +14360,8 @@
       <c r="R100" s="36"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B101" s="176"/>
-      <c r="C101" s="173" t="s">
+      <c r="B101" s="174"/>
+      <c r="C101" s="175" t="s">
         <v>36</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -14348,8 +14411,8 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="176"/>
-      <c r="C102" s="173"/>
+      <c r="B102" s="174"/>
+      <c r="C102" s="175"/>
       <c r="E102" s="77" t="s">
         <v>263</v>
       </c>
@@ -14378,8 +14441,8 @@
       <c r="R102" s="36"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="176"/>
-      <c r="C103" s="173" t="s">
+      <c r="B103" s="174"/>
+      <c r="C103" s="175" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -14427,8 +14490,8 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="176"/>
-      <c r="C104" s="173"/>
+      <c r="B104" s="174"/>
+      <c r="C104" s="175"/>
       <c r="E104" s="77" t="s">
         <v>263</v>
       </c>
@@ -14455,8 +14518,8 @@
       <c r="R104" s="36"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="176"/>
-      <c r="C105" s="173"/>
+      <c r="B105" s="174"/>
+      <c r="C105" s="175"/>
       <c r="E105" s="77" t="s">
         <v>335</v>
       </c>
@@ -14483,8 +14546,8 @@
       <c r="R105" s="36"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="176"/>
-      <c r="C106" s="173" t="s">
+      <c r="B106" s="174"/>
+      <c r="C106" s="175" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -14534,8 +14597,8 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="176"/>
-      <c r="C107" s="173"/>
+      <c r="B107" s="174"/>
+      <c r="C107" s="175"/>
       <c r="E107" s="77" t="s">
         <v>263</v>
       </c>
@@ -14564,8 +14627,8 @@
       <c r="R107" s="36"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="176"/>
-      <c r="C108" s="173"/>
+      <c r="B108" s="174"/>
+      <c r="C108" s="175"/>
       <c r="E108" s="77" t="s">
         <v>32</v>
       </c>
@@ -14594,8 +14657,8 @@
       <c r="R108" s="36"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="176"/>
-      <c r="C109" s="173" t="s">
+      <c r="B109" s="174"/>
+      <c r="C109" s="175" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -14643,8 +14706,8 @@
       </c>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="176"/>
-      <c r="C110" s="173"/>
+      <c r="B110" s="174"/>
+      <c r="C110" s="175"/>
       <c r="E110" s="77" t="s">
         <v>263</v>
       </c>
@@ -14671,8 +14734,8 @@
       <c r="R110" s="36"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="176"/>
-      <c r="C111" s="173"/>
+      <c r="B111" s="174"/>
+      <c r="C111" s="175"/>
       <c r="E111" s="77" t="s">
         <v>335</v>
       </c>
@@ -14699,8 +14762,8 @@
       <c r="R111" s="36"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="176"/>
-      <c r="C112" s="173" t="s">
+      <c r="B112" s="174"/>
+      <c r="C112" s="175" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -14748,8 +14811,8 @@
       </c>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="176"/>
-      <c r="C113" s="173"/>
+      <c r="B113" s="174"/>
+      <c r="C113" s="175"/>
       <c r="E113" s="77" t="s">
         <v>263</v>
       </c>
@@ -14776,8 +14839,8 @@
       <c r="R113" s="36"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="176"/>
-      <c r="C114" s="173"/>
+      <c r="B114" s="174"/>
+      <c r="C114" s="175"/>
       <c r="E114" s="77" t="s">
         <v>335</v>
       </c>
@@ -14804,8 +14867,8 @@
       <c r="R114" s="36"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="176"/>
-      <c r="C115" s="173" t="s">
+      <c r="B115" s="174"/>
+      <c r="C115" s="175" t="s">
         <v>38</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -14853,8 +14916,8 @@
       </c>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="176"/>
-      <c r="C116" s="173"/>
+      <c r="B116" s="174"/>
+      <c r="C116" s="175"/>
       <c r="E116" s="77" t="s">
         <v>263</v>
       </c>
@@ -14881,8 +14944,8 @@
       <c r="R116" s="36"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="176"/>
-      <c r="C117" s="173" t="s">
+      <c r="B117" s="174"/>
+      <c r="C117" s="175" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -14932,8 +14995,8 @@
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="176"/>
-      <c r="C118" s="173"/>
+      <c r="B118" s="174"/>
+      <c r="C118" s="175"/>
       <c r="E118" s="77" t="s">
         <v>263</v>
       </c>
@@ -14962,8 +15025,8 @@
       <c r="R118" s="36"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="176"/>
-      <c r="C119" s="173"/>
+      <c r="B119" s="174"/>
+      <c r="C119" s="175"/>
       <c r="E119" s="77" t="s">
         <v>335</v>
       </c>
@@ -14992,8 +15055,8 @@
       <c r="R119" s="36"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="176"/>
-      <c r="C120" s="173" t="s">
+      <c r="B120" s="174"/>
+      <c r="C120" s="175" t="s">
         <v>33</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -15041,8 +15104,8 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="176"/>
-      <c r="C121" s="173"/>
+      <c r="B121" s="174"/>
+      <c r="C121" s="175"/>
       <c r="E121" s="77" t="s">
         <v>263</v>
       </c>
@@ -15069,8 +15132,8 @@
       <c r="R121" s="36"/>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="176"/>
-      <c r="C122" s="173"/>
+      <c r="B122" s="174"/>
+      <c r="C122" s="175"/>
       <c r="E122" s="77" t="s">
         <v>335</v>
       </c>
@@ -15097,8 +15160,8 @@
       <c r="R122" s="36"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="176"/>
-      <c r="C123" s="173" t="s">
+      <c r="B123" s="174"/>
+      <c r="C123" s="175" t="s">
         <v>39</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -15146,8 +15209,8 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="176"/>
-      <c r="C124" s="173"/>
+      <c r="B124" s="174"/>
+      <c r="C124" s="175"/>
       <c r="E124" s="77" t="s">
         <v>263</v>
       </c>
@@ -15174,8 +15237,8 @@
       <c r="R124" s="36"/>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="176"/>
-      <c r="C125" s="173" t="s">
+      <c r="B125" s="174"/>
+      <c r="C125" s="175" t="s">
         <v>41</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -15223,8 +15286,8 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="176"/>
-      <c r="C126" s="173"/>
+      <c r="B126" s="174"/>
+      <c r="C126" s="175"/>
       <c r="E126" s="77" t="s">
         <v>263</v>
       </c>
@@ -15251,8 +15314,8 @@
       <c r="R126" s="36"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="176"/>
-      <c r="C127" s="173" t="s">
+      <c r="B127" s="174"/>
+      <c r="C127" s="175" t="s">
         <v>42</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -15302,8 +15365,8 @@
       </c>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="176"/>
-      <c r="C128" s="173"/>
+      <c r="B128" s="174"/>
+      <c r="C128" s="175"/>
       <c r="E128" s="77" t="s">
         <v>263</v>
       </c>
@@ -15332,8 +15395,8 @@
       <c r="R128" s="36"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="176"/>
-      <c r="C129" s="173" t="s">
+      <c r="B129" s="174"/>
+      <c r="C129" s="175" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -15384,7 +15447,7 @@
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="63"/>
-      <c r="C130" s="174"/>
+      <c r="C130" s="177"/>
       <c r="E130" s="77" t="s">
         <v>263</v>
       </c>
@@ -15413,10 +15476,10 @@
       <c r="R130" s="36"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="175" t="s">
+      <c r="B131" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="C131" s="178" t="s">
+      <c r="C131" s="176" t="s">
         <v>40</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -15464,8 +15527,8 @@
       </c>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="176"/>
-      <c r="C132" s="173"/>
+      <c r="B132" s="174"/>
+      <c r="C132" s="175"/>
       <c r="E132" s="77" t="s">
         <v>263</v>
       </c>
@@ -15492,8 +15555,8 @@
       <c r="R132" s="36"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="176"/>
-      <c r="C133" s="173" t="s">
+      <c r="B133" s="174"/>
+      <c r="C133" s="175" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -15541,8 +15604,8 @@
       </c>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B134" s="176"/>
-      <c r="C134" s="173"/>
+      <c r="B134" s="174"/>
+      <c r="C134" s="175"/>
       <c r="E134" s="77" t="s">
         <v>32</v>
       </c>
@@ -15571,8 +15634,8 @@
       <c r="R134" s="36"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="176"/>
-      <c r="C135" s="173" t="s">
+      <c r="B135" s="174"/>
+      <c r="C135" s="175" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -15622,8 +15685,8 @@
       </c>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="176"/>
-      <c r="C136" s="173"/>
+      <c r="B136" s="174"/>
+      <c r="C136" s="175"/>
       <c r="E136" s="77" t="s">
         <v>263</v>
       </c>
@@ -15652,8 +15715,8 @@
       <c r="R136" s="36"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="176"/>
-      <c r="C137" s="173"/>
+      <c r="B137" s="174"/>
+      <c r="C137" s="175"/>
       <c r="E137" s="77" t="s">
         <v>32</v>
       </c>
@@ -15682,8 +15745,8 @@
       <c r="R137" s="36"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="176"/>
-      <c r="C138" s="173" t="s">
+      <c r="B138" s="174"/>
+      <c r="C138" s="175" t="s">
         <v>34</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -15733,8 +15796,8 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="176"/>
-      <c r="C139" s="173"/>
+      <c r="B139" s="174"/>
+      <c r="C139" s="175"/>
       <c r="E139" s="77" t="s">
         <v>263</v>
       </c>
@@ -15763,8 +15826,8 @@
       <c r="R139" s="36"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B140" s="176"/>
-      <c r="C140" s="173"/>
+      <c r="B140" s="174"/>
+      <c r="C140" s="175"/>
       <c r="E140" s="77" t="s">
         <v>32</v>
       </c>
@@ -15793,8 +15856,8 @@
       <c r="R140" s="36"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B141" s="176"/>
-      <c r="C141" s="173" t="s">
+      <c r="B141" s="174"/>
+      <c r="C141" s="175" t="s">
         <v>35</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -15840,8 +15903,8 @@
       </c>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B142" s="176"/>
-      <c r="C142" s="173"/>
+      <c r="B142" s="174"/>
+      <c r="C142" s="175"/>
       <c r="E142" s="77" t="s">
         <v>32</v>
       </c>
@@ -15868,8 +15931,8 @@
       <c r="R142" s="36"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B143" s="176"/>
-      <c r="C143" s="173"/>
+      <c r="B143" s="174"/>
+      <c r="C143" s="175"/>
       <c r="E143" s="77" t="s">
         <v>335</v>
       </c>
@@ -15896,8 +15959,8 @@
       <c r="R143" s="36"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B144" s="176"/>
-      <c r="C144" s="173" t="s">
+      <c r="B144" s="174"/>
+      <c r="C144" s="175" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -15945,8 +16008,8 @@
       </c>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B145" s="176"/>
-      <c r="C145" s="173"/>
+      <c r="B145" s="174"/>
+      <c r="C145" s="175"/>
       <c r="E145" s="77" t="s">
         <v>32</v>
       </c>
@@ -15975,8 +16038,8 @@
       <c r="R145" s="36"/>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B146" s="176"/>
-      <c r="C146" s="173"/>
+      <c r="B146" s="174"/>
+      <c r="C146" s="175"/>
       <c r="E146" s="77" t="s">
         <v>413</v>
       </c>
@@ -16005,8 +16068,8 @@
       <c r="R146" s="36"/>
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B147" s="176"/>
-      <c r="C147" s="173" t="s">
+      <c r="B147" s="174"/>
+      <c r="C147" s="175" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -16056,8 +16119,8 @@
       </c>
     </row>
     <row r="148" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B148" s="176"/>
-      <c r="C148" s="173"/>
+      <c r="B148" s="174"/>
+      <c r="C148" s="175"/>
       <c r="E148" s="77" t="s">
         <v>263</v>
       </c>
@@ -16086,8 +16149,8 @@
       <c r="R148" s="36"/>
     </row>
     <row r="149" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B149" s="176"/>
-      <c r="C149" s="173"/>
+      <c r="B149" s="174"/>
+      <c r="C149" s="175"/>
       <c r="E149" s="77" t="s">
         <v>32</v>
       </c>
@@ -16116,8 +16179,8 @@
       <c r="R149" s="36"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B150" s="176"/>
-      <c r="C150" s="173" t="s">
+      <c r="B150" s="174"/>
+      <c r="C150" s="175" t="s">
         <v>36</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -16167,8 +16230,8 @@
       </c>
     </row>
     <row r="151" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B151" s="176"/>
-      <c r="C151" s="173"/>
+      <c r="B151" s="174"/>
+      <c r="C151" s="175"/>
       <c r="E151" s="77" t="s">
         <v>263</v>
       </c>
@@ -16197,8 +16260,8 @@
       <c r="R151" s="36"/>
     </row>
     <row r="152" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B152" s="176"/>
-      <c r="C152" s="173"/>
+      <c r="B152" s="174"/>
+      <c r="C152" s="175"/>
       <c r="E152" s="77" t="s">
         <v>32</v>
       </c>
@@ -16227,8 +16290,8 @@
       <c r="R152" s="36"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B153" s="176"/>
-      <c r="C153" s="173"/>
+      <c r="B153" s="174"/>
+      <c r="C153" s="175"/>
       <c r="E153" s="77" t="s">
         <v>444</v>
       </c>
@@ -16257,8 +16320,8 @@
       <c r="R153" s="36"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B154" s="176"/>
-      <c r="C154" s="173" t="s">
+      <c r="B154" s="174"/>
+      <c r="C154" s="175" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -16308,8 +16371,8 @@
       </c>
     </row>
     <row r="155" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B155" s="176"/>
-      <c r="C155" s="173"/>
+      <c r="B155" s="174"/>
+      <c r="C155" s="175"/>
       <c r="E155" s="1" t="s">
         <v>263</v>
       </c>
@@ -16338,7 +16401,7 @@
       <c r="R155" s="36"/>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B156" s="176"/>
+      <c r="B156" s="174"/>
       <c r="C156" s="85"/>
       <c r="E156" s="1" t="s">
         <v>335</v>
@@ -16368,7 +16431,7 @@
       <c r="R156" s="36"/>
     </row>
     <row r="157" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B157" s="176"/>
+      <c r="B157" s="174"/>
       <c r="C157" s="85"/>
       <c r="E157" s="1" t="s">
         <v>32</v>
@@ -16398,7 +16461,7 @@
       <c r="R157" s="36"/>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B158" s="176"/>
+      <c r="B158" s="174"/>
       <c r="C158" s="85"/>
       <c r="E158" s="1" t="s">
         <v>445</v>
@@ -16428,8 +16491,8 @@
       <c r="R158" s="36"/>
     </row>
     <row r="159" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B159" s="176"/>
-      <c r="C159" s="173" t="s">
+      <c r="B159" s="174"/>
+      <c r="C159" s="175" t="s">
         <v>19</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -16479,8 +16542,8 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B160" s="176"/>
-      <c r="C160" s="173"/>
+      <c r="B160" s="174"/>
+      <c r="C160" s="175"/>
       <c r="E160" s="77" t="s">
         <v>263</v>
       </c>
@@ -16509,8 +16572,8 @@
       <c r="R160" s="36"/>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B161" s="176"/>
-      <c r="C161" s="173" t="s">
+      <c r="B161" s="174"/>
+      <c r="C161" s="175" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -16560,8 +16623,8 @@
       </c>
     </row>
     <row r="162" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B162" s="176"/>
-      <c r="C162" s="173"/>
+      <c r="B162" s="174"/>
+      <c r="C162" s="175"/>
       <c r="E162" s="77" t="s">
         <v>263</v>
       </c>
@@ -16590,8 +16653,8 @@
       <c r="R162" s="36"/>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B163" s="176"/>
-      <c r="C163" s="173"/>
+      <c r="B163" s="174"/>
+      <c r="C163" s="175"/>
       <c r="E163" s="77" t="s">
         <v>32</v>
       </c>
@@ -16620,8 +16683,8 @@
       <c r="R163" s="36"/>
     </row>
     <row r="164" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B164" s="176"/>
-      <c r="C164" s="173" t="s">
+      <c r="B164" s="174"/>
+      <c r="C164" s="175" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -16671,8 +16734,8 @@
       </c>
     </row>
     <row r="165" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B165" s="176"/>
-      <c r="C165" s="173"/>
+      <c r="B165" s="174"/>
+      <c r="C165" s="175"/>
       <c r="E165" s="77" t="s">
         <v>263</v>
       </c>
@@ -16701,8 +16764,8 @@
       <c r="R165" s="36"/>
     </row>
     <row r="166" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B166" s="176"/>
-      <c r="C166" s="173"/>
+      <c r="B166" s="174"/>
+      <c r="C166" s="175"/>
       <c r="E166" s="77" t="s">
         <v>32</v>
       </c>
@@ -16731,8 +16794,8 @@
       <c r="R166" s="36"/>
     </row>
     <row r="167" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B167" s="176"/>
-      <c r="C167" s="173"/>
+      <c r="B167" s="174"/>
+      <c r="C167" s="175"/>
       <c r="E167" s="77" t="s">
         <v>392</v>
       </c>
@@ -16761,8 +16824,8 @@
       <c r="R167" s="36"/>
     </row>
     <row r="168" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B168" s="176"/>
-      <c r="C168" s="173"/>
+      <c r="B168" s="174"/>
+      <c r="C168" s="175"/>
       <c r="E168" s="77" t="s">
         <v>393</v>
       </c>
@@ -16791,8 +16854,8 @@
       <c r="R168" s="36"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B169" s="176"/>
-      <c r="C169" s="173"/>
+      <c r="B169" s="174"/>
+      <c r="C169" s="175"/>
       <c r="E169" s="77" t="s">
         <v>394</v>
       </c>
@@ -16821,8 +16884,8 @@
       <c r="R169" s="36"/>
     </row>
     <row r="170" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B170" s="176"/>
-      <c r="C170" s="173"/>
+      <c r="B170" s="174"/>
+      <c r="C170" s="175"/>
       <c r="E170" s="77" t="s">
         <v>395</v>
       </c>
@@ -16851,8 +16914,8 @@
       <c r="R170" s="36"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B171" s="176"/>
-      <c r="C171" s="173"/>
+      <c r="B171" s="174"/>
+      <c r="C171" s="175"/>
       <c r="E171" s="77" t="s">
         <v>396</v>
       </c>
@@ -16881,8 +16944,8 @@
       <c r="R171" s="36"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B172" s="176"/>
-      <c r="C172" s="173" t="s">
+      <c r="B172" s="174"/>
+      <c r="C172" s="175" t="s">
         <v>38</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -16932,8 +16995,8 @@
       </c>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B173" s="176"/>
-      <c r="C173" s="173"/>
+      <c r="B173" s="174"/>
+      <c r="C173" s="175"/>
       <c r="E173" s="77" t="s">
         <v>263</v>
       </c>
@@ -16962,8 +17025,8 @@
       <c r="R173" s="36"/>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B174" s="176"/>
-      <c r="C174" s="173"/>
+      <c r="B174" s="174"/>
+      <c r="C174" s="175"/>
       <c r="E174" s="77" t="s">
         <v>32</v>
       </c>
@@ -16992,8 +17055,8 @@
       <c r="R174" s="36"/>
     </row>
     <row r="175" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B175" s="176"/>
-      <c r="C175" s="173" t="s">
+      <c r="B175" s="174"/>
+      <c r="C175" s="175" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -17043,8 +17106,8 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B176" s="176"/>
-      <c r="C176" s="173"/>
+      <c r="B176" s="174"/>
+      <c r="C176" s="175"/>
       <c r="E176" s="77" t="s">
         <v>263</v>
       </c>
@@ -17073,8 +17136,8 @@
       <c r="R176" s="36"/>
     </row>
     <row r="177" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B177" s="176"/>
-      <c r="C177" s="173"/>
+      <c r="B177" s="174"/>
+      <c r="C177" s="175"/>
       <c r="E177" s="77" t="s">
         <v>32</v>
       </c>
@@ -17103,8 +17166,8 @@
       <c r="R177" s="36"/>
     </row>
     <row r="178" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B178" s="176"/>
-      <c r="C178" s="173"/>
+      <c r="B178" s="174"/>
+      <c r="C178" s="175"/>
       <c r="E178" s="77" t="s">
         <v>335</v>
       </c>
@@ -17133,8 +17196,8 @@
       <c r="R178" s="36"/>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B179" s="176"/>
-      <c r="C179" s="173" t="s">
+      <c r="B179" s="174"/>
+      <c r="C179" s="175" t="s">
         <v>33</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -17184,8 +17247,8 @@
       </c>
     </row>
     <row r="180" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B180" s="176"/>
-      <c r="C180" s="173"/>
+      <c r="B180" s="174"/>
+      <c r="C180" s="175"/>
       <c r="E180" s="77" t="s">
         <v>263</v>
       </c>
@@ -17214,8 +17277,8 @@
       <c r="R180" s="36"/>
     </row>
     <row r="181" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B181" s="176"/>
-      <c r="C181" s="173"/>
+      <c r="B181" s="174"/>
+      <c r="C181" s="175"/>
       <c r="E181" s="77" t="s">
         <v>32</v>
       </c>
@@ -17244,8 +17307,8 @@
       <c r="R181" s="36"/>
     </row>
     <row r="182" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B182" s="176"/>
-      <c r="C182" s="173"/>
+      <c r="B182" s="174"/>
+      <c r="C182" s="175"/>
       <c r="E182" s="77" t="s">
         <v>392</v>
       </c>
@@ -17274,8 +17337,8 @@
       <c r="R182" s="36"/>
     </row>
     <row r="183" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B183" s="176"/>
-      <c r="C183" s="173"/>
+      <c r="B183" s="174"/>
+      <c r="C183" s="175"/>
       <c r="E183" s="77" t="s">
         <v>393</v>
       </c>
@@ -17304,8 +17367,8 @@
       <c r="R183" s="36"/>
     </row>
     <row r="184" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B184" s="176"/>
-      <c r="C184" s="173"/>
+      <c r="B184" s="174"/>
+      <c r="C184" s="175"/>
       <c r="E184" s="77" t="s">
         <v>394</v>
       </c>
@@ -17334,8 +17397,8 @@
       <c r="R184" s="36"/>
     </row>
     <row r="185" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B185" s="176"/>
-      <c r="C185" s="173"/>
+      <c r="B185" s="174"/>
+      <c r="C185" s="175"/>
       <c r="E185" s="77" t="s">
         <v>395</v>
       </c>
@@ -17364,8 +17427,8 @@
       <c r="R185" s="36"/>
     </row>
     <row r="186" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B186" s="176"/>
-      <c r="C186" s="173"/>
+      <c r="B186" s="174"/>
+      <c r="C186" s="175"/>
       <c r="E186" s="77" t="s">
         <v>396</v>
       </c>
@@ -17394,8 +17457,8 @@
       <c r="R186" s="36"/>
     </row>
     <row r="187" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B187" s="176"/>
-      <c r="C187" s="173" t="s">
+      <c r="B187" s="174"/>
+      <c r="C187" s="175" t="s">
         <v>39</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -17443,8 +17506,8 @@
       </c>
     </row>
     <row r="188" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B188" s="176"/>
-      <c r="C188" s="173"/>
+      <c r="B188" s="174"/>
+      <c r="C188" s="175"/>
       <c r="E188" s="77" t="s">
         <v>263</v>
       </c>
@@ -17471,8 +17534,8 @@
       <c r="R188" s="36"/>
     </row>
     <row r="189" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B189" s="176"/>
-      <c r="C189" s="173" t="s">
+      <c r="B189" s="174"/>
+      <c r="C189" s="175" t="s">
         <v>41</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -17522,8 +17585,8 @@
       </c>
     </row>
     <row r="190" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B190" s="176"/>
-      <c r="C190" s="173"/>
+      <c r="B190" s="174"/>
+      <c r="C190" s="175"/>
       <c r="E190" s="77" t="s">
         <v>263</v>
       </c>
@@ -17552,8 +17615,8 @@
       <c r="R190" s="36"/>
     </row>
     <row r="191" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B191" s="176"/>
-      <c r="C191" s="173"/>
+      <c r="B191" s="174"/>
+      <c r="C191" s="175"/>
       <c r="E191" s="77" t="s">
         <v>335</v>
       </c>
@@ -17582,8 +17645,8 @@
       <c r="R191" s="36"/>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B192" s="176"/>
-      <c r="C192" s="173" t="s">
+      <c r="B192" s="174"/>
+      <c r="C192" s="175" t="s">
         <v>42</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -17633,8 +17696,8 @@
       </c>
     </row>
     <row r="193" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B193" s="176"/>
-      <c r="C193" s="173"/>
+      <c r="B193" s="174"/>
+      <c r="C193" s="175"/>
       <c r="E193" s="77" t="s">
         <v>263</v>
       </c>
@@ -17663,8 +17726,8 @@
       <c r="R193" s="36"/>
     </row>
     <row r="194" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B194" s="176"/>
-      <c r="C194" s="173"/>
+      <c r="B194" s="174"/>
+      <c r="C194" s="175"/>
       <c r="E194" s="77" t="s">
         <v>32</v>
       </c>
@@ -17693,8 +17756,8 @@
       <c r="R194" s="36"/>
     </row>
     <row r="195" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B195" s="176"/>
-      <c r="C195" s="173"/>
+      <c r="B195" s="174"/>
+      <c r="C195" s="175"/>
       <c r="E195" s="77" t="s">
         <v>335</v>
       </c>
@@ -17723,8 +17786,8 @@
       <c r="R195" s="36"/>
     </row>
     <row r="196" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B196" s="176"/>
-      <c r="C196" s="173" t="s">
+      <c r="B196" s="174"/>
+      <c r="C196" s="175" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -17774,8 +17837,8 @@
       </c>
     </row>
     <row r="197" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B197" s="176"/>
-      <c r="C197" s="173"/>
+      <c r="B197" s="174"/>
+      <c r="C197" s="175"/>
       <c r="E197" s="1" t="s">
         <v>263</v>
       </c>
@@ -17804,8 +17867,8 @@
       <c r="R197" s="36"/>
     </row>
     <row r="198" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B198" s="176"/>
-      <c r="C198" s="173"/>
+      <c r="B198" s="174"/>
+      <c r="C198" s="175"/>
       <c r="E198" s="1" t="s">
         <v>335</v>
       </c>
@@ -17834,8 +17897,8 @@
       <c r="R198" s="36"/>
     </row>
     <row r="199" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B199" s="176"/>
-      <c r="C199" s="173"/>
+      <c r="B199" s="174"/>
+      <c r="C199" s="175"/>
       <c r="E199" s="1" t="s">
         <v>32</v>
       </c>
@@ -17864,8 +17927,8 @@
       <c r="R199" s="36"/>
     </row>
     <row r="200" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B200" s="177"/>
-      <c r="C200" s="174"/>
+      <c r="B200" s="178"/>
+      <c r="C200" s="177"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13" t="s">
         <v>445</v>
@@ -17895,28 +17958,28 @@
       <c r="R200" s="87"/>
     </row>
     <row r="206" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U206" s="156" t="s">
+      <c r="U206" s="168" t="s">
         <v>349</v>
       </c>
-      <c r="V206" s="156"/>
-      <c r="W206" s="156"/>
-      <c r="X206" s="156"/>
-      <c r="Y206" s="156"/>
-      <c r="Z206" s="156"/>
-      <c r="AA206" s="156"/>
-      <c r="AB206" s="156"/>
-      <c r="AC206" s="156"/>
-      <c r="AD206" s="156"/>
-      <c r="AE206" s="156"/>
-      <c r="AF206" s="156"/>
-      <c r="AG206" s="156"/>
-      <c r="AH206" s="156"/>
-      <c r="AI206" s="156"/>
-      <c r="AJ206" s="156"/>
-      <c r="AK206" s="156"/>
-      <c r="AL206" s="156"/>
-      <c r="AM206" s="156"/>
-      <c r="AN206" s="156"/>
+      <c r="V206" s="168"/>
+      <c r="W206" s="168"/>
+      <c r="X206" s="168"/>
+      <c r="Y206" s="168"/>
+      <c r="Z206" s="168"/>
+      <c r="AA206" s="168"/>
+      <c r="AB206" s="168"/>
+      <c r="AC206" s="168"/>
+      <c r="AD206" s="168"/>
+      <c r="AE206" s="168"/>
+      <c r="AF206" s="168"/>
+      <c r="AG206" s="168"/>
+      <c r="AH206" s="168"/>
+      <c r="AI206" s="168"/>
+      <c r="AJ206" s="168"/>
+      <c r="AK206" s="168"/>
+      <c r="AL206" s="168"/>
+      <c r="AM206" s="168"/>
+      <c r="AN206" s="168"/>
     </row>
     <row r="207" spans="2:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U207" s="13" t="s">
@@ -18191,28 +18254,28 @@
       <c r="AN211" s="13"/>
     </row>
     <row r="213" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U213" s="156" t="s">
+      <c r="U213" s="168" t="s">
         <v>350</v>
       </c>
-      <c r="V213" s="156"/>
-      <c r="W213" s="156"/>
-      <c r="X213" s="156"/>
-      <c r="Y213" s="156"/>
-      <c r="Z213" s="156"/>
-      <c r="AA213" s="156"/>
-      <c r="AB213" s="156"/>
-      <c r="AC213" s="156"/>
-      <c r="AD213" s="156"/>
-      <c r="AE213" s="156"/>
-      <c r="AF213" s="156"/>
-      <c r="AG213" s="156"/>
-      <c r="AH213" s="156"/>
-      <c r="AI213" s="156"/>
-      <c r="AJ213" s="156"/>
-      <c r="AK213" s="156"/>
-      <c r="AL213" s="156"/>
-      <c r="AM213" s="156"/>
-      <c r="AN213" s="156"/>
+      <c r="V213" s="168"/>
+      <c r="W213" s="168"/>
+      <c r="X213" s="168"/>
+      <c r="Y213" s="168"/>
+      <c r="Z213" s="168"/>
+      <c r="AA213" s="168"/>
+      <c r="AB213" s="168"/>
+      <c r="AC213" s="168"/>
+      <c r="AD213" s="168"/>
+      <c r="AE213" s="168"/>
+      <c r="AF213" s="168"/>
+      <c r="AG213" s="168"/>
+      <c r="AH213" s="168"/>
+      <c r="AI213" s="168"/>
+      <c r="AJ213" s="168"/>
+      <c r="AK213" s="168"/>
+      <c r="AL213" s="168"/>
+      <c r="AM213" s="168"/>
+      <c r="AN213" s="168"/>
     </row>
     <row r="214" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U214" s="13" t="s">
@@ -18502,28 +18565,28 @@
       </c>
     </row>
     <row r="221" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U221" s="156" t="s">
+      <c r="U221" s="168" t="s">
         <v>352</v>
       </c>
-      <c r="V221" s="156"/>
-      <c r="W221" s="156"/>
-      <c r="X221" s="156"/>
-      <c r="Y221" s="156"/>
-      <c r="Z221" s="156"/>
-      <c r="AA221" s="156"/>
-      <c r="AB221" s="156"/>
-      <c r="AC221" s="156"/>
-      <c r="AD221" s="156"/>
-      <c r="AE221" s="156"/>
-      <c r="AF221" s="156"/>
-      <c r="AG221" s="156"/>
-      <c r="AH221" s="156"/>
-      <c r="AI221" s="156"/>
-      <c r="AJ221" s="156"/>
-      <c r="AK221" s="156"/>
-      <c r="AL221" s="156"/>
-      <c r="AM221" s="156"/>
-      <c r="AN221" s="156"/>
+      <c r="V221" s="168"/>
+      <c r="W221" s="168"/>
+      <c r="X221" s="168"/>
+      <c r="Y221" s="168"/>
+      <c r="Z221" s="168"/>
+      <c r="AA221" s="168"/>
+      <c r="AB221" s="168"/>
+      <c r="AC221" s="168"/>
+      <c r="AD221" s="168"/>
+      <c r="AE221" s="168"/>
+      <c r="AF221" s="168"/>
+      <c r="AG221" s="168"/>
+      <c r="AH221" s="168"/>
+      <c r="AI221" s="168"/>
+      <c r="AJ221" s="168"/>
+      <c r="AK221" s="168"/>
+      <c r="AL221" s="168"/>
+      <c r="AM221" s="168"/>
+      <c r="AN221" s="168"/>
     </row>
     <row r="222" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U222" s="13" t="s">
@@ -18800,28 +18863,28 @@
       <c r="AN226" s="26"/>
     </row>
     <row r="229" spans="21:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U229" s="156" t="s">
+      <c r="U229" s="168" t="s">
         <v>355</v>
       </c>
-      <c r="V229" s="156"/>
-      <c r="W229" s="156"/>
-      <c r="X229" s="156"/>
-      <c r="Y229" s="156"/>
-      <c r="Z229" s="156"/>
-      <c r="AA229" s="156"/>
-      <c r="AB229" s="156"/>
-      <c r="AC229" s="156"/>
-      <c r="AD229" s="156"/>
-      <c r="AE229" s="156"/>
-      <c r="AF229" s="156"/>
-      <c r="AG229" s="156"/>
-      <c r="AH229" s="156"/>
-      <c r="AI229" s="156"/>
-      <c r="AJ229" s="156"/>
-      <c r="AK229" s="156"/>
-      <c r="AL229" s="156"/>
-      <c r="AM229" s="156"/>
-      <c r="AN229" s="156"/>
+      <c r="V229" s="168"/>
+      <c r="W229" s="168"/>
+      <c r="X229" s="168"/>
+      <c r="Y229" s="168"/>
+      <c r="Z229" s="168"/>
+      <c r="AA229" s="168"/>
+      <c r="AB229" s="168"/>
+      <c r="AC229" s="168"/>
+      <c r="AD229" s="168"/>
+      <c r="AE229" s="168"/>
+      <c r="AF229" s="168"/>
+      <c r="AG229" s="168"/>
+      <c r="AH229" s="168"/>
+      <c r="AI229" s="168"/>
+      <c r="AJ229" s="168"/>
+      <c r="AK229" s="168"/>
+      <c r="AL229" s="168"/>
+      <c r="AM229" s="168"/>
+      <c r="AN229" s="168"/>
     </row>
     <row r="230" spans="21:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="U230" s="13" t="s">
@@ -19306,16 +19369,51 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="71">
-    <mergeCell ref="B3:S3"/>
-    <mergeCell ref="B5:B35"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C179:C186"/>
+    <mergeCell ref="U229:AN229"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="C196:C200"/>
+    <mergeCell ref="U206:AN206"/>
+    <mergeCell ref="U213:AN213"/>
+    <mergeCell ref="U221:AN221"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="B131:B200"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="C164:C171"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="C175:C178"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B82:B129"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C115:C116"/>
     <mergeCell ref="C71:C73"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C32:C34"/>
@@ -19332,62 +19430,27 @@
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C65:C68"/>
     <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="B82:B129"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B131:B200"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="C164:C171"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="C175:C178"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C179:C186"/>
-    <mergeCell ref="U229:AN229"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="C196:C200"/>
-    <mergeCell ref="U206:AN206"/>
-    <mergeCell ref="U213:AN213"/>
-    <mergeCell ref="U221:AN221"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B5:B35"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E119337B-178C-1641-8548-9AE40C5AB899}">
-  <dimension ref="B2:T107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49031F22-69BD-9741-AD11-BAAD49235E7B}">
+  <dimension ref="B1:AG199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H75" sqref="A75:XFD75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19402,15 +19465,20 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="46" t="s">
+        <v>454</v>
+      </c>
+    </row>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -19434,7 +19502,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="161" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -19448,7 +19516,7 @@
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="166"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
@@ -19457,7 +19525,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="166"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -19466,7 +19534,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="166"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
@@ -19475,7 +19543,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="158"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
@@ -19487,7 +19555,7 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="165" t="s">
+      <c r="B9" s="161" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -19501,7 +19569,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="166"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
@@ -19513,7 +19581,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="166"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -19525,7 +19593,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="166"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -19534,7 +19602,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="158"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -19546,7 +19614,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="161" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -19562,7 +19630,7 @@
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="166"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -19574,7 +19642,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="166"/>
+      <c r="B16" s="162"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -19589,7 +19657,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="166"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -19601,7 +19669,7 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="158"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="13" t="s">
         <v>13</v>
       </c>
@@ -19615,7 +19683,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="162" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -19626,7 +19694,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="166"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -19635,7 +19703,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="166"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -19644,7 +19712,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="166"/>
+      <c r="B22" s="162"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -19653,7 +19721,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="158"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
@@ -19664,19 +19732,24 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J29" s="46" t="s">
+        <v>454</v>
+      </c>
+    </row>
     <row r="30" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="156" t="s">
+      <c r="J30" s="168" t="s">
         <v>274</v>
       </c>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="156"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="156"/>
-      <c r="S30" s="156"/>
+      <c r="K30" s="168"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="168"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="168"/>
+      <c r="Q30" s="168"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
     </row>
     <row r="31" spans="2:20" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J31" s="55" t="s">
@@ -19711,7 +19784,7 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J32" s="175" t="s">
+      <c r="J32" s="173" t="s">
         <v>79</v>
       </c>
       <c r="K32" s="14" t="s">
@@ -19725,7 +19798,7 @@
       </c>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J33" s="176"/>
+      <c r="J33" s="174"/>
       <c r="K33" s="14" t="s">
         <v>16</v>
       </c>
@@ -19734,7 +19807,7 @@
       </c>
     </row>
     <row r="34" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J34" s="176"/>
+      <c r="J34" s="174"/>
       <c r="K34" s="14" t="s">
         <v>17</v>
       </c>
@@ -19743,7 +19816,7 @@
       </c>
     </row>
     <row r="35" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J35" s="176"/>
+      <c r="J35" s="174"/>
       <c r="K35" s="14" t="s">
         <v>34</v>
       </c>
@@ -19752,7 +19825,7 @@
       </c>
     </row>
     <row r="36" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J36" s="176"/>
+      <c r="J36" s="174"/>
       <c r="K36" s="14" t="s">
         <v>35</v>
       </c>
@@ -19761,7 +19834,7 @@
       </c>
     </row>
     <row r="37" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J37" s="176"/>
+      <c r="J37" s="174"/>
       <c r="K37" s="14" t="s">
         <v>18</v>
       </c>
@@ -19773,7 +19846,7 @@
       </c>
     </row>
     <row r="38" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J38" s="176"/>
+      <c r="J38" s="174"/>
       <c r="K38" s="14" t="s">
         <v>37</v>
       </c>
@@ -19782,7 +19855,7 @@
       </c>
     </row>
     <row r="39" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J39" s="176"/>
+      <c r="J39" s="174"/>
       <c r="K39" s="14" t="s">
         <v>36</v>
       </c>
@@ -19791,7 +19864,7 @@
       </c>
     </row>
     <row r="40" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J40" s="176"/>
+      <c r="J40" s="174"/>
       <c r="K40" s="14" t="s">
         <v>12</v>
       </c>
@@ -19803,7 +19876,7 @@
       </c>
     </row>
     <row r="41" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J41" s="176"/>
+      <c r="J41" s="174"/>
       <c r="K41" s="14" t="s">
         <v>19</v>
       </c>
@@ -19815,7 +19888,7 @@
       </c>
     </row>
     <row r="42" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J42" s="176"/>
+      <c r="J42" s="174"/>
       <c r="K42" s="14" t="s">
         <v>13</v>
       </c>
@@ -19827,7 +19900,7 @@
       </c>
     </row>
     <row r="43" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J43" s="176"/>
+      <c r="J43" s="174"/>
       <c r="K43" s="14" t="s">
         <v>14</v>
       </c>
@@ -19836,7 +19909,7 @@
       </c>
     </row>
     <row r="44" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J44" s="176"/>
+      <c r="J44" s="174"/>
       <c r="K44" s="14" t="s">
         <v>38</v>
       </c>
@@ -19845,7 +19918,7 @@
       </c>
     </row>
     <row r="45" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J45" s="176"/>
+      <c r="J45" s="174"/>
       <c r="K45" s="14" t="s">
         <v>20</v>
       </c>
@@ -19857,7 +19930,7 @@
       </c>
     </row>
     <row r="46" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J46" s="176"/>
+      <c r="J46" s="174"/>
       <c r="K46" s="14" t="s">
         <v>33</v>
       </c>
@@ -19866,7 +19939,7 @@
       </c>
     </row>
     <row r="47" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J47" s="176"/>
+      <c r="J47" s="174"/>
       <c r="K47" s="14" t="s">
         <v>39</v>
       </c>
@@ -19878,7 +19951,7 @@
       </c>
     </row>
     <row r="48" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J48" s="176"/>
+      <c r="J48" s="174"/>
       <c r="K48" s="14" t="s">
         <v>41</v>
       </c>
@@ -19887,7 +19960,7 @@
       </c>
     </row>
     <row r="49" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J49" s="176"/>
+      <c r="J49" s="174"/>
       <c r="K49" s="14" t="s">
         <v>42</v>
       </c>
@@ -19896,7 +19969,7 @@
       </c>
     </row>
     <row r="50" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J50" s="176"/>
+      <c r="J50" s="174"/>
       <c r="K50" s="15" t="s">
         <v>15</v>
       </c>
@@ -19905,7 +19978,7 @@
       </c>
     </row>
     <row r="51" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J51" s="175" t="s">
+      <c r="J51" s="173" t="s">
         <v>80</v>
       </c>
       <c r="K51" s="14" t="s">
@@ -19916,7 +19989,7 @@
       </c>
     </row>
     <row r="52" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J52" s="176"/>
+      <c r="J52" s="174"/>
       <c r="K52" s="14" t="s">
         <v>16</v>
       </c>
@@ -19925,7 +19998,7 @@
       </c>
     </row>
     <row r="53" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J53" s="176"/>
+      <c r="J53" s="174"/>
       <c r="K53" s="14" t="s">
         <v>17</v>
       </c>
@@ -19934,7 +20007,7 @@
       </c>
     </row>
     <row r="54" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J54" s="176"/>
+      <c r="J54" s="174"/>
       <c r="K54" s="14" t="s">
         <v>34</v>
       </c>
@@ -19943,7 +20016,7 @@
       </c>
     </row>
     <row r="55" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J55" s="176"/>
+      <c r="J55" s="174"/>
       <c r="K55" s="14" t="s">
         <v>35</v>
       </c>
@@ -19952,7 +20025,7 @@
       </c>
     </row>
     <row r="56" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J56" s="176"/>
+      <c r="J56" s="174"/>
       <c r="K56" s="14" t="s">
         <v>18</v>
       </c>
@@ -19961,7 +20034,7 @@
       </c>
     </row>
     <row r="57" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J57" s="176"/>
+      <c r="J57" s="174"/>
       <c r="K57" s="14" t="s">
         <v>37</v>
       </c>
@@ -19973,7 +20046,7 @@
       </c>
     </row>
     <row r="58" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J58" s="176"/>
+      <c r="J58" s="174"/>
       <c r="K58" s="14" t="s">
         <v>36</v>
       </c>
@@ -19982,7 +20055,7 @@
       </c>
     </row>
     <row r="59" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J59" s="176"/>
+      <c r="J59" s="174"/>
       <c r="K59" s="14" t="s">
         <v>12</v>
       </c>
@@ -19994,7 +20067,7 @@
       </c>
     </row>
     <row r="60" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J60" s="176"/>
+      <c r="J60" s="174"/>
       <c r="K60" s="14" t="s">
         <v>19</v>
       </c>
@@ -20003,7 +20076,7 @@
       </c>
     </row>
     <row r="61" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J61" s="176"/>
+      <c r="J61" s="174"/>
       <c r="K61" s="14" t="s">
         <v>13</v>
       </c>
@@ -20015,7 +20088,7 @@
       </c>
     </row>
     <row r="62" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J62" s="176"/>
+      <c r="J62" s="174"/>
       <c r="K62" s="14" t="s">
         <v>14</v>
       </c>
@@ -20024,7 +20097,7 @@
       </c>
     </row>
     <row r="63" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J63" s="176"/>
+      <c r="J63" s="174"/>
       <c r="K63" s="14" t="s">
         <v>38</v>
       </c>
@@ -20036,7 +20109,7 @@
       </c>
     </row>
     <row r="64" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J64" s="176"/>
+      <c r="J64" s="174"/>
       <c r="K64" s="14" t="s">
         <v>20</v>
       </c>
@@ -20048,7 +20121,7 @@
       </c>
     </row>
     <row r="65" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J65" s="176"/>
+      <c r="J65" s="174"/>
       <c r="K65" s="14" t="s">
         <v>33</v>
       </c>
@@ -20060,7 +20133,7 @@
       </c>
     </row>
     <row r="66" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J66" s="176"/>
+      <c r="J66" s="174"/>
       <c r="K66" s="14" t="s">
         <v>39</v>
       </c>
@@ -20072,7 +20145,7 @@
       </c>
     </row>
     <row r="67" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J67" s="176"/>
+      <c r="J67" s="174"/>
       <c r="K67" s="14" t="s">
         <v>41</v>
       </c>
@@ -20081,7 +20154,7 @@
       </c>
     </row>
     <row r="68" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J68" s="176"/>
+      <c r="J68" s="174"/>
       <c r="K68" s="14" t="s">
         <v>42</v>
       </c>
@@ -20093,7 +20166,7 @@
       </c>
     </row>
     <row r="69" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J69" s="176"/>
+      <c r="J69" s="174"/>
       <c r="K69" s="15" t="s">
         <v>15</v>
       </c>
@@ -20102,7 +20175,7 @@
       </c>
     </row>
     <row r="70" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J70" s="175" t="s">
+      <c r="J70" s="173" t="s">
         <v>81</v>
       </c>
       <c r="K70" s="14" t="s">
@@ -20116,7 +20189,7 @@
       </c>
     </row>
     <row r="71" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J71" s="176"/>
+      <c r="J71" s="174"/>
       <c r="K71" s="14" t="s">
         <v>16</v>
       </c>
@@ -20125,7 +20198,7 @@
       </c>
     </row>
     <row r="72" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J72" s="176"/>
+      <c r="J72" s="174"/>
       <c r="K72" s="14" t="s">
         <v>17</v>
       </c>
@@ -20137,7 +20210,7 @@
       </c>
     </row>
     <row r="73" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J73" s="176"/>
+      <c r="J73" s="174"/>
       <c r="K73" s="14" t="s">
         <v>34</v>
       </c>
@@ -20146,7 +20219,7 @@
       </c>
     </row>
     <row r="74" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J74" s="176"/>
+      <c r="J74" s="174"/>
       <c r="K74" s="14" t="s">
         <v>35</v>
       </c>
@@ -20155,7 +20228,7 @@
       </c>
     </row>
     <row r="75" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J75" s="176"/>
+      <c r="J75" s="174"/>
       <c r="K75" s="14" t="s">
         <v>18</v>
       </c>
@@ -20167,7 +20240,7 @@
       </c>
     </row>
     <row r="76" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J76" s="176"/>
+      <c r="J76" s="174"/>
       <c r="K76" s="14" t="s">
         <v>37</v>
       </c>
@@ -20176,7 +20249,7 @@
       </c>
     </row>
     <row r="77" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J77" s="176"/>
+      <c r="J77" s="174"/>
       <c r="K77" s="14" t="s">
         <v>36</v>
       </c>
@@ -20188,7 +20261,7 @@
       </c>
     </row>
     <row r="78" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J78" s="176"/>
+      <c r="J78" s="174"/>
       <c r="K78" s="14" t="s">
         <v>12</v>
       </c>
@@ -20197,7 +20270,7 @@
       </c>
     </row>
     <row r="79" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J79" s="176"/>
+      <c r="J79" s="174"/>
       <c r="K79" s="14" t="s">
         <v>19</v>
       </c>
@@ -20209,7 +20282,7 @@
       </c>
     </row>
     <row r="80" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J80" s="176"/>
+      <c r="J80" s="174"/>
       <c r="K80" s="14" t="s">
         <v>13</v>
       </c>
@@ -20221,7 +20294,7 @@
       </c>
     </row>
     <row r="81" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J81" s="176"/>
+      <c r="J81" s="174"/>
       <c r="K81" s="14" t="s">
         <v>14</v>
       </c>
@@ -20233,7 +20306,7 @@
       </c>
     </row>
     <row r="82" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J82" s="176"/>
+      <c r="J82" s="174"/>
       <c r="K82" s="14" t="s">
         <v>38</v>
       </c>
@@ -20248,7 +20321,7 @@
       </c>
     </row>
     <row r="83" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J83" s="176"/>
+      <c r="J83" s="174"/>
       <c r="K83" s="14" t="s">
         <v>20</v>
       </c>
@@ -20257,7 +20330,7 @@
       </c>
     </row>
     <row r="84" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J84" s="176"/>
+      <c r="J84" s="174"/>
       <c r="K84" s="14" t="s">
         <v>33</v>
       </c>
@@ -20266,7 +20339,7 @@
       </c>
     </row>
     <row r="85" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J85" s="176"/>
+      <c r="J85" s="174"/>
       <c r="K85" s="14" t="s">
         <v>39</v>
       </c>
@@ -20275,7 +20348,7 @@
       </c>
     </row>
     <row r="86" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J86" s="176"/>
+      <c r="J86" s="174"/>
       <c r="K86" s="14" t="s">
         <v>41</v>
       </c>
@@ -20290,7 +20363,7 @@
       </c>
     </row>
     <row r="87" spans="10:20" x14ac:dyDescent="0.2">
-  